--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -15,7 +15,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mg2wq4LVMDe+OCA+rTGkB3ToP79FQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mhPYvIAZe+KSNKlSZdTb24WkbCuPg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -84,6 +84,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
     </font>
     <font/>
     <font>
@@ -105,14 +109,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -164,12 +172,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$AQ$2</c:f>
+              <c:f>Active!$B$2:$AR$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -187,12 +195,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$AQ$3</c:f>
+              <c:f>Active!$B$3:$AR$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -210,12 +218,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$AQ$4</c:f>
+              <c:f>Active!$B$4:$AR$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -233,12 +241,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$AQ$5</c:f>
+              <c:f>Active!$B$5:$AR$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -256,12 +264,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$AQ$6</c:f>
+              <c:f>Active!$B$6:$AR$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -279,12 +287,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$AQ$7</c:f>
+              <c:f>Active!$B$7:$AR$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -302,12 +310,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$AQ$8</c:f>
+              <c:f>Active!$B$8:$AR$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -325,12 +333,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$AQ$9</c:f>
+              <c:f>Active!$B$9:$AR$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -348,12 +356,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$AQ$10</c:f>
+              <c:f>Active!$B$10:$AR$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -371,21 +379,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AQ$1</c:f>
+              <c:f>Active!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$AQ$11</c:f>
+              <c:f>Active!$B$11:$AR$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="280975540"/>
-        <c:axId val="1345462097"/>
+        <c:axId val="387876924"/>
+        <c:axId val="1403911779"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280975540"/>
+        <c:axId val="387876924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,10 +438,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1345462097"/>
+        <c:crossAx val="1403911779"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1345462097"/>
+        <c:axId val="1403911779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,7 +510,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280975540"/>
+        <c:crossAx val="387876924"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -561,29 +569,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Recovery Rate'!$A$2</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Recovery Rate'!$B$2:$AQ$2</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
               <c:f>'Recovery Rate'!$A$3</c:f>
             </c:strRef>
           </c:tx>
@@ -592,19 +577,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$AQ$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$AR$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Recovery Rate'!$A$4</c:f>
@@ -615,19 +600,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$AQ$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$AR$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Recovery Rate'!$A$5</c:f>
@@ -638,19 +623,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$AQ$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$AR$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Recovery Rate'!$A$6</c:f>
@@ -661,19 +646,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$AQ$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$AR$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'Recovery Rate'!$A$7</c:f>
@@ -684,19 +669,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$AQ$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$AR$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'Recovery Rate'!$A$8</c:f>
@@ -707,19 +692,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$AQ$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$AR$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>'Recovery Rate'!$A$9</c:f>
@@ -730,19 +715,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$AQ$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$AR$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>'Recovery Rate'!$A$10</c:f>
@@ -753,21 +738,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$AQ$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$AR$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1283918163"/>
-        <c:axId val="453931023"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Recovery Rate'!$A$11</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Recovery Rate'!$B$1:$AR$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Recovery Rate'!$B$11:$AR$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="1413960563"/>
+        <c:axId val="493563352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1283918163"/>
+        <c:axId val="1413960563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,10 +820,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453931023"/>
+        <c:crossAx val="493563352"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453931023"/>
+        <c:axId val="493563352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1283918163"/>
+        <c:crossAx val="1413960563"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -951,12 +959,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$AQ$3</c:f>
+              <c:f>'Death Rate'!$B$3:$AR$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -974,12 +982,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$AQ$4</c:f>
+              <c:f>'Death Rate'!$B$4:$AR$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -997,12 +1005,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$AQ$5</c:f>
+              <c:f>'Death Rate'!$B$5:$AR$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1020,12 +1028,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$AQ$6</c:f>
+              <c:f>'Death Rate'!$B$6:$AR$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1043,12 +1051,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$AQ$7</c:f>
+              <c:f>'Death Rate'!$B$7:$AR$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1066,12 +1074,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$AQ$8</c:f>
+              <c:f>'Death Rate'!$B$8:$AR$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1089,12 +1097,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$AQ$9</c:f>
+              <c:f>'Death Rate'!$B$9:$AR$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1112,12 +1120,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$AQ$10</c:f>
+              <c:f>'Death Rate'!$B$10:$AR$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1135,21 +1143,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AQ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$AR$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$11:$AQ$11</c:f>
+              <c:f>'Death Rate'!$B$11:$AR$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1516689224"/>
-        <c:axId val="483984242"/>
+        <c:axId val="1750349301"/>
+        <c:axId val="92229476"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1516689224"/>
+        <c:axId val="1750349301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,10 +1202,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483984242"/>
+        <c:crossAx val="92229476"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="483984242"/>
+        <c:axId val="92229476"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1274,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516689224"/>
+        <c:crossAx val="1750349301"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1316,7 +1324,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="88607165" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="88607165" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1350,7 +1358,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="700320620" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="700320620" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1598,7 +1606,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
@@ -1606,7 +1617,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="43" width="7.63"/>
+    <col customWidth="1" min="37" max="44" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1739,6 +1750,9 @@
       <c r="AQ1" s="2">
         <v>43958.0</v>
       </c>
+      <c r="AR1" s="3">
+        <v>43959.0</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1870,6 +1884,9 @@
       <c r="AQ2" s="1">
         <v>0.0</v>
       </c>
+      <c r="AR2" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2001,6 +2018,9 @@
       <c r="AQ3" s="1">
         <v>27.0</v>
       </c>
+      <c r="AR3" s="4">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -2132,6 +2152,9 @@
       <c r="AQ4" s="1">
         <v>40.0</v>
       </c>
+      <c r="AR4" s="4">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -2263,6 +2286,9 @@
       <c r="AQ5" s="1">
         <v>59.0</v>
       </c>
+      <c r="AR5" s="4">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2394,6 +2420,9 @@
       <c r="AQ6" s="1">
         <v>41.0</v>
       </c>
+      <c r="AR6" s="4">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2525,6 +2554,9 @@
       <c r="AQ7" s="1">
         <v>929.0</v>
       </c>
+      <c r="AR7" s="4">
+        <v>989.0</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -2656,6 +2688,9 @@
       <c r="AQ8" s="1">
         <v>134.0</v>
       </c>
+      <c r="AR8" s="4">
+        <v>133.0</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -2787,6 +2822,9 @@
       <c r="AQ9" s="1">
         <v>1204.0</v>
       </c>
+      <c r="AR9" s="4">
+        <v>1253.0</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -2918,6 +2956,9 @@
       <c r="AQ10" s="1">
         <v>3994.0</v>
       </c>
+      <c r="AR10" s="4">
+        <v>4497.0</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -3048,6 +3089,9 @@
       </c>
       <c r="AQ11" s="1">
         <v>1804.0</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>1851.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -4053,7 +4097,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
@@ -4061,7 +4108,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="43" width="7.63"/>
+    <col customWidth="1" min="37" max="44" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4194,6 +4241,9 @@
       <c r="AQ1" s="2">
         <v>43958.0</v>
       </c>
+      <c r="AR1" s="3">
+        <v>43959.0</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4325,6 +4375,9 @@
       <c r="AQ2" s="1">
         <v>0.0</v>
       </c>
+      <c r="AR2" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4456,6 +4509,9 @@
       <c r="AQ3" s="1">
         <v>0.0</v>
       </c>
+      <c r="AR3" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -4587,6 +4643,9 @@
       <c r="AQ4" s="1">
         <v>0.0</v>
       </c>
+      <c r="AR4" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -4718,6 +4777,9 @@
       <c r="AQ5" s="1">
         <v>0.0</v>
       </c>
+      <c r="AR5" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -4849,6 +4911,9 @@
       <c r="AQ6" s="1">
         <v>3.0</v>
       </c>
+      <c r="AR6" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -4980,6 +5045,9 @@
       <c r="AQ7" s="1">
         <v>18.0</v>
       </c>
+      <c r="AR7" s="4">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -5111,6 +5179,9 @@
       <c r="AQ8" s="1">
         <v>6.0</v>
       </c>
+      <c r="AR8" s="4">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -5242,6 +5313,9 @@
       <c r="AQ9" s="1">
         <v>40.0</v>
       </c>
+      <c r="AR9" s="4">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -5373,6 +5447,9 @@
       <c r="AQ10" s="1">
         <v>79.0</v>
       </c>
+      <c r="AR10" s="4">
+        <v>88.0</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -5503,6 +5580,9 @@
       </c>
       <c r="AQ11" s="1">
         <v>15.0</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>18.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -6508,7 +6588,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
@@ -6516,7 +6599,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="43" width="7.63"/>
+    <col customWidth="1" min="37" max="44" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -6649,6 +6732,9 @@
       <c r="AQ1" s="2">
         <v>43958.0</v>
       </c>
+      <c r="AR1" s="3">
+        <v>43959.0</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6780,6 +6866,9 @@
       <c r="AQ2" s="1">
         <v>0.0</v>
       </c>
+      <c r="AR2" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -6911,6 +7000,9 @@
       <c r="AQ3" s="1">
         <v>16.0</v>
       </c>
+      <c r="AR3" s="4">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -7042,6 +7134,9 @@
       <c r="AQ4" s="1">
         <v>20.0</v>
       </c>
+      <c r="AR4" s="4">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -7173,6 +7268,9 @@
       <c r="AQ5" s="1">
         <v>22.0</v>
       </c>
+      <c r="AR5" s="4">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -7304,6 +7402,9 @@
       <c r="AQ6" s="1">
         <v>27.0</v>
       </c>
+      <c r="AR6" s="4">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -7435,6 +7536,9 @@
       <c r="AQ7" s="1">
         <v>388.0</v>
       </c>
+      <c r="AR7" s="4">
+        <v>388.0</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -7566,6 +7670,9 @@
       <c r="AQ8" s="1">
         <v>102.0</v>
       </c>
+      <c r="AR8" s="4">
+        <v>102.0</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -7697,6 +7804,9 @@
       <c r="AQ9" s="1">
         <v>420.0</v>
       </c>
+      <c r="AR9" s="4">
+        <v>420.0</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -7828,6 +7938,9 @@
       <c r="AQ10" s="1">
         <v>1122.0</v>
       </c>
+      <c r="AR10" s="4">
+        <v>1122.0</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -7957,6 +8070,9 @@
         <v>1036.0</v>
       </c>
       <c r="AQ11" s="1">
+        <v>1036.0</v>
+      </c>
+      <c r="AR11" s="4">
         <v>1036.0</v>
       </c>
     </row>
@@ -8974,7 +9090,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="43" width="7.63"/>
+    <col customWidth="1" min="37" max="44" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -9107,6 +9223,9 @@
       <c r="AQ1" s="2">
         <v>43958.0</v>
       </c>
+      <c r="AR1" s="3">
+        <v>43959.0</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -9280,6 +9399,10 @@
         <f>Confirmed!AQ2-Deaths!AQ2-Recoveries!AQ2</f>
         <v>0</v>
       </c>
+      <c r="AR2" s="1">
+        <f>Confirmed!AR2-Deaths!AR2-Recoveries!AR2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -9453,6 +9576,10 @@
         <f>Confirmed!AQ3-Deaths!AQ3-Recoveries!AQ3</f>
         <v>11</v>
       </c>
+      <c r="AR3" s="1">
+        <f>Confirmed!AR3-Deaths!AR3-Recoveries!AR3</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9626,6 +9753,10 @@
         <f>Confirmed!AQ4-Deaths!AQ4-Recoveries!AQ4</f>
         <v>20</v>
       </c>
+      <c r="AR4" s="1">
+        <f>Confirmed!AR4-Deaths!AR4-Recoveries!AR4</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -9799,6 +9930,10 @@
         <f>Confirmed!AQ5-Deaths!AQ5-Recoveries!AQ5</f>
         <v>37</v>
       </c>
+      <c r="AR5" s="1">
+        <f>Confirmed!AR5-Deaths!AR5-Recoveries!AR5</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -9972,6 +10107,10 @@
         <f>Confirmed!AQ6-Deaths!AQ6-Recoveries!AQ6</f>
         <v>11</v>
       </c>
+      <c r="AR6" s="1">
+        <f>Confirmed!AR6-Deaths!AR6-Recoveries!AR6</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -10145,6 +10284,10 @@
         <f>Confirmed!AQ7-Deaths!AQ7-Recoveries!AQ7</f>
         <v>523</v>
       </c>
+      <c r="AR7" s="1">
+        <f>Confirmed!AR7-Deaths!AR7-Recoveries!AR7</f>
+        <v>580</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -10318,6 +10461,10 @@
         <f>Confirmed!AQ8-Deaths!AQ8-Recoveries!AQ8</f>
         <v>26</v>
       </c>
+      <c r="AR8" s="1">
+        <f>Confirmed!AR8-Deaths!AR8-Recoveries!AR8</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -10491,6 +10638,10 @@
         <f>Confirmed!AQ9-Deaths!AQ9-Recoveries!AQ9</f>
         <v>744</v>
       </c>
+      <c r="AR9" s="1">
+        <f>Confirmed!AR9-Deaths!AR9-Recoveries!AR9</f>
+        <v>791</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -10664,6 +10815,10 @@
         <f>Confirmed!AQ10-Deaths!AQ10-Recoveries!AQ10</f>
         <v>2793</v>
       </c>
+      <c r="AR10" s="1">
+        <f>Confirmed!AR10-Deaths!AR10-Recoveries!AR10</f>
+        <v>3287</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -10837,11 +10992,15 @@
         <f>Confirmed!AQ11-Deaths!AQ11-Recoveries!AQ11</f>
         <v>753</v>
       </c>
+      <c r="AR11" s="1">
+        <f>Confirmed!AR11-Deaths!AR11-Recoveries!AR11</f>
+        <v>797</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="AK14" s="4" t="s">
+      <c r="AK14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11856,7 +12015,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="43" width="7.63"/>
+    <col customWidth="1" min="37" max="44" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -11989,6 +12148,9 @@
       <c r="AQ1" s="2">
         <v>43958.0</v>
       </c>
+      <c r="AR1" s="3">
+        <v>43959.0</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -12162,6 +12324,10 @@
         <f>Confirmed!AQ2-Active!AQ2</f>
         <v>0</v>
       </c>
+      <c r="AR2" s="1">
+        <f>Confirmed!AR2-Active!AR2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -12335,6 +12501,10 @@
         <f>Confirmed!AQ3-Active!AQ3</f>
         <v>16</v>
       </c>
+      <c r="AR3" s="1">
+        <f>Confirmed!AR3-Active!AR3</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12508,6 +12678,10 @@
         <f>Confirmed!AQ4-Active!AQ4</f>
         <v>20</v>
       </c>
+      <c r="AR4" s="1">
+        <f>Confirmed!AR4-Active!AR4</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -12681,6 +12855,10 @@
         <f>Confirmed!AQ5-Active!AQ5</f>
         <v>22</v>
       </c>
+      <c r="AR5" s="1">
+        <f>Confirmed!AR5-Active!AR5</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -12854,6 +13032,10 @@
         <f>Confirmed!AQ6-Active!AQ6</f>
         <v>30</v>
       </c>
+      <c r="AR6" s="1">
+        <f>Confirmed!AR6-Active!AR6</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -13027,6 +13209,10 @@
         <f>Confirmed!AQ7-Active!AQ7</f>
         <v>406</v>
       </c>
+      <c r="AR7" s="1">
+        <f>Confirmed!AR7-Active!AR7</f>
+        <v>409</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -13200,6 +13386,10 @@
         <f>Confirmed!AQ8-Active!AQ8</f>
         <v>108</v>
       </c>
+      <c r="AR8" s="1">
+        <f>Confirmed!AR8-Active!AR8</f>
+        <v>108</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -13373,6 +13563,10 @@
         <f>Confirmed!AQ9-Active!AQ9</f>
         <v>460</v>
       </c>
+      <c r="AR9" s="1">
+        <f>Confirmed!AR9-Active!AR9</f>
+        <v>462</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -13546,6 +13740,10 @@
         <f>Confirmed!AQ10-Active!AQ10</f>
         <v>1201</v>
       </c>
+      <c r="AR10" s="1">
+        <f>Confirmed!AR10-Active!AR10</f>
+        <v>1210</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -13718,6 +13916,10 @@
       <c r="AQ11" s="1">
         <f>Confirmed!AQ11-Active!AQ11</f>
         <v>1051</v>
+      </c>
+      <c r="AR11" s="1">
+        <f>Confirmed!AR11-Active!AR11</f>
+        <v>1054</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -14734,11 +14936,11 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="43" width="7.63"/>
+    <col customWidth="1" min="37" max="44" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -14867,9 +15069,12 @@
       <c r="AQ1" s="2">
         <v>43958.0</v>
       </c>
+      <c r="AR1" s="3">
+        <v>43959.0</v>
+      </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -15040,9 +15245,13 @@
         <f>IF(Closed!AQ2&gt;0,100*Recoveries!AQ2/Closed!AQ2,100)</f>
         <v>100</v>
       </c>
+      <c r="AR2" s="1">
+        <f>IF(Closed!AR2&gt;0,100*Recoveries!AR2/Closed!AR2,100)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -15213,9 +15422,13 @@
         <f>IF(Closed!AQ3&gt;0,100*Recoveries!AQ3/Closed!AQ3,100)</f>
         <v>100</v>
       </c>
+      <c r="AR3" s="1">
+        <f>IF(Closed!AR3&gt;0,100*Recoveries!AR3/Closed!AR3,100)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -15386,9 +15599,13 @@
         <f>IF(Closed!AQ4&gt;0,100*Recoveries!AQ4/Closed!AQ4,100)</f>
         <v>100</v>
       </c>
+      <c r="AR4" s="1">
+        <f>IF(Closed!AR4&gt;0,100*Recoveries!AR4/Closed!AR4,100)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -15559,9 +15776,13 @@
         <f>IF(Closed!AQ5&gt;0,100*Recoveries!AQ5/Closed!AQ5,100)</f>
         <v>100</v>
       </c>
+      <c r="AR5" s="1">
+        <f>IF(Closed!AR5&gt;0,100*Recoveries!AR5/Closed!AR5,100)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -15732,9 +15953,13 @@
         <f>IF(Closed!AQ6&gt;0,100*Recoveries!AQ6/Closed!AQ6,100)</f>
         <v>90</v>
       </c>
+      <c r="AR6" s="1">
+        <f>IF(Closed!AR6&gt;0,100*Recoveries!AR6/Closed!AR6,100)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -15905,9 +16130,13 @@
         <f>IF(Closed!AQ7&gt;0,100*Recoveries!AQ7/Closed!AQ7,100)</f>
         <v>95.56650246</v>
       </c>
+      <c r="AR7" s="1">
+        <f>IF(Closed!AR7&gt;0,100*Recoveries!AR7/Closed!AR7,100)</f>
+        <v>94.86552567</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -16078,9 +16307,13 @@
         <f>IF(Closed!AQ8&gt;0,100*Recoveries!AQ8/Closed!AQ8,100)</f>
         <v>94.44444444</v>
       </c>
+      <c r="AR8" s="1">
+        <f>IF(Closed!AR8&gt;0,100*Recoveries!AR8/Closed!AR8,100)</f>
+        <v>94.44444444</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -16251,9 +16484,13 @@
         <f>IF(Closed!AQ9&gt;0,100*Recoveries!AQ9/Closed!AQ9,100)</f>
         <v>91.30434783</v>
       </c>
+      <c r="AR9" s="1">
+        <f>IF(Closed!AR9&gt;0,100*Recoveries!AR9/Closed!AR9,100)</f>
+        <v>90.90909091</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -16424,9 +16661,13 @@
         <f>IF(Closed!AQ10&gt;0,100*Recoveries!AQ10/Closed!AQ10,100)</f>
         <v>93.42214821</v>
       </c>
+      <c r="AR10" s="1">
+        <f>IF(Closed!AR10&gt;0,100*Recoveries!AR10/Closed!AR10,100)</f>
+        <v>92.72727273</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -16596,12 +16837,16 @@
       <c r="AQ11" s="1">
         <f>IF(Closed!AQ11&gt;0,100*Recoveries!AQ11/Closed!AQ11,100)</f>
         <v>98.57278782</v>
+      </c>
+      <c r="AR11" s="1">
+        <f>IF(Closed!AR11&gt;0,100*Recoveries!AR11/Closed!AR11,100)</f>
+        <v>98.29222011</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17619,7 +17864,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="43" width="7.63"/>
+    <col customWidth="1" min="37" max="44" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -17752,6 +17997,9 @@
       <c r="AQ1" s="2">
         <v>43958.0</v>
       </c>
+      <c r="AR1" s="3">
+        <v>43959.0</v>
+      </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -17925,6 +18173,10 @@
         <f>IF(Closed!AQ2&gt;0,100*Deaths!AQ2/Closed!AQ2,0)</f>
         <v>0</v>
       </c>
+      <c r="AR2" s="1">
+        <f>IF(Closed!AR2&gt;0,100*Deaths!AR2/Closed!AR2,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -18098,6 +18350,10 @@
         <f>IF(Closed!AQ3&gt;0,100*Deaths!AQ3/Closed!AQ3,0)</f>
         <v>0</v>
       </c>
+      <c r="AR3" s="1">
+        <f>IF(Closed!AR3&gt;0,100*Deaths!AR3/Closed!AR3,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -18271,6 +18527,10 @@
         <f>IF(Closed!AQ4&gt;0,100*Deaths!AQ4/Closed!AQ4,0)</f>
         <v>0</v>
       </c>
+      <c r="AR4" s="1">
+        <f>IF(Closed!AR4&gt;0,100*Deaths!AR4/Closed!AR4,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -18444,6 +18704,10 @@
         <f>IF(Closed!AQ5&gt;0,100*Deaths!AQ5/Closed!AQ5,0)</f>
         <v>0</v>
       </c>
+      <c r="AR5" s="1">
+        <f>IF(Closed!AR5&gt;0,100*Deaths!AR5/Closed!AR5,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -18617,6 +18881,10 @@
         <f>IF(Closed!AQ6&gt;0,100*Deaths!AQ6/Closed!AQ6,0)</f>
         <v>10</v>
       </c>
+      <c r="AR6" s="1">
+        <f>IF(Closed!AR6&gt;0,100*Deaths!AR6/Closed!AR6,0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -18790,6 +19058,10 @@
         <f>IF(Closed!AQ7&gt;0,100*Deaths!AQ7/Closed!AQ7,0)</f>
         <v>4.433497537</v>
       </c>
+      <c r="AR7" s="1">
+        <f>IF(Closed!AR7&gt;0,100*Deaths!AR7/Closed!AR7,0)</f>
+        <v>5.134474328</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -18963,6 +19235,10 @@
         <f>IF(Closed!AQ8&gt;0,100*Deaths!AQ8/Closed!AQ8,0)</f>
         <v>5.555555556</v>
       </c>
+      <c r="AR8" s="1">
+        <f>IF(Closed!AR8&gt;0,100*Deaths!AR8/Closed!AR8,0)</f>
+        <v>5.555555556</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -19136,6 +19412,10 @@
         <f>IF(Closed!AQ9&gt;0,100*Deaths!AQ9/Closed!AQ9,0)</f>
         <v>8.695652174</v>
       </c>
+      <c r="AR9" s="1">
+        <f>IF(Closed!AR9&gt;0,100*Deaths!AR9/Closed!AR9,0)</f>
+        <v>9.090909091</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -19309,6 +19589,10 @@
         <f>IF(Closed!AQ10&gt;0,100*Deaths!AQ10/Closed!AQ10,0)</f>
         <v>6.57785179</v>
       </c>
+      <c r="AR10" s="1">
+        <f>IF(Closed!AR10&gt;0,100*Deaths!AR10/Closed!AR10,0)</f>
+        <v>7.272727273</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -19481,13 +19765,17 @@
       <c r="AQ11" s="1">
         <f>IF(Closed!AQ11&gt;0,100*Deaths!AQ11/Closed!AQ11,0)</f>
         <v>1.427212179</v>
+      </c>
+      <c r="AR11" s="1">
+        <f>IF(Closed!AR11&gt;0,100*Deaths!AR11/Closed!AR11,0)</f>
+        <v>1.707779886</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -19,7 +19,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mh9xC5AUNtJ4TszMV5813pGcMEBSw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mgMQ9WBQrIeC1ERsXOX7KtGc8ogSQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -200,12 +200,6 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -222,6 +216,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -230,8 +230,8 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -519,11 +519,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="590528791"/>
-        <c:axId val="1499365975"/>
+        <c:axId val="1555755518"/>
+        <c:axId val="868457795"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="590528791"/>
+        <c:axId val="1555755518"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,10 +568,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499365975"/>
+        <c:crossAx val="868457795"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1499365975"/>
+        <c:axId val="868457795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590528791"/>
+        <c:crossAx val="1555755518"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -938,11 +938,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1938610896"/>
-        <c:axId val="979451361"/>
+        <c:axId val="988706281"/>
+        <c:axId val="1707678396"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1938610896"/>
+        <c:axId val="988706281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,10 +987,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="979451361"/>
+        <c:crossAx val="1707678396"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="979451361"/>
+        <c:axId val="1707678396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1059,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1938610896"/>
+        <c:crossAx val="988706281"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1140,8 +1140,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1405426215"/>
-        <c:axId val="1729819922"/>
+        <c:axId val="1953621288"/>
+        <c:axId val="464364076"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1351,11 +1351,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1405426215"/>
-        <c:axId val="1729819922"/>
+        <c:axId val="1953621288"/>
+        <c:axId val="464364076"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1405426215"/>
+        <c:axId val="1953621288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,10 +1400,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1729819922"/>
+        <c:crossAx val="464364076"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1729819922"/>
+        <c:axId val="464364076"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1472,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1405426215"/>
+        <c:crossAx val="1953621288"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1553,8 +1553,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="343157074"/>
-        <c:axId val="263481665"/>
+        <c:axId val="835956443"/>
+        <c:axId val="63390345"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1764,11 +1764,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="343157074"/>
-        <c:axId val="263481665"/>
+        <c:axId val="835956443"/>
+        <c:axId val="63390345"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343157074"/>
+        <c:axId val="835956443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,10 +1813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263481665"/>
+        <c:crossAx val="63390345"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263481665"/>
+        <c:axId val="63390345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1885,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343157074"/>
+        <c:crossAx val="835956443"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2146,11 +2146,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1843274161"/>
-        <c:axId val="845933694"/>
+        <c:axId val="58217004"/>
+        <c:axId val="1204562180"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1843274161"/>
+        <c:axId val="58217004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,10 +2195,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845933694"/>
+        <c:crossAx val="1204562180"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="845933694"/>
+        <c:axId val="1204562180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,7 +2267,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1843274161"/>
+        <c:crossAx val="58217004"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2533,11 +2533,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1657401390"/>
-        <c:axId val="1095867056"/>
+        <c:axId val="1962937958"/>
+        <c:axId val="622949600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1657401390"/>
+        <c:axId val="1962937958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,10 +2582,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1095867056"/>
+        <c:crossAx val="622949600"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1095867056"/>
+        <c:axId val="622949600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2654,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657401390"/>
+        <c:crossAx val="1962937958"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2735,8 +2735,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1353981976"/>
-        <c:axId val="1008784418"/>
+        <c:axId val="600019366"/>
+        <c:axId val="1488485850"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2946,11 +2946,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1353981976"/>
-        <c:axId val="1008784418"/>
+        <c:axId val="600019366"/>
+        <c:axId val="1488485850"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1353981976"/>
+        <c:axId val="600019366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,10 +2995,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1008784418"/>
+        <c:crossAx val="1488485850"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1008784418"/>
+        <c:axId val="1488485850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,7 +3067,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1353981976"/>
+        <c:crossAx val="600019366"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3109,7 +3109,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1261421000" name="Chart 6" title="Chart"/>
+        <xdr:cNvPr id="1261421000" name="Chart 5" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3139,7 +3139,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1879382530" name="Chart 7" title="Chart"/>
+        <xdr:cNvPr id="1879382530" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3199,7 +3199,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="891414374" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="891414374" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3237,7 +3237,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2142510870" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="2142510870" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3267,7 +3267,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="263283604" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="263283604" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3301,7 +3301,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1540763434" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="1540763434" name="Chart 4" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10040,1855 +10040,1855 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <f>Confirmed!B3/Testing!B3</f>
         <v>0.008695652174</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="22">
         <f>Confirmed!C3/Testing!C3</f>
         <v>0.01937984496</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <f>Confirmed!D3/Testing!D3</f>
         <v>0.02090592334</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <f>Confirmed!E3/Testing!E3</f>
         <v>0.009677419355</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="22">
         <f>Confirmed!F3/Testing!F3</f>
         <v>0.01807228916</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="22">
         <f>Confirmed!G3/Testing!G3</f>
         <v>0.01955307263</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="22">
         <f>Confirmed!H3/Testing!H3</f>
         <v>0.0180878553</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="22">
         <f>Confirmed!I3/Testing!I3</f>
         <v>0.0171990172</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="22">
         <f>Confirmed!J3/Testing!J3</f>
         <v>0.01605504587</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="22">
         <f>Confirmed!K3/Testing!K3</f>
         <v>0.0174291939</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="22">
         <f>Confirmed!L3/Testing!L3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="22">
         <f>Confirmed!M3/Testing!M3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="22">
         <f>Confirmed!N3/Testing!N3</f>
         <v>0.02524271845</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="22">
         <f>Confirmed!O3/Testing!O3</f>
         <v>0.02697841727</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="22">
         <f>Confirmed!P3/Testing!P3</f>
         <v>0.02542372881</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="22">
         <f>Confirmed!Q3/Testing!Q3</f>
         <v>0.02640264026</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="22">
         <f>Confirmed!R3/Testing!R3</f>
         <v>0.02472952087</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="22">
         <f>Confirmed!S3/Testing!S3</f>
         <v>0.02366863905</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="22">
         <f>Confirmed!T3/Testing!T3</f>
         <v>0.02275960171</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="22">
         <f>Confirmed!U3/Testing!U3</f>
         <v>0.0218878249</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="22">
         <f>Confirmed!V3/Testing!V3</f>
         <v>0.02083333333</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="22">
         <f>Confirmed!W3/Testing!W3</f>
         <v>0.01965601966</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="22">
         <f>Confirmed!X3/Testing!X3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="22">
         <f>Confirmed!Y3/Testing!Y3</f>
         <v>0.01727861771</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="22">
         <f>Confirmed!Z3/Testing!Z3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="22">
         <f>Confirmed!AA3/Testing!AA3</f>
         <v>0.0156097561</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB4" s="22">
         <f>Confirmed!AB3/Testing!AB3</f>
         <v>0.01481481481</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4" s="22">
         <f>Confirmed!AC3/Testing!AC3</f>
         <v>0.01380500431</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="22">
         <f>Confirmed!AD3/Testing!AD3</f>
         <v>0.01299756296</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="22">
         <f>Confirmed!AE3/Testing!AE3</f>
         <v>0.01230769231</v>
       </c>
-      <c r="AF4" s="21">
+      <c r="AF4" s="22">
         <f>Confirmed!AF3/Testing!AF3</f>
         <v>0.01248164464</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AG4" s="22">
         <f>Confirmed!AG3/Testing!AG3</f>
         <v>0.01179736294</v>
       </c>
-      <c r="AH4" s="21">
+      <c r="AH4" s="22">
         <f>Confirmed!AH3/Testing!AH3</f>
         <v>0.01134846462</v>
       </c>
-      <c r="AI4" s="21">
+      <c r="AI4" s="22">
         <f>Confirmed!AI3/Testing!AI3</f>
         <v>0.01067839196</v>
       </c>
-      <c r="AJ4" s="21">
+      <c r="AJ4" s="22">
         <f>Confirmed!AJ3/Testing!AJ3</f>
         <v>0.01014319809</v>
       </c>
-      <c r="AK4" s="21">
+      <c r="AK4" s="22">
         <f>Confirmed!AK3/Testing!AK3</f>
         <v>0.01024473534</v>
       </c>
-      <c r="AL4" s="21">
+      <c r="AL4" s="22">
         <f>Confirmed!AL3/Testing!AL3</f>
         <v>0.01234567901</v>
       </c>
-      <c r="AM4" s="21">
+      <c r="AM4" s="22">
         <f>Confirmed!AM3/Testing!AM3</f>
         <v>0.01209677419</v>
       </c>
-      <c r="AN4" s="21">
+      <c r="AN4" s="22">
         <f>Confirmed!AN3/Testing!AN3</f>
         <v>0.01201923077</v>
       </c>
-      <c r="AO4" s="21">
+      <c r="AO4" s="22">
         <f>Confirmed!AO3/Testing!AO3</f>
         <v>0.01200923788</v>
       </c>
-      <c r="AP4" s="21">
+      <c r="AP4" s="22">
         <f>Confirmed!AP3/Testing!AP3</f>
         <v>0.0115248227</v>
       </c>
-      <c r="AQ4" s="21">
+      <c r="AQ4" s="22">
         <f>Confirmed!AQ3/Testing!AQ3</f>
         <v>0.01144552777</v>
       </c>
-      <c r="AR4" s="21">
+      <c r="AR4" s="22">
         <f>Confirmed!AR3/Testing!AR3</f>
         <v>0.01086519115</v>
       </c>
-      <c r="AS4" s="21">
+      <c r="AS4" s="22">
         <f>Confirmed!AS3/Testing!AS3</f>
         <v>0.01069927398</v>
       </c>
-      <c r="AT4" s="21">
+      <c r="AT4" s="22">
         <f>Confirmed!AT3/Testing!AT3</f>
         <v>0.01052249637</v>
       </c>
-      <c r="AU4" s="21">
+      <c r="AU4" s="22">
         <f>Confirmed!AU3/Testing!AU3</f>
         <v>0.01043478261</v>
       </c>
-      <c r="AV4" s="21">
+      <c r="AV4" s="22">
         <f>Confirmed!AV3/Testing!AV3</f>
         <v>0.01005025126</v>
       </c>
-      <c r="AW4" s="21">
+      <c r="AW4" s="22">
         <f>Confirmed!AW3/Testing!AW3</f>
         <v>0.009615384615</v>
       </c>
-      <c r="AX4" s="21">
+      <c r="AX4" s="22">
         <f>Confirmed!AX3/Testing!AX3</f>
         <v>0.009526736325</v>
       </c>
-      <c r="AY4" s="21">
+      <c r="AY4" s="22">
         <f>Confirmed!AY3/Testing!AY3</f>
         <v>0.009988249119</v>
       </c>
-      <c r="AZ4" s="21"/>
+      <c r="AZ4" s="22"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="22">
         <f>Confirmed!B4/Testing!B4</f>
         <v>0.01425178147</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="22">
         <f>Confirmed!C4/Testing!C4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <f>Confirmed!D4/Testing!D4</f>
         <v>0.01142857143</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <f>Confirmed!E4/Testing!E4</f>
         <v>0.01410934744</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <f>Confirmed!F4/Testing!F4</f>
         <v>0.01320132013</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="22">
         <f>Confirmed!G4/Testing!G4</f>
         <v>0.01376146789</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="22">
         <f>Confirmed!H4/Testing!H4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="22">
         <f>Confirmed!I4/Testing!I4</f>
         <v>0.01211305518</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="22">
         <f>Confirmed!J4/Testing!J4</f>
         <v>0.01381909548</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="22">
         <f>Confirmed!K4/Testing!K4</f>
         <v>0.01311084625</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="22">
         <f>Confirmed!L4/Testing!L4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="22">
         <f>Confirmed!M4/Testing!M4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="22">
         <f>Confirmed!N4/Testing!N4</f>
         <v>0.01594048884</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="22">
         <f>Confirmed!O4/Testing!O4</f>
         <v>0.01476377953</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="22">
         <f>Confirmed!P4/Testing!P4</f>
         <v>0.01669758813</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="22">
         <f>Confirmed!Q4/Testing!Q4</f>
         <v>0.01714801444</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="22">
         <f>Confirmed!R4/Testing!R4</f>
         <v>0.01607445008</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="22">
         <f>Confirmed!S4/Testing!S4</f>
         <v>0.01781376518</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="22">
         <f>Confirmed!T4/Testing!T4</f>
         <v>0.01713395639</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="22">
         <f>Confirmed!U4/Testing!U4</f>
         <v>0.01721556886</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="22">
         <f>Confirmed!V4/Testing!V4</f>
         <v>0.017106201</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="22">
         <f>Confirmed!W4/Testing!W4</f>
         <v>0.01612903226</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="22">
         <f>Confirmed!X4/Testing!X4</f>
         <v>0.01505646173</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="22">
         <f>Confirmed!Y4/Testing!Y4</f>
         <v>0.0141760189</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="22">
         <f>Confirmed!Z4/Testing!Z4</f>
         <v>0.0139431121</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="22">
         <f>Confirmed!AA4/Testing!AA4</f>
         <v>0.01281366791</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AB5" s="22">
         <f>Confirmed!AB4/Testing!AB4</f>
         <v>0.01215805471</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="22">
         <f>Confirmed!AC4/Testing!AC4</f>
         <v>0.01179801793</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AD5" s="22">
         <f>Confirmed!AD4/Testing!AD4</f>
         <v>0.01111605158</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AE5" s="22">
         <f>Confirmed!AE4/Testing!AE4</f>
         <v>0.01178451178</v>
       </c>
-      <c r="AF5" s="21">
+      <c r="AF5" s="22">
         <f>Confirmed!AF4/Testing!AF4</f>
         <v>0.01124949779</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AG5" s="22">
         <f>Confirmed!AG4/Testing!AG4</f>
         <v>0.0106302202</v>
       </c>
-      <c r="AH5" s="21">
+      <c r="AH5" s="22">
         <f>Confirmed!AH4/Testing!AH4</f>
         <v>0.01059167275</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="AI5" s="22">
         <f>Confirmed!AI4/Testing!AI4</f>
         <v>0.009969061533</v>
       </c>
-      <c r="AJ5" s="21">
+      <c r="AJ5" s="22">
         <f>Confirmed!AJ4/Testing!AJ4</f>
         <v>0.0101207966</v>
       </c>
-      <c r="AK5" s="21">
+      <c r="AK5" s="22">
         <f>Confirmed!AK4/Testing!AK4</f>
         <v>0.01090342679</v>
       </c>
-      <c r="AL5" s="21">
+      <c r="AL5" s="22">
         <f>Confirmed!AL4/Testing!AL4</f>
         <v>0.01028202115</v>
       </c>
-      <c r="AM5" s="21">
+      <c r="AM5" s="22">
         <f>Confirmed!AM4/Testing!AM4</f>
         <v>0.009925558313</v>
       </c>
-      <c r="AN5" s="21">
+      <c r="AN5" s="22">
         <f>Confirmed!AN4/Testing!AN4</f>
         <v>0.009208103131</v>
       </c>
-      <c r="AO5" s="21">
+      <c r="AO5" s="22">
         <f>Confirmed!AO4/Testing!AO4</f>
         <v>0.008847320526</v>
       </c>
-      <c r="AP5" s="21">
+      <c r="AP5" s="22">
         <f>Confirmed!AP4/Testing!AP4</f>
         <v>0.008974048023</v>
       </c>
-      <c r="AQ5" s="21">
+      <c r="AQ5" s="22">
         <f>Confirmed!AQ4/Testing!AQ4</f>
         <v>0.009276437848</v>
       </c>
-      <c r="AR5" s="21">
+      <c r="AR5" s="22">
         <f>Confirmed!AR4/Testing!AR4</f>
         <v>0.009247027741</v>
       </c>
-      <c r="AS5" s="21">
+      <c r="AS5" s="22">
         <f>Confirmed!AS4/Testing!AS4</f>
         <v>0.008572025925</v>
       </c>
-      <c r="AT5" s="21">
+      <c r="AT5" s="22">
         <f>Confirmed!AT4/Testing!AT4</f>
         <v>0.00893388922</v>
       </c>
-      <c r="AU5" s="21">
+      <c r="AU5" s="22">
         <f>Confirmed!AU4/Testing!AU4</f>
         <v>0.009514747859</v>
       </c>
-      <c r="AV5" s="21">
+      <c r="AV5" s="22">
         <f>Confirmed!AV4/Testing!AV4</f>
         <v>0.009347507331</v>
       </c>
-      <c r="AW5" s="21">
+      <c r="AW5" s="22">
         <f>Confirmed!AW4/Testing!AW4</f>
         <v>0.009119607155</v>
       </c>
-      <c r="AX5" s="21">
+      <c r="AX5" s="22">
         <f>Confirmed!AX4/Testing!AX4</f>
         <v>0.009751176866</v>
       </c>
-      <c r="AY5" s="21">
+      <c r="AY5" s="22">
         <f>Confirmed!AY4/Testing!AY4</f>
         <v>0.01012698923</v>
       </c>
-      <c r="AZ5" s="21"/>
+      <c r="AZ5" s="22"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="22">
         <f>Confirmed!B5/Testing!B5</f>
         <v>0.01145038168</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="22">
         <f>Confirmed!C5/Testing!C5</f>
         <v>0.0113507378</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <f>Confirmed!D5/Testing!D5</f>
         <v>0.01121304791</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="22">
         <f>Confirmed!E5/Testing!E5</f>
         <v>0.01039697543</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <f>Confirmed!F5/Testing!F5</f>
         <v>0.01060070671</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="22">
         <f>Confirmed!G5/Testing!G5</f>
         <v>0.009836065574</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="22">
         <f>Confirmed!H5/Testing!H5</f>
         <v>0.009841029523</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="22">
         <f>Confirmed!I5/Testing!I5</f>
         <v>0.009372746936</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="22">
         <f>Confirmed!J5/Testing!J5</f>
         <v>0.01211305518</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="22">
         <f>Confirmed!K5/Testing!K5</f>
         <v>0.01148691768</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="22">
         <f>Confirmed!L5/Testing!L5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="22">
         <f>Confirmed!M5/Testing!M5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="22">
         <f>Confirmed!N5/Testing!N5</f>
         <v>0.01195219124</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="22">
         <f>Confirmed!O5/Testing!O5</f>
         <v>0.0105374078</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="22">
         <f>Confirmed!P5/Testing!P5</f>
         <v>0.009940357853</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="22">
         <f>Confirmed!Q5/Testing!Q5</f>
         <v>0.009671179884</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="22">
         <f>Confirmed!R5/Testing!R5</f>
         <v>0.009519492294</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="22">
         <f>Confirmed!S5/Testing!S5</f>
         <v>0.009544468547</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="22">
         <f>Confirmed!T5/Testing!T5</f>
         <v>0.009178139341</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="22">
         <f>Confirmed!U5/Testing!U5</f>
         <v>0.00882117081</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="22">
         <f>Confirmed!V5/Testing!V5</f>
         <v>0.00840015273</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="22">
         <f>Confirmed!W5/Testing!W5</f>
         <v>0.008279337653</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="22">
         <f>Confirmed!X5/Testing!X5</f>
         <v>0.008400537634</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Y6" s="22">
         <f>Confirmed!Y5/Testing!Y5</f>
         <v>0.007278481013</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="Z6" s="22">
         <f>Confirmed!Z5/Testing!Z5</f>
         <v>0.006869772999</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="22">
         <f>Confirmed!AA5/Testing!AA5</f>
         <v>0.00686302545</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="22">
         <f>Confirmed!AB5/Testing!AB5</f>
         <v>0.00623982637</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="22">
         <f>Confirmed!AC5/Testing!AC5</f>
         <v>0.005815423515</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AD6" s="22">
         <f>Confirmed!AD5/Testing!AD5</f>
         <v>0.005717008099</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="22">
         <f>Confirmed!AE5/Testing!AE5</f>
         <v>0.005184851217</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="22">
         <f>Confirmed!AF5/Testing!AF5</f>
         <v>0.00495049505</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="22">
         <f>Confirmed!AG5/Testing!AG5</f>
         <v>0.0052877771</v>
       </c>
-      <c r="AH6" s="21">
+      <c r="AH6" s="22">
         <f>Confirmed!AH5/Testing!AH5</f>
         <v>0.004695754256</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AI6" s="22">
         <f>Confirmed!AI5/Testing!AI5</f>
         <v>0.005707972749</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AJ6" s="22">
         <f>Confirmed!AJ5/Testing!AJ5</f>
         <v>0.00629590766</v>
       </c>
-      <c r="AK6" s="21">
+      <c r="AK6" s="22">
         <f>Confirmed!AK5/Testing!AK5</f>
         <v>0.005840146838</v>
       </c>
-      <c r="AL6" s="21">
+      <c r="AL6" s="22">
         <f>Confirmed!AL5/Testing!AL5</f>
         <v>0.006294256491</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="22">
         <f>Confirmed!AM5/Testing!AM5</f>
         <v>0.006794682422</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AN6" s="22">
         <f>Confirmed!AN5/Testing!AN5</f>
         <v>0.007470049331</v>
       </c>
-      <c r="AO6" s="21">
+      <c r="AO6" s="22">
         <f>Confirmed!AO5/Testing!AO5</f>
         <v>0.007718348003</v>
       </c>
-      <c r="AP6" s="21">
+      <c r="AP6" s="22">
         <f>Confirmed!AP5/Testing!AP5</f>
         <v>0.007405482656</v>
       </c>
-      <c r="AQ6" s="21">
+      <c r="AQ6" s="22">
         <f>Confirmed!AQ5/Testing!AQ5</f>
         <v>0.007330103118</v>
       </c>
-      <c r="AR6" s="21">
+      <c r="AR6" s="22">
         <f>Confirmed!AR5/Testing!AR5</f>
         <v>0.007076306168</v>
       </c>
-      <c r="AS6" s="21">
+      <c r="AS6" s="22">
         <f>Confirmed!AS5/Testing!AS5</f>
         <v>0.00683167208</v>
       </c>
-      <c r="AT6" s="21">
+      <c r="AT6" s="22">
         <f>Confirmed!AT5/Testing!AT5</f>
         <v>0.006486601446</v>
       </c>
-      <c r="AU6" s="21">
+      <c r="AU6" s="22">
         <f>Confirmed!AU5/Testing!AU5</f>
         <v>0.006422018349</v>
       </c>
-      <c r="AV6" s="21">
+      <c r="AV6" s="22">
         <f>Confirmed!AV5/Testing!AV5</f>
         <v>0.00618556701</v>
       </c>
-      <c r="AW6" s="21">
+      <c r="AW6" s="22">
         <f>Confirmed!AW5/Testing!AW5</f>
         <v>0.006200676437</v>
       </c>
-      <c r="AX6" s="21">
+      <c r="AX6" s="22">
         <f>Confirmed!AX5/Testing!AX5</f>
         <v>0.006034405116</v>
       </c>
-      <c r="AY6" s="21">
+      <c r="AY6" s="22">
         <f>Confirmed!AY5/Testing!AY5</f>
         <v>0.005768899604</v>
       </c>
-      <c r="AZ6" s="21"/>
+      <c r="AZ6" s="22"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="22">
         <f>Confirmed!B6/Testing!B6</f>
         <v>0.009244992296</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="22">
         <f>Confirmed!C6/Testing!C6</f>
         <v>0.015130674</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <f>Confirmed!D6/Testing!D6</f>
         <v>0.01483312732</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="22">
         <f>Confirmed!E6/Testing!E6</f>
         <v>0.0126002291</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <f>Confirmed!F6/Testing!F6</f>
         <v>0.01498929336</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="22">
         <f>Confirmed!G6/Testing!G6</f>
         <v>0.01390268123</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="22">
         <f>Confirmed!H6/Testing!H6</f>
         <v>0.01466544455</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="22">
         <f>Confirmed!I6/Testing!I6</f>
         <v>0.01397379913</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="22">
         <f>Confirmed!J6/Testing!J6</f>
         <v>0.01466992665</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="22">
         <f>Confirmed!K6/Testing!K6</f>
         <v>0.01469450889</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="22">
         <f>Confirmed!L6/Testing!L6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="22">
         <f>Confirmed!M6/Testing!M6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="22">
         <f>Confirmed!N6/Testing!N6</f>
         <v>0.01448275862</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="22">
         <f>Confirmed!O6/Testing!O6</f>
         <v>0.01404853129</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="22">
         <f>Confirmed!P6/Testing!P6</f>
         <v>0.01444912703</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="22">
         <f>Confirmed!Q6/Testing!Q6</f>
         <v>0.01347393087</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="22">
         <f>Confirmed!R6/Testing!R6</f>
         <v>0.01263042284</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="22">
         <f>Confirmed!S6/Testing!S6</f>
         <v>0.01209253417</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="22">
         <f>Confirmed!T6/Testing!T6</f>
         <v>0.01212733704</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="22">
         <f>Confirmed!U6/Testing!U6</f>
         <v>0.01214771623</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="22">
         <f>Confirmed!V6/Testing!V6</f>
         <v>0.01202590194</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="22">
         <f>Confirmed!W6/Testing!W6</f>
         <v>0.01133885739</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="22">
         <f>Confirmed!X6/Testing!X6</f>
         <v>0.01058631922</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="Y7" s="22">
         <f>Confirmed!Y6/Testing!Y6</f>
         <v>0.01035276074</v>
       </c>
-      <c r="Z7" s="21">
+      <c r="Z7" s="22">
         <f>Confirmed!Z6/Testing!Z6</f>
         <v>0.009771986971</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="AA7" s="22">
         <f>Confirmed!AA6/Testing!AA6</f>
         <v>0.009352268791</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="AB7" s="22">
         <f>Confirmed!AB6/Testing!AB6</f>
         <v>0.008875739645</v>
       </c>
-      <c r="AC7" s="21">
+      <c r="AC7" s="22">
         <f>Confirmed!AC6/Testing!AC6</f>
         <v>0.008269525268</v>
       </c>
-      <c r="AD7" s="21">
+      <c r="AD7" s="22">
         <f>Confirmed!AD6/Testing!AD6</f>
         <v>0.008369408369</v>
       </c>
-      <c r="AE7" s="21">
+      <c r="AE7" s="22">
         <f>Confirmed!AE6/Testing!AE6</f>
         <v>0.008194482382</v>
       </c>
-      <c r="AF7" s="21">
+      <c r="AF7" s="22">
         <f>Confirmed!AF6/Testing!AF6</f>
         <v>0.008083441982</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="AG7" s="22">
         <f>Confirmed!AG6/Testing!AG6</f>
         <v>0.007639231148</v>
       </c>
-      <c r="AH7" s="21">
+      <c r="AH7" s="22">
         <f>Confirmed!AH6/Testing!AH6</f>
         <v>0.007349454718</v>
       </c>
-      <c r="AI7" s="21">
+      <c r="AI7" s="22">
         <f>Confirmed!AI6/Testing!AI6</f>
         <v>0.006915012269</v>
       </c>
-      <c r="AJ7" s="21">
+      <c r="AJ7" s="22">
         <f>Confirmed!AJ6/Testing!AJ6</f>
         <v>0.00678109769</v>
       </c>
-      <c r="AK7" s="21">
+      <c r="AK7" s="22">
         <f>Confirmed!AK6/Testing!AK6</f>
         <v>0.006874241812</v>
       </c>
-      <c r="AL7" s="21">
+      <c r="AL7" s="22">
         <f>Confirmed!AL6/Testing!AL6</f>
         <v>0.006862371331</v>
       </c>
-      <c r="AM7" s="21">
+      <c r="AM7" s="22">
         <f>Confirmed!AM6/Testing!AM6</f>
         <v>0.006621331424</v>
       </c>
-      <c r="AN7" s="21">
+      <c r="AN7" s="22">
         <f>Confirmed!AN6/Testing!AN6</f>
         <v>0.006659836066</v>
       </c>
-      <c r="AO7" s="21">
+      <c r="AO7" s="22">
         <f>Confirmed!AO6/Testing!AO6</f>
         <v>0.00656167979</v>
       </c>
-      <c r="AP7" s="21">
+      <c r="AP7" s="22">
         <f>Confirmed!AP6/Testing!AP6</f>
         <v>0.006296237998</v>
       </c>
-      <c r="AQ7" s="21">
+      <c r="AQ7" s="22">
         <f>Confirmed!AQ6/Testing!AQ6</f>
         <v>0.006171910281</v>
       </c>
-      <c r="AR7" s="21">
+      <c r="AR7" s="22">
         <f>Confirmed!AR6/Testing!AR6</f>
         <v>0.006144612746</v>
       </c>
-      <c r="AS7" s="21">
+      <c r="AS7" s="22">
         <f>Confirmed!AS6/Testing!AS6</f>
         <v>0.006920884788</v>
       </c>
-      <c r="AT7" s="21">
+      <c r="AT7" s="22">
         <f>Confirmed!AT6/Testing!AT6</f>
         <v>0.006956969853</v>
       </c>
-      <c r="AU7" s="21">
+      <c r="AU7" s="22">
         <f>Confirmed!AU6/Testing!AU6</f>
         <v>0.006669136717</v>
       </c>
-      <c r="AV7" s="21">
+      <c r="AV7" s="22">
         <f>Confirmed!AV6/Testing!AV6</f>
         <v>0.006423218746</v>
       </c>
-      <c r="AW7" s="21">
+      <c r="AW7" s="22">
         <f>Confirmed!AW6/Testing!AW6</f>
         <v>0.006146141589</v>
       </c>
-      <c r="AX7" s="21">
+      <c r="AX7" s="22">
         <f>Confirmed!AX6/Testing!AX6</f>
         <v>0.006001091107</v>
       </c>
-      <c r="AY7" s="21">
+      <c r="AY7" s="22">
         <f>Confirmed!AY6/Testing!AY6</f>
         <v>0.0059461715</v>
       </c>
-      <c r="AZ7" s="21"/>
+      <c r="AZ7" s="22"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <f>Confirmed!B7/Testing!B7</f>
         <v>0.001903311762</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="22">
         <f>Confirmed!C7/Testing!C7</f>
         <v>0.003397893306</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <f>Confirmed!D7/Testing!D7</f>
         <v>0.003661885871</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="22">
         <f>Confirmed!E7/Testing!E7</f>
         <v>0.003393665158</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <f>Confirmed!F7/Testing!F7</f>
         <v>0.003173763555</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="22">
         <f>Confirmed!G7/Testing!G7</f>
         <v>0.003678273664</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="22">
         <f>Confirmed!H7/Testing!H7</f>
         <v>0.003849637681</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="22">
         <f>Confirmed!I7/Testing!I7</f>
         <v>0.004529767041</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="22">
         <f>Confirmed!J7/Testing!J7</f>
         <v>0.005034232783</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="22">
         <f>Confirmed!K7/Testing!K7</f>
         <v>0.005920550038</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="22">
         <f>Confirmed!L7/Testing!L7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="22">
         <f>Confirmed!M7/Testing!M7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="22">
         <f>Confirmed!N7/Testing!N7</f>
         <v>0.007664793051</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="22">
         <f>Confirmed!O7/Testing!O7</f>
         <v>0.009619933764</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="22">
         <f>Confirmed!P7/Testing!P7</f>
         <v>0.0101145322</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="22">
         <f>Confirmed!Q7/Testing!Q7</f>
         <v>0.009986973513</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="22">
         <f>Confirmed!R7/Testing!R7</f>
         <v>0.01193544012</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="22">
         <f>Confirmed!S7/Testing!S7</f>
         <v>0.01350298624</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="22">
         <f>Confirmed!T7/Testing!T7</f>
         <v>0.02172013481</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="22">
         <f>Confirmed!U7/Testing!U7</f>
         <v>0.02388095524</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="22">
         <f>Confirmed!V7/Testing!V7</f>
         <v>0.025139984</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="22">
         <f>Confirmed!W7/Testing!W7</f>
         <v>0.02650290886</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="22">
         <f>Confirmed!X7/Testing!X7</f>
         <v>0.02714932127</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="22">
         <f>Confirmed!Y7/Testing!Y7</f>
         <v>0.02774621212</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="Z8" s="22">
         <f>Confirmed!Z7/Testing!Z7</f>
         <v>0.02771321294</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="AA8" s="22">
         <f>Confirmed!AA7/Testing!AA7</f>
         <v>0.02952250556</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AB8" s="22">
         <f>Confirmed!AB7/Testing!AB7</f>
         <v>0.03061307349</v>
       </c>
-      <c r="AC8" s="21">
+      <c r="AC8" s="22">
         <f>Confirmed!AC7/Testing!AC7</f>
         <v>0.03155027616</v>
       </c>
-      <c r="AD8" s="21">
+      <c r="AD8" s="22">
         <f>Confirmed!AD7/Testing!AD7</f>
         <v>0.03421484069</v>
       </c>
-      <c r="AE8" s="21">
+      <c r="AE8" s="22">
         <f>Confirmed!AE7/Testing!AE7</f>
         <v>0.03292403184</v>
       </c>
-      <c r="AF8" s="21">
+      <c r="AF8" s="22">
         <f>Confirmed!AF7/Testing!AF7</f>
         <v>0.0344605475</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AG8" s="22">
         <f>Confirmed!AG7/Testing!AG7</f>
         <v>0.03578819233</v>
       </c>
-      <c r="AH8" s="21">
+      <c r="AH8" s="22">
         <f>Confirmed!AH7/Testing!AH7</f>
         <v>0.03607190959</v>
       </c>
-      <c r="AI8" s="21">
+      <c r="AI8" s="22">
         <f>Confirmed!AI7/Testing!AI7</f>
         <v>0.0347145691</v>
       </c>
-      <c r="AJ8" s="21">
+      <c r="AJ8" s="22">
         <f>Confirmed!AJ7/Testing!AJ7</f>
         <v>0.03386548024</v>
       </c>
-      <c r="AK8" s="21">
+      <c r="AK8" s="22">
         <f>Confirmed!AK7/Testing!AK7</f>
         <v>0.03450686642</v>
       </c>
-      <c r="AL8" s="21">
+      <c r="AL8" s="22">
         <f>Confirmed!AL7/Testing!AL7</f>
         <v>0.03446814522</v>
       </c>
-      <c r="AM8" s="21">
+      <c r="AM8" s="22">
         <f>Confirmed!AM7/Testing!AM7</f>
         <v>0.03421145686</v>
       </c>
-      <c r="AN8" s="21">
+      <c r="AN8" s="22">
         <f>Confirmed!AN7/Testing!AN7</f>
         <v>0.03433150569</v>
       </c>
-      <c r="AO8" s="21">
+      <c r="AO8" s="22">
         <f>Confirmed!AO7/Testing!AO7</f>
         <v>0.03395737094</v>
       </c>
-      <c r="AP8" s="21">
+      <c r="AP8" s="22">
         <f>Confirmed!AP7/Testing!AP7</f>
         <v>0.03300933126</v>
       </c>
-      <c r="AQ8" s="21">
+      <c r="AQ8" s="22">
         <f>Confirmed!AQ7/Testing!AQ7</f>
         <v>0.03454045211</v>
       </c>
-      <c r="AR8" s="21">
+      <c r="AR8" s="22">
         <f>Confirmed!AR7/Testing!AR7</f>
         <v>0.03490752506</v>
       </c>
-      <c r="AS8" s="21">
+      <c r="AS8" s="22">
         <f>Confirmed!AS7/Testing!AS7</f>
         <v>0.03613205966</v>
       </c>
-      <c r="AT8" s="21">
+      <c r="AT8" s="22">
         <f>Confirmed!AT7/Testing!AT7</f>
         <v>0.0387601833</v>
       </c>
-      <c r="AU8" s="21">
+      <c r="AU8" s="22">
         <f>Confirmed!AU7/Testing!AU7</f>
         <v>0.041366687</v>
       </c>
-      <c r="AV8" s="21">
+      <c r="AV8" s="22">
         <f>Confirmed!AV7/Testing!AV7</f>
         <v>0.04418980461</v>
       </c>
-      <c r="AW8" s="21">
+      <c r="AW8" s="22">
         <f>Confirmed!AW7/Testing!AW7</f>
         <v>0.04312865497</v>
       </c>
-      <c r="AX8" s="21">
+      <c r="AX8" s="22">
         <f>Confirmed!AX7/Testing!AX7</f>
         <v>0.0422888254</v>
       </c>
-      <c r="AY8" s="21">
+      <c r="AY8" s="22">
         <f>Confirmed!AY7/Testing!AY7</f>
         <v>0.04282511789</v>
       </c>
-      <c r="AZ8" s="21"/>
+      <c r="AZ8" s="22"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="22">
         <f>Confirmed!B8/Testing!B8</f>
         <v>0.03363074811</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="22">
         <f>Confirmed!C8/Testing!C8</f>
         <v>0.04166666667</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <f>Confirmed!D8/Testing!D8</f>
         <v>0.03962575674</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="22">
         <f>Confirmed!E8/Testing!E8</f>
         <v>0.03671596124</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="22">
         <f>Confirmed!F8/Testing!F8</f>
         <v>0.03528850739</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="22">
         <f>Confirmed!G8/Testing!G8</f>
         <v>0.03361344538</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="22">
         <f>Confirmed!H8/Testing!H8</f>
         <v>0.03429971417</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="22">
         <f>Confirmed!I8/Testing!I8</f>
         <v>0.03267211202</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="22">
         <f>Confirmed!J8/Testing!J8</f>
         <v>0.03086419753</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="22">
         <f>Confirmed!K8/Testing!K8</f>
         <v>0.02995867769</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="22">
         <f>Confirmed!L8/Testing!L8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="22">
         <f>Confirmed!M8/Testing!M8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="22">
         <f>Confirmed!N8/Testing!N8</f>
         <v>0.02702702703</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="22">
         <f>Confirmed!O8/Testing!O8</f>
         <v>0.02645051195</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="22">
         <f>Confirmed!P8/Testing!P8</f>
         <v>0.02520783052</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="22">
         <f>Confirmed!Q8/Testing!Q8</f>
         <v>0.0245302714</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="22">
         <f>Confirmed!R8/Testing!R8</f>
         <v>0.02347762289</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="22">
         <f>Confirmed!S8/Testing!S8</f>
         <v>0.02247191011</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="22">
         <f>Confirmed!T8/Testing!T8</f>
         <v>0.02205716858</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="22">
         <f>Confirmed!U8/Testing!U8</f>
         <v>0.02099112746</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="22">
         <f>Confirmed!V8/Testing!V8</f>
         <v>0.02019369462</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="22">
         <f>Confirmed!W8/Testing!W8</f>
         <v>0.01942501943</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="22">
         <f>Confirmed!X8/Testing!X8</f>
         <v>0.01813236627</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="22">
         <f>Confirmed!Y8/Testing!Y8</f>
         <v>0.01707358716</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="22">
         <f>Confirmed!Z8/Testing!Z8</f>
         <v>0.0169245648</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA9" s="22">
         <f>Confirmed!AA8/Testing!AA8</f>
         <v>0.01635550069</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AB9" s="22">
         <f>Confirmed!AB8/Testing!AB8</f>
         <v>0.01551976574</v>
       </c>
-      <c r="AC9" s="21">
+      <c r="AC9" s="22">
         <f>Confirmed!AC8/Testing!AC8</f>
         <v>0.01446111869</v>
       </c>
-      <c r="AD9" s="21">
+      <c r="AD9" s="22">
         <f>Confirmed!AD8/Testing!AD8</f>
         <v>0.01426735219</v>
       </c>
-      <c r="AE9" s="21">
+      <c r="AE9" s="22">
         <f>Confirmed!AE8/Testing!AE8</f>
         <v>0.01350364964</v>
       </c>
-      <c r="AF9" s="21">
+      <c r="AF9" s="22">
         <f>Confirmed!AF8/Testing!AF8</f>
         <v>0.01277584204</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AG9" s="22">
         <f>Confirmed!AG8/Testing!AG8</f>
         <v>0.01218173837</v>
       </c>
-      <c r="AH9" s="21">
+      <c r="AH9" s="22">
         <f>Confirmed!AH8/Testing!AH8</f>
         <v>0.01193115827</v>
       </c>
-      <c r="AI9" s="21">
+      <c r="AI9" s="22">
         <f>Confirmed!AI8/Testing!AI8</f>
         <v>0.01122702434</v>
       </c>
-      <c r="AJ9" s="21">
+      <c r="AJ9" s="22">
         <f>Confirmed!AJ8/Testing!AJ8</f>
         <v>0.01094752737</v>
       </c>
-      <c r="AK9" s="21">
+      <c r="AK9" s="22">
         <f>Confirmed!AK8/Testing!AK8</f>
         <v>0.01062488745</v>
       </c>
-      <c r="AL9" s="21">
+      <c r="AL9" s="22">
         <f>Confirmed!AL8/Testing!AL8</f>
         <v>0.01027339107</v>
       </c>
-      <c r="AM9" s="21">
+      <c r="AM9" s="22">
         <f>Confirmed!AM8/Testing!AM8</f>
         <v>0.009723439866</v>
       </c>
-      <c r="AN9" s="21">
+      <c r="AN9" s="22">
         <f>Confirmed!AN8/Testing!AN8</f>
         <v>0.009506426344</v>
       </c>
-      <c r="AO9" s="21">
+      <c r="AO9" s="22">
         <f>Confirmed!AO8/Testing!AO8</f>
         <v>0.009352623119</v>
       </c>
-      <c r="AP9" s="21">
+      <c r="AP9" s="22">
         <f>Confirmed!AP8/Testing!AP8</f>
         <v>0.009113853057</v>
       </c>
-      <c r="AQ9" s="21">
+      <c r="AQ9" s="22">
         <f>Confirmed!AQ8/Testing!AQ8</f>
         <v>0.008983641727</v>
       </c>
-      <c r="AR9" s="21">
+      <c r="AR9" s="22">
         <f>Confirmed!AR8/Testing!AR8</f>
         <v>0.0084643289</v>
       </c>
-      <c r="AS9" s="21">
+      <c r="AS9" s="22">
         <f>Confirmed!AS8/Testing!AS8</f>
         <v>0.008098634111</v>
       </c>
-      <c r="AT9" s="21">
+      <c r="AT9" s="22">
         <f>Confirmed!AT8/Testing!AT8</f>
         <v>0.007746600103</v>
       </c>
-      <c r="AU9" s="21">
+      <c r="AU9" s="22">
         <f>Confirmed!AU8/Testing!AU8</f>
         <v>0.007426151053</v>
       </c>
-      <c r="AV9" s="21">
+      <c r="AV9" s="22">
         <f>Confirmed!AV8/Testing!AV8</f>
         <v>0.007152317881</v>
       </c>
-      <c r="AW9" s="21">
+      <c r="AW9" s="22">
         <f>Confirmed!AW8/Testing!AW8</f>
         <v>0.00699584305</v>
       </c>
-      <c r="AX9" s="21">
+      <c r="AX9" s="22">
         <f>Confirmed!AX8/Testing!AX8</f>
         <v>0.007046702629</v>
       </c>
-      <c r="AY9" s="21">
+      <c r="AY9" s="22">
         <f>Confirmed!AY8/Testing!AY8</f>
         <v>0.007015750592</v>
       </c>
-      <c r="AZ9" s="21"/>
+      <c r="AZ9" s="22"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <f>Confirmed!B9/Testing!B9</f>
         <v>0.0257296467</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <f>Confirmed!C9/Testing!C9</f>
         <v>0.02674438539</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <f>Confirmed!D9/Testing!D9</f>
         <v>0.02570812808</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="22">
         <f>Confirmed!E9/Testing!E9</f>
         <v>0.02439372325</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <f>Confirmed!F9/Testing!F9</f>
         <v>0.02387940235</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="22">
         <f>Confirmed!G9/Testing!G9</f>
         <v>0.02300841168</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="22">
         <f>Confirmed!H9/Testing!H9</f>
         <v>0.02353209961</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="22">
         <f>Confirmed!I9/Testing!I9</f>
         <v>0.02339244914</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="22">
         <f>Confirmed!J9/Testing!J9</f>
         <v>0.02356765542</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="22">
         <f>Confirmed!K9/Testing!K9</f>
         <v>0.02369942197</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="22">
         <f>Confirmed!L9/Testing!L9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="22">
         <f>Confirmed!M9/Testing!M9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="22">
         <f>Confirmed!N9/Testing!N9</f>
         <v>0.03041498411</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="22">
         <f>Confirmed!O9/Testing!O9</f>
         <v>0.0307875895</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="22">
         <f>Confirmed!P9/Testing!P9</f>
         <v>0.03091236495</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="22">
         <f>Confirmed!Q9/Testing!Q9</f>
         <v>0.03051540371</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="22">
         <f>Confirmed!R9/Testing!R9</f>
         <v>0.03030925014</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="22">
         <f>Confirmed!S9/Testing!S9</f>
         <v>0.03045386076</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="22">
         <f>Confirmed!T9/Testing!T9</f>
         <v>0.0307895731</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="22">
         <f>Confirmed!U9/Testing!U9</f>
         <v>0.03141836673</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="22">
         <f>Confirmed!V9/Testing!V9</f>
         <v>0.03106807309</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="22">
         <f>Confirmed!W9/Testing!W9</f>
         <v>0.03211781968</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="22">
         <f>Confirmed!X9/Testing!X9</f>
         <v>0.03063812519</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="Y10" s="22">
         <f>Confirmed!Y9/Testing!Y9</f>
         <v>0.02947217578</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="22">
         <f>Confirmed!Z9/Testing!Z9</f>
         <v>0.02881493506</v>
       </c>
-      <c r="AA10" s="21">
+      <c r="AA10" s="22">
         <f>Confirmed!AA9/Testing!AA9</f>
         <v>0.02896361203</v>
       </c>
-      <c r="AB10" s="21">
+      <c r="AB10" s="22">
         <f>Confirmed!AB9/Testing!AB9</f>
         <v>0.03104775948</v>
       </c>
-      <c r="AC10" s="21">
+      <c r="AC10" s="22">
         <f>Confirmed!AC9/Testing!AC9</f>
         <v>0.03079917564</v>
       </c>
-      <c r="AD10" s="21">
+      <c r="AD10" s="22">
         <f>Confirmed!AD9/Testing!AD9</f>
         <v>0.03023874587</v>
       </c>
-      <c r="AE10" s="21">
+      <c r="AE10" s="22">
         <f>Confirmed!AE9/Testing!AE9</f>
         <v>0.028825211</v>
       </c>
-      <c r="AF10" s="21">
+      <c r="AF10" s="22">
         <f>Confirmed!AF9/Testing!AF9</f>
         <v>0.02803950874</v>
       </c>
-      <c r="AG10" s="21">
+      <c r="AG10" s="22">
         <f>Confirmed!AG9/Testing!AG9</f>
         <v>0.02769249662</v>
       </c>
-      <c r="AH10" s="21">
+      <c r="AH10" s="22">
         <f>Confirmed!AH9/Testing!AH9</f>
         <v>0.0271459798</v>
       </c>
-      <c r="AI10" s="21">
+      <c r="AI10" s="22">
         <f>Confirmed!AI9/Testing!AI9</f>
         <v>0.02657253245</v>
       </c>
-      <c r="AJ10" s="21">
+      <c r="AJ10" s="22">
         <f>Confirmed!AJ9/Testing!AJ9</f>
         <v>0.02587458746</v>
       </c>
-      <c r="AK10" s="21">
+      <c r="AK10" s="22">
         <f>Confirmed!AK9/Testing!AK9</f>
         <v>0.02534068868</v>
       </c>
-      <c r="AL10" s="21">
+      <c r="AL10" s="22">
         <f>Confirmed!AL9/Testing!AL9</f>
         <v>0.02496377758</v>
       </c>
-      <c r="AM10" s="21">
+      <c r="AM10" s="22">
         <f>Confirmed!AM9/Testing!AM9</f>
         <v>0.02399108138</v>
       </c>
-      <c r="AN10" s="21">
+      <c r="AN10" s="22">
         <f>Confirmed!AN9/Testing!AN9</f>
         <v>0.02353091358</v>
       </c>
-      <c r="AO10" s="21">
+      <c r="AO10" s="22">
         <f>Confirmed!AO9/Testing!AO9</f>
         <v>0.023342804</v>
       </c>
-      <c r="AP10" s="21">
+      <c r="AP10" s="22">
         <f>Confirmed!AP9/Testing!AP9</f>
         <v>0.02331921236</v>
       </c>
-      <c r="AQ10" s="21">
+      <c r="AQ10" s="22">
         <f>Confirmed!AQ9/Testing!AQ9</f>
         <v>0.02258106866</v>
       </c>
-      <c r="AR10" s="21">
+      <c r="AR10" s="22">
         <f>Confirmed!AR9/Testing!AR9</f>
         <v>0.02230887013</v>
       </c>
-      <c r="AS10" s="21">
+      <c r="AS10" s="22">
         <f>Confirmed!AS9/Testing!AS9</f>
         <v>0.02211476685</v>
       </c>
-      <c r="AT10" s="21">
+      <c r="AT10" s="22">
         <f>Confirmed!AT9/Testing!AT9</f>
         <v>0.0217192391</v>
       </c>
-      <c r="AU10" s="21">
+      <c r="AU10" s="22">
         <f>Confirmed!AU9/Testing!AU9</f>
         <v>0.02111288933</v>
       </c>
-      <c r="AV10" s="21">
+      <c r="AV10" s="22">
         <f>Confirmed!AV9/Testing!AV9</f>
         <v>0.02066072831</v>
       </c>
-      <c r="AW10" s="21">
+      <c r="AW10" s="22">
         <f>Confirmed!AW9/Testing!AW9</f>
         <v>0.02003942647</v>
       </c>
-      <c r="AX10" s="21">
+      <c r="AX10" s="22">
         <f>Confirmed!AX9/Testing!AX9</f>
         <v>0.01963210202</v>
       </c>
-      <c r="AY10" s="21">
+      <c r="AY10" s="22">
         <f>Confirmed!AY9/Testing!AY9</f>
         <v>0.01926276386</v>
       </c>
-      <c r="AZ10" s="21"/>
+      <c r="AZ10" s="22"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <f>Confirmed!B10/Testing!B10</f>
         <v>0.03934031953</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="22">
         <f>Confirmed!C10/Testing!C10</f>
         <v>0.04156441718</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <f>Confirmed!D10/Testing!D10</f>
         <v>0.04269972452</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="22">
         <f>Confirmed!E10/Testing!E10</f>
         <v>0.04135818228</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="22">
         <f>Confirmed!F10/Testing!F10</f>
         <v>0.03879207448</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="22">
         <f>Confirmed!G10/Testing!G10</f>
         <v>0.03608589772</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="22">
         <f>Confirmed!H10/Testing!H10</f>
         <v>0.03607931316</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="22">
         <f>Confirmed!I10/Testing!I10</f>
         <v>0.03640965732</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="22">
         <f>Confirmed!J10/Testing!J10</f>
         <v>0.03935648064</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="22">
         <f>Confirmed!K10/Testing!K10</f>
         <v>0.03913455737</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="22">
         <f>Confirmed!L10/Testing!L10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="22">
         <f>Confirmed!M10/Testing!M10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="22">
         <f>Confirmed!N10/Testing!N10</f>
         <v>0.03805058037</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="22">
         <f>Confirmed!O10/Testing!O10</f>
         <v>0.03666002278</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="22">
         <f>Confirmed!P10/Testing!P10</f>
         <v>0.03631847476</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="22">
         <f>Confirmed!Q10/Testing!Q10</f>
         <v>0.03566529492</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="22">
         <f>Confirmed!R10/Testing!R10</f>
         <v>0.03593510866</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="22">
         <f>Confirmed!S10/Testing!S10</f>
         <v>0.0361558746</v>
       </c>
-      <c r="T11" s="21">
+      <c r="T11" s="22">
         <f>Confirmed!T10/Testing!T10</f>
         <v>0.03622535211</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="22">
         <f>Confirmed!U10/Testing!U10</f>
         <v>0.03558468288</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="22">
         <f>Confirmed!V10/Testing!V10</f>
         <v>0.03481175864</v>
       </c>
-      <c r="W11" s="21">
+      <c r="W11" s="22">
         <f>Confirmed!W10/Testing!W10</f>
         <v>0.03486336672</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="22">
         <f>Confirmed!X10/Testing!X10</f>
         <v>0.03794308537</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="Y11" s="22">
         <f>Confirmed!Y10/Testing!Y10</f>
         <v>0.03709718779</v>
       </c>
-      <c r="Z11" s="21">
+      <c r="Z11" s="22">
         <f>Confirmed!Z10/Testing!Z10</f>
         <v>0.03792616502</v>
       </c>
-      <c r="AA11" s="21">
+      <c r="AA11" s="22">
         <f>Confirmed!AA10/Testing!AA10</f>
         <v>0.03900818786</v>
       </c>
-      <c r="AB11" s="21">
+      <c r="AB11" s="22">
         <f>Confirmed!AB10/Testing!AB10</f>
         <v>0.03954408854</v>
       </c>
-      <c r="AC11" s="21">
+      <c r="AC11" s="22">
         <f>Confirmed!AC10/Testing!AC10</f>
         <v>0.04367423596</v>
       </c>
-      <c r="AD11" s="21">
+      <c r="AD11" s="22">
         <f>Confirmed!AD10/Testing!AD10</f>
         <v>0.04545747008</v>
       </c>
-      <c r="AE11" s="21">
+      <c r="AE11" s="22">
         <f>Confirmed!AE10/Testing!AE10</f>
         <v>0.04610091045</v>
       </c>
-      <c r="AF11" s="21">
+      <c r="AF11" s="22">
         <f>Confirmed!AF10/Testing!AF10</f>
         <v>0.04674554493</v>
       </c>
-      <c r="AG11" s="21">
+      <c r="AG11" s="22">
         <f>Confirmed!AG10/Testing!AG10</f>
         <v>0.04771584759</v>
       </c>
-      <c r="AH11" s="21">
+      <c r="AH11" s="22">
         <f>Confirmed!AH10/Testing!AH10</f>
         <v>0.04942252293</v>
       </c>
-      <c r="AI11" s="21">
+      <c r="AI11" s="22">
         <f>Confirmed!AI10/Testing!AI10</f>
         <v>0.05309756522</v>
       </c>
-      <c r="AJ11" s="21">
+      <c r="AJ11" s="22">
         <f>Confirmed!AJ10/Testing!AJ10</f>
         <v>0.0553258841</v>
       </c>
-      <c r="AK11" s="21">
+      <c r="AK11" s="22">
         <f>Confirmed!AK10/Testing!AK10</f>
         <v>0.05650341455</v>
       </c>
-      <c r="AL11" s="21">
+      <c r="AL11" s="22">
         <f>Confirmed!AL10/Testing!AL10</f>
         <v>0.05738088154</v>
       </c>
-      <c r="AM11" s="21">
+      <c r="AM11" s="22">
         <f>Confirmed!AM10/Testing!AM10</f>
         <v>0.06072696804</v>
       </c>
-      <c r="AN11" s="21">
+      <c r="AN11" s="22">
         <f>Confirmed!AN10/Testing!AN10</f>
         <v>0.06399908627</v>
       </c>
-      <c r="AO11" s="21">
+      <c r="AO11" s="22">
         <f>Confirmed!AO10/Testing!AO10</f>
         <v>0.0660046088</v>
       </c>
-      <c r="AP11" s="21">
+      <c r="AP11" s="22">
         <f>Confirmed!AP10/Testing!AP10</f>
         <v>0.06598111817</v>
       </c>
-      <c r="AQ11" s="21">
+      <c r="AQ11" s="22">
         <f>Confirmed!AQ10/Testing!AQ10</f>
         <v>0.06702241912</v>
       </c>
-      <c r="AR11" s="21">
+      <c r="AR11" s="22">
         <f>Confirmed!AR10/Testing!AR10</f>
         <v>0.0716390805</v>
       </c>
-      <c r="AS11" s="21">
+      <c r="AS11" s="22">
         <f>Confirmed!AS10/Testing!AS10</f>
         <v>0.07274900157</v>
       </c>
-      <c r="AT11" s="21">
+      <c r="AT11" s="22">
         <f>Confirmed!AT10/Testing!AT10</f>
         <v>0.07422727795</v>
       </c>
-      <c r="AU11" s="21">
+      <c r="AU11" s="22">
         <f>Confirmed!AU10/Testing!AU10</f>
         <v>0.07739439335</v>
       </c>
-      <c r="AV11" s="21">
+      <c r="AV11" s="22">
         <f>Confirmed!AV10/Testing!AV10</f>
         <v>0.08095850628</v>
       </c>
-      <c r="AW11" s="21">
+      <c r="AW11" s="22">
         <f>Confirmed!AW10/Testing!AW10</f>
         <v>0.08518386925</v>
       </c>
-      <c r="AX11" s="21">
+      <c r="AX11" s="22">
         <f>Confirmed!AX10/Testing!AX10</f>
         <v>0.08801167812</v>
       </c>
-      <c r="AY11" s="21">
+      <c r="AY11" s="22">
         <f>Confirmed!AY10/Testing!AY10</f>
         <v>0.09068918196</v>
       </c>
-      <c r="AZ11" s="21"/>
+      <c r="AZ11" s="22"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="22">
         <f>Confirmed!B11/Testing!B11</f>
         <v>0.04339522546</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="22">
         <f>Confirmed!C11/Testing!C11</f>
         <v>0.05048782798</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <f>Confirmed!D11/Testing!D11</f>
         <v>0.04968098681</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="22">
         <f>Confirmed!E11/Testing!E11</f>
         <v>0.04871511903</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="22">
         <f>Confirmed!F11/Testing!F11</f>
         <v>0.04666420936</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="22">
         <f>Confirmed!G11/Testing!G11</f>
         <v>0.04409050516</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="22">
         <f>Confirmed!H11/Testing!H11</f>
         <v>0.04185077642</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="22">
         <f>Confirmed!I11/Testing!I11</f>
         <v>0.04040161125</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="22">
         <f>Confirmed!J11/Testing!J11</f>
         <v>0.0389019872</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="22">
         <f>Confirmed!K11/Testing!K11</f>
         <v>0.03747870528</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="22">
         <f>Confirmed!L11/Testing!L11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="22">
         <f>Confirmed!M11/Testing!M11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="22">
         <f>Confirmed!N11/Testing!N11</f>
         <v>0.03712495253</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="22">
         <f>Confirmed!O11/Testing!O11</f>
         <v>0.03494966369</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="22">
         <f>Confirmed!P11/Testing!P11</f>
         <v>0.0332103321</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="22">
         <f>Confirmed!Q11/Testing!Q11</f>
         <v>0.03279812813</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="22">
         <f>Confirmed!R11/Testing!R11</f>
         <v>0.03270321361</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="22">
         <f>Confirmed!S11/Testing!S11</f>
         <v>0.03220903301</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12" s="22">
         <f>Confirmed!T11/Testing!T11</f>
         <v>0.03162729202</v>
       </c>
-      <c r="U12" s="21">
+      <c r="U12" s="22">
         <f>Confirmed!U11/Testing!U11</f>
         <v>0.03110888108</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="22">
         <f>Confirmed!V11/Testing!V11</f>
         <v>0.03086380431</v>
       </c>
-      <c r="W12" s="21">
+      <c r="W12" s="22">
         <f>Confirmed!W11/Testing!W11</f>
         <v>0.03056965256</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="22">
         <f>Confirmed!X11/Testing!X11</f>
         <v>0.03086021807</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="22">
         <f>Confirmed!Y11/Testing!Y11</f>
         <v>0.03030143061</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="22">
         <f>Confirmed!Z11/Testing!Z11</f>
         <v>0.02915379248</v>
       </c>
-      <c r="AA12" s="21">
+      <c r="AA12" s="22">
         <f>Confirmed!AA11/Testing!AA11</f>
         <v>0.02859937029</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AB12" s="22">
         <f>Confirmed!AB11/Testing!AB11</f>
         <v>0.0277035897</v>
       </c>
-      <c r="AC12" s="21">
+      <c r="AC12" s="22">
         <f>Confirmed!AC11/Testing!AC11</f>
         <v>0.02640347547</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="AD12" s="22">
         <f>Confirmed!AD11/Testing!AD11</f>
         <v>0.025451511</v>
       </c>
-      <c r="AE12" s="21">
+      <c r="AE12" s="22">
         <f>Confirmed!AE11/Testing!AE11</f>
         <v>0.02452234091</v>
       </c>
-      <c r="AF12" s="21">
+      <c r="AF12" s="22">
         <f>Confirmed!AF11/Testing!AF11</f>
         <v>0.02389629975</v>
       </c>
-      <c r="AG12" s="21">
+      <c r="AG12" s="22">
         <f>Confirmed!AG11/Testing!AG11</f>
         <v>0.02295399023</v>
       </c>
-      <c r="AH12" s="21">
+      <c r="AH12" s="22">
         <f>Confirmed!AH11/Testing!AH11</f>
         <v>0.0224761283</v>
       </c>
-      <c r="AI12" s="21">
+      <c r="AI12" s="22">
         <f>Confirmed!AI11/Testing!AI11</f>
         <v>0.021626271</v>
       </c>
-      <c r="AJ12" s="21">
+      <c r="AJ12" s="22">
         <f>Confirmed!AJ11/Testing!AJ11</f>
         <v>0.02109655394</v>
       </c>
-      <c r="AK12" s="21">
+      <c r="AK12" s="22">
         <f>Confirmed!AK11/Testing!AK11</f>
         <v>0.02097658751</v>
       </c>
-      <c r="AL12" s="21">
+      <c r="AL12" s="22">
         <f>Confirmed!AL11/Testing!AL11</f>
         <v>0.02097388109</v>
       </c>
-      <c r="AM12" s="21">
+      <c r="AM12" s="22">
         <f>Confirmed!AM11/Testing!AM11</f>
         <v>0.02000887093</v>
       </c>
-      <c r="AN12" s="21">
+      <c r="AN12" s="22">
         <f>Confirmed!AN11/Testing!AN11</f>
         <v>0.019527622</v>
       </c>
-      <c r="AO12" s="21">
+      <c r="AO12" s="22">
         <f>Confirmed!AO11/Testing!AO11</f>
         <v>0.01916756085</v>
       </c>
-      <c r="AP12" s="21">
+      <c r="AP12" s="22">
         <f>Confirmed!AP11/Testing!AP11</f>
         <v>0.01864054101</v>
       </c>
-      <c r="AQ12" s="21">
+      <c r="AQ12" s="22">
         <f>Confirmed!AQ11/Testing!AQ11</f>
         <v>0.01869604419</v>
       </c>
-      <c r="AR12" s="21">
+      <c r="AR12" s="22">
         <f>Confirmed!AR11/Testing!AR11</f>
         <v>0.01821079661</v>
       </c>
-      <c r="AS12" s="21">
+      <c r="AS12" s="22">
         <f>Confirmed!AS11/Testing!AS11</f>
         <v>0.01784463026</v>
       </c>
-      <c r="AT12" s="21">
+      <c r="AT12" s="22">
         <f>Confirmed!AT11/Testing!AT11</f>
         <v>0.01731494212</v>
       </c>
-      <c r="AU12" s="21">
+      <c r="AU12" s="22">
         <f>Confirmed!AU11/Testing!AU11</f>
         <v>0.01676020408</v>
       </c>
-      <c r="AV12" s="21">
+      <c r="AV12" s="22">
         <f>Confirmed!AV11/Testing!AV11</f>
         <v>0.01649440632</v>
       </c>
-      <c r="AW12" s="21">
+      <c r="AW12" s="22">
         <f>Confirmed!AW11/Testing!AW11</f>
         <v>0.01625353636</v>
       </c>
-      <c r="AX12" s="21">
+      <c r="AX12" s="22">
         <f>Confirmed!AX11/Testing!AX11</f>
         <v>0.01603972744</v>
       </c>
-      <c r="AY12" s="21">
+      <c r="AY12" s="22">
         <f>Confirmed!AY11/Testing!AY11</f>
         <v>0.01587312988</v>
       </c>
-      <c r="AZ12" s="21"/>
+      <c r="AZ12" s="22"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -11897,7 +11897,7 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>1263875.0</v>
       </c>
       <c r="M16" s="19"/>
@@ -11906,7 +11906,7 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>4027160.0</v>
       </c>
     </row>
@@ -11914,7 +11914,7 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>4592187.0</v>
       </c>
     </row>
@@ -11922,7 +11922,7 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>5982584.0</v>
       </c>
     </row>
@@ -11930,7 +11930,7 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>6712276.0</v>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>2887465.0</v>
       </c>
     </row>
@@ -11946,7 +11946,7 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -11954,7 +11954,7 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>6844272.0</v>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -15182,365 +15182,365 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="8">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="8">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="7">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="7">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="7">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="7">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="7">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="7">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="7">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="7">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="7">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="7">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="7">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="7">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="7">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="7">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="7">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="7">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="7">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="7">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="7">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="7">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AI12" s="7">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AJ12" s="7">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK12" s="7">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AL12" s="7">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AM12" s="7">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AN12" s="7">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AO12" s="7">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="9">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AQ12" s="7">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AR12" s="7">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AS12" s="7">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AT12" s="7">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="9">
+      <c r="AU12" s="7">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="9">
+      <c r="AV12" s="7">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AW12" s="10">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="9">
+      <c r="AX12" s="7">
         <v>403018.0</v>
       </c>
-      <c r="AY12" s="12">
+      <c r="AY12" s="10">
         <v>421555.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <f t="shared" ref="B13:AZ13" si="21">sum(B2:B11)</f>
         <v>28536</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <f t="shared" si="21"/>
         <v>31965</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <f t="shared" si="21"/>
         <v>35592</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f t="shared" si="21"/>
         <v>38409</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f t="shared" si="21"/>
         <v>41073</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <f t="shared" si="21"/>
         <v>44293</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <f t="shared" si="21"/>
         <v>47966</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <f t="shared" si="21"/>
         <v>50359</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f t="shared" si="21"/>
         <v>53939</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <f t="shared" si="21"/>
         <v>56874</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <f t="shared" si="21"/>
         <v>58097</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <f t="shared" si="21"/>
         <v>58097</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <f t="shared" si="21"/>
         <v>63775</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="12">
         <f t="shared" si="21"/>
         <v>68873</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <f t="shared" si="21"/>
         <v>73029</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="12">
         <f t="shared" si="21"/>
         <v>75054</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="12">
         <f t="shared" si="21"/>
         <v>80085</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="12">
         <f t="shared" si="21"/>
         <v>83664</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="12">
         <f t="shared" si="21"/>
         <v>87021</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="12">
         <f t="shared" si="21"/>
         <v>90515</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="12">
         <f t="shared" si="21"/>
         <v>95061</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="12">
         <f t="shared" si="21"/>
         <v>100827</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="12">
         <f t="shared" si="21"/>
         <v>108020</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="12">
         <f t="shared" si="21"/>
         <v>114709</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="12">
         <f t="shared" si="21"/>
         <v>121510</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="12">
         <f t="shared" si="21"/>
         <v>126938</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="12">
         <f t="shared" si="21"/>
         <v>133773</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="12">
         <f t="shared" si="21"/>
         <v>143570</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="12">
         <f t="shared" si="21"/>
         <v>152390</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="12">
         <f t="shared" si="21"/>
         <v>161004</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="12">
         <f t="shared" si="21"/>
         <v>168643</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="12">
         <f t="shared" si="21"/>
         <v>178470</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AH13" s="12">
         <f t="shared" si="21"/>
         <v>185498</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AI13" s="12">
         <f t="shared" si="21"/>
         <v>197129</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AJ13" s="12">
         <f t="shared" si="21"/>
         <v>207531</v>
       </c>
-      <c r="AK13" s="14">
+      <c r="AK13" s="12">
         <f t="shared" si="21"/>
         <v>217522</v>
       </c>
-      <c r="AL13" s="14">
+      <c r="AL13" s="12">
         <f t="shared" si="21"/>
         <v>230685</v>
       </c>
-      <c r="AM13" s="14">
+      <c r="AM13" s="12">
         <f t="shared" si="21"/>
         <v>245746</v>
       </c>
-      <c r="AN13" s="14">
+      <c r="AN13" s="12">
         <f t="shared" si="21"/>
         <v>257541</v>
       </c>
-      <c r="AO13" s="14">
+      <c r="AO13" s="12">
         <f t="shared" si="21"/>
         <v>268064</v>
       </c>
-      <c r="AP13" s="14">
+      <c r="AP13" s="12">
         <f t="shared" si="21"/>
         <v>279379</v>
       </c>
-      <c r="AQ13" s="14">
+      <c r="AQ13" s="12">
         <f t="shared" si="21"/>
         <v>292153</v>
       </c>
-      <c r="AR13" s="14">
+      <c r="AR13" s="12">
         <f t="shared" si="21"/>
         <v>307752</v>
       </c>
-      <c r="AS13" s="14">
+      <c r="AS13" s="12">
         <f t="shared" si="21"/>
         <v>324079</v>
       </c>
-      <c r="AT13" s="14">
+      <c r="AT13" s="12">
         <f t="shared" si="21"/>
         <v>341335</v>
       </c>
-      <c r="AU13" s="14">
+      <c r="AU13" s="12">
         <f t="shared" si="21"/>
         <v>356067</v>
       </c>
-      <c r="AV13" s="14">
+      <c r="AV13" s="12">
         <f t="shared" si="21"/>
         <v>369697</v>
       </c>
-      <c r="AW13" s="14">
+      <c r="AW13" s="12">
         <f t="shared" si="21"/>
         <v>386354</v>
       </c>
-      <c r="AX13" s="14">
+      <c r="AX13" s="12">
         <f t="shared" si="21"/>
         <v>403019</v>
       </c>
-      <c r="AY13" s="14">
+      <c r="AY13" s="12">
         <f t="shared" si="21"/>
         <v>421555</v>
       </c>
-      <c r="AZ13" s="14">
+      <c r="AZ13" s="12">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -18803,354 +18803,354 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="8">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="8">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="7">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="7">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="7">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="7">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="7">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="7">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="7">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="7">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="7">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="7">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="7">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="7">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="7">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="7">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="7">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="7">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="7">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="7">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="7">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="7">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AI12" s="7">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AJ12" s="7">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK12" s="7">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AL12" s="7">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AM12" s="7">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AN12" s="7">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AO12" s="7">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="9">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AQ12" s="7">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AR12" s="7">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AS12" s="7">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AT12" s="7">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="9">
+      <c r="AU12" s="7">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="9">
+      <c r="AV12" s="7">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="9">
+      <c r="AW12" s="7">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="9">
+      <c r="AX12" s="7">
         <v>403018.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <f t="shared" ref="B13:AV13" si="21">sum(B2:B11)</f>
         <v>1916</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <f t="shared" si="21"/>
         <v>2146</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <f t="shared" si="21"/>
         <v>2390</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f t="shared" si="21"/>
         <v>2579</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f t="shared" si="21"/>
         <v>2757</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <f t="shared" si="21"/>
         <v>2973</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <f t="shared" si="21"/>
         <v>3219</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <f t="shared" si="21"/>
         <v>3379</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f t="shared" si="21"/>
         <v>3620</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <f t="shared" si="21"/>
         <v>3817</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <f t="shared" si="21"/>
         <v>3899</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <f t="shared" si="21"/>
         <v>3899</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <f t="shared" si="21"/>
         <v>4279</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="12">
         <f t="shared" si="21"/>
         <v>4621</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <f t="shared" si="21"/>
         <v>4902</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="12">
         <f t="shared" si="21"/>
         <v>5038</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="12">
         <f t="shared" si="21"/>
         <v>5375</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="12">
         <f t="shared" si="21"/>
         <v>5615</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="12">
         <f t="shared" si="21"/>
         <v>5842</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="12">
         <f t="shared" si="21"/>
         <v>6077</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="12">
         <f t="shared" si="21"/>
         <v>6382</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="12">
         <f t="shared" si="21"/>
         <v>6768</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="12">
         <f t="shared" si="21"/>
         <v>7251</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="12">
         <f t="shared" si="21"/>
         <v>7699</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="12">
         <f t="shared" si="21"/>
         <v>8156</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="12">
         <f t="shared" si="21"/>
         <v>8521</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="12">
         <f t="shared" si="21"/>
         <v>8979</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="12">
         <f t="shared" si="21"/>
         <v>9639</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="12">
         <f t="shared" si="21"/>
         <v>10230</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="12">
         <f t="shared" si="21"/>
         <v>10808</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="12">
         <f t="shared" si="21"/>
         <v>11321</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="12">
         <f t="shared" si="21"/>
         <v>11981</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AH13" s="12">
         <f t="shared" si="21"/>
         <v>12451</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AI13" s="12">
         <f t="shared" si="21"/>
         <v>13234</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AJ13" s="12">
         <f t="shared" si="21"/>
         <v>13931</v>
       </c>
-      <c r="AK13" s="14">
+      <c r="AK13" s="12">
         <f t="shared" si="21"/>
         <v>14603</v>
       </c>
-      <c r="AL13" s="14">
+      <c r="AL13" s="12">
         <f t="shared" si="21"/>
         <v>15486</v>
       </c>
-      <c r="AM13" s="14">
+      <c r="AM13" s="12">
         <f t="shared" si="21"/>
         <v>16496</v>
       </c>
-      <c r="AN13" s="14">
+      <c r="AN13" s="12">
         <f t="shared" si="21"/>
         <v>17290</v>
       </c>
-      <c r="AO13" s="14">
+      <c r="AO13" s="12">
         <f t="shared" si="21"/>
         <v>17996</v>
       </c>
-      <c r="AP13" s="14">
+      <c r="AP13" s="12">
         <f t="shared" si="21"/>
         <v>18754</v>
       </c>
-      <c r="AQ13" s="14">
+      <c r="AQ13" s="12">
         <f t="shared" si="21"/>
         <v>19610</v>
       </c>
-      <c r="AR13" s="14">
+      <c r="AR13" s="12">
         <f t="shared" si="21"/>
         <v>20659</v>
       </c>
-      <c r="AS13" s="14">
+      <c r="AS13" s="12">
         <f t="shared" si="21"/>
         <v>21754</v>
       </c>
-      <c r="AT13" s="14">
+      <c r="AT13" s="12">
         <f t="shared" si="21"/>
         <v>22911</v>
       </c>
-      <c r="AU13" s="14">
+      <c r="AU13" s="12">
         <f t="shared" si="21"/>
         <v>23902</v>
       </c>
-      <c r="AV13" s="14">
+      <c r="AV13" s="12">
         <f t="shared" si="21"/>
         <v>24818</v>
       </c>
-      <c r="AW13" s="14">
+      <c r="AW13" s="12">
         <f>sum(AW2:AW12)</f>
         <v>412287</v>
       </c>
-      <c r="AX13" s="14">
+      <c r="AX13" s="12">
         <f>sum(AX2:AX11)</f>
         <v>27054</v>
       </c>
@@ -19239,7 +19239,7 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>1263875.0</v>
       </c>
     </row>
@@ -19247,7 +19247,7 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>4027160.0</v>
       </c>
     </row>
@@ -19255,7 +19255,7 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>4592187.0</v>
       </c>
     </row>
@@ -19263,7 +19263,7 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>5982584.0</v>
       </c>
     </row>
@@ -19271,7 +19271,7 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>6712276.0</v>
       </c>
     </row>
@@ -19279,7 +19279,7 @@
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>2887465.0</v>
       </c>
     </row>
@@ -19287,7 +19287,7 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>6844272.0</v>
       </c>
     </row>
@@ -19303,7 +19303,7 @@
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -23184,19 +23184,19 @@
       <c r="AT1" s="2">
         <v>43961.0</v>
       </c>
-      <c r="AU1" s="7">
+      <c r="AU1" s="13">
         <v>43962.0</v>
       </c>
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="7">
+      <c r="AW1" s="13">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="8">
+      <c r="AY1" s="14">
         <v>43966.0</v>
       </c>
       <c r="AZ1" s="2">
@@ -29220,7 +29220,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="13">
         <v>43965.0</v>
       </c>
       <c r="C1" s="2">
@@ -38777,7 +38777,7 @@
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -19,7 +19,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mgMQ9WBQrIeC1ERsXOX7KtGc8ogSQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mh5GYfU/OtXhoraKfHEOjAw75B8Ew=="/>
     </ext>
   </extLst>
 </workbook>
@@ -200,6 +200,12 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -216,12 +222,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -230,8 +230,8 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -519,11 +519,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1555755518"/>
-        <c:axId val="868457795"/>
+        <c:axId val="1773281803"/>
+        <c:axId val="60628233"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1555755518"/>
+        <c:axId val="1773281803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,10 +568,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="868457795"/>
+        <c:crossAx val="60628233"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="868457795"/>
+        <c:axId val="60628233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1555755518"/>
+        <c:crossAx val="1773281803"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -938,11 +938,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="988706281"/>
-        <c:axId val="1707678396"/>
+        <c:axId val="559368728"/>
+        <c:axId val="533299234"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="988706281"/>
+        <c:axId val="559368728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,10 +987,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1707678396"/>
+        <c:crossAx val="533299234"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1707678396"/>
+        <c:axId val="533299234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1059,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="988706281"/>
+        <c:crossAx val="559368728"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1140,8 +1140,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1953621288"/>
-        <c:axId val="464364076"/>
+        <c:axId val="1481681430"/>
+        <c:axId val="898251929"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1351,11 +1351,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1953621288"/>
-        <c:axId val="464364076"/>
+        <c:axId val="1481681430"/>
+        <c:axId val="898251929"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1953621288"/>
+        <c:axId val="1481681430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,10 +1400,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464364076"/>
+        <c:crossAx val="898251929"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464364076"/>
+        <c:axId val="898251929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1472,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953621288"/>
+        <c:crossAx val="1481681430"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1516,7 +1516,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Predicted Active Cases using SEIR model - 21 days infection period - Based on data of 14-05-2020</a:t>
+              <a:t>Predicted Active Cases using SEIR model - 11-27 days incubation period </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1543,18 +1543,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$2:$CD$2</c:f>
+              <c:f>'Peak Prediction'!$B$2:$BE$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="835956443"/>
-        <c:axId val="63390345"/>
+        <c:axId val="1462994009"/>
+        <c:axId val="1007259174"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1570,12 +1570,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$3:$CD$3</c:f>
+              <c:f>'Peak Prediction'!$B$3:$BE$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1593,12 +1593,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$4:$CD$4</c:f>
+              <c:f>'Peak Prediction'!$B$4:$BE$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1616,12 +1616,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$5:$CD$5</c:f>
+              <c:f>'Peak Prediction'!$B$5:$BE$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1639,12 +1639,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$6:$CD$6</c:f>
+              <c:f>'Peak Prediction'!$B$6:$BE$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1662,12 +1662,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$7:$CD$7</c:f>
+              <c:f>'Peak Prediction'!$B$7:$BE$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1685,12 +1685,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$8:$CD$8</c:f>
+              <c:f>'Peak Prediction'!$B$8:$BE$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1708,12 +1708,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$9:$CD$9</c:f>
+              <c:f>'Peak Prediction'!$B$9:$BE$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1731,12 +1731,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$10:$CD$10</c:f>
+              <c:f>'Peak Prediction'!$B$10:$BE$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1754,21 +1754,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Peak Prediction'!$B$1:$CD$1</c:f>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Peak Prediction'!$B$11:$CD$11</c:f>
+              <c:f>'Peak Prediction'!$B$11:$BE$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="835956443"/>
-        <c:axId val="63390345"/>
+        <c:axId val="1462994009"/>
+        <c:axId val="1007259174"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835956443"/>
+        <c:axId val="1462994009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,10 +1813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63390345"/>
+        <c:crossAx val="1007259174"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63390345"/>
+        <c:axId val="1007259174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1885,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835956443"/>
+        <c:crossAx val="1462994009"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1912,6 +1912,427 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Predicted Active Cases using SEIR model - 11-27 days incubation period </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.050018828286031394"/>
+          <c:y val="0.04765498652291105"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CFE2F3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$2:$BE$2</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="1773624994"/>
+        <c:axId val="237705372"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$3</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$3:$BE$3</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$4</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$4:$BE$4</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$5</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$5:$BE$5</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$6</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$6:$BE$6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$7</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$7:$BE$7</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$8</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$8:$BE$8</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$9</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$9:$BE$9</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$10</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$10:$BE$10</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$A$11</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Peak Prediction'!$B$1:$BE$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Prediction'!$B$11:$BE$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1773624994"/>
+        <c:axId val="237705372"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1773624994"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="237705372"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="237705372"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773624994"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -2146,11 +2567,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="58217004"/>
-        <c:axId val="1204562180"/>
+        <c:axId val="486416336"/>
+        <c:axId val="1038956158"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58217004"/>
+        <c:axId val="486416336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,10 +2616,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1204562180"/>
+        <c:crossAx val="1038956158"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1204562180"/>
+        <c:axId val="1038956158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,7 +2688,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58217004"/>
+        <c:crossAx val="486416336"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2298,7 +2719,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -2533,11 +2954,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1962937958"/>
-        <c:axId val="622949600"/>
+        <c:axId val="1584317436"/>
+        <c:axId val="2075512095"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1962937958"/>
+        <c:axId val="1584317436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,10 +3003,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622949600"/>
+        <c:crossAx val="2075512095"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622949600"/>
+        <c:axId val="2075512095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +3075,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1962937958"/>
+        <c:crossAx val="1584317436"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2680,7 +3101,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -2735,8 +3156,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="600019366"/>
-        <c:axId val="1488485850"/>
+        <c:axId val="2139027472"/>
+        <c:axId val="715748100"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2946,11 +3367,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="600019366"/>
-        <c:axId val="1488485850"/>
+        <c:axId val="2139027472"/>
+        <c:axId val="715748100"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="600019366"/>
+        <c:axId val="2139027472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,10 +3416,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1488485850"/>
+        <c:crossAx val="715748100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1488485850"/>
+        <c:axId val="715748100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,7 +3488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600019366"/>
+        <c:crossAx val="2139027472"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3109,7 +3530,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1261421000" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="1261421000" name="Chart 7" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3139,7 +3560,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1879382530" name="Chart 6" title="Chart"/>
+        <xdr:cNvPr id="1879382530" name="Chart 8" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3199,7 +3620,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="891414374" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="891414374" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3237,7 +3658,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2142510870" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="2142510870" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3259,15 +3680,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="263283604" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="263283604" name="Chart 4" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3277,6 +3698,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4229100" cy="5829300"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1055740452" name="Chart 5" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3301,7 +3747,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1540763434" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="1540763434" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10040,1855 +10486,1855 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <f>Confirmed!B3/Testing!B3</f>
         <v>0.008695652174</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <f>Confirmed!C3/Testing!C3</f>
         <v>0.01937984496</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>Confirmed!D3/Testing!D3</f>
         <v>0.02090592334</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <f>Confirmed!E3/Testing!E3</f>
         <v>0.009677419355</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <f>Confirmed!F3/Testing!F3</f>
         <v>0.01807228916</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <f>Confirmed!G3/Testing!G3</f>
         <v>0.01955307263</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <f>Confirmed!H3/Testing!H3</f>
         <v>0.0180878553</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <f>Confirmed!I3/Testing!I3</f>
         <v>0.0171990172</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <f>Confirmed!J3/Testing!J3</f>
         <v>0.01605504587</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <f>Confirmed!K3/Testing!K3</f>
         <v>0.0174291939</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <f>Confirmed!L3/Testing!L3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <f>Confirmed!M3/Testing!M3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <f>Confirmed!N3/Testing!N3</f>
         <v>0.02524271845</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <f>Confirmed!O3/Testing!O3</f>
         <v>0.02697841727</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <f>Confirmed!P3/Testing!P3</f>
         <v>0.02542372881</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="21">
         <f>Confirmed!Q3/Testing!Q3</f>
         <v>0.02640264026</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <f>Confirmed!R3/Testing!R3</f>
         <v>0.02472952087</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <f>Confirmed!S3/Testing!S3</f>
         <v>0.02366863905</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="21">
         <f>Confirmed!T3/Testing!T3</f>
         <v>0.02275960171</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="21">
         <f>Confirmed!U3/Testing!U3</f>
         <v>0.0218878249</v>
       </c>
-      <c r="V4" s="22">
+      <c r="V4" s="21">
         <f>Confirmed!V3/Testing!V3</f>
         <v>0.02083333333</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="21">
         <f>Confirmed!W3/Testing!W3</f>
         <v>0.01965601966</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4" s="21">
         <f>Confirmed!X3/Testing!X3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="21">
         <f>Confirmed!Y3/Testing!Y3</f>
         <v>0.01727861771</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="21">
         <f>Confirmed!Z3/Testing!Z3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA4" s="21">
         <f>Confirmed!AA3/Testing!AA3</f>
         <v>0.0156097561</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AB4" s="21">
         <f>Confirmed!AB3/Testing!AB3</f>
         <v>0.01481481481</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4" s="21">
         <f>Confirmed!AC3/Testing!AC3</f>
         <v>0.01380500431</v>
       </c>
-      <c r="AD4" s="22">
+      <c r="AD4" s="21">
         <f>Confirmed!AD3/Testing!AD3</f>
         <v>0.01299756296</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="21">
         <f>Confirmed!AE3/Testing!AE3</f>
         <v>0.01230769231</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AF4" s="21">
         <f>Confirmed!AF3/Testing!AF3</f>
         <v>0.01248164464</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AG4" s="21">
         <f>Confirmed!AG3/Testing!AG3</f>
         <v>0.01179736294</v>
       </c>
-      <c r="AH4" s="22">
+      <c r="AH4" s="21">
         <f>Confirmed!AH3/Testing!AH3</f>
         <v>0.01134846462</v>
       </c>
-      <c r="AI4" s="22">
+      <c r="AI4" s="21">
         <f>Confirmed!AI3/Testing!AI3</f>
         <v>0.01067839196</v>
       </c>
-      <c r="AJ4" s="22">
+      <c r="AJ4" s="21">
         <f>Confirmed!AJ3/Testing!AJ3</f>
         <v>0.01014319809</v>
       </c>
-      <c r="AK4" s="22">
+      <c r="AK4" s="21">
         <f>Confirmed!AK3/Testing!AK3</f>
         <v>0.01024473534</v>
       </c>
-      <c r="AL4" s="22">
+      <c r="AL4" s="21">
         <f>Confirmed!AL3/Testing!AL3</f>
         <v>0.01234567901</v>
       </c>
-      <c r="AM4" s="22">
+      <c r="AM4" s="21">
         <f>Confirmed!AM3/Testing!AM3</f>
         <v>0.01209677419</v>
       </c>
-      <c r="AN4" s="22">
+      <c r="AN4" s="21">
         <f>Confirmed!AN3/Testing!AN3</f>
         <v>0.01201923077</v>
       </c>
-      <c r="AO4" s="22">
+      <c r="AO4" s="21">
         <f>Confirmed!AO3/Testing!AO3</f>
         <v>0.01200923788</v>
       </c>
-      <c r="AP4" s="22">
+      <c r="AP4" s="21">
         <f>Confirmed!AP3/Testing!AP3</f>
         <v>0.0115248227</v>
       </c>
-      <c r="AQ4" s="22">
+      <c r="AQ4" s="21">
         <f>Confirmed!AQ3/Testing!AQ3</f>
         <v>0.01144552777</v>
       </c>
-      <c r="AR4" s="22">
+      <c r="AR4" s="21">
         <f>Confirmed!AR3/Testing!AR3</f>
         <v>0.01086519115</v>
       </c>
-      <c r="AS4" s="22">
+      <c r="AS4" s="21">
         <f>Confirmed!AS3/Testing!AS3</f>
         <v>0.01069927398</v>
       </c>
-      <c r="AT4" s="22">
+      <c r="AT4" s="21">
         <f>Confirmed!AT3/Testing!AT3</f>
         <v>0.01052249637</v>
       </c>
-      <c r="AU4" s="22">
+      <c r="AU4" s="21">
         <f>Confirmed!AU3/Testing!AU3</f>
         <v>0.01043478261</v>
       </c>
-      <c r="AV4" s="22">
+      <c r="AV4" s="21">
         <f>Confirmed!AV3/Testing!AV3</f>
         <v>0.01005025126</v>
       </c>
-      <c r="AW4" s="22">
+      <c r="AW4" s="21">
         <f>Confirmed!AW3/Testing!AW3</f>
         <v>0.009615384615</v>
       </c>
-      <c r="AX4" s="22">
+      <c r="AX4" s="21">
         <f>Confirmed!AX3/Testing!AX3</f>
         <v>0.009526736325</v>
       </c>
-      <c r="AY4" s="22">
+      <c r="AY4" s="21">
         <f>Confirmed!AY3/Testing!AY3</f>
         <v>0.009988249119</v>
       </c>
-      <c r="AZ4" s="22"/>
+      <c r="AZ4" s="21"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <f>Confirmed!B4/Testing!B4</f>
         <v>0.01425178147</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <f>Confirmed!C4/Testing!C4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <f>Confirmed!D4/Testing!D4</f>
         <v>0.01142857143</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <f>Confirmed!E4/Testing!E4</f>
         <v>0.01410934744</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <f>Confirmed!F4/Testing!F4</f>
         <v>0.01320132013</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <f>Confirmed!G4/Testing!G4</f>
         <v>0.01376146789</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f>Confirmed!H4/Testing!H4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <f>Confirmed!I4/Testing!I4</f>
         <v>0.01211305518</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <f>Confirmed!J4/Testing!J4</f>
         <v>0.01381909548</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <f>Confirmed!K4/Testing!K4</f>
         <v>0.01311084625</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <f>Confirmed!L4/Testing!L4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <f>Confirmed!M4/Testing!M4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <f>Confirmed!N4/Testing!N4</f>
         <v>0.01594048884</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <f>Confirmed!O4/Testing!O4</f>
         <v>0.01476377953</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <f>Confirmed!P4/Testing!P4</f>
         <v>0.01669758813</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="21">
         <f>Confirmed!Q4/Testing!Q4</f>
         <v>0.01714801444</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="21">
         <f>Confirmed!R4/Testing!R4</f>
         <v>0.01607445008</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <f>Confirmed!S4/Testing!S4</f>
         <v>0.01781376518</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <f>Confirmed!T4/Testing!T4</f>
         <v>0.01713395639</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <f>Confirmed!U4/Testing!U4</f>
         <v>0.01721556886</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="21">
         <f>Confirmed!V4/Testing!V4</f>
         <v>0.017106201</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="21">
         <f>Confirmed!W4/Testing!W4</f>
         <v>0.01612903226</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="21">
         <f>Confirmed!X4/Testing!X4</f>
         <v>0.01505646173</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="21">
         <f>Confirmed!Y4/Testing!Y4</f>
         <v>0.0141760189</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="21">
         <f>Confirmed!Z4/Testing!Z4</f>
         <v>0.0139431121</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="AA5" s="21">
         <f>Confirmed!AA4/Testing!AA4</f>
         <v>0.01281366791</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AB5" s="21">
         <f>Confirmed!AB4/Testing!AB4</f>
         <v>0.01215805471</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="21">
         <f>Confirmed!AC4/Testing!AC4</f>
         <v>0.01179801793</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5" s="21">
         <f>Confirmed!AD4/Testing!AD4</f>
         <v>0.01111605158</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="21">
         <f>Confirmed!AE4/Testing!AE4</f>
         <v>0.01178451178</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AF5" s="21">
         <f>Confirmed!AF4/Testing!AF4</f>
         <v>0.01124949779</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5" s="21">
         <f>Confirmed!AG4/Testing!AG4</f>
         <v>0.0106302202</v>
       </c>
-      <c r="AH5" s="22">
+      <c r="AH5" s="21">
         <f>Confirmed!AH4/Testing!AH4</f>
         <v>0.01059167275</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="21">
         <f>Confirmed!AI4/Testing!AI4</f>
         <v>0.009969061533</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="21">
         <f>Confirmed!AJ4/Testing!AJ4</f>
         <v>0.0101207966</v>
       </c>
-      <c r="AK5" s="22">
+      <c r="AK5" s="21">
         <f>Confirmed!AK4/Testing!AK4</f>
         <v>0.01090342679</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AL5" s="21">
         <f>Confirmed!AL4/Testing!AL4</f>
         <v>0.01028202115</v>
       </c>
-      <c r="AM5" s="22">
+      <c r="AM5" s="21">
         <f>Confirmed!AM4/Testing!AM4</f>
         <v>0.009925558313</v>
       </c>
-      <c r="AN5" s="22">
+      <c r="AN5" s="21">
         <f>Confirmed!AN4/Testing!AN4</f>
         <v>0.009208103131</v>
       </c>
-      <c r="AO5" s="22">
+      <c r="AO5" s="21">
         <f>Confirmed!AO4/Testing!AO4</f>
         <v>0.008847320526</v>
       </c>
-      <c r="AP5" s="22">
+      <c r="AP5" s="21">
         <f>Confirmed!AP4/Testing!AP4</f>
         <v>0.008974048023</v>
       </c>
-      <c r="AQ5" s="22">
+      <c r="AQ5" s="21">
         <f>Confirmed!AQ4/Testing!AQ4</f>
         <v>0.009276437848</v>
       </c>
-      <c r="AR5" s="22">
+      <c r="AR5" s="21">
         <f>Confirmed!AR4/Testing!AR4</f>
         <v>0.009247027741</v>
       </c>
-      <c r="AS5" s="22">
+      <c r="AS5" s="21">
         <f>Confirmed!AS4/Testing!AS4</f>
         <v>0.008572025925</v>
       </c>
-      <c r="AT5" s="22">
+      <c r="AT5" s="21">
         <f>Confirmed!AT4/Testing!AT4</f>
         <v>0.00893388922</v>
       </c>
-      <c r="AU5" s="22">
+      <c r="AU5" s="21">
         <f>Confirmed!AU4/Testing!AU4</f>
         <v>0.009514747859</v>
       </c>
-      <c r="AV5" s="22">
+      <c r="AV5" s="21">
         <f>Confirmed!AV4/Testing!AV4</f>
         <v>0.009347507331</v>
       </c>
-      <c r="AW5" s="22">
+      <c r="AW5" s="21">
         <f>Confirmed!AW4/Testing!AW4</f>
         <v>0.009119607155</v>
       </c>
-      <c r="AX5" s="22">
+      <c r="AX5" s="21">
         <f>Confirmed!AX4/Testing!AX4</f>
         <v>0.009751176866</v>
       </c>
-      <c r="AY5" s="22">
+      <c r="AY5" s="21">
         <f>Confirmed!AY4/Testing!AY4</f>
         <v>0.01012698923</v>
       </c>
-      <c r="AZ5" s="22"/>
+      <c r="AZ5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <f>Confirmed!B5/Testing!B5</f>
         <v>0.01145038168</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <f>Confirmed!C5/Testing!C5</f>
         <v>0.0113507378</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <f>Confirmed!D5/Testing!D5</f>
         <v>0.01121304791</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <f>Confirmed!E5/Testing!E5</f>
         <v>0.01039697543</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <f>Confirmed!F5/Testing!F5</f>
         <v>0.01060070671</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <f>Confirmed!G5/Testing!G5</f>
         <v>0.009836065574</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <f>Confirmed!H5/Testing!H5</f>
         <v>0.009841029523</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <f>Confirmed!I5/Testing!I5</f>
         <v>0.009372746936</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <f>Confirmed!J5/Testing!J5</f>
         <v>0.01211305518</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <f>Confirmed!K5/Testing!K5</f>
         <v>0.01148691768</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="21">
         <f>Confirmed!L5/Testing!L5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="21">
         <f>Confirmed!M5/Testing!M5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="21">
         <f>Confirmed!N5/Testing!N5</f>
         <v>0.01195219124</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="21">
         <f>Confirmed!O5/Testing!O5</f>
         <v>0.0105374078</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="21">
         <f>Confirmed!P5/Testing!P5</f>
         <v>0.009940357853</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="21">
         <f>Confirmed!Q5/Testing!Q5</f>
         <v>0.009671179884</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="21">
         <f>Confirmed!R5/Testing!R5</f>
         <v>0.009519492294</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="21">
         <f>Confirmed!S5/Testing!S5</f>
         <v>0.009544468547</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="21">
         <f>Confirmed!T5/Testing!T5</f>
         <v>0.009178139341</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="21">
         <f>Confirmed!U5/Testing!U5</f>
         <v>0.00882117081</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="21">
         <f>Confirmed!V5/Testing!V5</f>
         <v>0.00840015273</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="21">
         <f>Confirmed!W5/Testing!W5</f>
         <v>0.008279337653</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="21">
         <f>Confirmed!X5/Testing!X5</f>
         <v>0.008400537634</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="21">
         <f>Confirmed!Y5/Testing!Y5</f>
         <v>0.007278481013</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="21">
         <f>Confirmed!Z5/Testing!Z5</f>
         <v>0.006869772999</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AA6" s="21">
         <f>Confirmed!AA5/Testing!AA5</f>
         <v>0.00686302545</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AB6" s="21">
         <f>Confirmed!AB5/Testing!AB5</f>
         <v>0.00623982637</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="21">
         <f>Confirmed!AC5/Testing!AC5</f>
         <v>0.005815423515</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AD6" s="21">
         <f>Confirmed!AD5/Testing!AD5</f>
         <v>0.005717008099</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="21">
         <f>Confirmed!AE5/Testing!AE5</f>
         <v>0.005184851217</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AF6" s="21">
         <f>Confirmed!AF5/Testing!AF5</f>
         <v>0.00495049505</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="21">
         <f>Confirmed!AG5/Testing!AG5</f>
         <v>0.0052877771</v>
       </c>
-      <c r="AH6" s="22">
+      <c r="AH6" s="21">
         <f>Confirmed!AH5/Testing!AH5</f>
         <v>0.004695754256</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="21">
         <f>Confirmed!AI5/Testing!AI5</f>
         <v>0.005707972749</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="21">
         <f>Confirmed!AJ5/Testing!AJ5</f>
         <v>0.00629590766</v>
       </c>
-      <c r="AK6" s="22">
+      <c r="AK6" s="21">
         <f>Confirmed!AK5/Testing!AK5</f>
         <v>0.005840146838</v>
       </c>
-      <c r="AL6" s="22">
+      <c r="AL6" s="21">
         <f>Confirmed!AL5/Testing!AL5</f>
         <v>0.006294256491</v>
       </c>
-      <c r="AM6" s="22">
+      <c r="AM6" s="21">
         <f>Confirmed!AM5/Testing!AM5</f>
         <v>0.006794682422</v>
       </c>
-      <c r="AN6" s="22">
+      <c r="AN6" s="21">
         <f>Confirmed!AN5/Testing!AN5</f>
         <v>0.007470049331</v>
       </c>
-      <c r="AO6" s="22">
+      <c r="AO6" s="21">
         <f>Confirmed!AO5/Testing!AO5</f>
         <v>0.007718348003</v>
       </c>
-      <c r="AP6" s="22">
+      <c r="AP6" s="21">
         <f>Confirmed!AP5/Testing!AP5</f>
         <v>0.007405482656</v>
       </c>
-      <c r="AQ6" s="22">
+      <c r="AQ6" s="21">
         <f>Confirmed!AQ5/Testing!AQ5</f>
         <v>0.007330103118</v>
       </c>
-      <c r="AR6" s="22">
+      <c r="AR6" s="21">
         <f>Confirmed!AR5/Testing!AR5</f>
         <v>0.007076306168</v>
       </c>
-      <c r="AS6" s="22">
+      <c r="AS6" s="21">
         <f>Confirmed!AS5/Testing!AS5</f>
         <v>0.00683167208</v>
       </c>
-      <c r="AT6" s="22">
+      <c r="AT6" s="21">
         <f>Confirmed!AT5/Testing!AT5</f>
         <v>0.006486601446</v>
       </c>
-      <c r="AU6" s="22">
+      <c r="AU6" s="21">
         <f>Confirmed!AU5/Testing!AU5</f>
         <v>0.006422018349</v>
       </c>
-      <c r="AV6" s="22">
+      <c r="AV6" s="21">
         <f>Confirmed!AV5/Testing!AV5</f>
         <v>0.00618556701</v>
       </c>
-      <c r="AW6" s="22">
+      <c r="AW6" s="21">
         <f>Confirmed!AW5/Testing!AW5</f>
         <v>0.006200676437</v>
       </c>
-      <c r="AX6" s="22">
+      <c r="AX6" s="21">
         <f>Confirmed!AX5/Testing!AX5</f>
         <v>0.006034405116</v>
       </c>
-      <c r="AY6" s="22">
+      <c r="AY6" s="21">
         <f>Confirmed!AY5/Testing!AY5</f>
         <v>0.005768899604</v>
       </c>
-      <c r="AZ6" s="22"/>
+      <c r="AZ6" s="21"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <f>Confirmed!B6/Testing!B6</f>
         <v>0.009244992296</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <f>Confirmed!C6/Testing!C6</f>
         <v>0.015130674</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f>Confirmed!D6/Testing!D6</f>
         <v>0.01483312732</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <f>Confirmed!E6/Testing!E6</f>
         <v>0.0126002291</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <f>Confirmed!F6/Testing!F6</f>
         <v>0.01498929336</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <f>Confirmed!G6/Testing!G6</f>
         <v>0.01390268123</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <f>Confirmed!H6/Testing!H6</f>
         <v>0.01466544455</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <f>Confirmed!I6/Testing!I6</f>
         <v>0.01397379913</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <f>Confirmed!J6/Testing!J6</f>
         <v>0.01466992665</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <f>Confirmed!K6/Testing!K6</f>
         <v>0.01469450889</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <f>Confirmed!L6/Testing!L6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="21">
         <f>Confirmed!M6/Testing!M6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <f>Confirmed!N6/Testing!N6</f>
         <v>0.01448275862</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="21">
         <f>Confirmed!O6/Testing!O6</f>
         <v>0.01404853129</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="21">
         <f>Confirmed!P6/Testing!P6</f>
         <v>0.01444912703</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="21">
         <f>Confirmed!Q6/Testing!Q6</f>
         <v>0.01347393087</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="21">
         <f>Confirmed!R6/Testing!R6</f>
         <v>0.01263042284</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="21">
         <f>Confirmed!S6/Testing!S6</f>
         <v>0.01209253417</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="21">
         <f>Confirmed!T6/Testing!T6</f>
         <v>0.01212733704</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="21">
         <f>Confirmed!U6/Testing!U6</f>
         <v>0.01214771623</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="21">
         <f>Confirmed!V6/Testing!V6</f>
         <v>0.01202590194</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="21">
         <f>Confirmed!W6/Testing!W6</f>
         <v>0.01133885739</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="21">
         <f>Confirmed!X6/Testing!X6</f>
         <v>0.01058631922</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="21">
         <f>Confirmed!Y6/Testing!Y6</f>
         <v>0.01035276074</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="21">
         <f>Confirmed!Z6/Testing!Z6</f>
         <v>0.009771986971</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="AA7" s="21">
         <f>Confirmed!AA6/Testing!AA6</f>
         <v>0.009352268791</v>
       </c>
-      <c r="AB7" s="22">
+      <c r="AB7" s="21">
         <f>Confirmed!AB6/Testing!AB6</f>
         <v>0.008875739645</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7" s="21">
         <f>Confirmed!AC6/Testing!AC6</f>
         <v>0.008269525268</v>
       </c>
-      <c r="AD7" s="22">
+      <c r="AD7" s="21">
         <f>Confirmed!AD6/Testing!AD6</f>
         <v>0.008369408369</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="21">
         <f>Confirmed!AE6/Testing!AE6</f>
         <v>0.008194482382</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AF7" s="21">
         <f>Confirmed!AF6/Testing!AF6</f>
         <v>0.008083441982</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="21">
         <f>Confirmed!AG6/Testing!AG6</f>
         <v>0.007639231148</v>
       </c>
-      <c r="AH7" s="22">
+      <c r="AH7" s="21">
         <f>Confirmed!AH6/Testing!AH6</f>
         <v>0.007349454718</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="21">
         <f>Confirmed!AI6/Testing!AI6</f>
         <v>0.006915012269</v>
       </c>
-      <c r="AJ7" s="22">
+      <c r="AJ7" s="21">
         <f>Confirmed!AJ6/Testing!AJ6</f>
         <v>0.00678109769</v>
       </c>
-      <c r="AK7" s="22">
+      <c r="AK7" s="21">
         <f>Confirmed!AK6/Testing!AK6</f>
         <v>0.006874241812</v>
       </c>
-      <c r="AL7" s="22">
+      <c r="AL7" s="21">
         <f>Confirmed!AL6/Testing!AL6</f>
         <v>0.006862371331</v>
       </c>
-      <c r="AM7" s="22">
+      <c r="AM7" s="21">
         <f>Confirmed!AM6/Testing!AM6</f>
         <v>0.006621331424</v>
       </c>
-      <c r="AN7" s="22">
+      <c r="AN7" s="21">
         <f>Confirmed!AN6/Testing!AN6</f>
         <v>0.006659836066</v>
       </c>
-      <c r="AO7" s="22">
+      <c r="AO7" s="21">
         <f>Confirmed!AO6/Testing!AO6</f>
         <v>0.00656167979</v>
       </c>
-      <c r="AP7" s="22">
+      <c r="AP7" s="21">
         <f>Confirmed!AP6/Testing!AP6</f>
         <v>0.006296237998</v>
       </c>
-      <c r="AQ7" s="22">
+      <c r="AQ7" s="21">
         <f>Confirmed!AQ6/Testing!AQ6</f>
         <v>0.006171910281</v>
       </c>
-      <c r="AR7" s="22">
+      <c r="AR7" s="21">
         <f>Confirmed!AR6/Testing!AR6</f>
         <v>0.006144612746</v>
       </c>
-      <c r="AS7" s="22">
+      <c r="AS7" s="21">
         <f>Confirmed!AS6/Testing!AS6</f>
         <v>0.006920884788</v>
       </c>
-      <c r="AT7" s="22">
+      <c r="AT7" s="21">
         <f>Confirmed!AT6/Testing!AT6</f>
         <v>0.006956969853</v>
       </c>
-      <c r="AU7" s="22">
+      <c r="AU7" s="21">
         <f>Confirmed!AU6/Testing!AU6</f>
         <v>0.006669136717</v>
       </c>
-      <c r="AV7" s="22">
+      <c r="AV7" s="21">
         <f>Confirmed!AV6/Testing!AV6</f>
         <v>0.006423218746</v>
       </c>
-      <c r="AW7" s="22">
+      <c r="AW7" s="21">
         <f>Confirmed!AW6/Testing!AW6</f>
         <v>0.006146141589</v>
       </c>
-      <c r="AX7" s="22">
+      <c r="AX7" s="21">
         <f>Confirmed!AX6/Testing!AX6</f>
         <v>0.006001091107</v>
       </c>
-      <c r="AY7" s="22">
+      <c r="AY7" s="21">
         <f>Confirmed!AY6/Testing!AY6</f>
         <v>0.0059461715</v>
       </c>
-      <c r="AZ7" s="22"/>
+      <c r="AZ7" s="21"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <f>Confirmed!B7/Testing!B7</f>
         <v>0.001903311762</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <f>Confirmed!C7/Testing!C7</f>
         <v>0.003397893306</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <f>Confirmed!D7/Testing!D7</f>
         <v>0.003661885871</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <f>Confirmed!E7/Testing!E7</f>
         <v>0.003393665158</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <f>Confirmed!F7/Testing!F7</f>
         <v>0.003173763555</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <f>Confirmed!G7/Testing!G7</f>
         <v>0.003678273664</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <f>Confirmed!H7/Testing!H7</f>
         <v>0.003849637681</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <f>Confirmed!I7/Testing!I7</f>
         <v>0.004529767041</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <f>Confirmed!J7/Testing!J7</f>
         <v>0.005034232783</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <f>Confirmed!K7/Testing!K7</f>
         <v>0.005920550038</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="21">
         <f>Confirmed!L7/Testing!L7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <f>Confirmed!M7/Testing!M7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <f>Confirmed!N7/Testing!N7</f>
         <v>0.007664793051</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="21">
         <f>Confirmed!O7/Testing!O7</f>
         <v>0.009619933764</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="21">
         <f>Confirmed!P7/Testing!P7</f>
         <v>0.0101145322</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="21">
         <f>Confirmed!Q7/Testing!Q7</f>
         <v>0.009986973513</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="21">
         <f>Confirmed!R7/Testing!R7</f>
         <v>0.01193544012</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="21">
         <f>Confirmed!S7/Testing!S7</f>
         <v>0.01350298624</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="21">
         <f>Confirmed!T7/Testing!T7</f>
         <v>0.02172013481</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="21">
         <f>Confirmed!U7/Testing!U7</f>
         <v>0.02388095524</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="21">
         <f>Confirmed!V7/Testing!V7</f>
         <v>0.025139984</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="21">
         <f>Confirmed!W7/Testing!W7</f>
         <v>0.02650290886</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="21">
         <f>Confirmed!X7/Testing!X7</f>
         <v>0.02714932127</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="21">
         <f>Confirmed!Y7/Testing!Y7</f>
         <v>0.02774621212</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="21">
         <f>Confirmed!Z7/Testing!Z7</f>
         <v>0.02771321294</v>
       </c>
-      <c r="AA8" s="22">
+      <c r="AA8" s="21">
         <f>Confirmed!AA7/Testing!AA7</f>
         <v>0.02952250556</v>
       </c>
-      <c r="AB8" s="22">
+      <c r="AB8" s="21">
         <f>Confirmed!AB7/Testing!AB7</f>
         <v>0.03061307349</v>
       </c>
-      <c r="AC8" s="22">
+      <c r="AC8" s="21">
         <f>Confirmed!AC7/Testing!AC7</f>
         <v>0.03155027616</v>
       </c>
-      <c r="AD8" s="22">
+      <c r="AD8" s="21">
         <f>Confirmed!AD7/Testing!AD7</f>
         <v>0.03421484069</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="21">
         <f>Confirmed!AE7/Testing!AE7</f>
         <v>0.03292403184</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AF8" s="21">
         <f>Confirmed!AF7/Testing!AF7</f>
         <v>0.0344605475</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8" s="21">
         <f>Confirmed!AG7/Testing!AG7</f>
         <v>0.03578819233</v>
       </c>
-      <c r="AH8" s="22">
+      <c r="AH8" s="21">
         <f>Confirmed!AH7/Testing!AH7</f>
         <v>0.03607190959</v>
       </c>
-      <c r="AI8" s="22">
+      <c r="AI8" s="21">
         <f>Confirmed!AI7/Testing!AI7</f>
         <v>0.0347145691</v>
       </c>
-      <c r="AJ8" s="22">
+      <c r="AJ8" s="21">
         <f>Confirmed!AJ7/Testing!AJ7</f>
         <v>0.03386548024</v>
       </c>
-      <c r="AK8" s="22">
+      <c r="AK8" s="21">
         <f>Confirmed!AK7/Testing!AK7</f>
         <v>0.03450686642</v>
       </c>
-      <c r="AL8" s="22">
+      <c r="AL8" s="21">
         <f>Confirmed!AL7/Testing!AL7</f>
         <v>0.03446814522</v>
       </c>
-      <c r="AM8" s="22">
+      <c r="AM8" s="21">
         <f>Confirmed!AM7/Testing!AM7</f>
         <v>0.03421145686</v>
       </c>
-      <c r="AN8" s="22">
+      <c r="AN8" s="21">
         <f>Confirmed!AN7/Testing!AN7</f>
         <v>0.03433150569</v>
       </c>
-      <c r="AO8" s="22">
+      <c r="AO8" s="21">
         <f>Confirmed!AO7/Testing!AO7</f>
         <v>0.03395737094</v>
       </c>
-      <c r="AP8" s="22">
+      <c r="AP8" s="21">
         <f>Confirmed!AP7/Testing!AP7</f>
         <v>0.03300933126</v>
       </c>
-      <c r="AQ8" s="22">
+      <c r="AQ8" s="21">
         <f>Confirmed!AQ7/Testing!AQ7</f>
         <v>0.03454045211</v>
       </c>
-      <c r="AR8" s="22">
+      <c r="AR8" s="21">
         <f>Confirmed!AR7/Testing!AR7</f>
         <v>0.03490752506</v>
       </c>
-      <c r="AS8" s="22">
+      <c r="AS8" s="21">
         <f>Confirmed!AS7/Testing!AS7</f>
         <v>0.03613205966</v>
       </c>
-      <c r="AT8" s="22">
+      <c r="AT8" s="21">
         <f>Confirmed!AT7/Testing!AT7</f>
         <v>0.0387601833</v>
       </c>
-      <c r="AU8" s="22">
+      <c r="AU8" s="21">
         <f>Confirmed!AU7/Testing!AU7</f>
         <v>0.041366687</v>
       </c>
-      <c r="AV8" s="22">
+      <c r="AV8" s="21">
         <f>Confirmed!AV7/Testing!AV7</f>
         <v>0.04418980461</v>
       </c>
-      <c r="AW8" s="22">
+      <c r="AW8" s="21">
         <f>Confirmed!AW7/Testing!AW7</f>
         <v>0.04312865497</v>
       </c>
-      <c r="AX8" s="22">
+      <c r="AX8" s="21">
         <f>Confirmed!AX7/Testing!AX7</f>
         <v>0.0422888254</v>
       </c>
-      <c r="AY8" s="22">
+      <c r="AY8" s="21">
         <f>Confirmed!AY7/Testing!AY7</f>
         <v>0.04282511789</v>
       </c>
-      <c r="AZ8" s="22"/>
+      <c r="AZ8" s="21"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <f>Confirmed!B8/Testing!B8</f>
         <v>0.03363074811</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <f>Confirmed!C8/Testing!C8</f>
         <v>0.04166666667</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <f>Confirmed!D8/Testing!D8</f>
         <v>0.03962575674</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f>Confirmed!E8/Testing!E8</f>
         <v>0.03671596124</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <f>Confirmed!F8/Testing!F8</f>
         <v>0.03528850739</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <f>Confirmed!G8/Testing!G8</f>
         <v>0.03361344538</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <f>Confirmed!H8/Testing!H8</f>
         <v>0.03429971417</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <f>Confirmed!I8/Testing!I8</f>
         <v>0.03267211202</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <f>Confirmed!J8/Testing!J8</f>
         <v>0.03086419753</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <f>Confirmed!K8/Testing!K8</f>
         <v>0.02995867769</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="21">
         <f>Confirmed!L8/Testing!L8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <f>Confirmed!M8/Testing!M8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <f>Confirmed!N8/Testing!N8</f>
         <v>0.02702702703</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="21">
         <f>Confirmed!O8/Testing!O8</f>
         <v>0.02645051195</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="21">
         <f>Confirmed!P8/Testing!P8</f>
         <v>0.02520783052</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="21">
         <f>Confirmed!Q8/Testing!Q8</f>
         <v>0.0245302714</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="21">
         <f>Confirmed!R8/Testing!R8</f>
         <v>0.02347762289</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="21">
         <f>Confirmed!S8/Testing!S8</f>
         <v>0.02247191011</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="21">
         <f>Confirmed!T8/Testing!T8</f>
         <v>0.02205716858</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="21">
         <f>Confirmed!U8/Testing!U8</f>
         <v>0.02099112746</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="21">
         <f>Confirmed!V8/Testing!V8</f>
         <v>0.02019369462</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="21">
         <f>Confirmed!W8/Testing!W8</f>
         <v>0.01942501943</v>
       </c>
-      <c r="X9" s="22">
+      <c r="X9" s="21">
         <f>Confirmed!X8/Testing!X8</f>
         <v>0.01813236627</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="Y9" s="21">
         <f>Confirmed!Y8/Testing!Y8</f>
         <v>0.01707358716</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="21">
         <f>Confirmed!Z8/Testing!Z8</f>
         <v>0.0169245648</v>
       </c>
-      <c r="AA9" s="22">
+      <c r="AA9" s="21">
         <f>Confirmed!AA8/Testing!AA8</f>
         <v>0.01635550069</v>
       </c>
-      <c r="AB9" s="22">
+      <c r="AB9" s="21">
         <f>Confirmed!AB8/Testing!AB8</f>
         <v>0.01551976574</v>
       </c>
-      <c r="AC9" s="22">
+      <c r="AC9" s="21">
         <f>Confirmed!AC8/Testing!AC8</f>
         <v>0.01446111869</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AD9" s="21">
         <f>Confirmed!AD8/Testing!AD8</f>
         <v>0.01426735219</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9" s="21">
         <f>Confirmed!AE8/Testing!AE8</f>
         <v>0.01350364964</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AF9" s="21">
         <f>Confirmed!AF8/Testing!AF8</f>
         <v>0.01277584204</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AG9" s="21">
         <f>Confirmed!AG8/Testing!AG8</f>
         <v>0.01218173837</v>
       </c>
-      <c r="AH9" s="22">
+      <c r="AH9" s="21">
         <f>Confirmed!AH8/Testing!AH8</f>
         <v>0.01193115827</v>
       </c>
-      <c r="AI9" s="22">
+      <c r="AI9" s="21">
         <f>Confirmed!AI8/Testing!AI8</f>
         <v>0.01122702434</v>
       </c>
-      <c r="AJ9" s="22">
+      <c r="AJ9" s="21">
         <f>Confirmed!AJ8/Testing!AJ8</f>
         <v>0.01094752737</v>
       </c>
-      <c r="AK9" s="22">
+      <c r="AK9" s="21">
         <f>Confirmed!AK8/Testing!AK8</f>
         <v>0.01062488745</v>
       </c>
-      <c r="AL9" s="22">
+      <c r="AL9" s="21">
         <f>Confirmed!AL8/Testing!AL8</f>
         <v>0.01027339107</v>
       </c>
-      <c r="AM9" s="22">
+      <c r="AM9" s="21">
         <f>Confirmed!AM8/Testing!AM8</f>
         <v>0.009723439866</v>
       </c>
-      <c r="AN9" s="22">
+      <c r="AN9" s="21">
         <f>Confirmed!AN8/Testing!AN8</f>
         <v>0.009506426344</v>
       </c>
-      <c r="AO9" s="22">
+      <c r="AO9" s="21">
         <f>Confirmed!AO8/Testing!AO8</f>
         <v>0.009352623119</v>
       </c>
-      <c r="AP9" s="22">
+      <c r="AP9" s="21">
         <f>Confirmed!AP8/Testing!AP8</f>
         <v>0.009113853057</v>
       </c>
-      <c r="AQ9" s="22">
+      <c r="AQ9" s="21">
         <f>Confirmed!AQ8/Testing!AQ8</f>
         <v>0.008983641727</v>
       </c>
-      <c r="AR9" s="22">
+      <c r="AR9" s="21">
         <f>Confirmed!AR8/Testing!AR8</f>
         <v>0.0084643289</v>
       </c>
-      <c r="AS9" s="22">
+      <c r="AS9" s="21">
         <f>Confirmed!AS8/Testing!AS8</f>
         <v>0.008098634111</v>
       </c>
-      <c r="AT9" s="22">
+      <c r="AT9" s="21">
         <f>Confirmed!AT8/Testing!AT8</f>
         <v>0.007746600103</v>
       </c>
-      <c r="AU9" s="22">
+      <c r="AU9" s="21">
         <f>Confirmed!AU8/Testing!AU8</f>
         <v>0.007426151053</v>
       </c>
-      <c r="AV9" s="22">
+      <c r="AV9" s="21">
         <f>Confirmed!AV8/Testing!AV8</f>
         <v>0.007152317881</v>
       </c>
-      <c r="AW9" s="22">
+      <c r="AW9" s="21">
         <f>Confirmed!AW8/Testing!AW8</f>
         <v>0.00699584305</v>
       </c>
-      <c r="AX9" s="22">
+      <c r="AX9" s="21">
         <f>Confirmed!AX8/Testing!AX8</f>
         <v>0.007046702629</v>
       </c>
-      <c r="AY9" s="22">
+      <c r="AY9" s="21">
         <f>Confirmed!AY8/Testing!AY8</f>
         <v>0.007015750592</v>
       </c>
-      <c r="AZ9" s="22"/>
+      <c r="AZ9" s="21"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <f>Confirmed!B9/Testing!B9</f>
         <v>0.0257296467</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <f>Confirmed!C9/Testing!C9</f>
         <v>0.02674438539</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <f>Confirmed!D9/Testing!D9</f>
         <v>0.02570812808</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f>Confirmed!E9/Testing!E9</f>
         <v>0.02439372325</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <f>Confirmed!F9/Testing!F9</f>
         <v>0.02387940235</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <f>Confirmed!G9/Testing!G9</f>
         <v>0.02300841168</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <f>Confirmed!H9/Testing!H9</f>
         <v>0.02353209961</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="21">
         <f>Confirmed!I9/Testing!I9</f>
         <v>0.02339244914</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <f>Confirmed!J9/Testing!J9</f>
         <v>0.02356765542</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <f>Confirmed!K9/Testing!K9</f>
         <v>0.02369942197</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="21">
         <f>Confirmed!L9/Testing!L9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <f>Confirmed!M9/Testing!M9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f>Confirmed!N9/Testing!N9</f>
         <v>0.03041498411</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="21">
         <f>Confirmed!O9/Testing!O9</f>
         <v>0.0307875895</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="21">
         <f>Confirmed!P9/Testing!P9</f>
         <v>0.03091236495</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="21">
         <f>Confirmed!Q9/Testing!Q9</f>
         <v>0.03051540371</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="21">
         <f>Confirmed!R9/Testing!R9</f>
         <v>0.03030925014</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="21">
         <f>Confirmed!S9/Testing!S9</f>
         <v>0.03045386076</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="21">
         <f>Confirmed!T9/Testing!T9</f>
         <v>0.0307895731</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="21">
         <f>Confirmed!U9/Testing!U9</f>
         <v>0.03141836673</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10" s="21">
         <f>Confirmed!V9/Testing!V9</f>
         <v>0.03106807309</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10" s="21">
         <f>Confirmed!W9/Testing!W9</f>
         <v>0.03211781968</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10" s="21">
         <f>Confirmed!X9/Testing!X9</f>
         <v>0.03063812519</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y10" s="21">
         <f>Confirmed!Y9/Testing!Y9</f>
         <v>0.02947217578</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="21">
         <f>Confirmed!Z9/Testing!Z9</f>
         <v>0.02881493506</v>
       </c>
-      <c r="AA10" s="22">
+      <c r="AA10" s="21">
         <f>Confirmed!AA9/Testing!AA9</f>
         <v>0.02896361203</v>
       </c>
-      <c r="AB10" s="22">
+      <c r="AB10" s="21">
         <f>Confirmed!AB9/Testing!AB9</f>
         <v>0.03104775948</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="AC10" s="21">
         <f>Confirmed!AC9/Testing!AC9</f>
         <v>0.03079917564</v>
       </c>
-      <c r="AD10" s="22">
+      <c r="AD10" s="21">
         <f>Confirmed!AD9/Testing!AD9</f>
         <v>0.03023874587</v>
       </c>
-      <c r="AE10" s="22">
+      <c r="AE10" s="21">
         <f>Confirmed!AE9/Testing!AE9</f>
         <v>0.028825211</v>
       </c>
-      <c r="AF10" s="22">
+      <c r="AF10" s="21">
         <f>Confirmed!AF9/Testing!AF9</f>
         <v>0.02803950874</v>
       </c>
-      <c r="AG10" s="22">
+      <c r="AG10" s="21">
         <f>Confirmed!AG9/Testing!AG9</f>
         <v>0.02769249662</v>
       </c>
-      <c r="AH10" s="22">
+      <c r="AH10" s="21">
         <f>Confirmed!AH9/Testing!AH9</f>
         <v>0.0271459798</v>
       </c>
-      <c r="AI10" s="22">
+      <c r="AI10" s="21">
         <f>Confirmed!AI9/Testing!AI9</f>
         <v>0.02657253245</v>
       </c>
-      <c r="AJ10" s="22">
+      <c r="AJ10" s="21">
         <f>Confirmed!AJ9/Testing!AJ9</f>
         <v>0.02587458746</v>
       </c>
-      <c r="AK10" s="22">
+      <c r="AK10" s="21">
         <f>Confirmed!AK9/Testing!AK9</f>
         <v>0.02534068868</v>
       </c>
-      <c r="AL10" s="22">
+      <c r="AL10" s="21">
         <f>Confirmed!AL9/Testing!AL9</f>
         <v>0.02496377758</v>
       </c>
-      <c r="AM10" s="22">
+      <c r="AM10" s="21">
         <f>Confirmed!AM9/Testing!AM9</f>
         <v>0.02399108138</v>
       </c>
-      <c r="AN10" s="22">
+      <c r="AN10" s="21">
         <f>Confirmed!AN9/Testing!AN9</f>
         <v>0.02353091358</v>
       </c>
-      <c r="AO10" s="22">
+      <c r="AO10" s="21">
         <f>Confirmed!AO9/Testing!AO9</f>
         <v>0.023342804</v>
       </c>
-      <c r="AP10" s="22">
+      <c r="AP10" s="21">
         <f>Confirmed!AP9/Testing!AP9</f>
         <v>0.02331921236</v>
       </c>
-      <c r="AQ10" s="22">
+      <c r="AQ10" s="21">
         <f>Confirmed!AQ9/Testing!AQ9</f>
         <v>0.02258106866</v>
       </c>
-      <c r="AR10" s="22">
+      <c r="AR10" s="21">
         <f>Confirmed!AR9/Testing!AR9</f>
         <v>0.02230887013</v>
       </c>
-      <c r="AS10" s="22">
+      <c r="AS10" s="21">
         <f>Confirmed!AS9/Testing!AS9</f>
         <v>0.02211476685</v>
       </c>
-      <c r="AT10" s="22">
+      <c r="AT10" s="21">
         <f>Confirmed!AT9/Testing!AT9</f>
         <v>0.0217192391</v>
       </c>
-      <c r="AU10" s="22">
+      <c r="AU10" s="21">
         <f>Confirmed!AU9/Testing!AU9</f>
         <v>0.02111288933</v>
       </c>
-      <c r="AV10" s="22">
+      <c r="AV10" s="21">
         <f>Confirmed!AV9/Testing!AV9</f>
         <v>0.02066072831</v>
       </c>
-      <c r="AW10" s="22">
+      <c r="AW10" s="21">
         <f>Confirmed!AW9/Testing!AW9</f>
         <v>0.02003942647</v>
       </c>
-      <c r="AX10" s="22">
+      <c r="AX10" s="21">
         <f>Confirmed!AX9/Testing!AX9</f>
         <v>0.01963210202</v>
       </c>
-      <c r="AY10" s="22">
+      <c r="AY10" s="21">
         <f>Confirmed!AY9/Testing!AY9</f>
         <v>0.01926276386</v>
       </c>
-      <c r="AZ10" s="22"/>
+      <c r="AZ10" s="21"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <f>Confirmed!B10/Testing!B10</f>
         <v>0.03934031953</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <f>Confirmed!C10/Testing!C10</f>
         <v>0.04156441718</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <f>Confirmed!D10/Testing!D10</f>
         <v>0.04269972452</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <f>Confirmed!E10/Testing!E10</f>
         <v>0.04135818228</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <f>Confirmed!F10/Testing!F10</f>
         <v>0.03879207448</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <f>Confirmed!G10/Testing!G10</f>
         <v>0.03608589772</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <f>Confirmed!H10/Testing!H10</f>
         <v>0.03607931316</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="21">
         <f>Confirmed!I10/Testing!I10</f>
         <v>0.03640965732</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <f>Confirmed!J10/Testing!J10</f>
         <v>0.03935648064</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <f>Confirmed!K10/Testing!K10</f>
         <v>0.03913455737</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="21">
         <f>Confirmed!L10/Testing!L10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <f>Confirmed!M10/Testing!M10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <f>Confirmed!N10/Testing!N10</f>
         <v>0.03805058037</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="21">
         <f>Confirmed!O10/Testing!O10</f>
         <v>0.03666002278</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="21">
         <f>Confirmed!P10/Testing!P10</f>
         <v>0.03631847476</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="21">
         <f>Confirmed!Q10/Testing!Q10</f>
         <v>0.03566529492</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="21">
         <f>Confirmed!R10/Testing!R10</f>
         <v>0.03593510866</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="21">
         <f>Confirmed!S10/Testing!S10</f>
         <v>0.0361558746</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="21">
         <f>Confirmed!T10/Testing!T10</f>
         <v>0.03622535211</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="21">
         <f>Confirmed!U10/Testing!U10</f>
         <v>0.03558468288</v>
       </c>
-      <c r="V11" s="22">
+      <c r="V11" s="21">
         <f>Confirmed!V10/Testing!V10</f>
         <v>0.03481175864</v>
       </c>
-      <c r="W11" s="22">
+      <c r="W11" s="21">
         <f>Confirmed!W10/Testing!W10</f>
         <v>0.03486336672</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="21">
         <f>Confirmed!X10/Testing!X10</f>
         <v>0.03794308537</v>
       </c>
-      <c r="Y11" s="22">
+      <c r="Y11" s="21">
         <f>Confirmed!Y10/Testing!Y10</f>
         <v>0.03709718779</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="Z11" s="21">
         <f>Confirmed!Z10/Testing!Z10</f>
         <v>0.03792616502</v>
       </c>
-      <c r="AA11" s="22">
+      <c r="AA11" s="21">
         <f>Confirmed!AA10/Testing!AA10</f>
         <v>0.03900818786</v>
       </c>
-      <c r="AB11" s="22">
+      <c r="AB11" s="21">
         <f>Confirmed!AB10/Testing!AB10</f>
         <v>0.03954408854</v>
       </c>
-      <c r="AC11" s="22">
+      <c r="AC11" s="21">
         <f>Confirmed!AC10/Testing!AC10</f>
         <v>0.04367423596</v>
       </c>
-      <c r="AD11" s="22">
+      <c r="AD11" s="21">
         <f>Confirmed!AD10/Testing!AD10</f>
         <v>0.04545747008</v>
       </c>
-      <c r="AE11" s="22">
+      <c r="AE11" s="21">
         <f>Confirmed!AE10/Testing!AE10</f>
         <v>0.04610091045</v>
       </c>
-      <c r="AF11" s="22">
+      <c r="AF11" s="21">
         <f>Confirmed!AF10/Testing!AF10</f>
         <v>0.04674554493</v>
       </c>
-      <c r="AG11" s="22">
+      <c r="AG11" s="21">
         <f>Confirmed!AG10/Testing!AG10</f>
         <v>0.04771584759</v>
       </c>
-      <c r="AH11" s="22">
+      <c r="AH11" s="21">
         <f>Confirmed!AH10/Testing!AH10</f>
         <v>0.04942252293</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AI11" s="21">
         <f>Confirmed!AI10/Testing!AI10</f>
         <v>0.05309756522</v>
       </c>
-      <c r="AJ11" s="22">
+      <c r="AJ11" s="21">
         <f>Confirmed!AJ10/Testing!AJ10</f>
         <v>0.0553258841</v>
       </c>
-      <c r="AK11" s="22">
+      <c r="AK11" s="21">
         <f>Confirmed!AK10/Testing!AK10</f>
         <v>0.05650341455</v>
       </c>
-      <c r="AL11" s="22">
+      <c r="AL11" s="21">
         <f>Confirmed!AL10/Testing!AL10</f>
         <v>0.05738088154</v>
       </c>
-      <c r="AM11" s="22">
+      <c r="AM11" s="21">
         <f>Confirmed!AM10/Testing!AM10</f>
         <v>0.06072696804</v>
       </c>
-      <c r="AN11" s="22">
+      <c r="AN11" s="21">
         <f>Confirmed!AN10/Testing!AN10</f>
         <v>0.06399908627</v>
       </c>
-      <c r="AO11" s="22">
+      <c r="AO11" s="21">
         <f>Confirmed!AO10/Testing!AO10</f>
         <v>0.0660046088</v>
       </c>
-      <c r="AP11" s="22">
+      <c r="AP11" s="21">
         <f>Confirmed!AP10/Testing!AP10</f>
         <v>0.06598111817</v>
       </c>
-      <c r="AQ11" s="22">
+      <c r="AQ11" s="21">
         <f>Confirmed!AQ10/Testing!AQ10</f>
         <v>0.06702241912</v>
       </c>
-      <c r="AR11" s="22">
+      <c r="AR11" s="21">
         <f>Confirmed!AR10/Testing!AR10</f>
         <v>0.0716390805</v>
       </c>
-      <c r="AS11" s="22">
+      <c r="AS11" s="21">
         <f>Confirmed!AS10/Testing!AS10</f>
         <v>0.07274900157</v>
       </c>
-      <c r="AT11" s="22">
+      <c r="AT11" s="21">
         <f>Confirmed!AT10/Testing!AT10</f>
         <v>0.07422727795</v>
       </c>
-      <c r="AU11" s="22">
+      <c r="AU11" s="21">
         <f>Confirmed!AU10/Testing!AU10</f>
         <v>0.07739439335</v>
       </c>
-      <c r="AV11" s="22">
+      <c r="AV11" s="21">
         <f>Confirmed!AV10/Testing!AV10</f>
         <v>0.08095850628</v>
       </c>
-      <c r="AW11" s="22">
+      <c r="AW11" s="21">
         <f>Confirmed!AW10/Testing!AW10</f>
         <v>0.08518386925</v>
       </c>
-      <c r="AX11" s="22">
+      <c r="AX11" s="21">
         <f>Confirmed!AX10/Testing!AX10</f>
         <v>0.08801167812</v>
       </c>
-      <c r="AY11" s="22">
+      <c r="AY11" s="21">
         <f>Confirmed!AY10/Testing!AY10</f>
         <v>0.09068918196</v>
       </c>
-      <c r="AZ11" s="22"/>
+      <c r="AZ11" s="21"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <f>Confirmed!B11/Testing!B11</f>
         <v>0.04339522546</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <f>Confirmed!C11/Testing!C11</f>
         <v>0.05048782798</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <f>Confirmed!D11/Testing!D11</f>
         <v>0.04968098681</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <f>Confirmed!E11/Testing!E11</f>
         <v>0.04871511903</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <f>Confirmed!F11/Testing!F11</f>
         <v>0.04666420936</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <f>Confirmed!G11/Testing!G11</f>
         <v>0.04409050516</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <f>Confirmed!H11/Testing!H11</f>
         <v>0.04185077642</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <f>Confirmed!I11/Testing!I11</f>
         <v>0.04040161125</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <f>Confirmed!J11/Testing!J11</f>
         <v>0.0389019872</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <f>Confirmed!K11/Testing!K11</f>
         <v>0.03747870528</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <f>Confirmed!L11/Testing!L11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <f>Confirmed!M11/Testing!M11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="21">
         <f>Confirmed!N11/Testing!N11</f>
         <v>0.03712495253</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="21">
         <f>Confirmed!O11/Testing!O11</f>
         <v>0.03494966369</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="21">
         <f>Confirmed!P11/Testing!P11</f>
         <v>0.0332103321</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="21">
         <f>Confirmed!Q11/Testing!Q11</f>
         <v>0.03279812813</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="21">
         <f>Confirmed!R11/Testing!R11</f>
         <v>0.03270321361</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="21">
         <f>Confirmed!S11/Testing!S11</f>
         <v>0.03220903301</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="21">
         <f>Confirmed!T11/Testing!T11</f>
         <v>0.03162729202</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="21">
         <f>Confirmed!U11/Testing!U11</f>
         <v>0.03110888108</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12" s="21">
         <f>Confirmed!V11/Testing!V11</f>
         <v>0.03086380431</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W12" s="21">
         <f>Confirmed!W11/Testing!W11</f>
         <v>0.03056965256</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12" s="21">
         <f>Confirmed!X11/Testing!X11</f>
         <v>0.03086021807</v>
       </c>
-      <c r="Y12" s="22">
+      <c r="Y12" s="21">
         <f>Confirmed!Y11/Testing!Y11</f>
         <v>0.03030143061</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="21">
         <f>Confirmed!Z11/Testing!Z11</f>
         <v>0.02915379248</v>
       </c>
-      <c r="AA12" s="22">
+      <c r="AA12" s="21">
         <f>Confirmed!AA11/Testing!AA11</f>
         <v>0.02859937029</v>
       </c>
-      <c r="AB12" s="22">
+      <c r="AB12" s="21">
         <f>Confirmed!AB11/Testing!AB11</f>
         <v>0.0277035897</v>
       </c>
-      <c r="AC12" s="22">
+      <c r="AC12" s="21">
         <f>Confirmed!AC11/Testing!AC11</f>
         <v>0.02640347547</v>
       </c>
-      <c r="AD12" s="22">
+      <c r="AD12" s="21">
         <f>Confirmed!AD11/Testing!AD11</f>
         <v>0.025451511</v>
       </c>
-      <c r="AE12" s="22">
+      <c r="AE12" s="21">
         <f>Confirmed!AE11/Testing!AE11</f>
         <v>0.02452234091</v>
       </c>
-      <c r="AF12" s="22">
+      <c r="AF12" s="21">
         <f>Confirmed!AF11/Testing!AF11</f>
         <v>0.02389629975</v>
       </c>
-      <c r="AG12" s="22">
+      <c r="AG12" s="21">
         <f>Confirmed!AG11/Testing!AG11</f>
         <v>0.02295399023</v>
       </c>
-      <c r="AH12" s="22">
+      <c r="AH12" s="21">
         <f>Confirmed!AH11/Testing!AH11</f>
         <v>0.0224761283</v>
       </c>
-      <c r="AI12" s="22">
+      <c r="AI12" s="21">
         <f>Confirmed!AI11/Testing!AI11</f>
         <v>0.021626271</v>
       </c>
-      <c r="AJ12" s="22">
+      <c r="AJ12" s="21">
         <f>Confirmed!AJ11/Testing!AJ11</f>
         <v>0.02109655394</v>
       </c>
-      <c r="AK12" s="22">
+      <c r="AK12" s="21">
         <f>Confirmed!AK11/Testing!AK11</f>
         <v>0.02097658751</v>
       </c>
-      <c r="AL12" s="22">
+      <c r="AL12" s="21">
         <f>Confirmed!AL11/Testing!AL11</f>
         <v>0.02097388109</v>
       </c>
-      <c r="AM12" s="22">
+      <c r="AM12" s="21">
         <f>Confirmed!AM11/Testing!AM11</f>
         <v>0.02000887093</v>
       </c>
-      <c r="AN12" s="22">
+      <c r="AN12" s="21">
         <f>Confirmed!AN11/Testing!AN11</f>
         <v>0.019527622</v>
       </c>
-      <c r="AO12" s="22">
+      <c r="AO12" s="21">
         <f>Confirmed!AO11/Testing!AO11</f>
         <v>0.01916756085</v>
       </c>
-      <c r="AP12" s="22">
+      <c r="AP12" s="21">
         <f>Confirmed!AP11/Testing!AP11</f>
         <v>0.01864054101</v>
       </c>
-      <c r="AQ12" s="22">
+      <c r="AQ12" s="21">
         <f>Confirmed!AQ11/Testing!AQ11</f>
         <v>0.01869604419</v>
       </c>
-      <c r="AR12" s="22">
+      <c r="AR12" s="21">
         <f>Confirmed!AR11/Testing!AR11</f>
         <v>0.01821079661</v>
       </c>
-      <c r="AS12" s="22">
+      <c r="AS12" s="21">
         <f>Confirmed!AS11/Testing!AS11</f>
         <v>0.01784463026</v>
       </c>
-      <c r="AT12" s="22">
+      <c r="AT12" s="21">
         <f>Confirmed!AT11/Testing!AT11</f>
         <v>0.01731494212</v>
       </c>
-      <c r="AU12" s="22">
+      <c r="AU12" s="21">
         <f>Confirmed!AU11/Testing!AU11</f>
         <v>0.01676020408</v>
       </c>
-      <c r="AV12" s="22">
+      <c r="AV12" s="21">
         <f>Confirmed!AV11/Testing!AV11</f>
         <v>0.01649440632</v>
       </c>
-      <c r="AW12" s="22">
+      <c r="AW12" s="21">
         <f>Confirmed!AW11/Testing!AW11</f>
         <v>0.01625353636</v>
       </c>
-      <c r="AX12" s="22">
+      <c r="AX12" s="21">
         <f>Confirmed!AX11/Testing!AX11</f>
         <v>0.01603972744</v>
       </c>
-      <c r="AY12" s="22">
+      <c r="AY12" s="21">
         <f>Confirmed!AY11/Testing!AY11</f>
         <v>0.01587312988</v>
       </c>
-      <c r="AZ12" s="22"/>
+      <c r="AZ12" s="21"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -11897,7 +12343,7 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>1263875.0</v>
       </c>
       <c r="M16" s="19"/>
@@ -11906,7 +12352,7 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>4027160.0</v>
       </c>
     </row>
@@ -11914,7 +12360,7 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>4592187.0</v>
       </c>
     </row>
@@ -11922,7 +12368,7 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>5982584.0</v>
       </c>
     </row>
@@ -11930,7 +12376,7 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>6712276.0</v>
       </c>
     </row>
@@ -11938,7 +12384,7 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>2887465.0</v>
       </c>
     </row>
@@ -11946,7 +12392,7 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -11954,7 +12400,7 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>6844272.0</v>
       </c>
     </row>
@@ -11962,7 +12408,7 @@
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -15182,365 +15628,365 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="9">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="9">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="9">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="9">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="9">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="9">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="9">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="9">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="9">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="9">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="9">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="9">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="9">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="9">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="9">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="9">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="9">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="9">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="9">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="9">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="9">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="9">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ12" s="9">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="7">
+      <c r="AK12" s="9">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="7">
+      <c r="AL12" s="9">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="7">
+      <c r="AM12" s="9">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="7">
+      <c r="AN12" s="9">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AO12" s="9">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AP12" s="11">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="7">
+      <c r="AQ12" s="9">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="7">
+      <c r="AR12" s="9">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="7">
+      <c r="AS12" s="9">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="7">
+      <c r="AT12" s="9">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="7">
+      <c r="AU12" s="9">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="7">
+      <c r="AV12" s="9">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="10">
+      <c r="AW12" s="12">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="7">
+      <c r="AX12" s="9">
         <v>403018.0</v>
       </c>
-      <c r="AY12" s="10">
+      <c r="AY12" s="12">
         <v>421555.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <f t="shared" ref="B13:AZ13" si="21">sum(B2:B11)</f>
         <v>28536</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <f t="shared" si="21"/>
         <v>31965</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <f t="shared" si="21"/>
         <v>35592</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <f t="shared" si="21"/>
         <v>38409</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="14">
         <f t="shared" si="21"/>
         <v>41073</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="14">
         <f t="shared" si="21"/>
         <v>44293</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="14">
         <f t="shared" si="21"/>
         <v>47966</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="14">
         <f t="shared" si="21"/>
         <v>50359</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="14">
         <f t="shared" si="21"/>
         <v>53939</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="14">
         <f t="shared" si="21"/>
         <v>56874</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="14">
         <f t="shared" si="21"/>
         <v>58097</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="14">
         <f t="shared" si="21"/>
         <v>58097</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="14">
         <f t="shared" si="21"/>
         <v>63775</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="14">
         <f t="shared" si="21"/>
         <v>68873</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="14">
         <f t="shared" si="21"/>
         <v>73029</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="14">
         <f t="shared" si="21"/>
         <v>75054</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="14">
         <f t="shared" si="21"/>
         <v>80085</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="14">
         <f t="shared" si="21"/>
         <v>83664</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="14">
         <f t="shared" si="21"/>
         <v>87021</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="14">
         <f t="shared" si="21"/>
         <v>90515</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="14">
         <f t="shared" si="21"/>
         <v>95061</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="14">
         <f t="shared" si="21"/>
         <v>100827</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="14">
         <f t="shared" si="21"/>
         <v>108020</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="14">
         <f t="shared" si="21"/>
         <v>114709</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="14">
         <f t="shared" si="21"/>
         <v>121510</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="14">
         <f t="shared" si="21"/>
         <v>126938</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB13" s="14">
         <f t="shared" si="21"/>
         <v>133773</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC13" s="14">
         <f t="shared" si="21"/>
         <v>143570</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AD13" s="14">
         <f t="shared" si="21"/>
         <v>152390</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="14">
         <f t="shared" si="21"/>
         <v>161004</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="14">
         <f t="shared" si="21"/>
         <v>168643</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="14">
         <f t="shared" si="21"/>
         <v>178470</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="14">
         <f t="shared" si="21"/>
         <v>185498</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="14">
         <f t="shared" si="21"/>
         <v>197129</v>
       </c>
-      <c r="AJ13" s="12">
+      <c r="AJ13" s="14">
         <f t="shared" si="21"/>
         <v>207531</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AK13" s="14">
         <f t="shared" si="21"/>
         <v>217522</v>
       </c>
-      <c r="AL13" s="12">
+      <c r="AL13" s="14">
         <f t="shared" si="21"/>
         <v>230685</v>
       </c>
-      <c r="AM13" s="12">
+      <c r="AM13" s="14">
         <f t="shared" si="21"/>
         <v>245746</v>
       </c>
-      <c r="AN13" s="12">
+      <c r="AN13" s="14">
         <f t="shared" si="21"/>
         <v>257541</v>
       </c>
-      <c r="AO13" s="12">
+      <c r="AO13" s="14">
         <f t="shared" si="21"/>
         <v>268064</v>
       </c>
-      <c r="AP13" s="12">
+      <c r="AP13" s="14">
         <f t="shared" si="21"/>
         <v>279379</v>
       </c>
-      <c r="AQ13" s="12">
+      <c r="AQ13" s="14">
         <f t="shared" si="21"/>
         <v>292153</v>
       </c>
-      <c r="AR13" s="12">
+      <c r="AR13" s="14">
         <f t="shared" si="21"/>
         <v>307752</v>
       </c>
-      <c r="AS13" s="12">
+      <c r="AS13" s="14">
         <f t="shared" si="21"/>
         <v>324079</v>
       </c>
-      <c r="AT13" s="12">
+      <c r="AT13" s="14">
         <f t="shared" si="21"/>
         <v>341335</v>
       </c>
-      <c r="AU13" s="12">
+      <c r="AU13" s="14">
         <f t="shared" si="21"/>
         <v>356067</v>
       </c>
-      <c r="AV13" s="12">
+      <c r="AV13" s="14">
         <f t="shared" si="21"/>
         <v>369697</v>
       </c>
-      <c r="AW13" s="12">
+      <c r="AW13" s="14">
         <f t="shared" si="21"/>
         <v>386354</v>
       </c>
-      <c r="AX13" s="12">
+      <c r="AX13" s="14">
         <f t="shared" si="21"/>
         <v>403019</v>
       </c>
-      <c r="AY13" s="12">
+      <c r="AY13" s="14">
         <f t="shared" si="21"/>
         <v>421555</v>
       </c>
-      <c r="AZ13" s="12">
+      <c r="AZ13" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -18803,354 +19249,354 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="9">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="9">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="9">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="9">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="9">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="9">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="9">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="9">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="9">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="9">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="9">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="9">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="9">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="9">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="9">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="9">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="9">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="9">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="9">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="9">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="9">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="9">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ12" s="9">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="7">
+      <c r="AK12" s="9">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="7">
+      <c r="AL12" s="9">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="7">
+      <c r="AM12" s="9">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="7">
+      <c r="AN12" s="9">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AO12" s="9">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AP12" s="11">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="7">
+      <c r="AQ12" s="9">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="7">
+      <c r="AR12" s="9">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="7">
+      <c r="AS12" s="9">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="7">
+      <c r="AT12" s="9">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="7">
+      <c r="AU12" s="9">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="7">
+      <c r="AV12" s="9">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="7">
+      <c r="AW12" s="9">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="7">
+      <c r="AX12" s="9">
         <v>403018.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <f t="shared" ref="B13:AV13" si="21">sum(B2:B11)</f>
         <v>1916</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <f t="shared" si="21"/>
         <v>2146</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <f t="shared" si="21"/>
         <v>2390</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <f t="shared" si="21"/>
         <v>2579</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="14">
         <f t="shared" si="21"/>
         <v>2757</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="14">
         <f t="shared" si="21"/>
         <v>2973</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="14">
         <f t="shared" si="21"/>
         <v>3219</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="14">
         <f t="shared" si="21"/>
         <v>3379</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="14">
         <f t="shared" si="21"/>
         <v>3620</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="14">
         <f t="shared" si="21"/>
         <v>3817</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="14">
         <f t="shared" si="21"/>
         <v>3899</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="14">
         <f t="shared" si="21"/>
         <v>3899</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="14">
         <f t="shared" si="21"/>
         <v>4279</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="14">
         <f t="shared" si="21"/>
         <v>4621</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="14">
         <f t="shared" si="21"/>
         <v>4902</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="14">
         <f t="shared" si="21"/>
         <v>5038</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="14">
         <f t="shared" si="21"/>
         <v>5375</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="14">
         <f t="shared" si="21"/>
         <v>5615</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="14">
         <f t="shared" si="21"/>
         <v>5842</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="14">
         <f t="shared" si="21"/>
         <v>6077</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="14">
         <f t="shared" si="21"/>
         <v>6382</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="14">
         <f t="shared" si="21"/>
         <v>6768</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="14">
         <f t="shared" si="21"/>
         <v>7251</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="14">
         <f t="shared" si="21"/>
         <v>7699</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="14">
         <f t="shared" si="21"/>
         <v>8156</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="14">
         <f t="shared" si="21"/>
         <v>8521</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB13" s="14">
         <f t="shared" si="21"/>
         <v>8979</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC13" s="14">
         <f t="shared" si="21"/>
         <v>9639</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AD13" s="14">
         <f t="shared" si="21"/>
         <v>10230</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="14">
         <f t="shared" si="21"/>
         <v>10808</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="14">
         <f t="shared" si="21"/>
         <v>11321</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="14">
         <f t="shared" si="21"/>
         <v>11981</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="14">
         <f t="shared" si="21"/>
         <v>12451</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="14">
         <f t="shared" si="21"/>
         <v>13234</v>
       </c>
-      <c r="AJ13" s="12">
+      <c r="AJ13" s="14">
         <f t="shared" si="21"/>
         <v>13931</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AK13" s="14">
         <f t="shared" si="21"/>
         <v>14603</v>
       </c>
-      <c r="AL13" s="12">
+      <c r="AL13" s="14">
         <f t="shared" si="21"/>
         <v>15486</v>
       </c>
-      <c r="AM13" s="12">
+      <c r="AM13" s="14">
         <f t="shared" si="21"/>
         <v>16496</v>
       </c>
-      <c r="AN13" s="12">
+      <c r="AN13" s="14">
         <f t="shared" si="21"/>
         <v>17290</v>
       </c>
-      <c r="AO13" s="12">
+      <c r="AO13" s="14">
         <f t="shared" si="21"/>
         <v>17996</v>
       </c>
-      <c r="AP13" s="12">
+      <c r="AP13" s="14">
         <f t="shared" si="21"/>
         <v>18754</v>
       </c>
-      <c r="AQ13" s="12">
+      <c r="AQ13" s="14">
         <f t="shared" si="21"/>
         <v>19610</v>
       </c>
-      <c r="AR13" s="12">
+      <c r="AR13" s="14">
         <f t="shared" si="21"/>
         <v>20659</v>
       </c>
-      <c r="AS13" s="12">
+      <c r="AS13" s="14">
         <f t="shared" si="21"/>
         <v>21754</v>
       </c>
-      <c r="AT13" s="12">
+      <c r="AT13" s="14">
         <f t="shared" si="21"/>
         <v>22911</v>
       </c>
-      <c r="AU13" s="12">
+      <c r="AU13" s="14">
         <f t="shared" si="21"/>
         <v>23902</v>
       </c>
-      <c r="AV13" s="12">
+      <c r="AV13" s="14">
         <f t="shared" si="21"/>
         <v>24818</v>
       </c>
-      <c r="AW13" s="12">
+      <c r="AW13" s="14">
         <f>sum(AW2:AW12)</f>
         <v>412287</v>
       </c>
-      <c r="AX13" s="12">
+      <c r="AX13" s="14">
         <f>sum(AX2:AX11)</f>
         <v>27054</v>
       </c>
@@ -19239,7 +19685,7 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>1263875.0</v>
       </c>
     </row>
@@ -19247,7 +19693,7 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>4027160.0</v>
       </c>
     </row>
@@ -19255,7 +19701,7 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>4592187.0</v>
       </c>
     </row>
@@ -19263,7 +19709,7 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>5982584.0</v>
       </c>
     </row>
@@ -19271,7 +19717,7 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>6712276.0</v>
       </c>
     </row>
@@ -19279,7 +19725,7 @@
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>2887465.0</v>
       </c>
     </row>
@@ -19287,7 +19733,7 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -19295,7 +19741,7 @@
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>6844272.0</v>
       </c>
     </row>
@@ -19303,7 +19749,7 @@
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -23184,19 +23630,19 @@
       <c r="AT1" s="2">
         <v>43961.0</v>
       </c>
-      <c r="AU1" s="13">
+      <c r="AU1" s="7">
         <v>43962.0</v>
       </c>
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="13">
+      <c r="AW1" s="7">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="14">
+      <c r="AY1" s="8">
         <v>43966.0</v>
       </c>
       <c r="AZ1" s="2">
@@ -29220,329 +29666,254 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
-        <v>43965.0</v>
+      <c r="B1" s="7">
+        <v>43966.0</v>
       </c>
       <c r="C1" s="2">
-        <f t="shared" ref="C1:CD1" si="1">B1+5</f>
-        <v>43970</v>
+        <f t="shared" ref="C1:BE1" si="1">B1+5</f>
+        <v>43971</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" si="1"/>
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" si="1"/>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="1"/>
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="1"/>
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="1"/>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="1"/>
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="K1" s="2">
         <f t="shared" si="1"/>
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="L1" s="2">
         <f t="shared" si="1"/>
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="M1" s="2">
         <f t="shared" si="1"/>
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="1"/>
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="1"/>
-        <v>44030</v>
+        <v>44031</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="1"/>
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="1"/>
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="R1" s="2">
         <f t="shared" si="1"/>
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="S1" s="2">
         <f t="shared" si="1"/>
-        <v>44050</v>
+        <v>44051</v>
       </c>
       <c r="T1" s="2">
         <f t="shared" si="1"/>
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="U1" s="2">
         <f t="shared" si="1"/>
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="V1" s="2">
         <f t="shared" si="1"/>
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="W1" s="2">
         <f t="shared" si="1"/>
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="X1" s="2">
         <f t="shared" si="1"/>
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="Y1" s="2">
         <f t="shared" si="1"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="Z1" s="2">
         <f t="shared" si="1"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="AA1" s="2">
         <f t="shared" si="1"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="AB1" s="2">
         <f t="shared" si="1"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="AC1" s="2">
         <f t="shared" si="1"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="AD1" s="2">
         <f t="shared" si="1"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="AE1" s="2">
         <f t="shared" si="1"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="AF1" s="2">
         <f t="shared" si="1"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="AG1" s="2">
         <f t="shared" si="1"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="AH1" s="2">
         <f t="shared" si="1"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="AI1" s="2">
         <f t="shared" si="1"/>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="AJ1" s="2">
         <f t="shared" si="1"/>
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="AK1" s="2">
         <f t="shared" si="1"/>
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="AL1" s="2">
         <f t="shared" si="1"/>
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="AM1" s="2">
         <f t="shared" si="1"/>
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="AN1" s="2">
         <f t="shared" si="1"/>
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="AO1" s="2">
         <f t="shared" si="1"/>
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="AP1" s="2">
         <f t="shared" si="1"/>
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="AQ1" s="2">
         <f t="shared" si="1"/>
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="AR1" s="2">
         <f t="shared" si="1"/>
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="AS1" s="2">
         <f t="shared" si="1"/>
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="AT1" s="2">
         <f t="shared" si="1"/>
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="AU1" s="2">
         <f t="shared" si="1"/>
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="AV1" s="2">
         <f t="shared" si="1"/>
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="AW1" s="2">
         <f t="shared" si="1"/>
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="AX1" s="2">
         <f t="shared" si="1"/>
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="AY1" s="2">
         <f t="shared" si="1"/>
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="AZ1" s="2">
         <f t="shared" si="1"/>
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="BA1" s="2">
         <f t="shared" si="1"/>
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="BB1" s="2">
         <f t="shared" si="1"/>
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="BC1" s="2">
         <f t="shared" si="1"/>
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="BD1" s="2">
         <f t="shared" si="1"/>
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="BE1" s="2">
         <f t="shared" si="1"/>
-        <v>44240</v>
-      </c>
-      <c r="BF1" s="2">
-        <f t="shared" si="1"/>
-        <v>44245</v>
-      </c>
-      <c r="BG1" s="2">
-        <f t="shared" si="1"/>
-        <v>44250</v>
-      </c>
-      <c r="BH1" s="2">
-        <f t="shared" si="1"/>
-        <v>44255</v>
-      </c>
-      <c r="BI1" s="2">
-        <f t="shared" si="1"/>
-        <v>44260</v>
-      </c>
-      <c r="BJ1" s="2">
-        <f t="shared" si="1"/>
-        <v>44265</v>
-      </c>
-      <c r="BK1" s="2">
-        <f t="shared" si="1"/>
-        <v>44270</v>
-      </c>
-      <c r="BL1" s="2">
-        <f t="shared" si="1"/>
-        <v>44275</v>
-      </c>
-      <c r="BM1" s="2">
-        <f t="shared" si="1"/>
-        <v>44280</v>
-      </c>
-      <c r="BN1" s="2">
-        <f t="shared" si="1"/>
-        <v>44285</v>
-      </c>
-      <c r="BO1" s="2">
-        <f t="shared" si="1"/>
-        <v>44290</v>
-      </c>
-      <c r="BP1" s="2">
-        <f t="shared" si="1"/>
-        <v>44295</v>
-      </c>
-      <c r="BQ1" s="2">
-        <f t="shared" si="1"/>
-        <v>44300</v>
-      </c>
-      <c r="BR1" s="2">
-        <f t="shared" si="1"/>
-        <v>44305</v>
-      </c>
-      <c r="BS1" s="2">
-        <f t="shared" si="1"/>
-        <v>44310</v>
-      </c>
-      <c r="BT1" s="2">
-        <f t="shared" si="1"/>
-        <v>44315</v>
-      </c>
-      <c r="BU1" s="2">
-        <f t="shared" si="1"/>
-        <v>44320</v>
-      </c>
-      <c r="BV1" s="2">
-        <f t="shared" si="1"/>
-        <v>44325</v>
-      </c>
-      <c r="BW1" s="2">
-        <f t="shared" si="1"/>
-        <v>44330</v>
-      </c>
-      <c r="BX1" s="2">
-        <f t="shared" si="1"/>
-        <v>44335</v>
-      </c>
-      <c r="BY1" s="2">
-        <f t="shared" si="1"/>
-        <v>44340</v>
-      </c>
-      <c r="BZ1" s="2">
-        <f t="shared" si="1"/>
-        <v>44345</v>
-      </c>
-      <c r="CA1" s="2">
-        <f t="shared" si="1"/>
-        <v>44350</v>
-      </c>
-      <c r="CB1" s="2">
-        <f t="shared" si="1"/>
-        <v>44355</v>
-      </c>
-      <c r="CC1" s="2">
-        <f t="shared" si="1"/>
-        <v>44360</v>
-      </c>
-      <c r="CD1" s="2">
-        <f t="shared" si="1"/>
-        <v>44365</v>
-      </c>
+        <v>44241</v>
+      </c>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -29776,357 +30147,282 @@
         <v>14</v>
       </c>
       <c r="B3" s="16">
-        <f t="shared" ref="B3:CD3" si="2">sum(B4:B12)</f>
-        <v>6825</v>
+        <f t="shared" ref="B3:BE3" si="2">sum(B4:B12)</f>
+        <v>7194</v>
       </c>
       <c r="C3" s="16">
         <f t="shared" si="2"/>
-        <v>7023</v>
+        <v>7372</v>
       </c>
       <c r="D3" s="16">
         <f t="shared" si="2"/>
-        <v>7486</v>
+        <v>7757</v>
       </c>
       <c r="E3" s="16">
         <f t="shared" si="2"/>
-        <v>8018</v>
+        <v>8170</v>
       </c>
       <c r="F3" s="16">
         <f t="shared" si="2"/>
-        <v>8600</v>
+        <v>8520</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" si="2"/>
-        <v>9211</v>
+        <v>8790</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" si="2"/>
-        <v>9819</v>
+        <v>9411</v>
       </c>
       <c r="I3" s="16">
         <f t="shared" si="2"/>
-        <v>10404</v>
+        <v>9835</v>
       </c>
       <c r="J3" s="16">
         <f t="shared" si="2"/>
-        <v>10930</v>
+        <v>10360</v>
       </c>
       <c r="K3" s="16">
         <f t="shared" si="2"/>
-        <v>11370</v>
+        <v>10501</v>
       </c>
       <c r="L3" s="16">
         <f t="shared" si="2"/>
-        <v>11702</v>
+        <v>10856</v>
       </c>
       <c r="M3" s="16">
         <f t="shared" si="2"/>
-        <v>11909</v>
+        <v>10863</v>
       </c>
       <c r="N3" s="16">
         <f t="shared" si="2"/>
-        <v>11975</v>
+        <v>10976</v>
       </c>
       <c r="O3" s="16">
         <f t="shared" si="2"/>
-        <v>11901</v>
+        <v>10491</v>
       </c>
       <c r="P3" s="16">
         <f t="shared" si="2"/>
-        <v>11696</v>
+        <v>9906</v>
       </c>
       <c r="Q3" s="16">
         <f t="shared" si="2"/>
-        <v>11369</v>
+        <v>8958</v>
       </c>
       <c r="R3" s="16">
         <f t="shared" si="2"/>
-        <v>10937</v>
+        <v>8174</v>
       </c>
       <c r="S3" s="16">
         <f t="shared" si="2"/>
-        <v>10418</v>
+        <v>7586</v>
       </c>
       <c r="T3" s="16">
         <f t="shared" si="2"/>
-        <v>9837</v>
+        <v>7295</v>
       </c>
       <c r="U3" s="16">
         <f t="shared" si="2"/>
-        <v>9214</v>
+        <v>6651</v>
       </c>
       <c r="V3" s="16">
         <f t="shared" si="2"/>
-        <v>8569</v>
+        <v>6303</v>
       </c>
       <c r="W3" s="16">
         <f t="shared" si="2"/>
-        <v>7914</v>
+        <v>5686</v>
       </c>
       <c r="X3" s="16">
         <f t="shared" si="2"/>
-        <v>7269</v>
+        <v>5153</v>
       </c>
       <c r="Y3" s="16">
         <f t="shared" si="2"/>
-        <v>6642</v>
+        <v>4614</v>
       </c>
       <c r="Z3" s="16">
         <f t="shared" si="2"/>
-        <v>6042</v>
+        <v>4127</v>
       </c>
       <c r="AA3" s="16">
         <f t="shared" si="2"/>
-        <v>5475</v>
+        <v>3858</v>
       </c>
       <c r="AB3" s="16">
         <f t="shared" si="2"/>
-        <v>4945</v>
+        <v>3440</v>
       </c>
       <c r="AC3" s="16">
         <f t="shared" si="2"/>
-        <v>4451</v>
+        <v>3162</v>
       </c>
       <c r="AD3" s="16">
         <f t="shared" si="2"/>
-        <v>3998</v>
+        <v>2924</v>
       </c>
       <c r="AE3" s="16">
         <f t="shared" si="2"/>
-        <v>3583</v>
+        <v>2559</v>
       </c>
       <c r="AF3" s="16">
         <f t="shared" si="2"/>
-        <v>3205</v>
+        <v>2239</v>
       </c>
       <c r="AG3" s="16">
         <f t="shared" si="2"/>
-        <v>2862</v>
+        <v>1985</v>
       </c>
       <c r="AH3" s="16">
         <f t="shared" si="2"/>
-        <v>2554</v>
+        <v>1778</v>
       </c>
       <c r="AI3" s="16">
         <f t="shared" si="2"/>
-        <v>2275</v>
+        <v>1619</v>
       </c>
       <c r="AJ3" s="16">
         <f t="shared" si="2"/>
-        <v>2026</v>
+        <v>1396</v>
       </c>
       <c r="AK3" s="16">
         <f t="shared" si="2"/>
-        <v>1804</v>
+        <v>1251</v>
       </c>
       <c r="AL3" s="16">
         <f t="shared" si="2"/>
-        <v>1603</v>
+        <v>1097</v>
       </c>
       <c r="AM3" s="16">
         <f t="shared" si="2"/>
-        <v>1427</v>
+        <v>982</v>
       </c>
       <c r="AN3" s="16">
         <f t="shared" si="2"/>
-        <v>1269</v>
+        <v>836</v>
       </c>
       <c r="AO3" s="16">
         <f t="shared" si="2"/>
-        <v>1126</v>
+        <v>758</v>
       </c>
       <c r="AP3" s="16">
         <f t="shared" si="2"/>
-        <v>1002</v>
+        <v>660</v>
       </c>
       <c r="AQ3" s="16">
         <f t="shared" si="2"/>
-        <v>893</v>
+        <v>596</v>
       </c>
       <c r="AR3" s="16">
         <f t="shared" si="2"/>
-        <v>794</v>
+        <v>510</v>
       </c>
       <c r="AS3" s="16">
         <f t="shared" si="2"/>
-        <v>708</v>
+        <v>427</v>
       </c>
       <c r="AT3" s="16">
         <f t="shared" si="2"/>
-        <v>630</v>
+        <v>380</v>
       </c>
       <c r="AU3" s="16">
         <f t="shared" si="2"/>
-        <v>562</v>
+        <v>330</v>
       </c>
       <c r="AV3" s="16">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>298</v>
       </c>
       <c r="AW3" s="16">
         <f t="shared" si="2"/>
-        <v>447</v>
+        <v>252</v>
       </c>
       <c r="AX3" s="16">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>218</v>
       </c>
       <c r="AY3" s="16">
         <f t="shared" si="2"/>
-        <v>358</v>
+        <v>193</v>
       </c>
       <c r="AZ3" s="16">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>159</v>
       </c>
       <c r="BA3" s="16">
         <f t="shared" si="2"/>
-        <v>287</v>
+        <v>145</v>
       </c>
       <c r="BB3" s="16">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="BC3" s="16">
         <f t="shared" si="2"/>
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="BD3" s="16">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="BE3" s="16">
         <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-      <c r="BF3" s="16">
-        <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
-      <c r="BG3" s="16">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="BH3" s="16">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="BI3" s="16">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="BJ3" s="16">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="BK3" s="16">
-        <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="BL3" s="16">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="BM3" s="16">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="BN3" s="16">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="BO3" s="16">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="BP3" s="16">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="BQ3" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="BR3" s="16">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="BS3" s="16">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="BT3" s="16">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="BU3" s="16">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="BV3" s="16">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="BW3" s="16">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="BX3" s="16">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="BY3" s="16">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="BZ3" s="16">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="CA3" s="16">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="CB3" s="16">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="CC3" s="16">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="CD3" s="16">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="16"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C4" s="4">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="D4" s="4">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" s="4">
         <v>8.0</v>
       </c>
       <c r="F4" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G4" s="4">
         <v>6.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>5.0</v>
       </c>
-      <c r="H4" s="4">
-        <v>4.0</v>
-      </c>
       <c r="I4" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J4" s="4">
         <v>3.0</v>
@@ -30138,7 +30434,7 @@
         <v>2.0</v>
       </c>
       <c r="M4" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N4" s="4">
         <v>1.0</v>
@@ -30153,10 +30449,10 @@
         <v>1.0</v>
       </c>
       <c r="R4" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S4" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T4" s="4">
         <v>0.0</v>
@@ -30353,55 +30649,55 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="C5" s="4">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="D5" s="4">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="E5" s="4">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" s="4">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G5" s="4">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="H5" s="4">
         <v>10.0</v>
       </c>
       <c r="I5" s="4">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="J5" s="4">
         <v>7.0</v>
       </c>
       <c r="K5" s="4">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L5" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="M5" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N5" s="4">
         <v>3.0</v>
       </c>
       <c r="O5" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P5" s="4">
         <v>2.0</v>
       </c>
       <c r="Q5" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R5" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S5" s="4">
         <v>1.0</v>
@@ -30413,13 +30709,13 @@
         <v>1.0</v>
       </c>
       <c r="V5" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W5" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X5" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y5" s="4">
         <v>0.0</v>
@@ -30601,67 +30897,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>33.0</v>
+        <v>23.0</v>
       </c>
       <c r="C6" s="4">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="D6" s="4">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="E6" s="4">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="F6" s="4">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" s="4">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="H6" s="4">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="I6" s="4">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="J6" s="4">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="K6" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="L6" s="4">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M6" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="N6" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="O6" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P6" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q6" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R6" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T6" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U6" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V6" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W6" s="4">
         <v>0.0</v>
@@ -30849,7 +31145,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C7" s="4">
         <v>16.0</v>
@@ -30864,28 +31160,28 @@
         <v>8.0</v>
       </c>
       <c r="G7" s="4">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H7" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I7" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J7" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K7" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L7" s="4">
         <v>2.0</v>
       </c>
       <c r="M7" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N7" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="O7" s="4">
         <v>1.0</v>
@@ -30894,13 +31190,13 @@
         <v>1.0</v>
       </c>
       <c r="Q7" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R7" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" s="4">
         <v>0.0</v>
@@ -31097,247 +31393,247 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>895.0</v>
+        <v>988.0</v>
       </c>
       <c r="C8" s="4">
-        <v>882.0</v>
+        <v>952.0</v>
       </c>
       <c r="D8" s="4">
-        <v>853.0</v>
+        <v>891.0</v>
       </c>
       <c r="E8" s="4">
-        <v>823.0</v>
+        <v>840.0</v>
       </c>
       <c r="F8" s="4">
-        <v>794.0</v>
+        <v>786.0</v>
       </c>
       <c r="G8" s="4">
-        <v>766.0</v>
+        <v>733.0</v>
       </c>
       <c r="H8" s="4">
-        <v>737.0</v>
+        <v>690.0</v>
       </c>
       <c r="I8" s="4">
-        <v>709.0</v>
+        <v>631.0</v>
       </c>
       <c r="J8" s="4">
-        <v>682.0</v>
+        <v>560.0</v>
       </c>
       <c r="K8" s="4">
-        <v>655.0</v>
+        <v>503.0</v>
       </c>
       <c r="L8" s="4">
-        <v>629.0</v>
+        <v>459.0</v>
       </c>
       <c r="M8" s="4">
-        <v>604.0</v>
+        <v>441.0</v>
       </c>
       <c r="N8" s="4">
-        <v>579.0</v>
+        <v>413.0</v>
       </c>
       <c r="O8" s="4">
-        <v>555.0</v>
+        <v>380.0</v>
       </c>
       <c r="P8" s="4">
-        <v>531.0</v>
+        <v>369.0</v>
       </c>
       <c r="Q8" s="4">
-        <v>509.0</v>
+        <v>350.0</v>
       </c>
       <c r="R8" s="4">
-        <v>487.0</v>
+        <v>312.0</v>
       </c>
       <c r="S8" s="4">
-        <v>465.0</v>
+        <v>304.0</v>
       </c>
       <c r="T8" s="4">
-        <v>445.0</v>
+        <v>272.0</v>
       </c>
       <c r="U8" s="4">
-        <v>425.0</v>
+        <v>257.0</v>
       </c>
       <c r="V8" s="4">
-        <v>406.0</v>
+        <v>242.0</v>
       </c>
       <c r="W8" s="4">
-        <v>387.0</v>
+        <v>222.0</v>
       </c>
       <c r="X8" s="4">
-        <v>369.0</v>
+        <v>205.0</v>
       </c>
       <c r="Y8" s="4">
-        <v>352.0</v>
+        <v>191.0</v>
       </c>
       <c r="Z8" s="4">
-        <v>336.0</v>
+        <v>170.0</v>
       </c>
       <c r="AA8" s="4">
-        <v>320.0</v>
+        <v>153.0</v>
       </c>
       <c r="AB8" s="4">
-        <v>305.0</v>
+        <v>145.0</v>
       </c>
       <c r="AC8" s="4">
-        <v>290.0</v>
+        <v>138.0</v>
       </c>
       <c r="AD8" s="4">
-        <v>276.0</v>
+        <v>127.0</v>
       </c>
       <c r="AE8" s="4">
-        <v>263.0</v>
+        <v>119.0</v>
       </c>
       <c r="AF8" s="4">
-        <v>250.0</v>
+        <v>113.0</v>
       </c>
       <c r="AG8" s="4">
-        <v>238.0</v>
+        <v>104.0</v>
       </c>
       <c r="AH8" s="4">
-        <v>227.0</v>
+        <v>95.0</v>
       </c>
       <c r="AI8" s="4">
-        <v>215.0</v>
+        <v>90.0</v>
       </c>
       <c r="AJ8" s="4">
-        <v>205.0</v>
+        <v>88.0</v>
       </c>
       <c r="AK8" s="4">
-        <v>195.0</v>
+        <v>82.0</v>
       </c>
       <c r="AL8" s="4">
-        <v>185.0</v>
+        <v>80.0</v>
       </c>
       <c r="AM8" s="4">
-        <v>176.0</v>
+        <v>72.0</v>
       </c>
       <c r="AN8" s="4">
-        <v>167.0</v>
+        <v>68.0</v>
       </c>
       <c r="AO8" s="4">
-        <v>158.0</v>
+        <v>62.0</v>
       </c>
       <c r="AP8" s="4">
-        <v>150.0</v>
+        <v>56.0</v>
       </c>
       <c r="AQ8" s="4">
-        <v>143.0</v>
+        <v>51.0</v>
       </c>
       <c r="AR8" s="4">
-        <v>136.0</v>
+        <v>47.0</v>
       </c>
       <c r="AS8" s="4">
-        <v>129.0</v>
+        <v>45.0</v>
       </c>
       <c r="AT8" s="4">
-        <v>122.0</v>
+        <v>43.0</v>
       </c>
       <c r="AU8" s="4">
-        <v>116.0</v>
+        <v>41.0</v>
       </c>
       <c r="AV8" s="4">
-        <v>110.0</v>
+        <v>38.0</v>
       </c>
       <c r="AW8" s="4">
-        <v>104.0</v>
+        <v>33.0</v>
       </c>
       <c r="AX8" s="4">
-        <v>99.0</v>
+        <v>29.0</v>
       </c>
       <c r="AY8" s="4">
-        <v>94.0</v>
+        <v>26.0</v>
       </c>
       <c r="AZ8" s="4">
-        <v>89.0</v>
+        <v>22.0</v>
       </c>
       <c r="BA8" s="4">
-        <v>84.0</v>
+        <v>21.0</v>
       </c>
       <c r="BB8" s="4">
-        <v>80.0</v>
+        <v>20.0</v>
       </c>
       <c r="BC8" s="4">
-        <v>76.0</v>
+        <v>18.0</v>
       </c>
       <c r="BD8" s="4">
-        <v>72.0</v>
+        <v>17.0</v>
       </c>
       <c r="BE8" s="4">
-        <v>68.0</v>
+        <v>16.0</v>
       </c>
       <c r="BF8" s="4">
-        <v>65.0</v>
+        <v>15.0</v>
       </c>
       <c r="BG8" s="4">
-        <v>61.0</v>
+        <v>14.0</v>
       </c>
       <c r="BH8" s="4">
-        <v>58.0</v>
+        <v>12.0</v>
       </c>
       <c r="BI8" s="4">
-        <v>55.0</v>
+        <v>12.0</v>
       </c>
       <c r="BJ8" s="4">
-        <v>52.0</v>
+        <v>11.0</v>
       </c>
       <c r="BK8" s="4">
-        <v>49.0</v>
+        <v>10.0</v>
       </c>
       <c r="BL8" s="4">
-        <v>47.0</v>
+        <v>9.0</v>
       </c>
       <c r="BM8" s="4">
-        <v>44.0</v>
+        <v>9.0</v>
       </c>
       <c r="BN8" s="4">
-        <v>42.0</v>
+        <v>8.0</v>
       </c>
       <c r="BO8" s="4">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="BP8" s="4">
-        <v>38.0</v>
+        <v>7.0</v>
       </c>
       <c r="BQ8" s="4">
-        <v>36.0</v>
+        <v>6.0</v>
       </c>
       <c r="BR8" s="4">
-        <v>34.0</v>
+        <v>6.0</v>
       </c>
       <c r="BS8" s="4">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="BT8" s="4">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="BU8" s="4">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c r="BV8" s="4">
-        <v>27.0</v>
+        <v>4.0</v>
       </c>
       <c r="BW8" s="4">
-        <v>26.0</v>
+        <v>4.0</v>
       </c>
       <c r="BX8" s="4">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="BY8" s="4">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="BZ8" s="4">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="CA8" s="4">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="CB8" s="4">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="CC8" s="4">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="CD8" s="4">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -31345,13 +31641,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="C9" s="4">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="D9" s="4">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="E9" s="4">
         <v>19.0</v>
@@ -31360,28 +31656,28 @@
         <v>15.0</v>
       </c>
       <c r="G9" s="4">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="H9" s="4">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="I9" s="4">
         <v>8.0</v>
       </c>
       <c r="J9" s="4">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="K9" s="4">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L9" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="M9" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N9" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="O9" s="4">
         <v>2.0</v>
@@ -31390,7 +31686,7 @@
         <v>2.0</v>
       </c>
       <c r="Q9" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R9" s="4">
         <v>1.0</v>
@@ -31402,10 +31698,10 @@
         <v>1.0</v>
       </c>
       <c r="U9" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W9" s="4">
         <v>0.0</v>
@@ -31593,163 +31889,163 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>711.0</v>
+        <v>642.0</v>
       </c>
       <c r="C10" s="4">
-        <v>670.0</v>
+        <v>576.0</v>
       </c>
       <c r="D10" s="4">
-        <v>585.0</v>
+        <v>485.0</v>
       </c>
       <c r="E10" s="4">
-        <v>509.0</v>
+        <v>409.0</v>
       </c>
       <c r="F10" s="4">
-        <v>444.0</v>
+        <v>354.0</v>
       </c>
       <c r="G10" s="4">
-        <v>386.0</v>
+        <v>286.0</v>
       </c>
       <c r="H10" s="4">
-        <v>336.0</v>
+        <v>246.0</v>
       </c>
       <c r="I10" s="4">
-        <v>293.0</v>
+        <v>203.0</v>
       </c>
       <c r="J10" s="4">
-        <v>255.0</v>
+        <v>166.0</v>
       </c>
       <c r="K10" s="4">
-        <v>222.0</v>
+        <v>136.0</v>
       </c>
       <c r="L10" s="4">
-        <v>193.0</v>
+        <v>117.0</v>
       </c>
       <c r="M10" s="4">
-        <v>168.0</v>
+        <v>100.0</v>
       </c>
       <c r="N10" s="4">
-        <v>146.0</v>
+        <v>83.0</v>
       </c>
       <c r="O10" s="4">
-        <v>127.0</v>
+        <v>71.0</v>
       </c>
       <c r="P10" s="4">
-        <v>111.0</v>
+        <v>58.0</v>
       </c>
       <c r="Q10" s="4">
-        <v>96.0</v>
+        <v>48.0</v>
       </c>
       <c r="R10" s="4">
-        <v>84.0</v>
+        <v>40.0</v>
       </c>
       <c r="S10" s="4">
-        <v>73.0</v>
+        <v>33.0</v>
       </c>
       <c r="T10" s="4">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="U10" s="4">
-        <v>55.0</v>
+        <v>23.0</v>
       </c>
       <c r="V10" s="4">
-        <v>48.0</v>
+        <v>20.0</v>
       </c>
       <c r="W10" s="4">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="X10" s="4">
-        <v>36.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y10" s="4">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z10" s="4">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA10" s="4">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB10" s="4">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC10" s="4">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="AD10" s="4">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE10" s="4">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="AF10" s="4">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="AG10" s="4">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="AH10" s="4">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="AI10" s="4">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AK10" s="4">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL10" s="4">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM10" s="4">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN10" s="4">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO10" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP10" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ10" s="4">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR10" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS10" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT10" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC10" s="4">
         <v>0.0</v>
@@ -31841,247 +32137,247 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>4533.0</v>
+        <v>4804.0</v>
       </c>
       <c r="C11" s="4">
-        <v>4832.0</v>
+        <v>5136.0</v>
       </c>
       <c r="D11" s="4">
-        <v>5504.0</v>
+        <v>5779.0</v>
       </c>
       <c r="E11" s="4">
-        <v>6224.0</v>
+        <v>6410.0</v>
       </c>
       <c r="F11" s="4">
-        <v>6971.0</v>
+        <v>6943.0</v>
       </c>
       <c r="G11" s="4">
-        <v>7725.0</v>
+        <v>7427.0</v>
       </c>
       <c r="H11" s="4">
-        <v>8464.0</v>
+        <v>8190.0</v>
       </c>
       <c r="I11" s="4">
-        <v>9161.0</v>
+        <v>8771.0</v>
       </c>
       <c r="J11" s="4">
-        <v>9788.0</v>
+        <v>9438.0</v>
       </c>
       <c r="K11" s="4">
-        <v>10319.0</v>
+        <v>9702.0</v>
       </c>
       <c r="L11" s="4">
-        <v>10732.0</v>
+        <v>10152.0</v>
       </c>
       <c r="M11" s="4">
-        <v>11010.0</v>
+        <v>10219.0</v>
       </c>
       <c r="N11" s="4">
-        <v>11143.0</v>
+        <v>10399.0</v>
       </c>
       <c r="O11" s="4">
-        <v>11129.0</v>
+        <v>9972.0</v>
       </c>
       <c r="P11" s="4">
-        <v>10977.0</v>
+        <v>9423.0</v>
       </c>
       <c r="Q11" s="4">
-        <v>10697.0</v>
+        <v>8517.0</v>
       </c>
       <c r="R11" s="4">
-        <v>10309.0</v>
+        <v>7786.0</v>
       </c>
       <c r="S11" s="4">
-        <v>9832.0</v>
+        <v>7219.0</v>
       </c>
       <c r="T11" s="4">
-        <v>9288.0</v>
+        <v>6970.0</v>
       </c>
       <c r="U11" s="4">
-        <v>8699.0</v>
+        <v>6349.0</v>
       </c>
       <c r="V11" s="4">
-        <v>8085.0</v>
+        <v>6023.0</v>
       </c>
       <c r="W11" s="4">
-        <v>7461.0</v>
+        <v>5433.0</v>
       </c>
       <c r="X11" s="4">
-        <v>6843.0</v>
+        <v>4921.0</v>
       </c>
       <c r="Y11" s="4">
-        <v>6241.0</v>
+        <v>4401.0</v>
       </c>
       <c r="Z11" s="4">
-        <v>5664.0</v>
+        <v>3938.0</v>
       </c>
       <c r="AA11" s="4">
-        <v>5119.0</v>
+        <v>3690.0</v>
       </c>
       <c r="AB11" s="4">
-        <v>4608.0</v>
+        <v>3282.0</v>
       </c>
       <c r="AC11" s="4">
-        <v>4134.0</v>
+        <v>3013.0</v>
       </c>
       <c r="AD11" s="4">
-        <v>3698.0</v>
+        <v>2788.0</v>
       </c>
       <c r="AE11" s="4">
-        <v>3299.0</v>
+        <v>2432.0</v>
       </c>
       <c r="AF11" s="4">
-        <v>2937.0</v>
+        <v>2120.0</v>
       </c>
       <c r="AG11" s="4">
-        <v>2609.0</v>
+        <v>1875.0</v>
       </c>
       <c r="AH11" s="4">
-        <v>2314.0</v>
+        <v>1678.0</v>
       </c>
       <c r="AI11" s="4">
-        <v>2048.0</v>
+        <v>1525.0</v>
       </c>
       <c r="AJ11" s="4">
-        <v>1811.0</v>
+        <v>1305.0</v>
       </c>
       <c r="AK11" s="4">
-        <v>1600.0</v>
+        <v>1167.0</v>
       </c>
       <c r="AL11" s="4">
-        <v>1411.0</v>
+        <v>1015.0</v>
       </c>
       <c r="AM11" s="4">
-        <v>1244.0</v>
+        <v>908.0</v>
       </c>
       <c r="AN11" s="4">
-        <v>1096.0</v>
+        <v>766.0</v>
       </c>
       <c r="AO11" s="4">
-        <v>964.0</v>
+        <v>694.0</v>
       </c>
       <c r="AP11" s="4">
-        <v>848.0</v>
+        <v>603.0</v>
       </c>
       <c r="AQ11" s="4">
-        <v>746.0</v>
+        <v>545.0</v>
       </c>
       <c r="AR11" s="4">
-        <v>655.0</v>
+        <v>463.0</v>
       </c>
       <c r="AS11" s="4">
-        <v>576.0</v>
+        <v>382.0</v>
       </c>
       <c r="AT11" s="4">
-        <v>505.0</v>
+        <v>337.0</v>
       </c>
       <c r="AU11" s="4">
-        <v>444.0</v>
+        <v>289.0</v>
       </c>
       <c r="AV11" s="4">
-        <v>389.0</v>
+        <v>260.0</v>
       </c>
       <c r="AW11" s="4">
-        <v>342.0</v>
+        <v>219.0</v>
       </c>
       <c r="AX11" s="4">
-        <v>300.0</v>
+        <v>189.0</v>
       </c>
       <c r="AY11" s="4">
-        <v>263.0</v>
+        <v>167.0</v>
       </c>
       <c r="AZ11" s="4">
-        <v>230.0</v>
+        <v>137.0</v>
       </c>
       <c r="BA11" s="4">
-        <v>202.0</v>
+        <v>124.0</v>
       </c>
       <c r="BB11" s="4">
-        <v>177.0</v>
+        <v>111.0</v>
       </c>
       <c r="BC11" s="4">
-        <v>155.0</v>
+        <v>96.0</v>
       </c>
       <c r="BD11" s="4">
-        <v>136.0</v>
+        <v>81.0</v>
       </c>
       <c r="BE11" s="4">
-        <v>119.0</v>
+        <v>73.0</v>
       </c>
       <c r="BF11" s="4">
-        <v>104.0</v>
+        <v>63.0</v>
       </c>
       <c r="BG11" s="4">
-        <v>92.0</v>
+        <v>52.0</v>
       </c>
       <c r="BH11" s="4">
-        <v>80.0</v>
+        <v>47.0</v>
       </c>
       <c r="BI11" s="4">
-        <v>70.0</v>
+        <v>41.0</v>
       </c>
       <c r="BJ11" s="4">
-        <v>62.0</v>
+        <v>36.0</v>
       </c>
       <c r="BK11" s="4">
-        <v>54.0</v>
+        <v>31.0</v>
       </c>
       <c r="BL11" s="4">
-        <v>47.0</v>
+        <v>28.0</v>
       </c>
       <c r="BM11" s="4">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
       <c r="BN11" s="4">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="BO11" s="4">
-        <v>32.0</v>
+        <v>17.0</v>
       </c>
       <c r="BP11" s="4">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="BQ11" s="4">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="BR11" s="4">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="BS11" s="4">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="BT11" s="4">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="BU11" s="4">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="BV11" s="4">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="BW11" s="4">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="BX11" s="4">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="BY11" s="4">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="BZ11" s="4">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="CA11" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="CB11" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="CC11" s="4">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="CD11" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -32089,142 +32385,142 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>564.0</v>
+        <v>634.0</v>
       </c>
       <c r="C12" s="4">
-        <v>527.0</v>
+        <v>596.0</v>
       </c>
       <c r="D12" s="4">
-        <v>452.0</v>
+        <v>514.0</v>
       </c>
       <c r="E12" s="4">
-        <v>387.0</v>
+        <v>442.0</v>
       </c>
       <c r="F12" s="4">
-        <v>331.0</v>
+        <v>381.0</v>
       </c>
       <c r="G12" s="4">
-        <v>283.0</v>
+        <v>301.0</v>
       </c>
       <c r="H12" s="4">
-        <v>242.0</v>
+        <v>251.0</v>
       </c>
       <c r="I12" s="4">
-        <v>207.0</v>
+        <v>204.0</v>
       </c>
       <c r="J12" s="4">
-        <v>177.0</v>
+        <v>174.0</v>
       </c>
       <c r="K12" s="4">
-        <v>151.0</v>
+        <v>143.0</v>
       </c>
       <c r="L12" s="4">
-        <v>129.0</v>
+        <v>114.0</v>
       </c>
       <c r="M12" s="4">
-        <v>111.0</v>
+        <v>93.0</v>
       </c>
       <c r="N12" s="4">
-        <v>95.0</v>
+        <v>73.0</v>
       </c>
       <c r="O12" s="4">
-        <v>81.0</v>
+        <v>61.0</v>
       </c>
       <c r="P12" s="4">
-        <v>69.0</v>
+        <v>49.0</v>
       </c>
       <c r="Q12" s="4">
-        <v>59.0</v>
+        <v>39.0</v>
       </c>
       <c r="R12" s="4">
-        <v>51.0</v>
+        <v>34.0</v>
       </c>
       <c r="S12" s="4">
-        <v>43.0</v>
+        <v>28.0</v>
       </c>
       <c r="T12" s="4">
-        <v>37.0</v>
+        <v>24.0</v>
       </c>
       <c r="U12" s="4">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="V12" s="4">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="W12" s="4">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="X12" s="4">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y12" s="4">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z12" s="4">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA12" s="4">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB12" s="4">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC12" s="4">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="AD12" s="4">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE12" s="4">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AF12" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="AG12" s="4">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AH12" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AI12" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK12" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL12" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM12" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN12" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO12" s="4">
         <v>1.0</v>
       </c>
       <c r="AP12" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ12" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR12" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS12" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT12" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU12" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV12" s="4">
         <v>0.0</v>
@@ -38777,7 +39073,7 @@
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="22" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -19,7 +19,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mh5GYfU/OtXhoraKfHEOjAw75B8Ew=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mjlfqxuj2HU3P89/QNN2ryPveQ6Iw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -34,6 +34,12 @@
     <comment authorId="0" ref="AP1">
       <text>
         <t xml:space="preserve">Published data
+======</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AW1">
+      <text>
+        <t xml:space="preserve">Published Data
 ======</t>
       </text>
     </comment>
@@ -112,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -136,9 +142,6 @@
       <name val="Calibri"/>
     </font>
     <font/>
-    <font>
-      <color rgb="FF1155CC"/>
-    </font>
     <font>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -203,9 +206,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -215,7 +215,7 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -228,10 +228,9 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -258,7 +257,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Estimated Provincial Testing (based on Published Data from 06-05-2020)</a:t>
+              <a:t>Estimated Provincial Testing (based on Published Data from 13-05-2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -285,12 +284,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$2:$AZ$2</c:f>
+              <c:f>Testing!$B$2:$BA$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -309,12 +308,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$3:$AZ$3</c:f>
+              <c:f>Testing!$B$3:$BA$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -333,12 +332,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$4:$AZ$4</c:f>
+              <c:f>Testing!$B$4:$BA$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -357,12 +356,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$5:$AZ$5</c:f>
+              <c:f>Testing!$B$5:$BA$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -381,12 +380,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$6:$AZ$6</c:f>
+              <c:f>Testing!$B$6:$BA$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -405,12 +404,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$7:$AZ$7</c:f>
+              <c:f>Testing!$B$7:$BA$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -431,12 +430,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$8:$AZ$8</c:f>
+              <c:f>Testing!$B$8:$BA$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -457,12 +456,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$9:$AZ$9</c:f>
+              <c:f>Testing!$B$9:$BA$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -483,12 +482,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$10:$AZ$10</c:f>
+              <c:f>Testing!$B$10:$BA$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -509,21 +508,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$AZ$1</c:f>
+              <c:f>Testing!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$11:$AZ$11</c:f>
+              <c:f>Testing!$B$11:$BA$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1773281803"/>
-        <c:axId val="60628233"/>
+        <c:axId val="368960444"/>
+        <c:axId val="143209394"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1773281803"/>
+        <c:axId val="368960444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,10 +567,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60628233"/>
+        <c:crossAx val="143209394"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60628233"/>
+        <c:axId val="143209394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +639,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773281803"/>
+        <c:crossAx val="368960444"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -938,11 +937,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="559368728"/>
-        <c:axId val="533299234"/>
+        <c:axId val="2062511402"/>
+        <c:axId val="71374251"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="559368728"/>
+        <c:axId val="2062511402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,10 +986,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533299234"/>
+        <c:crossAx val="71374251"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533299234"/>
+        <c:axId val="71374251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1058,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559368728"/>
+        <c:crossAx val="2062511402"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1130,18 +1129,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$AZ$2</c:f>
+              <c:f>Active!$B$2:$BA$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1481681430"/>
-        <c:axId val="898251929"/>
+        <c:axId val="1149799060"/>
+        <c:axId val="1579322645"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1157,12 +1156,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$AZ$3</c:f>
+              <c:f>Active!$B$3:$BA$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1180,12 +1179,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$AZ$4</c:f>
+              <c:f>Active!$B$4:$BA$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1203,12 +1202,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$AZ$5</c:f>
+              <c:f>Active!$B$5:$BA$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1226,12 +1225,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$AZ$6</c:f>
+              <c:f>Active!$B$6:$BA$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1249,12 +1248,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$AZ$7</c:f>
+              <c:f>Active!$B$7:$BA$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1272,12 +1271,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$AZ$8</c:f>
+              <c:f>Active!$B$8:$BA$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1295,12 +1294,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$AZ$9</c:f>
+              <c:f>Active!$B$9:$BA$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1318,12 +1317,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$AZ$10</c:f>
+              <c:f>Active!$B$10:$BA$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1341,21 +1340,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$AZ$1</c:f>
+              <c:f>Active!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$AZ$11</c:f>
+              <c:f>Active!$B$11:$BA$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1481681430"/>
-        <c:axId val="898251929"/>
+        <c:axId val="1149799060"/>
+        <c:axId val="1579322645"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1481681430"/>
+        <c:axId val="1149799060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,10 +1399,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898251929"/>
+        <c:crossAx val="1579322645"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="898251929"/>
+        <c:axId val="1579322645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1471,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1481681430"/>
+        <c:crossAx val="1149799060"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1553,8 +1552,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1462994009"/>
-        <c:axId val="1007259174"/>
+        <c:axId val="747052070"/>
+        <c:axId val="1494136463"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1764,11 +1763,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1462994009"/>
-        <c:axId val="1007259174"/>
+        <c:axId val="747052070"/>
+        <c:axId val="1494136463"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1462994009"/>
+        <c:axId val="747052070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,10 +1812,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1007259174"/>
+        <c:crossAx val="1494136463"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1007259174"/>
+        <c:axId val="1494136463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1884,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1462994009"/>
+        <c:crossAx val="747052070"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1974,8 +1973,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1773624994"/>
-        <c:axId val="237705372"/>
+        <c:axId val="1633826168"/>
+        <c:axId val="943926741"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2185,11 +2184,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1773624994"/>
-        <c:axId val="237705372"/>
+        <c:axId val="1633826168"/>
+        <c:axId val="943926741"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1773624994"/>
+        <c:axId val="1633826168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,10 +2233,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237705372"/>
+        <c:crossAx val="943926741"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237705372"/>
+        <c:axId val="943926741"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2305,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773624994"/>
+        <c:crossAx val="1633826168"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2373,12 +2372,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$AZ$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$BA$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2396,12 +2395,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$AZ$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$BA$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2419,12 +2418,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$AZ$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$BA$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2442,12 +2441,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$AZ$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$BA$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2465,12 +2464,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$AZ$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$BA$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2488,12 +2487,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$AZ$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$BA$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2511,12 +2510,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$AZ$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$BA$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2534,12 +2533,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$AZ$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$BA$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2557,21 +2556,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$11:$AZ$11</c:f>
+              <c:f>'Recovery Rate'!$B$11:$BA$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="486416336"/>
-        <c:axId val="1038956158"/>
+        <c:axId val="1870102654"/>
+        <c:axId val="1259786885"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="486416336"/>
+        <c:axId val="1870102654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,10 +2615,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038956158"/>
+        <c:crossAx val="1259786885"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1038956158"/>
+        <c:axId val="1259786885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2687,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486416336"/>
+        <c:crossAx val="1870102654"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2760,12 +2759,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$2:$AZ$2</c:f>
+              <c:f>'Death Rate'!$B$2:$BA$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2783,12 +2782,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$AZ$3</c:f>
+              <c:f>'Death Rate'!$B$3:$BA$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2806,12 +2805,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$AZ$4</c:f>
+              <c:f>'Death Rate'!$B$4:$BA$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2829,12 +2828,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$AZ$5</c:f>
+              <c:f>'Death Rate'!$B$5:$BA$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2852,12 +2851,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$AZ$6</c:f>
+              <c:f>'Death Rate'!$B$6:$BA$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2875,12 +2874,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$AZ$7</c:f>
+              <c:f>'Death Rate'!$B$7:$BA$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2898,12 +2897,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$AZ$8</c:f>
+              <c:f>'Death Rate'!$B$8:$BA$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2921,12 +2920,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$AZ$9</c:f>
+              <c:f>'Death Rate'!$B$9:$BA$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2944,21 +2943,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$AZ$10</c:f>
+              <c:f>'Death Rate'!$B$10:$BA$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1584317436"/>
-        <c:axId val="2075512095"/>
+        <c:axId val="1788494505"/>
+        <c:axId val="254954559"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1584317436"/>
+        <c:axId val="1788494505"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,10 +3002,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075512095"/>
+        <c:crossAx val="254954559"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075512095"/>
+        <c:axId val="254954559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +3074,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1584317436"/>
+        <c:crossAx val="1788494505"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3146,18 +3145,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$AZ$2</c:f>
+              <c:f>'Infection Rate'!$B$2:$BA$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2139027472"/>
-        <c:axId val="715748100"/>
+        <c:axId val="1449992712"/>
+        <c:axId val="1484479322"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3173,12 +3172,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$AZ$3</c:f>
+              <c:f>'Infection Rate'!$B$3:$BA$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3196,12 +3195,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$AZ$4</c:f>
+              <c:f>'Infection Rate'!$B$4:$BA$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3219,12 +3218,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$AZ$5</c:f>
+              <c:f>'Infection Rate'!$B$5:$BA$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3242,12 +3241,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$AZ$6</c:f>
+              <c:f>'Infection Rate'!$B$6:$BA$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3265,12 +3264,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$AZ$7</c:f>
+              <c:f>'Infection Rate'!$B$7:$BA$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3288,12 +3287,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$AZ$8</c:f>
+              <c:f>'Infection Rate'!$B$8:$BA$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3311,12 +3310,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$AZ$9</c:f>
+              <c:f>'Infection Rate'!$B$9:$BA$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3334,12 +3333,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$AZ$10</c:f>
+              <c:f>'Infection Rate'!$B$10:$BA$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3357,21 +3356,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$AZ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$AZ$11</c:f>
+              <c:f>'Infection Rate'!$B$11:$BA$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2139027472"/>
-        <c:axId val="715748100"/>
+        <c:axId val="1449992712"/>
+        <c:axId val="1484479322"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139027472"/>
+        <c:axId val="1449992712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,10 +3415,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715748100"/>
+        <c:crossAx val="1484479322"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="715748100"/>
+        <c:axId val="1484479322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3488,7 +3487,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139027472"/>
+        <c:crossAx val="1449992712"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3977,7 +3976,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="52" width="9.88"/>
+    <col customWidth="1" min="44" max="53" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4131,12 +4130,15 @@
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -4288,6 +4290,7 @@
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4443,7 +4446,10 @@
       <c r="AY3" s="4">
         <v>34.0</v>
       </c>
-      <c r="AZ3" s="4"/>
+      <c r="AZ3" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="BA3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -4599,7 +4605,10 @@
       <c r="AY4" s="4">
         <v>63.0</v>
       </c>
-      <c r="AZ4" s="4"/>
+      <c r="AZ4" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="BA4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -4755,7 +4764,10 @@
       <c r="AY5" s="4">
         <v>67.0</v>
       </c>
-      <c r="AZ5" s="4"/>
+      <c r="AZ5" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="BA5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -4911,7 +4923,10 @@
       <c r="AY6" s="4">
         <v>57.0</v>
       </c>
-      <c r="AZ6" s="4"/>
+      <c r="AZ6" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="BA6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -5067,7 +5082,10 @@
       <c r="AY7" s="4">
         <v>1662.0</v>
       </c>
-      <c r="AZ7" s="4"/>
+      <c r="AZ7" s="4">
+        <v>1812.0</v>
+      </c>
+      <c r="BA7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -5223,7 +5241,10 @@
       <c r="AY8" s="4">
         <v>151.0</v>
       </c>
-      <c r="AZ8" s="4"/>
+      <c r="AZ8" s="4">
+        <v>153.0</v>
+      </c>
+      <c r="BA8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -5379,7 +5400,10 @@
       <c r="AY9" s="4">
         <v>1482.0</v>
       </c>
-      <c r="AZ9" s="4"/>
+      <c r="AZ9" s="4">
+        <v>1498.0</v>
+      </c>
+      <c r="BA9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -5535,7 +5559,10 @@
       <c r="AY10" s="4">
         <v>7798.0</v>
       </c>
-      <c r="AZ10" s="4"/>
+      <c r="AZ10" s="4">
+        <v>8404.0</v>
+      </c>
+      <c r="BA10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -5691,7 +5718,10 @@
       <c r="AY11" s="4">
         <v>2210.0</v>
       </c>
-      <c r="AZ11" s="4"/>
+      <c r="AZ11" s="4">
+        <v>2262.0</v>
+      </c>
+      <c r="BA11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -6708,7 +6738,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="52" width="10.5"/>
+    <col customWidth="1" min="35" max="53" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -6865,9 +6895,12 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -7054,6 +7087,7 @@
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -7259,7 +7293,11 @@
         <f>IF(Closed!AY3&gt;0,100*Deaths!AY3/Closed!AY3,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ3" s="1"/>
+      <c r="AZ3" s="1">
+        <f>IF(Closed!AZ3&gt;0,100*Deaths!AZ3/Closed!AZ3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -7465,7 +7503,11 @@
         <f>IF(Closed!AY4&gt;0,100*Deaths!AY4/Closed!AY4,0)</f>
         <v>3.448275862</v>
       </c>
-      <c r="AZ4" s="1"/>
+      <c r="AZ4" s="1">
+        <f>IF(Closed!AZ4&gt;0,100*Deaths!AZ4/Closed!AZ4,0)</f>
+        <v>3.448275862</v>
+      </c>
+      <c r="BA4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -7671,7 +7713,11 @@
         <f>IF(Closed!AY5&gt;0,100*Deaths!AY5/Closed!AY5,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ5" s="1"/>
+      <c r="AZ5" s="1">
+        <f>IF(Closed!AZ5&gt;0,100*Deaths!AZ5/Closed!AZ5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -7877,7 +7923,11 @@
         <f>IF(Closed!AY6&gt;0,100*Deaths!AY6/Closed!AY6,0)</f>
         <v>7.692307692</v>
       </c>
-      <c r="AZ6" s="1"/>
+      <c r="AZ6" s="1">
+        <f>IF(Closed!AZ6&gt;0,100*Deaths!AZ6/Closed!AZ6,0)</f>
+        <v>7.5</v>
+      </c>
+      <c r="BA6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -8083,7 +8133,11 @@
         <f>IF(Closed!AY7&gt;0,100*Deaths!AY7/Closed!AY7,0)</f>
         <v>4.599406528</v>
       </c>
-      <c r="AZ7" s="1"/>
+      <c r="AZ7" s="1">
+        <f>IF(Closed!AZ7&gt;0,100*Deaths!AZ7/Closed!AZ7,0)</f>
+        <v>4.11311054</v>
+      </c>
+      <c r="BA7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -8289,7 +8343,11 @@
         <f>IF(Closed!AY8&gt;0,100*Deaths!AY8/Closed!AY8,0)</f>
         <v>5.263157895</v>
       </c>
-      <c r="AZ8" s="1"/>
+      <c r="AZ8" s="1">
+        <f>IF(Closed!AZ8&gt;0,100*Deaths!AZ8/Closed!AZ8,0)</f>
+        <v>5.263157895</v>
+      </c>
+      <c r="BA8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -8495,7 +8553,11 @@
         <f>IF(Closed!AY9&gt;0,100*Deaths!AY9/Closed!AY9,0)</f>
         <v>5.357142857</v>
       </c>
-      <c r="AZ9" s="1"/>
+      <c r="AZ9" s="1">
+        <f>IF(Closed!AZ9&gt;0,100*Deaths!AZ9/Closed!AZ9,0)</f>
+        <v>5.287896592</v>
+      </c>
+      <c r="BA9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -8701,7 +8763,11 @@
         <f>IF(Closed!AY10&gt;0,100*Deaths!AY10/Closed!AY10,0)</f>
         <v>4.575818303</v>
       </c>
-      <c r="AZ10" s="1"/>
+      <c r="AZ10" s="1">
+        <f>IF(Closed!AZ10&gt;0,100*Deaths!AZ10/Closed!AZ10,0)</f>
+        <v>4.590264941</v>
+      </c>
+      <c r="BA10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -8907,13 +8973,17 @@
         <f>IF(Closed!AY11&gt;0,100*Deaths!AY11/Closed!AY11,0)</f>
         <v>1.52284264</v>
       </c>
-      <c r="AZ11" s="1"/>
+      <c r="AZ11" s="1">
+        <f>IF(Closed!AZ11&gt;0,100*Deaths!AZ11/Closed!AZ11,0)</f>
+        <v>1.554726368</v>
+      </c>
+      <c r="BA11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="M15" s="19"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -9926,7 +9996,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="52" width="10.5"/>
+    <col customWidth="1" min="35" max="53" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -10083,9 +10153,12 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -10272,212 +10345,217 @@
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20">
-        <f t="shared" ref="B3:AZ3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
+      <c r="B3" s="18">
+        <f t="shared" ref="B3:BA3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
         <v>0.02559675512</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <f t="shared" si="1"/>
         <v>0.02916302229</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <f t="shared" si="1"/>
         <v>0.02872158519</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <f t="shared" si="1"/>
         <v>0.02754111253</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <f t="shared" si="1"/>
         <v>0.02689610531</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <f t="shared" si="1"/>
         <v>0.02562433382</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f t="shared" si="1"/>
         <v>0.02517372825</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <f t="shared" si="1"/>
         <v>0.02464177037</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <f t="shared" si="1"/>
         <v>0.02497741373</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <f t="shared" si="1"/>
         <v>0.02460071497</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="18">
         <f t="shared" si="1"/>
         <v>0.02453626176</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <f t="shared" si="1"/>
         <v>0.02453626176</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="18">
         <f t="shared" si="1"/>
         <v>0.02610489626</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="18">
         <f t="shared" si="1"/>
         <v>0.02544977988</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="18">
         <f t="shared" si="1"/>
         <v>0.02507349752</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="18">
         <f t="shared" si="1"/>
         <v>0.02469852001</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="18">
         <f t="shared" si="1"/>
         <v>0.02462939464</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="18">
         <f t="shared" si="1"/>
         <v>0.02472845056</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="18">
         <f t="shared" si="1"/>
         <v>0.02547765334</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="18">
         <f t="shared" si="1"/>
         <v>0.02554539465</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="18">
         <f t="shared" si="1"/>
         <v>0.02535397203</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="18">
         <f t="shared" si="1"/>
         <v>0.02543190181</v>
       </c>
-      <c r="X3" s="20">
+      <c r="X3" s="18">
         <f t="shared" si="1"/>
         <v>0.02542293115</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="18">
         <f t="shared" si="1"/>
         <v>0.02477757219</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="18">
         <f t="shared" si="1"/>
         <v>0.02435645151</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="18">
         <f t="shared" si="1"/>
         <v>0.02436699009</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="18">
         <f t="shared" si="1"/>
         <v>0.02452268294</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="18">
         <f t="shared" si="1"/>
         <v>0.02453396283</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AD3" s="18">
         <f t="shared" si="1"/>
         <v>0.02462134009</v>
       </c>
-      <c r="AE3" s="20">
+      <c r="AE3" s="18">
         <f t="shared" si="1"/>
         <v>0.02397149863</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="18">
         <f t="shared" si="1"/>
         <v>0.02381119362</v>
       </c>
-      <c r="AG3" s="20">
+      <c r="AG3" s="18">
         <f t="shared" si="1"/>
         <v>0.02366064651</v>
       </c>
-      <c r="AH3" s="20">
+      <c r="AH3" s="18">
         <f t="shared" si="1"/>
         <v>0.02356307367</v>
       </c>
-      <c r="AI3" s="20">
+      <c r="AI3" s="18">
         <f t="shared" si="1"/>
         <v>0.02344963636</v>
       </c>
-      <c r="AJ3" s="20">
+      <c r="AJ3" s="18">
         <f t="shared" si="1"/>
         <v>0.0233587823</v>
       </c>
-      <c r="AK3" s="20">
+      <c r="AK3" s="18">
         <f t="shared" si="1"/>
         <v>0.02344945766</v>
       </c>
-      <c r="AL3" s="20">
+      <c r="AL3" s="18">
         <f t="shared" si="1"/>
         <v>0.02349372642</v>
       </c>
-      <c r="AM3" s="20">
+      <c r="AM3" s="18">
         <f t="shared" si="1"/>
         <v>0.02337582825</v>
       </c>
-      <c r="AN3" s="20">
+      <c r="AN3" s="18">
         <f t="shared" si="1"/>
         <v>0.02355312368</v>
       </c>
-      <c r="AO3" s="20">
+      <c r="AO3" s="18">
         <f t="shared" si="1"/>
         <v>0.02359175364</v>
       </c>
-      <c r="AP3" s="20">
+      <c r="AP3" s="18">
         <f t="shared" si="1"/>
         <v>0.02327521075</v>
       </c>
-      <c r="AQ3" s="20">
+      <c r="AQ3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02343795374</v>
-      </c>
-      <c r="AR3" s="20">
+        <v>0.02294705257</v>
+      </c>
+      <c r="AR3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02377728724</v>
-      </c>
-      <c r="AS3" s="20">
+        <v>0.02325687862</v>
+      </c>
+      <c r="AS3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02390667081</v>
-      </c>
-      <c r="AT3" s="20">
+        <v>0.02337644293</v>
+      </c>
+      <c r="AT3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02414662455</v>
-      </c>
-      <c r="AU3" s="20">
+        <v>0.02358588861</v>
+      </c>
+      <c r="AU3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02454122706</v>
-      </c>
-      <c r="AV3" s="20">
+        <v>0.02393496069</v>
+      </c>
+      <c r="AV3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02504650634</v>
-      </c>
-      <c r="AW3" s="20">
+        <v>0.02439523564</v>
+      </c>
+      <c r="AW3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02517615205</v>
-      </c>
-      <c r="AX3" s="20">
+        <v>0.02450363075</v>
+      </c>
+      <c r="AX3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02529220368</v>
-      </c>
-      <c r="AY3" s="20">
+        <v>0.02460597612</v>
+      </c>
+      <c r="AY3" s="18">
         <f t="shared" si="1"/>
-        <v>0.02555910414</v>
-      </c>
-      <c r="AZ3" s="20">
+        <v>0.02484934264</v>
+      </c>
+      <c r="AZ3" s="18">
+        <f t="shared" si="1"/>
+        <v>0.02515560135</v>
+      </c>
+      <c r="BA3" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10486,1855 +10564,1891 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <f>Confirmed!B3/Testing!B3</f>
         <v>0.008695652174</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <f>Confirmed!C3/Testing!C3</f>
         <v>0.01937984496</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <f>Confirmed!D3/Testing!D3</f>
         <v>0.02090592334</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <f>Confirmed!E3/Testing!E3</f>
         <v>0.009677419355</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f>Confirmed!F3/Testing!F3</f>
         <v>0.01807228916</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <f>Confirmed!G3/Testing!G3</f>
         <v>0.01955307263</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <f>Confirmed!H3/Testing!H3</f>
         <v>0.0180878553</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <f>Confirmed!I3/Testing!I3</f>
         <v>0.0171990172</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="19">
         <f>Confirmed!J3/Testing!J3</f>
         <v>0.01605504587</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="19">
         <f>Confirmed!K3/Testing!K3</f>
         <v>0.0174291939</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="19">
         <f>Confirmed!L3/Testing!L3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="19">
         <f>Confirmed!M3/Testing!M3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="19">
         <f>Confirmed!N3/Testing!N3</f>
         <v>0.02524271845</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="19">
         <f>Confirmed!O3/Testing!O3</f>
         <v>0.02697841727</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="19">
         <f>Confirmed!P3/Testing!P3</f>
         <v>0.02542372881</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="19">
         <f>Confirmed!Q3/Testing!Q3</f>
         <v>0.02640264026</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="19">
         <f>Confirmed!R3/Testing!R3</f>
         <v>0.02472952087</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="19">
         <f>Confirmed!S3/Testing!S3</f>
         <v>0.02366863905</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="19">
         <f>Confirmed!T3/Testing!T3</f>
         <v>0.02275960171</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="19">
         <f>Confirmed!U3/Testing!U3</f>
         <v>0.0218878249</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="19">
         <f>Confirmed!V3/Testing!V3</f>
         <v>0.02083333333</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="19">
         <f>Confirmed!W3/Testing!W3</f>
         <v>0.01965601966</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="19">
         <f>Confirmed!X3/Testing!X3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="19">
         <f>Confirmed!Y3/Testing!Y3</f>
         <v>0.01727861771</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="19">
         <f>Confirmed!Z3/Testing!Z3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="19">
         <f>Confirmed!AA3/Testing!AA3</f>
         <v>0.0156097561</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB4" s="19">
         <f>Confirmed!AB3/Testing!AB3</f>
         <v>0.01481481481</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4" s="19">
         <f>Confirmed!AC3/Testing!AC3</f>
         <v>0.01380500431</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="19">
         <f>Confirmed!AD3/Testing!AD3</f>
         <v>0.01299756296</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="19">
         <f>Confirmed!AE3/Testing!AE3</f>
         <v>0.01230769231</v>
       </c>
-      <c r="AF4" s="21">
+      <c r="AF4" s="19">
         <f>Confirmed!AF3/Testing!AF3</f>
         <v>0.01248164464</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AG4" s="19">
         <f>Confirmed!AG3/Testing!AG3</f>
         <v>0.01179736294</v>
       </c>
-      <c r="AH4" s="21">
+      <c r="AH4" s="19">
         <f>Confirmed!AH3/Testing!AH3</f>
         <v>0.01134846462</v>
       </c>
-      <c r="AI4" s="21">
+      <c r="AI4" s="19">
         <f>Confirmed!AI3/Testing!AI3</f>
         <v>0.01067839196</v>
       </c>
-      <c r="AJ4" s="21">
+      <c r="AJ4" s="19">
         <f>Confirmed!AJ3/Testing!AJ3</f>
         <v>0.01014319809</v>
       </c>
-      <c r="AK4" s="21">
+      <c r="AK4" s="19">
         <f>Confirmed!AK3/Testing!AK3</f>
         <v>0.01024473534</v>
       </c>
-      <c r="AL4" s="21">
+      <c r="AL4" s="19">
         <f>Confirmed!AL3/Testing!AL3</f>
         <v>0.01234567901</v>
       </c>
-      <c r="AM4" s="21">
+      <c r="AM4" s="19">
         <f>Confirmed!AM3/Testing!AM3</f>
         <v>0.01209677419</v>
       </c>
-      <c r="AN4" s="21">
+      <c r="AN4" s="19">
         <f>Confirmed!AN3/Testing!AN3</f>
         <v>0.01201923077</v>
       </c>
-      <c r="AO4" s="21">
+      <c r="AO4" s="19">
         <f>Confirmed!AO3/Testing!AO3</f>
         <v>0.01200923788</v>
       </c>
-      <c r="AP4" s="21">
+      <c r="AP4" s="19">
         <f>Confirmed!AP3/Testing!AP3</f>
         <v>0.0115248227</v>
       </c>
-      <c r="AQ4" s="21">
+      <c r="AQ4" s="19">
         <f>Confirmed!AQ3/Testing!AQ3</f>
-        <v>0.01144552777</v>
-      </c>
-      <c r="AR4" s="21">
+        <v>0.009694793537</v>
+      </c>
+      <c r="AR4" s="19">
         <f>Confirmed!AR3/Testing!AR3</f>
-        <v>0.01086519115</v>
-      </c>
-      <c r="AS4" s="21">
+        <v>0.009202453988</v>
+      </c>
+      <c r="AS4" s="19">
         <f>Confirmed!AS3/Testing!AS3</f>
-        <v>0.01069927398</v>
-      </c>
-      <c r="AT4" s="21">
+        <v>0.009064422143</v>
+      </c>
+      <c r="AT4" s="19">
         <f>Confirmed!AT3/Testing!AT3</f>
-        <v>0.01052249637</v>
-      </c>
-      <c r="AU4" s="21">
+        <v>0.008912108175</v>
+      </c>
+      <c r="AU4" s="19">
         <f>Confirmed!AU3/Testing!AU3</f>
-        <v>0.01043478261</v>
-      </c>
-      <c r="AV4" s="21">
+        <v>0.008839127873</v>
+      </c>
+      <c r="AV4" s="19">
         <f>Confirmed!AV3/Testing!AV3</f>
-        <v>0.01005025126</v>
-      </c>
-      <c r="AW4" s="21">
+        <v>0.008513053348</v>
+      </c>
+      <c r="AW4" s="19">
         <f>Confirmed!AW3/Testing!AW3</f>
-        <v>0.009615384615</v>
-      </c>
-      <c r="AX4" s="21">
+        <v>0.008145533532</v>
+      </c>
+      <c r="AX4" s="19">
         <f>Confirmed!AX3/Testing!AX3</f>
-        <v>0.009526736325</v>
-      </c>
-      <c r="AY4" s="21">
+        <v>0.008068714211</v>
+      </c>
+      <c r="AY4" s="19">
         <f>Confirmed!AY3/Testing!AY3</f>
-        <v>0.009988249119</v>
-      </c>
-      <c r="AZ4" s="21"/>
+        <v>0.008459815875</v>
+      </c>
+      <c r="AZ4" s="19">
+        <f>Confirmed!AZ3/Testing!AZ3</f>
+        <v>0.008353221957</v>
+      </c>
+      <c r="BA4" s="19"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <f>Confirmed!B4/Testing!B4</f>
         <v>0.01425178147</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <f>Confirmed!C4/Testing!C4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <f>Confirmed!D4/Testing!D4</f>
         <v>0.01142857143</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <f>Confirmed!E4/Testing!E4</f>
         <v>0.01410934744</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <f>Confirmed!F4/Testing!F4</f>
         <v>0.01320132013</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <f>Confirmed!G4/Testing!G4</f>
         <v>0.01376146789</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <f>Confirmed!H4/Testing!H4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <f>Confirmed!I4/Testing!I4</f>
         <v>0.01211305518</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <f>Confirmed!J4/Testing!J4</f>
         <v>0.01381909548</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <f>Confirmed!K4/Testing!K4</f>
         <v>0.01311084625</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="19">
         <f>Confirmed!L4/Testing!L4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="19">
         <f>Confirmed!M4/Testing!M4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="19">
         <f>Confirmed!N4/Testing!N4</f>
         <v>0.01594048884</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="19">
         <f>Confirmed!O4/Testing!O4</f>
         <v>0.01476377953</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="19">
         <f>Confirmed!P4/Testing!P4</f>
         <v>0.01669758813</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="19">
         <f>Confirmed!Q4/Testing!Q4</f>
         <v>0.01714801444</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="19">
         <f>Confirmed!R4/Testing!R4</f>
         <v>0.01607445008</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="19">
         <f>Confirmed!S4/Testing!S4</f>
         <v>0.01781376518</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="19">
         <f>Confirmed!T4/Testing!T4</f>
         <v>0.01713395639</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="19">
         <f>Confirmed!U4/Testing!U4</f>
         <v>0.01721556886</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="19">
         <f>Confirmed!V4/Testing!V4</f>
         <v>0.017106201</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="19">
         <f>Confirmed!W4/Testing!W4</f>
         <v>0.01612903226</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="19">
         <f>Confirmed!X4/Testing!X4</f>
         <v>0.01505646173</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="19">
         <f>Confirmed!Y4/Testing!Y4</f>
         <v>0.0141760189</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="19">
         <f>Confirmed!Z4/Testing!Z4</f>
         <v>0.0139431121</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="19">
         <f>Confirmed!AA4/Testing!AA4</f>
         <v>0.01281366791</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AB5" s="19">
         <f>Confirmed!AB4/Testing!AB4</f>
         <v>0.01215805471</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="19">
         <f>Confirmed!AC4/Testing!AC4</f>
         <v>0.01179801793</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AD5" s="19">
         <f>Confirmed!AD4/Testing!AD4</f>
         <v>0.01111605158</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AE5" s="19">
         <f>Confirmed!AE4/Testing!AE4</f>
         <v>0.01178451178</v>
       </c>
-      <c r="AF5" s="21">
+      <c r="AF5" s="19">
         <f>Confirmed!AF4/Testing!AF4</f>
         <v>0.01124949779</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AG5" s="19">
         <f>Confirmed!AG4/Testing!AG4</f>
         <v>0.0106302202</v>
       </c>
-      <c r="AH5" s="21">
+      <c r="AH5" s="19">
         <f>Confirmed!AH4/Testing!AH4</f>
         <v>0.01059167275</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="AI5" s="19">
         <f>Confirmed!AI4/Testing!AI4</f>
         <v>0.009969061533</v>
       </c>
-      <c r="AJ5" s="21">
+      <c r="AJ5" s="19">
         <f>Confirmed!AJ4/Testing!AJ4</f>
         <v>0.0101207966</v>
       </c>
-      <c r="AK5" s="21">
+      <c r="AK5" s="19">
         <f>Confirmed!AK4/Testing!AK4</f>
         <v>0.01090342679</v>
       </c>
-      <c r="AL5" s="21">
+      <c r="AL5" s="19">
         <f>Confirmed!AL4/Testing!AL4</f>
         <v>0.01028202115</v>
       </c>
-      <c r="AM5" s="21">
+      <c r="AM5" s="19">
         <f>Confirmed!AM4/Testing!AM4</f>
         <v>0.009925558313</v>
       </c>
-      <c r="AN5" s="21">
+      <c r="AN5" s="19">
         <f>Confirmed!AN4/Testing!AN4</f>
         <v>0.009208103131</v>
       </c>
-      <c r="AO5" s="21">
+      <c r="AO5" s="19">
         <f>Confirmed!AO4/Testing!AO4</f>
         <v>0.008847320526</v>
       </c>
-      <c r="AP5" s="21">
+      <c r="AP5" s="19">
         <f>Confirmed!AP4/Testing!AP4</f>
         <v>0.008974048023</v>
       </c>
-      <c r="AQ5" s="21">
+      <c r="AQ5" s="19">
         <f>Confirmed!AQ4/Testing!AQ4</f>
-        <v>0.009276437848</v>
-      </c>
-      <c r="AR5" s="21">
+        <v>0.009101251422</v>
+      </c>
+      <c r="AR5" s="19">
         <f>Confirmed!AR4/Testing!AR4</f>
-        <v>0.009247027741</v>
-      </c>
-      <c r="AS5" s="21">
+        <v>0.009071274298</v>
+      </c>
+      <c r="AS5" s="19">
         <f>Confirmed!AS4/Testing!AS4</f>
-        <v>0.008572025925</v>
-      </c>
-      <c r="AT5" s="21">
+        <v>0.00841025641</v>
+      </c>
+      <c r="AT5" s="19">
         <f>Confirmed!AT4/Testing!AT4</f>
-        <v>0.00893388922</v>
-      </c>
-      <c r="AU5" s="21">
+        <v>0.00876338851</v>
+      </c>
+      <c r="AU5" s="19">
         <f>Confirmed!AU4/Testing!AU4</f>
-        <v>0.009514747859</v>
-      </c>
-      <c r="AV5" s="21">
+        <v>0.009335324869</v>
+      </c>
+      <c r="AV5" s="19">
         <f>Confirmed!AV4/Testing!AV4</f>
-        <v>0.009347507331</v>
-      </c>
-      <c r="AW5" s="21">
+        <v>0.009171012408</v>
+      </c>
+      <c r="AW5" s="19">
         <f>Confirmed!AW4/Testing!AW4</f>
-        <v>0.009119607155</v>
-      </c>
-      <c r="AX5" s="21">
+        <v>0.008947006194</v>
+      </c>
+      <c r="AX5" s="19">
         <f>Confirmed!AX4/Testing!AX4</f>
-        <v>0.009751176866</v>
-      </c>
-      <c r="AY5" s="21">
+        <v>0.009566221343</v>
+      </c>
+      <c r="AY5" s="19">
         <f>Confirmed!AY4/Testing!AY4</f>
-        <v>0.01012698923</v>
-      </c>
-      <c r="AZ5" s="21"/>
+        <v>0.009933774834</v>
+      </c>
+      <c r="AZ5" s="19">
+        <f>Confirmed!AZ4/Testing!AZ4</f>
+        <v>0.009679370841</v>
+      </c>
+      <c r="BA5" s="19"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <f>Confirmed!B5/Testing!B5</f>
         <v>0.01145038168</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <f>Confirmed!C5/Testing!C5</f>
         <v>0.0113507378</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <f>Confirmed!D5/Testing!D5</f>
         <v>0.01121304791</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <f>Confirmed!E5/Testing!E5</f>
         <v>0.01039697543</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <f>Confirmed!F5/Testing!F5</f>
         <v>0.01060070671</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <f>Confirmed!G5/Testing!G5</f>
         <v>0.009836065574</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <f>Confirmed!H5/Testing!H5</f>
         <v>0.009841029523</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <f>Confirmed!I5/Testing!I5</f>
         <v>0.009372746936</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <f>Confirmed!J5/Testing!J5</f>
         <v>0.01211305518</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <f>Confirmed!K5/Testing!K5</f>
         <v>0.01148691768</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="19">
         <f>Confirmed!L5/Testing!L5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="19">
         <f>Confirmed!M5/Testing!M5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="19">
         <f>Confirmed!N5/Testing!N5</f>
         <v>0.01195219124</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="19">
         <f>Confirmed!O5/Testing!O5</f>
         <v>0.0105374078</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="19">
         <f>Confirmed!P5/Testing!P5</f>
         <v>0.009940357853</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="19">
         <f>Confirmed!Q5/Testing!Q5</f>
         <v>0.009671179884</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="19">
         <f>Confirmed!R5/Testing!R5</f>
         <v>0.009519492294</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="19">
         <f>Confirmed!S5/Testing!S5</f>
         <v>0.009544468547</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="19">
         <f>Confirmed!T5/Testing!T5</f>
         <v>0.009178139341</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="19">
         <f>Confirmed!U5/Testing!U5</f>
         <v>0.00882117081</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="19">
         <f>Confirmed!V5/Testing!V5</f>
         <v>0.00840015273</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="19">
         <f>Confirmed!W5/Testing!W5</f>
         <v>0.008279337653</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="19">
         <f>Confirmed!X5/Testing!X5</f>
         <v>0.008400537634</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Y6" s="19">
         <f>Confirmed!Y5/Testing!Y5</f>
         <v>0.007278481013</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="Z6" s="19">
         <f>Confirmed!Z5/Testing!Z5</f>
         <v>0.006869772999</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="19">
         <f>Confirmed!AA5/Testing!AA5</f>
         <v>0.00686302545</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="19">
         <f>Confirmed!AB5/Testing!AB5</f>
         <v>0.00623982637</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="19">
         <f>Confirmed!AC5/Testing!AC5</f>
         <v>0.005815423515</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AD6" s="19">
         <f>Confirmed!AD5/Testing!AD5</f>
         <v>0.005717008099</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="19">
         <f>Confirmed!AE5/Testing!AE5</f>
         <v>0.005184851217</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="19">
         <f>Confirmed!AF5/Testing!AF5</f>
         <v>0.00495049505</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="19">
         <f>Confirmed!AG5/Testing!AG5</f>
         <v>0.0052877771</v>
       </c>
-      <c r="AH6" s="21">
+      <c r="AH6" s="19">
         <f>Confirmed!AH5/Testing!AH5</f>
         <v>0.004695754256</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AI6" s="19">
         <f>Confirmed!AI5/Testing!AI5</f>
         <v>0.005707972749</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AJ6" s="19">
         <f>Confirmed!AJ5/Testing!AJ5</f>
         <v>0.00629590766</v>
       </c>
-      <c r="AK6" s="21">
+      <c r="AK6" s="19">
         <f>Confirmed!AK5/Testing!AK5</f>
         <v>0.005840146838</v>
       </c>
-      <c r="AL6" s="21">
+      <c r="AL6" s="19">
         <f>Confirmed!AL5/Testing!AL5</f>
         <v>0.006294256491</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="19">
         <f>Confirmed!AM5/Testing!AM5</f>
         <v>0.006794682422</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AN6" s="19">
         <f>Confirmed!AN5/Testing!AN5</f>
         <v>0.007470049331</v>
       </c>
-      <c r="AO6" s="21">
+      <c r="AO6" s="19">
         <f>Confirmed!AO5/Testing!AO5</f>
         <v>0.007718348003</v>
       </c>
-      <c r="AP6" s="21">
+      <c r="AP6" s="19">
         <f>Confirmed!AP5/Testing!AP5</f>
         <v>0.007405482656</v>
       </c>
-      <c r="AQ6" s="21">
+      <c r="AQ6" s="19">
         <f>Confirmed!AQ5/Testing!AQ5</f>
-        <v>0.007330103118</v>
-      </c>
-      <c r="AR6" s="21">
+        <v>0.006835824354</v>
+      </c>
+      <c r="AR6" s="19">
         <f>Confirmed!AR5/Testing!AR5</f>
-        <v>0.007076306168</v>
-      </c>
-      <c r="AS6" s="21">
+        <v>0.006599208095</v>
+      </c>
+      <c r="AS6" s="19">
         <f>Confirmed!AS5/Testing!AS5</f>
-        <v>0.00683167208</v>
-      </c>
-      <c r="AT6" s="21">
+        <v>0.006371422603</v>
+      </c>
+      <c r="AT6" s="19">
         <f>Confirmed!AT5/Testing!AT5</f>
-        <v>0.006486601446</v>
-      </c>
-      <c r="AU6" s="21">
+        <v>0.006049186831</v>
+      </c>
+      <c r="AU6" s="19">
         <f>Confirmed!AU5/Testing!AU5</f>
-        <v>0.006422018349</v>
-      </c>
-      <c r="AV6" s="21">
+        <v>0.005989162468</v>
+      </c>
+      <c r="AV6" s="19">
         <f>Confirmed!AV5/Testing!AV5</f>
-        <v>0.00618556701</v>
-      </c>
-      <c r="AW6" s="21">
+        <v>0.005768174327</v>
+      </c>
+      <c r="AW6" s="19">
         <f>Confirmed!AW5/Testing!AW5</f>
-        <v>0.006200676437</v>
-      </c>
-      <c r="AX6" s="21">
+        <v>0.005782372525</v>
+      </c>
+      <c r="AX6" s="19">
         <f>Confirmed!AX5/Testing!AX5</f>
-        <v>0.006034405116</v>
-      </c>
-      <c r="AY6" s="21">
+        <v>0.005627414749</v>
+      </c>
+      <c r="AY6" s="19">
         <f>Confirmed!AY5/Testing!AY5</f>
-        <v>0.005768899604</v>
-      </c>
-      <c r="AZ6" s="21"/>
+        <v>0.005379797655</v>
+      </c>
+      <c r="AZ6" s="19">
+        <f>Confirmed!AZ5/Testing!AZ5</f>
+        <v>0.00523640844</v>
+      </c>
+      <c r="BA6" s="19"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <f>Confirmed!B6/Testing!B6</f>
         <v>0.009244992296</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <f>Confirmed!C6/Testing!C6</f>
         <v>0.015130674</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <f>Confirmed!D6/Testing!D6</f>
         <v>0.01483312732</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <f>Confirmed!E6/Testing!E6</f>
         <v>0.0126002291</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <f>Confirmed!F6/Testing!F6</f>
         <v>0.01498929336</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <f>Confirmed!G6/Testing!G6</f>
         <v>0.01390268123</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <f>Confirmed!H6/Testing!H6</f>
         <v>0.01466544455</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <f>Confirmed!I6/Testing!I6</f>
         <v>0.01397379913</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <f>Confirmed!J6/Testing!J6</f>
         <v>0.01466992665</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <f>Confirmed!K6/Testing!K6</f>
         <v>0.01469450889</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="19">
         <f>Confirmed!L6/Testing!L6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <f>Confirmed!M6/Testing!M6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="19">
         <f>Confirmed!N6/Testing!N6</f>
         <v>0.01448275862</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="19">
         <f>Confirmed!O6/Testing!O6</f>
         <v>0.01404853129</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="19">
         <f>Confirmed!P6/Testing!P6</f>
         <v>0.01444912703</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="19">
         <f>Confirmed!Q6/Testing!Q6</f>
         <v>0.01347393087</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="19">
         <f>Confirmed!R6/Testing!R6</f>
         <v>0.01263042284</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="19">
         <f>Confirmed!S6/Testing!S6</f>
         <v>0.01209253417</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="19">
         <f>Confirmed!T6/Testing!T6</f>
         <v>0.01212733704</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="19">
         <f>Confirmed!U6/Testing!U6</f>
         <v>0.01214771623</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="19">
         <f>Confirmed!V6/Testing!V6</f>
         <v>0.01202590194</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="19">
         <f>Confirmed!W6/Testing!W6</f>
         <v>0.01133885739</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="19">
         <f>Confirmed!X6/Testing!X6</f>
         <v>0.01058631922</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="Y7" s="19">
         <f>Confirmed!Y6/Testing!Y6</f>
         <v>0.01035276074</v>
       </c>
-      <c r="Z7" s="21">
+      <c r="Z7" s="19">
         <f>Confirmed!Z6/Testing!Z6</f>
         <v>0.009771986971</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="AA7" s="19">
         <f>Confirmed!AA6/Testing!AA6</f>
         <v>0.009352268791</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="AB7" s="19">
         <f>Confirmed!AB6/Testing!AB6</f>
         <v>0.008875739645</v>
       </c>
-      <c r="AC7" s="21">
+      <c r="AC7" s="19">
         <f>Confirmed!AC6/Testing!AC6</f>
         <v>0.008269525268</v>
       </c>
-      <c r="AD7" s="21">
+      <c r="AD7" s="19">
         <f>Confirmed!AD6/Testing!AD6</f>
         <v>0.008369408369</v>
       </c>
-      <c r="AE7" s="21">
+      <c r="AE7" s="19">
         <f>Confirmed!AE6/Testing!AE6</f>
         <v>0.008194482382</v>
       </c>
-      <c r="AF7" s="21">
+      <c r="AF7" s="19">
         <f>Confirmed!AF6/Testing!AF6</f>
         <v>0.008083441982</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="AG7" s="19">
         <f>Confirmed!AG6/Testing!AG6</f>
         <v>0.007639231148</v>
       </c>
-      <c r="AH7" s="21">
+      <c r="AH7" s="19">
         <f>Confirmed!AH6/Testing!AH6</f>
         <v>0.007349454718</v>
       </c>
-      <c r="AI7" s="21">
+      <c r="AI7" s="19">
         <f>Confirmed!AI6/Testing!AI6</f>
         <v>0.006915012269</v>
       </c>
-      <c r="AJ7" s="21">
+      <c r="AJ7" s="19">
         <f>Confirmed!AJ6/Testing!AJ6</f>
         <v>0.00678109769</v>
       </c>
-      <c r="AK7" s="21">
+      <c r="AK7" s="19">
         <f>Confirmed!AK6/Testing!AK6</f>
         <v>0.006874241812</v>
       </c>
-      <c r="AL7" s="21">
+      <c r="AL7" s="19">
         <f>Confirmed!AL6/Testing!AL6</f>
         <v>0.006862371331</v>
       </c>
-      <c r="AM7" s="21">
+      <c r="AM7" s="19">
         <f>Confirmed!AM6/Testing!AM6</f>
         <v>0.006621331424</v>
       </c>
-      <c r="AN7" s="21">
+      <c r="AN7" s="19">
         <f>Confirmed!AN6/Testing!AN6</f>
         <v>0.006659836066</v>
       </c>
-      <c r="AO7" s="21">
+      <c r="AO7" s="19">
         <f>Confirmed!AO6/Testing!AO6</f>
         <v>0.00656167979</v>
       </c>
-      <c r="AP7" s="21">
+      <c r="AP7" s="19">
         <f>Confirmed!AP6/Testing!AP6</f>
         <v>0.006296237998</v>
       </c>
-      <c r="AQ7" s="21">
+      <c r="AQ7" s="19">
         <f>Confirmed!AQ6/Testing!AQ6</f>
-        <v>0.006171910281</v>
-      </c>
-      <c r="AR7" s="21">
+        <v>0.00658105939</v>
+      </c>
+      <c r="AR7" s="19">
         <f>Confirmed!AR6/Testing!AR6</f>
-        <v>0.006144612746</v>
-      </c>
-      <c r="AS7" s="21">
+        <v>0.006551881761</v>
+      </c>
+      <c r="AS7" s="19">
         <f>Confirmed!AS6/Testing!AS6</f>
-        <v>0.006920884788</v>
-      </c>
-      <c r="AT7" s="21">
+        <v>0.007379539864</v>
+      </c>
+      <c r="AT7" s="19">
         <f>Confirmed!AT6/Testing!AT6</f>
-        <v>0.006956969853</v>
-      </c>
-      <c r="AU7" s="21">
+        <v>0.007418601456</v>
+      </c>
+      <c r="AU7" s="19">
         <f>Confirmed!AU6/Testing!AU6</f>
-        <v>0.006669136717</v>
-      </c>
-      <c r="AV7" s="21">
+        <v>0.007111813512</v>
+      </c>
+      <c r="AV7" s="19">
         <f>Confirmed!AV6/Testing!AV6</f>
-        <v>0.006423218746</v>
-      </c>
-      <c r="AW7" s="21">
+        <v>0.006849315068</v>
+      </c>
+      <c r="AW7" s="19">
         <f>Confirmed!AW6/Testing!AW6</f>
-        <v>0.006146141589</v>
-      </c>
-      <c r="AX7" s="21">
+        <v>0.00655419347</v>
+      </c>
+      <c r="AX7" s="19">
         <f>Confirmed!AX6/Testing!AX6</f>
-        <v>0.006001091107</v>
-      </c>
-      <c r="AY7" s="21">
+        <v>0.006399813824</v>
+      </c>
+      <c r="AY7" s="19">
         <f>Confirmed!AY6/Testing!AY6</f>
-        <v>0.0059461715</v>
-      </c>
-      <c r="AZ7" s="21"/>
+        <v>0.006340378198</v>
+      </c>
+      <c r="AZ7" s="19">
+        <f>Confirmed!AZ6/Testing!AZ6</f>
+        <v>0.006294004694</v>
+      </c>
+      <c r="BA7" s="19"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <f>Confirmed!B7/Testing!B7</f>
         <v>0.001903311762</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <f>Confirmed!C7/Testing!C7</f>
         <v>0.003397893306</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <f>Confirmed!D7/Testing!D7</f>
         <v>0.003661885871</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <f>Confirmed!E7/Testing!E7</f>
         <v>0.003393665158</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <f>Confirmed!F7/Testing!F7</f>
         <v>0.003173763555</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <f>Confirmed!G7/Testing!G7</f>
         <v>0.003678273664</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <f>Confirmed!H7/Testing!H7</f>
         <v>0.003849637681</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <f>Confirmed!I7/Testing!I7</f>
         <v>0.004529767041</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <f>Confirmed!J7/Testing!J7</f>
         <v>0.005034232783</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <f>Confirmed!K7/Testing!K7</f>
         <v>0.005920550038</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <f>Confirmed!L7/Testing!L7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <f>Confirmed!M7/Testing!M7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="19">
         <f>Confirmed!N7/Testing!N7</f>
         <v>0.007664793051</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <f>Confirmed!O7/Testing!O7</f>
         <v>0.009619933764</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="19">
         <f>Confirmed!P7/Testing!P7</f>
         <v>0.0101145322</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="19">
         <f>Confirmed!Q7/Testing!Q7</f>
         <v>0.009986973513</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="19">
         <f>Confirmed!R7/Testing!R7</f>
         <v>0.01193544012</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="19">
         <f>Confirmed!S7/Testing!S7</f>
         <v>0.01350298624</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="19">
         <f>Confirmed!T7/Testing!T7</f>
         <v>0.02172013481</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="19">
         <f>Confirmed!U7/Testing!U7</f>
         <v>0.02388095524</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="19">
         <f>Confirmed!V7/Testing!V7</f>
         <v>0.025139984</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="19">
         <f>Confirmed!W7/Testing!W7</f>
         <v>0.02650290886</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="19">
         <f>Confirmed!X7/Testing!X7</f>
         <v>0.02714932127</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="19">
         <f>Confirmed!Y7/Testing!Y7</f>
         <v>0.02774621212</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="Z8" s="19">
         <f>Confirmed!Z7/Testing!Z7</f>
         <v>0.02771321294</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="AA8" s="19">
         <f>Confirmed!AA7/Testing!AA7</f>
         <v>0.02952250556</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AB8" s="19">
         <f>Confirmed!AB7/Testing!AB7</f>
         <v>0.03061307349</v>
       </c>
-      <c r="AC8" s="21">
+      <c r="AC8" s="19">
         <f>Confirmed!AC7/Testing!AC7</f>
         <v>0.03155027616</v>
       </c>
-      <c r="AD8" s="21">
+      <c r="AD8" s="19">
         <f>Confirmed!AD7/Testing!AD7</f>
         <v>0.03421484069</v>
       </c>
-      <c r="AE8" s="21">
+      <c r="AE8" s="19">
         <f>Confirmed!AE7/Testing!AE7</f>
         <v>0.03292403184</v>
       </c>
-      <c r="AF8" s="21">
+      <c r="AF8" s="19">
         <f>Confirmed!AF7/Testing!AF7</f>
         <v>0.0344605475</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AG8" s="19">
         <f>Confirmed!AG7/Testing!AG7</f>
         <v>0.03578819233</v>
       </c>
-      <c r="AH8" s="21">
+      <c r="AH8" s="19">
         <f>Confirmed!AH7/Testing!AH7</f>
         <v>0.03607190959</v>
       </c>
-      <c r="AI8" s="21">
+      <c r="AI8" s="19">
         <f>Confirmed!AI7/Testing!AI7</f>
         <v>0.0347145691</v>
       </c>
-      <c r="AJ8" s="21">
+      <c r="AJ8" s="19">
         <f>Confirmed!AJ7/Testing!AJ7</f>
         <v>0.03386548024</v>
       </c>
-      <c r="AK8" s="21">
+      <c r="AK8" s="19">
         <f>Confirmed!AK7/Testing!AK7</f>
         <v>0.03450686642</v>
       </c>
-      <c r="AL8" s="21">
+      <c r="AL8" s="19">
         <f>Confirmed!AL7/Testing!AL7</f>
         <v>0.03446814522</v>
       </c>
-      <c r="AM8" s="21">
+      <c r="AM8" s="19">
         <f>Confirmed!AM7/Testing!AM7</f>
         <v>0.03421145686</v>
       </c>
-      <c r="AN8" s="21">
+      <c r="AN8" s="19">
         <f>Confirmed!AN7/Testing!AN7</f>
         <v>0.03433150569</v>
       </c>
-      <c r="AO8" s="21">
+      <c r="AO8" s="19">
         <f>Confirmed!AO7/Testing!AO7</f>
         <v>0.03395737094</v>
       </c>
-      <c r="AP8" s="21">
+      <c r="AP8" s="19">
         <f>Confirmed!AP7/Testing!AP7</f>
         <v>0.03300933126</v>
       </c>
-      <c r="AQ8" s="21">
+      <c r="AQ8" s="19">
         <f>Confirmed!AQ7/Testing!AQ7</f>
-        <v>0.03454045211</v>
-      </c>
-      <c r="AR8" s="21">
+        <v>0.03222673188</v>
+      </c>
+      <c r="AR8" s="19">
         <f>Confirmed!AR7/Testing!AR7</f>
-        <v>0.03490752506</v>
-      </c>
-      <c r="AS8" s="21">
+        <v>0.03256932095</v>
+      </c>
+      <c r="AS8" s="19">
         <f>Confirmed!AS7/Testing!AS7</f>
-        <v>0.03613205966</v>
-      </c>
-      <c r="AT8" s="21">
+        <v>0.03371173031</v>
+      </c>
+      <c r="AT8" s="19">
         <f>Confirmed!AT7/Testing!AT7</f>
-        <v>0.0387601833</v>
-      </c>
-      <c r="AU8" s="21">
+        <v>0.03616389549</v>
+      </c>
+      <c r="AU8" s="19">
         <f>Confirmed!AU7/Testing!AU7</f>
-        <v>0.041366687</v>
-      </c>
-      <c r="AV8" s="21">
+        <v>0.03859509307</v>
+      </c>
+      <c r="AV8" s="19">
         <f>Confirmed!AV7/Testing!AV7</f>
-        <v>0.04418980461</v>
-      </c>
-      <c r="AW8" s="21">
+        <v>0.04122920036</v>
+      </c>
+      <c r="AW8" s="19">
         <f>Confirmed!AW7/Testing!AW7</f>
-        <v>0.04312865497</v>
-      </c>
-      <c r="AX8" s="21">
+        <v>0.04023923194</v>
+      </c>
+      <c r="AX8" s="19">
         <f>Confirmed!AX7/Testing!AX7</f>
-        <v>0.0422888254</v>
-      </c>
-      <c r="AY8" s="21">
+        <v>0.03945581653</v>
+      </c>
+      <c r="AY8" s="19">
         <f>Confirmed!AY7/Testing!AY7</f>
-        <v>0.04282511789</v>
-      </c>
-      <c r="AZ8" s="21"/>
+        <v>0.03995576498</v>
+      </c>
+      <c r="AZ8" s="19">
+        <f>Confirmed!AZ7/Testing!AZ7</f>
+        <v>0.04177810569</v>
+      </c>
+      <c r="BA8" s="19"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <f>Confirmed!B8/Testing!B8</f>
         <v>0.03363074811</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <f>Confirmed!C8/Testing!C8</f>
         <v>0.04166666667</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <f>Confirmed!D8/Testing!D8</f>
         <v>0.03962575674</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <f>Confirmed!E8/Testing!E8</f>
         <v>0.03671596124</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <f>Confirmed!F8/Testing!F8</f>
         <v>0.03528850739</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <f>Confirmed!G8/Testing!G8</f>
         <v>0.03361344538</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <f>Confirmed!H8/Testing!H8</f>
         <v>0.03429971417</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <f>Confirmed!I8/Testing!I8</f>
         <v>0.03267211202</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <f>Confirmed!J8/Testing!J8</f>
         <v>0.03086419753</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <f>Confirmed!K8/Testing!K8</f>
         <v>0.02995867769</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="19">
         <f>Confirmed!L8/Testing!L8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="19">
         <f>Confirmed!M8/Testing!M8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="19">
         <f>Confirmed!N8/Testing!N8</f>
         <v>0.02702702703</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
         <f>Confirmed!O8/Testing!O8</f>
         <v>0.02645051195</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="19">
         <f>Confirmed!P8/Testing!P8</f>
         <v>0.02520783052</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="19">
         <f>Confirmed!Q8/Testing!Q8</f>
         <v>0.0245302714</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="19">
         <f>Confirmed!R8/Testing!R8</f>
         <v>0.02347762289</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="19">
         <f>Confirmed!S8/Testing!S8</f>
         <v>0.02247191011</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="19">
         <f>Confirmed!T8/Testing!T8</f>
         <v>0.02205716858</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="19">
         <f>Confirmed!U8/Testing!U8</f>
         <v>0.02099112746</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="19">
         <f>Confirmed!V8/Testing!V8</f>
         <v>0.02019369462</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="19">
         <f>Confirmed!W8/Testing!W8</f>
         <v>0.01942501943</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="19">
         <f>Confirmed!X8/Testing!X8</f>
         <v>0.01813236627</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="19">
         <f>Confirmed!Y8/Testing!Y8</f>
         <v>0.01707358716</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="19">
         <f>Confirmed!Z8/Testing!Z8</f>
         <v>0.0169245648</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA9" s="19">
         <f>Confirmed!AA8/Testing!AA8</f>
         <v>0.01635550069</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AB9" s="19">
         <f>Confirmed!AB8/Testing!AB8</f>
         <v>0.01551976574</v>
       </c>
-      <c r="AC9" s="21">
+      <c r="AC9" s="19">
         <f>Confirmed!AC8/Testing!AC8</f>
         <v>0.01446111869</v>
       </c>
-      <c r="AD9" s="21">
+      <c r="AD9" s="19">
         <f>Confirmed!AD8/Testing!AD8</f>
         <v>0.01426735219</v>
       </c>
-      <c r="AE9" s="21">
+      <c r="AE9" s="19">
         <f>Confirmed!AE8/Testing!AE8</f>
         <v>0.01350364964</v>
       </c>
-      <c r="AF9" s="21">
+      <c r="AF9" s="19">
         <f>Confirmed!AF8/Testing!AF8</f>
         <v>0.01277584204</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AG9" s="19">
         <f>Confirmed!AG8/Testing!AG8</f>
         <v>0.01218173837</v>
       </c>
-      <c r="AH9" s="21">
+      <c r="AH9" s="19">
         <f>Confirmed!AH8/Testing!AH8</f>
         <v>0.01193115827</v>
       </c>
-      <c r="AI9" s="21">
+      <c r="AI9" s="19">
         <f>Confirmed!AI8/Testing!AI8</f>
         <v>0.01122702434</v>
       </c>
-      <c r="AJ9" s="21">
+      <c r="AJ9" s="19">
         <f>Confirmed!AJ8/Testing!AJ8</f>
         <v>0.01094752737</v>
       </c>
-      <c r="AK9" s="21">
+      <c r="AK9" s="19">
         <f>Confirmed!AK8/Testing!AK8</f>
         <v>0.01062488745</v>
       </c>
-      <c r="AL9" s="21">
+      <c r="AL9" s="19">
         <f>Confirmed!AL8/Testing!AL8</f>
         <v>0.01027339107</v>
       </c>
-      <c r="AM9" s="21">
+      <c r="AM9" s="19">
         <f>Confirmed!AM8/Testing!AM8</f>
         <v>0.009723439866</v>
       </c>
-      <c r="AN9" s="21">
+      <c r="AN9" s="19">
         <f>Confirmed!AN8/Testing!AN8</f>
         <v>0.009506426344</v>
       </c>
-      <c r="AO9" s="21">
+      <c r="AO9" s="19">
         <f>Confirmed!AO8/Testing!AO8</f>
         <v>0.009352623119</v>
       </c>
-      <c r="AP9" s="21">
+      <c r="AP9" s="19">
         <f>Confirmed!AP8/Testing!AP8</f>
         <v>0.009113853057</v>
       </c>
-      <c r="AQ9" s="21">
+      <c r="AQ9" s="19">
         <f>Confirmed!AQ8/Testing!AQ8</f>
-        <v>0.008983641727</v>
-      </c>
-      <c r="AR9" s="21">
+        <v>0.009198242724</v>
+      </c>
+      <c r="AR9" s="19">
         <f>Confirmed!AR8/Testing!AR8</f>
-        <v>0.0084643289</v>
-      </c>
-      <c r="AS9" s="21">
+        <v>0.008666753551</v>
+      </c>
+      <c r="AS9" s="19">
         <f>Confirmed!AS8/Testing!AS8</f>
-        <v>0.008098634111</v>
-      </c>
-      <c r="AT9" s="21">
+        <v>0.008292079208</v>
+      </c>
+      <c r="AT9" s="19">
         <f>Confirmed!AT8/Testing!AT8</f>
-        <v>0.007746600103</v>
-      </c>
-      <c r="AU9" s="21">
+        <v>0.007931844888</v>
+      </c>
+      <c r="AU9" s="19">
         <f>Confirmed!AU8/Testing!AU8</f>
-        <v>0.007426151053</v>
-      </c>
-      <c r="AV9" s="21">
+        <v>0.007603491974</v>
+      </c>
+      <c r="AV9" s="19">
         <f>Confirmed!AV8/Testing!AV8</f>
-        <v>0.007152317881</v>
-      </c>
-      <c r="AW9" s="21">
+        <v>0.007323026851</v>
+      </c>
+      <c r="AW9" s="19">
         <f>Confirmed!AW8/Testing!AW8</f>
-        <v>0.00699584305</v>
-      </c>
-      <c r="AX9" s="21">
+        <v>0.007163249416</v>
+      </c>
+      <c r="AX9" s="19">
         <f>Confirmed!AX8/Testing!AX8</f>
-        <v>0.007046702629</v>
-      </c>
-      <c r="AY9" s="21">
+        <v>0.007215366242</v>
+      </c>
+      <c r="AY9" s="19">
         <f>Confirmed!AY8/Testing!AY8</f>
-        <v>0.007015750592</v>
-      </c>
-      <c r="AZ9" s="21"/>
+        <v>0.007183634634</v>
+      </c>
+      <c r="AZ9" s="19">
+        <f>Confirmed!AZ8/Testing!AZ8</f>
+        <v>0.00698056392</v>
+      </c>
+      <c r="BA9" s="19"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <f>Confirmed!B9/Testing!B9</f>
         <v>0.0257296467</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <f>Confirmed!C9/Testing!C9</f>
         <v>0.02674438539</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <f>Confirmed!D9/Testing!D9</f>
         <v>0.02570812808</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <f>Confirmed!E9/Testing!E9</f>
         <v>0.02439372325</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <f>Confirmed!F9/Testing!F9</f>
         <v>0.02387940235</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <f>Confirmed!G9/Testing!G9</f>
         <v>0.02300841168</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <f>Confirmed!H9/Testing!H9</f>
         <v>0.02353209961</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <f>Confirmed!I9/Testing!I9</f>
         <v>0.02339244914</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <f>Confirmed!J9/Testing!J9</f>
         <v>0.02356765542</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <f>Confirmed!K9/Testing!K9</f>
         <v>0.02369942197</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="19">
         <f>Confirmed!L9/Testing!L9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="19">
         <f>Confirmed!M9/Testing!M9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="19">
         <f>Confirmed!N9/Testing!N9</f>
         <v>0.03041498411</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="19">
         <f>Confirmed!O9/Testing!O9</f>
         <v>0.0307875895</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="19">
         <f>Confirmed!P9/Testing!P9</f>
         <v>0.03091236495</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="19">
         <f>Confirmed!Q9/Testing!Q9</f>
         <v>0.03051540371</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="19">
         <f>Confirmed!R9/Testing!R9</f>
         <v>0.03030925014</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="19">
         <f>Confirmed!S9/Testing!S9</f>
         <v>0.03045386076</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="19">
         <f>Confirmed!T9/Testing!T9</f>
         <v>0.0307895731</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="19">
         <f>Confirmed!U9/Testing!U9</f>
         <v>0.03141836673</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="19">
         <f>Confirmed!V9/Testing!V9</f>
         <v>0.03106807309</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="19">
         <f>Confirmed!W9/Testing!W9</f>
         <v>0.03211781968</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="19">
         <f>Confirmed!X9/Testing!X9</f>
         <v>0.03063812519</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="Y10" s="19">
         <f>Confirmed!Y9/Testing!Y9</f>
         <v>0.02947217578</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="19">
         <f>Confirmed!Z9/Testing!Z9</f>
         <v>0.02881493506</v>
       </c>
-      <c r="AA10" s="21">
+      <c r="AA10" s="19">
         <f>Confirmed!AA9/Testing!AA9</f>
         <v>0.02896361203</v>
       </c>
-      <c r="AB10" s="21">
+      <c r="AB10" s="19">
         <f>Confirmed!AB9/Testing!AB9</f>
         <v>0.03104775948</v>
       </c>
-      <c r="AC10" s="21">
+      <c r="AC10" s="19">
         <f>Confirmed!AC9/Testing!AC9</f>
         <v>0.03079917564</v>
       </c>
-      <c r="AD10" s="21">
+      <c r="AD10" s="19">
         <f>Confirmed!AD9/Testing!AD9</f>
         <v>0.03023874587</v>
       </c>
-      <c r="AE10" s="21">
+      <c r="AE10" s="19">
         <f>Confirmed!AE9/Testing!AE9</f>
         <v>0.028825211</v>
       </c>
-      <c r="AF10" s="21">
+      <c r="AF10" s="19">
         <f>Confirmed!AF9/Testing!AF9</f>
         <v>0.02803950874</v>
       </c>
-      <c r="AG10" s="21">
+      <c r="AG10" s="19">
         <f>Confirmed!AG9/Testing!AG9</f>
         <v>0.02769249662</v>
       </c>
-      <c r="AH10" s="21">
+      <c r="AH10" s="19">
         <f>Confirmed!AH9/Testing!AH9</f>
         <v>0.0271459798</v>
       </c>
-      <c r="AI10" s="21">
+      <c r="AI10" s="19">
         <f>Confirmed!AI9/Testing!AI9</f>
         <v>0.02657253245</v>
       </c>
-      <c r="AJ10" s="21">
+      <c r="AJ10" s="19">
         <f>Confirmed!AJ9/Testing!AJ9</f>
         <v>0.02587458746</v>
       </c>
-      <c r="AK10" s="21">
+      <c r="AK10" s="19">
         <f>Confirmed!AK9/Testing!AK9</f>
         <v>0.02534068868</v>
       </c>
-      <c r="AL10" s="21">
+      <c r="AL10" s="19">
         <f>Confirmed!AL9/Testing!AL9</f>
         <v>0.02496377758</v>
       </c>
-      <c r="AM10" s="21">
+      <c r="AM10" s="19">
         <f>Confirmed!AM9/Testing!AM9</f>
         <v>0.02399108138</v>
       </c>
-      <c r="AN10" s="21">
+      <c r="AN10" s="19">
         <f>Confirmed!AN9/Testing!AN9</f>
         <v>0.02353091358</v>
       </c>
-      <c r="AO10" s="21">
+      <c r="AO10" s="19">
         <f>Confirmed!AO9/Testing!AO9</f>
         <v>0.023342804</v>
       </c>
-      <c r="AP10" s="21">
+      <c r="AP10" s="19">
         <f>Confirmed!AP9/Testing!AP9</f>
         <v>0.02331921236</v>
       </c>
-      <c r="AQ10" s="21">
+      <c r="AQ10" s="19">
         <f>Confirmed!AQ9/Testing!AQ9</f>
-        <v>0.02258106866</v>
-      </c>
-      <c r="AR10" s="21">
+        <v>0.02346566879</v>
+      </c>
+      <c r="AR10" s="19">
         <f>Confirmed!AR9/Testing!AR9</f>
-        <v>0.02230887013</v>
-      </c>
-      <c r="AS10" s="21">
+        <v>0.02318266758</v>
+      </c>
+      <c r="AS10" s="19">
         <f>Confirmed!AS9/Testing!AS9</f>
-        <v>0.02211476685</v>
-      </c>
-      <c r="AT10" s="21">
+        <v>0.0229812355</v>
+      </c>
+      <c r="AT10" s="19">
         <f>Confirmed!AT9/Testing!AT9</f>
-        <v>0.0217192391</v>
-      </c>
-      <c r="AU10" s="21">
+        <v>0.02256993678</v>
+      </c>
+      <c r="AU10" s="19">
         <f>Confirmed!AU9/Testing!AU9</f>
-        <v>0.02111288933</v>
-      </c>
-      <c r="AV10" s="21">
+        <v>0.0219400646</v>
+      </c>
+      <c r="AV10" s="19">
         <f>Confirmed!AV9/Testing!AV9</f>
-        <v>0.02066072831</v>
-      </c>
-      <c r="AW10" s="21">
+        <v>0.02146993593</v>
+      </c>
+      <c r="AW10" s="19">
         <f>Confirmed!AW9/Testing!AW9</f>
-        <v>0.02003942647</v>
-      </c>
-      <c r="AX10" s="21">
+        <v>0.02082442928</v>
+      </c>
+      <c r="AX10" s="19">
         <f>Confirmed!AX9/Testing!AX9</f>
-        <v>0.01963210202</v>
-      </c>
-      <c r="AY10" s="21">
+        <v>0.02040124329</v>
+      </c>
+      <c r="AY10" s="19">
         <f>Confirmed!AY9/Testing!AY9</f>
-        <v>0.01926276386</v>
-      </c>
-      <c r="AZ10" s="21"/>
+        <v>0.02001728889</v>
+      </c>
+      <c r="AZ10" s="19">
+        <f>Confirmed!AZ9/Testing!AZ9</f>
+        <v>0.01940489915</v>
+      </c>
+      <c r="BA10" s="19"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <f>Confirmed!B10/Testing!B10</f>
         <v>0.03934031953</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <f>Confirmed!C10/Testing!C10</f>
         <v>0.04156441718</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <f>Confirmed!D10/Testing!D10</f>
         <v>0.04269972452</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <f>Confirmed!E10/Testing!E10</f>
         <v>0.04135818228</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <f>Confirmed!F10/Testing!F10</f>
         <v>0.03879207448</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <f>Confirmed!G10/Testing!G10</f>
         <v>0.03608589772</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <f>Confirmed!H10/Testing!H10</f>
         <v>0.03607931316</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <f>Confirmed!I10/Testing!I10</f>
         <v>0.03640965732</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="19">
         <f>Confirmed!J10/Testing!J10</f>
         <v>0.03935648064</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <f>Confirmed!K10/Testing!K10</f>
         <v>0.03913455737</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="19">
         <f>Confirmed!L10/Testing!L10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="19">
         <f>Confirmed!M10/Testing!M10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="19">
         <f>Confirmed!N10/Testing!N10</f>
         <v>0.03805058037</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="19">
         <f>Confirmed!O10/Testing!O10</f>
         <v>0.03666002278</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="19">
         <f>Confirmed!P10/Testing!P10</f>
         <v>0.03631847476</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="19">
         <f>Confirmed!Q10/Testing!Q10</f>
         <v>0.03566529492</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="19">
         <f>Confirmed!R10/Testing!R10</f>
         <v>0.03593510866</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="19">
         <f>Confirmed!S10/Testing!S10</f>
         <v>0.0361558746</v>
       </c>
-      <c r="T11" s="21">
+      <c r="T11" s="19">
         <f>Confirmed!T10/Testing!T10</f>
         <v>0.03622535211</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="19">
         <f>Confirmed!U10/Testing!U10</f>
         <v>0.03558468288</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="19">
         <f>Confirmed!V10/Testing!V10</f>
         <v>0.03481175864</v>
       </c>
-      <c r="W11" s="21">
+      <c r="W11" s="19">
         <f>Confirmed!W10/Testing!W10</f>
         <v>0.03486336672</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="19">
         <f>Confirmed!X10/Testing!X10</f>
         <v>0.03794308537</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="Y11" s="19">
         <f>Confirmed!Y10/Testing!Y10</f>
         <v>0.03709718779</v>
       </c>
-      <c r="Z11" s="21">
+      <c r="Z11" s="19">
         <f>Confirmed!Z10/Testing!Z10</f>
         <v>0.03792616502</v>
       </c>
-      <c r="AA11" s="21">
+      <c r="AA11" s="19">
         <f>Confirmed!AA10/Testing!AA10</f>
         <v>0.03900818786</v>
       </c>
-      <c r="AB11" s="21">
+      <c r="AB11" s="19">
         <f>Confirmed!AB10/Testing!AB10</f>
         <v>0.03954408854</v>
       </c>
-      <c r="AC11" s="21">
+      <c r="AC11" s="19">
         <f>Confirmed!AC10/Testing!AC10</f>
         <v>0.04367423596</v>
       </c>
-      <c r="AD11" s="21">
+      <c r="AD11" s="19">
         <f>Confirmed!AD10/Testing!AD10</f>
         <v>0.04545747008</v>
       </c>
-      <c r="AE11" s="21">
+      <c r="AE11" s="19">
         <f>Confirmed!AE10/Testing!AE10</f>
         <v>0.04610091045</v>
       </c>
-      <c r="AF11" s="21">
+      <c r="AF11" s="19">
         <f>Confirmed!AF10/Testing!AF10</f>
         <v>0.04674554493</v>
       </c>
-      <c r="AG11" s="21">
+      <c r="AG11" s="19">
         <f>Confirmed!AG10/Testing!AG10</f>
         <v>0.04771584759</v>
       </c>
-      <c r="AH11" s="21">
+      <c r="AH11" s="19">
         <f>Confirmed!AH10/Testing!AH10</f>
         <v>0.04942252293</v>
       </c>
-      <c r="AI11" s="21">
+      <c r="AI11" s="19">
         <f>Confirmed!AI10/Testing!AI10</f>
         <v>0.05309756522</v>
       </c>
-      <c r="AJ11" s="21">
+      <c r="AJ11" s="19">
         <f>Confirmed!AJ10/Testing!AJ10</f>
         <v>0.0553258841</v>
       </c>
-      <c r="AK11" s="21">
+      <c r="AK11" s="19">
         <f>Confirmed!AK10/Testing!AK10</f>
         <v>0.05650341455</v>
       </c>
-      <c r="AL11" s="21">
+      <c r="AL11" s="19">
         <f>Confirmed!AL10/Testing!AL10</f>
         <v>0.05738088154</v>
       </c>
-      <c r="AM11" s="21">
+      <c r="AM11" s="19">
         <f>Confirmed!AM10/Testing!AM10</f>
         <v>0.06072696804</v>
       </c>
-      <c r="AN11" s="21">
+      <c r="AN11" s="19">
         <f>Confirmed!AN10/Testing!AN10</f>
         <v>0.06399908627</v>
       </c>
-      <c r="AO11" s="21">
+      <c r="AO11" s="19">
         <f>Confirmed!AO10/Testing!AO10</f>
         <v>0.0660046088</v>
       </c>
-      <c r="AP11" s="21">
+      <c r="AP11" s="19">
         <f>Confirmed!AP10/Testing!AP10</f>
         <v>0.06598111817</v>
       </c>
-      <c r="AQ11" s="21">
+      <c r="AQ11" s="19">
         <f>Confirmed!AQ10/Testing!AQ10</f>
-        <v>0.06702241912</v>
-      </c>
-      <c r="AR11" s="21">
+        <v>0.06373980626</v>
+      </c>
+      <c r="AR11" s="19">
         <f>Confirmed!AR10/Testing!AR10</f>
-        <v>0.0716390805</v>
-      </c>
-      <c r="AS11" s="21">
+        <v>0.06812913782</v>
+      </c>
+      <c r="AS11" s="19">
         <f>Confirmed!AS10/Testing!AS10</f>
-        <v>0.07274900157</v>
-      </c>
-      <c r="AT11" s="21">
+        <v>0.06918528536</v>
+      </c>
+      <c r="AT11" s="19">
         <f>Confirmed!AT10/Testing!AT10</f>
-        <v>0.07422727795</v>
-      </c>
-      <c r="AU11" s="21">
+        <v>0.07059144926</v>
+      </c>
+      <c r="AU11" s="19">
         <f>Confirmed!AU10/Testing!AU10</f>
-        <v>0.07739439335</v>
-      </c>
-      <c r="AV11" s="21">
+        <v>0.07360316359</v>
+      </c>
+      <c r="AV11" s="19">
         <f>Confirmed!AV10/Testing!AV10</f>
-        <v>0.08095850628</v>
-      </c>
-      <c r="AW11" s="21">
+        <v>0.07699292497</v>
+      </c>
+      <c r="AW11" s="19">
         <f>Confirmed!AW10/Testing!AW10</f>
-        <v>0.08518386925</v>
-      </c>
-      <c r="AX11" s="21">
+        <v>0.08101128341</v>
+      </c>
+      <c r="AX11" s="19">
         <f>Confirmed!AX10/Testing!AX10</f>
-        <v>0.08801167812</v>
-      </c>
-      <c r="AY11" s="21">
+        <v>0.08369967608</v>
+      </c>
+      <c r="AY11" s="19">
         <f>Confirmed!AY10/Testing!AY10</f>
-        <v>0.09068918196</v>
-      </c>
-      <c r="AZ11" s="21"/>
+        <v>0.08624675109</v>
+      </c>
+      <c r="AZ11" s="19">
+        <f>Confirmed!AZ10/Testing!AZ10</f>
+        <v>0.08914157218</v>
+      </c>
+      <c r="BA11" s="19"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <f>Confirmed!B11/Testing!B11</f>
         <v>0.04339522546</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <f>Confirmed!C11/Testing!C11</f>
         <v>0.05048782798</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <f>Confirmed!D11/Testing!D11</f>
         <v>0.04968098681</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <f>Confirmed!E11/Testing!E11</f>
         <v>0.04871511903</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <f>Confirmed!F11/Testing!F11</f>
         <v>0.04666420936</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <f>Confirmed!G11/Testing!G11</f>
         <v>0.04409050516</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <f>Confirmed!H11/Testing!H11</f>
         <v>0.04185077642</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <f>Confirmed!I11/Testing!I11</f>
         <v>0.04040161125</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="19">
         <f>Confirmed!J11/Testing!J11</f>
         <v>0.0389019872</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="19">
         <f>Confirmed!K11/Testing!K11</f>
         <v>0.03747870528</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="19">
         <f>Confirmed!L11/Testing!L11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <f>Confirmed!M11/Testing!M11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="19">
         <f>Confirmed!N11/Testing!N11</f>
         <v>0.03712495253</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="19">
         <f>Confirmed!O11/Testing!O11</f>
         <v>0.03494966369</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="19">
         <f>Confirmed!P11/Testing!P11</f>
         <v>0.0332103321</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="19">
         <f>Confirmed!Q11/Testing!Q11</f>
         <v>0.03279812813</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="19">
         <f>Confirmed!R11/Testing!R11</f>
         <v>0.03270321361</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="19">
         <f>Confirmed!S11/Testing!S11</f>
         <v>0.03220903301</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12" s="19">
         <f>Confirmed!T11/Testing!T11</f>
         <v>0.03162729202</v>
       </c>
-      <c r="U12" s="21">
+      <c r="U12" s="19">
         <f>Confirmed!U11/Testing!U11</f>
         <v>0.03110888108</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="19">
         <f>Confirmed!V11/Testing!V11</f>
         <v>0.03086380431</v>
       </c>
-      <c r="W12" s="21">
+      <c r="W12" s="19">
         <f>Confirmed!W11/Testing!W11</f>
         <v>0.03056965256</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="19">
         <f>Confirmed!X11/Testing!X11</f>
         <v>0.03086021807</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="19">
         <f>Confirmed!Y11/Testing!Y11</f>
         <v>0.03030143061</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="19">
         <f>Confirmed!Z11/Testing!Z11</f>
         <v>0.02915379248</v>
       </c>
-      <c r="AA12" s="21">
+      <c r="AA12" s="19">
         <f>Confirmed!AA11/Testing!AA11</f>
         <v>0.02859937029</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AB12" s="19">
         <f>Confirmed!AB11/Testing!AB11</f>
         <v>0.0277035897</v>
       </c>
-      <c r="AC12" s="21">
+      <c r="AC12" s="19">
         <f>Confirmed!AC11/Testing!AC11</f>
         <v>0.02640347547</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="AD12" s="19">
         <f>Confirmed!AD11/Testing!AD11</f>
         <v>0.025451511</v>
       </c>
-      <c r="AE12" s="21">
+      <c r="AE12" s="19">
         <f>Confirmed!AE11/Testing!AE11</f>
         <v>0.02452234091</v>
       </c>
-      <c r="AF12" s="21">
+      <c r="AF12" s="19">
         <f>Confirmed!AF11/Testing!AF11</f>
         <v>0.02389629975</v>
       </c>
-      <c r="AG12" s="21">
+      <c r="AG12" s="19">
         <f>Confirmed!AG11/Testing!AG11</f>
         <v>0.02295399023</v>
       </c>
-      <c r="AH12" s="21">
+      <c r="AH12" s="19">
         <f>Confirmed!AH11/Testing!AH11</f>
         <v>0.0224761283</v>
       </c>
-      <c r="AI12" s="21">
+      <c r="AI12" s="19">
         <f>Confirmed!AI11/Testing!AI11</f>
         <v>0.021626271</v>
       </c>
-      <c r="AJ12" s="21">
+      <c r="AJ12" s="19">
         <f>Confirmed!AJ11/Testing!AJ11</f>
         <v>0.02109655394</v>
       </c>
-      <c r="AK12" s="21">
+      <c r="AK12" s="19">
         <f>Confirmed!AK11/Testing!AK11</f>
         <v>0.02097658751</v>
       </c>
-      <c r="AL12" s="21">
+      <c r="AL12" s="19">
         <f>Confirmed!AL11/Testing!AL11</f>
         <v>0.02097388109</v>
       </c>
-      <c r="AM12" s="21">
+      <c r="AM12" s="19">
         <f>Confirmed!AM11/Testing!AM11</f>
         <v>0.02000887093</v>
       </c>
-      <c r="AN12" s="21">
+      <c r="AN12" s="19">
         <f>Confirmed!AN11/Testing!AN11</f>
         <v>0.019527622</v>
       </c>
-      <c r="AO12" s="21">
+      <c r="AO12" s="19">
         <f>Confirmed!AO11/Testing!AO11</f>
         <v>0.01916756085</v>
       </c>
-      <c r="AP12" s="21">
+      <c r="AP12" s="19">
         <f>Confirmed!AP11/Testing!AP11</f>
         <v>0.01864054101</v>
       </c>
-      <c r="AQ12" s="21">
+      <c r="AQ12" s="19">
         <f>Confirmed!AQ11/Testing!AQ11</f>
-        <v>0.01869604419</v>
-      </c>
-      <c r="AR12" s="21">
+        <v>0.01878032022</v>
+      </c>
+      <c r="AR12" s="19">
         <f>Confirmed!AR11/Testing!AR11</f>
-        <v>0.01821079661</v>
-      </c>
-      <c r="AS12" s="21">
+        <v>0.01829286371</v>
+      </c>
+      <c r="AS12" s="19">
         <f>Confirmed!AS11/Testing!AS11</f>
-        <v>0.01784463026</v>
-      </c>
-      <c r="AT12" s="21">
+        <v>0.01792501525</v>
+      </c>
+      <c r="AT12" s="19">
         <f>Confirmed!AT11/Testing!AT11</f>
-        <v>0.01731494212</v>
-      </c>
-      <c r="AU12" s="21">
+        <v>0.01739300894</v>
+      </c>
+      <c r="AU12" s="19">
         <f>Confirmed!AU11/Testing!AU11</f>
-        <v>0.01676020408</v>
-      </c>
-      <c r="AV12" s="21">
+        <v>0.01683579336</v>
+      </c>
+      <c r="AV12" s="19">
         <f>Confirmed!AV11/Testing!AV11</f>
-        <v>0.01649440632</v>
-      </c>
-      <c r="AW12" s="21">
+        <v>0.01656876779</v>
+      </c>
+      <c r="AW12" s="19">
         <f>Confirmed!AW11/Testing!AW11</f>
-        <v>0.01625353636</v>
-      </c>
-      <c r="AX12" s="21">
+        <v>0.01632685192</v>
+      </c>
+      <c r="AX12" s="19">
         <f>Confirmed!AX11/Testing!AX11</f>
-        <v>0.01603972744</v>
-      </c>
-      <c r="AY12" s="21">
+        <v>0.01611199155</v>
+      </c>
+      <c r="AY12" s="19">
         <f>Confirmed!AY11/Testing!AY11</f>
-        <v>0.01587312988</v>
-      </c>
-      <c r="AZ12" s="21"/>
+        <v>0.01594459074</v>
+      </c>
+      <c r="AZ12" s="19">
+        <f>Confirmed!AZ11/Testing!AZ11</f>
+        <v>0.0156513797</v>
+      </c>
+      <c r="BA12" s="19"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -12343,16 +12457,16 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1263875.0</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>4027160.0</v>
       </c>
     </row>
@@ -12360,7 +12474,7 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>4592187.0</v>
       </c>
     </row>
@@ -12368,7 +12482,7 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>5982584.0</v>
       </c>
     </row>
@@ -12376,7 +12490,7 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>6712276.0</v>
       </c>
     </row>
@@ -12384,7 +12498,7 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>2887465.0</v>
       </c>
     </row>
@@ -12392,7 +12506,7 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -12400,7 +12514,7 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>6844272.0</v>
       </c>
     </row>
@@ -12408,7 +12522,7 @@
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -13415,7 +13529,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="52" width="9.88"/>
+    <col customWidth="1" min="44" max="53" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -13563,18 +13677,21 @@
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="5">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -13745,2249 +13862,2286 @@
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1">
-        <f t="shared" ref="AQ2:AY2" si="2">ROUND($AP2/$AP$12*AQ$12,0)</f>
-        <v>19576</v>
+        <f t="shared" ref="AQ2:AV2" si="2">ROUND($AW2/$AW$12*AQ$12,0)</f>
+        <v>16688</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" si="2"/>
-        <v>20621</v>
+        <v>17579</v>
       </c>
       <c r="AS2" s="1">
         <f t="shared" si="2"/>
-        <v>21715</v>
+        <v>18512</v>
       </c>
       <c r="AT2" s="1">
         <f t="shared" si="2"/>
-        <v>22871</v>
+        <v>19498</v>
       </c>
       <c r="AU2" s="1">
         <f t="shared" si="2"/>
-        <v>23859</v>
+        <v>20339</v>
       </c>
       <c r="AV2" s="1">
         <f t="shared" si="2"/>
-        <v>24772</v>
-      </c>
-      <c r="AW2" s="1">
-        <f t="shared" si="2"/>
-        <v>25888</v>
+        <v>21118</v>
+      </c>
+      <c r="AW2" s="6">
+        <v>22069.0</v>
       </c>
       <c r="AX2" s="1">
-        <f t="shared" si="2"/>
-        <v>27005</v>
+        <f t="shared" ref="AX2:AZ2" si="3">ROUND($AW2/$AW$12*AX$12,0)</f>
+        <v>23021</v>
       </c>
       <c r="AY2" s="1">
-        <f t="shared" si="2"/>
-        <v>28247</v>
-      </c>
-      <c r="AZ2" s="1"/>
+        <f t="shared" si="3"/>
+        <v>24080</v>
+      </c>
+      <c r="AZ2" s="1">
+        <f t="shared" si="3"/>
+        <v>25108</v>
+      </c>
+      <c r="BA2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:AO3" si="3">ROUND($AP3/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B3:AO3" si="4">ROUND($AP3/$AP$12*B$12,0)</f>
         <v>230</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>332</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>358</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>387</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>407</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>436</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>459</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>469</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>469</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>515</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>556</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>590</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>606</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>647</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>676</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>703</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>731</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>768</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>814</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>872</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>926</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>981</v>
       </c>
       <c r="AA3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1025</v>
       </c>
       <c r="AB3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="AC3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1159</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1231</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1300</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1362</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1441</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1498</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1592</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1676</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1757</v>
       </c>
       <c r="AL3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1863</v>
       </c>
       <c r="AM3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1984</v>
       </c>
       <c r="AN3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2080</v>
       </c>
       <c r="AO3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2165</v>
       </c>
       <c r="AP3" s="6">
         <v>2256.0</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" ref="AQ3:AY3" si="4">ROUND($AP3/$AP$12*AQ$12,0)</f>
-        <v>2359</v>
+        <f t="shared" ref="AQ3:AV3" si="5">ROUND($AW3/$AW$12*AQ$12,0)</f>
+        <v>2785</v>
       </c>
       <c r="AR3" s="1">
-        <f t="shared" si="4"/>
-        <v>2485</v>
+        <f t="shared" si="5"/>
+        <v>2934</v>
       </c>
       <c r="AS3" s="1">
-        <f t="shared" si="4"/>
-        <v>2617</v>
+        <f t="shared" si="5"/>
+        <v>3089</v>
       </c>
       <c r="AT3" s="1">
-        <f t="shared" si="4"/>
-        <v>2756</v>
+        <f t="shared" si="5"/>
+        <v>3254</v>
       </c>
       <c r="AU3" s="1">
-        <f t="shared" si="4"/>
-        <v>2875</v>
+        <f t="shared" si="5"/>
+        <v>3394</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" si="4"/>
-        <v>2985</v>
-      </c>
-      <c r="AW3" s="1">
-        <f t="shared" si="4"/>
-        <v>3120</v>
+        <f t="shared" si="5"/>
+        <v>3524</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>3683.0</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" si="4"/>
-        <v>3254</v>
+        <f t="shared" ref="AX3:AZ3" si="6">ROUND($AW3/$AW$12*AX$12,0)</f>
+        <v>3842</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" si="4"/>
-        <v>3404</v>
-      </c>
-      <c r="AZ3" s="1"/>
+        <f t="shared" si="6"/>
+        <v>4019</v>
+      </c>
+      <c r="AZ3" s="1">
+        <f t="shared" si="6"/>
+        <v>4190</v>
+      </c>
+      <c r="BA3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:AO4" si="5">ROUND($AP4/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B4:AO4" si="7">ROUND($AP4/$AP$12*B$12,0)</f>
         <v>421</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>472</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>525</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>567</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>606</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>654</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>708</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>743</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>796</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>839</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>857</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>857</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>941</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1016</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1078</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1108</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1182</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1235</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1284</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1336</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1403</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1488</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1594</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1693</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1793</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1873</v>
       </c>
       <c r="AB4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1974</v>
       </c>
       <c r="AC4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2119</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2249</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2376</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2489</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2634</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2738</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2909</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3063</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3210</v>
       </c>
       <c r="AL4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3404</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3627</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3801</v>
       </c>
       <c r="AO4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3956</v>
       </c>
       <c r="AP4" s="6">
         <v>4123.0</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AY4" si="6">ROUND($AP4/$AP$12*AQ$12,0)</f>
-        <v>4312</v>
+        <f t="shared" ref="AQ4:AV4" si="8">ROUND($AW4/$AW$12*AQ$12,0)</f>
+        <v>4395</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" si="6"/>
-        <v>4542</v>
+        <f t="shared" si="8"/>
+        <v>4630</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" si="6"/>
-        <v>4783</v>
+        <f t="shared" si="8"/>
+        <v>4875</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" si="6"/>
-        <v>5037</v>
+        <f t="shared" si="8"/>
+        <v>5135</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" si="6"/>
-        <v>5255</v>
+        <f t="shared" si="8"/>
+        <v>5356</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="6"/>
-        <v>5456</v>
-      </c>
-      <c r="AW4" s="1">
-        <f t="shared" si="6"/>
-        <v>5702</v>
+        <f t="shared" si="8"/>
+        <v>5561</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>5812.0</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" si="6"/>
-        <v>5948</v>
+        <f t="shared" ref="AX4:AZ4" si="9">ROUND($AW4/$AW$12*AX$12,0)</f>
+        <v>6063</v>
       </c>
       <c r="AY4" s="1">
-        <f t="shared" si="6"/>
-        <v>6221</v>
-      </c>
-      <c r="AZ4" s="1"/>
+        <f t="shared" si="9"/>
+        <v>6342</v>
+      </c>
+      <c r="AZ4" s="1">
+        <f t="shared" si="9"/>
+        <v>6612</v>
+      </c>
+      <c r="BA4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:AO5" si="7">ROUND($AP5/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B5:AO5" si="10">ROUND($AP5/$AP$12*B$12,0)</f>
         <v>786</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>881</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>981</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1058</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1132</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1220</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1321</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1387</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1486</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1567</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1601</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1601</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1757</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1898</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2012</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2068</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2206</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2305</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2397</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2494</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2619</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2778</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2976</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3160</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3348</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3497</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3686</v>
       </c>
       <c r="AC5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3955</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4198</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4436</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4646</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4917</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5111</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5431</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5718</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5993</v>
       </c>
       <c r="AL5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6355</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6770</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7095</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7385</v>
       </c>
       <c r="AP5" s="6">
         <v>7697.0</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" ref="AQ5:AY5" si="8">ROUND($AP5/$AP$12*AQ$12,0)</f>
-        <v>8049</v>
+        <f t="shared" ref="AQ5:AV5" si="11">ROUND($AW5/$AW$12*AQ$12,0)</f>
+        <v>8631</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="8"/>
-        <v>8479</v>
+        <f t="shared" si="11"/>
+        <v>9092</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="8"/>
-        <v>8929</v>
+        <f t="shared" si="11"/>
+        <v>9574</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="8"/>
-        <v>9404</v>
+        <f t="shared" si="11"/>
+        <v>10084</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="8"/>
-        <v>9810</v>
+        <f t="shared" si="11"/>
+        <v>10519</v>
       </c>
       <c r="AV5" s="1">
-        <f t="shared" si="8"/>
-        <v>10185</v>
-      </c>
-      <c r="AW5" s="1">
-        <f t="shared" si="8"/>
-        <v>10644</v>
+        <f t="shared" si="11"/>
+        <v>10922</v>
+      </c>
+      <c r="AW5" s="6">
+        <v>11414.0</v>
       </c>
       <c r="AX5" s="1">
-        <f t="shared" si="8"/>
-        <v>11103</v>
+        <f t="shared" ref="AX5:AZ5" si="12">ROUND($AW5/$AW$12*AX$12,0)</f>
+        <v>11906</v>
       </c>
       <c r="AY5" s="1">
-        <f t="shared" si="8"/>
-        <v>11614</v>
-      </c>
-      <c r="AZ5" s="1"/>
+        <f t="shared" si="12"/>
+        <v>12454</v>
+      </c>
+      <c r="AZ5" s="1">
+        <f t="shared" si="12"/>
+        <v>12986</v>
+      </c>
+      <c r="BA5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:AO6" si="9">ROUND($AP6/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B6:AO6" si="13">ROUND($AP6/$AP$12*B$12,0)</f>
         <v>649</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>727</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>809</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>873</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>934</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1007</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1091</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1145</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1227</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1293</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1321</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1321</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1450</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1566</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1661</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1707</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1821</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1902</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1979</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2058</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2162</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2293</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2456</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2608</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2763</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2887</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3042</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3265</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3465</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3661</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3835</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4058</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4218</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4483</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4719</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4946</v>
       </c>
       <c r="AL6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5246</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5588</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5856</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6096</v>
       </c>
       <c r="AP6" s="6">
         <v>6353.0</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" ref="AQ6:AY6" si="10">ROUND($AP6/$AP$12*AQ$12,0)</f>
-        <v>6643</v>
+        <f t="shared" ref="AQ6:AV6" si="14">ROUND($AW6/$AW$12*AQ$12,0)</f>
+        <v>6230</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="10"/>
-        <v>6998</v>
+        <f t="shared" si="14"/>
+        <v>6563</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" si="10"/>
-        <v>7369</v>
+        <f t="shared" si="14"/>
+        <v>6911</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="10"/>
-        <v>7762</v>
+        <f t="shared" si="14"/>
+        <v>7279</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="10"/>
-        <v>8097</v>
+        <f t="shared" si="14"/>
+        <v>7593</v>
       </c>
       <c r="AV6" s="1">
-        <f t="shared" si="10"/>
-        <v>8407</v>
-      </c>
-      <c r="AW6" s="1">
-        <f t="shared" si="10"/>
-        <v>8786</v>
+        <f t="shared" si="14"/>
+        <v>7884</v>
+      </c>
+      <c r="AW6" s="6">
+        <v>8239.0</v>
       </c>
       <c r="AX6" s="1">
-        <f t="shared" si="10"/>
-        <v>9165</v>
+        <f t="shared" ref="AX6:AZ6" si="15">ROUND($AW6/$AW$12*AX$12,0)</f>
+        <v>8594</v>
       </c>
       <c r="AY6" s="1">
-        <f t="shared" si="10"/>
-        <v>9586</v>
-      </c>
-      <c r="AZ6" s="1"/>
+        <f t="shared" si="15"/>
+        <v>8990</v>
+      </c>
+      <c r="AZ6" s="1">
+        <f t="shared" si="15"/>
+        <v>9374</v>
+      </c>
+      <c r="BA6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:AO7" si="11">ROUND($AP7/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B7:AO7" si="16">ROUND($AP7/$AP$12*B$12,0)</f>
         <v>2627</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2943</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3277</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3536</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3781</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4078</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4416</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4636</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4966</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5236</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5349</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5349</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5871</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6341</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6723</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6909</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7373</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7702</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8011</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8333</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8751</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9282</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9945</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>10560</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11186</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11686</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>12315</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>13217</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>14029</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>14822</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>15525</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>16430</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>17077</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>18148</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>19105</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>20025</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>21237</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>22624</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>23710</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>24678</v>
       </c>
       <c r="AP7" s="6">
         <v>25720.0</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" ref="AQ7:AY7" si="12">ROUND($AP7/$AP$12*AQ$12,0)</f>
-        <v>26896</v>
+        <f t="shared" ref="AQ7:AV7" si="17">ROUND($AW7/$AW$12*AQ$12,0)</f>
+        <v>28827</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="12"/>
-        <v>28332</v>
+        <f t="shared" si="17"/>
+        <v>30366</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="12"/>
-        <v>29835</v>
+        <f t="shared" si="17"/>
+        <v>31977</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="12"/>
-        <v>31424</v>
+        <f t="shared" si="17"/>
+        <v>33680</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="12"/>
-        <v>32780</v>
+        <f t="shared" si="17"/>
+        <v>35134</v>
       </c>
       <c r="AV7" s="1">
-        <f t="shared" si="12"/>
-        <v>34035</v>
-      </c>
-      <c r="AW7" s="1">
-        <f t="shared" si="12"/>
-        <v>35568</v>
+        <f t="shared" si="17"/>
+        <v>36479</v>
+      </c>
+      <c r="AW7" s="6">
+        <v>38122.0</v>
       </c>
       <c r="AX7" s="1">
-        <f t="shared" si="12"/>
-        <v>37102</v>
+        <f t="shared" ref="AX7:AZ7" si="18">ROUND($AW7/$AW$12*AX$12,0)</f>
+        <v>39766</v>
       </c>
       <c r="AY7" s="1">
-        <f t="shared" si="12"/>
-        <v>38809</v>
-      </c>
-      <c r="AZ7" s="1"/>
+        <f t="shared" si="18"/>
+        <v>41596</v>
+      </c>
+      <c r="AZ7" s="1">
+        <f t="shared" si="18"/>
+        <v>43372</v>
+      </c>
+      <c r="BA7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ref="B8:AO8" si="13">ROUND($AP8/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B8:AO8" si="19">ROUND($AP8/$AP$12*B$12,0)</f>
         <v>1457</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1632</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1817</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1961</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2097</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2261</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2449</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2571</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2754</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2904</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2966</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2966</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3256</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3516</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3729</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3832</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4089</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4272</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4443</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4621</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4853</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5148</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5515</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5857</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6204</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6481</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6830</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>7330</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>7780</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8220</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8610</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9112</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9471</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>10065</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>10596</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>11106</v>
       </c>
       <c r="AL8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>11778</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>12547</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>13149</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>13686</v>
       </c>
       <c r="AP8" s="6">
         <v>14264.0</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" ref="AQ8:AY8" si="14">ROUND($AP8/$AP$12*AQ$12,0)</f>
-        <v>14916</v>
+        <f t="shared" ref="AQ8:AV8" si="20">ROUND($AW8/$AW$12*AQ$12,0)</f>
+        <v>14568</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="14"/>
-        <v>15713</v>
+        <f t="shared" si="20"/>
+        <v>15346</v>
       </c>
       <c r="AS8" s="1">
-        <f t="shared" si="14"/>
-        <v>16546</v>
+        <f t="shared" si="20"/>
+        <v>16160</v>
       </c>
       <c r="AT8" s="1">
-        <f t="shared" si="14"/>
-        <v>17427</v>
+        <f t="shared" si="20"/>
+        <v>17020</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" si="14"/>
-        <v>18179</v>
+        <f t="shared" si="20"/>
+        <v>17755</v>
       </c>
       <c r="AV8" s="1">
-        <f t="shared" si="14"/>
-        <v>18875</v>
-      </c>
-      <c r="AW8" s="1">
-        <f t="shared" si="14"/>
-        <v>19726</v>
+        <f t="shared" si="20"/>
+        <v>18435</v>
+      </c>
+      <c r="AW8" s="6">
+        <v>19265.0</v>
       </c>
       <c r="AX8" s="1">
-        <f t="shared" si="14"/>
-        <v>20577</v>
+        <f t="shared" ref="AX8:AZ8" si="21">ROUND($AW8/$AW$12*AX$12,0)</f>
+        <v>20096</v>
       </c>
       <c r="AY8" s="1">
-        <f t="shared" si="14"/>
-        <v>21523</v>
-      </c>
-      <c r="AZ8" s="1"/>
+        <f t="shared" si="21"/>
+        <v>21020</v>
+      </c>
+      <c r="AZ8" s="1">
+        <f t="shared" si="21"/>
+        <v>21918</v>
+      </c>
+      <c r="BA8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:AO9" si="15">ROUND($AP9/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B9:AO9" si="22">ROUND($AP9/$AP$12*B$12,0)</f>
         <v>5208</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>5833</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6496</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7010</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7496</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8084</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8754</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>9191</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>9844</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>10380</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>10603</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>10603</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11639</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>12570</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>13328</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>13698</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>14616</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>15269</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>15882</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>16519</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>17349</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>18401</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>19714</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>20935</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>22176</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>23167</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>24414</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>26202</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>27812</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>29384</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>30778</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>32572</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>33854</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>35977</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>37875</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>39699</v>
       </c>
       <c r="AL9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>42101</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>44850</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>47002</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>48923</v>
       </c>
       <c r="AP9" s="6">
         <v>50988.0</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" ref="AQ9:AY9" si="16">ROUND($AP9/$AP$12*AQ$12,0)</f>
-        <v>53319</v>
+        <f t="shared" ref="AQ9:AV9" si="23">ROUND($AW9/$AW$12*AQ$12,0)</f>
+        <v>51309</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="16"/>
-        <v>56166</v>
+        <f t="shared" si="23"/>
+        <v>54049</v>
       </c>
       <c r="AS9" s="1">
-        <f t="shared" si="16"/>
-        <v>59146</v>
+        <f t="shared" si="23"/>
+        <v>56916</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" si="16"/>
-        <v>62295</v>
+        <f t="shared" si="23"/>
+        <v>59947</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" si="16"/>
-        <v>64984</v>
+        <f t="shared" si="23"/>
+        <v>62534</v>
       </c>
       <c r="AV9" s="1">
-        <f t="shared" si="16"/>
-        <v>67471</v>
-      </c>
-      <c r="AW9" s="1">
-        <f t="shared" si="16"/>
-        <v>70511</v>
+        <f t="shared" si="23"/>
+        <v>64928</v>
+      </c>
+      <c r="AW9" s="6">
+        <v>67853.0</v>
       </c>
       <c r="AX9" s="1">
-        <f t="shared" si="16"/>
-        <v>73553</v>
+        <f t="shared" ref="AX9:AZ9" si="24">ROUND($AW9/$AW$12*AX$12,0)</f>
+        <v>70780</v>
       </c>
       <c r="AY9" s="1">
-        <f t="shared" si="16"/>
-        <v>76936</v>
-      </c>
-      <c r="AZ9" s="1"/>
+        <f t="shared" si="24"/>
+        <v>74036</v>
+      </c>
+      <c r="AZ9" s="1">
+        <f t="shared" si="24"/>
+        <v>77197</v>
+      </c>
+      <c r="BA9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:AO10" si="17">ROUND($AP10/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B10:AO10" si="25">ROUND($AP10/$AP$12*B$12,0)</f>
         <v>5821</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>6520</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>7260</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>7834</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>8378</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>9034</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>9784</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>10272</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>11002</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>11601</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>11850</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>11850</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>13009</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>14048</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>14896</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>15309</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>16335</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>17065</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>17750</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>18463</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>19390</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>20566</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>22033</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>23398</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>24785</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>25892</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>27286</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>29285</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>31084</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>32841</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>34399</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36403</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>37837</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>40209</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>42331</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>44369</v>
       </c>
       <c r="AL10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>47054</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>50126</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>52532</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>54678</v>
       </c>
       <c r="AP10" s="6">
         <v>56986.0</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" ref="AQ10:AY10" si="18">ROUND($AP10/$AP$12*AQ$12,0)</f>
-        <v>59592</v>
+        <f t="shared" ref="AQ10:AV10" si="26">ROUND($AW10/$AW$12*AQ$12,0)</f>
+        <v>62661</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="18"/>
-        <v>62773</v>
+        <f t="shared" si="26"/>
+        <v>66007</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="18"/>
-        <v>66104</v>
+        <f t="shared" si="26"/>
+        <v>69509</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="18"/>
-        <v>69624</v>
+        <f t="shared" si="26"/>
+        <v>73210</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="18"/>
-        <v>72628</v>
+        <f t="shared" si="26"/>
+        <v>76369</v>
       </c>
       <c r="AV10" s="1">
-        <f t="shared" si="18"/>
-        <v>75409</v>
-      </c>
-      <c r="AW10" s="1">
-        <f t="shared" si="18"/>
-        <v>78806</v>
+        <f t="shared" si="26"/>
+        <v>79293</v>
+      </c>
+      <c r="AW10" s="6">
+        <v>82865.0</v>
       </c>
       <c r="AX10" s="1">
-        <f t="shared" si="18"/>
-        <v>82205</v>
+        <f t="shared" ref="AX10:AZ10" si="27">ROUND($AW10/$AW$12*AX$12,0)</f>
+        <v>86440</v>
       </c>
       <c r="AY10" s="1">
-        <f t="shared" si="18"/>
-        <v>85986</v>
-      </c>
-      <c r="AZ10" s="1"/>
+        <f t="shared" si="27"/>
+        <v>90415</v>
+      </c>
+      <c r="AZ10" s="1">
+        <f t="shared" si="27"/>
+        <v>94277</v>
+      </c>
+      <c r="BA10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ref="B11:AO11" si="19">ROUND($AP11/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B11:AO11" si="28">ROUND($AP11/$AP$12*B$12,0)</f>
         <v>9425</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>10557</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>11755</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>12686</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>13565</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>14629</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>15842</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>16633</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>17814</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>18784</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>19188</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>19188</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>21064</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>22747</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>24119</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>24788</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>26450</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>27632</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>28741</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>29895</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>31396</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>33301</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>35677</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>37886</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>40132</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>41924</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>44182</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>47418</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>50331</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>53176</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>55699</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>58944</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>61265</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>65106</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>68542</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>71842</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>76190</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>81164</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>85059</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>88535</v>
       </c>
       <c r="AP11" s="6">
         <v>92272.0</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" ref="AQ11:AY11" si="20">ROUND($AP11/$AP$12*AQ$12,0)</f>
-        <v>96491</v>
+        <f t="shared" ref="AQ11:AV11" si="29">ROUND($AW11/$AW$12*AQ$12,0)</f>
+        <v>96058</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="20"/>
-        <v>101643</v>
+        <f t="shared" si="29"/>
+        <v>101187</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="20"/>
-        <v>107035</v>
+        <f t="shared" si="29"/>
+        <v>106555</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="20"/>
-        <v>112735</v>
+        <f t="shared" si="29"/>
+        <v>112229</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="20"/>
-        <v>117600</v>
+        <f t="shared" si="29"/>
+        <v>117072</v>
       </c>
       <c r="AV11" s="1">
-        <f t="shared" si="20"/>
-        <v>122102</v>
-      </c>
-      <c r="AW11" s="1">
-        <f t="shared" si="20"/>
-        <v>127603</v>
+        <f t="shared" si="29"/>
+        <v>121554</v>
+      </c>
+      <c r="AW11" s="6">
+        <v>127030.0</v>
       </c>
       <c r="AX11" s="1">
-        <f t="shared" si="20"/>
-        <v>133107</v>
+        <f t="shared" ref="AX11:AZ11" si="30">ROUND($AW11/$AW$12*AX$12,0)</f>
+        <v>132510</v>
       </c>
       <c r="AY11" s="1">
-        <f t="shared" si="20"/>
-        <v>139229</v>
-      </c>
-      <c r="AZ11" s="1"/>
+        <f t="shared" si="30"/>
+        <v>138605</v>
+      </c>
+      <c r="AZ11" s="1">
+        <f t="shared" si="30"/>
+        <v>144524</v>
+      </c>
+      <c r="BA11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="8">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="8">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="8">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="8">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="8">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="8">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="8">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="8">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="8">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="8">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="8">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="8">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AI12" s="8">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AJ12" s="8">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK12" s="8">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AL12" s="8">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AM12" s="8">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AN12" s="8">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AO12" s="8">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="10">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AQ12" s="8">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AR12" s="8">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AS12" s="8">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AT12" s="8">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="9">
+      <c r="AU12" s="8">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="9">
+      <c r="AV12" s="8">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AW12" s="11">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="9">
+      <c r="AX12" s="8">
         <v>403018.0</v>
       </c>
-      <c r="AY12" s="12">
+      <c r="AY12" s="8">
         <v>421555.0</v>
+      </c>
+      <c r="AZ12" s="8">
+        <v>439559.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
-        <f t="shared" ref="B13:AZ13" si="21">sum(B2:B11)</f>
+      <c r="B13" s="13">
+        <f t="shared" ref="B13:BA13" si="31">sum(B2:B11)</f>
         <v>28536</v>
       </c>
-      <c r="C13" s="14">
-        <f t="shared" si="21"/>
+      <c r="C13" s="13">
+        <f t="shared" si="31"/>
         <v>31965</v>
       </c>
-      <c r="D13" s="14">
-        <f t="shared" si="21"/>
+      <c r="D13" s="13">
+        <f t="shared" si="31"/>
         <v>35592</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" si="21"/>
+      <c r="E13" s="13">
+        <f t="shared" si="31"/>
         <v>38409</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="21"/>
+      <c r="F13" s="13">
+        <f t="shared" si="31"/>
         <v>41073</v>
       </c>
-      <c r="G13" s="14">
-        <f t="shared" si="21"/>
+      <c r="G13" s="13">
+        <f t="shared" si="31"/>
         <v>44293</v>
       </c>
-      <c r="H13" s="14">
-        <f t="shared" si="21"/>
+      <c r="H13" s="13">
+        <f t="shared" si="31"/>
         <v>47966</v>
       </c>
-      <c r="I13" s="14">
-        <f t="shared" si="21"/>
+      <c r="I13" s="13">
+        <f t="shared" si="31"/>
         <v>50359</v>
       </c>
-      <c r="J13" s="14">
-        <f t="shared" si="21"/>
+      <c r="J13" s="13">
+        <f t="shared" si="31"/>
         <v>53939</v>
       </c>
-      <c r="K13" s="14">
-        <f t="shared" si="21"/>
+      <c r="K13" s="13">
+        <f t="shared" si="31"/>
         <v>56874</v>
       </c>
-      <c r="L13" s="14">
-        <f t="shared" si="21"/>
+      <c r="L13" s="13">
+        <f t="shared" si="31"/>
         <v>58097</v>
       </c>
-      <c r="M13" s="14">
-        <f t="shared" si="21"/>
+      <c r="M13" s="13">
+        <f t="shared" si="31"/>
         <v>58097</v>
       </c>
-      <c r="N13" s="14">
-        <f t="shared" si="21"/>
+      <c r="N13" s="13">
+        <f t="shared" si="31"/>
         <v>63775</v>
       </c>
-      <c r="O13" s="14">
-        <f t="shared" si="21"/>
+      <c r="O13" s="13">
+        <f t="shared" si="31"/>
         <v>68873</v>
       </c>
-      <c r="P13" s="14">
-        <f t="shared" si="21"/>
+      <c r="P13" s="13">
+        <f t="shared" si="31"/>
         <v>73029</v>
       </c>
-      <c r="Q13" s="14">
-        <f t="shared" si="21"/>
+      <c r="Q13" s="13">
+        <f t="shared" si="31"/>
         <v>75054</v>
       </c>
-      <c r="R13" s="14">
-        <f t="shared" si="21"/>
+      <c r="R13" s="13">
+        <f t="shared" si="31"/>
         <v>80085</v>
       </c>
-      <c r="S13" s="14">
-        <f t="shared" si="21"/>
+      <c r="S13" s="13">
+        <f t="shared" si="31"/>
         <v>83664</v>
       </c>
-      <c r="T13" s="14">
-        <f t="shared" si="21"/>
+      <c r="T13" s="13">
+        <f t="shared" si="31"/>
         <v>87021</v>
       </c>
-      <c r="U13" s="14">
-        <f t="shared" si="21"/>
+      <c r="U13" s="13">
+        <f t="shared" si="31"/>
         <v>90515</v>
       </c>
-      <c r="V13" s="14">
-        <f t="shared" si="21"/>
+      <c r="V13" s="13">
+        <f t="shared" si="31"/>
         <v>95061</v>
       </c>
-      <c r="W13" s="14">
-        <f t="shared" si="21"/>
+      <c r="W13" s="13">
+        <f t="shared" si="31"/>
         <v>100827</v>
       </c>
-      <c r="X13" s="14">
-        <f t="shared" si="21"/>
+      <c r="X13" s="13">
+        <f t="shared" si="31"/>
         <v>108020</v>
       </c>
-      <c r="Y13" s="14">
-        <f t="shared" si="21"/>
+      <c r="Y13" s="13">
+        <f t="shared" si="31"/>
         <v>114709</v>
       </c>
-      <c r="Z13" s="14">
-        <f t="shared" si="21"/>
+      <c r="Z13" s="13">
+        <f t="shared" si="31"/>
         <v>121510</v>
       </c>
-      <c r="AA13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AA13" s="13">
+        <f t="shared" si="31"/>
         <v>126938</v>
       </c>
-      <c r="AB13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AB13" s="13">
+        <f t="shared" si="31"/>
         <v>133773</v>
       </c>
-      <c r="AC13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AC13" s="13">
+        <f t="shared" si="31"/>
         <v>143570</v>
       </c>
-      <c r="AD13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AD13" s="13">
+        <f t="shared" si="31"/>
         <v>152390</v>
       </c>
-      <c r="AE13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE13" s="13">
+        <f t="shared" si="31"/>
         <v>161004</v>
       </c>
-      <c r="AF13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AF13" s="13">
+        <f t="shared" si="31"/>
         <v>168643</v>
       </c>
-      <c r="AG13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AG13" s="13">
+        <f t="shared" si="31"/>
         <v>178470</v>
       </c>
-      <c r="AH13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AH13" s="13">
+        <f t="shared" si="31"/>
         <v>185498</v>
       </c>
-      <c r="AI13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AI13" s="13">
+        <f t="shared" si="31"/>
         <v>197129</v>
       </c>
-      <c r="AJ13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AJ13" s="13">
+        <f t="shared" si="31"/>
         <v>207531</v>
       </c>
-      <c r="AK13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AK13" s="13">
+        <f t="shared" si="31"/>
         <v>217522</v>
       </c>
-      <c r="AL13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AL13" s="13">
+        <f t="shared" si="31"/>
         <v>230685</v>
       </c>
-      <c r="AM13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AM13" s="13">
+        <f t="shared" si="31"/>
         <v>245746</v>
       </c>
-      <c r="AN13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AN13" s="13">
+        <f t="shared" si="31"/>
         <v>257541</v>
       </c>
-      <c r="AO13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AO13" s="13">
+        <f t="shared" si="31"/>
         <v>268064</v>
       </c>
-      <c r="AP13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AP13" s="13">
+        <f t="shared" si="31"/>
         <v>279379</v>
       </c>
-      <c r="AQ13" s="14">
-        <f t="shared" si="21"/>
-        <v>292153</v>
-      </c>
-      <c r="AR13" s="14">
-        <f t="shared" si="21"/>
-        <v>307752</v>
-      </c>
-      <c r="AS13" s="14">
-        <f t="shared" si="21"/>
-        <v>324079</v>
-      </c>
-      <c r="AT13" s="14">
-        <f t="shared" si="21"/>
-        <v>341335</v>
-      </c>
-      <c r="AU13" s="14">
-        <f t="shared" si="21"/>
-        <v>356067</v>
-      </c>
-      <c r="AV13" s="14">
-        <f t="shared" si="21"/>
-        <v>369697</v>
-      </c>
-      <c r="AW13" s="14">
-        <f t="shared" si="21"/>
-        <v>386354</v>
-      </c>
-      <c r="AX13" s="14">
-        <f t="shared" si="21"/>
-        <v>403019</v>
-      </c>
-      <c r="AY13" s="14">
-        <f t="shared" si="21"/>
-        <v>421555</v>
-      </c>
-      <c r="AZ13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AQ13" s="13">
+        <f t="shared" si="31"/>
+        <v>292152</v>
+      </c>
+      <c r="AR13" s="13">
+        <f t="shared" si="31"/>
+        <v>307753</v>
+      </c>
+      <c r="AS13" s="13">
+        <f t="shared" si="31"/>
+        <v>324078</v>
+      </c>
+      <c r="AT13" s="13">
+        <f t="shared" si="31"/>
+        <v>341336</v>
+      </c>
+      <c r="AU13" s="13">
+        <f t="shared" si="31"/>
+        <v>356065</v>
+      </c>
+      <c r="AV13" s="13">
+        <f t="shared" si="31"/>
+        <v>369698</v>
+      </c>
+      <c r="AW13" s="13">
+        <f t="shared" si="31"/>
+        <v>386352</v>
+      </c>
+      <c r="AX13" s="13">
+        <f t="shared" si="31"/>
+        <v>403018</v>
+      </c>
+      <c r="AY13" s="13">
+        <f t="shared" si="31"/>
+        <v>421557</v>
+      </c>
+      <c r="AZ13" s="13">
+        <f t="shared" si="31"/>
+        <v>439558</v>
+      </c>
+      <c r="BA13" s="13">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -16071,6 +16225,7 @@
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -19249,354 +19404,354 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="8">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="8">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="8">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="8">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="8">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="8">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="8">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="8">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="8">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="8">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="8">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="8">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AI12" s="8">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AJ12" s="8">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK12" s="8">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AL12" s="8">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AM12" s="8">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AN12" s="8">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AO12" s="8">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="10">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AQ12" s="8">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AR12" s="8">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AS12" s="8">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AT12" s="8">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="9">
+      <c r="AU12" s="8">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="9">
+      <c r="AV12" s="8">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="9">
+      <c r="AW12" s="8">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="9">
+      <c r="AX12" s="8">
         <v>403018.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f t="shared" ref="B13:AV13" si="21">sum(B2:B11)</f>
         <v>1916</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <f t="shared" si="21"/>
         <v>2146</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f t="shared" si="21"/>
         <v>2390</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" si="21"/>
         <v>2579</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="21"/>
         <v>2757</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <f t="shared" si="21"/>
         <v>2973</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f t="shared" si="21"/>
         <v>3219</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <f t="shared" si="21"/>
         <v>3379</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="21"/>
         <v>3620</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f t="shared" si="21"/>
         <v>3817</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <f t="shared" si="21"/>
         <v>3899</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <f t="shared" si="21"/>
         <v>3899</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <f t="shared" si="21"/>
         <v>4279</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <f t="shared" si="21"/>
         <v>4621</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="13">
         <f t="shared" si="21"/>
         <v>4902</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="13">
         <f t="shared" si="21"/>
         <v>5038</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="13">
         <f t="shared" si="21"/>
         <v>5375</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="13">
         <f t="shared" si="21"/>
         <v>5615</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="13">
         <f t="shared" si="21"/>
         <v>5842</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="13">
         <f t="shared" si="21"/>
         <v>6077</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="13">
         <f t="shared" si="21"/>
         <v>6382</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="13">
         <f t="shared" si="21"/>
         <v>6768</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="13">
         <f t="shared" si="21"/>
         <v>7251</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="13">
         <f t="shared" si="21"/>
         <v>7699</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="13">
         <f t="shared" si="21"/>
         <v>8156</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="13">
         <f t="shared" si="21"/>
         <v>8521</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="13">
         <f t="shared" si="21"/>
         <v>8979</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="13">
         <f t="shared" si="21"/>
         <v>9639</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="13">
         <f t="shared" si="21"/>
         <v>10230</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="13">
         <f t="shared" si="21"/>
         <v>10808</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="13">
         <f t="shared" si="21"/>
         <v>11321</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="13">
         <f t="shared" si="21"/>
         <v>11981</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AH13" s="13">
         <f t="shared" si="21"/>
         <v>12451</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AI13" s="13">
         <f t="shared" si="21"/>
         <v>13234</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AJ13" s="13">
         <f t="shared" si="21"/>
         <v>13931</v>
       </c>
-      <c r="AK13" s="14">
+      <c r="AK13" s="13">
         <f t="shared" si="21"/>
         <v>14603</v>
       </c>
-      <c r="AL13" s="14">
+      <c r="AL13" s="13">
         <f t="shared" si="21"/>
         <v>15486</v>
       </c>
-      <c r="AM13" s="14">
+      <c r="AM13" s="13">
         <f t="shared" si="21"/>
         <v>16496</v>
       </c>
-      <c r="AN13" s="14">
+      <c r="AN13" s="13">
         <f t="shared" si="21"/>
         <v>17290</v>
       </c>
-      <c r="AO13" s="14">
+      <c r="AO13" s="13">
         <f t="shared" si="21"/>
         <v>17996</v>
       </c>
-      <c r="AP13" s="14">
+      <c r="AP13" s="13">
         <f t="shared" si="21"/>
         <v>18754</v>
       </c>
-      <c r="AQ13" s="14">
+      <c r="AQ13" s="13">
         <f t="shared" si="21"/>
         <v>19610</v>
       </c>
-      <c r="AR13" s="14">
+      <c r="AR13" s="13">
         <f t="shared" si="21"/>
         <v>20659</v>
       </c>
-      <c r="AS13" s="14">
+      <c r="AS13" s="13">
         <f t="shared" si="21"/>
         <v>21754</v>
       </c>
-      <c r="AT13" s="14">
+      <c r="AT13" s="13">
         <f t="shared" si="21"/>
         <v>22911</v>
       </c>
-      <c r="AU13" s="14">
+      <c r="AU13" s="13">
         <f t="shared" si="21"/>
         <v>23902</v>
       </c>
-      <c r="AV13" s="14">
+      <c r="AV13" s="13">
         <f t="shared" si="21"/>
         <v>24818</v>
       </c>
-      <c r="AW13" s="14">
+      <c r="AW13" s="13">
         <f>sum(AW2:AW12)</f>
         <v>412287</v>
       </c>
-      <c r="AX13" s="14">
+      <c r="AX13" s="13">
         <f>sum(AX2:AX11)</f>
         <v>27054</v>
       </c>
@@ -19685,7 +19840,7 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>1263875.0</v>
       </c>
     </row>
@@ -19693,7 +19848,7 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>4027160.0</v>
       </c>
     </row>
@@ -19701,7 +19856,7 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>4592187.0</v>
       </c>
     </row>
@@ -19709,7 +19864,7 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>5982584.0</v>
       </c>
     </row>
@@ -19717,7 +19872,7 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>6712276.0</v>
       </c>
     </row>
@@ -19725,7 +19880,7 @@
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>2887465.0</v>
       </c>
     </row>
@@ -19733,7 +19888,7 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -19741,7 +19896,7 @@
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>6844272.0</v>
       </c>
     </row>
@@ -19749,7 +19904,7 @@
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -20755,7 +20910,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="52" width="8.88"/>
+    <col customWidth="1" min="46" max="53" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -20909,12 +21064,15 @@
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -21068,6 +21226,7 @@
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -21223,7 +21382,10 @@
       <c r="AY3" s="4">
         <v>0.0</v>
       </c>
-      <c r="AZ3" s="4"/>
+      <c r="AZ3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -21379,7 +21541,10 @@
       <c r="AY4" s="4">
         <v>1.0</v>
       </c>
-      <c r="AZ4" s="4"/>
+      <c r="AZ4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BA4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -21535,7 +21700,10 @@
       <c r="AY5" s="4">
         <v>0.0</v>
       </c>
-      <c r="AZ5" s="4"/>
+      <c r="AZ5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -21691,7 +21859,10 @@
       <c r="AY6" s="4">
         <v>3.0</v>
       </c>
-      <c r="AZ6" s="4"/>
+      <c r="AZ6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BA6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -21847,7 +22018,10 @@
       <c r="AY7" s="4">
         <v>31.0</v>
       </c>
-      <c r="AZ7" s="4"/>
+      <c r="AZ7" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="BA7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -22003,7 +22177,10 @@
       <c r="AY8" s="4">
         <v>6.0</v>
       </c>
-      <c r="AZ8" s="4"/>
+      <c r="AZ8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BA8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -22159,7 +22336,10 @@
       <c r="AY9" s="4">
         <v>45.0</v>
       </c>
-      <c r="AZ9" s="4"/>
+      <c r="AZ9" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BA9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -22315,7 +22495,10 @@
       <c r="AY10" s="4">
         <v>137.0</v>
       </c>
-      <c r="AZ10" s="4"/>
+      <c r="AZ10" s="4">
+        <v>149.0</v>
+      </c>
+      <c r="BA10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -22471,7 +22654,10 @@
       <c r="AY11" s="4">
         <v>24.0</v>
       </c>
-      <c r="AZ11" s="4"/>
+      <c r="AZ11" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="BA11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -23488,7 +23674,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="52" width="8.88"/>
+    <col customWidth="1" min="46" max="53" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -23642,12 +23828,15 @@
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="8">
+      <c r="AY1" s="7">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -23801,6 +23990,7 @@
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -23956,7 +24146,10 @@
       <c r="AY3" s="4">
         <v>20.0</v>
       </c>
-      <c r="AZ3" s="4"/>
+      <c r="AZ3" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="BA3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -24112,7 +24305,10 @@
       <c r="AY4" s="4">
         <v>28.0</v>
       </c>
-      <c r="AZ4" s="4"/>
+      <c r="AZ4" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="BA4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -24268,7 +24464,10 @@
       <c r="AY5" s="4">
         <v>44.0</v>
       </c>
-      <c r="AZ5" s="4"/>
+      <c r="AZ5" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="BA5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -24424,7 +24623,10 @@
       <c r="AY6" s="4">
         <v>36.0</v>
       </c>
-      <c r="AZ6" s="4"/>
+      <c r="AZ6" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="BA6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -24580,7 +24782,10 @@
       <c r="AY7" s="4">
         <v>643.0</v>
       </c>
-      <c r="AZ7" s="4"/>
+      <c r="AZ7" s="4">
+        <v>746.0</v>
+      </c>
+      <c r="BA7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -24736,7 +24941,10 @@
       <c r="AY8" s="4">
         <v>108.0</v>
       </c>
-      <c r="AZ8" s="4"/>
+      <c r="AZ8" s="4">
+        <v>108.0</v>
+      </c>
+      <c r="BA8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -24892,7 +25100,10 @@
       <c r="AY9" s="4">
         <v>795.0</v>
       </c>
-      <c r="AZ9" s="4"/>
+      <c r="AZ9" s="4">
+        <v>806.0</v>
+      </c>
+      <c r="BA9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -25048,7 +25259,10 @@
       <c r="AY10" s="4">
         <v>2857.0</v>
       </c>
-      <c r="AZ10" s="4"/>
+      <c r="AZ10" s="4">
+        <v>3097.0</v>
+      </c>
+      <c r="BA10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -25204,7 +25418,10 @@
       <c r="AY11" s="4">
         <v>1552.0</v>
       </c>
-      <c r="AZ11" s="4"/>
+      <c r="AZ11" s="4">
+        <v>1583.0</v>
+      </c>
+      <c r="BA11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -26220,7 +26437,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="52" width="7.63"/>
+    <col customWidth="1" min="37" max="53" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -26374,12 +26591,15 @@
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -26574,216 +26794,221 @@
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
-      <c r="AZ2" s="1">
-        <f>Confirmed!AZ2-Deaths!AX2-Recoveries!AX2</f>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1">
+        <f>Confirmed!BA2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16">
-        <f t="shared" ref="B3:AZ3" si="1">sum(B4:B12)</f>
+      <c r="B3" s="15">
+        <f t="shared" ref="B3:BA3" si="1">sum(B4:B12)</f>
         <v>848</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f t="shared" si="1"/>
         <v>1178</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <f t="shared" si="1"/>
         <v>1227</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f t="shared" si="1"/>
         <v>1258</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f t="shared" si="1"/>
         <v>1285</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f t="shared" si="1"/>
         <v>1363</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f t="shared" si="1"/>
         <v>1402</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <f t="shared" si="1"/>
         <v>1513</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f t="shared" si="1"/>
         <v>1567</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <f t="shared" si="1"/>
         <v>1597</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <f t="shared" si="1"/>
         <v>1596</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <f t="shared" si="1"/>
         <v>1816</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <f t="shared" si="1"/>
         <v>1905</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="15">
         <f t="shared" si="1"/>
         <v>1559</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="15">
         <f t="shared" si="1"/>
         <v>1583</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <f t="shared" si="1"/>
         <v>1723</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="15">
         <f t="shared" si="1"/>
         <v>1818</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="15">
         <f t="shared" si="1"/>
         <v>1960</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="15">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="15">
         <f t="shared" si="1"/>
         <v>1638</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="15">
         <f t="shared" si="1"/>
         <v>1808</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="15">
         <f t="shared" si="1"/>
         <v>2047</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="15">
         <f t="shared" si="1"/>
         <v>2159</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="15">
         <f t="shared" si="1"/>
         <v>2144</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AA3" s="15">
         <f t="shared" si="1"/>
         <v>2309</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="15">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="15">
         <f t="shared" si="1"/>
         <v>2404</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="15">
         <f t="shared" si="1"/>
         <v>2668</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AE3" s="15">
         <f t="shared" si="1"/>
         <v>2802</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3" s="15">
         <f t="shared" si="1"/>
         <v>2986</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AG3" s="15">
         <f t="shared" si="1"/>
         <v>3230</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AH3" s="15">
         <f t="shared" si="1"/>
         <v>3429</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AI3" s="15">
         <f t="shared" si="1"/>
         <v>3773</v>
       </c>
-      <c r="AJ3" s="16">
+      <c r="AJ3" s="15">
         <f t="shared" si="1"/>
         <v>4070</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AK3" s="15">
         <f t="shared" si="1"/>
         <v>4361</v>
       </c>
-      <c r="AL3" s="16">
+      <c r="AL3" s="15">
         <f t="shared" si="1"/>
         <v>3664</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AM3" s="15">
         <f t="shared" si="1"/>
         <v>4103</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="15">
         <f t="shared" si="1"/>
         <v>4336</v>
       </c>
-      <c r="AO3" s="16">
+      <c r="AO3" s="15">
         <f t="shared" si="1"/>
         <v>4678</v>
       </c>
-      <c r="AP3" s="16">
+      <c r="AP3" s="15">
         <f t="shared" si="1"/>
         <v>4502</v>
       </c>
-      <c r="AQ3" s="16">
+      <c r="AQ3" s="15">
         <f t="shared" si="1"/>
         <v>4918</v>
       </c>
-      <c r="AR3" s="16">
+      <c r="AR3" s="15">
         <f t="shared" si="1"/>
         <v>5564</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AS3" s="15">
         <f t="shared" si="1"/>
         <v>6081</v>
       </c>
-      <c r="AT3" s="16">
+      <c r="AT3" s="15">
         <f t="shared" si="1"/>
         <v>5648</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="AU3" s="15">
         <f t="shared" si="1"/>
         <v>6273</v>
       </c>
-      <c r="AV3" s="16">
+      <c r="AV3" s="15">
         <f t="shared" si="1"/>
         <v>6971</v>
       </c>
-      <c r="AW3" s="16">
+      <c r="AW3" s="15">
         <f t="shared" si="1"/>
         <v>7110</v>
       </c>
-      <c r="AX3" s="16">
+      <c r="AX3" s="15">
         <f t="shared" si="1"/>
         <v>6825</v>
       </c>
-      <c r="AY3" s="16">
+      <c r="AY3" s="15">
         <f t="shared" si="1"/>
         <v>7194</v>
       </c>
-      <c r="AZ3" s="16">
+      <c r="AZ3" s="15">
+        <f t="shared" si="1"/>
+        <v>7616</v>
+      </c>
+      <c r="BA3" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26992,7 +27217,11 @@
         <f>Confirmed!AY3-Deaths!AY3-Recoveries!AY3</f>
         <v>14</v>
       </c>
-      <c r="AZ4" s="1"/>
+      <c r="AZ4" s="1">
+        <f>Confirmed!AZ3-Deaths!AZ3-Recoveries!AZ3</f>
+        <v>11</v>
+      </c>
+      <c r="BA4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -27198,7 +27427,11 @@
         <f>Confirmed!AY4-Deaths!AY4-Recoveries!AY4</f>
         <v>34</v>
       </c>
-      <c r="AZ5" s="1"/>
+      <c r="AZ5" s="1">
+        <f>Confirmed!AZ4-Deaths!AZ4-Recoveries!AZ4</f>
+        <v>35</v>
+      </c>
+      <c r="BA5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -27404,7 +27637,11 @@
         <f>Confirmed!AY5-Deaths!AY5-Recoveries!AY5</f>
         <v>23</v>
       </c>
-      <c r="AZ6" s="1"/>
+      <c r="AZ6" s="1">
+        <f>Confirmed!AZ5-Deaths!AZ5-Recoveries!AZ5</f>
+        <v>19</v>
+      </c>
+      <c r="BA6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -27610,7 +27847,11 @@
         <f>Confirmed!AY6-Deaths!AY6-Recoveries!AY6</f>
         <v>18</v>
       </c>
-      <c r="AZ7" s="1"/>
+      <c r="AZ7" s="1">
+        <f>Confirmed!AZ6-Deaths!AZ6-Recoveries!AZ6</f>
+        <v>19</v>
+      </c>
+      <c r="BA7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -27816,7 +28057,11 @@
         <f>Confirmed!AY7-Deaths!AY7-Recoveries!AY7</f>
         <v>988</v>
       </c>
-      <c r="AZ8" s="1"/>
+      <c r="AZ8" s="1">
+        <f>Confirmed!AZ7-Deaths!AZ7-Recoveries!AZ7</f>
+        <v>1034</v>
+      </c>
+      <c r="BA8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -28022,7 +28267,11 @@
         <f>Confirmed!AY8-Deaths!AY8-Recoveries!AY8</f>
         <v>37</v>
       </c>
-      <c r="AZ9" s="1"/>
+      <c r="AZ9" s="1">
+        <f>Confirmed!AZ8-Deaths!AZ8-Recoveries!AZ8</f>
+        <v>39</v>
+      </c>
+      <c r="BA9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -28228,7 +28477,11 @@
         <f>Confirmed!AY9-Deaths!AY9-Recoveries!AY9</f>
         <v>642</v>
       </c>
-      <c r="AZ10" s="1"/>
+      <c r="AZ10" s="1">
+        <f>Confirmed!AZ9-Deaths!AZ9-Recoveries!AZ9</f>
+        <v>647</v>
+      </c>
+      <c r="BA10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -28434,7 +28687,11 @@
         <f>Confirmed!AY10-Deaths!AY10-Recoveries!AY10</f>
         <v>4804</v>
       </c>
-      <c r="AZ11" s="1"/>
+      <c r="AZ11" s="1">
+        <f>Confirmed!AZ10-Deaths!AZ10-Recoveries!AZ10</f>
+        <v>5158</v>
+      </c>
+      <c r="BA11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -28640,12 +28897,16 @@
         <f>Confirmed!AY11-Deaths!AY11-Recoveries!AY11</f>
         <v>634</v>
       </c>
-      <c r="AZ12" s="1"/>
+      <c r="AZ12" s="1">
+        <f>Confirmed!AZ11-Deaths!AZ11-Recoveries!AZ11</f>
+        <v>654</v>
+      </c>
+      <c r="BA12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="19"/>
+      <c r="AK15" s="16"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -30106,7 +30367,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1">
-        <f>Confirmed!AZ2-Deaths!AX2-Recoveries!AX2</f>
+        <f>Confirmed!BA2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1"/>
@@ -30143,258 +30404,258 @@
       <c r="CD2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f t="shared" ref="B3:BE3" si="2">sum(B4:B12)</f>
         <v>7194</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f t="shared" si="2"/>
         <v>7372</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f t="shared" si="2"/>
         <v>7757</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <f t="shared" si="2"/>
         <v>8170</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f t="shared" si="2"/>
         <v>8520</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f t="shared" si="2"/>
         <v>8790</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f t="shared" si="2"/>
         <v>9411</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f t="shared" si="2"/>
         <v>9835</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <f t="shared" si="2"/>
         <v>10360</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f t="shared" si="2"/>
         <v>10501</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <f t="shared" si="2"/>
         <v>10856</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <f t="shared" si="2"/>
         <v>10863</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <f t="shared" si="2"/>
         <v>10976</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <f t="shared" si="2"/>
         <v>10491</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="15">
         <f t="shared" si="2"/>
         <v>9906</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="15">
         <f t="shared" si="2"/>
         <v>8958</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <f t="shared" si="2"/>
         <v>8174</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="15">
         <f t="shared" si="2"/>
         <v>7586</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="15">
         <f t="shared" si="2"/>
         <v>7295</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="15">
         <f t="shared" si="2"/>
         <v>6651</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="15">
         <f t="shared" si="2"/>
         <v>6303</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="15">
         <f t="shared" si="2"/>
         <v>5686</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="15">
         <f t="shared" si="2"/>
         <v>5153</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="15">
         <f t="shared" si="2"/>
         <v>4614</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="15">
         <f t="shared" si="2"/>
         <v>4127</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AA3" s="15">
         <f t="shared" si="2"/>
         <v>3858</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="15">
         <f t="shared" si="2"/>
         <v>3440</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="15">
         <f t="shared" si="2"/>
         <v>3162</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="15">
         <f t="shared" si="2"/>
         <v>2924</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AE3" s="15">
         <f t="shared" si="2"/>
         <v>2559</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3" s="15">
         <f t="shared" si="2"/>
         <v>2239</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AG3" s="15">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AH3" s="15">
         <f t="shared" si="2"/>
         <v>1778</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AI3" s="15">
         <f t="shared" si="2"/>
         <v>1619</v>
       </c>
-      <c r="AJ3" s="16">
+      <c r="AJ3" s="15">
         <f t="shared" si="2"/>
         <v>1396</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AK3" s="15">
         <f t="shared" si="2"/>
         <v>1251</v>
       </c>
-      <c r="AL3" s="16">
+      <c r="AL3" s="15">
         <f t="shared" si="2"/>
         <v>1097</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AM3" s="15">
         <f t="shared" si="2"/>
         <v>982</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="15">
         <f t="shared" si="2"/>
         <v>836</v>
       </c>
-      <c r="AO3" s="16">
+      <c r="AO3" s="15">
         <f t="shared" si="2"/>
         <v>758</v>
       </c>
-      <c r="AP3" s="16">
+      <c r="AP3" s="15">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="AQ3" s="16">
+      <c r="AQ3" s="15">
         <f t="shared" si="2"/>
         <v>596</v>
       </c>
-      <c r="AR3" s="16">
+      <c r="AR3" s="15">
         <f t="shared" si="2"/>
         <v>510</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AS3" s="15">
         <f t="shared" si="2"/>
         <v>427</v>
       </c>
-      <c r="AT3" s="16">
+      <c r="AT3" s="15">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="AU3" s="15">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="AV3" s="16">
+      <c r="AV3" s="15">
         <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="AW3" s="16">
+      <c r="AW3" s="15">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="AX3" s="16">
+      <c r="AX3" s="15">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="AY3" s="16">
+      <c r="AY3" s="15">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="AZ3" s="16">
+      <c r="AZ3" s="15">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="BA3" s="16">
+      <c r="BA3" s="15">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="BB3" s="16">
+      <c r="BB3" s="15">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="BC3" s="16">
+      <c r="BC3" s="15">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="BD3" s="16">
+      <c r="BD3" s="15">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="BE3" s="16">
+      <c r="BE3" s="15">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="16"/>
-      <c r="BH3" s="16"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="16"/>
-      <c r="BK3" s="16"/>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="16"/>
-      <c r="BN3" s="16"/>
-      <c r="BO3" s="16"/>
-      <c r="BP3" s="16"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="16"/>
-      <c r="BS3" s="16"/>
-      <c r="BT3" s="16"/>
-      <c r="BU3" s="16"/>
-      <c r="BV3" s="16"/>
-      <c r="BW3" s="16"/>
-      <c r="BX3" s="16"/>
-      <c r="BY3" s="16"/>
-      <c r="BZ3" s="16"/>
-      <c r="CA3" s="16"/>
-      <c r="CB3" s="16"/>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="16"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -32631,7 +32892,7 @@
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="17"/>
+      <c r="AK15" s="16"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -33642,7 +33903,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="52" width="8.88"/>
+    <col customWidth="1" min="46" max="53" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -33799,9 +34060,12 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -33996,8 +34260,9 @@
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
-      <c r="AZ2" s="1">
-        <f>Confirmed!AZ2-Active!AZ2</f>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1">
+        <f>Confirmed!BA2-Active!BA2</f>
         <v>0</v>
       </c>
     </row>
@@ -34205,7 +34470,11 @@
         <f>Confirmed!AY3-Active!AY4</f>
         <v>20</v>
       </c>
-      <c r="AZ3" s="1"/>
+      <c r="AZ3" s="1">
+        <f>Confirmed!AZ3-Active!AZ4</f>
+        <v>24</v>
+      </c>
+      <c r="BA3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -34411,7 +34680,11 @@
         <f>Confirmed!AY4-Active!AY5</f>
         <v>29</v>
       </c>
-      <c r="AZ4" s="1"/>
+      <c r="AZ4" s="1">
+        <f>Confirmed!AZ4-Active!AZ5</f>
+        <v>29</v>
+      </c>
+      <c r="BA4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -34617,7 +34890,11 @@
         <f>Confirmed!AY5-Active!AY6</f>
         <v>44</v>
       </c>
-      <c r="AZ5" s="1"/>
+      <c r="AZ5" s="1">
+        <f>Confirmed!AZ5-Active!AZ6</f>
+        <v>49</v>
+      </c>
+      <c r="BA5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -34823,7 +35100,11 @@
         <f>Confirmed!AY6-Active!AY7</f>
         <v>39</v>
       </c>
-      <c r="AZ6" s="1"/>
+      <c r="AZ6" s="1">
+        <f>Confirmed!AZ6-Active!AZ7</f>
+        <v>40</v>
+      </c>
+      <c r="BA6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -35029,7 +35310,11 @@
         <f>Confirmed!AY7-Active!AY8</f>
         <v>674</v>
       </c>
-      <c r="AZ7" s="1"/>
+      <c r="AZ7" s="1">
+        <f>Confirmed!AZ7-Active!AZ8</f>
+        <v>778</v>
+      </c>
+      <c r="BA7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -35235,7 +35520,11 @@
         <f>Confirmed!AY8-Active!AY9</f>
         <v>114</v>
       </c>
-      <c r="AZ8" s="1"/>
+      <c r="AZ8" s="1">
+        <f>Confirmed!AZ8-Active!AZ9</f>
+        <v>114</v>
+      </c>
+      <c r="BA8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -35441,7 +35730,11 @@
         <f>Confirmed!AY9-Active!AY10</f>
         <v>840</v>
       </c>
-      <c r="AZ9" s="1"/>
+      <c r="AZ9" s="1">
+        <f>Confirmed!AZ9-Active!AZ10</f>
+        <v>851</v>
+      </c>
+      <c r="BA9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -35647,7 +35940,11 @@
         <f>Confirmed!AY10-Active!AY11</f>
         <v>2994</v>
       </c>
-      <c r="AZ10" s="1"/>
+      <c r="AZ10" s="1">
+        <f>Confirmed!AZ10-Active!AZ11</f>
+        <v>3246</v>
+      </c>
+      <c r="BA10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -35853,7 +36150,11 @@
         <f>Confirmed!AY11-Active!AY12</f>
         <v>1576</v>
       </c>
-      <c r="AZ11" s="1"/>
+      <c r="AZ11" s="1">
+        <f>Confirmed!AZ11-Active!AZ12</f>
+        <v>1608</v>
+      </c>
+      <c r="BA11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -36869,11 +37170,11 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="52" width="7.63"/>
+    <col customWidth="1" min="37" max="53" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -37026,13 +37327,16 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
+        <v>43967.0</v>
+      </c>
+      <c r="BA1" s="2">
         <f>today()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -37215,9 +37519,10 @@
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -37420,10 +37725,14 @@
         <f>IF(Closed!AY3&gt;0,100*Recoveries!AY3/Closed!AY3,100)</f>
         <v>100</v>
       </c>
-      <c r="AZ3" s="1"/>
+      <c r="AZ3" s="1">
+        <f>IF(Closed!AZ3&gt;0,100*Recoveries!AZ3/Closed!AZ3,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BA3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -37626,10 +37935,14 @@
         <f>IF(Closed!AY4&gt;0,100*Recoveries!AY4/Closed!AY4,100)</f>
         <v>96.55172414</v>
       </c>
-      <c r="AZ4" s="1"/>
+      <c r="AZ4" s="1">
+        <f>IF(Closed!AZ4&gt;0,100*Recoveries!AZ4/Closed!AZ4,100)</f>
+        <v>96.55172414</v>
+      </c>
+      <c r="BA4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -37832,10 +38145,14 @@
         <f>IF(Closed!AY5&gt;0,100*Recoveries!AY5/Closed!AY5,100)</f>
         <v>100</v>
       </c>
-      <c r="AZ5" s="1"/>
+      <c r="AZ5" s="1">
+        <f>IF(Closed!AZ5&gt;0,100*Recoveries!AZ5/Closed!AZ5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BA5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -38038,10 +38355,14 @@
         <f>IF(Closed!AY6&gt;0,100*Recoveries!AY6/Closed!AY6,100)</f>
         <v>92.30769231</v>
       </c>
-      <c r="AZ6" s="1"/>
+      <c r="AZ6" s="1">
+        <f>IF(Closed!AZ6&gt;0,100*Recoveries!AZ6/Closed!AZ6,100)</f>
+        <v>92.5</v>
+      </c>
+      <c r="BA6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -38244,10 +38565,14 @@
         <f>IF(Closed!AY7&gt;0,100*Recoveries!AY7/Closed!AY7,100)</f>
         <v>95.40059347</v>
       </c>
-      <c r="AZ7" s="1"/>
+      <c r="AZ7" s="1">
+        <f>IF(Closed!AZ7&gt;0,100*Recoveries!AZ7/Closed!AZ7,100)</f>
+        <v>95.88688946</v>
+      </c>
+      <c r="BA7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -38450,10 +38775,14 @@
         <f>IF(Closed!AY8&gt;0,100*Recoveries!AY8/Closed!AY8,100)</f>
         <v>94.73684211</v>
       </c>
-      <c r="AZ8" s="1"/>
+      <c r="AZ8" s="1">
+        <f>IF(Closed!AZ8&gt;0,100*Recoveries!AZ8/Closed!AZ8,100)</f>
+        <v>94.73684211</v>
+      </c>
+      <c r="BA8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -38656,10 +38985,14 @@
         <f>IF(Closed!AY9&gt;0,100*Recoveries!AY9/Closed!AY9,100)</f>
         <v>94.64285714</v>
       </c>
-      <c r="AZ9" s="1"/>
+      <c r="AZ9" s="1">
+        <f>IF(Closed!AZ9&gt;0,100*Recoveries!AZ9/Closed!AZ9,100)</f>
+        <v>94.71210341</v>
+      </c>
+      <c r="BA9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -38862,10 +39195,14 @@
         <f>IF(Closed!AY10&gt;0,100*Recoveries!AY10/Closed!AY10,100)</f>
         <v>95.4241817</v>
       </c>
-      <c r="AZ10" s="1"/>
+      <c r="AZ10" s="1">
+        <f>IF(Closed!AZ10&gt;0,100*Recoveries!AZ10/Closed!AZ10,100)</f>
+        <v>95.40973506</v>
+      </c>
+      <c r="BA10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -39068,12 +39405,16 @@
         <f>IF(Closed!AY11&gt;0,100*Recoveries!AY11/Closed!AY11,100)</f>
         <v>98.47715736</v>
       </c>
-      <c r="AZ11" s="1"/>
+      <c r="AZ11" s="1">
+        <f>IF(Closed!AZ11&gt;0,100*Recoveries!AZ11/Closed!AZ11,100)</f>
+        <v>98.44527363</v>
+      </c>
+      <c r="BA11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="20" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="Confirmed" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Testing" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Testing per Capita" sheetId="3" r:id="rId6"/>
+    <sheet state="hidden" name="Testing per Capita" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Deaths" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Recoveries" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Active" sheetId="6" r:id="rId9"/>
@@ -19,7 +19,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mjlfqxuj2HU3P89/QNN2ryPveQ6Iw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7miGxce82Q7x/qf1GMEBfFM/Gzxwzg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,249 @@
     <t>National</t>
   </si>
   <si>
+    <t>17-May-2020'</t>
+  </si>
+  <si>
+    <t>22-May-2020'</t>
+  </si>
+  <si>
+    <t>27-May-2020'</t>
+  </si>
+  <si>
+    <t>01-Jun-2020'</t>
+  </si>
+  <si>
+    <t>06-Jun-2020'</t>
+  </si>
+  <si>
+    <t>11-Jun-2020'</t>
+  </si>
+  <si>
+    <t>16-Jun-2020'</t>
+  </si>
+  <si>
+    <t>21-Jun-2020'</t>
+  </si>
+  <si>
+    <t>26-Jun-2020'</t>
+  </si>
+  <si>
+    <t>01-Jul-2020'</t>
+  </si>
+  <si>
+    <t>06-Jul-2020'</t>
+  </si>
+  <si>
+    <t>11-Jul-2020'</t>
+  </si>
+  <si>
+    <t>16-Jul-2020'</t>
+  </si>
+  <si>
+    <t>21-Jul-2020'</t>
+  </si>
+  <si>
+    <t>26-Jul-2020'</t>
+  </si>
+  <si>
+    <t>31-Jul-2020'</t>
+  </si>
+  <si>
+    <t>05-Aug-2020'</t>
+  </si>
+  <si>
+    <t>10-Aug-2020'</t>
+  </si>
+  <si>
+    <t>15-Aug-2020'</t>
+  </si>
+  <si>
+    <t>20-Aug-2020'</t>
+  </si>
+  <si>
+    <t>25-Aug-2020'</t>
+  </si>
+  <si>
+    <t>30-Aug-2020'</t>
+  </si>
+  <si>
+    <t>04-Sep-2020'</t>
+  </si>
+  <si>
+    <t>09-Sep-2020'</t>
+  </si>
+  <si>
+    <t>14-Sep-2020'</t>
+  </si>
+  <si>
+    <t>19-Sep-2020'</t>
+  </si>
+  <si>
+    <t>24-Sep-2020'</t>
+  </si>
+  <si>
+    <t>29-Sep-2020'</t>
+  </si>
+  <si>
+    <t>04-Oct-2020'</t>
+  </si>
+  <si>
+    <t>09-Oct-2020'</t>
+  </si>
+  <si>
+    <t>14-Oct-2020'</t>
+  </si>
+  <si>
+    <t>19-Oct-2020'</t>
+  </si>
+  <si>
+    <t>24-Oct-2020'</t>
+  </si>
+  <si>
+    <t>29-Oct-2020'</t>
+  </si>
+  <si>
+    <t>03-Nov-2020'</t>
+  </si>
+  <si>
+    <t>08-Nov-2020'</t>
+  </si>
+  <si>
+    <t>13-Nov-2020'</t>
+  </si>
+  <si>
+    <t>18-Nov-2020'</t>
+  </si>
+  <si>
+    <t>23-Nov-2020'</t>
+  </si>
+  <si>
+    <t>28-Nov-2020'</t>
+  </si>
+  <si>
+    <t>03-Dec-2020'</t>
+  </si>
+  <si>
+    <t>08-Dec-2020'</t>
+  </si>
+  <si>
+    <t>13-Dec-2020'</t>
+  </si>
+  <si>
+    <t>18-Dec-2020'</t>
+  </si>
+  <si>
+    <t>23-Dec-2020'</t>
+  </si>
+  <si>
+    <t>28-Dec-2020'</t>
+  </si>
+  <si>
+    <t>02-Jan-2021'</t>
+  </si>
+  <si>
+    <t>07-Jan-2021'</t>
+  </si>
+  <si>
+    <t>12-Jan-2021'</t>
+  </si>
+  <si>
+    <t>17-Jan-2021'</t>
+  </si>
+  <si>
+    <t>22-Jan-2021'</t>
+  </si>
+  <si>
+    <t>27-Jan-2021'</t>
+  </si>
+  <si>
+    <t>01-Feb-2021'</t>
+  </si>
+  <si>
+    <t>06-Feb-2021'</t>
+  </si>
+  <si>
+    <t>11-Feb-2021'</t>
+  </si>
+  <si>
+    <t>16-Feb-2021'</t>
+  </si>
+  <si>
+    <t>21-Feb-2021'</t>
+  </si>
+  <si>
+    <t>26-Feb-2021'</t>
+  </si>
+  <si>
+    <t>03-Mar-2021'</t>
+  </si>
+  <si>
+    <t>08-Mar-2021'</t>
+  </si>
+  <si>
+    <t>13-Mar-2021'</t>
+  </si>
+  <si>
+    <t>18-Mar-2021'</t>
+  </si>
+  <si>
+    <t>23-Mar-2021'</t>
+  </si>
+  <si>
+    <t>28-Mar-2021'</t>
+  </si>
+  <si>
+    <t>02-Apr-2021'</t>
+  </si>
+  <si>
+    <t>07-Apr-2021'</t>
+  </si>
+  <si>
+    <t>12-Apr-2021'</t>
+  </si>
+  <si>
+    <t>17-Apr-2021'</t>
+  </si>
+  <si>
+    <t>22-Apr-2021'</t>
+  </si>
+  <si>
+    <t>27-Apr-2021'</t>
+  </si>
+  <si>
+    <t>02-May-2021'</t>
+  </si>
+  <si>
+    <t>07-May-2021'</t>
+  </si>
+  <si>
+    <t>12-May-2021'</t>
+  </si>
+  <si>
+    <t>17-May-2021'</t>
+  </si>
+  <si>
+    <t>22-May-2021'</t>
+  </si>
+  <si>
+    <t>27-May-2021'</t>
+  </si>
+  <si>
+    <t>01-Jun-2021'</t>
+  </si>
+  <si>
+    <t>06-Jun-2021'</t>
+  </si>
+  <si>
+    <t>11-Jun-2021'</t>
+  </si>
+  <si>
+    <t>16-Jun-2021'</t>
+  </si>
+  <si>
+    <t>21-Jun-2021'</t>
+  </si>
+  <si>
     <t>https://bit.ly/2Wgw33d</t>
   </si>
 </sst>
@@ -118,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -141,7 +384,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
@@ -189,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -206,6 +448,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -213,9 +458,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -226,11 +468,14 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -284,12 +529,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$2:$BA$2</c:f>
+              <c:f>Testing!$B$2:$BB$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -308,12 +553,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$3:$BA$3</c:f>
+              <c:f>Testing!$B$3:$BB$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -332,12 +577,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$4:$BA$4</c:f>
+              <c:f>Testing!$B$4:$BB$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -356,12 +601,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$5:$BA$5</c:f>
+              <c:f>Testing!$B$5:$BB$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -380,12 +625,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$6:$BA$6</c:f>
+              <c:f>Testing!$B$6:$BB$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -404,12 +649,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$7:$BA$7</c:f>
+              <c:f>Testing!$B$7:$BB$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -430,12 +675,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$8:$BA$8</c:f>
+              <c:f>Testing!$B$8:$BB$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -456,12 +701,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$9:$BA$9</c:f>
+              <c:f>Testing!$B$9:$BB$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -482,12 +727,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$10:$BA$10</c:f>
+              <c:f>Testing!$B$10:$BB$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -508,21 +753,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BA$1</c:f>
+              <c:f>Testing!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$11:$BA$11</c:f>
+              <c:f>Testing!$B$11:$BB$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="368960444"/>
-        <c:axId val="143209394"/>
+        <c:axId val="559194231"/>
+        <c:axId val="1048969561"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368960444"/>
+        <c:axId val="559194231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,10 +812,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143209394"/>
+        <c:crossAx val="1048969561"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143209394"/>
+        <c:axId val="1048969561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +884,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368960444"/>
+        <c:crossAx val="559194231"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -937,11 +1182,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2062511402"/>
-        <c:axId val="71374251"/>
+        <c:axId val="1086882326"/>
+        <c:axId val="1401548254"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2062511402"/>
+        <c:axId val="1086882326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,10 +1231,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71374251"/>
+        <c:crossAx val="1401548254"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71374251"/>
+        <c:axId val="1401548254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1303,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062511402"/>
+        <c:crossAx val="1086882326"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1129,18 +1374,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$BA$2</c:f>
+              <c:f>Active!$B$2:$BB$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1149799060"/>
-        <c:axId val="1579322645"/>
+        <c:axId val="377776109"/>
+        <c:axId val="1113320619"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1156,12 +1401,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$BA$3</c:f>
+              <c:f>Active!$B$3:$BB$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1179,12 +1424,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$BA$4</c:f>
+              <c:f>Active!$B$4:$BB$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1202,12 +1447,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$BA$5</c:f>
+              <c:f>Active!$B$5:$BB$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1225,12 +1470,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$BA$6</c:f>
+              <c:f>Active!$B$6:$BB$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1248,12 +1493,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$BA$7</c:f>
+              <c:f>Active!$B$7:$BB$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1271,12 +1516,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$BA$8</c:f>
+              <c:f>Active!$B$8:$BB$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1294,12 +1539,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$BA$9</c:f>
+              <c:f>Active!$B$9:$BB$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1317,12 +1562,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$BA$10</c:f>
+              <c:f>Active!$B$10:$BB$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1340,21 +1585,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BA$1</c:f>
+              <c:f>Active!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$BA$11</c:f>
+              <c:f>Active!$B$11:$BB$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1149799060"/>
-        <c:axId val="1579322645"/>
+        <c:axId val="377776109"/>
+        <c:axId val="1113320619"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1149799060"/>
+        <c:axId val="377776109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,10 +1644,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1579322645"/>
+        <c:crossAx val="1113320619"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1579322645"/>
+        <c:axId val="1113320619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1716,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149799060"/>
+        <c:crossAx val="377776109"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1552,8 +1797,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="747052070"/>
-        <c:axId val="1494136463"/>
+        <c:axId val="1809820622"/>
+        <c:axId val="1024159988"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1763,11 +2008,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="747052070"/>
-        <c:axId val="1494136463"/>
+        <c:axId val="1809820622"/>
+        <c:axId val="1024159988"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="747052070"/>
+        <c:axId val="1809820622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,10 +2057,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1494136463"/>
+        <c:crossAx val="1024159988"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1494136463"/>
+        <c:axId val="1024159988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +2129,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747052070"/>
+        <c:crossAx val="1809820622"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1973,8 +2218,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1633826168"/>
-        <c:axId val="943926741"/>
+        <c:axId val="1415405871"/>
+        <c:axId val="419327530"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2184,11 +2429,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1633826168"/>
-        <c:axId val="943926741"/>
+        <c:axId val="1415405871"/>
+        <c:axId val="419327530"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1633826168"/>
+        <c:axId val="1415405871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,10 +2478,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="943926741"/>
+        <c:crossAx val="419327530"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="943926741"/>
+        <c:axId val="419327530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2550,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633826168"/>
+        <c:crossAx val="1415405871"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2372,12 +2617,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$BA$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$BB$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2395,12 +2640,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$BA$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$BB$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2418,12 +2663,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$BA$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$BB$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2441,12 +2686,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$BA$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$BB$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2464,12 +2709,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$BA$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$BB$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2487,12 +2732,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$BA$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$BB$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2510,12 +2755,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$BA$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$BB$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2533,12 +2778,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$BA$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$BB$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2556,21 +2801,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$11:$BA$11</c:f>
+              <c:f>'Recovery Rate'!$B$11:$BB$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1870102654"/>
-        <c:axId val="1259786885"/>
+        <c:axId val="809285672"/>
+        <c:axId val="94522049"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1870102654"/>
+        <c:axId val="809285672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,10 +2860,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259786885"/>
+        <c:crossAx val="94522049"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1259786885"/>
+        <c:axId val="94522049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2932,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870102654"/>
+        <c:crossAx val="809285672"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2759,12 +3004,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$2:$BA$2</c:f>
+              <c:f>'Death Rate'!$B$2:$BB$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2782,12 +3027,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$BA$3</c:f>
+              <c:f>'Death Rate'!$B$3:$BB$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2805,12 +3050,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$BA$4</c:f>
+              <c:f>'Death Rate'!$B$4:$BB$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2828,12 +3073,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$BA$5</c:f>
+              <c:f>'Death Rate'!$B$5:$BB$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2851,12 +3096,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$BA$6</c:f>
+              <c:f>'Death Rate'!$B$6:$BB$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2874,12 +3119,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$BA$7</c:f>
+              <c:f>'Death Rate'!$B$7:$BB$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2897,12 +3142,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$BA$8</c:f>
+              <c:f>'Death Rate'!$B$8:$BB$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2920,12 +3165,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$BA$9</c:f>
+              <c:f>'Death Rate'!$B$9:$BB$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -2943,21 +3188,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$BA$10</c:f>
+              <c:f>'Death Rate'!$B$10:$BB$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1788494505"/>
-        <c:axId val="254954559"/>
+        <c:axId val="1691014149"/>
+        <c:axId val="272929163"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1788494505"/>
+        <c:axId val="1691014149"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,10 +3247,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254954559"/>
+        <c:crossAx val="272929163"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254954559"/>
+        <c:axId val="272929163"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,7 +3319,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1788494505"/>
+        <c:crossAx val="1691014149"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3145,18 +3390,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$BA$2</c:f>
+              <c:f>'Infection Rate'!$B$2:$BB$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1449992712"/>
-        <c:axId val="1484479322"/>
+        <c:axId val="1821064971"/>
+        <c:axId val="681151071"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3172,12 +3417,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$BA$3</c:f>
+              <c:f>'Infection Rate'!$B$3:$BB$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3195,12 +3440,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$BA$4</c:f>
+              <c:f>'Infection Rate'!$B$4:$BB$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3218,12 +3463,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$BA$5</c:f>
+              <c:f>'Infection Rate'!$B$5:$BB$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3241,12 +3486,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$BA$6</c:f>
+              <c:f>'Infection Rate'!$B$6:$BB$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3264,12 +3509,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$BA$7</c:f>
+              <c:f>'Infection Rate'!$B$7:$BB$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3287,12 +3532,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$BA$8</c:f>
+              <c:f>'Infection Rate'!$B$8:$BB$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3310,12 +3555,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$BA$9</c:f>
+              <c:f>'Infection Rate'!$B$9:$BB$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3333,12 +3578,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$BA$10</c:f>
+              <c:f>'Infection Rate'!$B$10:$BB$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3356,21 +3601,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BA$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$BA$11</c:f>
+              <c:f>'Infection Rate'!$B$11:$BB$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1449992712"/>
-        <c:axId val="1484479322"/>
+        <c:axId val="1821064971"/>
+        <c:axId val="681151071"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449992712"/>
+        <c:axId val="1821064971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,10 +3660,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1484479322"/>
+        <c:crossAx val="681151071"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1484479322"/>
+        <c:axId val="681151071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,7 +3732,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449992712"/>
+        <c:crossAx val="1821064971"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3976,7 +4221,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="53" width="9.88"/>
+    <col customWidth="1" min="44" max="54" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4133,12 +4378,15 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="3">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -4291,6 +4539,7 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4449,7 +4698,10 @@
       <c r="AZ3" s="4">
         <v>35.0</v>
       </c>
-      <c r="BA3" s="4"/>
+      <c r="BA3" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="BB3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -4608,7 +4860,10 @@
       <c r="AZ4" s="4">
         <v>64.0</v>
       </c>
-      <c r="BA4" s="4"/>
+      <c r="BA4" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="BB4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -4767,7 +5022,10 @@
       <c r="AZ5" s="4">
         <v>68.0</v>
       </c>
-      <c r="BA5" s="4"/>
+      <c r="BA5" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="BB5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -4926,7 +5184,10 @@
       <c r="AZ6" s="4">
         <v>59.0</v>
       </c>
-      <c r="BA6" s="4"/>
+      <c r="BA6" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="BB6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -5085,7 +5346,10 @@
       <c r="AZ7" s="4">
         <v>1812.0</v>
       </c>
-      <c r="BA7" s="4"/>
+      <c r="BA7" s="4">
+        <v>1936.0</v>
+      </c>
+      <c r="BB7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -5244,7 +5508,10 @@
       <c r="AZ8" s="4">
         <v>153.0</v>
       </c>
-      <c r="BA8" s="4"/>
+      <c r="BA8" s="4">
+        <v>158.0</v>
+      </c>
+      <c r="BB8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -5403,7 +5670,10 @@
       <c r="AZ9" s="4">
         <v>1498.0</v>
       </c>
-      <c r="BA9" s="4"/>
+      <c r="BA9" s="4">
+        <v>1543.0</v>
+      </c>
+      <c r="BB9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -5562,7 +5832,10 @@
       <c r="AZ10" s="4">
         <v>8404.0</v>
       </c>
-      <c r="BA10" s="4"/>
+      <c r="BA10" s="4">
+        <v>9294.0</v>
+      </c>
+      <c r="BB10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -5721,7 +5994,10 @@
       <c r="AZ11" s="4">
         <v>2262.0</v>
       </c>
-      <c r="BA11" s="4"/>
+      <c r="BA11" s="4">
+        <v>2329.0</v>
+      </c>
+      <c r="BB11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -6738,7 +7014,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="53" width="10.5"/>
+    <col customWidth="1" min="35" max="54" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -6895,12 +7171,15 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
       <c r="BA1" s="2">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -7088,6 +7367,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -7297,7 +7577,11 @@
         <f>IF(Closed!AZ3&gt;0,100*Deaths!AZ3/Closed!AZ3,0)</f>
         <v>0</v>
       </c>
-      <c r="BA3" s="1"/>
+      <c r="BA3" s="1">
+        <f>IF(Closed!BA3&gt;0,100*Deaths!BA3/Closed!BA3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -7507,7 +7791,11 @@
         <f>IF(Closed!AZ4&gt;0,100*Deaths!AZ4/Closed!AZ4,0)</f>
         <v>3.448275862</v>
       </c>
-      <c r="BA4" s="1"/>
+      <c r="BA4" s="1">
+        <f>IF(Closed!BA4&gt;0,100*Deaths!BA4/Closed!BA4,0)</f>
+        <v>3.448275862</v>
+      </c>
+      <c r="BB4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -7717,7 +8005,11 @@
         <f>IF(Closed!AZ5&gt;0,100*Deaths!AZ5/Closed!AZ5,0)</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="1"/>
+      <c r="BA5" s="1">
+        <f>IF(Closed!BA5&gt;0,100*Deaths!BA5/Closed!BA5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -7927,7 +8219,11 @@
         <f>IF(Closed!AZ6&gt;0,100*Deaths!AZ6/Closed!AZ6,0)</f>
         <v>7.5</v>
       </c>
-      <c r="BA6" s="1"/>
+      <c r="BA6" s="1">
+        <f>IF(Closed!BA6&gt;0,100*Deaths!BA6/Closed!BA6,0)</f>
+        <v>7.5</v>
+      </c>
+      <c r="BB6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -8137,7 +8433,11 @@
         <f>IF(Closed!AZ7&gt;0,100*Deaths!AZ7/Closed!AZ7,0)</f>
         <v>4.11311054</v>
       </c>
-      <c r="BA7" s="1"/>
+      <c r="BA7" s="1">
+        <f>IF(Closed!BA7&gt;0,100*Deaths!BA7/Closed!BA7,0)</f>
+        <v>4.004576659</v>
+      </c>
+      <c r="BB7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -8347,7 +8647,11 @@
         <f>IF(Closed!AZ8&gt;0,100*Deaths!AZ8/Closed!AZ8,0)</f>
         <v>5.263157895</v>
       </c>
-      <c r="BA8" s="1"/>
+      <c r="BA8" s="1">
+        <f>IF(Closed!BA8&gt;0,100*Deaths!BA8/Closed!BA8,0)</f>
+        <v>5.263157895</v>
+      </c>
+      <c r="BB8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -8557,7 +8861,11 @@
         <f>IF(Closed!AZ9&gt;0,100*Deaths!AZ9/Closed!AZ9,0)</f>
         <v>5.287896592</v>
       </c>
-      <c r="BA9" s="1"/>
+      <c r="BA9" s="1">
+        <f>IF(Closed!BA9&gt;0,100*Deaths!BA9/Closed!BA9,0)</f>
+        <v>5.220417633</v>
+      </c>
+      <c r="BB9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -8767,7 +9075,11 @@
         <f>IF(Closed!AZ10&gt;0,100*Deaths!AZ10/Closed!AZ10,0)</f>
         <v>4.590264941</v>
       </c>
-      <c r="BA10" s="1"/>
+      <c r="BA10" s="1">
+        <f>IF(Closed!BA10&gt;0,100*Deaths!BA10/Closed!BA10,0)</f>
+        <v>4.059945504</v>
+      </c>
+      <c r="BB10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -8977,13 +9289,17 @@
         <f>IF(Closed!AZ11&gt;0,100*Deaths!AZ11/Closed!AZ11,0)</f>
         <v>1.554726368</v>
       </c>
-      <c r="BA11" s="1"/>
+      <c r="BA11" s="1">
+        <f>IF(Closed!BA11&gt;0,100*Deaths!BA11/Closed!BA11,0)</f>
+        <v>1.554726368</v>
+      </c>
+      <c r="BB11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="M15" s="16"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -9996,7 +10312,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="53" width="10.5"/>
+    <col customWidth="1" min="35" max="54" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -10153,12 +10469,15 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
       <c r="BA1" s="2">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -10346,216 +10665,221 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18">
-        <f t="shared" ref="B3:BA3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
+      <c r="B3" s="19">
+        <f t="shared" ref="B3:BB3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
         <v>0.02559675512</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="19">
         <f t="shared" si="1"/>
         <v>0.02916302229</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <f t="shared" si="1"/>
         <v>0.02872158519</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="19">
         <f t="shared" si="1"/>
         <v>0.02754111253</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="19">
         <f t="shared" si="1"/>
         <v>0.02689610531</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="19">
         <f t="shared" si="1"/>
         <v>0.02562433382</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="19">
         <f t="shared" si="1"/>
         <v>0.02517372825</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="19">
         <f t="shared" si="1"/>
         <v>0.02464177037</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="19">
         <f t="shared" si="1"/>
         <v>0.02497741373</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="19">
         <f t="shared" si="1"/>
         <v>0.02460071497</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="19">
         <f t="shared" si="1"/>
         <v>0.02453626176</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="19">
         <f t="shared" si="1"/>
         <v>0.02453626176</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="19">
         <f t="shared" si="1"/>
         <v>0.02610489626</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="19">
         <f t="shared" si="1"/>
         <v>0.02544977988</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="19">
         <f t="shared" si="1"/>
         <v>0.02507349752</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="19">
         <f t="shared" si="1"/>
         <v>0.02469852001</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="19">
         <f t="shared" si="1"/>
         <v>0.02462939464</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="19">
         <f t="shared" si="1"/>
         <v>0.02472845056</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="19">
         <f t="shared" si="1"/>
         <v>0.02547765334</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="19">
         <f t="shared" si="1"/>
         <v>0.02554539465</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="19">
         <f t="shared" si="1"/>
         <v>0.02535397203</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="19">
         <f t="shared" si="1"/>
         <v>0.02543190181</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="19">
         <f t="shared" si="1"/>
         <v>0.02542293115</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="19">
         <f t="shared" si="1"/>
         <v>0.02477757219</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="19">
         <f t="shared" si="1"/>
         <v>0.02435645151</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="19">
         <f t="shared" si="1"/>
         <v>0.02436699009</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="19">
         <f t="shared" si="1"/>
         <v>0.02452268294</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="19">
         <f t="shared" si="1"/>
         <v>0.02453396283</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="19">
         <f t="shared" si="1"/>
         <v>0.02462134009</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="19">
         <f t="shared" si="1"/>
         <v>0.02397149863</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="19">
         <f t="shared" si="1"/>
         <v>0.02381119362</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AG3" s="19">
         <f t="shared" si="1"/>
         <v>0.02366064651</v>
       </c>
-      <c r="AH3" s="18">
+      <c r="AH3" s="19">
         <f t="shared" si="1"/>
         <v>0.02356307367</v>
       </c>
-      <c r="AI3" s="18">
+      <c r="AI3" s="19">
         <f t="shared" si="1"/>
         <v>0.02344963636</v>
       </c>
-      <c r="AJ3" s="18">
+      <c r="AJ3" s="19">
         <f t="shared" si="1"/>
         <v>0.0233587823</v>
       </c>
-      <c r="AK3" s="18">
+      <c r="AK3" s="19">
         <f t="shared" si="1"/>
         <v>0.02344945766</v>
       </c>
-      <c r="AL3" s="18">
+      <c r="AL3" s="19">
         <f t="shared" si="1"/>
         <v>0.02349372642</v>
       </c>
-      <c r="AM3" s="18">
+      <c r="AM3" s="19">
         <f t="shared" si="1"/>
         <v>0.02337582825</v>
       </c>
-      <c r="AN3" s="18">
+      <c r="AN3" s="19">
         <f t="shared" si="1"/>
         <v>0.02355312368</v>
       </c>
-      <c r="AO3" s="18">
+      <c r="AO3" s="19">
         <f t="shared" si="1"/>
         <v>0.02359175364</v>
       </c>
-      <c r="AP3" s="18">
+      <c r="AP3" s="19">
         <f t="shared" si="1"/>
         <v>0.02327521075</v>
       </c>
-      <c r="AQ3" s="18">
+      <c r="AQ3" s="19">
         <f t="shared" si="1"/>
         <v>0.02294705257</v>
       </c>
-      <c r="AR3" s="18">
+      <c r="AR3" s="19">
         <f t="shared" si="1"/>
         <v>0.02325687862</v>
       </c>
-      <c r="AS3" s="18">
+      <c r="AS3" s="19">
         <f t="shared" si="1"/>
         <v>0.02337644293</v>
       </c>
-      <c r="AT3" s="18">
+      <c r="AT3" s="19">
         <f t="shared" si="1"/>
         <v>0.02358588861</v>
       </c>
-      <c r="AU3" s="18">
+      <c r="AU3" s="19">
         <f t="shared" si="1"/>
         <v>0.02393496069</v>
       </c>
-      <c r="AV3" s="18">
+      <c r="AV3" s="19">
         <f t="shared" si="1"/>
         <v>0.02439523564</v>
       </c>
-      <c r="AW3" s="18">
+      <c r="AW3" s="19">
         <f t="shared" si="1"/>
         <v>0.02450363075</v>
       </c>
-      <c r="AX3" s="18">
+      <c r="AX3" s="19">
         <f t="shared" si="1"/>
         <v>0.02460597612</v>
       </c>
-      <c r="AY3" s="18">
+      <c r="AY3" s="19">
         <f t="shared" si="1"/>
         <v>0.02484934264</v>
       </c>
-      <c r="AZ3" s="18">
+      <c r="AZ3" s="19">
         <f t="shared" si="1"/>
         <v>0.02515560135</v>
       </c>
-      <c r="BA3" s="18">
+      <c r="BA3" s="19">
+        <f t="shared" si="1"/>
+        <v>0.02585648388</v>
+      </c>
+      <c r="BB3" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10564,1891 +10888,1927 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <f>Confirmed!B3/Testing!B3</f>
         <v>0.008695652174</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="20">
         <f>Confirmed!C3/Testing!C3</f>
         <v>0.01937984496</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f>Confirmed!D3/Testing!D3</f>
         <v>0.02090592334</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="20">
         <f>Confirmed!E3/Testing!E3</f>
         <v>0.009677419355</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="20">
         <f>Confirmed!F3/Testing!F3</f>
         <v>0.01807228916</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="20">
         <f>Confirmed!G3/Testing!G3</f>
         <v>0.01955307263</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="20">
         <f>Confirmed!H3/Testing!H3</f>
         <v>0.0180878553</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="20">
         <f>Confirmed!I3/Testing!I3</f>
         <v>0.0171990172</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="20">
         <f>Confirmed!J3/Testing!J3</f>
         <v>0.01605504587</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="20">
         <f>Confirmed!K3/Testing!K3</f>
         <v>0.0174291939</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="20">
         <f>Confirmed!L3/Testing!L3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="20">
         <f>Confirmed!M3/Testing!M3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="20">
         <f>Confirmed!N3/Testing!N3</f>
         <v>0.02524271845</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="20">
         <f>Confirmed!O3/Testing!O3</f>
         <v>0.02697841727</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="20">
         <f>Confirmed!P3/Testing!P3</f>
         <v>0.02542372881</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="20">
         <f>Confirmed!Q3/Testing!Q3</f>
         <v>0.02640264026</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="20">
         <f>Confirmed!R3/Testing!R3</f>
         <v>0.02472952087</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="20">
         <f>Confirmed!S3/Testing!S3</f>
         <v>0.02366863905</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="20">
         <f>Confirmed!T3/Testing!T3</f>
         <v>0.02275960171</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="20">
         <f>Confirmed!U3/Testing!U3</f>
         <v>0.0218878249</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="20">
         <f>Confirmed!V3/Testing!V3</f>
         <v>0.02083333333</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="20">
         <f>Confirmed!W3/Testing!W3</f>
         <v>0.01965601966</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="20">
         <f>Confirmed!X3/Testing!X3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="20">
         <f>Confirmed!Y3/Testing!Y3</f>
         <v>0.01727861771</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="20">
         <f>Confirmed!Z3/Testing!Z3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="20">
         <f>Confirmed!AA3/Testing!AA3</f>
         <v>0.0156097561</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="20">
         <f>Confirmed!AB3/Testing!AB3</f>
         <v>0.01481481481</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="20">
         <f>Confirmed!AC3/Testing!AC3</f>
         <v>0.01380500431</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="20">
         <f>Confirmed!AD3/Testing!AD3</f>
         <v>0.01299756296</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="20">
         <f>Confirmed!AE3/Testing!AE3</f>
         <v>0.01230769231</v>
       </c>
-      <c r="AF4" s="19">
+      <c r="AF4" s="20">
         <f>Confirmed!AF3/Testing!AF3</f>
         <v>0.01248164464</v>
       </c>
-      <c r="AG4" s="19">
+      <c r="AG4" s="20">
         <f>Confirmed!AG3/Testing!AG3</f>
         <v>0.01179736294</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="20">
         <f>Confirmed!AH3/Testing!AH3</f>
         <v>0.01134846462</v>
       </c>
-      <c r="AI4" s="19">
+      <c r="AI4" s="20">
         <f>Confirmed!AI3/Testing!AI3</f>
         <v>0.01067839196</v>
       </c>
-      <c r="AJ4" s="19">
+      <c r="AJ4" s="20">
         <f>Confirmed!AJ3/Testing!AJ3</f>
         <v>0.01014319809</v>
       </c>
-      <c r="AK4" s="19">
+      <c r="AK4" s="20">
         <f>Confirmed!AK3/Testing!AK3</f>
         <v>0.01024473534</v>
       </c>
-      <c r="AL4" s="19">
+      <c r="AL4" s="20">
         <f>Confirmed!AL3/Testing!AL3</f>
         <v>0.01234567901</v>
       </c>
-      <c r="AM4" s="19">
+      <c r="AM4" s="20">
         <f>Confirmed!AM3/Testing!AM3</f>
         <v>0.01209677419</v>
       </c>
-      <c r="AN4" s="19">
+      <c r="AN4" s="20">
         <f>Confirmed!AN3/Testing!AN3</f>
         <v>0.01201923077</v>
       </c>
-      <c r="AO4" s="19">
+      <c r="AO4" s="20">
         <f>Confirmed!AO3/Testing!AO3</f>
         <v>0.01200923788</v>
       </c>
-      <c r="AP4" s="19">
+      <c r="AP4" s="20">
         <f>Confirmed!AP3/Testing!AP3</f>
         <v>0.0115248227</v>
       </c>
-      <c r="AQ4" s="19">
+      <c r="AQ4" s="20">
         <f>Confirmed!AQ3/Testing!AQ3</f>
         <v>0.009694793537</v>
       </c>
-      <c r="AR4" s="19">
+      <c r="AR4" s="20">
         <f>Confirmed!AR3/Testing!AR3</f>
         <v>0.009202453988</v>
       </c>
-      <c r="AS4" s="19">
+      <c r="AS4" s="20">
         <f>Confirmed!AS3/Testing!AS3</f>
         <v>0.009064422143</v>
       </c>
-      <c r="AT4" s="19">
+      <c r="AT4" s="20">
         <f>Confirmed!AT3/Testing!AT3</f>
         <v>0.008912108175</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AU4" s="20">
         <f>Confirmed!AU3/Testing!AU3</f>
         <v>0.008839127873</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AV4" s="20">
         <f>Confirmed!AV3/Testing!AV3</f>
         <v>0.008513053348</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="20">
         <f>Confirmed!AW3/Testing!AW3</f>
         <v>0.008145533532</v>
       </c>
-      <c r="AX4" s="19">
+      <c r="AX4" s="20">
         <f>Confirmed!AX3/Testing!AX3</f>
         <v>0.008068714211</v>
       </c>
-      <c r="AY4" s="19">
+      <c r="AY4" s="20">
         <f>Confirmed!AY3/Testing!AY3</f>
         <v>0.008459815875</v>
       </c>
-      <c r="AZ4" s="19">
+      <c r="AZ4" s="20">
         <f>Confirmed!AZ3/Testing!AZ3</f>
         <v>0.008353221957</v>
       </c>
-      <c r="BA4" s="19"/>
+      <c r="BA4" s="20">
+        <f>Confirmed!BA3/Testing!BA3</f>
+        <v>0.008422490326</v>
+      </c>
+      <c r="BB4" s="20"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <f>Confirmed!B4/Testing!B4</f>
         <v>0.01425178147</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <f>Confirmed!C4/Testing!C4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <f>Confirmed!D4/Testing!D4</f>
         <v>0.01142857143</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="20">
         <f>Confirmed!E4/Testing!E4</f>
         <v>0.01410934744</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="20">
         <f>Confirmed!F4/Testing!F4</f>
         <v>0.01320132013</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="20">
         <f>Confirmed!G4/Testing!G4</f>
         <v>0.01376146789</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="20">
         <f>Confirmed!H4/Testing!H4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="20">
         <f>Confirmed!I4/Testing!I4</f>
         <v>0.01211305518</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="20">
         <f>Confirmed!J4/Testing!J4</f>
         <v>0.01381909548</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="20">
         <f>Confirmed!K4/Testing!K4</f>
         <v>0.01311084625</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="20">
         <f>Confirmed!L4/Testing!L4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="20">
         <f>Confirmed!M4/Testing!M4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="20">
         <f>Confirmed!N4/Testing!N4</f>
         <v>0.01594048884</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="20">
         <f>Confirmed!O4/Testing!O4</f>
         <v>0.01476377953</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="20">
         <f>Confirmed!P4/Testing!P4</f>
         <v>0.01669758813</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="20">
         <f>Confirmed!Q4/Testing!Q4</f>
         <v>0.01714801444</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="20">
         <f>Confirmed!R4/Testing!R4</f>
         <v>0.01607445008</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="20">
         <f>Confirmed!S4/Testing!S4</f>
         <v>0.01781376518</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="20">
         <f>Confirmed!T4/Testing!T4</f>
         <v>0.01713395639</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="20">
         <f>Confirmed!U4/Testing!U4</f>
         <v>0.01721556886</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="20">
         <f>Confirmed!V4/Testing!V4</f>
         <v>0.017106201</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="20">
         <f>Confirmed!W4/Testing!W4</f>
         <v>0.01612903226</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="20">
         <f>Confirmed!X4/Testing!X4</f>
         <v>0.01505646173</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="20">
         <f>Confirmed!Y4/Testing!Y4</f>
         <v>0.0141760189</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="20">
         <f>Confirmed!Z4/Testing!Z4</f>
         <v>0.0139431121</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="20">
         <f>Confirmed!AA4/Testing!AA4</f>
         <v>0.01281366791</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="20">
         <f>Confirmed!AB4/Testing!AB4</f>
         <v>0.01215805471</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="20">
         <f>Confirmed!AC4/Testing!AC4</f>
         <v>0.01179801793</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="20">
         <f>Confirmed!AD4/Testing!AD4</f>
         <v>0.01111605158</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="20">
         <f>Confirmed!AE4/Testing!AE4</f>
         <v>0.01178451178</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="20">
         <f>Confirmed!AF4/Testing!AF4</f>
         <v>0.01124949779</v>
       </c>
-      <c r="AG5" s="19">
+      <c r="AG5" s="20">
         <f>Confirmed!AG4/Testing!AG4</f>
         <v>0.0106302202</v>
       </c>
-      <c r="AH5" s="19">
+      <c r="AH5" s="20">
         <f>Confirmed!AH4/Testing!AH4</f>
         <v>0.01059167275</v>
       </c>
-      <c r="AI5" s="19">
+      <c r="AI5" s="20">
         <f>Confirmed!AI4/Testing!AI4</f>
         <v>0.009969061533</v>
       </c>
-      <c r="AJ5" s="19">
+      <c r="AJ5" s="20">
         <f>Confirmed!AJ4/Testing!AJ4</f>
         <v>0.0101207966</v>
       </c>
-      <c r="AK5" s="19">
+      <c r="AK5" s="20">
         <f>Confirmed!AK4/Testing!AK4</f>
         <v>0.01090342679</v>
       </c>
-      <c r="AL5" s="19">
+      <c r="AL5" s="20">
         <f>Confirmed!AL4/Testing!AL4</f>
         <v>0.01028202115</v>
       </c>
-      <c r="AM5" s="19">
+      <c r="AM5" s="20">
         <f>Confirmed!AM4/Testing!AM4</f>
         <v>0.009925558313</v>
       </c>
-      <c r="AN5" s="19">
+      <c r="AN5" s="20">
         <f>Confirmed!AN4/Testing!AN4</f>
         <v>0.009208103131</v>
       </c>
-      <c r="AO5" s="19">
+      <c r="AO5" s="20">
         <f>Confirmed!AO4/Testing!AO4</f>
         <v>0.008847320526</v>
       </c>
-      <c r="AP5" s="19">
+      <c r="AP5" s="20">
         <f>Confirmed!AP4/Testing!AP4</f>
         <v>0.008974048023</v>
       </c>
-      <c r="AQ5" s="19">
+      <c r="AQ5" s="20">
         <f>Confirmed!AQ4/Testing!AQ4</f>
         <v>0.009101251422</v>
       </c>
-      <c r="AR5" s="19">
+      <c r="AR5" s="20">
         <f>Confirmed!AR4/Testing!AR4</f>
         <v>0.009071274298</v>
       </c>
-      <c r="AS5" s="19">
+      <c r="AS5" s="20">
         <f>Confirmed!AS4/Testing!AS4</f>
         <v>0.00841025641</v>
       </c>
-      <c r="AT5" s="19">
+      <c r="AT5" s="20">
         <f>Confirmed!AT4/Testing!AT4</f>
         <v>0.00876338851</v>
       </c>
-      <c r="AU5" s="19">
+      <c r="AU5" s="20">
         <f>Confirmed!AU4/Testing!AU4</f>
         <v>0.009335324869</v>
       </c>
-      <c r="AV5" s="19">
+      <c r="AV5" s="20">
         <f>Confirmed!AV4/Testing!AV4</f>
         <v>0.009171012408</v>
       </c>
-      <c r="AW5" s="19">
+      <c r="AW5" s="20">
         <f>Confirmed!AW4/Testing!AW4</f>
         <v>0.008947006194</v>
       </c>
-      <c r="AX5" s="19">
+      <c r="AX5" s="20">
         <f>Confirmed!AX4/Testing!AX4</f>
         <v>0.009566221343</v>
       </c>
-      <c r="AY5" s="19">
+      <c r="AY5" s="20">
         <f>Confirmed!AY4/Testing!AY4</f>
         <v>0.009933774834</v>
       </c>
-      <c r="AZ5" s="19">
+      <c r="AZ5" s="20">
         <f>Confirmed!AZ4/Testing!AZ4</f>
         <v>0.009679370841</v>
       </c>
-      <c r="BA5" s="19"/>
+      <c r="BA5" s="20">
+        <f>Confirmed!BA4/Testing!BA4</f>
+        <v>0.01009663926</v>
+      </c>
+      <c r="BB5" s="20"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <f>Confirmed!B5/Testing!B5</f>
         <v>0.01145038168</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="20">
         <f>Confirmed!C5/Testing!C5</f>
         <v>0.0113507378</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="20">
         <f>Confirmed!D5/Testing!D5</f>
         <v>0.01121304791</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="20">
         <f>Confirmed!E5/Testing!E5</f>
         <v>0.01039697543</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="20">
         <f>Confirmed!F5/Testing!F5</f>
         <v>0.01060070671</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="20">
         <f>Confirmed!G5/Testing!G5</f>
         <v>0.009836065574</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="20">
         <f>Confirmed!H5/Testing!H5</f>
         <v>0.009841029523</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="20">
         <f>Confirmed!I5/Testing!I5</f>
         <v>0.009372746936</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="20">
         <f>Confirmed!J5/Testing!J5</f>
         <v>0.01211305518</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="20">
         <f>Confirmed!K5/Testing!K5</f>
         <v>0.01148691768</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="20">
         <f>Confirmed!L5/Testing!L5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="20">
         <f>Confirmed!M5/Testing!M5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="20">
         <f>Confirmed!N5/Testing!N5</f>
         <v>0.01195219124</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="20">
         <f>Confirmed!O5/Testing!O5</f>
         <v>0.0105374078</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="20">
         <f>Confirmed!P5/Testing!P5</f>
         <v>0.009940357853</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="20">
         <f>Confirmed!Q5/Testing!Q5</f>
         <v>0.009671179884</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="20">
         <f>Confirmed!R5/Testing!R5</f>
         <v>0.009519492294</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="20">
         <f>Confirmed!S5/Testing!S5</f>
         <v>0.009544468547</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="20">
         <f>Confirmed!T5/Testing!T5</f>
         <v>0.009178139341</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="20">
         <f>Confirmed!U5/Testing!U5</f>
         <v>0.00882117081</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="20">
         <f>Confirmed!V5/Testing!V5</f>
         <v>0.00840015273</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="20">
         <f>Confirmed!W5/Testing!W5</f>
         <v>0.008279337653</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="20">
         <f>Confirmed!X5/Testing!X5</f>
         <v>0.008400537634</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="20">
         <f>Confirmed!Y5/Testing!Y5</f>
         <v>0.007278481013</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="20">
         <f>Confirmed!Z5/Testing!Z5</f>
         <v>0.006869772999</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="20">
         <f>Confirmed!AA5/Testing!AA5</f>
         <v>0.00686302545</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="20">
         <f>Confirmed!AB5/Testing!AB5</f>
         <v>0.00623982637</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="20">
         <f>Confirmed!AC5/Testing!AC5</f>
         <v>0.005815423515</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="20">
         <f>Confirmed!AD5/Testing!AD5</f>
         <v>0.005717008099</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="20">
         <f>Confirmed!AE5/Testing!AE5</f>
         <v>0.005184851217</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AF6" s="20">
         <f>Confirmed!AF5/Testing!AF5</f>
         <v>0.00495049505</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AG6" s="20">
         <f>Confirmed!AG5/Testing!AG5</f>
         <v>0.0052877771</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AH6" s="20">
         <f>Confirmed!AH5/Testing!AH5</f>
         <v>0.004695754256</v>
       </c>
-      <c r="AI6" s="19">
+      <c r="AI6" s="20">
         <f>Confirmed!AI5/Testing!AI5</f>
         <v>0.005707972749</v>
       </c>
-      <c r="AJ6" s="19">
+      <c r="AJ6" s="20">
         <f>Confirmed!AJ5/Testing!AJ5</f>
         <v>0.00629590766</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AK6" s="20">
         <f>Confirmed!AK5/Testing!AK5</f>
         <v>0.005840146838</v>
       </c>
-      <c r="AL6" s="19">
+      <c r="AL6" s="20">
         <f>Confirmed!AL5/Testing!AL5</f>
         <v>0.006294256491</v>
       </c>
-      <c r="AM6" s="19">
+      <c r="AM6" s="20">
         <f>Confirmed!AM5/Testing!AM5</f>
         <v>0.006794682422</v>
       </c>
-      <c r="AN6" s="19">
+      <c r="AN6" s="20">
         <f>Confirmed!AN5/Testing!AN5</f>
         <v>0.007470049331</v>
       </c>
-      <c r="AO6" s="19">
+      <c r="AO6" s="20">
         <f>Confirmed!AO5/Testing!AO5</f>
         <v>0.007718348003</v>
       </c>
-      <c r="AP6" s="19">
+      <c r="AP6" s="20">
         <f>Confirmed!AP5/Testing!AP5</f>
         <v>0.007405482656</v>
       </c>
-      <c r="AQ6" s="19">
+      <c r="AQ6" s="20">
         <f>Confirmed!AQ5/Testing!AQ5</f>
         <v>0.006835824354</v>
       </c>
-      <c r="AR6" s="19">
+      <c r="AR6" s="20">
         <f>Confirmed!AR5/Testing!AR5</f>
         <v>0.006599208095</v>
       </c>
-      <c r="AS6" s="19">
+      <c r="AS6" s="20">
         <f>Confirmed!AS5/Testing!AS5</f>
         <v>0.006371422603</v>
       </c>
-      <c r="AT6" s="19">
+      <c r="AT6" s="20">
         <f>Confirmed!AT5/Testing!AT5</f>
         <v>0.006049186831</v>
       </c>
-      <c r="AU6" s="19">
+      <c r="AU6" s="20">
         <f>Confirmed!AU5/Testing!AU5</f>
         <v>0.005989162468</v>
       </c>
-      <c r="AV6" s="19">
+      <c r="AV6" s="20">
         <f>Confirmed!AV5/Testing!AV5</f>
         <v>0.005768174327</v>
       </c>
-      <c r="AW6" s="19">
+      <c r="AW6" s="20">
         <f>Confirmed!AW5/Testing!AW5</f>
         <v>0.005782372525</v>
       </c>
-      <c r="AX6" s="19">
+      <c r="AX6" s="20">
         <f>Confirmed!AX5/Testing!AX5</f>
         <v>0.005627414749</v>
       </c>
-      <c r="AY6" s="19">
+      <c r="AY6" s="20">
         <f>Confirmed!AY5/Testing!AY5</f>
         <v>0.005379797655</v>
       </c>
-      <c r="AZ6" s="19">
+      <c r="AZ6" s="20">
         <f>Confirmed!AZ5/Testing!AZ5</f>
         <v>0.00523640844</v>
       </c>
-      <c r="BA6" s="19"/>
+      <c r="BA6" s="20">
+        <f>Confirmed!BA5/Testing!BA5</f>
+        <v>0.005214453584</v>
+      </c>
+      <c r="BB6" s="20"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <f>Confirmed!B6/Testing!B6</f>
         <v>0.009244992296</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="20">
         <f>Confirmed!C6/Testing!C6</f>
         <v>0.015130674</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="20">
         <f>Confirmed!D6/Testing!D6</f>
         <v>0.01483312732</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="20">
         <f>Confirmed!E6/Testing!E6</f>
         <v>0.0126002291</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="20">
         <f>Confirmed!F6/Testing!F6</f>
         <v>0.01498929336</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="20">
         <f>Confirmed!G6/Testing!G6</f>
         <v>0.01390268123</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="20">
         <f>Confirmed!H6/Testing!H6</f>
         <v>0.01466544455</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="20">
         <f>Confirmed!I6/Testing!I6</f>
         <v>0.01397379913</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="20">
         <f>Confirmed!J6/Testing!J6</f>
         <v>0.01466992665</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="20">
         <f>Confirmed!K6/Testing!K6</f>
         <v>0.01469450889</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="20">
         <f>Confirmed!L6/Testing!L6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="20">
         <f>Confirmed!M6/Testing!M6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="20">
         <f>Confirmed!N6/Testing!N6</f>
         <v>0.01448275862</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="20">
         <f>Confirmed!O6/Testing!O6</f>
         <v>0.01404853129</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="20">
         <f>Confirmed!P6/Testing!P6</f>
         <v>0.01444912703</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="20">
         <f>Confirmed!Q6/Testing!Q6</f>
         <v>0.01347393087</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="20">
         <f>Confirmed!R6/Testing!R6</f>
         <v>0.01263042284</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="20">
         <f>Confirmed!S6/Testing!S6</f>
         <v>0.01209253417</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="20">
         <f>Confirmed!T6/Testing!T6</f>
         <v>0.01212733704</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="20">
         <f>Confirmed!U6/Testing!U6</f>
         <v>0.01214771623</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="20">
         <f>Confirmed!V6/Testing!V6</f>
         <v>0.01202590194</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="20">
         <f>Confirmed!W6/Testing!W6</f>
         <v>0.01133885739</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="20">
         <f>Confirmed!X6/Testing!X6</f>
         <v>0.01058631922</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="20">
         <f>Confirmed!Y6/Testing!Y6</f>
         <v>0.01035276074</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="20">
         <f>Confirmed!Z6/Testing!Z6</f>
         <v>0.009771986971</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA7" s="20">
         <f>Confirmed!AA6/Testing!AA6</f>
         <v>0.009352268791</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="20">
         <f>Confirmed!AB6/Testing!AB6</f>
         <v>0.008875739645</v>
       </c>
-      <c r="AC7" s="19">
+      <c r="AC7" s="20">
         <f>Confirmed!AC6/Testing!AC6</f>
         <v>0.008269525268</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="20">
         <f>Confirmed!AD6/Testing!AD6</f>
         <v>0.008369408369</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="AE7" s="20">
         <f>Confirmed!AE6/Testing!AE6</f>
         <v>0.008194482382</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="AF7" s="20">
         <f>Confirmed!AF6/Testing!AF6</f>
         <v>0.008083441982</v>
       </c>
-      <c r="AG7" s="19">
+      <c r="AG7" s="20">
         <f>Confirmed!AG6/Testing!AG6</f>
         <v>0.007639231148</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="AH7" s="20">
         <f>Confirmed!AH6/Testing!AH6</f>
         <v>0.007349454718</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="AI7" s="20">
         <f>Confirmed!AI6/Testing!AI6</f>
         <v>0.006915012269</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="AJ7" s="20">
         <f>Confirmed!AJ6/Testing!AJ6</f>
         <v>0.00678109769</v>
       </c>
-      <c r="AK7" s="19">
+      <c r="AK7" s="20">
         <f>Confirmed!AK6/Testing!AK6</f>
         <v>0.006874241812</v>
       </c>
-      <c r="AL7" s="19">
+      <c r="AL7" s="20">
         <f>Confirmed!AL6/Testing!AL6</f>
         <v>0.006862371331</v>
       </c>
-      <c r="AM7" s="19">
+      <c r="AM7" s="20">
         <f>Confirmed!AM6/Testing!AM6</f>
         <v>0.006621331424</v>
       </c>
-      <c r="AN7" s="19">
+      <c r="AN7" s="20">
         <f>Confirmed!AN6/Testing!AN6</f>
         <v>0.006659836066</v>
       </c>
-      <c r="AO7" s="19">
+      <c r="AO7" s="20">
         <f>Confirmed!AO6/Testing!AO6</f>
         <v>0.00656167979</v>
       </c>
-      <c r="AP7" s="19">
+      <c r="AP7" s="20">
         <f>Confirmed!AP6/Testing!AP6</f>
         <v>0.006296237998</v>
       </c>
-      <c r="AQ7" s="19">
+      <c r="AQ7" s="20">
         <f>Confirmed!AQ6/Testing!AQ6</f>
         <v>0.00658105939</v>
       </c>
-      <c r="AR7" s="19">
+      <c r="AR7" s="20">
         <f>Confirmed!AR6/Testing!AR6</f>
         <v>0.006551881761</v>
       </c>
-      <c r="AS7" s="19">
+      <c r="AS7" s="20">
         <f>Confirmed!AS6/Testing!AS6</f>
         <v>0.007379539864</v>
       </c>
-      <c r="AT7" s="19">
+      <c r="AT7" s="20">
         <f>Confirmed!AT6/Testing!AT6</f>
         <v>0.007418601456</v>
       </c>
-      <c r="AU7" s="19">
+      <c r="AU7" s="20">
         <f>Confirmed!AU6/Testing!AU6</f>
         <v>0.007111813512</v>
       </c>
-      <c r="AV7" s="19">
+      <c r="AV7" s="20">
         <f>Confirmed!AV6/Testing!AV6</f>
         <v>0.006849315068</v>
       </c>
-      <c r="AW7" s="19">
+      <c r="AW7" s="20">
         <f>Confirmed!AW6/Testing!AW6</f>
         <v>0.00655419347</v>
       </c>
-      <c r="AX7" s="19">
+      <c r="AX7" s="20">
         <f>Confirmed!AX6/Testing!AX6</f>
         <v>0.006399813824</v>
       </c>
-      <c r="AY7" s="19">
+      <c r="AY7" s="20">
         <f>Confirmed!AY6/Testing!AY6</f>
         <v>0.006340378198</v>
       </c>
-      <c r="AZ7" s="19">
+      <c r="AZ7" s="20">
         <f>Confirmed!AZ6/Testing!AZ6</f>
         <v>0.006294004694</v>
       </c>
-      <c r="BA7" s="19"/>
+      <c r="BA7" s="20">
+        <f>Confirmed!BA6/Testing!BA6</f>
+        <v>0.007834757835</v>
+      </c>
+      <c r="BB7" s="20"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <f>Confirmed!B7/Testing!B7</f>
         <v>0.001903311762</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="20">
         <f>Confirmed!C7/Testing!C7</f>
         <v>0.003397893306</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="20">
         <f>Confirmed!D7/Testing!D7</f>
         <v>0.003661885871</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="20">
         <f>Confirmed!E7/Testing!E7</f>
         <v>0.003393665158</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="20">
         <f>Confirmed!F7/Testing!F7</f>
         <v>0.003173763555</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="20">
         <f>Confirmed!G7/Testing!G7</f>
         <v>0.003678273664</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <f>Confirmed!H7/Testing!H7</f>
         <v>0.003849637681</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="20">
         <f>Confirmed!I7/Testing!I7</f>
         <v>0.004529767041</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="20">
         <f>Confirmed!J7/Testing!J7</f>
         <v>0.005034232783</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="20">
         <f>Confirmed!K7/Testing!K7</f>
         <v>0.005920550038</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="20">
         <f>Confirmed!L7/Testing!L7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="20">
         <f>Confirmed!M7/Testing!M7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="20">
         <f>Confirmed!N7/Testing!N7</f>
         <v>0.007664793051</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="20">
         <f>Confirmed!O7/Testing!O7</f>
         <v>0.009619933764</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="20">
         <f>Confirmed!P7/Testing!P7</f>
         <v>0.0101145322</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="20">
         <f>Confirmed!Q7/Testing!Q7</f>
         <v>0.009986973513</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="20">
         <f>Confirmed!R7/Testing!R7</f>
         <v>0.01193544012</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="20">
         <f>Confirmed!S7/Testing!S7</f>
         <v>0.01350298624</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="20">
         <f>Confirmed!T7/Testing!T7</f>
         <v>0.02172013481</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="20">
         <f>Confirmed!U7/Testing!U7</f>
         <v>0.02388095524</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="20">
         <f>Confirmed!V7/Testing!V7</f>
         <v>0.025139984</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="20">
         <f>Confirmed!W7/Testing!W7</f>
         <v>0.02650290886</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="20">
         <f>Confirmed!X7/Testing!X7</f>
         <v>0.02714932127</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Y8" s="20">
         <f>Confirmed!Y7/Testing!Y7</f>
         <v>0.02774621212</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="20">
         <f>Confirmed!Z7/Testing!Z7</f>
         <v>0.02771321294</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AA8" s="20">
         <f>Confirmed!AA7/Testing!AA7</f>
         <v>0.02952250556</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AB8" s="20">
         <f>Confirmed!AB7/Testing!AB7</f>
         <v>0.03061307349</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AC8" s="20">
         <f>Confirmed!AC7/Testing!AC7</f>
         <v>0.03155027616</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="20">
         <f>Confirmed!AD7/Testing!AD7</f>
         <v>0.03421484069</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AE8" s="20">
         <f>Confirmed!AE7/Testing!AE7</f>
         <v>0.03292403184</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AF8" s="20">
         <f>Confirmed!AF7/Testing!AF7</f>
         <v>0.0344605475</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AG8" s="20">
         <f>Confirmed!AG7/Testing!AG7</f>
         <v>0.03578819233</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AH8" s="20">
         <f>Confirmed!AH7/Testing!AH7</f>
         <v>0.03607190959</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AI8" s="20">
         <f>Confirmed!AI7/Testing!AI7</f>
         <v>0.0347145691</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AJ8" s="20">
         <f>Confirmed!AJ7/Testing!AJ7</f>
         <v>0.03386548024</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AK8" s="20">
         <f>Confirmed!AK7/Testing!AK7</f>
         <v>0.03450686642</v>
       </c>
-      <c r="AL8" s="19">
+      <c r="AL8" s="20">
         <f>Confirmed!AL7/Testing!AL7</f>
         <v>0.03446814522</v>
       </c>
-      <c r="AM8" s="19">
+      <c r="AM8" s="20">
         <f>Confirmed!AM7/Testing!AM7</f>
         <v>0.03421145686</v>
       </c>
-      <c r="AN8" s="19">
+      <c r="AN8" s="20">
         <f>Confirmed!AN7/Testing!AN7</f>
         <v>0.03433150569</v>
       </c>
-      <c r="AO8" s="19">
+      <c r="AO8" s="20">
         <f>Confirmed!AO7/Testing!AO7</f>
         <v>0.03395737094</v>
       </c>
-      <c r="AP8" s="19">
+      <c r="AP8" s="20">
         <f>Confirmed!AP7/Testing!AP7</f>
         <v>0.03300933126</v>
       </c>
-      <c r="AQ8" s="19">
+      <c r="AQ8" s="20">
         <f>Confirmed!AQ7/Testing!AQ7</f>
         <v>0.03222673188</v>
       </c>
-      <c r="AR8" s="19">
+      <c r="AR8" s="20">
         <f>Confirmed!AR7/Testing!AR7</f>
         <v>0.03256932095</v>
       </c>
-      <c r="AS8" s="19">
+      <c r="AS8" s="20">
         <f>Confirmed!AS7/Testing!AS7</f>
         <v>0.03371173031</v>
       </c>
-      <c r="AT8" s="19">
+      <c r="AT8" s="20">
         <f>Confirmed!AT7/Testing!AT7</f>
         <v>0.03616389549</v>
       </c>
-      <c r="AU8" s="19">
+      <c r="AU8" s="20">
         <f>Confirmed!AU7/Testing!AU7</f>
         <v>0.03859509307</v>
       </c>
-      <c r="AV8" s="19">
+      <c r="AV8" s="20">
         <f>Confirmed!AV7/Testing!AV7</f>
         <v>0.04122920036</v>
       </c>
-      <c r="AW8" s="19">
+      <c r="AW8" s="20">
         <f>Confirmed!AW7/Testing!AW7</f>
         <v>0.04023923194</v>
       </c>
-      <c r="AX8" s="19">
+      <c r="AX8" s="20">
         <f>Confirmed!AX7/Testing!AX7</f>
         <v>0.03945581653</v>
       </c>
-      <c r="AY8" s="19">
+      <c r="AY8" s="20">
         <f>Confirmed!AY7/Testing!AY7</f>
         <v>0.03995576498</v>
       </c>
-      <c r="AZ8" s="19">
+      <c r="AZ8" s="20">
         <f>Confirmed!AZ7/Testing!AZ7</f>
         <v>0.04177810569</v>
       </c>
-      <c r="BA8" s="19"/>
+      <c r="BA8" s="20">
+        <f>Confirmed!BA7/Testing!BA7</f>
+        <v>0.04257284222</v>
+      </c>
+      <c r="BB8" s="20"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <f>Confirmed!B8/Testing!B8</f>
         <v>0.03363074811</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="20">
         <f>Confirmed!C8/Testing!C8</f>
         <v>0.04166666667</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <f>Confirmed!D8/Testing!D8</f>
         <v>0.03962575674</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="20">
         <f>Confirmed!E8/Testing!E8</f>
         <v>0.03671596124</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="20">
         <f>Confirmed!F8/Testing!F8</f>
         <v>0.03528850739</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="20">
         <f>Confirmed!G8/Testing!G8</f>
         <v>0.03361344538</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="20">
         <f>Confirmed!H8/Testing!H8</f>
         <v>0.03429971417</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="20">
         <f>Confirmed!I8/Testing!I8</f>
         <v>0.03267211202</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="20">
         <f>Confirmed!J8/Testing!J8</f>
         <v>0.03086419753</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="20">
         <f>Confirmed!K8/Testing!K8</f>
         <v>0.02995867769</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="20">
         <f>Confirmed!L8/Testing!L8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="20">
         <f>Confirmed!M8/Testing!M8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="20">
         <f>Confirmed!N8/Testing!N8</f>
         <v>0.02702702703</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="20">
         <f>Confirmed!O8/Testing!O8</f>
         <v>0.02645051195</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="20">
         <f>Confirmed!P8/Testing!P8</f>
         <v>0.02520783052</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="20">
         <f>Confirmed!Q8/Testing!Q8</f>
         <v>0.0245302714</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="20">
         <f>Confirmed!R8/Testing!R8</f>
         <v>0.02347762289</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="20">
         <f>Confirmed!S8/Testing!S8</f>
         <v>0.02247191011</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="20">
         <f>Confirmed!T8/Testing!T8</f>
         <v>0.02205716858</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="20">
         <f>Confirmed!U8/Testing!U8</f>
         <v>0.02099112746</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="20">
         <f>Confirmed!V8/Testing!V8</f>
         <v>0.02019369462</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W9" s="20">
         <f>Confirmed!W8/Testing!W8</f>
         <v>0.01942501943</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="20">
         <f>Confirmed!X8/Testing!X8</f>
         <v>0.01813236627</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Y9" s="20">
         <f>Confirmed!Y8/Testing!Y8</f>
         <v>0.01707358716</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z9" s="20">
         <f>Confirmed!Z8/Testing!Z8</f>
         <v>0.0169245648</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA9" s="20">
         <f>Confirmed!AA8/Testing!AA8</f>
         <v>0.01635550069</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="20">
         <f>Confirmed!AB8/Testing!AB8</f>
         <v>0.01551976574</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC9" s="20">
         <f>Confirmed!AC8/Testing!AC8</f>
         <v>0.01446111869</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="20">
         <f>Confirmed!AD8/Testing!AD8</f>
         <v>0.01426735219</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AE9" s="20">
         <f>Confirmed!AE8/Testing!AE8</f>
         <v>0.01350364964</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF9" s="20">
         <f>Confirmed!AF8/Testing!AF8</f>
         <v>0.01277584204</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AG9" s="20">
         <f>Confirmed!AG8/Testing!AG8</f>
         <v>0.01218173837</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AH9" s="20">
         <f>Confirmed!AH8/Testing!AH8</f>
         <v>0.01193115827</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AI9" s="20">
         <f>Confirmed!AI8/Testing!AI8</f>
         <v>0.01122702434</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AJ9" s="20">
         <f>Confirmed!AJ8/Testing!AJ8</f>
         <v>0.01094752737</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AK9" s="20">
         <f>Confirmed!AK8/Testing!AK8</f>
         <v>0.01062488745</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AL9" s="20">
         <f>Confirmed!AL8/Testing!AL8</f>
         <v>0.01027339107</v>
       </c>
-      <c r="AM9" s="19">
+      <c r="AM9" s="20">
         <f>Confirmed!AM8/Testing!AM8</f>
         <v>0.009723439866</v>
       </c>
-      <c r="AN9" s="19">
+      <c r="AN9" s="20">
         <f>Confirmed!AN8/Testing!AN8</f>
         <v>0.009506426344</v>
       </c>
-      <c r="AO9" s="19">
+      <c r="AO9" s="20">
         <f>Confirmed!AO8/Testing!AO8</f>
         <v>0.009352623119</v>
       </c>
-      <c r="AP9" s="19">
+      <c r="AP9" s="20">
         <f>Confirmed!AP8/Testing!AP8</f>
         <v>0.009113853057</v>
       </c>
-      <c r="AQ9" s="19">
+      <c r="AQ9" s="20">
         <f>Confirmed!AQ8/Testing!AQ8</f>
         <v>0.009198242724</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="AR9" s="20">
         <f>Confirmed!AR8/Testing!AR8</f>
         <v>0.008666753551</v>
       </c>
-      <c r="AS9" s="19">
+      <c r="AS9" s="20">
         <f>Confirmed!AS8/Testing!AS8</f>
         <v>0.008292079208</v>
       </c>
-      <c r="AT9" s="19">
+      <c r="AT9" s="20">
         <f>Confirmed!AT8/Testing!AT8</f>
         <v>0.007931844888</v>
       </c>
-      <c r="AU9" s="19">
+      <c r="AU9" s="20">
         <f>Confirmed!AU8/Testing!AU8</f>
         <v>0.007603491974</v>
       </c>
-      <c r="AV9" s="19">
+      <c r="AV9" s="20">
         <f>Confirmed!AV8/Testing!AV8</f>
         <v>0.007323026851</v>
       </c>
-      <c r="AW9" s="19">
+      <c r="AW9" s="20">
         <f>Confirmed!AW8/Testing!AW8</f>
         <v>0.007163249416</v>
       </c>
-      <c r="AX9" s="19">
+      <c r="AX9" s="20">
         <f>Confirmed!AX8/Testing!AX8</f>
         <v>0.007215366242</v>
       </c>
-      <c r="AY9" s="19">
+      <c r="AY9" s="20">
         <f>Confirmed!AY8/Testing!AY8</f>
         <v>0.007183634634</v>
       </c>
-      <c r="AZ9" s="19">
+      <c r="AZ9" s="20">
         <f>Confirmed!AZ8/Testing!AZ8</f>
         <v>0.00698056392</v>
       </c>
-      <c r="BA9" s="19"/>
+      <c r="BA9" s="20">
+        <f>Confirmed!BA8/Testing!BA8</f>
+        <v>0.006875244767</v>
+      </c>
+      <c r="BB9" s="20"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <f>Confirmed!B9/Testing!B9</f>
         <v>0.0257296467</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="20">
         <f>Confirmed!C9/Testing!C9</f>
         <v>0.02674438539</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="20">
         <f>Confirmed!D9/Testing!D9</f>
         <v>0.02570812808</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="20">
         <f>Confirmed!E9/Testing!E9</f>
         <v>0.02439372325</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="20">
         <f>Confirmed!F9/Testing!F9</f>
         <v>0.02387940235</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="20">
         <f>Confirmed!G9/Testing!G9</f>
         <v>0.02300841168</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="20">
         <f>Confirmed!H9/Testing!H9</f>
         <v>0.02353209961</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="20">
         <f>Confirmed!I9/Testing!I9</f>
         <v>0.02339244914</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="20">
         <f>Confirmed!J9/Testing!J9</f>
         <v>0.02356765542</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="20">
         <f>Confirmed!K9/Testing!K9</f>
         <v>0.02369942197</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="20">
         <f>Confirmed!L9/Testing!L9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="20">
         <f>Confirmed!M9/Testing!M9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="20">
         <f>Confirmed!N9/Testing!N9</f>
         <v>0.03041498411</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="20">
         <f>Confirmed!O9/Testing!O9</f>
         <v>0.0307875895</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="20">
         <f>Confirmed!P9/Testing!P9</f>
         <v>0.03091236495</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="20">
         <f>Confirmed!Q9/Testing!Q9</f>
         <v>0.03051540371</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="20">
         <f>Confirmed!R9/Testing!R9</f>
         <v>0.03030925014</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="20">
         <f>Confirmed!S9/Testing!S9</f>
         <v>0.03045386076</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="20">
         <f>Confirmed!T9/Testing!T9</f>
         <v>0.0307895731</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="20">
         <f>Confirmed!U9/Testing!U9</f>
         <v>0.03141836673</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="20">
         <f>Confirmed!V9/Testing!V9</f>
         <v>0.03106807309</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="20">
         <f>Confirmed!W9/Testing!W9</f>
         <v>0.03211781968</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="20">
         <f>Confirmed!X9/Testing!X9</f>
         <v>0.03063812519</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="20">
         <f>Confirmed!Y9/Testing!Y9</f>
         <v>0.02947217578</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="20">
         <f>Confirmed!Z9/Testing!Z9</f>
         <v>0.02881493506</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="20">
         <f>Confirmed!AA9/Testing!AA9</f>
         <v>0.02896361203</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="20">
         <f>Confirmed!AB9/Testing!AB9</f>
         <v>0.03104775948</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="20">
         <f>Confirmed!AC9/Testing!AC9</f>
         <v>0.03079917564</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="20">
         <f>Confirmed!AD9/Testing!AD9</f>
         <v>0.03023874587</v>
       </c>
-      <c r="AE10" s="19">
+      <c r="AE10" s="20">
         <f>Confirmed!AE9/Testing!AE9</f>
         <v>0.028825211</v>
       </c>
-      <c r="AF10" s="19">
+      <c r="AF10" s="20">
         <f>Confirmed!AF9/Testing!AF9</f>
         <v>0.02803950874</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AG10" s="20">
         <f>Confirmed!AG9/Testing!AG9</f>
         <v>0.02769249662</v>
       </c>
-      <c r="AH10" s="19">
+      <c r="AH10" s="20">
         <f>Confirmed!AH9/Testing!AH9</f>
         <v>0.0271459798</v>
       </c>
-      <c r="AI10" s="19">
+      <c r="AI10" s="20">
         <f>Confirmed!AI9/Testing!AI9</f>
         <v>0.02657253245</v>
       </c>
-      <c r="AJ10" s="19">
+      <c r="AJ10" s="20">
         <f>Confirmed!AJ9/Testing!AJ9</f>
         <v>0.02587458746</v>
       </c>
-      <c r="AK10" s="19">
+      <c r="AK10" s="20">
         <f>Confirmed!AK9/Testing!AK9</f>
         <v>0.02534068868</v>
       </c>
-      <c r="AL10" s="19">
+      <c r="AL10" s="20">
         <f>Confirmed!AL9/Testing!AL9</f>
         <v>0.02496377758</v>
       </c>
-      <c r="AM10" s="19">
+      <c r="AM10" s="20">
         <f>Confirmed!AM9/Testing!AM9</f>
         <v>0.02399108138</v>
       </c>
-      <c r="AN10" s="19">
+      <c r="AN10" s="20">
         <f>Confirmed!AN9/Testing!AN9</f>
         <v>0.02353091358</v>
       </c>
-      <c r="AO10" s="19">
+      <c r="AO10" s="20">
         <f>Confirmed!AO9/Testing!AO9</f>
         <v>0.023342804</v>
       </c>
-      <c r="AP10" s="19">
+      <c r="AP10" s="20">
         <f>Confirmed!AP9/Testing!AP9</f>
         <v>0.02331921236</v>
       </c>
-      <c r="AQ10" s="19">
+      <c r="AQ10" s="20">
         <f>Confirmed!AQ9/Testing!AQ9</f>
         <v>0.02346566879</v>
       </c>
-      <c r="AR10" s="19">
+      <c r="AR10" s="20">
         <f>Confirmed!AR9/Testing!AR9</f>
         <v>0.02318266758</v>
       </c>
-      <c r="AS10" s="19">
+      <c r="AS10" s="20">
         <f>Confirmed!AS9/Testing!AS9</f>
         <v>0.0229812355</v>
       </c>
-      <c r="AT10" s="19">
+      <c r="AT10" s="20">
         <f>Confirmed!AT9/Testing!AT9</f>
         <v>0.02256993678</v>
       </c>
-      <c r="AU10" s="19">
+      <c r="AU10" s="20">
         <f>Confirmed!AU9/Testing!AU9</f>
         <v>0.0219400646</v>
       </c>
-      <c r="AV10" s="19">
+      <c r="AV10" s="20">
         <f>Confirmed!AV9/Testing!AV9</f>
         <v>0.02146993593</v>
       </c>
-      <c r="AW10" s="19">
+      <c r="AW10" s="20">
         <f>Confirmed!AW9/Testing!AW9</f>
         <v>0.02082442928</v>
       </c>
-      <c r="AX10" s="19">
+      <c r="AX10" s="20">
         <f>Confirmed!AX9/Testing!AX9</f>
         <v>0.02040124329</v>
       </c>
-      <c r="AY10" s="19">
+      <c r="AY10" s="20">
         <f>Confirmed!AY9/Testing!AY9</f>
         <v>0.02001728889</v>
       </c>
-      <c r="AZ10" s="19">
+      <c r="AZ10" s="20">
         <f>Confirmed!AZ9/Testing!AZ9</f>
         <v>0.01940489915</v>
       </c>
-      <c r="BA10" s="19"/>
+      <c r="BA10" s="20">
+        <f>Confirmed!BA9/Testing!BA9</f>
+        <v>0.01906326831</v>
+      </c>
+      <c r="BB10" s="20"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <f>Confirmed!B10/Testing!B10</f>
         <v>0.03934031953</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="20">
         <f>Confirmed!C10/Testing!C10</f>
         <v>0.04156441718</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <f>Confirmed!D10/Testing!D10</f>
         <v>0.04269972452</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="20">
         <f>Confirmed!E10/Testing!E10</f>
         <v>0.04135818228</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="20">
         <f>Confirmed!F10/Testing!F10</f>
         <v>0.03879207448</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="20">
         <f>Confirmed!G10/Testing!G10</f>
         <v>0.03608589772</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="20">
         <f>Confirmed!H10/Testing!H10</f>
         <v>0.03607931316</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="20">
         <f>Confirmed!I10/Testing!I10</f>
         <v>0.03640965732</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="20">
         <f>Confirmed!J10/Testing!J10</f>
         <v>0.03935648064</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="20">
         <f>Confirmed!K10/Testing!K10</f>
         <v>0.03913455737</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="20">
         <f>Confirmed!L10/Testing!L10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="20">
         <f>Confirmed!M10/Testing!M10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="20">
         <f>Confirmed!N10/Testing!N10</f>
         <v>0.03805058037</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="20">
         <f>Confirmed!O10/Testing!O10</f>
         <v>0.03666002278</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="20">
         <f>Confirmed!P10/Testing!P10</f>
         <v>0.03631847476</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="20">
         <f>Confirmed!Q10/Testing!Q10</f>
         <v>0.03566529492</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="20">
         <f>Confirmed!R10/Testing!R10</f>
         <v>0.03593510866</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="20">
         <f>Confirmed!S10/Testing!S10</f>
         <v>0.0361558746</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="20">
         <f>Confirmed!T10/Testing!T10</f>
         <v>0.03622535211</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="20">
         <f>Confirmed!U10/Testing!U10</f>
         <v>0.03558468288</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="20">
         <f>Confirmed!V10/Testing!V10</f>
         <v>0.03481175864</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="20">
         <f>Confirmed!W10/Testing!W10</f>
         <v>0.03486336672</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="20">
         <f>Confirmed!X10/Testing!X10</f>
         <v>0.03794308537</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Y11" s="20">
         <f>Confirmed!Y10/Testing!Y10</f>
         <v>0.03709718779</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="20">
         <f>Confirmed!Z10/Testing!Z10</f>
         <v>0.03792616502</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="AA11" s="20">
         <f>Confirmed!AA10/Testing!AA10</f>
         <v>0.03900818786</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AB11" s="20">
         <f>Confirmed!AB10/Testing!AB10</f>
         <v>0.03954408854</v>
       </c>
-      <c r="AC11" s="19">
+      <c r="AC11" s="20">
         <f>Confirmed!AC10/Testing!AC10</f>
         <v>0.04367423596</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="AD11" s="20">
         <f>Confirmed!AD10/Testing!AD10</f>
         <v>0.04545747008</v>
       </c>
-      <c r="AE11" s="19">
+      <c r="AE11" s="20">
         <f>Confirmed!AE10/Testing!AE10</f>
         <v>0.04610091045</v>
       </c>
-      <c r="AF11" s="19">
+      <c r="AF11" s="20">
         <f>Confirmed!AF10/Testing!AF10</f>
         <v>0.04674554493</v>
       </c>
-      <c r="AG11" s="19">
+      <c r="AG11" s="20">
         <f>Confirmed!AG10/Testing!AG10</f>
         <v>0.04771584759</v>
       </c>
-      <c r="AH11" s="19">
+      <c r="AH11" s="20">
         <f>Confirmed!AH10/Testing!AH10</f>
         <v>0.04942252293</v>
       </c>
-      <c r="AI11" s="19">
+      <c r="AI11" s="20">
         <f>Confirmed!AI10/Testing!AI10</f>
         <v>0.05309756522</v>
       </c>
-      <c r="AJ11" s="19">
+      <c r="AJ11" s="20">
         <f>Confirmed!AJ10/Testing!AJ10</f>
         <v>0.0553258841</v>
       </c>
-      <c r="AK11" s="19">
+      <c r="AK11" s="20">
         <f>Confirmed!AK10/Testing!AK10</f>
         <v>0.05650341455</v>
       </c>
-      <c r="AL11" s="19">
+      <c r="AL11" s="20">
         <f>Confirmed!AL10/Testing!AL10</f>
         <v>0.05738088154</v>
       </c>
-      <c r="AM11" s="19">
+      <c r="AM11" s="20">
         <f>Confirmed!AM10/Testing!AM10</f>
         <v>0.06072696804</v>
       </c>
-      <c r="AN11" s="19">
+      <c r="AN11" s="20">
         <f>Confirmed!AN10/Testing!AN10</f>
         <v>0.06399908627</v>
       </c>
-      <c r="AO11" s="19">
+      <c r="AO11" s="20">
         <f>Confirmed!AO10/Testing!AO10</f>
         <v>0.0660046088</v>
       </c>
-      <c r="AP11" s="19">
+      <c r="AP11" s="20">
         <f>Confirmed!AP10/Testing!AP10</f>
         <v>0.06598111817</v>
       </c>
-      <c r="AQ11" s="19">
+      <c r="AQ11" s="20">
         <f>Confirmed!AQ10/Testing!AQ10</f>
         <v>0.06373980626</v>
       </c>
-      <c r="AR11" s="19">
+      <c r="AR11" s="20">
         <f>Confirmed!AR10/Testing!AR10</f>
         <v>0.06812913782</v>
       </c>
-      <c r="AS11" s="19">
+      <c r="AS11" s="20">
         <f>Confirmed!AS10/Testing!AS10</f>
         <v>0.06918528536</v>
       </c>
-      <c r="AT11" s="19">
+      <c r="AT11" s="20">
         <f>Confirmed!AT10/Testing!AT10</f>
         <v>0.07059144926</v>
       </c>
-      <c r="AU11" s="19">
+      <c r="AU11" s="20">
         <f>Confirmed!AU10/Testing!AU10</f>
         <v>0.07360316359</v>
       </c>
-      <c r="AV11" s="19">
+      <c r="AV11" s="20">
         <f>Confirmed!AV10/Testing!AV10</f>
         <v>0.07699292497</v>
       </c>
-      <c r="AW11" s="19">
+      <c r="AW11" s="20">
         <f>Confirmed!AW10/Testing!AW10</f>
         <v>0.08101128341</v>
       </c>
-      <c r="AX11" s="19">
+      <c r="AX11" s="20">
         <f>Confirmed!AX10/Testing!AX10</f>
         <v>0.08369967608</v>
       </c>
-      <c r="AY11" s="19">
+      <c r="AY11" s="20">
         <f>Confirmed!AY10/Testing!AY10</f>
         <v>0.08624675109</v>
       </c>
-      <c r="AZ11" s="19">
+      <c r="AZ11" s="20">
         <f>Confirmed!AZ10/Testing!AZ10</f>
         <v>0.08914157218</v>
       </c>
-      <c r="BA11" s="19"/>
+      <c r="BA11" s="20">
+        <f>Confirmed!BA10/Testing!BA10</f>
+        <v>0.09402314665</v>
+      </c>
+      <c r="BB11" s="20"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <f>Confirmed!B11/Testing!B11</f>
         <v>0.04339522546</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="20">
         <f>Confirmed!C11/Testing!C11</f>
         <v>0.05048782798</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="20">
         <f>Confirmed!D11/Testing!D11</f>
         <v>0.04968098681</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="20">
         <f>Confirmed!E11/Testing!E11</f>
         <v>0.04871511903</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="20">
         <f>Confirmed!F11/Testing!F11</f>
         <v>0.04666420936</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="20">
         <f>Confirmed!G11/Testing!G11</f>
         <v>0.04409050516</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="20">
         <f>Confirmed!H11/Testing!H11</f>
         <v>0.04185077642</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="20">
         <f>Confirmed!I11/Testing!I11</f>
         <v>0.04040161125</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="20">
         <f>Confirmed!J11/Testing!J11</f>
         <v>0.0389019872</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="20">
         <f>Confirmed!K11/Testing!K11</f>
         <v>0.03747870528</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="20">
         <f>Confirmed!L11/Testing!L11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="20">
         <f>Confirmed!M11/Testing!M11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="20">
         <f>Confirmed!N11/Testing!N11</f>
         <v>0.03712495253</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="20">
         <f>Confirmed!O11/Testing!O11</f>
         <v>0.03494966369</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="20">
         <f>Confirmed!P11/Testing!P11</f>
         <v>0.0332103321</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="20">
         <f>Confirmed!Q11/Testing!Q11</f>
         <v>0.03279812813</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="20">
         <f>Confirmed!R11/Testing!R11</f>
         <v>0.03270321361</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="20">
         <f>Confirmed!S11/Testing!S11</f>
         <v>0.03220903301</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="20">
         <f>Confirmed!T11/Testing!T11</f>
         <v>0.03162729202</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="20">
         <f>Confirmed!U11/Testing!U11</f>
         <v>0.03110888108</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="20">
         <f>Confirmed!V11/Testing!V11</f>
         <v>0.03086380431</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="20">
         <f>Confirmed!W11/Testing!W11</f>
         <v>0.03056965256</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X12" s="20">
         <f>Confirmed!X11/Testing!X11</f>
         <v>0.03086021807</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="Y12" s="20">
         <f>Confirmed!Y11/Testing!Y11</f>
         <v>0.03030143061</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="20">
         <f>Confirmed!Z11/Testing!Z11</f>
         <v>0.02915379248</v>
       </c>
-      <c r="AA12" s="19">
+      <c r="AA12" s="20">
         <f>Confirmed!AA11/Testing!AA11</f>
         <v>0.02859937029</v>
       </c>
-      <c r="AB12" s="19">
+      <c r="AB12" s="20">
         <f>Confirmed!AB11/Testing!AB11</f>
         <v>0.0277035897</v>
       </c>
-      <c r="AC12" s="19">
+      <c r="AC12" s="20">
         <f>Confirmed!AC11/Testing!AC11</f>
         <v>0.02640347547</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="20">
         <f>Confirmed!AD11/Testing!AD11</f>
         <v>0.025451511</v>
       </c>
-      <c r="AE12" s="19">
+      <c r="AE12" s="20">
         <f>Confirmed!AE11/Testing!AE11</f>
         <v>0.02452234091</v>
       </c>
-      <c r="AF12" s="19">
+      <c r="AF12" s="20">
         <f>Confirmed!AF11/Testing!AF11</f>
         <v>0.02389629975</v>
       </c>
-      <c r="AG12" s="19">
+      <c r="AG12" s="20">
         <f>Confirmed!AG11/Testing!AG11</f>
         <v>0.02295399023</v>
       </c>
-      <c r="AH12" s="19">
+      <c r="AH12" s="20">
         <f>Confirmed!AH11/Testing!AH11</f>
         <v>0.0224761283</v>
       </c>
-      <c r="AI12" s="19">
+      <c r="AI12" s="20">
         <f>Confirmed!AI11/Testing!AI11</f>
         <v>0.021626271</v>
       </c>
-      <c r="AJ12" s="19">
+      <c r="AJ12" s="20">
         <f>Confirmed!AJ11/Testing!AJ11</f>
         <v>0.02109655394</v>
       </c>
-      <c r="AK12" s="19">
+      <c r="AK12" s="20">
         <f>Confirmed!AK11/Testing!AK11</f>
         <v>0.02097658751</v>
       </c>
-      <c r="AL12" s="19">
+      <c r="AL12" s="20">
         <f>Confirmed!AL11/Testing!AL11</f>
         <v>0.02097388109</v>
       </c>
-      <c r="AM12" s="19">
+      <c r="AM12" s="20">
         <f>Confirmed!AM11/Testing!AM11</f>
         <v>0.02000887093</v>
       </c>
-      <c r="AN12" s="19">
+      <c r="AN12" s="20">
         <f>Confirmed!AN11/Testing!AN11</f>
         <v>0.019527622</v>
       </c>
-      <c r="AO12" s="19">
+      <c r="AO12" s="20">
         <f>Confirmed!AO11/Testing!AO11</f>
         <v>0.01916756085</v>
       </c>
-      <c r="AP12" s="19">
+      <c r="AP12" s="20">
         <f>Confirmed!AP11/Testing!AP11</f>
         <v>0.01864054101</v>
       </c>
-      <c r="AQ12" s="19">
+      <c r="AQ12" s="20">
         <f>Confirmed!AQ11/Testing!AQ11</f>
         <v>0.01878032022</v>
       </c>
-      <c r="AR12" s="19">
+      <c r="AR12" s="20">
         <f>Confirmed!AR11/Testing!AR11</f>
         <v>0.01829286371</v>
       </c>
-      <c r="AS12" s="19">
+      <c r="AS12" s="20">
         <f>Confirmed!AS11/Testing!AS11</f>
         <v>0.01792501525</v>
       </c>
-      <c r="AT12" s="19">
+      <c r="AT12" s="20">
         <f>Confirmed!AT11/Testing!AT11</f>
         <v>0.01739300894</v>
       </c>
-      <c r="AU12" s="19">
+      <c r="AU12" s="20">
         <f>Confirmed!AU11/Testing!AU11</f>
         <v>0.01683579336</v>
       </c>
-      <c r="AV12" s="19">
+      <c r="AV12" s="20">
         <f>Confirmed!AV11/Testing!AV11</f>
         <v>0.01656876779</v>
       </c>
-      <c r="AW12" s="19">
+      <c r="AW12" s="20">
         <f>Confirmed!AW11/Testing!AW11</f>
         <v>0.01632685192</v>
       </c>
-      <c r="AX12" s="19">
+      <c r="AX12" s="20">
         <f>Confirmed!AX11/Testing!AX11</f>
         <v>0.01611199155</v>
       </c>
-      <c r="AY12" s="19">
+      <c r="AY12" s="20">
         <f>Confirmed!AY11/Testing!AY11</f>
         <v>0.01594459074</v>
       </c>
-      <c r="AZ12" s="19">
+      <c r="AZ12" s="20">
         <f>Confirmed!AZ11/Testing!AZ11</f>
         <v>0.0156513797</v>
       </c>
-      <c r="BA12" s="19"/>
+      <c r="BA12" s="20">
+        <f>Confirmed!BA11/Testing!BA11</f>
+        <v>0.01536969089</v>
+      </c>
+      <c r="BB12" s="20"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -12457,16 +12817,16 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>1263875.0</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>4027160.0</v>
       </c>
     </row>
@@ -12474,7 +12834,7 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>4592187.0</v>
       </c>
     </row>
@@ -12482,7 +12842,7 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>5982584.0</v>
       </c>
     </row>
@@ -12490,7 +12850,7 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>6712276.0</v>
       </c>
     </row>
@@ -12498,7 +12858,7 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>2887465.0</v>
       </c>
     </row>
@@ -12506,7 +12866,7 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -12514,7 +12874,7 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>6844272.0</v>
       </c>
     </row>
@@ -12522,7 +12882,7 @@
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -13529,7 +13889,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="53" width="9.88"/>
+    <col customWidth="1" min="44" max="54" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -13686,12 +14046,15 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="3">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -13889,7 +14252,7 @@
         <v>22069.0</v>
       </c>
       <c r="AX2" s="1">
-        <f t="shared" ref="AX2:AZ2" si="3">ROUND($AW2/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX2:BA2" si="3">ROUND($AW2/$AW$12*AX$12,0)</f>
         <v>23021</v>
       </c>
       <c r="AY2" s="1">
@@ -13900,7 +14263,11 @@
         <f t="shared" si="3"/>
         <v>25108</v>
       </c>
-      <c r="BA2" s="1"/>
+      <c r="BA2" s="1">
+        <f t="shared" si="3"/>
+        <v>26326</v>
+      </c>
+      <c r="BB2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -14097,7 +14464,7 @@
         <v>3683.0</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AZ3" si="6">ROUND($AW3/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX3:BA3" si="6">ROUND($AW3/$AW$12*AX$12,0)</f>
         <v>3842</v>
       </c>
       <c r="AY3" s="1">
@@ -14108,7 +14475,11 @@
         <f t="shared" si="6"/>
         <v>4190</v>
       </c>
-      <c r="BA3" s="1"/>
+      <c r="BA3" s="1">
+        <f t="shared" si="6"/>
+        <v>4393</v>
+      </c>
+      <c r="BB3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -14305,7 +14676,7 @@
         <v>5812.0</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" ref="AX4:AZ4" si="9">ROUND($AW4/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX4:BA4" si="9">ROUND($AW4/$AW$12*AX$12,0)</f>
         <v>6063</v>
       </c>
       <c r="AY4" s="1">
@@ -14316,7 +14687,11 @@
         <f t="shared" si="9"/>
         <v>6612</v>
       </c>
-      <c r="BA4" s="1"/>
+      <c r="BA4" s="1">
+        <f t="shared" si="9"/>
+        <v>6933</v>
+      </c>
+      <c r="BB4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -14513,7 +14888,7 @@
         <v>11414.0</v>
       </c>
       <c r="AX5" s="1">
-        <f t="shared" ref="AX5:AZ5" si="12">ROUND($AW5/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX5:BA5" si="12">ROUND($AW5/$AW$12*AX$12,0)</f>
         <v>11906</v>
       </c>
       <c r="AY5" s="1">
@@ -14524,7 +14899,11 @@
         <f t="shared" si="12"/>
         <v>12986</v>
       </c>
-      <c r="BA5" s="1"/>
+      <c r="BA5" s="1">
+        <f t="shared" si="12"/>
+        <v>13616</v>
+      </c>
+      <c r="BB5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -14721,7 +15100,7 @@
         <v>8239.0</v>
       </c>
       <c r="AX6" s="1">
-        <f t="shared" ref="AX6:AZ6" si="15">ROUND($AW6/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX6:BA6" si="15">ROUND($AW6/$AW$12*AX$12,0)</f>
         <v>8594</v>
       </c>
       <c r="AY6" s="1">
@@ -14732,7 +15111,11 @@
         <f t="shared" si="15"/>
         <v>9374</v>
       </c>
-      <c r="BA6" s="1"/>
+      <c r="BA6" s="1">
+        <f t="shared" si="15"/>
+        <v>9828</v>
+      </c>
+      <c r="BB6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -14929,7 +15312,7 @@
         <v>38122.0</v>
       </c>
       <c r="AX7" s="1">
-        <f t="shared" ref="AX7:AZ7" si="18">ROUND($AW7/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX7:BA7" si="18">ROUND($AW7/$AW$12*AX$12,0)</f>
         <v>39766</v>
       </c>
       <c r="AY7" s="1">
@@ -14940,7 +15323,11 @@
         <f t="shared" si="18"/>
         <v>43372</v>
       </c>
-      <c r="BA7" s="1"/>
+      <c r="BA7" s="1">
+        <f t="shared" si="18"/>
+        <v>45475</v>
+      </c>
+      <c r="BB7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -15137,7 +15524,7 @@
         <v>19265.0</v>
       </c>
       <c r="AX8" s="1">
-        <f t="shared" ref="AX8:AZ8" si="21">ROUND($AW8/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX8:BA8" si="21">ROUND($AW8/$AW$12*AX$12,0)</f>
         <v>20096</v>
       </c>
       <c r="AY8" s="1">
@@ -15148,7 +15535,11 @@
         <f t="shared" si="21"/>
         <v>21918</v>
       </c>
-      <c r="BA8" s="1"/>
+      <c r="BA8" s="1">
+        <f t="shared" si="21"/>
+        <v>22981</v>
+      </c>
+      <c r="BB8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -15345,7 +15736,7 @@
         <v>67853.0</v>
       </c>
       <c r="AX9" s="1">
-        <f t="shared" ref="AX9:AZ9" si="24">ROUND($AW9/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX9:BA9" si="24">ROUND($AW9/$AW$12*AX$12,0)</f>
         <v>70780</v>
       </c>
       <c r="AY9" s="1">
@@ -15356,7 +15747,11 @@
         <f t="shared" si="24"/>
         <v>77197</v>
       </c>
-      <c r="BA9" s="1"/>
+      <c r="BA9" s="1">
+        <f t="shared" si="24"/>
+        <v>80941</v>
+      </c>
+      <c r="BB9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -15553,7 +15948,7 @@
         <v>82865.0</v>
       </c>
       <c r="AX10" s="1">
-        <f t="shared" ref="AX10:AZ10" si="27">ROUND($AW10/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX10:BA10" si="27">ROUND($AW10/$AW$12*AX$12,0)</f>
         <v>86440</v>
       </c>
       <c r="AY10" s="1">
@@ -15564,7 +15959,11 @@
         <f t="shared" si="27"/>
         <v>94277</v>
       </c>
-      <c r="BA10" s="1"/>
+      <c r="BA10" s="1">
+        <f t="shared" si="27"/>
+        <v>98848</v>
+      </c>
+      <c r="BB10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -15761,7 +16160,7 @@
         <v>127030.0</v>
       </c>
       <c r="AX11" s="1">
-        <f t="shared" ref="AX11:AZ11" si="30">ROUND($AW11/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX11:BA11" si="30">ROUND($AW11/$AW$12*AX$12,0)</f>
         <v>132510</v>
       </c>
       <c r="AY11" s="1">
@@ -15772,164 +16171,171 @@
         <f t="shared" si="30"/>
         <v>144524</v>
       </c>
-      <c r="BA11" s="1"/>
+      <c r="BA11" s="1">
+        <f t="shared" si="30"/>
+        <v>151532</v>
+      </c>
+      <c r="BB11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="9">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="9">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="9">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="9">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="9">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="9">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="9">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="9">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="9">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="9">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="9">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="9">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="9">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="9">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="9">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="9">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="9">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AE12" s="9">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="9">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="9">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="9">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="9">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="9">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AK12" s="9">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AL12" s="9">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AM12" s="9">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="8">
+      <c r="AN12" s="9">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="8">
+      <c r="AO12" s="9">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="10">
+      <c r="AP12" s="11">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AQ12" s="9">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AR12" s="9">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="8">
+      <c r="AS12" s="9">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="9">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AU12" s="9">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="8">
+      <c r="AV12" s="9">
         <v>369697.0</v>
       </c>
       <c r="AW12" s="11">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="8">
+      <c r="AX12" s="9">
         <v>403018.0</v>
       </c>
-      <c r="AY12" s="8">
+      <c r="AY12" s="9">
         <v>421555.0</v>
       </c>
-      <c r="AZ12" s="8">
+      <c r="AZ12" s="9">
         <v>439559.0</v>
+      </c>
+      <c r="BA12" s="9">
+        <v>460873.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -15937,7 +16343,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" ref="B13:BA13" si="31">sum(B2:B11)</f>
+        <f t="shared" ref="B13:BB13" si="31">sum(B2:B11)</f>
         <v>28536</v>
       </c>
       <c r="C13" s="13">
@@ -16141,6 +16547,10 @@
         <v>439558</v>
       </c>
       <c r="BA13" s="13">
+        <f t="shared" si="31"/>
+        <v>460873</v>
+      </c>
+      <c r="BB13" s="13">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -16226,6 +16636,7 @@
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -19404,154 +19815,154 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="9">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="9">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="9">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="9">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="9">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="9">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="9">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="9">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="9">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="9">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="9">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="9">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="9">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="9">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="9">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="9">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="9">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AE12" s="9">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="9">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="9">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="9">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="9">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="9">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AK12" s="9">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AL12" s="9">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AM12" s="9">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="8">
+      <c r="AN12" s="9">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="8">
+      <c r="AO12" s="9">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="10">
+      <c r="AP12" s="11">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AQ12" s="9">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AR12" s="9">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="8">
+      <c r="AS12" s="9">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="9">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AU12" s="9">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="8">
+      <c r="AV12" s="9">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="8">
+      <c r="AW12" s="9">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="8">
+      <c r="AX12" s="9">
         <v>403018.0</v>
       </c>
     </row>
@@ -19840,7 +20251,7 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>1263875.0</v>
       </c>
     </row>
@@ -19848,7 +20259,7 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>4027160.0</v>
       </c>
     </row>
@@ -19856,7 +20267,7 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>4592187.0</v>
       </c>
     </row>
@@ -19864,7 +20275,7 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>5982584.0</v>
       </c>
     </row>
@@ -19872,7 +20283,7 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>6712276.0</v>
       </c>
     </row>
@@ -19880,7 +20291,7 @@
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>2887465.0</v>
       </c>
     </row>
@@ -19888,7 +20299,7 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -19896,7 +20307,7 @@
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>6844272.0</v>
       </c>
     </row>
@@ -19904,7 +20315,7 @@
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -20910,7 +21321,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="53" width="8.88"/>
+    <col customWidth="1" min="46" max="54" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -21067,12 +21478,15 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="3">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -21227,6 +21641,7 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -21385,7 +21800,10 @@
       <c r="AZ3" s="4">
         <v>0.0</v>
       </c>
-      <c r="BA3" s="4"/>
+      <c r="BA3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -21544,7 +21962,10 @@
       <c r="AZ4" s="4">
         <v>1.0</v>
       </c>
-      <c r="BA4" s="4"/>
+      <c r="BA4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BB4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -21703,7 +22124,10 @@
       <c r="AZ5" s="4">
         <v>0.0</v>
       </c>
-      <c r="BA5" s="4"/>
+      <c r="BA5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -21862,7 +22286,10 @@
       <c r="AZ6" s="4">
         <v>3.0</v>
       </c>
-      <c r="BA6" s="4"/>
+      <c r="BA6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BB6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -22021,7 +22448,10 @@
       <c r="AZ7" s="4">
         <v>32.0</v>
       </c>
-      <c r="BA7" s="4"/>
+      <c r="BA7" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="BB7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -22180,7 +22610,10 @@
       <c r="AZ8" s="4">
         <v>6.0</v>
       </c>
-      <c r="BA8" s="4"/>
+      <c r="BA8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BB8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -22339,7 +22772,10 @@
       <c r="AZ9" s="4">
         <v>45.0</v>
       </c>
-      <c r="BA9" s="4"/>
+      <c r="BA9" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BB9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -22498,7 +22934,10 @@
       <c r="AZ10" s="4">
         <v>149.0</v>
       </c>
-      <c r="BA10" s="4"/>
+      <c r="BA10" s="4">
+        <v>149.0</v>
+      </c>
+      <c r="BB10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -22657,7 +23096,10 @@
       <c r="AZ11" s="4">
         <v>25.0</v>
       </c>
-      <c r="BA11" s="4"/>
+      <c r="BA11" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="BB11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -23674,7 +24116,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="53" width="8.88"/>
+    <col customWidth="1" min="46" max="54" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -23831,12 +24273,15 @@
       <c r="AY1" s="7">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="8">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -23991,6 +24436,7 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -24149,7 +24595,10 @@
       <c r="AZ3" s="4">
         <v>24.0</v>
       </c>
-      <c r="BA3" s="4"/>
+      <c r="BA3" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="BB3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -24308,7 +24757,10 @@
       <c r="AZ4" s="4">
         <v>28.0</v>
       </c>
-      <c r="BA4" s="4"/>
+      <c r="BA4" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="BB4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -24467,7 +24919,10 @@
       <c r="AZ5" s="4">
         <v>49.0</v>
       </c>
-      <c r="BA5" s="4"/>
+      <c r="BA5" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="BB5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -24626,7 +25081,10 @@
       <c r="AZ6" s="4">
         <v>37.0</v>
       </c>
-      <c r="BA6" s="4"/>
+      <c r="BA6" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="BB6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -24785,7 +25243,10 @@
       <c r="AZ7" s="4">
         <v>746.0</v>
       </c>
-      <c r="BA7" s="4"/>
+      <c r="BA7" s="4">
+        <v>839.0</v>
+      </c>
+      <c r="BB7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -24944,7 +25405,10 @@
       <c r="AZ8" s="4">
         <v>108.0</v>
       </c>
-      <c r="BA8" s="4"/>
+      <c r="BA8" s="4">
+        <v>108.0</v>
+      </c>
+      <c r="BB8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -25103,7 +25567,10 @@
       <c r="AZ9" s="4">
         <v>806.0</v>
       </c>
-      <c r="BA9" s="4"/>
+      <c r="BA9" s="4">
+        <v>817.0</v>
+      </c>
+      <c r="BB9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -25262,7 +25729,10 @@
       <c r="AZ10" s="4">
         <v>3097.0</v>
       </c>
-      <c r="BA10" s="4"/>
+      <c r="BA10" s="4">
+        <v>3521.0</v>
+      </c>
+      <c r="BB10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -25421,7 +25891,10 @@
       <c r="AZ11" s="4">
         <v>1583.0</v>
       </c>
-      <c r="BA11" s="4"/>
+      <c r="BA11" s="4">
+        <v>1583.0</v>
+      </c>
+      <c r="BB11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -26437,7 +26910,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="53" width="7.63"/>
+    <col customWidth="1" min="37" max="54" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -26594,12 +27067,15 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="3">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -26795,8 +27271,9 @@
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
-      <c r="BA2" s="1">
-        <f>Confirmed!BA2-Deaths!AX2-Recoveries!AX2</f>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1">
+        <f>Confirmed!BB2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
     </row>
@@ -26805,7 +27282,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="15">
-        <f t="shared" ref="B3:BA3" si="1">sum(B4:B12)</f>
+        <f t="shared" ref="B3:BB3" si="1">sum(B4:B12)</f>
         <v>848</v>
       </c>
       <c r="C3" s="15">
@@ -27009,6 +27486,10 @@
         <v>7616</v>
       </c>
       <c r="BA3" s="15">
+        <f t="shared" si="1"/>
+        <v>8245</v>
+      </c>
+      <c r="BB3" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -27221,7 +27702,11 @@
         <f>Confirmed!AZ3-Deaths!AZ3-Recoveries!AZ3</f>
         <v>11</v>
       </c>
-      <c r="BA4" s="1"/>
+      <c r="BA4" s="1">
+        <f>Confirmed!BA3-Deaths!BA3-Recoveries!BA3</f>
+        <v>13</v>
+      </c>
+      <c r="BB4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -27431,7 +27916,11 @@
         <f>Confirmed!AZ4-Deaths!AZ4-Recoveries!AZ4</f>
         <v>35</v>
       </c>
-      <c r="BA5" s="1"/>
+      <c r="BA5" s="1">
+        <f>Confirmed!BA4-Deaths!BA4-Recoveries!BA4</f>
+        <v>41</v>
+      </c>
+      <c r="BB5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -27641,7 +28130,11 @@
         <f>Confirmed!AZ5-Deaths!AZ5-Recoveries!AZ5</f>
         <v>19</v>
       </c>
-      <c r="BA6" s="1"/>
+      <c r="BA6" s="1">
+        <f>Confirmed!BA5-Deaths!BA5-Recoveries!BA5</f>
+        <v>22</v>
+      </c>
+      <c r="BB6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -27851,7 +28344,11 @@
         <f>Confirmed!AZ6-Deaths!AZ6-Recoveries!AZ6</f>
         <v>19</v>
       </c>
-      <c r="BA7" s="1"/>
+      <c r="BA7" s="1">
+        <f>Confirmed!BA6-Deaths!BA6-Recoveries!BA6</f>
+        <v>37</v>
+      </c>
+      <c r="BB7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -28061,7 +28558,11 @@
         <f>Confirmed!AZ7-Deaths!AZ7-Recoveries!AZ7</f>
         <v>1034</v>
       </c>
-      <c r="BA8" s="1"/>
+      <c r="BA8" s="1">
+        <f>Confirmed!BA7-Deaths!BA7-Recoveries!BA7</f>
+        <v>1062</v>
+      </c>
+      <c r="BB8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -28271,7 +28772,11 @@
         <f>Confirmed!AZ8-Deaths!AZ8-Recoveries!AZ8</f>
         <v>39</v>
       </c>
-      <c r="BA9" s="1"/>
+      <c r="BA9" s="1">
+        <f>Confirmed!BA8-Deaths!BA8-Recoveries!BA8</f>
+        <v>44</v>
+      </c>
+      <c r="BB9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -28481,7 +28986,11 @@
         <f>Confirmed!AZ9-Deaths!AZ9-Recoveries!AZ9</f>
         <v>647</v>
       </c>
-      <c r="BA10" s="1"/>
+      <c r="BA10" s="1">
+        <f>Confirmed!BA9-Deaths!BA9-Recoveries!BA9</f>
+        <v>681</v>
+      </c>
+      <c r="BB10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -28691,7 +29200,11 @@
         <f>Confirmed!AZ10-Deaths!AZ10-Recoveries!AZ10</f>
         <v>5158</v>
       </c>
-      <c r="BA11" s="1"/>
+      <c r="BA11" s="1">
+        <f>Confirmed!BA10-Deaths!BA10-Recoveries!BA10</f>
+        <v>5624</v>
+      </c>
+      <c r="BB11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -28901,12 +29414,16 @@
         <f>Confirmed!AZ11-Deaths!AZ11-Recoveries!AZ11</f>
         <v>654</v>
       </c>
-      <c r="BA12" s="1"/>
+      <c r="BA12" s="1">
+        <f>Confirmed!BA11-Deaths!BA11-Recoveries!BA11</f>
+        <v>721</v>
+      </c>
+      <c r="BB12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="16"/>
+      <c r="AK15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -29927,254 +30444,249 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
-        <v>43966.0</v>
-      </c>
-      <c r="C1" s="2">
-        <f t="shared" ref="C1:BE1" si="1">B1+5</f>
-        <v>43971</v>
-      </c>
-      <c r="D1" s="2">
-        <f t="shared" si="1"/>
-        <v>43976</v>
-      </c>
-      <c r="E1" s="2">
-        <f t="shared" si="1"/>
-        <v>43981</v>
-      </c>
-      <c r="F1" s="2">
-        <f t="shared" si="1"/>
-        <v>43986</v>
-      </c>
-      <c r="G1" s="2">
-        <f t="shared" si="1"/>
-        <v>43991</v>
-      </c>
-      <c r="H1" s="2">
-        <f t="shared" si="1"/>
-        <v>43996</v>
-      </c>
-      <c r="I1" s="2">
-        <f t="shared" si="1"/>
-        <v>44001</v>
-      </c>
-      <c r="J1" s="2">
-        <f t="shared" si="1"/>
-        <v>44006</v>
-      </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
-        <v>44011</v>
-      </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
-        <v>44016</v>
-      </c>
-      <c r="M1" s="2">
-        <f t="shared" si="1"/>
-        <v>44021</v>
-      </c>
-      <c r="N1" s="2">
-        <f t="shared" si="1"/>
-        <v>44026</v>
-      </c>
-      <c r="O1" s="2">
-        <f t="shared" si="1"/>
-        <v>44031</v>
-      </c>
-      <c r="P1" s="2">
-        <f t="shared" si="1"/>
-        <v>44036</v>
-      </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="1"/>
-        <v>44041</v>
-      </c>
-      <c r="R1" s="2">
-        <f t="shared" si="1"/>
-        <v>44046</v>
-      </c>
-      <c r="S1" s="2">
-        <f t="shared" si="1"/>
-        <v>44051</v>
-      </c>
-      <c r="T1" s="2">
-        <f t="shared" si="1"/>
-        <v>44056</v>
-      </c>
-      <c r="U1" s="2">
-        <f t="shared" si="1"/>
-        <v>44061</v>
-      </c>
-      <c r="V1" s="2">
-        <f t="shared" si="1"/>
-        <v>44066</v>
-      </c>
-      <c r="W1" s="2">
-        <f t="shared" si="1"/>
-        <v>44071</v>
-      </c>
-      <c r="X1" s="2">
-        <f t="shared" si="1"/>
-        <v>44076</v>
-      </c>
-      <c r="Y1" s="2">
-        <f t="shared" si="1"/>
-        <v>44081</v>
-      </c>
-      <c r="Z1" s="2">
-        <f t="shared" si="1"/>
-        <v>44086</v>
-      </c>
-      <c r="AA1" s="2">
-        <f t="shared" si="1"/>
-        <v>44091</v>
-      </c>
-      <c r="AB1" s="2">
-        <f t="shared" si="1"/>
-        <v>44096</v>
-      </c>
-      <c r="AC1" s="2">
-        <f t="shared" si="1"/>
-        <v>44101</v>
-      </c>
-      <c r="AD1" s="2">
-        <f t="shared" si="1"/>
-        <v>44106</v>
-      </c>
-      <c r="AE1" s="2">
-        <f t="shared" si="1"/>
-        <v>44111</v>
-      </c>
-      <c r="AF1" s="2">
-        <f t="shared" si="1"/>
-        <v>44116</v>
-      </c>
-      <c r="AG1" s="2">
-        <f t="shared" si="1"/>
-        <v>44121</v>
-      </c>
-      <c r="AH1" s="2">
-        <f t="shared" si="1"/>
-        <v>44126</v>
-      </c>
-      <c r="AI1" s="2">
-        <f t="shared" si="1"/>
-        <v>44131</v>
-      </c>
-      <c r="AJ1" s="2">
-        <f t="shared" si="1"/>
-        <v>44136</v>
-      </c>
-      <c r="AK1" s="2">
-        <f t="shared" si="1"/>
-        <v>44141</v>
-      </c>
-      <c r="AL1" s="2">
-        <f t="shared" si="1"/>
-        <v>44146</v>
-      </c>
-      <c r="AM1" s="2">
-        <f t="shared" si="1"/>
-        <v>44151</v>
-      </c>
-      <c r="AN1" s="2">
-        <f t="shared" si="1"/>
-        <v>44156</v>
-      </c>
-      <c r="AO1" s="2">
-        <f t="shared" si="1"/>
-        <v>44161</v>
-      </c>
-      <c r="AP1" s="2">
-        <f t="shared" si="1"/>
-        <v>44166</v>
-      </c>
-      <c r="AQ1" s="2">
-        <f t="shared" si="1"/>
-        <v>44171</v>
-      </c>
-      <c r="AR1" s="2">
-        <f t="shared" si="1"/>
-        <v>44176</v>
-      </c>
-      <c r="AS1" s="2">
-        <f t="shared" si="1"/>
-        <v>44181</v>
-      </c>
-      <c r="AT1" s="2">
-        <f t="shared" si="1"/>
-        <v>44186</v>
-      </c>
-      <c r="AU1" s="2">
-        <f t="shared" si="1"/>
-        <v>44191</v>
-      </c>
-      <c r="AV1" s="2">
-        <f t="shared" si="1"/>
-        <v>44196</v>
-      </c>
-      <c r="AW1" s="2">
-        <f t="shared" si="1"/>
-        <v>44201</v>
-      </c>
-      <c r="AX1" s="2">
-        <f t="shared" si="1"/>
-        <v>44206</v>
-      </c>
-      <c r="AY1" s="2">
-        <f t="shared" si="1"/>
-        <v>44211</v>
-      </c>
-      <c r="AZ1" s="2">
-        <f t="shared" si="1"/>
-        <v>44216</v>
-      </c>
-      <c r="BA1" s="2">
-        <f t="shared" si="1"/>
-        <v>44221</v>
-      </c>
-      <c r="BB1" s="2">
-        <f t="shared" si="1"/>
-        <v>44226</v>
-      </c>
-      <c r="BC1" s="2">
-        <f t="shared" si="1"/>
-        <v>44231</v>
-      </c>
-      <c r="BD1" s="2">
-        <f t="shared" si="1"/>
-        <v>44236</v>
-      </c>
-      <c r="BE1" s="2">
-        <f t="shared" si="1"/>
-        <v>44241</v>
-      </c>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD1" s="16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -30367,7 +30879,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1">
-        <f>Confirmed!BA2-Deaths!AX2-Recoveries!AX2</f>
+        <f>Confirmed!BB2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1"/>
@@ -30408,285 +30920,360 @@
         <v>14</v>
       </c>
       <c r="B3" s="15">
-        <f t="shared" ref="B3:BE3" si="2">sum(B4:B12)</f>
-        <v>7194</v>
+        <f t="shared" ref="B3:CD3" si="1">sum(B4:B12)</f>
+        <v>8245</v>
       </c>
       <c r="C3" s="15">
-        <f t="shared" si="2"/>
-        <v>7372</v>
+        <f t="shared" si="1"/>
+        <v>8496</v>
       </c>
       <c r="D3" s="15">
-        <f t="shared" si="2"/>
-        <v>7757</v>
+        <f t="shared" si="1"/>
+        <v>9030</v>
       </c>
       <c r="E3" s="15">
-        <f t="shared" si="2"/>
-        <v>8170</v>
+        <f t="shared" si="1"/>
+        <v>9613</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" si="2"/>
-        <v>8520</v>
+        <f t="shared" si="1"/>
+        <v>10115</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" si="2"/>
-        <v>8790</v>
+        <f t="shared" si="1"/>
+        <v>10531</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" si="2"/>
-        <v>9411</v>
+        <f t="shared" si="1"/>
+        <v>11361</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" si="2"/>
-        <v>9835</v>
+        <f t="shared" si="1"/>
+        <v>11952</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" si="2"/>
-        <v>10360</v>
+        <f t="shared" si="1"/>
+        <v>12650</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" si="2"/>
-        <v>10501</v>
+        <f t="shared" si="1"/>
+        <v>12857</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" si="2"/>
-        <v>10856</v>
+        <f t="shared" si="1"/>
+        <v>13312</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" si="2"/>
-        <v>10863</v>
+        <f t="shared" si="1"/>
+        <v>13307</v>
       </c>
       <c r="N3" s="15">
-        <f t="shared" si="2"/>
-        <v>10976</v>
+        <f t="shared" si="1"/>
+        <v>13417</v>
       </c>
       <c r="O3" s="15">
-        <f t="shared" si="2"/>
-        <v>10491</v>
+        <f t="shared" si="1"/>
+        <v>12775</v>
       </c>
       <c r="P3" s="15">
-        <f t="shared" si="2"/>
-        <v>9906</v>
+        <f t="shared" si="1"/>
+        <v>12001</v>
       </c>
       <c r="Q3" s="15">
-        <f t="shared" si="2"/>
-        <v>8958</v>
+        <f t="shared" si="1"/>
+        <v>10785</v>
       </c>
       <c r="R3" s="15">
-        <f t="shared" si="2"/>
-        <v>8174</v>
+        <f t="shared" si="1"/>
+        <v>9778</v>
       </c>
       <c r="S3" s="15">
-        <f t="shared" si="2"/>
-        <v>7586</v>
+        <f t="shared" si="1"/>
+        <v>9008</v>
       </c>
       <c r="T3" s="15">
-        <f t="shared" si="2"/>
-        <v>7295</v>
+        <f t="shared" si="1"/>
+        <v>8601</v>
       </c>
       <c r="U3" s="15">
-        <f t="shared" si="2"/>
-        <v>6651</v>
+        <f t="shared" si="1"/>
+        <v>7782</v>
       </c>
       <c r="V3" s="15">
-        <f t="shared" si="2"/>
-        <v>6303</v>
+        <f t="shared" si="1"/>
+        <v>7318</v>
       </c>
       <c r="W3" s="15">
-        <f t="shared" si="2"/>
-        <v>5686</v>
+        <f t="shared" si="1"/>
+        <v>6549</v>
       </c>
       <c r="X3" s="15">
-        <f t="shared" si="2"/>
-        <v>5153</v>
+        <f t="shared" si="1"/>
+        <v>5888</v>
       </c>
       <c r="Y3" s="15">
-        <f t="shared" si="2"/>
-        <v>4614</v>
+        <f t="shared" si="1"/>
+        <v>5230</v>
       </c>
       <c r="Z3" s="15">
-        <f t="shared" si="2"/>
-        <v>4127</v>
+        <f t="shared" si="1"/>
+        <v>4640</v>
       </c>
       <c r="AA3" s="15">
-        <f t="shared" si="2"/>
-        <v>3858</v>
+        <f t="shared" si="1"/>
+        <v>4307</v>
       </c>
       <c r="AB3" s="15">
-        <f t="shared" si="2"/>
-        <v>3440</v>
+        <f t="shared" si="1"/>
+        <v>3809</v>
       </c>
       <c r="AC3" s="15">
-        <f t="shared" si="2"/>
-        <v>3162</v>
+        <f t="shared" si="1"/>
+        <v>3475</v>
       </c>
       <c r="AD3" s="15">
-        <f t="shared" si="2"/>
-        <v>2924</v>
+        <f t="shared" si="1"/>
+        <v>3190</v>
       </c>
       <c r="AE3" s="15">
-        <f t="shared" si="2"/>
-        <v>2559</v>
+        <f t="shared" si="1"/>
+        <v>2771</v>
       </c>
       <c r="AF3" s="15">
-        <f t="shared" si="2"/>
-        <v>2239</v>
+        <f t="shared" si="1"/>
+        <v>2408</v>
       </c>
       <c r="AG3" s="15">
-        <f t="shared" si="2"/>
-        <v>1985</v>
+        <f t="shared" si="1"/>
+        <v>2119</v>
       </c>
       <c r="AH3" s="15">
-        <f t="shared" si="2"/>
-        <v>1778</v>
+        <f t="shared" si="1"/>
+        <v>1884</v>
       </c>
       <c r="AI3" s="15">
-        <f t="shared" si="2"/>
-        <v>1619</v>
+        <f t="shared" si="1"/>
+        <v>1705</v>
       </c>
       <c r="AJ3" s="15">
-        <f t="shared" si="2"/>
-        <v>1396</v>
+        <f t="shared" si="1"/>
+        <v>1461</v>
       </c>
       <c r="AK3" s="15">
-        <f t="shared" si="2"/>
-        <v>1251</v>
+        <f t="shared" si="1"/>
+        <v>1300</v>
       </c>
       <c r="AL3" s="15">
-        <f t="shared" si="2"/>
-        <v>1097</v>
+        <f t="shared" si="1"/>
+        <v>1134</v>
       </c>
       <c r="AM3" s="15">
-        <f t="shared" si="2"/>
-        <v>982</v>
+        <f t="shared" si="1"/>
+        <v>1007</v>
       </c>
       <c r="AN3" s="15">
-        <f t="shared" si="2"/>
-        <v>836</v>
+        <f t="shared" si="1"/>
+        <v>853</v>
       </c>
       <c r="AO3" s="15">
-        <f t="shared" si="2"/>
-        <v>758</v>
+        <f t="shared" si="1"/>
+        <v>768</v>
       </c>
       <c r="AP3" s="15">
-        <f t="shared" si="2"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>666</v>
       </c>
       <c r="AQ3" s="15">
-        <f t="shared" si="2"/>
-        <v>596</v>
+        <f t="shared" si="1"/>
+        <v>597</v>
       </c>
       <c r="AR3" s="15">
-        <f t="shared" si="2"/>
-        <v>510</v>
+        <f t="shared" si="1"/>
+        <v>508</v>
       </c>
       <c r="AS3" s="15">
-        <f t="shared" si="2"/>
-        <v>427</v>
+        <f t="shared" si="1"/>
+        <v>424</v>
       </c>
       <c r="AT3" s="15">
-        <f t="shared" si="2"/>
-        <v>380</v>
+        <f t="shared" si="1"/>
+        <v>375</v>
       </c>
       <c r="AU3" s="15">
-        <f t="shared" si="2"/>
-        <v>330</v>
+        <f t="shared" si="1"/>
+        <v>324</v>
       </c>
       <c r="AV3" s="15">
-        <f t="shared" si="2"/>
-        <v>298</v>
+        <f t="shared" si="1"/>
+        <v>291</v>
       </c>
       <c r="AW3" s="15">
-        <f t="shared" si="2"/>
-        <v>252</v>
+        <f t="shared" si="1"/>
+        <v>246</v>
       </c>
       <c r="AX3" s="15">
-        <f t="shared" si="2"/>
-        <v>218</v>
+        <f t="shared" si="1"/>
+        <v>211</v>
       </c>
       <c r="AY3" s="15">
-        <f t="shared" si="2"/>
-        <v>193</v>
+        <f t="shared" si="1"/>
+        <v>187</v>
       </c>
       <c r="AZ3" s="15">
-        <f t="shared" si="2"/>
-        <v>159</v>
+        <f t="shared" si="1"/>
+        <v>153</v>
       </c>
       <c r="BA3" s="15">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <f t="shared" si="1"/>
+        <v>139</v>
       </c>
       <c r="BB3" s="15">
-        <f t="shared" si="2"/>
-        <v>131</v>
+        <f t="shared" si="1"/>
+        <v>124</v>
       </c>
       <c r="BC3" s="15">
-        <f t="shared" si="2"/>
-        <v>114</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="BD3" s="15">
-        <f t="shared" si="2"/>
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="BE3" s="15">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="15"/>
-      <c r="BP3" s="15"/>
-      <c r="BQ3" s="15"/>
-      <c r="BR3" s="15"/>
-      <c r="BS3" s="15"/>
-      <c r="BT3" s="15"/>
-      <c r="BU3" s="15"/>
-      <c r="BV3" s="15"/>
-      <c r="BW3" s="15"/>
-      <c r="BX3" s="15"/>
-      <c r="BY3" s="15"/>
-      <c r="BZ3" s="15"/>
-      <c r="CA3" s="15"/>
-      <c r="CB3" s="15"/>
-      <c r="CC3" s="15"/>
-      <c r="CD3" s="15"/>
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="BF3" s="15">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="BG3" s="15">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="BH3" s="15">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="BI3" s="15">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="BJ3" s="15">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="BK3" s="15">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="BL3" s="15">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="BM3" s="15">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="BN3" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="BO3" s="15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="BP3" s="15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="BQ3" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="BR3" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="BS3" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="BT3" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="BU3" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="BV3" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BW3" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BX3" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="BY3" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="BZ3" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CA3" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CB3" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CC3" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CD3" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C4" s="4">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="D4" s="4">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E4" s="4">
         <v>8.0</v>
       </c>
       <c r="F4" s="4">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" s="4">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H4" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I4" s="4">
         <v>3.0</v>
       </c>
       <c r="J4" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K4" s="4">
         <v>2.0</v>
@@ -30707,7 +31294,7 @@
         <v>1.0</v>
       </c>
       <c r="Q4" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R4" s="4">
         <v>0.0</v>
@@ -30910,40 +31497,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
       <c r="C5" s="4">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="D5" s="4">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="E5" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="F5" s="4">
         <v>19.0</v>
       </c>
-      <c r="F5" s="4">
-        <v>16.0</v>
-      </c>
       <c r="G5" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="H5" s="4">
         <v>12.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>10.0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>8.0</v>
       </c>
-      <c r="J5" s="4">
-        <v>7.0</v>
-      </c>
       <c r="K5" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L5" s="4">
         <v>5.0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>4.0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>3.0</v>
       </c>
       <c r="N5" s="4">
         <v>3.0</v>
@@ -30955,7 +31542,7 @@
         <v>2.0</v>
       </c>
       <c r="Q5" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R5" s="4">
         <v>1.0</v>
@@ -30970,7 +31557,7 @@
         <v>1.0</v>
       </c>
       <c r="V5" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W5" s="4">
         <v>0.0</v>
@@ -31158,25 +31745,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C6" s="4">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="D6" s="4">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E6" s="4">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F6" s="4">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G6" s="4">
         <v>7.0</v>
       </c>
       <c r="H6" s="4">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I6" s="4">
         <v>4.0</v>
@@ -31185,13 +31772,13 @@
         <v>3.0</v>
       </c>
       <c r="K6" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L6" s="4">
         <v>2.0</v>
       </c>
       <c r="M6" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N6" s="4">
         <v>1.0</v>
@@ -31203,7 +31790,7 @@
         <v>1.0</v>
       </c>
       <c r="Q6" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R6" s="4">
         <v>0.0</v>
@@ -31406,64 +31993,64 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>18.0</v>
+        <v>37.0</v>
       </c>
       <c r="C7" s="4">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="D7" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="G7" s="4">
         <v>13.0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="H7" s="4">
         <v>10.0</v>
       </c>
-      <c r="F7" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="I7" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J7" s="4">
         <v>6.0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="K7" s="4">
         <v>4.0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="L7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M7" s="4">
         <v>3.0</v>
       </c>
-      <c r="J7" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="N7" s="4">
         <v>2.0</v>
       </c>
-      <c r="L7" s="4">
+      <c r="O7" s="4">
         <v>2.0</v>
       </c>
-      <c r="M7" s="4">
+      <c r="P7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>1.0</v>
       </c>
-      <c r="N7" s="4">
+      <c r="R7" s="4">
         <v>1.0</v>
       </c>
-      <c r="O7" s="4">
+      <c r="S7" s="4">
         <v>1.0</v>
       </c>
-      <c r="P7" s="4">
+      <c r="T7" s="4">
         <v>1.0</v>
       </c>
-      <c r="Q7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0.0</v>
-      </c>
       <c r="U7" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V7" s="4">
         <v>0.0</v>
@@ -31654,214 +32241,214 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>988.0</v>
+        <v>1062.0</v>
       </c>
       <c r="C8" s="4">
-        <v>952.0</v>
+        <v>1023.0</v>
       </c>
       <c r="D8" s="4">
-        <v>891.0</v>
+        <v>956.0</v>
       </c>
       <c r="E8" s="4">
-        <v>840.0</v>
+        <v>901.0</v>
       </c>
       <c r="F8" s="4">
-        <v>786.0</v>
+        <v>842.0</v>
       </c>
       <c r="G8" s="4">
-        <v>733.0</v>
+        <v>785.0</v>
       </c>
       <c r="H8" s="4">
-        <v>690.0</v>
+        <v>739.0</v>
       </c>
       <c r="I8" s="4">
-        <v>631.0</v>
+        <v>675.0</v>
       </c>
       <c r="J8" s="4">
-        <v>560.0</v>
+        <v>599.0</v>
       </c>
       <c r="K8" s="4">
-        <v>503.0</v>
+        <v>537.0</v>
       </c>
       <c r="L8" s="4">
-        <v>459.0</v>
+        <v>491.0</v>
       </c>
       <c r="M8" s="4">
+        <v>471.0</v>
+      </c>
+      <c r="N8" s="4">
         <v>441.0</v>
       </c>
-      <c r="N8" s="4">
-        <v>413.0</v>
-      </c>
       <c r="O8" s="4">
-        <v>380.0</v>
+        <v>406.0</v>
       </c>
       <c r="P8" s="4">
-        <v>369.0</v>
+        <v>393.0</v>
       </c>
       <c r="Q8" s="4">
-        <v>350.0</v>
+        <v>373.0</v>
       </c>
       <c r="R8" s="4">
-        <v>312.0</v>
+        <v>333.0</v>
       </c>
       <c r="S8" s="4">
-        <v>304.0</v>
+        <v>324.0</v>
       </c>
       <c r="T8" s="4">
-        <v>272.0</v>
+        <v>290.0</v>
       </c>
       <c r="U8" s="4">
-        <v>257.0</v>
+        <v>273.0</v>
       </c>
       <c r="V8" s="4">
-        <v>242.0</v>
+        <v>258.0</v>
       </c>
       <c r="W8" s="4">
-        <v>222.0</v>
+        <v>237.0</v>
       </c>
       <c r="X8" s="4">
-        <v>205.0</v>
+        <v>219.0</v>
       </c>
       <c r="Y8" s="4">
-        <v>191.0</v>
+        <v>203.0</v>
       </c>
       <c r="Z8" s="4">
-        <v>170.0</v>
+        <v>181.0</v>
       </c>
       <c r="AA8" s="4">
-        <v>153.0</v>
+        <v>163.0</v>
       </c>
       <c r="AB8" s="4">
-        <v>145.0</v>
+        <v>154.0</v>
       </c>
       <c r="AC8" s="4">
-        <v>138.0</v>
+        <v>147.0</v>
       </c>
       <c r="AD8" s="4">
+        <v>135.0</v>
+      </c>
+      <c r="AE8" s="4">
         <v>127.0</v>
       </c>
-      <c r="AE8" s="4">
-        <v>119.0</v>
-      </c>
       <c r="AF8" s="4">
-        <v>113.0</v>
+        <v>121.0</v>
       </c>
       <c r="AG8" s="4">
-        <v>104.0</v>
+        <v>111.0</v>
       </c>
       <c r="AH8" s="4">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="AI8" s="4">
-        <v>90.0</v>
+        <v>96.0</v>
       </c>
       <c r="AJ8" s="4">
-        <v>88.0</v>
+        <v>94.0</v>
       </c>
       <c r="AK8" s="4">
-        <v>82.0</v>
+        <v>87.0</v>
       </c>
       <c r="AL8" s="4">
-        <v>80.0</v>
+        <v>86.0</v>
       </c>
       <c r="AM8" s="4">
-        <v>72.0</v>
+        <v>76.0</v>
       </c>
       <c r="AN8" s="4">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="AO8" s="4">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="AP8" s="4">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="AQ8" s="4">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="AR8" s="4">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="AS8" s="4">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="AT8" s="4">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="AU8" s="4">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="AV8" s="4">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="AW8" s="4">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="AX8" s="4">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="AY8" s="4">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="AZ8" s="4">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="BA8" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="BB8" s="4">
         <v>21.0</v>
       </c>
-      <c r="BB8" s="4">
+      <c r="BC8" s="4">
         <v>20.0</v>
       </c>
-      <c r="BC8" s="4">
-        <v>18.0</v>
-      </c>
       <c r="BD8" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="BE8" s="4">
         <v>17.0</v>
       </c>
-      <c r="BE8" s="4">
+      <c r="BF8" s="4">
         <v>16.0</v>
       </c>
-      <c r="BF8" s="4">
+      <c r="BG8" s="4">
         <v>15.0</v>
       </c>
-      <c r="BG8" s="4">
-        <v>14.0</v>
-      </c>
       <c r="BH8" s="4">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="BI8" s="4">
         <v>12.0</v>
       </c>
       <c r="BJ8" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="BK8" s="4">
         <v>11.0</v>
       </c>
-      <c r="BK8" s="4">
+      <c r="BL8" s="4">
         <v>10.0</v>
       </c>
-      <c r="BL8" s="4">
+      <c r="BM8" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="BN8" s="4">
         <v>9.0</v>
       </c>
-      <c r="BM8" s="4">
+      <c r="BO8" s="4">
         <v>9.0</v>
       </c>
-      <c r="BN8" s="4">
+      <c r="BP8" s="4">
         <v>8.0</v>
       </c>
-      <c r="BO8" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="BP8" s="4">
+      <c r="BQ8" s="4">
         <v>7.0</v>
-      </c>
-      <c r="BQ8" s="4">
-        <v>6.0</v>
       </c>
       <c r="BR8" s="4">
         <v>6.0</v>
       </c>
       <c r="BS8" s="4">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="BT8" s="4">
         <v>5.0</v>
@@ -31870,10 +32457,10 @@
         <v>5.0</v>
       </c>
       <c r="BV8" s="4">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="BW8" s="4">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="BX8" s="4">
         <v>4.0</v>
@@ -31902,43 +32489,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="C9" s="4">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="D9" s="4">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="E9" s="4">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="F9" s="4">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="G9" s="4">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="H9" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="I9" s="4">
         <v>9.0</v>
       </c>
-      <c r="I9" s="4">
-        <v>8.0</v>
-      </c>
       <c r="J9" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="K9" s="4">
         <v>6.0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.0</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>4.0</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>3.0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>2.0</v>
       </c>
       <c r="O9" s="4">
         <v>2.0</v>
@@ -31959,7 +32546,7 @@
         <v>1.0</v>
       </c>
       <c r="U9" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V9" s="4">
         <v>0.0</v>
@@ -32150,82 +32737,82 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>642.0</v>
+        <v>681.0</v>
       </c>
       <c r="C10" s="4">
-        <v>576.0</v>
+        <v>611.0</v>
       </c>
       <c r="D10" s="4">
-        <v>485.0</v>
+        <v>514.0</v>
       </c>
       <c r="E10" s="4">
-        <v>409.0</v>
+        <v>433.0</v>
       </c>
       <c r="F10" s="4">
-        <v>354.0</v>
+        <v>374.0</v>
       </c>
       <c r="G10" s="4">
-        <v>286.0</v>
+        <v>302.0</v>
       </c>
       <c r="H10" s="4">
-        <v>246.0</v>
+        <v>259.0</v>
       </c>
       <c r="I10" s="4">
-        <v>203.0</v>
+        <v>214.0</v>
       </c>
       <c r="J10" s="4">
-        <v>166.0</v>
+        <v>175.0</v>
       </c>
       <c r="K10" s="4">
-        <v>136.0</v>
+        <v>143.0</v>
       </c>
       <c r="L10" s="4">
-        <v>117.0</v>
+        <v>123.0</v>
       </c>
       <c r="M10" s="4">
-        <v>100.0</v>
+        <v>105.0</v>
       </c>
       <c r="N10" s="4">
-        <v>83.0</v>
+        <v>87.0</v>
       </c>
       <c r="O10" s="4">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="P10" s="4">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="Q10" s="4">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="R10" s="4">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="S10" s="4">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="T10" s="4">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="U10" s="4">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="V10" s="4">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="W10" s="4">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="X10" s="4">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y10" s="4">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z10" s="4">
         <v>10.0</v>
       </c>
       <c r="AA10" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB10" s="4">
         <v>7.0</v>
@@ -32240,7 +32827,7 @@
         <v>4.0</v>
       </c>
       <c r="AF10" s="4">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AG10" s="4">
         <v>3.0</v>
@@ -32255,7 +32842,7 @@
         <v>2.0</v>
       </c>
       <c r="AK10" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AL10" s="4">
         <v>1.0</v>
@@ -32398,244 +32985,244 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>4804.0</v>
+        <v>5624.0</v>
       </c>
       <c r="C11" s="4">
-        <v>5136.0</v>
+        <v>6044.0</v>
       </c>
       <c r="D11" s="4">
-        <v>5779.0</v>
+        <v>6869.0</v>
       </c>
       <c r="E11" s="4">
-        <v>6410.0</v>
+        <v>7691.0</v>
       </c>
       <c r="F11" s="4">
-        <v>6943.0</v>
+        <v>8401.0</v>
       </c>
       <c r="G11" s="4">
-        <v>7427.0</v>
+        <v>9052.0</v>
       </c>
       <c r="H11" s="4">
-        <v>8190.0</v>
+        <v>10040.0</v>
       </c>
       <c r="I11" s="4">
-        <v>8771.0</v>
+        <v>10801.0</v>
       </c>
       <c r="J11" s="4">
-        <v>9438.0</v>
+        <v>11656.0</v>
       </c>
       <c r="K11" s="4">
-        <v>9702.0</v>
+        <v>11998.0</v>
       </c>
       <c r="L11" s="4">
-        <v>10152.0</v>
+        <v>12553.0</v>
       </c>
       <c r="M11" s="4">
-        <v>10219.0</v>
+        <v>12616.0</v>
       </c>
       <c r="N11" s="4">
-        <v>10399.0</v>
+        <v>12798.0</v>
       </c>
       <c r="O11" s="4">
-        <v>9972.0</v>
+        <v>12220.0</v>
       </c>
       <c r="P11" s="4">
-        <v>9423.0</v>
+        <v>11485.0</v>
       </c>
       <c r="Q11" s="4">
-        <v>8517.0</v>
+        <v>10315.0</v>
       </c>
       <c r="R11" s="4">
-        <v>7786.0</v>
+        <v>9363.0</v>
       </c>
       <c r="S11" s="4">
-        <v>7219.0</v>
+        <v>8616.0</v>
       </c>
       <c r="T11" s="4">
-        <v>6970.0</v>
+        <v>8254.0</v>
       </c>
       <c r="U11" s="4">
-        <v>6349.0</v>
+        <v>7459.0</v>
       </c>
       <c r="V11" s="4">
-        <v>6023.0</v>
+        <v>7019.0</v>
       </c>
       <c r="W11" s="4">
-        <v>5433.0</v>
+        <v>6279.0</v>
       </c>
       <c r="X11" s="4">
-        <v>4921.0</v>
+        <v>5640.0</v>
       </c>
       <c r="Y11" s="4">
-        <v>4401.0</v>
+        <v>5003.0</v>
       </c>
       <c r="Z11" s="4">
-        <v>3938.0</v>
+        <v>4440.0</v>
       </c>
       <c r="AA11" s="4">
-        <v>3690.0</v>
+        <v>4127.0</v>
       </c>
       <c r="AB11" s="4">
-        <v>3282.0</v>
+        <v>3641.0</v>
       </c>
       <c r="AC11" s="4">
-        <v>3013.0</v>
+        <v>3317.0</v>
       </c>
       <c r="AD11" s="4">
-        <v>2788.0</v>
+        <v>3045.0</v>
       </c>
       <c r="AE11" s="4">
-        <v>2432.0</v>
+        <v>2636.0</v>
       </c>
       <c r="AF11" s="4">
-        <v>2120.0</v>
+        <v>2280.0</v>
       </c>
       <c r="AG11" s="4">
-        <v>1875.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AH11" s="4">
-        <v>1678.0</v>
+        <v>1778.0</v>
       </c>
       <c r="AI11" s="4">
-        <v>1525.0</v>
+        <v>1605.0</v>
       </c>
       <c r="AJ11" s="4">
-        <v>1305.0</v>
+        <v>1364.0</v>
       </c>
       <c r="AK11" s="4">
-        <v>1167.0</v>
+        <v>1210.0</v>
       </c>
       <c r="AL11" s="4">
-        <v>1015.0</v>
+        <v>1046.0</v>
       </c>
       <c r="AM11" s="4">
-        <v>908.0</v>
+        <v>929.0</v>
       </c>
       <c r="AN11" s="4">
-        <v>766.0</v>
+        <v>778.0</v>
       </c>
       <c r="AO11" s="4">
-        <v>694.0</v>
+        <v>700.0</v>
       </c>
       <c r="AP11" s="4">
-        <v>603.0</v>
+        <v>605.0</v>
       </c>
       <c r="AQ11" s="4">
-        <v>545.0</v>
+        <v>543.0</v>
       </c>
       <c r="AR11" s="4">
-        <v>463.0</v>
+        <v>458.0</v>
       </c>
       <c r="AS11" s="4">
-        <v>382.0</v>
+        <v>376.0</v>
       </c>
       <c r="AT11" s="4">
-        <v>337.0</v>
+        <v>329.0</v>
       </c>
       <c r="AU11" s="4">
-        <v>289.0</v>
+        <v>280.0</v>
       </c>
       <c r="AV11" s="4">
-        <v>260.0</v>
+        <v>251.0</v>
       </c>
       <c r="AW11" s="4">
-        <v>219.0</v>
+        <v>210.0</v>
       </c>
       <c r="AX11" s="4">
-        <v>189.0</v>
+        <v>180.0</v>
       </c>
       <c r="AY11" s="4">
-        <v>167.0</v>
+        <v>159.0</v>
       </c>
       <c r="AZ11" s="4">
-        <v>137.0</v>
+        <v>129.0</v>
       </c>
       <c r="BA11" s="4">
-        <v>124.0</v>
+        <v>116.0</v>
       </c>
       <c r="BB11" s="4">
-        <v>111.0</v>
+        <v>103.0</v>
       </c>
       <c r="BC11" s="4">
-        <v>96.0</v>
+        <v>88.0</v>
       </c>
       <c r="BD11" s="4">
-        <v>81.0</v>
+        <v>74.0</v>
       </c>
       <c r="BE11" s="4">
-        <v>73.0</v>
+        <v>66.0</v>
       </c>
       <c r="BF11" s="4">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
       <c r="BG11" s="4">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="BH11" s="4">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
       <c r="BI11" s="4">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="BJ11" s="4">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="BK11" s="4">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="BL11" s="4">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="BM11" s="4">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="BN11" s="4">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="BO11" s="4">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="BP11" s="4">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="BQ11" s="4">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="BR11" s="4">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="BS11" s="4">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="BT11" s="4">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="BU11" s="4">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="BV11" s="4">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="BW11" s="4">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="BX11" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="BY11" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="BZ11" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="CA11" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="CB11" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="CC11" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="CD11" s="4">
         <v>2.0</v>
@@ -32646,91 +33233,91 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>634.0</v>
+        <v>721.0</v>
       </c>
       <c r="C12" s="4">
-        <v>596.0</v>
+        <v>677.0</v>
       </c>
       <c r="D12" s="4">
-        <v>514.0</v>
+        <v>582.0</v>
       </c>
       <c r="E12" s="4">
-        <v>442.0</v>
+        <v>500.0</v>
       </c>
       <c r="F12" s="4">
-        <v>381.0</v>
+        <v>430.0</v>
       </c>
       <c r="G12" s="4">
-        <v>301.0</v>
+        <v>338.0</v>
       </c>
       <c r="H12" s="4">
-        <v>251.0</v>
+        <v>281.0</v>
       </c>
       <c r="I12" s="4">
-        <v>204.0</v>
+        <v>229.0</v>
       </c>
       <c r="J12" s="4">
-        <v>174.0</v>
+        <v>194.0</v>
       </c>
       <c r="K12" s="4">
-        <v>143.0</v>
+        <v>159.0</v>
       </c>
       <c r="L12" s="4">
-        <v>114.0</v>
+        <v>127.0</v>
       </c>
       <c r="M12" s="4">
-        <v>93.0</v>
+        <v>102.0</v>
       </c>
       <c r="N12" s="4">
-        <v>73.0</v>
+        <v>81.0</v>
       </c>
       <c r="O12" s="4">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="P12" s="4">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="Q12" s="4">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="R12" s="4">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="S12" s="4">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="T12" s="4">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="U12" s="4">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="V12" s="4">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="W12" s="4">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="X12" s="4">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y12" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z12" s="4">
         <v>9.0</v>
       </c>
       <c r="AA12" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="AB12" s="4">
         <v>7.0</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>6.0</v>
       </c>
       <c r="AC12" s="4">
         <v>5.0</v>
       </c>
       <c r="AD12" s="4">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE12" s="4">
         <v>4.0</v>
@@ -32892,7 +33479,7 @@
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="16"/>
+      <c r="AK15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -33903,7 +34490,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="53" width="8.88"/>
+    <col customWidth="1" min="46" max="54" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -34060,12 +34647,15 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
       <c r="BA1" s="2">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -34261,8 +34851,9 @@
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
-      <c r="BA2" s="1">
-        <f>Confirmed!BA2-Active!BA2</f>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1">
+        <f>Confirmed!BB2-Active!BB2</f>
         <v>0</v>
       </c>
     </row>
@@ -34474,7 +35065,11 @@
         <f>Confirmed!AZ3-Active!AZ4</f>
         <v>24</v>
       </c>
-      <c r="BA3" s="1"/>
+      <c r="BA3" s="1">
+        <f>Confirmed!BA3-Active!BA4</f>
+        <v>24</v>
+      </c>
+      <c r="BB3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -34684,7 +35279,11 @@
         <f>Confirmed!AZ4-Active!AZ5</f>
         <v>29</v>
       </c>
-      <c r="BA4" s="1"/>
+      <c r="BA4" s="1">
+        <f>Confirmed!BA4-Active!BA5</f>
+        <v>29</v>
+      </c>
+      <c r="BB4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -34894,7 +35493,11 @@
         <f>Confirmed!AZ5-Active!AZ6</f>
         <v>49</v>
       </c>
-      <c r="BA5" s="1"/>
+      <c r="BA5" s="1">
+        <f>Confirmed!BA5-Active!BA6</f>
+        <v>49</v>
+      </c>
+      <c r="BB5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -35104,7 +35707,11 @@
         <f>Confirmed!AZ6-Active!AZ7</f>
         <v>40</v>
       </c>
-      <c r="BA6" s="1"/>
+      <c r="BA6" s="1">
+        <f>Confirmed!BA6-Active!BA7</f>
+        <v>40</v>
+      </c>
+      <c r="BB6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -35314,7 +35921,11 @@
         <f>Confirmed!AZ7-Active!AZ8</f>
         <v>778</v>
       </c>
-      <c r="BA7" s="1"/>
+      <c r="BA7" s="1">
+        <f>Confirmed!BA7-Active!BA8</f>
+        <v>874</v>
+      </c>
+      <c r="BB7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -35524,7 +36135,11 @@
         <f>Confirmed!AZ8-Active!AZ9</f>
         <v>114</v>
       </c>
-      <c r="BA8" s="1"/>
+      <c r="BA8" s="1">
+        <f>Confirmed!BA8-Active!BA9</f>
+        <v>114</v>
+      </c>
+      <c r="BB8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -35734,7 +36349,11 @@
         <f>Confirmed!AZ9-Active!AZ10</f>
         <v>851</v>
       </c>
-      <c r="BA9" s="1"/>
+      <c r="BA9" s="1">
+        <f>Confirmed!BA9-Active!BA10</f>
+        <v>862</v>
+      </c>
+      <c r="BB9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -35944,7 +36563,11 @@
         <f>Confirmed!AZ10-Active!AZ11</f>
         <v>3246</v>
       </c>
-      <c r="BA10" s="1"/>
+      <c r="BA10" s="1">
+        <f>Confirmed!BA10-Active!BA11</f>
+        <v>3670</v>
+      </c>
+      <c r="BB10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -36154,7 +36777,11 @@
         <f>Confirmed!AZ11-Active!AZ12</f>
         <v>1608</v>
       </c>
-      <c r="BA11" s="1"/>
+      <c r="BA11" s="1">
+        <f>Confirmed!BA11-Active!BA12</f>
+        <v>1608</v>
+      </c>
+      <c r="BB11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -37170,11 +37797,11 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="53" width="7.63"/>
+    <col customWidth="1" min="37" max="54" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -37327,16 +37954,19 @@
       <c r="AY1" s="2">
         <v>43966.0</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
       <c r="BA1" s="2">
+        <v>43968.0</v>
+      </c>
+      <c r="BB1" s="2">
         <f>today()</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -37520,9 +38150,10 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -37729,10 +38360,14 @@
         <f>IF(Closed!AZ3&gt;0,100*Recoveries!AZ3/Closed!AZ3,100)</f>
         <v>100</v>
       </c>
-      <c r="BA3" s="1"/>
+      <c r="BA3" s="1">
+        <f>IF(Closed!BA3&gt;0,100*Recoveries!BA3/Closed!BA3,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BB3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -37939,10 +38574,14 @@
         <f>IF(Closed!AZ4&gt;0,100*Recoveries!AZ4/Closed!AZ4,100)</f>
         <v>96.55172414</v>
       </c>
-      <c r="BA4" s="1"/>
+      <c r="BA4" s="1">
+        <f>IF(Closed!BA4&gt;0,100*Recoveries!BA4/Closed!BA4,100)</f>
+        <v>96.55172414</v>
+      </c>
+      <c r="BB4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -38149,10 +38788,14 @@
         <f>IF(Closed!AZ5&gt;0,100*Recoveries!AZ5/Closed!AZ5,100)</f>
         <v>100</v>
       </c>
-      <c r="BA5" s="1"/>
+      <c r="BA5" s="1">
+        <f>IF(Closed!BA5&gt;0,100*Recoveries!BA5/Closed!BA5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BB5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -38359,10 +39002,14 @@
         <f>IF(Closed!AZ6&gt;0,100*Recoveries!AZ6/Closed!AZ6,100)</f>
         <v>92.5</v>
       </c>
-      <c r="BA6" s="1"/>
+      <c r="BA6" s="1">
+        <f>IF(Closed!BA6&gt;0,100*Recoveries!BA6/Closed!BA6,100)</f>
+        <v>92.5</v>
+      </c>
+      <c r="BB6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -38569,10 +39216,14 @@
         <f>IF(Closed!AZ7&gt;0,100*Recoveries!AZ7/Closed!AZ7,100)</f>
         <v>95.88688946</v>
       </c>
-      <c r="BA7" s="1"/>
+      <c r="BA7" s="1">
+        <f>IF(Closed!BA7&gt;0,100*Recoveries!BA7/Closed!BA7,100)</f>
+        <v>95.99542334</v>
+      </c>
+      <c r="BB7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -38779,10 +39430,14 @@
         <f>IF(Closed!AZ8&gt;0,100*Recoveries!AZ8/Closed!AZ8,100)</f>
         <v>94.73684211</v>
       </c>
-      <c r="BA8" s="1"/>
+      <c r="BA8" s="1">
+        <f>IF(Closed!BA8&gt;0,100*Recoveries!BA8/Closed!BA8,100)</f>
+        <v>94.73684211</v>
+      </c>
+      <c r="BB8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -38989,10 +39644,14 @@
         <f>IF(Closed!AZ9&gt;0,100*Recoveries!AZ9/Closed!AZ9,100)</f>
         <v>94.71210341</v>
       </c>
-      <c r="BA9" s="1"/>
+      <c r="BA9" s="1">
+        <f>IF(Closed!BA9&gt;0,100*Recoveries!BA9/Closed!BA9,100)</f>
+        <v>94.77958237</v>
+      </c>
+      <c r="BB9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -39199,10 +39858,14 @@
         <f>IF(Closed!AZ10&gt;0,100*Recoveries!AZ10/Closed!AZ10,100)</f>
         <v>95.40973506</v>
       </c>
-      <c r="BA10" s="1"/>
+      <c r="BA10" s="1">
+        <f>IF(Closed!BA10&gt;0,100*Recoveries!BA10/Closed!BA10,100)</f>
+        <v>95.9400545</v>
+      </c>
+      <c r="BB10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -39409,13 +40072,17 @@
         <f>IF(Closed!AZ11&gt;0,100*Recoveries!AZ11/Closed!AZ11,100)</f>
         <v>98.44527363</v>
       </c>
-      <c r="BA11" s="1"/>
+      <c r="BA11" s="1">
+        <f>IF(Closed!BA11&gt;0,100*Recoveries!BA11/Closed!BA11,100)</f>
+        <v>98.44527363</v>
+      </c>
+      <c r="BB11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="M14" s="20" t="s">
-        <v>15</v>
+      <c r="M14" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1"/>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -20,7 +20,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataSignature="AMtx7mh0Rg7l1N3Hmb4tP5hmKIaZsF9pAw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataSignature="AMtx7miM+93VxUgms+DxnH7qFW8eHmKHlw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -125,16 +125,7 @@
     <t>Western Cape Raw</t>
   </si>
   <si>
-    <t>National</t>
-  </si>
-  <si>
     <t>Predicted Date of Peak</t>
-  </si>
-  <si>
-    <t>05-May-2020'</t>
-  </si>
-  <si>
-    <t>06-May-2020'</t>
   </si>
   <si>
     <t>07-May-2020'</t>
@@ -173,6 +164,12 @@
     <t>07-Jul-2020'</t>
   </si>
   <si>
+    <t>08-Jul-2020'</t>
+  </si>
+  <si>
+    <t>19-Jul-2020'</t>
+  </si>
+  <si>
     <t>Current Total</t>
   </si>
   <si>
@@ -194,241 +191,244 @@
     <t>Active Cases per 100,000</t>
   </si>
   <si>
-    <t>18-May-2020'</t>
+    <t>National</t>
   </si>
   <si>
-    <t>23-May-2020'</t>
+    <t>20-May-2020'</t>
   </si>
   <si>
-    <t>28-May-2020'</t>
+    <t>25-May-2020'</t>
   </si>
   <si>
-    <t>02-Jun-2020'</t>
+    <t>30-May-2020'</t>
   </si>
   <si>
-    <t>07-Jun-2020'</t>
+    <t>04-Jun-2020'</t>
   </si>
   <si>
-    <t>12-Jun-2020'</t>
+    <t>09-Jun-2020'</t>
   </si>
   <si>
-    <t>17-Jun-2020'</t>
+    <t>14-Jun-2020'</t>
   </si>
   <si>
-    <t>22-Jun-2020'</t>
+    <t>19-Jun-2020'</t>
   </si>
   <si>
-    <t>27-Jun-2020'</t>
+    <t>24-Jun-2020'</t>
   </si>
   <si>
-    <t>02-Jul-2020'</t>
+    <t>29-Jun-2020'</t>
   </si>
   <si>
-    <t>17-Jul-2020'</t>
+    <t>04-Jul-2020'</t>
   </si>
   <si>
-    <t>22-Jul-2020'</t>
+    <t>09-Jul-2020'</t>
   </si>
   <si>
-    <t>27-Jul-2020'</t>
+    <t>24-Jul-2020'</t>
   </si>
   <si>
-    <t>01-Aug-2020'</t>
+    <t>29-Jul-2020'</t>
   </si>
   <si>
-    <t>06-Aug-2020'</t>
+    <t>03-Aug-2020'</t>
   </si>
   <si>
-    <t>11-Aug-2020'</t>
+    <t>08-Aug-2020'</t>
   </si>
   <si>
-    <t>16-Aug-2020'</t>
+    <t>13-Aug-2020'</t>
   </si>
   <si>
-    <t>21-Aug-2020'</t>
+    <t>18-Aug-2020'</t>
   </si>
   <si>
-    <t>26-Aug-2020'</t>
+    <t>23-Aug-2020'</t>
   </si>
   <si>
-    <t>31-Aug-2020'</t>
+    <t>28-Aug-2020'</t>
   </si>
   <si>
-    <t>05-Sep-2020'</t>
+    <t>02-Sep-2020'</t>
   </si>
   <si>
-    <t>10-Sep-2020'</t>
+    <t>07-Sep-2020'</t>
   </si>
   <si>
-    <t>15-Sep-2020'</t>
+    <t>12-Sep-2020'</t>
   </si>
   <si>
-    <t>20-Sep-2020'</t>
+    <t>17-Sep-2020'</t>
   </si>
   <si>
-    <t>25-Sep-2020'</t>
+    <t>22-Sep-2020'</t>
   </si>
   <si>
-    <t>30-Sep-2020'</t>
+    <t>27-Sep-2020'</t>
   </si>
   <si>
-    <t>05-Oct-2020'</t>
+    <t>02-Oct-2020'</t>
   </si>
   <si>
-    <t>10-Oct-2020'</t>
+    <t>07-Oct-2020'</t>
   </si>
   <si>
-    <t>15-Oct-2020'</t>
+    <t>12-Oct-2020'</t>
   </si>
   <si>
-    <t>20-Oct-2020'</t>
+    <t>17-Oct-2020'</t>
   </si>
   <si>
-    <t>25-Oct-2020'</t>
+    <t>22-Oct-2020'</t>
   </si>
   <si>
-    <t>30-Oct-2020'</t>
+    <t>27-Oct-2020'</t>
   </si>
   <si>
-    <t>04-Nov-2020'</t>
+    <t>01-Nov-2020'</t>
   </si>
   <si>
-    <t>09-Nov-2020'</t>
+    <t>06-Nov-2020'</t>
   </si>
   <si>
-    <t>14-Nov-2020'</t>
+    <t>11-Nov-2020'</t>
   </si>
   <si>
-    <t>19-Nov-2020'</t>
+    <t>16-Nov-2020'</t>
   </si>
   <si>
-    <t>24-Nov-2020'</t>
+    <t>21-Nov-2020'</t>
   </si>
   <si>
-    <t>29-Nov-2020'</t>
+    <t>26-Nov-2020'</t>
   </si>
   <si>
-    <t>04-Dec-2020'</t>
+    <t>01-Dec-2020'</t>
   </si>
   <si>
-    <t>09-Dec-2020'</t>
+    <t>06-Dec-2020'</t>
   </si>
   <si>
-    <t>14-Dec-2020'</t>
+    <t>11-Dec-2020'</t>
   </si>
   <si>
-    <t>19-Dec-2020'</t>
+    <t>16-Dec-2020'</t>
   </si>
   <si>
-    <t>24-Dec-2020'</t>
+    <t>21-Dec-2020'</t>
   </si>
   <si>
-    <t>29-Dec-2020'</t>
+    <t>26-Dec-2020'</t>
   </si>
   <si>
-    <t>03-Jan-2021'</t>
+    <t>31-Dec-2020'</t>
   </si>
   <si>
-    <t>08-Jan-2021'</t>
+    <t>05-Jan-2021'</t>
   </si>
   <si>
-    <t>13-Jan-2021'</t>
+    <t>10-Jan-2021'</t>
   </si>
   <si>
-    <t>18-Jan-2021'</t>
+    <t>15-Jan-2021'</t>
   </si>
   <si>
-    <t>23-Jan-2021'</t>
+    <t>20-Jan-2021'</t>
   </si>
   <si>
-    <t>28-Jan-2021'</t>
+    <t>25-Jan-2021'</t>
   </si>
   <si>
-    <t>02-Feb-2021'</t>
+    <t>30-Jan-2021'</t>
   </si>
   <si>
-    <t>07-Feb-2021'</t>
+    <t>04-Feb-2021'</t>
   </si>
   <si>
-    <t>12-Feb-2021'</t>
+    <t>09-Feb-2021'</t>
   </si>
   <si>
-    <t>17-Feb-2021'</t>
+    <t>14-Feb-2021'</t>
   </si>
   <si>
-    <t>22-Feb-2021'</t>
+    <t>19-Feb-2021'</t>
   </si>
   <si>
-    <t>27-Feb-2021'</t>
+    <t>24-Feb-2021'</t>
   </si>
   <si>
-    <t>04-Mar-2021'</t>
+    <t>01-Mar-2021'</t>
   </si>
   <si>
-    <t>09-Mar-2021'</t>
+    <t>06-Mar-2021'</t>
   </si>
   <si>
-    <t>14-Mar-2021'</t>
+    <t>11-Mar-2021'</t>
   </si>
   <si>
-    <t>19-Mar-2021'</t>
+    <t>16-Mar-2021'</t>
   </si>
   <si>
-    <t>24-Mar-2021'</t>
+    <t>21-Mar-2021'</t>
   </si>
   <si>
-    <t>29-Mar-2021'</t>
+    <t>26-Mar-2021'</t>
   </si>
   <si>
-    <t>03-Apr-2021'</t>
+    <t>31-Mar-2021'</t>
   </si>
   <si>
-    <t>08-Apr-2021'</t>
+    <t>05-Apr-2021'</t>
   </si>
   <si>
-    <t>13-Apr-2021'</t>
+    <t>10-Apr-2021'</t>
   </si>
   <si>
-    <t>18-Apr-2021'</t>
+    <t>15-Apr-2021'</t>
   </si>
   <si>
-    <t>23-Apr-2021'</t>
+    <t>20-Apr-2021'</t>
   </si>
   <si>
-    <t>28-Apr-2021'</t>
+    <t>25-Apr-2021'</t>
   </si>
   <si>
-    <t>03-May-2021'</t>
+    <t>30-Apr-2021'</t>
   </si>
   <si>
-    <t>08-May-2021'</t>
+    <t>05-May-2021'</t>
   </si>
   <si>
-    <t>13-May-2021'</t>
+    <t>10-May-2021'</t>
   </si>
   <si>
-    <t>18-May-2021'</t>
+    <t>15-May-2021'</t>
   </si>
   <si>
-    <t>23-May-2021'</t>
+    <t>20-May-2021'</t>
   </si>
   <si>
-    <t>28-May-2021'</t>
+    <t>25-May-2021'</t>
   </si>
   <si>
-    <t>02-Jun-2021'</t>
+    <t>30-May-2021'</t>
   </si>
   <si>
-    <t>07-Jun-2021'</t>
+    <t>04-Jun-2021'</t>
   </si>
   <si>
-    <t>12-Jun-2021'</t>
+    <t>09-Jun-2021'</t>
   </si>
   <si>
-    <t>17-Jun-2021'</t>
+    <t>14-Jun-2021'</t>
   </si>
   <si>
-    <t>22-Jun-2021'</t>
+    <t>19-Jun-2021'</t>
+  </si>
+  <si>
+    <t>24-Jun-2021'</t>
   </si>
   <si>
     <t>https://bit.ly/2Wgw33d</t>
@@ -438,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -456,6 +456,10 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font/>
     <font>
@@ -534,27 +538,25 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -608,12 +610,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$2:$BC$2</c:f>
+              <c:f>Testing!$B$2:$BE$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -632,12 +634,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$3:$BC$3</c:f>
+              <c:f>Testing!$B$3:$BE$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -656,12 +658,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$4:$BC$4</c:f>
+              <c:f>Testing!$B$4:$BE$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -680,12 +682,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$5:$BC$5</c:f>
+              <c:f>Testing!$B$5:$BE$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -704,12 +706,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$6:$BC$6</c:f>
+              <c:f>Testing!$B$6:$BE$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -728,12 +730,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$7:$BC$7</c:f>
+              <c:f>Testing!$B$7:$BE$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -754,12 +756,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$8:$BC$8</c:f>
+              <c:f>Testing!$B$8:$BE$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -780,12 +782,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$9:$BC$9</c:f>
+              <c:f>Testing!$B$9:$BE$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -806,12 +808,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$10:$BC$10</c:f>
+              <c:f>Testing!$B$10:$BE$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -832,21 +834,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BC$1</c:f>
+              <c:f>Testing!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$11:$BC$11</c:f>
+              <c:f>Testing!$B$11:$BE$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1768815428"/>
-        <c:axId val="1302580903"/>
+        <c:axId val="1747032655"/>
+        <c:axId val="1793625997"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1768815428"/>
+        <c:axId val="1747032655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,10 +893,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1302580903"/>
+        <c:crossAx val="1793625997"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1302580903"/>
+        <c:axId val="1793625997"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +965,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768815428"/>
+        <c:crossAx val="1747032655"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1034,18 +1036,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$BC$2</c:f>
+              <c:f>'Infection Rate'!$B$2:$BE$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="695466094"/>
-        <c:axId val="1165139550"/>
+        <c:axId val="994105951"/>
+        <c:axId val="286453204"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1061,12 +1063,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$BC$3</c:f>
+              <c:f>'Infection Rate'!$B$3:$BE$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1084,12 +1086,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$BC$4</c:f>
+              <c:f>'Infection Rate'!$B$4:$BE$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1107,12 +1109,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$BC$5</c:f>
+              <c:f>'Infection Rate'!$B$5:$BE$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1130,12 +1132,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$BC$6</c:f>
+              <c:f>'Infection Rate'!$B$6:$BE$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1153,12 +1155,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$BC$7</c:f>
+              <c:f>'Infection Rate'!$B$7:$BE$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1176,12 +1178,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$BC$8</c:f>
+              <c:f>'Infection Rate'!$B$8:$BE$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1199,12 +1201,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$BC$9</c:f>
+              <c:f>'Infection Rate'!$B$9:$BE$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1222,12 +1224,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$BC$10</c:f>
+              <c:f>'Infection Rate'!$B$10:$BE$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1245,21 +1247,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$BC$11</c:f>
+              <c:f>'Infection Rate'!$B$11:$BE$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="695466094"/>
-        <c:axId val="1165139550"/>
+        <c:axId val="994105951"/>
+        <c:axId val="286453204"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="695466094"/>
+        <c:axId val="994105951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,10 +1306,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1165139550"/>
+        <c:crossAx val="286453204"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1165139550"/>
+        <c:axId val="286453204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695466094"/>
+        <c:crossAx val="994105951"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1674,11 +1676,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="118591514"/>
-        <c:axId val="432221209"/>
+        <c:axId val="695855377"/>
+        <c:axId val="997590173"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118591514"/>
+        <c:axId val="695855377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,10 +1725,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432221209"/>
+        <c:crossAx val="997590173"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432221209"/>
+        <c:axId val="997590173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1797,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118591514"/>
+        <c:crossAx val="695855377"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1866,18 +1868,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$BC$2</c:f>
+              <c:f>Active!$B$2:$BE$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="169312870"/>
-        <c:axId val="2057135906"/>
+        <c:axId val="2038195033"/>
+        <c:axId val="247040714"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1893,12 +1895,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$BC$3</c:f>
+              <c:f>Active!$B$3:$BE$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1916,12 +1918,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$BC$4</c:f>
+              <c:f>Active!$B$4:$BE$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1939,12 +1941,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$BC$5</c:f>
+              <c:f>Active!$B$5:$BE$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1962,12 +1964,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$BC$6</c:f>
+              <c:f>Active!$B$6:$BE$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1985,12 +1987,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$BC$7</c:f>
+              <c:f>Active!$B$7:$BE$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2008,12 +2010,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$BC$8</c:f>
+              <c:f>Active!$B$8:$BE$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2031,12 +2033,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$BC$9</c:f>
+              <c:f>Active!$B$9:$BE$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2054,12 +2056,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$BC$10</c:f>
+              <c:f>Active!$B$10:$BE$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2077,21 +2079,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BC$1</c:f>
+              <c:f>Active!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$BC$11</c:f>
+              <c:f>Active!$B$11:$BE$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="169312870"/>
-        <c:axId val="2057135906"/>
+        <c:axId val="2038195033"/>
+        <c:axId val="247040714"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169312870"/>
+        <c:axId val="2038195033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,10 +2138,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057135906"/>
+        <c:crossAx val="247040714"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057135906"/>
+        <c:axId val="247040714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2210,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169312870"/>
+        <c:crossAx val="2038195033"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2289,8 +2291,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1413302718"/>
-        <c:axId val="406404192"/>
+        <c:axId val="1619301758"/>
+        <c:axId val="1524019978"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2500,11 +2502,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1413302718"/>
-        <c:axId val="406404192"/>
+        <c:axId val="1619301758"/>
+        <c:axId val="1524019978"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1413302718"/>
+        <c:axId val="1619301758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,10 +2551,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406404192"/>
+        <c:crossAx val="1524019978"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406404192"/>
+        <c:axId val="1524019978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +2623,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1413302718"/>
+        <c:crossAx val="1619301758"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2710,8 +2712,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="462463099"/>
-        <c:axId val="1100032950"/>
+        <c:axId val="60957665"/>
+        <c:axId val="542253323"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2921,11 +2923,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="462463099"/>
-        <c:axId val="1100032950"/>
+        <c:axId val="60957665"/>
+        <c:axId val="542253323"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="462463099"/>
+        <c:axId val="60957665"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,10 +2972,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100032950"/>
+        <c:crossAx val="542253323"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1100032950"/>
+        <c:axId val="542253323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3044,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462463099"/>
+        <c:crossAx val="60957665"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3192,11 +3194,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="637268822"/>
-        <c:axId val="2111632783"/>
+        <c:axId val="480539661"/>
+        <c:axId val="1157984161"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="637268822"/>
+        <c:axId val="480539661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3241,10 +3243,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111632783"/>
+        <c:crossAx val="1157984161"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111632783"/>
+        <c:axId val="1157984161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,7 +3315,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637268822"/>
+        <c:crossAx val="480539661"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3532,11 +3534,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="201337895"/>
-        <c:axId val="174288462"/>
+        <c:axId val="1775138659"/>
+        <c:axId val="395196751"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201337895"/>
+        <c:axId val="1775138659"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,10 +3583,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174288462"/>
+        <c:crossAx val="395196751"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174288462"/>
+        <c:axId val="395196751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,7 +3655,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201337895"/>
+        <c:crossAx val="1775138659"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3720,12 +3722,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$BC$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$BE$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3743,12 +3745,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$BC$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$BE$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3766,12 +3768,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$BC$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$BE$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3789,12 +3791,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$BC$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$BE$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3812,12 +3814,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$BC$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$BE$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3835,12 +3837,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$BC$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$BE$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3858,12 +3860,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$BC$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$BE$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3881,12 +3883,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$BC$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$BE$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3904,21 +3906,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$11:$BC$11</c:f>
+              <c:f>'Recovery Rate'!$B$11:$BE$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1098625905"/>
-        <c:axId val="1646289951"/>
+        <c:axId val="161094462"/>
+        <c:axId val="1761889617"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1098625905"/>
+        <c:axId val="161094462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,10 +3965,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646289951"/>
+        <c:crossAx val="1761889617"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646289951"/>
+        <c:axId val="1761889617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +4037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098625905"/>
+        <c:crossAx val="161094462"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4107,12 +4109,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$2:$BC$2</c:f>
+              <c:f>'Death Rate'!$B$2:$BE$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4130,12 +4132,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$BC$3</c:f>
+              <c:f>'Death Rate'!$B$3:$BE$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4153,12 +4155,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$BC$4</c:f>
+              <c:f>'Death Rate'!$B$4:$BE$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4176,12 +4178,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$BC$5</c:f>
+              <c:f>'Death Rate'!$B$5:$BE$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4199,12 +4201,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$BC$6</c:f>
+              <c:f>'Death Rate'!$B$6:$BE$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4222,12 +4224,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$BC$7</c:f>
+              <c:f>'Death Rate'!$B$7:$BE$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4245,12 +4247,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$BC$8</c:f>
+              <c:f>'Death Rate'!$B$8:$BE$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4268,12 +4270,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$BC$9</c:f>
+              <c:f>'Death Rate'!$B$9:$BE$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4291,21 +4293,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BC$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BE$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$BC$10</c:f>
+              <c:f>'Death Rate'!$B$10:$BE$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1359796397"/>
-        <c:axId val="499126153"/>
+        <c:axId val="502261468"/>
+        <c:axId val="1579347210"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1359796397"/>
+        <c:axId val="502261468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,10 +4352,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499126153"/>
+        <c:crossAx val="1579347210"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499126153"/>
+        <c:axId val="1579347210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,7 +4424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359796397"/>
+        <c:crossAx val="502261468"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4652,7 +4654,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="263283604" name="Chart 6" title="Chart"/>
+        <xdr:cNvPr id="263283604" name="Chart 5" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4732,7 +4734,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="660041097" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="660041097" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4966,7 +4968,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="55" width="9.88"/>
+    <col customWidth="1" min="44" max="57" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5133,8 +5135,14 @@
         <v>43969.0</v>
       </c>
       <c r="BC1" s="2">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -5289,6 +5297,8 @@
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -5453,7 +5463,13 @@
       <c r="BB3" s="3">
         <v>37.0</v>
       </c>
-      <c r="BC3" s="3"/>
+      <c r="BC3" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="BE3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -5618,7 +5634,13 @@
       <c r="BB4" s="3">
         <v>72.0</v>
       </c>
-      <c r="BC4" s="3"/>
+      <c r="BC4" s="3">
+        <v>72.0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>72.0</v>
+      </c>
+      <c r="BE4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -5783,7 +5805,13 @@
       <c r="BB5" s="3">
         <v>76.0</v>
       </c>
-      <c r="BC5" s="3"/>
+      <c r="BC5" s="3">
+        <v>78.0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="BE5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -5948,7 +5976,13 @@
       <c r="BB6" s="3">
         <v>88.0</v>
       </c>
-      <c r="BC6" s="3"/>
+      <c r="BC6" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="BE6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6113,7 +6147,13 @@
       <c r="BB7" s="3">
         <v>2052.0</v>
       </c>
-      <c r="BC7" s="3"/>
+      <c r="BC7" s="3">
+        <v>2135.0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>2215.0</v>
+      </c>
+      <c r="BE7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -6278,7 +6318,13 @@
       <c r="BB8" s="3">
         <v>163.0</v>
       </c>
-      <c r="BC8" s="3"/>
+      <c r="BC8" s="3">
+        <v>168.0</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="BE8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -6443,7 +6489,13 @@
       <c r="BB9" s="3">
         <v>1567.0</v>
       </c>
-      <c r="BC9" s="3"/>
+      <c r="BC9" s="3">
+        <v>1616.0</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>1650.0</v>
+      </c>
+      <c r="BE9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -6608,7 +6660,13 @@
       <c r="BB10" s="3">
         <v>10035.0</v>
       </c>
-      <c r="BC10" s="3"/>
+      <c r="BC10" s="3">
+        <v>10639.0</v>
+      </c>
+      <c r="BD10" s="3">
+        <v>11262.0</v>
+      </c>
+      <c r="BE10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -6773,7 +6831,13 @@
       <c r="BB11" s="3">
         <v>2343.0</v>
       </c>
-      <c r="BC11" s="3"/>
+      <c r="BC11" s="3">
+        <v>2361.0</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>2400.0</v>
+      </c>
+      <c r="BE11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -7789,7 +7853,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="55" width="7.63"/>
+    <col customWidth="1" min="37" max="57" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7956,8 +8020,14 @@
         <v>43969.0</v>
       </c>
       <c r="BC1" s="2">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="12">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -8147,6 +8217,8 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -8364,7 +8436,15 @@
         <f>IF(Closed!BB3&gt;0,100*Recoveries!BB3/Closed!BB3,100)</f>
         <v>100</v>
       </c>
-      <c r="BC3" s="1"/>
+      <c r="BC3" s="1">
+        <f>IF(Closed!BC3&gt;0,100*Recoveries!BC3/Closed!BC3,100)</f>
+        <v>96.42857143</v>
+      </c>
+      <c r="BD3" s="1">
+        <f>IF(Closed!BD3&gt;0,100*Recoveries!BD3/Closed!BD3,100)</f>
+        <v>96.42857143</v>
+      </c>
+      <c r="BE3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="19" t="s">
@@ -8582,7 +8662,15 @@
         <f>IF(Closed!BB4&gt;0,100*Recoveries!BB4/Closed!BB4,100)</f>
         <v>96.55172414</v>
       </c>
-      <c r="BC4" s="1"/>
+      <c r="BC4" s="1">
+        <f>IF(Closed!BC4&gt;0,100*Recoveries!BC4/Closed!BC4,100)</f>
+        <v>96.55172414</v>
+      </c>
+      <c r="BD4" s="1">
+        <f>IF(Closed!BD4&gt;0,100*Recoveries!BD4/Closed!BD4,100)</f>
+        <v>96.55172414</v>
+      </c>
+      <c r="BE4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -8800,7 +8888,15 @@
         <f>IF(Closed!BB5&gt;0,100*Recoveries!BB5/Closed!BB5,100)</f>
         <v>100</v>
       </c>
-      <c r="BC5" s="1"/>
+      <c r="BC5" s="1">
+        <f>IF(Closed!BC5&gt;0,100*Recoveries!BC5/Closed!BC5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BD5" s="1">
+        <f>IF(Closed!BD5&gt;0,100*Recoveries!BD5/Closed!BD5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BE5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="19" t="s">
@@ -9018,7 +9114,15 @@
         <f>IF(Closed!BB6&gt;0,100*Recoveries!BB6/Closed!BB6,100)</f>
         <v>92.5</v>
       </c>
-      <c r="BC6" s="1"/>
+      <c r="BC6" s="1">
+        <f>IF(Closed!BC6&gt;0,100*Recoveries!BC6/Closed!BC6,100)</f>
+        <v>92.85714286</v>
+      </c>
+      <c r="BD6" s="1">
+        <f>IF(Closed!BD6&gt;0,100*Recoveries!BD6/Closed!BD6,100)</f>
+        <v>93.33333333</v>
+      </c>
+      <c r="BE6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="19" t="s">
@@ -9236,7 +9340,15 @@
         <f>IF(Closed!BB7&gt;0,100*Recoveries!BB7/Closed!BB7,100)</f>
         <v>95.55808656</v>
       </c>
-      <c r="BC7" s="1"/>
+      <c r="BC7" s="1">
+        <f>IF(Closed!BC7&gt;0,100*Recoveries!BC7/Closed!BC7,100)</f>
+        <v>95.34090909</v>
+      </c>
+      <c r="BD7" s="1">
+        <f>IF(Closed!BD7&gt;0,100*Recoveries!BD7/Closed!BD7,100)</f>
+        <v>95.83718779</v>
+      </c>
+      <c r="BE7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="19" t="s">
@@ -9454,7 +9566,15 @@
         <f>IF(Closed!BB8&gt;0,100*Recoveries!BB8/Closed!BB8,100)</f>
         <v>94.73684211</v>
       </c>
-      <c r="BC8" s="1"/>
+      <c r="BC8" s="1">
+        <f>IF(Closed!BC8&gt;0,100*Recoveries!BC8/Closed!BC8,100)</f>
+        <v>95.16129032</v>
+      </c>
+      <c r="BD8" s="1">
+        <f>IF(Closed!BD8&gt;0,100*Recoveries!BD8/Closed!BD8,100)</f>
+        <v>95.16129032</v>
+      </c>
+      <c r="BE8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="19" t="s">
@@ -9672,7 +9792,15 @@
         <f>IF(Closed!BB9&gt;0,100*Recoveries!BB9/Closed!BB9,100)</f>
         <v>94.78563152</v>
       </c>
-      <c r="BC9" s="1"/>
+      <c r="BC9" s="1">
+        <f>IF(Closed!BC9&gt;0,100*Recoveries!BC9/Closed!BC9,100)</f>
+        <v>94.67592593</v>
+      </c>
+      <c r="BD9" s="1">
+        <f>IF(Closed!BD9&gt;0,100*Recoveries!BD9/Closed!BD9,100)</f>
+        <v>94.81981982</v>
+      </c>
+      <c r="BE9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="19" t="s">
@@ -9890,7 +10018,15 @@
         <f>IF(Closed!BB10&gt;0,100*Recoveries!BB10/Closed!BB10,100)</f>
         <v>95.74031306</v>
       </c>
-      <c r="BC10" s="1"/>
+      <c r="BC10" s="1">
+        <f>IF(Closed!BC10&gt;0,100*Recoveries!BC10/Closed!BC10,100)</f>
+        <v>95.89010989</v>
+      </c>
+      <c r="BD10" s="1">
+        <f>IF(Closed!BD10&gt;0,100*Recoveries!BD10/Closed!BD10,100)</f>
+        <v>96.04891816</v>
+      </c>
+      <c r="BE10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -10108,7 +10244,15 @@
         <f>IF(Closed!BB11&gt;0,100*Recoveries!BB11/Closed!BB11,100)</f>
         <v>98.45513963</v>
       </c>
-      <c r="BC11" s="1"/>
+      <c r="BC11" s="1">
+        <f>IF(Closed!BC11&gt;0,100*Recoveries!BC11/Closed!BC11,100)</f>
+        <v>98.40989399</v>
+      </c>
+      <c r="BD11" s="1">
+        <f>IF(Closed!BD11&gt;0,100*Recoveries!BD11/Closed!BD11,100)</f>
+        <v>98.43114468</v>
+      </c>
+      <c r="BE11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -11132,7 +11276,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="55" width="10.5"/>
+    <col customWidth="1" min="35" max="57" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -11299,8 +11443,14 @@
         <v>43969.0</v>
       </c>
       <c r="BC1" s="2">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="12">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -11490,6 +11640,8 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -11707,7 +11859,15 @@
         <f>IF(Closed!BB3&gt;0,100*Deaths!BB3/Closed!BB3,0)</f>
         <v>0</v>
       </c>
-      <c r="BC3" s="1"/>
+      <c r="BC3" s="1">
+        <f>IF(Closed!BC3&gt;0,100*Deaths!BC3/Closed!BC3,0)</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="BD3" s="1">
+        <f>IF(Closed!BD3&gt;0,100*Deaths!BD3/Closed!BD3,0)</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="BE3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -11925,7 +12085,15 @@
         <f>IF(Closed!BB4&gt;0,100*Deaths!BB4/Closed!BB4,0)</f>
         <v>3.448275862</v>
       </c>
-      <c r="BC4" s="1"/>
+      <c r="BC4" s="1">
+        <f>IF(Closed!BC4&gt;0,100*Deaths!BC4/Closed!BC4,0)</f>
+        <v>3.448275862</v>
+      </c>
+      <c r="BD4" s="1">
+        <f>IF(Closed!BD4&gt;0,100*Deaths!BD4/Closed!BD4,0)</f>
+        <v>3.448275862</v>
+      </c>
+      <c r="BE4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -12143,7 +12311,15 @@
         <f>IF(Closed!BB5&gt;0,100*Deaths!BB5/Closed!BB5,0)</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="1"/>
+      <c r="BC5" s="1">
+        <f>IF(Closed!BC5&gt;0,100*Deaths!BC5/Closed!BC5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <f>IF(Closed!BD5&gt;0,100*Deaths!BD5/Closed!BD5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -12361,7 +12537,15 @@
         <f>IF(Closed!BB6&gt;0,100*Deaths!BB6/Closed!BB6,0)</f>
         <v>7.5</v>
       </c>
-      <c r="BC6" s="1"/>
+      <c r="BC6" s="1">
+        <f>IF(Closed!BC6&gt;0,100*Deaths!BC6/Closed!BC6,0)</f>
+        <v>7.142857143</v>
+      </c>
+      <c r="BD6" s="1">
+        <f>IF(Closed!BD6&gt;0,100*Deaths!BD6/Closed!BD6,0)</f>
+        <v>6.666666667</v>
+      </c>
+      <c r="BE6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -12579,7 +12763,15 @@
         <f>IF(Closed!BB7&gt;0,100*Deaths!BB7/Closed!BB7,0)</f>
         <v>4.44191344</v>
       </c>
-      <c r="BC7" s="1"/>
+      <c r="BC7" s="1">
+        <f>IF(Closed!BC7&gt;0,100*Deaths!BC7/Closed!BC7,0)</f>
+        <v>4.659090909</v>
+      </c>
+      <c r="BD7" s="1">
+        <f>IF(Closed!BD7&gt;0,100*Deaths!BD7/Closed!BD7,0)</f>
+        <v>4.162812211</v>
+      </c>
+      <c r="BE7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -12797,7 +12989,15 @@
         <f>IF(Closed!BB8&gt;0,100*Deaths!BB8/Closed!BB8,0)</f>
         <v>5.263157895</v>
       </c>
-      <c r="BC8" s="1"/>
+      <c r="BC8" s="1">
+        <f>IF(Closed!BC8&gt;0,100*Deaths!BC8/Closed!BC8,0)</f>
+        <v>4.838709677</v>
+      </c>
+      <c r="BD8" s="1">
+        <f>IF(Closed!BD8&gt;0,100*Deaths!BD8/Closed!BD8,0)</f>
+        <v>4.838709677</v>
+      </c>
+      <c r="BE8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -13015,7 +13215,15 @@
         <f>IF(Closed!BB9&gt;0,100*Deaths!BB9/Closed!BB9,0)</f>
         <v>5.214368482</v>
       </c>
-      <c r="BC9" s="1"/>
+      <c r="BC9" s="1">
+        <f>IF(Closed!BC9&gt;0,100*Deaths!BC9/Closed!BC9,0)</f>
+        <v>5.324074074</v>
+      </c>
+      <c r="BD9" s="1">
+        <f>IF(Closed!BD9&gt;0,100*Deaths!BD9/Closed!BD9,0)</f>
+        <v>5.18018018</v>
+      </c>
+      <c r="BE9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -13233,7 +13441,15 @@
         <f>IF(Closed!BB10&gt;0,100*Deaths!BB10/Closed!BB10,0)</f>
         <v>4.259686939</v>
       </c>
-      <c r="BC10" s="1"/>
+      <c r="BC10" s="1">
+        <f>IF(Closed!BC10&gt;0,100*Deaths!BC10/Closed!BC10,0)</f>
+        <v>4.10989011</v>
+      </c>
+      <c r="BD10" s="1">
+        <f>IF(Closed!BD10&gt;0,100*Deaths!BD10/Closed!BD10,0)</f>
+        <v>3.951081844</v>
+      </c>
+      <c r="BE10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -13451,7 +13667,15 @@
         <f>IF(Closed!BB11&gt;0,100*Deaths!BB11/Closed!BB11,0)</f>
         <v>1.544860368</v>
       </c>
-      <c r="BC11" s="1"/>
+      <c r="BC11" s="1">
+        <f>IF(Closed!BC11&gt;0,100*Deaths!BC11/Closed!BC11,0)</f>
+        <v>1.590106007</v>
+      </c>
+      <c r="BD11" s="1">
+        <f>IF(Closed!BD11&gt;0,100*Deaths!BD11/Closed!BD11,0)</f>
+        <v>1.568855317</v>
+      </c>
+      <c r="BE11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -14470,7 +14694,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="55" width="10.5"/>
+    <col customWidth="1" min="35" max="57" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -14637,8 +14861,14 @@
         <v>43969.0</v>
       </c>
       <c r="BC1" s="2">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="12">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -14828,13 +15058,15 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
+      <c r="A3" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="20">
-        <f t="shared" ref="B3:BC3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
+        <f t="shared" ref="B3:BE3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
         <v>0.02559675512</v>
       </c>
       <c r="C3" s="20">
@@ -15046,6 +15278,14 @@
         <v>0.02645934489</v>
       </c>
       <c r="BC3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.02681219452</v>
+      </c>
+      <c r="BD3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.02692707267</v>
+      </c>
+      <c r="BE3" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -15266,7 +15506,15 @@
         <f>Confirmed!BB3/Testing!BB3</f>
         <v>0.008169573857</v>
       </c>
-      <c r="BC4" s="21"/>
+      <c r="BC4" s="21">
+        <f>Confirmed!BC3/Testing!BC3</f>
+        <v>0.007943323315</v>
+      </c>
+      <c r="BD4" s="21">
+        <f>Confirmed!BD3/Testing!BD3</f>
+        <v>0.007864238411</v>
+      </c>
+      <c r="BE4" s="21"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -15484,7 +15732,15 @@
         <f>Confirmed!BB4/Testing!BB4</f>
         <v>0.01007415699</v>
       </c>
-      <c r="BC5" s="21"/>
+      <c r="BC5" s="21">
+        <f>Confirmed!BC4/Testing!BC4</f>
+        <v>0.009795918367</v>
+      </c>
+      <c r="BD5" s="21">
+        <f>Confirmed!BD4/Testing!BD4</f>
+        <v>0.009442622951</v>
+      </c>
+      <c r="BE5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -15702,7 +15958,15 @@
         <f>Confirmed!BB5/Testing!BB5</f>
         <v>0.005415033844</v>
       </c>
-      <c r="BC6" s="21"/>
+      <c r="BC6" s="21">
+        <f>Confirmed!BC5/Testing!BC5</f>
+        <v>0.005403533079</v>
+      </c>
+      <c r="BD6" s="21">
+        <f>Confirmed!BD5/Testing!BD5</f>
+        <v>0.006210765327</v>
+      </c>
+      <c r="BE6" s="21"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -15920,7 +16184,15 @@
         <f>Confirmed!BB6/Testing!BB6</f>
         <v>0.008686210641</v>
       </c>
-      <c r="BC7" s="21"/>
+      <c r="BC7" s="21">
+        <f>Confirmed!BC6/Testing!BC6</f>
+        <v>0.009021113244</v>
+      </c>
+      <c r="BD7" s="21">
+        <f>Confirmed!BD6/Testing!BD6</f>
+        <v>0.00860394116</v>
+      </c>
+      <c r="BE7" s="21"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -16138,7 +16410,15 @@
         <f>Confirmed!BB7/Testing!BB7</f>
         <v>0.04377506613</v>
       </c>
-      <c r="BC8" s="21"/>
+      <c r="BC8" s="21">
+        <f>Confirmed!BC7/Testing!BC7</f>
+        <v>0.04428358085</v>
+      </c>
+      <c r="BD8" s="21">
+        <f>Confirmed!BD7/Testing!BD7</f>
+        <v>0.04428848499</v>
+      </c>
+      <c r="BE8" s="21"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -16356,7 +16636,15 @@
         <f>Confirmed!BB8/Testing!BB8</f>
         <v>0.006880830765</v>
       </c>
-      <c r="BC9" s="21"/>
+      <c r="BC9" s="21">
+        <f>Confirmed!BC8/Testing!BC8</f>
+        <v>0.006895419471</v>
+      </c>
+      <c r="BD9" s="21">
+        <f>Confirmed!BD8/Testing!BD8</f>
+        <v>0.007121943499</v>
+      </c>
+      <c r="BE9" s="21"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -16574,7 +16862,15 @@
         <f>Confirmed!BB9/Testing!BB9</f>
         <v>0.01878131217</v>
       </c>
-      <c r="BC10" s="21"/>
+      <c r="BC10" s="21">
+        <f>Confirmed!BC9/Testing!BC9</f>
+        <v>0.01883186501</v>
+      </c>
+      <c r="BD10" s="21">
+        <f>Confirmed!BD9/Testing!BD9</f>
+        <v>0.0185357853</v>
+      </c>
+      <c r="BE10" s="21"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -16792,7 +17088,15 @@
         <f>Confirmed!BB10/Testing!BB10</f>
         <v>0.09848469979</v>
       </c>
-      <c r="BC11" s="21"/>
+      <c r="BC11" s="21">
+        <f>Confirmed!BC10/Testing!BC10</f>
+        <v>0.1015200817</v>
+      </c>
+      <c r="BD11" s="21">
+        <f>Confirmed!BD10/Testing!BD10</f>
+        <v>0.1035948193</v>
+      </c>
+      <c r="BE11" s="21"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -17010,7 +17314,15 @@
         <f>Confirmed!BB11/Testing!BB11</f>
         <v>0.015</v>
       </c>
-      <c r="BC12" s="21"/>
+      <c r="BC12" s="21">
+        <f>Confirmed!BC11/Testing!BC11</f>
+        <v>0.0146964538</v>
+      </c>
+      <c r="BD12" s="21">
+        <f>Confirmed!BD11/Testing!BD11</f>
+        <v>0.0144011809</v>
+      </c>
+      <c r="BE12" s="21"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -18091,7 +18403,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="55" width="9.88"/>
+    <col customWidth="1" min="44" max="57" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -18258,8 +18570,14 @@
         <v>43969.0</v>
       </c>
       <c r="BC1" s="2">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -18457,7 +18775,7 @@
         <v>22069.0</v>
       </c>
       <c r="AX2" s="1">
-        <f t="shared" ref="AX2:BB2" si="3">ROUND($AW2/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX2:BD2" si="3">ROUND($AW2/$AW$12*AX$12,0)</f>
         <v>23021</v>
       </c>
       <c r="AY2" s="1">
@@ -18476,7 +18794,15 @@
         <f t="shared" si="3"/>
         <v>27137</v>
       </c>
-      <c r="BC2" s="1"/>
+      <c r="BC2" s="1">
+        <f t="shared" si="3"/>
+        <v>27910</v>
+      </c>
+      <c r="BD2" s="1">
+        <f t="shared" si="3"/>
+        <v>28953</v>
+      </c>
+      <c r="BE2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -18673,7 +18999,7 @@
         <v>3683.0</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" ref="AX3:BB3" si="6">ROUND($AW3/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX3:BD3" si="6">ROUND($AW3/$AW$12*AX$12,0)</f>
         <v>3842</v>
       </c>
       <c r="AY3" s="1">
@@ -18692,7 +19018,15 @@
         <f t="shared" si="6"/>
         <v>4529</v>
       </c>
-      <c r="BC3" s="1"/>
+      <c r="BC3" s="1">
+        <f t="shared" si="6"/>
+        <v>4658</v>
+      </c>
+      <c r="BD3" s="1">
+        <f t="shared" si="6"/>
+        <v>4832</v>
+      </c>
+      <c r="BE3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -18889,7 +19223,7 @@
         <v>5812.0</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" ref="AX4:BB4" si="9">ROUND($AW4/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX4:BD4" si="9">ROUND($AW4/$AW$12*AX$12,0)</f>
         <v>6063</v>
       </c>
       <c r="AY4" s="1">
@@ -18908,7 +19242,15 @@
         <f t="shared" si="9"/>
         <v>7147</v>
       </c>
-      <c r="BC4" s="1"/>
+      <c r="BC4" s="1">
+        <f t="shared" si="9"/>
+        <v>7350</v>
+      </c>
+      <c r="BD4" s="1">
+        <f t="shared" si="9"/>
+        <v>7625</v>
+      </c>
+      <c r="BE4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -19105,7 +19447,7 @@
         <v>11414.0</v>
       </c>
       <c r="AX5" s="1">
-        <f t="shared" ref="AX5:BB5" si="12">ROUND($AW5/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX5:BD5" si="12">ROUND($AW5/$AW$12*AX$12,0)</f>
         <v>11906</v>
       </c>
       <c r="AY5" s="1">
@@ -19124,7 +19466,15 @@
         <f t="shared" si="12"/>
         <v>14035</v>
       </c>
-      <c r="BC5" s="1"/>
+      <c r="BC5" s="1">
+        <f t="shared" si="12"/>
+        <v>14435</v>
+      </c>
+      <c r="BD5" s="1">
+        <f t="shared" si="12"/>
+        <v>14974</v>
+      </c>
+      <c r="BE5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -19321,7 +19671,7 @@
         <v>8239.0</v>
       </c>
       <c r="AX6" s="1">
-        <f t="shared" ref="AX6:BB6" si="15">ROUND($AW6/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX6:BD6" si="15">ROUND($AW6/$AW$12*AX$12,0)</f>
         <v>8594</v>
       </c>
       <c r="AY6" s="1">
@@ -19340,7 +19690,15 @@
         <f t="shared" si="15"/>
         <v>10131</v>
       </c>
-      <c r="BC6" s="1"/>
+      <c r="BC6" s="1">
+        <f t="shared" si="15"/>
+        <v>10420</v>
+      </c>
+      <c r="BD6" s="1">
+        <f t="shared" si="15"/>
+        <v>10809</v>
+      </c>
+      <c r="BE6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -19537,7 +19895,7 @@
         <v>38122.0</v>
       </c>
       <c r="AX7" s="1">
-        <f t="shared" ref="AX7:BB7" si="18">ROUND($AW7/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX7:BD7" si="18">ROUND($AW7/$AW$12*AX$12,0)</f>
         <v>39766</v>
       </c>
       <c r="AY7" s="1">
@@ -19556,7 +19914,15 @@
         <f t="shared" si="18"/>
         <v>46876</v>
       </c>
-      <c r="BC7" s="1"/>
+      <c r="BC7" s="1">
+        <f t="shared" si="18"/>
+        <v>48212</v>
+      </c>
+      <c r="BD7" s="1">
+        <f t="shared" si="18"/>
+        <v>50013</v>
+      </c>
+      <c r="BE7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -19753,7 +20119,7 @@
         <v>19265.0</v>
       </c>
       <c r="AX8" s="1">
-        <f t="shared" ref="AX8:BB8" si="21">ROUND($AW8/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX8:BD8" si="21">ROUND($AW8/$AW$12*AX$12,0)</f>
         <v>20096</v>
       </c>
       <c r="AY8" s="1">
@@ -19772,7 +20138,15 @@
         <f t="shared" si="21"/>
         <v>23689</v>
       </c>
-      <c r="BC8" s="1"/>
+      <c r="BC8" s="1">
+        <f t="shared" si="21"/>
+        <v>24364</v>
+      </c>
+      <c r="BD8" s="1">
+        <f t="shared" si="21"/>
+        <v>25274</v>
+      </c>
+      <c r="BE8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -19969,7 +20343,7 @@
         <v>67853.0</v>
       </c>
       <c r="AX9" s="1">
-        <f t="shared" ref="AX9:BB9" si="24">ROUND($AW9/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX9:BD9" si="24">ROUND($AW9/$AW$12*AX$12,0)</f>
         <v>70780</v>
       </c>
       <c r="AY9" s="1">
@@ -19988,7 +20362,15 @@
         <f t="shared" si="24"/>
         <v>83434</v>
       </c>
-      <c r="BC9" s="1"/>
+      <c r="BC9" s="1">
+        <f t="shared" si="24"/>
+        <v>85812</v>
+      </c>
+      <c r="BD9" s="1">
+        <f t="shared" si="24"/>
+        <v>89017</v>
+      </c>
+      <c r="BE9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -20185,7 +20567,7 @@
         <v>82865.0</v>
       </c>
       <c r="AX10" s="1">
-        <f t="shared" ref="AX10:BB10" si="27">ROUND($AW10/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX10:BD10" si="27">ROUND($AW10/$AW$12*AX$12,0)</f>
         <v>86440</v>
       </c>
       <c r="AY10" s="1">
@@ -20204,7 +20586,15 @@
         <f t="shared" si="27"/>
         <v>101894</v>
       </c>
-      <c r="BC10" s="1"/>
+      <c r="BC10" s="1">
+        <f t="shared" si="27"/>
+        <v>104797</v>
+      </c>
+      <c r="BD10" s="1">
+        <f t="shared" si="27"/>
+        <v>108712</v>
+      </c>
+      <c r="BE10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -20401,7 +20791,7 @@
         <v>127030.0</v>
       </c>
       <c r="AX11" s="1">
-        <f t="shared" ref="AX11:BB11" si="30">ROUND($AW11/$AW$12*AX$12,0)</f>
+        <f t="shared" ref="AX11:BD11" si="30">ROUND($AW11/$AW$12*AX$12,0)</f>
         <v>132510</v>
       </c>
       <c r="AY11" s="1">
@@ -20420,7 +20810,15 @@
         <f t="shared" si="30"/>
         <v>156200</v>
       </c>
-      <c r="BC11" s="1"/>
+      <c r="BC11" s="1">
+        <f t="shared" si="30"/>
+        <v>160651</v>
+      </c>
+      <c r="BD11" s="1">
+        <f t="shared" si="30"/>
+        <v>166653</v>
+      </c>
+      <c r="BE11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="7" t="s">
@@ -20585,13 +20983,19 @@
       <c r="BB12" s="7">
         <v>475071.0</v>
       </c>
+      <c r="BC12" s="7">
+        <v>488609.0</v>
+      </c>
+      <c r="BD12" s="7">
+        <v>506861.0</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <f t="shared" ref="B13:BC13" si="31">sum(B2:B11)</f>
+        <f t="shared" ref="B13:BE13" si="31">sum(B2:B11)</f>
         <v>28536</v>
       </c>
       <c r="C13" s="11">
@@ -20803,6 +21207,14 @@
         <v>475072</v>
       </c>
       <c r="BC13" s="11">
+        <f t="shared" si="31"/>
+        <v>488609</v>
+      </c>
+      <c r="BD13" s="11">
+        <f t="shared" si="31"/>
+        <v>506862</v>
+      </c>
+      <c r="BE13" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -20890,6 +21302,8 @@
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
       <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -25574,7 +25988,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="55" width="8.88"/>
+    <col customWidth="1" min="46" max="57" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -25741,8 +26155,14 @@
         <v>43969.0</v>
       </c>
       <c r="BC1" s="2">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -25899,6 +26319,8 @@
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -26063,7 +26485,13 @@
       <c r="BB3" s="3">
         <v>0.0</v>
       </c>
-      <c r="BC3" s="3"/>
+      <c r="BC3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="BE3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -26228,7 +26656,13 @@
       <c r="BB4" s="3">
         <v>1.0</v>
       </c>
-      <c r="BC4" s="3"/>
+      <c r="BC4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="BE4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -26393,7 +26827,13 @@
       <c r="BB5" s="3">
         <v>0.0</v>
       </c>
-      <c r="BC5" s="3"/>
+      <c r="BC5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -26558,7 +26998,13 @@
       <c r="BB6" s="3">
         <v>3.0</v>
       </c>
-      <c r="BC6" s="3"/>
+      <c r="BC6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BE6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -26723,7 +27169,13 @@
       <c r="BB7" s="3">
         <v>39.0</v>
       </c>
-      <c r="BC7" s="3"/>
+      <c r="BC7" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="BE7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -26888,7 +27340,13 @@
       <c r="BB8" s="3">
         <v>6.0</v>
       </c>
-      <c r="BC8" s="3"/>
+      <c r="BC8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="BE8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -27053,7 +27511,13 @@
       <c r="BB9" s="3">
         <v>45.0</v>
       </c>
-      <c r="BC9" s="3"/>
+      <c r="BC9" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="BE9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -27218,7 +27682,13 @@
       <c r="BB10" s="3">
         <v>166.0</v>
       </c>
-      <c r="BC10" s="3"/>
+      <c r="BC10" s="3">
+        <v>187.0</v>
+      </c>
+      <c r="BD10" s="3">
+        <v>210.0</v>
+      </c>
+      <c r="BE10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -27383,7 +27853,13 @@
       <c r="BB11" s="3">
         <v>26.0</v>
       </c>
-      <c r="BC11" s="3"/>
+      <c r="BC11" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="BE11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -28400,7 +28876,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="55" width="8.88"/>
+    <col customWidth="1" min="46" max="57" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -28566,9 +29042,15 @@
       <c r="BB1" s="2">
         <v>43969.0</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="6">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -28725,6 +29207,8 @@
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -28889,7 +29373,13 @@
       <c r="BB3" s="3">
         <v>27.0</v>
       </c>
-      <c r="BC3" s="3"/>
+      <c r="BC3" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="BE3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -29054,7 +29544,13 @@
       <c r="BB4" s="3">
         <v>28.0</v>
       </c>
-      <c r="BC4" s="3"/>
+      <c r="BC4" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="BE4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -29219,7 +29715,13 @@
       <c r="BB5" s="3">
         <v>53.0</v>
       </c>
-      <c r="BC5" s="3"/>
+      <c r="BC5" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="BE5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -29384,7 +29886,13 @@
       <c r="BB6" s="3">
         <v>37.0</v>
       </c>
-      <c r="BC6" s="3"/>
+      <c r="BC6" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="BE6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -29549,7 +30057,13 @@
       <c r="BB7" s="3">
         <v>839.0</v>
       </c>
-      <c r="BC7" s="3"/>
+      <c r="BC7" s="3">
+        <v>839.0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>1036.0</v>
+      </c>
+      <c r="BE7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -29714,7 +30228,13 @@
       <c r="BB8" s="3">
         <v>108.0</v>
       </c>
-      <c r="BC8" s="3"/>
+      <c r="BC8" s="3">
+        <v>118.0</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>118.0</v>
+      </c>
+      <c r="BE8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -29879,7 +30399,13 @@
       <c r="BB9" s="3">
         <v>818.0</v>
       </c>
-      <c r="BC9" s="3"/>
+      <c r="BC9" s="3">
+        <v>818.0</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>842.0</v>
+      </c>
+      <c r="BE9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -30044,7 +30570,13 @@
       <c r="BB10" s="3">
         <v>3731.0</v>
       </c>
-      <c r="BC10" s="3"/>
+      <c r="BC10" s="3">
+        <v>4363.0</v>
+      </c>
+      <c r="BD10" s="3">
+        <v>5105.0</v>
+      </c>
+      <c r="BE10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -30209,7 +30741,13 @@
       <c r="BB11" s="3">
         <v>1657.0</v>
       </c>
-      <c r="BC11" s="3"/>
+      <c r="BC11" s="3">
+        <v>1671.0</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>1694.0</v>
+      </c>
+      <c r="BE11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -31225,7 +31763,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="55" width="7.63"/>
+    <col customWidth="1" min="37" max="57" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -31391,9 +31929,15 @@
       <c r="BB1" s="2">
         <v>43969.0</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="12">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="12">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -31591,228 +32135,238 @@
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
-      <c r="BC2" s="1">
-        <f>Confirmed!BC2-Deaths!AX2-Recoveries!AX2</f>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1">
+        <f>Confirmed!BE2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="13">
-        <f t="shared" ref="B3:BC3" si="1">sum(B4:B12)</f>
+      <c r="A3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="17">
+        <f t="shared" ref="B3:BE3" si="1">sum(B4:B12)</f>
         <v>848</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="17">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="17">
         <f t="shared" si="1"/>
         <v>1178</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="17">
         <f t="shared" si="1"/>
         <v>1227</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="17">
         <f t="shared" si="1"/>
         <v>1258</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="17">
         <f t="shared" si="1"/>
         <v>1285</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="17">
         <f t="shared" si="1"/>
         <v>1363</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="17">
         <f t="shared" si="1"/>
         <v>1402</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="17">
         <f t="shared" si="1"/>
         <v>1513</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="17">
         <f t="shared" si="1"/>
         <v>1567</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="17">
         <f t="shared" si="1"/>
         <v>1597</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="17">
         <f t="shared" si="1"/>
         <v>1596</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="17">
         <f t="shared" si="1"/>
         <v>1816</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="17">
         <f t="shared" si="1"/>
         <v>1905</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="17">
         <f t="shared" si="1"/>
         <v>1559</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="17">
         <f t="shared" si="1"/>
         <v>1583</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="17">
         <f t="shared" si="1"/>
         <v>1723</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="17">
         <f t="shared" si="1"/>
         <v>1818</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="17">
         <f t="shared" si="1"/>
         <v>1960</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="17">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="17">
         <f t="shared" si="1"/>
         <v>1638</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="17">
         <f t="shared" si="1"/>
         <v>1808</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="17">
         <f t="shared" si="1"/>
         <v>2047</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="17">
         <f t="shared" si="1"/>
         <v>2159</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="Z3" s="17">
         <f t="shared" si="1"/>
         <v>2144</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AA3" s="17">
         <f t="shared" si="1"/>
         <v>2309</v>
       </c>
-      <c r="AB3" s="13">
+      <c r="AB3" s="17">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="17">
         <f t="shared" si="1"/>
         <v>2404</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3" s="17">
         <f t="shared" si="1"/>
         <v>2668</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="17">
         <f t="shared" si="1"/>
         <v>2802</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AF3" s="17">
         <f t="shared" si="1"/>
         <v>2986</v>
       </c>
-      <c r="AG3" s="13">
+      <c r="AG3" s="17">
         <f t="shared" si="1"/>
         <v>3230</v>
       </c>
-      <c r="AH3" s="13">
+      <c r="AH3" s="17">
         <f t="shared" si="1"/>
         <v>3429</v>
       </c>
-      <c r="AI3" s="13">
+      <c r="AI3" s="17">
         <f t="shared" si="1"/>
         <v>3773</v>
       </c>
-      <c r="AJ3" s="13">
+      <c r="AJ3" s="17">
         <f t="shared" si="1"/>
         <v>4070</v>
       </c>
-      <c r="AK3" s="13">
+      <c r="AK3" s="17">
         <f t="shared" si="1"/>
         <v>4361</v>
       </c>
-      <c r="AL3" s="13">
+      <c r="AL3" s="17">
         <f t="shared" si="1"/>
         <v>3664</v>
       </c>
-      <c r="AM3" s="13">
+      <c r="AM3" s="17">
         <f t="shared" si="1"/>
         <v>4103</v>
       </c>
-      <c r="AN3" s="13">
+      <c r="AN3" s="17">
         <f t="shared" si="1"/>
         <v>4336</v>
       </c>
-      <c r="AO3" s="13">
+      <c r="AO3" s="17">
         <f t="shared" si="1"/>
         <v>4678</v>
       </c>
-      <c r="AP3" s="13">
+      <c r="AP3" s="17">
         <f t="shared" si="1"/>
         <v>4502</v>
       </c>
-      <c r="AQ3" s="13">
+      <c r="AQ3" s="17">
         <f t="shared" si="1"/>
         <v>4918</v>
       </c>
-      <c r="AR3" s="13">
+      <c r="AR3" s="17">
         <f t="shared" si="1"/>
         <v>5564</v>
       </c>
-      <c r="AS3" s="13">
+      <c r="AS3" s="17">
         <f t="shared" si="1"/>
         <v>6081</v>
       </c>
-      <c r="AT3" s="13">
+      <c r="AT3" s="17">
         <f t="shared" si="1"/>
         <v>5648</v>
       </c>
-      <c r="AU3" s="13">
+      <c r="AU3" s="17">
         <f t="shared" si="1"/>
         <v>6273</v>
       </c>
-      <c r="AV3" s="13">
+      <c r="AV3" s="17">
         <f t="shared" si="1"/>
         <v>6971</v>
       </c>
-      <c r="AW3" s="13">
+      <c r="AW3" s="17">
         <f t="shared" si="1"/>
         <v>7110</v>
       </c>
-      <c r="AX3" s="13">
+      <c r="AX3" s="17">
         <f t="shared" si="1"/>
         <v>6825</v>
       </c>
-      <c r="AY3" s="13">
+      <c r="AY3" s="17">
         <f t="shared" si="1"/>
         <v>7194</v>
       </c>
-      <c r="AZ3" s="13">
+      <c r="AZ3" s="17">
         <f t="shared" si="1"/>
         <v>7616</v>
       </c>
-      <c r="BA3" s="13">
+      <c r="BA3" s="17">
         <f t="shared" si="1"/>
         <v>8245</v>
       </c>
-      <c r="BB3" s="13">
+      <c r="BB3" s="17">
         <f t="shared" si="1"/>
         <v>8849</v>
       </c>
-      <c r="BC3" s="13">
+      <c r="BC3" s="17">
+        <f t="shared" si="1"/>
+        <v>8928</v>
+      </c>
+      <c r="BD3" s="17">
+        <f t="shared" si="1"/>
+        <v>8714</v>
+      </c>
+      <c r="BE3" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -32033,7 +32587,15 @@
         <f>Confirmed!BB3-Deaths!BB3-Recoveries!BB3</f>
         <v>10</v>
       </c>
-      <c r="BC4" s="1"/>
+      <c r="BC4" s="1">
+        <f>Confirmed!BC3-Deaths!BC3-Recoveries!BC3</f>
+        <v>9</v>
+      </c>
+      <c r="BD4" s="1">
+        <f>Confirmed!BD3-Deaths!BD3-Recoveries!BD3</f>
+        <v>10</v>
+      </c>
+      <c r="BE4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -32251,7 +32813,15 @@
         <f>Confirmed!BB4-Deaths!BB4-Recoveries!BB4</f>
         <v>43</v>
       </c>
-      <c r="BC5" s="1"/>
+      <c r="BC5" s="1">
+        <f>Confirmed!BC4-Deaths!BC4-Recoveries!BC4</f>
+        <v>43</v>
+      </c>
+      <c r="BD5" s="1">
+        <f>Confirmed!BD4-Deaths!BD4-Recoveries!BD4</f>
+        <v>43</v>
+      </c>
+      <c r="BE5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -32469,7 +33039,15 @@
         <f>Confirmed!BB5-Deaths!BB5-Recoveries!BB5</f>
         <v>23</v>
       </c>
-      <c r="BC6" s="1"/>
+      <c r="BC6" s="1">
+        <f>Confirmed!BC5-Deaths!BC5-Recoveries!BC5</f>
+        <v>21</v>
+      </c>
+      <c r="BD6" s="1">
+        <f>Confirmed!BD5-Deaths!BD5-Recoveries!BD5</f>
+        <v>35</v>
+      </c>
+      <c r="BE6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -32687,7 +33265,15 @@
         <f>Confirmed!BB6-Deaths!BB6-Recoveries!BB6</f>
         <v>48</v>
       </c>
-      <c r="BC7" s="1"/>
+      <c r="BC7" s="1">
+        <f>Confirmed!BC6-Deaths!BC6-Recoveries!BC6</f>
+        <v>52</v>
+      </c>
+      <c r="BD7" s="1">
+        <f>Confirmed!BD6-Deaths!BD6-Recoveries!BD6</f>
+        <v>48</v>
+      </c>
+      <c r="BE7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -32905,7 +33491,15 @@
         <f>Confirmed!BB7-Deaths!BB7-Recoveries!BB7</f>
         <v>1174</v>
       </c>
-      <c r="BC8" s="1"/>
+      <c r="BC8" s="1">
+        <f>Confirmed!BC7-Deaths!BC7-Recoveries!BC7</f>
+        <v>1255</v>
+      </c>
+      <c r="BD8" s="1">
+        <f>Confirmed!BD7-Deaths!BD7-Recoveries!BD7</f>
+        <v>1134</v>
+      </c>
+      <c r="BE8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -33123,7 +33717,15 @@
         <f>Confirmed!BB8-Deaths!BB8-Recoveries!BB8</f>
         <v>49</v>
       </c>
-      <c r="BC9" s="1"/>
+      <c r="BC9" s="1">
+        <f>Confirmed!BC8-Deaths!BC8-Recoveries!BC8</f>
+        <v>44</v>
+      </c>
+      <c r="BD9" s="1">
+        <f>Confirmed!BD8-Deaths!BD8-Recoveries!BD8</f>
+        <v>56</v>
+      </c>
+      <c r="BE9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -33341,7 +33943,15 @@
         <f>Confirmed!BB9-Deaths!BB9-Recoveries!BB9</f>
         <v>704</v>
       </c>
-      <c r="BC10" s="1"/>
+      <c r="BC10" s="1">
+        <f>Confirmed!BC9-Deaths!BC9-Recoveries!BC9</f>
+        <v>752</v>
+      </c>
+      <c r="BD10" s="1">
+        <f>Confirmed!BD9-Deaths!BD9-Recoveries!BD9</f>
+        <v>762</v>
+      </c>
+      <c r="BE10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -33559,7 +34169,15 @@
         <f>Confirmed!BB10-Deaths!BB10-Recoveries!BB10</f>
         <v>6138</v>
       </c>
-      <c r="BC11" s="1"/>
+      <c r="BC11" s="1">
+        <f>Confirmed!BC10-Deaths!BC10-Recoveries!BC10</f>
+        <v>6089</v>
+      </c>
+      <c r="BD11" s="1">
+        <f>Confirmed!BD10-Deaths!BD10-Recoveries!BD10</f>
+        <v>5947</v>
+      </c>
+      <c r="BE11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -33777,7 +34395,15 @@
         <f>Confirmed!BB11-Deaths!BB11-Recoveries!BB11</f>
         <v>660</v>
       </c>
-      <c r="BC12" s="1"/>
+      <c r="BC12" s="1">
+        <f>Confirmed!BC11-Deaths!BC11-Recoveries!BC11</f>
+        <v>663</v>
+      </c>
+      <c r="BD12" s="1">
+        <f>Confirmed!BD11-Deaths!BD11-Recoveries!BD11</f>
+        <v>679</v>
+      </c>
+      <c r="BE12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -34803,247 +35429,247 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AL1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AM1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AN1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AO1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AP1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AR1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AS1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AT1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AU1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AV1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AW1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AX1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="AY1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="BA1" s="14" t="s">
+      <c r="BA1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BB1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BC1" s="14" t="s">
+      <c r="BC1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="BD1" s="14" t="s">
+      <c r="BD1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BE1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BF1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="BG1" s="14" t="s">
+      <c r="BG1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BH1" s="14" t="s">
+      <c r="BH1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BI1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="BJ1" s="14" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="BK1" s="14" t="s">
+      <c r="BK1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="14" t="s">
+      <c r="BL1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BM1" s="14" t="s">
+      <c r="BM1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="BN1" s="14" t="s">
+      <c r="BN1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="BO1" s="14" t="s">
+      <c r="BO1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="BP1" s="14" t="s">
+      <c r="BP1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="BQ1" s="14" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="BR1" s="14" t="s">
+      <c r="BR1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="BS1" s="14" t="s">
+      <c r="BS1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="BT1" s="14" t="s">
+      <c r="BT1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="BU1" s="14" t="s">
+      <c r="BU1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="BV1" s="14" t="s">
+      <c r="BV1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="BW1" s="14" t="s">
+      <c r="BW1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="BX1" s="14" t="s">
+      <c r="BX1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="BY1" s="14" t="s">
+      <c r="BY1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="BZ1" s="14" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="CA1" s="14" t="s">
+      <c r="CA1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="CB1" s="14" t="s">
+      <c r="CB1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="CC1" s="14" t="s">
+      <c r="CC1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="CD1" s="14" t="s">
+      <c r="CD1" s="13" t="s">
         <v>115</v>
       </c>
     </row>
@@ -35238,7 +35864,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1">
-        <f>Confirmed!BC2-Deaths!AX2-Recoveries!AX2</f>
+        <f>Confirmed!BE2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1"/>
@@ -35275,332 +35901,332 @@
       <c r="CD2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="17">
         <f t="shared" ref="B3:CD3" si="1">sum(B4:B12)</f>
-        <v>8849</v>
-      </c>
-      <c r="C3" s="13">
+        <v>8714</v>
+      </c>
+      <c r="C3" s="17">
         <f t="shared" si="1"/>
-        <v>9179</v>
-      </c>
-      <c r="D3" s="13">
+        <v>9071</v>
+      </c>
+      <c r="D3" s="17">
         <f t="shared" si="1"/>
-        <v>9893</v>
-      </c>
-      <c r="E3" s="13">
+        <v>9873</v>
+      </c>
+      <c r="E3" s="17">
         <f t="shared" si="1"/>
-        <v>10666</v>
-      </c>
-      <c r="F3" s="13">
+        <v>10768</v>
+      </c>
+      <c r="F3" s="17">
         <f t="shared" si="1"/>
-        <v>11349</v>
-      </c>
-      <c r="G3" s="13">
+        <v>11609</v>
+      </c>
+      <c r="G3" s="17">
         <f t="shared" si="1"/>
-        <v>11933</v>
-      </c>
-      <c r="H3" s="13">
+        <v>12375</v>
+      </c>
+      <c r="H3" s="17">
         <f t="shared" si="1"/>
-        <v>12968</v>
-      </c>
-      <c r="I3" s="13">
+        <v>13632</v>
+      </c>
+      <c r="I3" s="17">
         <f t="shared" si="1"/>
-        <v>13704</v>
-      </c>
-      <c r="J3" s="13">
+        <v>14598</v>
+      </c>
+      <c r="J3" s="17">
         <f t="shared" si="1"/>
-        <v>14533</v>
-      </c>
-      <c r="K3" s="13">
+        <v>15669</v>
+      </c>
+      <c r="K3" s="17">
         <f t="shared" si="1"/>
-        <v>14758</v>
-      </c>
-      <c r="L3" s="13">
+        <v>16083</v>
+      </c>
+      <c r="L3" s="17">
         <f t="shared" si="1"/>
-        <v>15226</v>
-      </c>
-      <c r="M3" s="13">
+        <v>16744</v>
+      </c>
+      <c r="M3" s="17">
         <f t="shared" si="1"/>
-        <v>15137</v>
-      </c>
-      <c r="N3" s="13">
+        <v>16758</v>
+      </c>
+      <c r="N3" s="17">
         <f t="shared" si="1"/>
-        <v>15143</v>
-      </c>
-      <c r="O3" s="13">
+        <v>16857</v>
+      </c>
+      <c r="O3" s="17">
         <f t="shared" si="1"/>
-        <v>14283</v>
-      </c>
-      <c r="P3" s="13">
+        <v>15948</v>
+      </c>
+      <c r="P3" s="17">
         <f t="shared" si="1"/>
-        <v>13268</v>
-      </c>
-      <c r="Q3" s="13">
+        <v>14838</v>
+      </c>
+      <c r="Q3" s="17">
+        <f t="shared" si="1"/>
+        <v>13181</v>
+      </c>
+      <c r="R3" s="17">
         <f t="shared" si="1"/>
         <v>11787</v>
       </c>
-      <c r="R3" s="13">
+      <c r="S3" s="17">
         <f t="shared" si="1"/>
-        <v>10548</v>
-      </c>
-      <c r="S3" s="13">
+        <v>10697</v>
+      </c>
+      <c r="T3" s="17">
         <f t="shared" si="1"/>
-        <v>9594</v>
-      </c>
-      <c r="T3" s="13">
+        <v>10058</v>
+      </c>
+      <c r="U3" s="17">
         <f t="shared" si="1"/>
-        <v>9043</v>
-      </c>
-      <c r="U3" s="13">
+        <v>8953</v>
+      </c>
+      <c r="V3" s="17">
         <f t="shared" si="1"/>
-        <v>8076</v>
-      </c>
-      <c r="V3" s="13">
+        <v>8285</v>
+      </c>
+      <c r="W3" s="17">
         <f t="shared" si="1"/>
-        <v>7502</v>
-      </c>
-      <c r="W3" s="13">
+        <v>7291</v>
+      </c>
+      <c r="X3" s="17">
         <f t="shared" si="1"/>
-        <v>6626</v>
-      </c>
-      <c r="X3" s="13">
+        <v>6444</v>
+      </c>
+      <c r="Y3" s="17">
         <f t="shared" si="1"/>
-        <v>5884</v>
-      </c>
-      <c r="Y3" s="13">
+        <v>5629</v>
+      </c>
+      <c r="Z3" s="17">
         <f t="shared" si="1"/>
-        <v>5165</v>
-      </c>
-      <c r="Z3" s="13">
+        <v>4912</v>
+      </c>
+      <c r="AA3" s="17">
         <f t="shared" si="1"/>
-        <v>4528</v>
-      </c>
-      <c r="AA3" s="13">
+        <v>4484</v>
+      </c>
+      <c r="AB3" s="17">
         <f t="shared" si="1"/>
-        <v>4153</v>
-      </c>
-      <c r="AB3" s="13">
+        <v>3902</v>
+      </c>
+      <c r="AC3" s="17">
         <f t="shared" si="1"/>
-        <v>3633</v>
-      </c>
-      <c r="AC3" s="13">
+        <v>3508</v>
+      </c>
+      <c r="AD3" s="17">
         <f t="shared" si="1"/>
-        <v>3282</v>
-      </c>
-      <c r="AD3" s="13">
+        <v>3170</v>
+      </c>
+      <c r="AE3" s="17">
         <f t="shared" si="1"/>
-        <v>2980</v>
-      </c>
-      <c r="AE3" s="13">
+        <v>2716</v>
+      </c>
+      <c r="AF3" s="17">
         <f t="shared" si="1"/>
-        <v>2565</v>
-      </c>
-      <c r="AF3" s="13">
+        <v>2327</v>
+      </c>
+      <c r="AG3" s="17">
         <f t="shared" si="1"/>
-        <v>2210</v>
-      </c>
-      <c r="AG3" s="13">
+        <v>2019</v>
+      </c>
+      <c r="AH3" s="17">
         <f t="shared" si="1"/>
-        <v>1927</v>
-      </c>
-      <c r="AH3" s="13">
+        <v>1771</v>
+      </c>
+      <c r="AI3" s="17">
         <f t="shared" si="1"/>
-        <v>1698</v>
-      </c>
-      <c r="AI3" s="13">
+        <v>1580</v>
+      </c>
+      <c r="AJ3" s="17">
         <f t="shared" si="1"/>
-        <v>1523</v>
-      </c>
-      <c r="AJ3" s="13">
+        <v>1342</v>
+      </c>
+      <c r="AK3" s="17">
         <f t="shared" si="1"/>
-        <v>1298</v>
-      </c>
-      <c r="AK3" s="13">
+        <v>1180</v>
+      </c>
+      <c r="AL3" s="17">
         <f t="shared" si="1"/>
-        <v>1146</v>
-      </c>
-      <c r="AL3" s="13">
+        <v>1020</v>
+      </c>
+      <c r="AM3" s="17">
         <f t="shared" si="1"/>
-        <v>994</v>
-      </c>
-      <c r="AM3" s="13">
+        <v>894</v>
+      </c>
+      <c r="AN3" s="17">
         <f t="shared" si="1"/>
-        <v>877</v>
-      </c>
-      <c r="AN3" s="13">
+        <v>753</v>
+      </c>
+      <c r="AO3" s="17">
         <f t="shared" si="1"/>
-        <v>740</v>
-      </c>
-      <c r="AO3" s="13">
+        <v>669</v>
+      </c>
+      <c r="AP3" s="17">
         <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
-      <c r="AP3" s="13">
+        <v>575</v>
+      </c>
+      <c r="AQ3" s="17">
         <f t="shared" si="1"/>
-        <v>570</v>
-      </c>
-      <c r="AQ3" s="13">
-        <f t="shared" si="1"/>
-        <v>508</v>
-      </c>
-      <c r="AR3" s="13">
+        <v>511</v>
+      </c>
+      <c r="AR3" s="17">
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
-      <c r="AS3" s="13">
+      <c r="AS3" s="17">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="AT3" s="13">
+      <c r="AT3" s="17">
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
-      <c r="AU3" s="13">
+      <c r="AU3" s="17">
         <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="AV3" s="13">
+        <v>274</v>
+      </c>
+      <c r="AV3" s="17">
         <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-      <c r="AW3" s="13">
+        <v>244</v>
+      </c>
+      <c r="AW3" s="17">
         <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-      <c r="AX3" s="13">
+        <v>205</v>
+      </c>
+      <c r="AX3" s="17">
         <f t="shared" si="1"/>
-        <v>177</v>
-      </c>
-      <c r="AY3" s="13">
+        <v>175</v>
+      </c>
+      <c r="AY3" s="17">
         <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="AZ3" s="13">
+        <v>154</v>
+      </c>
+      <c r="AZ3" s="17">
         <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="BA3" s="13">
+        <v>125</v>
+      </c>
+      <c r="BA3" s="17">
         <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="BB3" s="13">
+        <v>114</v>
+      </c>
+      <c r="BB3" s="17">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="BC3" s="13">
+        <v>101</v>
+      </c>
+      <c r="BC3" s="17">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="BD3" s="13">
+        <v>88</v>
+      </c>
+      <c r="BD3" s="17">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="BE3" s="13">
+        <v>77</v>
+      </c>
+      <c r="BE3" s="17">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="BF3" s="13">
+        <v>69</v>
+      </c>
+      <c r="BF3" s="17">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="BG3" s="13">
+      <c r="BG3" s="17">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="BH3" s="13">
+        <v>52</v>
+      </c>
+      <c r="BH3" s="17">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="BI3" s="13">
+        <v>46</v>
+      </c>
+      <c r="BI3" s="17">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="BJ3" s="13">
+        <v>41</v>
+      </c>
+      <c r="BJ3" s="17">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="BK3" s="13">
+      <c r="BK3" s="17">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="BL3" s="13">
+      <c r="BL3" s="17">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="BM3" s="13">
+      <c r="BM3" s="17">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="BN3" s="13">
+        <v>27</v>
+      </c>
+      <c r="BN3" s="17">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="BO3" s="17">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="BO3" s="13">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="BP3" s="13">
+      <c r="BP3" s="17">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="BQ3" s="13">
+      <c r="BQ3" s="17">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="BR3" s="13">
+      <c r="BR3" s="17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="BS3" s="13">
+      <c r="BS3" s="17">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="BT3" s="13">
+      <c r="BT3" s="17">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="BU3" s="13">
+        <v>13</v>
+      </c>
+      <c r="BU3" s="17">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="BV3" s="13">
+      <c r="BV3" s="17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="BW3" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="BW3" s="13">
+      <c r="BX3" s="17">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="BX3" s="13">
+      <c r="BY3" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="BY3" s="13">
+        <v>9</v>
+      </c>
+      <c r="BZ3" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="BZ3" s="13">
+      <c r="CA3" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="CA3" s="13">
+      <c r="CB3" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="CB3" s="13">
+      <c r="CC3" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="CC3" s="13">
+        <v>6</v>
+      </c>
+      <c r="CD3" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="CD3" s="13">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -35865,13 +36491,13 @@
         <v>30.0</v>
       </c>
       <c r="E5" s="3">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="F5" s="3">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="G5" s="3">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="H5" s="3">
         <v>12.0</v>
@@ -35883,7 +36509,7 @@
         <v>8.0</v>
       </c>
       <c r="K5" s="3">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L5" s="3">
         <v>5.0</v>
@@ -35895,13 +36521,13 @@
         <v>3.0</v>
       </c>
       <c r="O5" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P5" s="3">
         <v>2.0</v>
       </c>
       <c r="Q5" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R5" s="3">
         <v>1.0</v>
@@ -36104,43 +36730,43 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>23.0</v>
+        <v>35.0</v>
       </c>
       <c r="C6" s="3">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="D6" s="3">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="E6" s="3">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="F6" s="3">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="G6" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="I6" s="3">
         <v>7.0</v>
       </c>
-      <c r="H6" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="3">
         <v>4.0</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3">
         <v>3.0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2.0</v>
       </c>
       <c r="M6" s="3">
         <v>2.0</v>
       </c>
       <c r="N6" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O6" s="3">
         <v>1.0</v>
@@ -36152,7 +36778,7 @@
         <v>1.0</v>
       </c>
       <c r="R6" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S6" s="3">
         <v>0.0</v>
@@ -36600,247 +37226,247 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>1174.0</v>
+        <v>1134.0</v>
       </c>
       <c r="C8" s="3">
-        <v>1133.0</v>
+        <v>1096.0</v>
       </c>
       <c r="D8" s="3">
-        <v>1065.0</v>
+        <v>1032.0</v>
       </c>
       <c r="E8" s="3">
-        <v>1008.0</v>
+        <v>980.0</v>
       </c>
       <c r="F8" s="3">
-        <v>947.0</v>
+        <v>922.0</v>
       </c>
       <c r="G8" s="3">
-        <v>887.0</v>
+        <v>866.0</v>
       </c>
       <c r="H8" s="3">
-        <v>839.0</v>
+        <v>821.0</v>
       </c>
       <c r="I8" s="3">
-        <v>770.0</v>
+        <v>756.0</v>
       </c>
       <c r="J8" s="3">
-        <v>686.0</v>
+        <v>675.0</v>
       </c>
       <c r="K8" s="3">
-        <v>618.0</v>
+        <v>610.0</v>
       </c>
       <c r="L8" s="3">
-        <v>567.0</v>
+        <v>561.0</v>
       </c>
       <c r="M8" s="3">
-        <v>547.0</v>
+        <v>542.0</v>
       </c>
       <c r="N8" s="3">
-        <v>513.0</v>
+        <v>511.0</v>
       </c>
       <c r="O8" s="3">
-        <v>475.0</v>
+        <v>474.0</v>
       </c>
       <c r="P8" s="3">
         <v>462.0</v>
       </c>
       <c r="Q8" s="3">
-        <v>440.0</v>
+        <v>442.0</v>
       </c>
       <c r="R8" s="3">
-        <v>394.0</v>
+        <v>397.0</v>
       </c>
       <c r="S8" s="3">
-        <v>386.0</v>
+        <v>389.0</v>
       </c>
       <c r="T8" s="3">
-        <v>346.0</v>
+        <v>350.0</v>
       </c>
       <c r="U8" s="3">
-        <v>327.0</v>
+        <v>333.0</v>
       </c>
       <c r="V8" s="3">
-        <v>311.0</v>
+        <v>316.0</v>
       </c>
       <c r="W8" s="3">
-        <v>285.0</v>
+        <v>291.0</v>
       </c>
       <c r="X8" s="3">
-        <v>265.0</v>
+        <v>272.0</v>
       </c>
       <c r="Y8" s="3">
-        <v>247.0</v>
+        <v>254.0</v>
       </c>
       <c r="Z8" s="3">
-        <v>221.0</v>
+        <v>228.0</v>
       </c>
       <c r="AA8" s="3">
-        <v>199.0</v>
+        <v>206.0</v>
       </c>
       <c r="AB8" s="3">
+        <v>196.0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>189.0</v>
       </c>
-      <c r="AC8" s="3">
-        <v>181.0</v>
-      </c>
       <c r="AD8" s="3">
-        <v>167.0</v>
+        <v>174.0</v>
       </c>
       <c r="AE8" s="3">
+        <v>165.0</v>
+      </c>
+      <c r="AF8" s="3">
         <v>158.0</v>
       </c>
-      <c r="AF8" s="3">
-        <v>150.0</v>
-      </c>
       <c r="AG8" s="3">
-        <v>139.0</v>
+        <v>146.0</v>
       </c>
       <c r="AH8" s="3">
+        <v>134.0</v>
+      </c>
+      <c r="AI8" s="3">
         <v>127.0</v>
       </c>
-      <c r="AI8" s="3">
-        <v>120.0</v>
-      </c>
       <c r="AJ8" s="3">
-        <v>118.0</v>
+        <v>126.0</v>
       </c>
       <c r="AK8" s="3">
-        <v>110.0</v>
+        <v>117.0</v>
       </c>
       <c r="AL8" s="3">
-        <v>108.0</v>
+        <v>116.0</v>
       </c>
       <c r="AM8" s="3">
-        <v>97.0</v>
+        <v>104.0</v>
       </c>
       <c r="AN8" s="3">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="AO8" s="3">
-        <v>84.0</v>
+        <v>91.0</v>
       </c>
       <c r="AP8" s="3">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
       <c r="AQ8" s="3">
+        <v>76.0</v>
+      </c>
+      <c r="AR8" s="3">
         <v>70.0</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AS8" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="AT8" s="3">
         <v>65.0</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AU8" s="3">
         <v>63.0</v>
       </c>
-      <c r="AT8" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>57.0</v>
-      </c>
       <c r="AV8" s="3">
-        <v>53.0</v>
+        <v>58.0</v>
       </c>
       <c r="AW8" s="3">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="AX8" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="AY8" s="3">
         <v>41.0</v>
       </c>
-      <c r="AY8" s="3">
-        <v>37.0</v>
-      </c>
       <c r="AZ8" s="3">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="BA8" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="BB8" s="3">
         <v>31.0</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BC8" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="BD8" s="3">
         <v>28.0</v>
       </c>
-      <c r="BC8" s="3">
+      <c r="BE8" s="3">
         <v>26.0</v>
       </c>
-      <c r="BD8" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>23.0</v>
-      </c>
       <c r="BF8" s="3">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="BG8" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="BH8" s="3">
         <v>20.0</v>
       </c>
-      <c r="BH8" s="3">
+      <c r="BI8" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="BJ8" s="3">
         <v>18.0</v>
       </c>
-      <c r="BI8" s="3">
+      <c r="BK8" s="3">
         <v>17.0</v>
       </c>
-      <c r="BJ8" s="3">
+      <c r="BL8" s="3">
         <v>16.0</v>
       </c>
-      <c r="BK8" s="3">
+      <c r="BM8" s="3">
         <v>15.0</v>
       </c>
-      <c r="BL8" s="3">
+      <c r="BN8" s="3">
         <v>14.0</v>
       </c>
-      <c r="BM8" s="3">
+      <c r="BO8" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="BP8" s="3">
         <v>13.0</v>
       </c>
-      <c r="BN8" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="BP8" s="3">
+      <c r="BQ8" s="3">
         <v>11.0</v>
       </c>
-      <c r="BQ8" s="3">
+      <c r="BR8" s="3">
         <v>10.0</v>
       </c>
-      <c r="BR8" s="3">
+      <c r="BS8" s="3">
         <v>9.0</v>
       </c>
-      <c r="BS8" s="3">
+      <c r="BT8" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="BU8" s="3">
         <v>8.0</v>
       </c>
-      <c r="BT8" s="3">
+      <c r="BV8" s="3">
         <v>8.0</v>
       </c>
-      <c r="BU8" s="3">
+      <c r="BW8" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="BX8" s="3">
         <v>7.0</v>
       </c>
-      <c r="BV8" s="3">
+      <c r="BY8" s="3">
         <v>7.0</v>
       </c>
-      <c r="BW8" s="3">
+      <c r="BZ8" s="3">
         <v>6.0</v>
       </c>
-      <c r="BX8" s="3">
+      <c r="CA8" s="3">
         <v>6.0</v>
       </c>
-      <c r="BY8" s="3">
+      <c r="CB8" s="3">
         <v>5.0</v>
       </c>
-      <c r="BZ8" s="3">
+      <c r="CC8" s="3">
         <v>5.0</v>
       </c>
-      <c r="CA8" s="3">
+      <c r="CD8" s="3">
         <v>5.0</v>
-      </c>
-      <c r="CB8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="CC8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="CD8" s="3">
-        <v>4.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -36848,43 +37474,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
+        <v>56.0</v>
+      </c>
+      <c r="C9" s="3">
         <v>49.0</v>
       </c>
-      <c r="C9" s="3">
-        <v>43.0</v>
-      </c>
       <c r="D9" s="3">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="E9" s="3">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="F9" s="3">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="G9" s="3">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H9" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="I9" s="3">
         <v>12.0</v>
       </c>
-      <c r="I9" s="3">
-        <v>10.0</v>
-      </c>
       <c r="J9" s="3">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K9" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="L9" s="3">
         <v>6.0</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5.0</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4.0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3.0</v>
       </c>
       <c r="O9" s="3">
         <v>3.0</v>
@@ -36896,7 +37522,7 @@
         <v>2.0</v>
       </c>
       <c r="R9" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S9" s="3">
         <v>1.0</v>
@@ -36911,7 +37537,7 @@
         <v>1.0</v>
       </c>
       <c r="W9" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X9" s="3">
         <v>0.0</v>
@@ -37096,70 +37722,70 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>704.0</v>
+        <v>762.0</v>
       </c>
       <c r="C10" s="3">
-        <v>631.0</v>
+        <v>683.0</v>
       </c>
       <c r="D10" s="3">
-        <v>530.0</v>
+        <v>573.0</v>
       </c>
       <c r="E10" s="3">
-        <v>446.0</v>
+        <v>481.0</v>
       </c>
       <c r="F10" s="3">
-        <v>385.0</v>
+        <v>415.0</v>
       </c>
       <c r="G10" s="3">
-        <v>310.0</v>
+        <v>334.0</v>
       </c>
       <c r="H10" s="3">
-        <v>266.0</v>
+        <v>286.0</v>
       </c>
       <c r="I10" s="3">
-        <v>219.0</v>
+        <v>235.0</v>
       </c>
       <c r="J10" s="3">
-        <v>179.0</v>
+        <v>191.0</v>
       </c>
       <c r="K10" s="3">
-        <v>146.0</v>
+        <v>156.0</v>
       </c>
       <c r="L10" s="3">
-        <v>125.0</v>
+        <v>134.0</v>
       </c>
       <c r="M10" s="3">
-        <v>107.0</v>
+        <v>114.0</v>
       </c>
       <c r="N10" s="3">
-        <v>89.0</v>
+        <v>95.0</v>
       </c>
       <c r="O10" s="3">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="P10" s="3">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="Q10" s="3">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="R10" s="3">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="S10" s="3">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="T10" s="3">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="U10" s="3">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="V10" s="3">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="W10" s="3">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="X10" s="3">
         <v>16.0</v>
@@ -37183,7 +37809,7 @@
         <v>5.0</v>
       </c>
       <c r="AE10" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AF10" s="3">
         <v>4.0</v>
@@ -37201,7 +37827,7 @@
         <v>2.0</v>
       </c>
       <c r="AK10" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AL10" s="3">
         <v>1.0</v>
@@ -37344,226 +37970,226 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>6138.0</v>
+        <v>5947.0</v>
       </c>
       <c r="C11" s="3">
-        <v>6641.0</v>
+        <v>6485.0</v>
       </c>
       <c r="D11" s="3">
-        <v>7646.0</v>
+        <v>7590.0</v>
       </c>
       <c r="E11" s="3">
-        <v>8659.0</v>
+        <v>8736.0</v>
       </c>
       <c r="F11" s="3">
-        <v>9550.0</v>
+        <v>9791.0</v>
       </c>
       <c r="G11" s="3">
-        <v>10369.0</v>
+        <v>10798.0</v>
       </c>
       <c r="H11" s="3">
-        <v>11562.0</v>
+        <v>12216.0</v>
       </c>
       <c r="I11" s="3">
-        <v>12472.0</v>
+        <v>13358.0</v>
       </c>
       <c r="J11" s="3">
-        <v>13464.0</v>
+        <v>14595.0</v>
       </c>
       <c r="K11" s="3">
-        <v>13828.0</v>
+        <v>15149.0</v>
       </c>
       <c r="L11" s="3">
-        <v>14402.0</v>
+        <v>15915.0</v>
       </c>
       <c r="M11" s="3">
-        <v>14376.0</v>
+        <v>15995.0</v>
       </c>
       <c r="N11" s="3">
-        <v>14458.0</v>
+        <v>16166.0</v>
       </c>
       <c r="O11" s="3">
-        <v>13662.0</v>
+        <v>15325.0</v>
       </c>
       <c r="P11" s="3">
-        <v>12689.0</v>
+        <v>14256.0</v>
       </c>
       <c r="Q11" s="3">
-        <v>11251.0</v>
+        <v>12641.0</v>
       </c>
       <c r="R11" s="3">
-        <v>10075.0</v>
+        <v>11308.0</v>
       </c>
       <c r="S11" s="3">
-        <v>9144.0</v>
+        <v>10242.0</v>
       </c>
       <c r="T11" s="3">
-        <v>8642.0</v>
+        <v>9653.0</v>
       </c>
       <c r="U11" s="3">
-        <v>7702.0</v>
+        <v>8573.0</v>
       </c>
       <c r="V11" s="3">
-        <v>7150.0</v>
+        <v>7928.0</v>
       </c>
       <c r="W11" s="3">
-        <v>6310.0</v>
+        <v>6967.0</v>
       </c>
       <c r="X11" s="3">
-        <v>5592.0</v>
+        <v>6145.0</v>
       </c>
       <c r="Y11" s="3">
-        <v>4895.0</v>
+        <v>5353.0</v>
       </c>
       <c r="Z11" s="3">
-        <v>4289.0</v>
+        <v>4666.0</v>
       </c>
       <c r="AA11" s="3">
-        <v>3938.0</v>
+        <v>4262.0</v>
       </c>
       <c r="AB11" s="3">
-        <v>3431.0</v>
+        <v>3694.0</v>
       </c>
       <c r="AC11" s="3">
-        <v>3090.0</v>
+        <v>3309.0</v>
       </c>
       <c r="AD11" s="3">
-        <v>2804.0</v>
+        <v>2987.0</v>
       </c>
       <c r="AE11" s="3">
-        <v>2400.0</v>
+        <v>2543.0</v>
       </c>
       <c r="AF11" s="3">
-        <v>2053.0</v>
+        <v>2162.0</v>
       </c>
       <c r="AG11" s="3">
-        <v>1783.0</v>
+        <v>1868.0</v>
       </c>
       <c r="AH11" s="3">
-        <v>1566.0</v>
+        <v>1632.0</v>
       </c>
       <c r="AI11" s="3">
-        <v>1399.0</v>
+        <v>1450.0</v>
       </c>
       <c r="AJ11" s="3">
-        <v>1177.0</v>
+        <v>1213.0</v>
       </c>
       <c r="AK11" s="3">
-        <v>1034.0</v>
+        <v>1060.0</v>
       </c>
       <c r="AL11" s="3">
-        <v>884.0</v>
+        <v>902.0</v>
       </c>
       <c r="AM11" s="3">
-        <v>778.0</v>
+        <v>788.0</v>
       </c>
       <c r="AN11" s="3">
-        <v>645.0</v>
+        <v>651.0</v>
       </c>
       <c r="AO11" s="3">
-        <v>575.0</v>
+        <v>577.0</v>
       </c>
       <c r="AP11" s="3">
-        <v>492.0</v>
+        <v>491.0</v>
       </c>
       <c r="AQ11" s="3">
-        <v>438.0</v>
+        <v>435.0</v>
       </c>
       <c r="AR11" s="3">
-        <v>366.0</v>
+        <v>361.0</v>
       </c>
       <c r="AS11" s="3">
-        <v>297.0</v>
+        <v>292.0</v>
       </c>
       <c r="AT11" s="3">
-        <v>258.0</v>
+        <v>252.0</v>
       </c>
       <c r="AU11" s="3">
-        <v>218.0</v>
+        <v>211.0</v>
       </c>
       <c r="AV11" s="3">
-        <v>193.0</v>
+        <v>186.0</v>
       </c>
       <c r="AW11" s="3">
-        <v>160.0</v>
+        <v>154.0</v>
       </c>
       <c r="AX11" s="3">
-        <v>136.0</v>
+        <v>130.0</v>
       </c>
       <c r="AY11" s="3">
-        <v>119.0</v>
+        <v>113.0</v>
       </c>
       <c r="AZ11" s="3">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
       <c r="BA11" s="3">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="BB11" s="3">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="BC11" s="3">
-        <v>64.0</v>
+        <v>59.0</v>
       </c>
       <c r="BD11" s="3">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="BE11" s="3">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="BF11" s="3">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="BG11" s="3">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="BH11" s="3">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="BI11" s="3">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="BJ11" s="3">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="BK11" s="3">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="BL11" s="3">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="BM11" s="3">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="BN11" s="3">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="BO11" s="3">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="BP11" s="3">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="BQ11" s="3">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="BR11" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="BS11" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="BT11" s="3">
         <v>4.0</v>
       </c>
       <c r="BU11" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="BV11" s="3">
         <v>3.0</v>
       </c>
       <c r="BW11" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BX11" s="3">
         <v>2.0</v>
@@ -37572,7 +38198,7 @@
         <v>2.0</v>
       </c>
       <c r="BZ11" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="CA11" s="3">
         <v>1.0</v>
@@ -37592,31 +38218,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>660.0</v>
+        <v>679.0</v>
       </c>
       <c r="C12" s="3">
-        <v>619.0</v>
+        <v>636.0</v>
       </c>
       <c r="D12" s="3">
-        <v>531.0</v>
+        <v>544.0</v>
       </c>
       <c r="E12" s="3">
-        <v>456.0</v>
+        <v>465.0</v>
       </c>
       <c r="F12" s="3">
-        <v>391.0</v>
+        <v>398.0</v>
       </c>
       <c r="G12" s="3">
-        <v>307.0</v>
+        <v>311.0</v>
       </c>
       <c r="H12" s="3">
-        <v>255.0</v>
+        <v>258.0</v>
       </c>
       <c r="I12" s="3">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
       <c r="J12" s="3">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
       <c r="K12" s="3">
         <v>144.0</v>
@@ -37625,34 +38251,34 @@
         <v>114.0</v>
       </c>
       <c r="M12" s="3">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="N12" s="3">
         <v>72.0</v>
       </c>
       <c r="O12" s="3">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="P12" s="3">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="Q12" s="3">
         <v>38.0</v>
       </c>
       <c r="R12" s="3">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="S12" s="3">
         <v>27.0</v>
       </c>
       <c r="T12" s="3">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="U12" s="3">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="V12" s="3">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="W12" s="3">
         <v>13.0</v>
@@ -37661,7 +38287,7 @@
         <v>11.0</v>
       </c>
       <c r="Y12" s="3">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z12" s="3">
         <v>8.0</v>
@@ -37670,10 +38296,10 @@
         <v>7.0</v>
       </c>
       <c r="AB12" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC12" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AD12" s="3">
         <v>4.0</v>
@@ -37691,7 +38317,7 @@
         <v>2.0</v>
       </c>
       <c r="AI12" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ12" s="3">
         <v>1.0</v>
@@ -38856,148 +39482,148 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3">
-        <v>4678.0</v>
+        <v>4918.0</v>
       </c>
       <c r="C2" s="3">
-        <v>4502.0</v>
+        <v>5564.0</v>
       </c>
       <c r="D2" s="3">
-        <v>4918.0</v>
+        <v>6081.0</v>
       </c>
       <c r="E2" s="3">
-        <v>5564.0</v>
+        <v>5648.0</v>
       </c>
       <c r="F2" s="3">
-        <v>6081.0</v>
+        <v>6273.0</v>
       </c>
       <c r="G2" s="3">
-        <v>5648.0</v>
+        <v>6971.0</v>
       </c>
       <c r="H2" s="3">
-        <v>6273.0</v>
+        <v>7110.0</v>
       </c>
       <c r="I2" s="3">
-        <v>6971.0</v>
+        <v>6825.0</v>
       </c>
       <c r="J2" s="3">
-        <v>7110.0</v>
+        <v>7194.0</v>
       </c>
       <c r="K2" s="3">
-        <v>6825.0</v>
+        <v>7616.0</v>
       </c>
       <c r="L2" s="3">
-        <v>7194.0</v>
+        <v>8245.0</v>
       </c>
       <c r="M2" s="3">
-        <v>7616.0</v>
+        <v>8849.0</v>
       </c>
       <c r="N2" s="3">
-        <v>8245.0</v>
+        <v>8928.0</v>
       </c>
       <c r="O2" s="3">
-        <v>8849.0</v>
+        <v>8714.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
-        <v>4678.0</v>
+        <v>4918.0</v>
       </c>
       <c r="C3" s="3">
-        <v>4502.0</v>
+        <v>5564.0</v>
       </c>
       <c r="D3" s="3">
-        <v>4918.0</v>
+        <v>6081.0</v>
       </c>
       <c r="E3" s="3">
-        <v>5564.0</v>
+        <v>5648.0</v>
       </c>
       <c r="F3" s="3">
-        <v>6081.0</v>
+        <v>6383.0</v>
       </c>
       <c r="G3" s="3">
-        <v>5648.0</v>
+        <v>7625.0</v>
       </c>
       <c r="H3" s="3">
-        <v>6383.0</v>
+        <v>8671.0</v>
       </c>
       <c r="I3" s="3">
-        <v>7625.0</v>
+        <v>9236.0</v>
       </c>
       <c r="J3" s="3">
-        <v>8671.0</v>
+        <v>10282.0</v>
       </c>
       <c r="K3" s="3">
-        <v>9236.0</v>
+        <v>11540.0</v>
       </c>
       <c r="L3" s="3">
-        <v>10282.0</v>
+        <v>13417.0</v>
       </c>
       <c r="M3" s="3">
-        <v>11540.0</v>
+        <v>15226.0</v>
       </c>
       <c r="N3" s="3">
-        <v>13417.0</v>
+        <v>16164.0</v>
       </c>
       <c r="O3" s="3">
-        <v>15226.0</v>
+        <v>16857.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
@@ -39062,16 +39688,16 @@
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -39097,7 +39723,7 @@
       <c r="D7" s="3">
         <v>35.83</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.791217485906439</v>
       </c>
       <c r="F7" s="3"/>
@@ -39124,7 +39750,7 @@
       <c r="D8" s="3">
         <v>32.72</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>1.06774997765174</v>
       </c>
       <c r="F8" s="3"/>
@@ -39151,8 +39777,8 @@
       <c r="D9" s="3">
         <v>25.0</v>
       </c>
-      <c r="E9" s="15">
-        <v>0.500850683998714</v>
+      <c r="E9" s="14">
+        <v>0.762164084345868</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -39178,7 +39804,7 @@
       <c r="D10" s="3">
         <v>22.68</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0.802328893334385</v>
       </c>
       <c r="F10" s="3"/>
@@ -39205,8 +39831,8 @@
       <c r="D11" s="3">
         <v>37.62</v>
       </c>
-      <c r="E11" s="15">
-        <v>17.4903415771342</v>
+      <c r="E11" s="14">
+        <v>16.8944185251024</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -39232,8 +39858,8 @@
       <c r="D12" s="3">
         <v>49.62</v>
       </c>
-      <c r="E12" s="15">
-        <v>1.69699026654869</v>
+      <c r="E12" s="14">
+        <v>1.93941744748421</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -39250,51 +39876,51 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="7">
         <v>34.31</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="7">
         <v>108.39</v>
       </c>
       <c r="D13" s="7">
         <v>43.4</v>
       </c>
-      <c r="E13" s="17">
-        <v>6.23611158600439</v>
+      <c r="E13" s="15">
+        <v>6.74988214280589</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="7">
         <v>25.39</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="7">
         <v>100.02</v>
       </c>
       <c r="D14" s="7">
         <v>44.7</v>
       </c>
-      <c r="E14" s="17">
-        <v>89.6808309196362</v>
+      <c r="E14" s="15">
+        <v>86.8901761940496</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="7">
         <v>25.31</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="7">
         <v>140.8</v>
       </c>
       <c r="D15" s="7">
         <v>56.44</v>
       </c>
-      <c r="E15" s="17">
-        <v>4.34893910595696</v>
+      <c r="E15" s="15">
+        <v>4.47413583779512</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
@@ -40307,7 +40933,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="55" width="8.88"/>
+    <col customWidth="1" min="46" max="57" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -40474,8 +41100,14 @@
         <v>43969.0</v>
       </c>
       <c r="BC1" s="2">
+        <v>43970.0</v>
+      </c>
+      <c r="BD1" s="12">
+        <v>43971.0</v>
+      </c>
+      <c r="BE1" s="2">
         <f>today()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -40673,8 +41305,10 @@
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
-      <c r="BC2" s="1">
-        <f>Confirmed!BC2-Active!BC2</f>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1">
+        <f>Confirmed!BE2-Active!BE2</f>
         <v>0</v>
       </c>
     </row>
@@ -40894,7 +41528,15 @@
         <f>Confirmed!BB3-Active!BB4</f>
         <v>27</v>
       </c>
-      <c r="BC3" s="1"/>
+      <c r="BC3" s="1">
+        <f>Confirmed!BC3-Active!BC4</f>
+        <v>28</v>
+      </c>
+      <c r="BD3" s="1">
+        <f>Confirmed!BD3-Active!BD4</f>
+        <v>28</v>
+      </c>
+      <c r="BE3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -41112,7 +41754,15 @@
         <f>Confirmed!BB4-Active!BB5</f>
         <v>29</v>
       </c>
-      <c r="BC4" s="1"/>
+      <c r="BC4" s="1">
+        <f>Confirmed!BC4-Active!BC5</f>
+        <v>29</v>
+      </c>
+      <c r="BD4" s="1">
+        <f>Confirmed!BD4-Active!BD5</f>
+        <v>29</v>
+      </c>
+      <c r="BE4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -41330,7 +41980,15 @@
         <f>Confirmed!BB5-Active!BB6</f>
         <v>53</v>
       </c>
-      <c r="BC5" s="1"/>
+      <c r="BC5" s="1">
+        <f>Confirmed!BC5-Active!BC6</f>
+        <v>57</v>
+      </c>
+      <c r="BD5" s="1">
+        <f>Confirmed!BD5-Active!BD6</f>
+        <v>58</v>
+      </c>
+      <c r="BE5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -41548,7 +42206,15 @@
         <f>Confirmed!BB6-Active!BB7</f>
         <v>40</v>
       </c>
-      <c r="BC6" s="1"/>
+      <c r="BC6" s="1">
+        <f>Confirmed!BC6-Active!BC7</f>
+        <v>42</v>
+      </c>
+      <c r="BD6" s="1">
+        <f>Confirmed!BD6-Active!BD7</f>
+        <v>45</v>
+      </c>
+      <c r="BE6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -41766,7 +42432,15 @@
         <f>Confirmed!BB7-Active!BB8</f>
         <v>878</v>
       </c>
-      <c r="BC7" s="1"/>
+      <c r="BC7" s="1">
+        <f>Confirmed!BC7-Active!BC8</f>
+        <v>880</v>
+      </c>
+      <c r="BD7" s="1">
+        <f>Confirmed!BD7-Active!BD8</f>
+        <v>1081</v>
+      </c>
+      <c r="BE7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -41984,7 +42658,15 @@
         <f>Confirmed!BB8-Active!BB9</f>
         <v>114</v>
       </c>
-      <c r="BC8" s="1"/>
+      <c r="BC8" s="1">
+        <f>Confirmed!BC8-Active!BC9</f>
+        <v>124</v>
+      </c>
+      <c r="BD8" s="1">
+        <f>Confirmed!BD8-Active!BD9</f>
+        <v>124</v>
+      </c>
+      <c r="BE8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -42202,7 +42884,15 @@
         <f>Confirmed!BB9-Active!BB10</f>
         <v>863</v>
       </c>
-      <c r="BC9" s="1"/>
+      <c r="BC9" s="1">
+        <f>Confirmed!BC9-Active!BC10</f>
+        <v>864</v>
+      </c>
+      <c r="BD9" s="1">
+        <f>Confirmed!BD9-Active!BD10</f>
+        <v>888</v>
+      </c>
+      <c r="BE9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -42420,7 +43110,15 @@
         <f>Confirmed!BB10-Active!BB11</f>
         <v>3897</v>
       </c>
-      <c r="BC10" s="1"/>
+      <c r="BC10" s="1">
+        <f>Confirmed!BC10-Active!BC11</f>
+        <v>4550</v>
+      </c>
+      <c r="BD10" s="1">
+        <f>Confirmed!BD10-Active!BD11</f>
+        <v>5315</v>
+      </c>
+      <c r="BE10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -42638,7 +43336,15 @@
         <f>Confirmed!BB11-Active!BB12</f>
         <v>1683</v>
       </c>
-      <c r="BC11" s="1"/>
+      <c r="BC11" s="1">
+        <f>Confirmed!BC11-Active!BC12</f>
+        <v>1698</v>
+      </c>
+      <c r="BD11" s="1">
+        <f>Confirmed!BD11-Active!BD12</f>
+        <v>1721</v>
+      </c>
+      <c r="BE11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -20,7 +20,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataSignature="AMtx7mgR6/00KizSd1B7hEq/AlH2w6+8DA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataSignature="AMtx7mh9SJX0D+0/EEQh+gX0vWGpLDM1eQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -416,7 +416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -439,7 +439,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
@@ -487,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -497,15 +496,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="15" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -515,9 +513,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -531,7 +526,7 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -541,7 +536,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -595,12 +590,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$2:$BG$2</c:f>
+              <c:f>Testing!$B$2:$BI$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -619,12 +614,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$3:$BG$3</c:f>
+              <c:f>Testing!$B$3:$BI$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -643,12 +638,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$4:$BG$4</c:f>
+              <c:f>Testing!$B$4:$BI$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -667,12 +662,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$5:$BG$5</c:f>
+              <c:f>Testing!$B$5:$BI$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -691,12 +686,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$6:$BG$6</c:f>
+              <c:f>Testing!$B$6:$BI$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -715,12 +710,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$7:$BG$7</c:f>
+              <c:f>Testing!$B$7:$BI$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -741,12 +736,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$8:$BG$8</c:f>
+              <c:f>Testing!$B$8:$BI$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -767,12 +762,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$9:$BG$9</c:f>
+              <c:f>Testing!$B$9:$BI$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -793,12 +788,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$10:$BG$10</c:f>
+              <c:f>Testing!$B$10:$BI$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -819,21 +814,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BG$1</c:f>
+              <c:f>Testing!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$11:$BG$11</c:f>
+              <c:f>Testing!$B$11:$BI$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1287904470"/>
-        <c:axId val="2027830155"/>
+        <c:axId val="1723657129"/>
+        <c:axId val="500413528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1287904470"/>
+        <c:axId val="1723657129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,10 +873,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2027830155"/>
+        <c:crossAx val="500413528"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2027830155"/>
+        <c:axId val="500413528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +945,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287904470"/>
+        <c:crossAx val="1723657129"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1021,18 +1016,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$BG$2</c:f>
+              <c:f>'Infection Rate'!$B$2:$BI$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1231922187"/>
-        <c:axId val="489867007"/>
+        <c:axId val="1703425784"/>
+        <c:axId val="1655034519"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1048,12 +1043,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$BG$3</c:f>
+              <c:f>'Infection Rate'!$B$3:$BI$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1071,12 +1066,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$BG$4</c:f>
+              <c:f>'Infection Rate'!$B$4:$BI$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1094,12 +1089,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$BG$5</c:f>
+              <c:f>'Infection Rate'!$B$5:$BI$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1117,12 +1112,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$BG$6</c:f>
+              <c:f>'Infection Rate'!$B$6:$BI$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1140,12 +1135,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$BG$7</c:f>
+              <c:f>'Infection Rate'!$B$7:$BI$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1163,12 +1158,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$BG$8</c:f>
+              <c:f>'Infection Rate'!$B$8:$BI$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1186,12 +1181,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$BG$9</c:f>
+              <c:f>'Infection Rate'!$B$9:$BI$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1209,12 +1204,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$BG$10</c:f>
+              <c:f>'Infection Rate'!$B$10:$BI$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1232,21 +1227,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$BG$11</c:f>
+              <c:f>'Infection Rate'!$B$11:$BI$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1231922187"/>
-        <c:axId val="489867007"/>
+        <c:axId val="1703425784"/>
+        <c:axId val="1655034519"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1231922187"/>
+        <c:axId val="1703425784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,10 +1286,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489867007"/>
+        <c:crossAx val="1655034519"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489867007"/>
+        <c:axId val="1655034519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1358,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1231922187"/>
+        <c:crossAx val="1703425784"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1434,12 +1429,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$2:$BG$2</c:f>
+              <c:f>'Testing per Capita'!$B$2:$BI$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1458,12 +1453,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$3:$BG$3</c:f>
+              <c:f>'Testing per Capita'!$B$3:$BI$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1482,12 +1477,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$4:$BG$4</c:f>
+              <c:f>'Testing per Capita'!$B$4:$BI$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1506,12 +1501,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$5:$BG$5</c:f>
+              <c:f>'Testing per Capita'!$B$5:$BI$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1530,12 +1525,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$6:$BG$6</c:f>
+              <c:f>'Testing per Capita'!$B$6:$BI$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1554,12 +1549,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$7:$BG$7</c:f>
+              <c:f>'Testing per Capita'!$B$7:$BI$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1580,12 +1575,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$8:$BG$8</c:f>
+              <c:f>'Testing per Capita'!$B$8:$BI$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1606,12 +1601,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$9:$BG$9</c:f>
+              <c:f>'Testing per Capita'!$B$9:$BI$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1632,12 +1627,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$10:$BG$10</c:f>
+              <c:f>'Testing per Capita'!$B$10:$BI$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1651,21 +1646,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BG$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$11:$BG$11</c:f>
+              <c:f>'Testing per Capita'!$B$11:$BI$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="977345654"/>
-        <c:axId val="1667510503"/>
+        <c:axId val="1451376111"/>
+        <c:axId val="103436810"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="977345654"/>
+        <c:axId val="1451376111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,10 +1705,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1667510503"/>
+        <c:crossAx val="103436810"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1667510503"/>
+        <c:axId val="103436810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1777,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="977345654"/>
+        <c:crossAx val="1451376111"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1853,18 +1848,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$BG$2</c:f>
+              <c:f>Active!$B$2:$BI$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1363787747"/>
-        <c:axId val="1923269895"/>
+        <c:axId val="771734697"/>
+        <c:axId val="1797186087"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1880,12 +1875,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$BG$3</c:f>
+              <c:f>Active!$B$3:$BI$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1903,12 +1898,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$BG$4</c:f>
+              <c:f>Active!$B$4:$BI$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1926,12 +1921,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$BG$5</c:f>
+              <c:f>Active!$B$5:$BI$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1949,12 +1944,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$BG$6</c:f>
+              <c:f>Active!$B$6:$BI$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1972,12 +1967,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$BG$7</c:f>
+              <c:f>Active!$B$7:$BI$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1995,12 +1990,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$BG$8</c:f>
+              <c:f>Active!$B$8:$BI$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2018,12 +2013,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$BG$9</c:f>
+              <c:f>Active!$B$9:$BI$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2041,12 +2036,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$BG$10</c:f>
+              <c:f>Active!$B$10:$BI$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2064,21 +2059,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BG$1</c:f>
+              <c:f>Active!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$BG$11</c:f>
+              <c:f>Active!$B$11:$BI$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1363787747"/>
-        <c:axId val="1923269895"/>
+        <c:axId val="771734697"/>
+        <c:axId val="1797186087"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1363787747"/>
+        <c:axId val="771734697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,10 +2118,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1923269895"/>
+        <c:crossAx val="1797186087"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923269895"/>
+        <c:axId val="1797186087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2190,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1363787747"/>
+        <c:crossAx val="771734697"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2276,8 +2271,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1337372270"/>
-        <c:axId val="1254961736"/>
+        <c:axId val="529975465"/>
+        <c:axId val="148780033"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2487,11 +2482,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1337372270"/>
-        <c:axId val="1254961736"/>
+        <c:axId val="529975465"/>
+        <c:axId val="148780033"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1337372270"/>
+        <c:axId val="529975465"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,10 +2531,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254961736"/>
+        <c:crossAx val="148780033"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1254961736"/>
+        <c:axId val="148780033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +2603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1337372270"/>
+        <c:crossAx val="529975465"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2697,8 +2692,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="963870412"/>
-        <c:axId val="352171438"/>
+        <c:axId val="145737938"/>
+        <c:axId val="43190095"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2908,11 +2903,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="963870412"/>
-        <c:axId val="352171438"/>
+        <c:axId val="145737938"/>
+        <c:axId val="43190095"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="963870412"/>
+        <c:axId val="145737938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,10 +2952,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352171438"/>
+        <c:crossAx val="43190095"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352171438"/>
+        <c:axId val="43190095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3024,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="963870412"/>
+        <c:crossAx val="145737938"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3179,11 +3174,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="99285457"/>
-        <c:axId val="893692810"/>
+        <c:axId val="2101929178"/>
+        <c:axId val="1709026181"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99285457"/>
+        <c:axId val="2101929178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,10 +3223,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="893692810"/>
+        <c:crossAx val="1709026181"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="893692810"/>
+        <c:axId val="1709026181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,7 +3295,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99285457"/>
+        <c:crossAx val="2101929178"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3519,11 +3514,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1947475457"/>
-        <c:axId val="1318768109"/>
+        <c:axId val="276842686"/>
+        <c:axId val="369430113"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1947475457"/>
+        <c:axId val="276842686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3568,10 +3563,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318768109"/>
+        <c:crossAx val="369430113"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1318768109"/>
+        <c:axId val="369430113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1947475457"/>
+        <c:crossAx val="276842686"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3707,12 +3702,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$BG$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$BI$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3730,12 +3725,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$BG$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$BI$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3753,12 +3748,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$BG$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$BI$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3776,12 +3771,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$BG$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$BI$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3799,12 +3794,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$BG$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$BI$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3822,12 +3817,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$BG$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$BI$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3845,12 +3840,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$BG$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$BI$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3868,12 +3863,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$BG$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$BI$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -3891,21 +3886,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$11:$BG$11</c:f>
+              <c:f>'Recovery Rate'!$B$11:$BI$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1204136317"/>
-        <c:axId val="1239547655"/>
+        <c:axId val="496784320"/>
+        <c:axId val="726390665"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1204136317"/>
+        <c:axId val="496784320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3950,10 +3945,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1239547655"/>
+        <c:crossAx val="726390665"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1239547655"/>
+        <c:axId val="726390665"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,7 +4017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1204136317"/>
+        <c:crossAx val="496784320"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4094,12 +4089,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$2:$BG$2</c:f>
+              <c:f>'Death Rate'!$B$2:$BI$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4117,12 +4112,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$BG$3</c:f>
+              <c:f>'Death Rate'!$B$3:$BI$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4140,12 +4135,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$BG$4</c:f>
+              <c:f>'Death Rate'!$B$4:$BI$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4163,12 +4158,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$BG$5</c:f>
+              <c:f>'Death Rate'!$B$5:$BI$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4186,12 +4181,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$BG$6</c:f>
+              <c:f>'Death Rate'!$B$6:$BI$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4209,12 +4204,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$BG$7</c:f>
+              <c:f>'Death Rate'!$B$7:$BI$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4232,12 +4227,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$BG$8</c:f>
+              <c:f>'Death Rate'!$B$8:$BI$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4255,12 +4250,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$BG$9</c:f>
+              <c:f>'Death Rate'!$B$9:$BI$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4278,21 +4273,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BG$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$BG$10</c:f>
+              <c:f>'Death Rate'!$B$10:$BI$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1002944950"/>
-        <c:axId val="946772947"/>
+        <c:axId val="1710184164"/>
+        <c:axId val="1634191137"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1002944950"/>
+        <c:axId val="1710184164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,10 +4332,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946772947"/>
+        <c:crossAx val="1634191137"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="946772947"/>
+        <c:axId val="1634191137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,7 +4404,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1002944950"/>
+        <c:crossAx val="1710184164"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4451,7 +4446,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1540763434" name="Chart 7" title="Chart"/>
+        <xdr:cNvPr id="1540763434" name="Chart 8" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4481,7 +4476,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1261421000" name="Chart 8" title="Chart"/>
+        <xdr:cNvPr id="1261421000" name="Chart 9" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4511,7 +4506,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1879382530" name="Chart 9" title="Chart"/>
+        <xdr:cNvPr id="1879382530" name="Chart 10" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4571,7 +4566,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="123848420" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="123848420" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4609,7 +4604,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2142510870" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="2142510870" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4639,7 +4634,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="263283604" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="263283604" name="Chart 4" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4664,7 +4659,7 @@
     <xdr:ext cx="4229100" cy="5829300"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1055740452" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="1055740452" name="Chart 5" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4694,7 +4689,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1082493798" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="1082493798" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4719,7 +4714,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="660041097" name="Chart 6" title="Chart"/>
+        <xdr:cNvPr id="660041097" name="Chart 7" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4953,7 +4948,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="59" width="9.88"/>
+    <col customWidth="1" min="44" max="61" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5128,12 +5123,18 @@
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="3">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -5292,6 +5293,8 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -5468,7 +5471,13 @@
       <c r="BF3" s="4">
         <v>39.0</v>
       </c>
-      <c r="BG3" s="4"/>
+      <c r="BG3" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="BI3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -5645,7 +5654,13 @@
       <c r="BF4" s="4">
         <v>80.0</v>
       </c>
-      <c r="BG4" s="4"/>
+      <c r="BG4" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>94.0</v>
+      </c>
+      <c r="BI4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -5822,7 +5837,13 @@
       <c r="BF5" s="4">
         <v>98.0</v>
       </c>
-      <c r="BG5" s="4"/>
+      <c r="BG5" s="4">
+        <v>97.0</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>101.0</v>
+      </c>
+      <c r="BI5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -5999,7 +6020,13 @@
       <c r="BF6" s="4">
         <v>120.0</v>
       </c>
-      <c r="BG6" s="4"/>
+      <c r="BG6" s="4">
+        <v>124.0</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="BI6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6176,7 +6203,13 @@
       <c r="BF7" s="4">
         <v>2459.0</v>
       </c>
-      <c r="BG7" s="4"/>
+      <c r="BG7" s="4">
+        <v>2569.0</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>2690.0</v>
+      </c>
+      <c r="BI7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -6353,7 +6386,13 @@
       <c r="BF8" s="4">
         <v>185.0</v>
       </c>
-      <c r="BG8" s="4"/>
+      <c r="BG8" s="4">
+        <v>196.0</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>202.0</v>
+      </c>
+      <c r="BI8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -6530,7 +6569,13 @@
       <c r="BF9" s="4">
         <v>1735.0</v>
       </c>
-      <c r="BG9" s="4"/>
+      <c r="BG9" s="4">
+        <v>1777.0</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>1815.0</v>
+      </c>
+      <c r="BI9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -6707,7 +6752,13 @@
       <c r="BF10" s="4">
         <v>12888.0</v>
       </c>
-      <c r="BG10" s="4"/>
+      <c r="BG10" s="4">
+        <v>13826.0</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>14740.0</v>
+      </c>
+      <c r="BI10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -6884,7 +6935,13 @@
       <c r="BF11" s="4">
         <v>2521.0</v>
       </c>
-      <c r="BG11" s="4"/>
+      <c r="BG11" s="4">
+        <v>2633.0</v>
+      </c>
+      <c r="BH11" s="4">
+        <v>2773.0</v>
+      </c>
+      <c r="BI11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -7900,11 +7957,11 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="59" width="7.63"/>
+    <col customWidth="1" min="37" max="61" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -8075,16 +8132,22 @@
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
       <c r="BG1" s="2">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -8274,9 +8337,11 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -8507,10 +8572,18 @@
         <f>IF(Closed!BF3&gt;0,100*Recoveries!BF3/Closed!BF3,100)</f>
         <v>96.42857143</v>
       </c>
-      <c r="BG3" s="1"/>
+      <c r="BG3" s="1">
+        <f>IF(Closed!BG3&gt;0,100*Recoveries!BG3/Closed!BG3,100)</f>
+        <v>96.42857143</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>IF(Closed!BH3&gt;0,100*Recoveries!BH3/Closed!BH3,100)</f>
+        <v>96.55172414</v>
+      </c>
+      <c r="BI3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -8741,10 +8814,18 @@
         <f>IF(Closed!BF4&gt;0,100*Recoveries!BF4/Closed!BF4,100)</f>
         <v>96.66666667</v>
       </c>
-      <c r="BG4" s="1"/>
+      <c r="BG4" s="1">
+        <f>IF(Closed!BG4&gt;0,100*Recoveries!BG4/Closed!BG4,100)</f>
+        <v>96.66666667</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>IF(Closed!BH4&gt;0,100*Recoveries!BH4/Closed!BH4,100)</f>
+        <v>96.66666667</v>
+      </c>
+      <c r="BI4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -8975,10 +9056,18 @@
         <f>IF(Closed!BF5&gt;0,100*Recoveries!BF5/Closed!BF5,100)</f>
         <v>100</v>
       </c>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="1">
+        <f>IF(Closed!BG5&gt;0,100*Recoveries!BG5/Closed!BG5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BH5" s="1">
+        <f>IF(Closed!BH5&gt;0,100*Recoveries!BH5/Closed!BH5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BI5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -9209,10 +9298,18 @@
         <f>IF(Closed!BF6&gt;0,100*Recoveries!BF6/Closed!BF6,100)</f>
         <v>94.44444444</v>
       </c>
-      <c r="BG6" s="1"/>
+      <c r="BG6" s="1">
+        <f>IF(Closed!BG6&gt;0,100*Recoveries!BG6/Closed!BG6,100)</f>
+        <v>94.44444444</v>
+      </c>
+      <c r="BH6" s="1">
+        <f>IF(Closed!BH6&gt;0,100*Recoveries!BH6/Closed!BH6,100)</f>
+        <v>94.64285714</v>
+      </c>
+      <c r="BI6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -9443,10 +9540,18 @@
         <f>IF(Closed!BF7&gt;0,100*Recoveries!BF7/Closed!BF7,100)</f>
         <v>95.13314968</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="1">
+        <f>IF(Closed!BG7&gt;0,100*Recoveries!BG7/Closed!BG7,100)</f>
+        <v>94.69835466</v>
+      </c>
+      <c r="BH7" s="1">
+        <f>IF(Closed!BH7&gt;0,100*Recoveries!BH7/Closed!BH7,100)</f>
+        <v>95.76757532</v>
+      </c>
+      <c r="BI7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -9677,10 +9782,18 @@
         <f>IF(Closed!BF8&gt;0,100*Recoveries!BF8/Closed!BF8,100)</f>
         <v>95.27559055</v>
       </c>
-      <c r="BG8" s="1"/>
+      <c r="BG8" s="1">
+        <f>IF(Closed!BG8&gt;0,100*Recoveries!BG8/Closed!BG8,100)</f>
+        <v>95.27559055</v>
+      </c>
+      <c r="BH8" s="1">
+        <f>IF(Closed!BH8&gt;0,100*Recoveries!BH8/Closed!BH8,100)</f>
+        <v>95.27559055</v>
+      </c>
+      <c r="BI8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -9911,10 +10024,18 @@
         <f>IF(Closed!BF9&gt;0,100*Recoveries!BF9/Closed!BF9,100)</f>
         <v>94.92988134</v>
       </c>
-      <c r="BG9" s="1"/>
+      <c r="BG9" s="1">
+        <f>IF(Closed!BG9&gt;0,100*Recoveries!BG9/Closed!BG9,100)</f>
+        <v>94.82758621</v>
+      </c>
+      <c r="BH9" s="1">
+        <f>IF(Closed!BH9&gt;0,100*Recoveries!BH9/Closed!BH9,100)</f>
+        <v>95.77586207</v>
+      </c>
+      <c r="BI9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -10145,10 +10266,18 @@
         <f>IF(Closed!BF10&gt;0,100*Recoveries!BF10/Closed!BF10,100)</f>
         <v>95.97368009</v>
       </c>
-      <c r="BG10" s="1"/>
+      <c r="BG10" s="1">
+        <f>IF(Closed!BG10&gt;0,100*Recoveries!BG10/Closed!BG10,100)</f>
+        <v>95.91357445</v>
+      </c>
+      <c r="BH10" s="1">
+        <f>IF(Closed!BH10&gt;0,100*Recoveries!BH10/Closed!BH10,100)</f>
+        <v>95.87129004</v>
+      </c>
+      <c r="BI10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -10379,12 +10508,20 @@
         <f>IF(Closed!BF11&gt;0,100*Recoveries!BF11/Closed!BF11,100)</f>
         <v>98.3933518</v>
       </c>
-      <c r="BG11" s="1"/>
+      <c r="BG11" s="1">
+        <f>IF(Closed!BG11&gt;0,100*Recoveries!BG11/Closed!BG11,100)</f>
+        <v>98.3933518</v>
+      </c>
+      <c r="BH11" s="1">
+        <f>IF(Closed!BH11&gt;0,100*Recoveries!BH11/Closed!BH11,100)</f>
+        <v>98.44836811</v>
+      </c>
+      <c r="BI11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -11403,7 +11540,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="59" width="10.5"/>
+    <col customWidth="1" min="35" max="61" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -11578,12 +11715,18 @@
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
       <c r="BG1" s="2">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -11777,6 +11920,8 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -12010,7 +12155,15 @@
         <f>IF(Closed!BF3&gt;0,100*Deaths!BF3/Closed!BF3,0)</f>
         <v>3.571428571</v>
       </c>
-      <c r="BG3" s="1"/>
+      <c r="BG3" s="1">
+        <f>IF(Closed!BG3&gt;0,100*Deaths!BG3/Closed!BG3,0)</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>IF(Closed!BH3&gt;0,100*Deaths!BH3/Closed!BH3,0)</f>
+        <v>3.448275862</v>
+      </c>
+      <c r="BI3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12244,7 +12397,15 @@
         <f>IF(Closed!BF4&gt;0,100*Deaths!BF4/Closed!BF4,0)</f>
         <v>3.333333333</v>
       </c>
-      <c r="BG4" s="1"/>
+      <c r="BG4" s="1">
+        <f>IF(Closed!BG4&gt;0,100*Deaths!BG4/Closed!BG4,0)</f>
+        <v>3.333333333</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>IF(Closed!BH4&gt;0,100*Deaths!BH4/Closed!BH4,0)</f>
+        <v>3.333333333</v>
+      </c>
+      <c r="BI4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -12478,7 +12639,15 @@
         <f>IF(Closed!BF5&gt;0,100*Deaths!BF5/Closed!BF5,0)</f>
         <v>0</v>
       </c>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="1">
+        <f>IF(Closed!BG5&gt;0,100*Deaths!BG5/Closed!BG5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <f>IF(Closed!BH5&gt;0,100*Deaths!BH5/Closed!BH5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -12712,7 +12881,15 @@
         <f>IF(Closed!BF6&gt;0,100*Deaths!BF6/Closed!BF6,0)</f>
         <v>5.555555556</v>
       </c>
-      <c r="BG6" s="1"/>
+      <c r="BG6" s="1">
+        <f>IF(Closed!BG6&gt;0,100*Deaths!BG6/Closed!BG6,0)</f>
+        <v>5.555555556</v>
+      </c>
+      <c r="BH6" s="1">
+        <f>IF(Closed!BH6&gt;0,100*Deaths!BH6/Closed!BH6,0)</f>
+        <v>5.357142857</v>
+      </c>
+      <c r="BI6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -12946,7 +13123,15 @@
         <f>IF(Closed!BF7&gt;0,100*Deaths!BF7/Closed!BF7,0)</f>
         <v>4.866850321</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="1">
+        <f>IF(Closed!BG7&gt;0,100*Deaths!BG7/Closed!BG7,0)</f>
+        <v>5.301645338</v>
+      </c>
+      <c r="BH7" s="1">
+        <f>IF(Closed!BH7&gt;0,100*Deaths!BH7/Closed!BH7,0)</f>
+        <v>4.232424677</v>
+      </c>
+      <c r="BI7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -13180,7 +13365,15 @@
         <f>IF(Closed!BF8&gt;0,100*Deaths!BF8/Closed!BF8,0)</f>
         <v>4.724409449</v>
       </c>
-      <c r="BG8" s="1"/>
+      <c r="BG8" s="1">
+        <f>IF(Closed!BG8&gt;0,100*Deaths!BG8/Closed!BG8,0)</f>
+        <v>4.724409449</v>
+      </c>
+      <c r="BH8" s="1">
+        <f>IF(Closed!BH8&gt;0,100*Deaths!BH8/Closed!BH8,0)</f>
+        <v>4.724409449</v>
+      </c>
+      <c r="BI8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -13414,7 +13607,15 @@
         <f>IF(Closed!BF9&gt;0,100*Deaths!BF9/Closed!BF9,0)</f>
         <v>5.070118662</v>
       </c>
-      <c r="BG9" s="1"/>
+      <c r="BG9" s="1">
+        <f>IF(Closed!BG9&gt;0,100*Deaths!BG9/Closed!BG9,0)</f>
+        <v>5.172413793</v>
+      </c>
+      <c r="BH9" s="1">
+        <f>IF(Closed!BH9&gt;0,100*Deaths!BH9/Closed!BH9,0)</f>
+        <v>4.224137931</v>
+      </c>
+      <c r="BI9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -13648,7 +13849,15 @@
         <f>IF(Closed!BF10&gt;0,100*Deaths!BF10/Closed!BF10,0)</f>
         <v>4.026319912</v>
       </c>
-      <c r="BG10" s="1"/>
+      <c r="BG10" s="1">
+        <f>IF(Closed!BG10&gt;0,100*Deaths!BG10/Closed!BG10,0)</f>
+        <v>4.086425552</v>
+      </c>
+      <c r="BH10" s="1">
+        <f>IF(Closed!BH10&gt;0,100*Deaths!BH10/Closed!BH10,0)</f>
+        <v>4.128709962</v>
+      </c>
+      <c r="BI10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -13882,13 +14091,21 @@
         <f>IF(Closed!BF11&gt;0,100*Deaths!BF11/Closed!BF11,0)</f>
         <v>1.606648199</v>
       </c>
-      <c r="BG11" s="1"/>
+      <c r="BG11" s="1">
+        <f>IF(Closed!BG11&gt;0,100*Deaths!BG11/Closed!BG11,0)</f>
+        <v>1.606648199</v>
+      </c>
+      <c r="BH11" s="1">
+        <f>IF(Closed!BH11&gt;0,100*Deaths!BH11/Closed!BH11,0)</f>
+        <v>1.551631889</v>
+      </c>
+      <c r="BI11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="M15" s="19"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -14901,7 +15118,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="59" width="10.5"/>
+    <col customWidth="1" min="35" max="61" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -15076,12 +15293,18 @@
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
       <c r="BG1" s="2">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -15275,240 +15498,250 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23">
-        <f t="shared" ref="B3:BG3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
+      <c r="B3" s="21">
+        <f t="shared" ref="B3:BI3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
         <v>0.02559675512</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <f t="shared" si="1"/>
         <v>0.02916302229</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <f t="shared" si="1"/>
         <v>0.02872158519</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <f t="shared" si="1"/>
         <v>0.02754111253</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <f t="shared" si="1"/>
         <v>0.02689610531</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <f t="shared" si="1"/>
         <v>0.02562433382</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="21">
         <f t="shared" si="1"/>
         <v>0.02517372825</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <f t="shared" si="1"/>
         <v>0.02464177037</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="21">
         <f t="shared" si="1"/>
         <v>0.02497741373</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <f t="shared" si="1"/>
         <v>0.02460071497</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="21">
         <f t="shared" si="1"/>
         <v>0.02453626176</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="21">
         <f t="shared" si="1"/>
         <v>0.02453626176</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="21">
         <f t="shared" si="1"/>
         <v>0.02610489626</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="21">
         <f t="shared" si="1"/>
         <v>0.02544977988</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="21">
         <f t="shared" si="1"/>
         <v>0.02507349752</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="21">
         <f t="shared" si="1"/>
         <v>0.02469852001</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="21">
         <f t="shared" si="1"/>
         <v>0.02462939464</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="21">
         <f t="shared" si="1"/>
         <v>0.02472845056</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="21">
         <f t="shared" si="1"/>
         <v>0.02547765334</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="21">
         <f t="shared" si="1"/>
         <v>0.02554539465</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="21">
         <f t="shared" si="1"/>
         <v>0.02535397203</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="21">
         <f t="shared" si="1"/>
         <v>0.02543190181</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="21">
         <f t="shared" si="1"/>
         <v>0.02542293115</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Y3" s="21">
         <f t="shared" si="1"/>
         <v>0.02477757219</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="21">
         <f t="shared" si="1"/>
         <v>0.02435645151</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AA3" s="21">
         <f t="shared" si="1"/>
         <v>0.02436699009</v>
       </c>
-      <c r="AB3" s="23">
+      <c r="AB3" s="21">
         <f t="shared" si="1"/>
         <v>0.02452268294</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AC3" s="21">
         <f t="shared" si="1"/>
         <v>0.02453396283</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AD3" s="21">
         <f t="shared" si="1"/>
         <v>0.02462134009</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AE3" s="21">
         <f t="shared" si="1"/>
         <v>0.02397149863</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AF3" s="21">
         <f t="shared" si="1"/>
         <v>0.02381119362</v>
       </c>
-      <c r="AG3" s="23">
+      <c r="AG3" s="21">
         <f t="shared" si="1"/>
         <v>0.02366064651</v>
       </c>
-      <c r="AH3" s="23">
+      <c r="AH3" s="21">
         <f t="shared" si="1"/>
         <v>0.02356307367</v>
       </c>
-      <c r="AI3" s="23">
+      <c r="AI3" s="21">
         <f t="shared" si="1"/>
         <v>0.02344963636</v>
       </c>
-      <c r="AJ3" s="23">
+      <c r="AJ3" s="21">
         <f t="shared" si="1"/>
         <v>0.0233587823</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AK3" s="21">
         <f t="shared" si="1"/>
         <v>0.02344945766</v>
       </c>
-      <c r="AL3" s="23">
+      <c r="AL3" s="21">
         <f t="shared" si="1"/>
         <v>0.02349372642</v>
       </c>
-      <c r="AM3" s="23">
+      <c r="AM3" s="21">
         <f t="shared" si="1"/>
         <v>0.02337582825</v>
       </c>
-      <c r="AN3" s="23">
+      <c r="AN3" s="21">
         <f t="shared" si="1"/>
         <v>0.02355312368</v>
       </c>
-      <c r="AO3" s="23">
+      <c r="AO3" s="21">
         <f t="shared" si="1"/>
         <v>0.02359175364</v>
       </c>
-      <c r="AP3" s="23">
+      <c r="AP3" s="21">
         <f t="shared" si="1"/>
         <v>0.02327521075</v>
       </c>
-      <c r="AQ3" s="23">
+      <c r="AQ3" s="21">
         <f t="shared" si="1"/>
         <v>0.02294705257</v>
       </c>
-      <c r="AR3" s="23">
+      <c r="AR3" s="21">
         <f t="shared" si="1"/>
         <v>0.02325687862</v>
       </c>
-      <c r="AS3" s="23">
+      <c r="AS3" s="21">
         <f t="shared" si="1"/>
         <v>0.02337644293</v>
       </c>
-      <c r="AT3" s="23">
+      <c r="AT3" s="21">
         <f t="shared" si="1"/>
         <v>0.02358588861</v>
       </c>
-      <c r="AU3" s="23">
+      <c r="AU3" s="21">
         <f t="shared" si="1"/>
         <v>0.02393496069</v>
       </c>
-      <c r="AV3" s="23">
+      <c r="AV3" s="21">
         <f t="shared" si="1"/>
         <v>0.02439523564</v>
       </c>
-      <c r="AW3" s="23">
+      <c r="AW3" s="21">
         <f t="shared" si="1"/>
         <v>0.02450363075</v>
       </c>
-      <c r="AX3" s="23">
+      <c r="AX3" s="21">
         <f t="shared" si="1"/>
         <v>0.0241679623</v>
       </c>
-      <c r="AY3" s="23">
+      <c r="AY3" s="21">
         <f t="shared" si="1"/>
         <v>0.02439331268</v>
       </c>
-      <c r="AZ3" s="23">
+      <c r="AZ3" s="21">
         <f t="shared" si="1"/>
         <v>0.02467856543</v>
       </c>
-      <c r="BA3" s="23">
+      <c r="BA3" s="21">
         <f t="shared" si="1"/>
         <v>0.02535369563</v>
       </c>
-      <c r="BB3" s="23">
+      <c r="BB3" s="21">
         <f t="shared" si="1"/>
         <v>0.02593408806</v>
       </c>
-      <c r="BC3" s="23">
+      <c r="BC3" s="21">
         <f t="shared" si="1"/>
         <v>0.0262759087</v>
       </c>
-      <c r="BD3" s="23">
+      <c r="BD3" s="21">
         <f t="shared" si="1"/>
         <v>0.02638347214</v>
       </c>
-      <c r="BE3" s="23">
+      <c r="BE3" s="21">
         <f t="shared" si="1"/>
         <v>0.02705340172</v>
       </c>
-      <c r="BF3" s="23">
+      <c r="BF3" s="21">
         <f t="shared" si="1"/>
         <v>0.02738669816</v>
       </c>
-      <c r="BG3" s="23">
+      <c r="BG3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.02774050341</v>
+      </c>
+      <c r="BH3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.02827787805</v>
+      </c>
+      <c r="BI3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -15517,2107 +15750,2179 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <f>Confirmed!B3/Testing!B3</f>
         <v>0.008695652174</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <f>Confirmed!C3/Testing!C3</f>
         <v>0.01937984496</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>Confirmed!D3/Testing!D3</f>
         <v>0.02090592334</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <f>Confirmed!E3/Testing!E3</f>
         <v>0.009677419355</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>Confirmed!F3/Testing!F3</f>
         <v>0.01807228916</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <f>Confirmed!G3/Testing!G3</f>
         <v>0.01955307263</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <f>Confirmed!H3/Testing!H3</f>
         <v>0.0180878553</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <f>Confirmed!I3/Testing!I3</f>
         <v>0.0171990172</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <f>Confirmed!J3/Testing!J3</f>
         <v>0.01605504587</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="22">
         <f>Confirmed!K3/Testing!K3</f>
         <v>0.0174291939</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="22">
         <f>Confirmed!L3/Testing!L3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="22">
         <f>Confirmed!M3/Testing!M3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="22">
         <f>Confirmed!N3/Testing!N3</f>
         <v>0.02524271845</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="22">
         <f>Confirmed!O3/Testing!O3</f>
         <v>0.02697841727</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="22">
         <f>Confirmed!P3/Testing!P3</f>
         <v>0.02542372881</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="22">
         <f>Confirmed!Q3/Testing!Q3</f>
         <v>0.02640264026</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="22">
         <f>Confirmed!R3/Testing!R3</f>
         <v>0.02472952087</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="22">
         <f>Confirmed!S3/Testing!S3</f>
         <v>0.02366863905</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="22">
         <f>Confirmed!T3/Testing!T3</f>
         <v>0.02275960171</v>
       </c>
-      <c r="U4" s="24">
+      <c r="U4" s="22">
         <f>Confirmed!U3/Testing!U3</f>
         <v>0.0218878249</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="22">
         <f>Confirmed!V3/Testing!V3</f>
         <v>0.02083333333</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="22">
         <f>Confirmed!W3/Testing!W3</f>
         <v>0.01965601966</v>
       </c>
-      <c r="X4" s="24">
+      <c r="X4" s="22">
         <f>Confirmed!X3/Testing!X3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="22">
         <f>Confirmed!Y3/Testing!Y3</f>
         <v>0.01727861771</v>
       </c>
-      <c r="Z4" s="24">
+      <c r="Z4" s="22">
         <f>Confirmed!Z3/Testing!Z3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="AA4" s="24">
+      <c r="AA4" s="22">
         <f>Confirmed!AA3/Testing!AA3</f>
         <v>0.0156097561</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="22">
         <f>Confirmed!AB3/Testing!AB3</f>
         <v>0.01481481481</v>
       </c>
-      <c r="AC4" s="24">
+      <c r="AC4" s="22">
         <f>Confirmed!AC3/Testing!AC3</f>
         <v>0.01380500431</v>
       </c>
-      <c r="AD4" s="24">
+      <c r="AD4" s="22">
         <f>Confirmed!AD3/Testing!AD3</f>
         <v>0.01299756296</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="22">
         <f>Confirmed!AE3/Testing!AE3</f>
         <v>0.01230769231</v>
       </c>
-      <c r="AF4" s="24">
+      <c r="AF4" s="22">
         <f>Confirmed!AF3/Testing!AF3</f>
         <v>0.01248164464</v>
       </c>
-      <c r="AG4" s="24">
+      <c r="AG4" s="22">
         <f>Confirmed!AG3/Testing!AG3</f>
         <v>0.01179736294</v>
       </c>
-      <c r="AH4" s="24">
+      <c r="AH4" s="22">
         <f>Confirmed!AH3/Testing!AH3</f>
         <v>0.01134846462</v>
       </c>
-      <c r="AI4" s="24">
+      <c r="AI4" s="22">
         <f>Confirmed!AI3/Testing!AI3</f>
         <v>0.01067839196</v>
       </c>
-      <c r="AJ4" s="24">
+      <c r="AJ4" s="22">
         <f>Confirmed!AJ3/Testing!AJ3</f>
         <v>0.01014319809</v>
       </c>
-      <c r="AK4" s="24">
+      <c r="AK4" s="22">
         <f>Confirmed!AK3/Testing!AK3</f>
         <v>0.01024473534</v>
       </c>
-      <c r="AL4" s="24">
+      <c r="AL4" s="22">
         <f>Confirmed!AL3/Testing!AL3</f>
         <v>0.01234567901</v>
       </c>
-      <c r="AM4" s="24">
+      <c r="AM4" s="22">
         <f>Confirmed!AM3/Testing!AM3</f>
         <v>0.01209677419</v>
       </c>
-      <c r="AN4" s="24">
+      <c r="AN4" s="22">
         <f>Confirmed!AN3/Testing!AN3</f>
         <v>0.01201923077</v>
       </c>
-      <c r="AO4" s="24">
+      <c r="AO4" s="22">
         <f>Confirmed!AO3/Testing!AO3</f>
         <v>0.01200923788</v>
       </c>
-      <c r="AP4" s="24">
+      <c r="AP4" s="22">
         <f>Confirmed!AP3/Testing!AP3</f>
         <v>0.0115248227</v>
       </c>
-      <c r="AQ4" s="24">
+      <c r="AQ4" s="22">
         <f>Confirmed!AQ3/Testing!AQ3</f>
         <v>0.009694793537</v>
       </c>
-      <c r="AR4" s="24">
+      <c r="AR4" s="22">
         <f>Confirmed!AR3/Testing!AR3</f>
         <v>0.009202453988</v>
       </c>
-      <c r="AS4" s="24">
+      <c r="AS4" s="22">
         <f>Confirmed!AS3/Testing!AS3</f>
         <v>0.009064422143</v>
       </c>
-      <c r="AT4" s="24">
+      <c r="AT4" s="22">
         <f>Confirmed!AT3/Testing!AT3</f>
         <v>0.008912108175</v>
       </c>
-      <c r="AU4" s="24">
+      <c r="AU4" s="22">
         <f>Confirmed!AU3/Testing!AU3</f>
         <v>0.008839127873</v>
       </c>
-      <c r="AV4" s="24">
+      <c r="AV4" s="22">
         <f>Confirmed!AV3/Testing!AV3</f>
         <v>0.008513053348</v>
       </c>
-      <c r="AW4" s="24">
+      <c r="AW4" s="22">
         <f>Confirmed!AW3/Testing!AW3</f>
         <v>0.008145533532</v>
       </c>
-      <c r="AX4" s="24">
+      <c r="AX4" s="22">
         <f>Confirmed!AX3/Testing!AX3</f>
         <v>0.008162190627</v>
       </c>
-      <c r="AY4" s="24">
+      <c r="AY4" s="22">
         <f>Confirmed!AY3/Testing!AY3</f>
         <v>0.008559919436</v>
       </c>
-      <c r="AZ4" s="24">
+      <c r="AZ4" s="22">
         <f>Confirmed!AZ3/Testing!AZ3</f>
         <v>0.008450024143</v>
       </c>
-      <c r="BA4" s="24">
+      <c r="BA4" s="22">
         <f>Confirmed!BA3/Testing!BA3</f>
         <v>0.008519456597</v>
       </c>
-      <c r="BB4" s="24">
+      <c r="BB4" s="22">
         <f>Confirmed!BB3/Testing!BB3</f>
         <v>0.008266309205</v>
       </c>
-      <c r="BC4" s="24">
+      <c r="BC4" s="22">
         <f>Confirmed!BC3/Testing!BC3</f>
         <v>0.008036490009</v>
       </c>
-      <c r="BD4" s="24">
+      <c r="BD4" s="22">
         <f>Confirmed!BD3/Testing!BD3</f>
         <v>0.007956448911</v>
       </c>
-      <c r="BE4" s="24">
+      <c r="BE4" s="22">
         <f>Confirmed!BE3/Testing!BE3</f>
         <v>0.00747323773</v>
       </c>
-      <c r="BF4" s="24">
+      <c r="BF4" s="22">
         <f>Confirmed!BF3/Testing!BF3</f>
         <v>0.007621653312</v>
       </c>
-      <c r="BG4" s="24"/>
+      <c r="BG4" s="22">
+        <f>Confirmed!BG3/Testing!BG3</f>
+        <v>0.007521624671</v>
+      </c>
+      <c r="BH4" s="22">
+        <f>Confirmed!BH3/Testing!BH3</f>
+        <v>0.007271405199</v>
+      </c>
+      <c r="BI4" s="22"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <f>Confirmed!B4/Testing!B4</f>
         <v>0.01425178147</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <f>Confirmed!C4/Testing!C4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <f>Confirmed!D4/Testing!D4</f>
         <v>0.01142857143</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="22">
         <f>Confirmed!E4/Testing!E4</f>
         <v>0.01410934744</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <f>Confirmed!F4/Testing!F4</f>
         <v>0.01320132013</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <f>Confirmed!G4/Testing!G4</f>
         <v>0.01376146789</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <f>Confirmed!H4/Testing!H4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <f>Confirmed!I4/Testing!I4</f>
         <v>0.01211305518</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="22">
         <f>Confirmed!J4/Testing!J4</f>
         <v>0.01381909548</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="22">
         <f>Confirmed!K4/Testing!K4</f>
         <v>0.01311084625</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="22">
         <f>Confirmed!L4/Testing!L4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="22">
         <f>Confirmed!M4/Testing!M4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="22">
         <f>Confirmed!N4/Testing!N4</f>
         <v>0.01594048884</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="22">
         <f>Confirmed!O4/Testing!O4</f>
         <v>0.01476377953</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="22">
         <f>Confirmed!P4/Testing!P4</f>
         <v>0.01669758813</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="22">
         <f>Confirmed!Q4/Testing!Q4</f>
         <v>0.01714801444</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="22">
         <f>Confirmed!R4/Testing!R4</f>
         <v>0.01607445008</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="22">
         <f>Confirmed!S4/Testing!S4</f>
         <v>0.01781376518</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="22">
         <f>Confirmed!T4/Testing!T4</f>
         <v>0.01713395639</v>
       </c>
-      <c r="U5" s="24">
+      <c r="U5" s="22">
         <f>Confirmed!U4/Testing!U4</f>
         <v>0.01721556886</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="22">
         <f>Confirmed!V4/Testing!V4</f>
         <v>0.017106201</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="22">
         <f>Confirmed!W4/Testing!W4</f>
         <v>0.01612903226</v>
       </c>
-      <c r="X5" s="24">
+      <c r="X5" s="22">
         <f>Confirmed!X4/Testing!X4</f>
         <v>0.01505646173</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="22">
         <f>Confirmed!Y4/Testing!Y4</f>
         <v>0.0141760189</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="Z5" s="22">
         <f>Confirmed!Z4/Testing!Z4</f>
         <v>0.0139431121</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="22">
         <f>Confirmed!AA4/Testing!AA4</f>
         <v>0.01281366791</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="22">
         <f>Confirmed!AB4/Testing!AB4</f>
         <v>0.01215805471</v>
       </c>
-      <c r="AC5" s="24">
+      <c r="AC5" s="22">
         <f>Confirmed!AC4/Testing!AC4</f>
         <v>0.01179801793</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="22">
         <f>Confirmed!AD4/Testing!AD4</f>
         <v>0.01111605158</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5" s="22">
         <f>Confirmed!AE4/Testing!AE4</f>
         <v>0.01178451178</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AF5" s="22">
         <f>Confirmed!AF4/Testing!AF4</f>
         <v>0.01124949779</v>
       </c>
-      <c r="AG5" s="24">
+      <c r="AG5" s="22">
         <f>Confirmed!AG4/Testing!AG4</f>
         <v>0.0106302202</v>
       </c>
-      <c r="AH5" s="24">
+      <c r="AH5" s="22">
         <f>Confirmed!AH4/Testing!AH4</f>
         <v>0.01059167275</v>
       </c>
-      <c r="AI5" s="24">
+      <c r="AI5" s="22">
         <f>Confirmed!AI4/Testing!AI4</f>
         <v>0.009969061533</v>
       </c>
-      <c r="AJ5" s="24">
+      <c r="AJ5" s="22">
         <f>Confirmed!AJ4/Testing!AJ4</f>
         <v>0.0101207966</v>
       </c>
-      <c r="AK5" s="24">
+      <c r="AK5" s="22">
         <f>Confirmed!AK4/Testing!AK4</f>
         <v>0.01090342679</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AL5" s="22">
         <f>Confirmed!AL4/Testing!AL4</f>
         <v>0.01028202115</v>
       </c>
-      <c r="AM5" s="24">
+      <c r="AM5" s="22">
         <f>Confirmed!AM4/Testing!AM4</f>
         <v>0.009925558313</v>
       </c>
-      <c r="AN5" s="24">
+      <c r="AN5" s="22">
         <f>Confirmed!AN4/Testing!AN4</f>
         <v>0.009208103131</v>
       </c>
-      <c r="AO5" s="24">
+      <c r="AO5" s="22">
         <f>Confirmed!AO4/Testing!AO4</f>
         <v>0.008847320526</v>
       </c>
-      <c r="AP5" s="24">
+      <c r="AP5" s="22">
         <f>Confirmed!AP4/Testing!AP4</f>
         <v>0.008974048023</v>
       </c>
-      <c r="AQ5" s="24">
+      <c r="AQ5" s="22">
         <f>Confirmed!AQ4/Testing!AQ4</f>
         <v>0.009101251422</v>
       </c>
-      <c r="AR5" s="24">
+      <c r="AR5" s="22">
         <f>Confirmed!AR4/Testing!AR4</f>
         <v>0.009071274298</v>
       </c>
-      <c r="AS5" s="24">
+      <c r="AS5" s="22">
         <f>Confirmed!AS4/Testing!AS4</f>
         <v>0.00841025641</v>
       </c>
-      <c r="AT5" s="24">
+      <c r="AT5" s="22">
         <f>Confirmed!AT4/Testing!AT4</f>
         <v>0.00876338851</v>
       </c>
-      <c r="AU5" s="24">
+      <c r="AU5" s="22">
         <f>Confirmed!AU4/Testing!AU4</f>
         <v>0.009335324869</v>
       </c>
-      <c r="AV5" s="24">
+      <c r="AV5" s="22">
         <f>Confirmed!AV4/Testing!AV4</f>
         <v>0.009171012408</v>
       </c>
-      <c r="AW5" s="24">
+      <c r="AW5" s="22">
         <f>Confirmed!AW4/Testing!AW4</f>
         <v>0.008947006194</v>
       </c>
-      <c r="AX5" s="24">
+      <c r="AX5" s="22">
         <f>Confirmed!AX4/Testing!AX4</f>
         <v>0.008260931491</v>
       </c>
-      <c r="AY5" s="24">
+      <c r="AY5" s="22">
         <f>Confirmed!AY4/Testing!AY4</f>
         <v>0.008578431373</v>
       </c>
-      <c r="AZ5" s="24">
+      <c r="AZ5" s="22">
         <f>Confirmed!AZ4/Testing!AZ4</f>
         <v>0.00835727344</v>
       </c>
-      <c r="BA5" s="24">
+      <c r="BA5" s="22">
         <f>Confirmed!BA4/Testing!BA4</f>
         <v>0.008718395815</v>
       </c>
-      <c r="BB5" s="24">
+      <c r="BB5" s="22">
         <f>Confirmed!BB4/Testing!BB4</f>
         <v>0.008699855002</v>
       </c>
-      <c r="BC5" s="24">
+      <c r="BC5" s="22">
         <f>Confirmed!BC4/Testing!BC4</f>
         <v>0.008458646617</v>
       </c>
-      <c r="BD5" s="24">
+      <c r="BD5" s="22">
         <f>Confirmed!BD4/Testing!BD4</f>
         <v>0.008154020385</v>
       </c>
-      <c r="BE5" s="24">
+      <c r="BE5" s="22">
         <f>Confirmed!BE4/Testing!BE4</f>
         <v>0.008411623334</v>
       </c>
-      <c r="BF5" s="24">
+      <c r="BF5" s="22">
         <f>Confirmed!BF4/Testing!BF4</f>
         <v>0.008456659619</v>
       </c>
-      <c r="BG5" s="24"/>
+      <c r="BG5" s="22">
+        <f>Confirmed!BG4/Testing!BG4</f>
+        <v>0.008238405207</v>
+      </c>
+      <c r="BH5" s="22">
+        <f>Confirmed!BH4/Testing!BH4</f>
+        <v>0.009241962442</v>
+      </c>
+      <c r="BI5" s="22"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <f>Confirmed!B5/Testing!B5</f>
         <v>0.01145038168</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <f>Confirmed!C5/Testing!C5</f>
         <v>0.0113507378</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <f>Confirmed!D5/Testing!D5</f>
         <v>0.01121304791</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <f>Confirmed!E5/Testing!E5</f>
         <v>0.01039697543</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <f>Confirmed!F5/Testing!F5</f>
         <v>0.01060070671</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <f>Confirmed!G5/Testing!G5</f>
         <v>0.009836065574</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <f>Confirmed!H5/Testing!H5</f>
         <v>0.009841029523</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <f>Confirmed!I5/Testing!I5</f>
         <v>0.009372746936</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <f>Confirmed!J5/Testing!J5</f>
         <v>0.01211305518</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="22">
         <f>Confirmed!K5/Testing!K5</f>
         <v>0.01148691768</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="22">
         <f>Confirmed!L5/Testing!L5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="22">
         <f>Confirmed!M5/Testing!M5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="22">
         <f>Confirmed!N5/Testing!N5</f>
         <v>0.01195219124</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="22">
         <f>Confirmed!O5/Testing!O5</f>
         <v>0.0105374078</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="22">
         <f>Confirmed!P5/Testing!P5</f>
         <v>0.009940357853</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="22">
         <f>Confirmed!Q5/Testing!Q5</f>
         <v>0.009671179884</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="22">
         <f>Confirmed!R5/Testing!R5</f>
         <v>0.009519492294</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="22">
         <f>Confirmed!S5/Testing!S5</f>
         <v>0.009544468547</v>
       </c>
-      <c r="T6" s="24">
+      <c r="T6" s="22">
         <f>Confirmed!T5/Testing!T5</f>
         <v>0.009178139341</v>
       </c>
-      <c r="U6" s="24">
+      <c r="U6" s="22">
         <f>Confirmed!U5/Testing!U5</f>
         <v>0.00882117081</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="22">
         <f>Confirmed!V5/Testing!V5</f>
         <v>0.00840015273</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="22">
         <f>Confirmed!W5/Testing!W5</f>
         <v>0.008279337653</v>
       </c>
-      <c r="X6" s="24">
+      <c r="X6" s="22">
         <f>Confirmed!X5/Testing!X5</f>
         <v>0.008400537634</v>
       </c>
-      <c r="Y6" s="24">
+      <c r="Y6" s="22">
         <f>Confirmed!Y5/Testing!Y5</f>
         <v>0.007278481013</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="22">
         <f>Confirmed!Z5/Testing!Z5</f>
         <v>0.006869772999</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="22">
         <f>Confirmed!AA5/Testing!AA5</f>
         <v>0.00686302545</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="22">
         <f>Confirmed!AB5/Testing!AB5</f>
         <v>0.00623982637</v>
       </c>
-      <c r="AC6" s="24">
+      <c r="AC6" s="22">
         <f>Confirmed!AC5/Testing!AC5</f>
         <v>0.005815423515</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="22">
         <f>Confirmed!AD5/Testing!AD5</f>
         <v>0.005717008099</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="22">
         <f>Confirmed!AE5/Testing!AE5</f>
         <v>0.005184851217</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AF6" s="22">
         <f>Confirmed!AF5/Testing!AF5</f>
         <v>0.00495049505</v>
       </c>
-      <c r="AG6" s="24">
+      <c r="AG6" s="22">
         <f>Confirmed!AG5/Testing!AG5</f>
         <v>0.0052877771</v>
       </c>
-      <c r="AH6" s="24">
+      <c r="AH6" s="22">
         <f>Confirmed!AH5/Testing!AH5</f>
         <v>0.004695754256</v>
       </c>
-      <c r="AI6" s="24">
+      <c r="AI6" s="22">
         <f>Confirmed!AI5/Testing!AI5</f>
         <v>0.005707972749</v>
       </c>
-      <c r="AJ6" s="24">
+      <c r="AJ6" s="22">
         <f>Confirmed!AJ5/Testing!AJ5</f>
         <v>0.00629590766</v>
       </c>
-      <c r="AK6" s="24">
+      <c r="AK6" s="22">
         <f>Confirmed!AK5/Testing!AK5</f>
         <v>0.005840146838</v>
       </c>
-      <c r="AL6" s="24">
+      <c r="AL6" s="22">
         <f>Confirmed!AL5/Testing!AL5</f>
         <v>0.006294256491</v>
       </c>
-      <c r="AM6" s="24">
+      <c r="AM6" s="22">
         <f>Confirmed!AM5/Testing!AM5</f>
         <v>0.006794682422</v>
       </c>
-      <c r="AN6" s="24">
+      <c r="AN6" s="22">
         <f>Confirmed!AN5/Testing!AN5</f>
         <v>0.007470049331</v>
       </c>
-      <c r="AO6" s="24">
+      <c r="AO6" s="22">
         <f>Confirmed!AO5/Testing!AO5</f>
         <v>0.007718348003</v>
       </c>
-      <c r="AP6" s="24">
+      <c r="AP6" s="22">
         <f>Confirmed!AP5/Testing!AP5</f>
         <v>0.007405482656</v>
       </c>
-      <c r="AQ6" s="24">
+      <c r="AQ6" s="22">
         <f>Confirmed!AQ5/Testing!AQ5</f>
         <v>0.006835824354</v>
       </c>
-      <c r="AR6" s="24">
+      <c r="AR6" s="22">
         <f>Confirmed!AR5/Testing!AR5</f>
         <v>0.006599208095</v>
       </c>
-      <c r="AS6" s="24">
+      <c r="AS6" s="22">
         <f>Confirmed!AS5/Testing!AS5</f>
         <v>0.006371422603</v>
       </c>
-      <c r="AT6" s="24">
+      <c r="AT6" s="22">
         <f>Confirmed!AT5/Testing!AT5</f>
         <v>0.006049186831</v>
       </c>
-      <c r="AU6" s="24">
+      <c r="AU6" s="22">
         <f>Confirmed!AU5/Testing!AU5</f>
         <v>0.005989162468</v>
       </c>
-      <c r="AV6" s="24">
+      <c r="AV6" s="22">
         <f>Confirmed!AV5/Testing!AV5</f>
         <v>0.005768174327</v>
       </c>
-      <c r="AW6" s="24">
+      <c r="AW6" s="22">
         <f>Confirmed!AW5/Testing!AW5</f>
         <v>0.005782372525</v>
       </c>
-      <c r="AX6" s="24">
+      <c r="AX6" s="22">
         <f>Confirmed!AX5/Testing!AX5</f>
         <v>0.005631198521</v>
       </c>
-      <c r="AY6" s="24">
+      <c r="AY6" s="22">
         <f>Confirmed!AY5/Testing!AY5</f>
         <v>0.005383255664</v>
       </c>
-      <c r="AZ6" s="24">
+      <c r="AZ6" s="22">
         <f>Confirmed!AZ5/Testing!AZ5</f>
         <v>0.005240040071</v>
       </c>
-      <c r="BA6" s="24">
+      <c r="BA6" s="22">
         <f>Confirmed!BA5/Testing!BA5</f>
         <v>0.00521828605</v>
       </c>
-      <c r="BB6" s="24">
+      <c r="BB6" s="22">
         <f>Confirmed!BB5/Testing!BB5</f>
         <v>0.005418894831</v>
       </c>
-      <c r="BC6" s="24">
+      <c r="BC6" s="22">
         <f>Confirmed!BC5/Testing!BC5</f>
         <v>0.005407279029</v>
       </c>
-      <c r="BD6" s="24">
+      <c r="BD6" s="22">
         <f>Confirmed!BD5/Testing!BD5</f>
         <v>0.006214915798</v>
       </c>
-      <c r="BE6" s="24">
+      <c r="BE6" s="22">
         <f>Confirmed!BE5/Testing!BE5</f>
         <v>0.006124290872</v>
       </c>
-      <c r="BF6" s="24">
+      <c r="BF6" s="22">
         <f>Confirmed!BF5/Testing!BF5</f>
         <v>0.006112774451</v>
       </c>
-      <c r="BG6" s="24"/>
+      <c r="BG6" s="22">
+        <f>Confirmed!BG5/Testing!BG5</f>
+        <v>0.005821630056</v>
+      </c>
+      <c r="BH6" s="22">
+        <f>Confirmed!BH5/Testing!BH5</f>
+        <v>0.00585948831</v>
+      </c>
+      <c r="BI6" s="22"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <f>Confirmed!B6/Testing!B6</f>
         <v>0.009244992296</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <f>Confirmed!C6/Testing!C6</f>
         <v>0.015130674</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <f>Confirmed!D6/Testing!D6</f>
         <v>0.01483312732</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <f>Confirmed!E6/Testing!E6</f>
         <v>0.0126002291</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <f>Confirmed!F6/Testing!F6</f>
         <v>0.01498929336</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <f>Confirmed!G6/Testing!G6</f>
         <v>0.01390268123</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <f>Confirmed!H6/Testing!H6</f>
         <v>0.01466544455</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <f>Confirmed!I6/Testing!I6</f>
         <v>0.01397379913</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="22">
         <f>Confirmed!J6/Testing!J6</f>
         <v>0.01466992665</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="22">
         <f>Confirmed!K6/Testing!K6</f>
         <v>0.01469450889</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="22">
         <f>Confirmed!L6/Testing!L6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="22">
         <f>Confirmed!M6/Testing!M6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="22">
         <f>Confirmed!N6/Testing!N6</f>
         <v>0.01448275862</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="22">
         <f>Confirmed!O6/Testing!O6</f>
         <v>0.01404853129</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="22">
         <f>Confirmed!P6/Testing!P6</f>
         <v>0.01444912703</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="22">
         <f>Confirmed!Q6/Testing!Q6</f>
         <v>0.01347393087</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="22">
         <f>Confirmed!R6/Testing!R6</f>
         <v>0.01263042284</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="22">
         <f>Confirmed!S6/Testing!S6</f>
         <v>0.01209253417</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="22">
         <f>Confirmed!T6/Testing!T6</f>
         <v>0.01212733704</v>
       </c>
-      <c r="U7" s="24">
+      <c r="U7" s="22">
         <f>Confirmed!U6/Testing!U6</f>
         <v>0.01214771623</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="22">
         <f>Confirmed!V6/Testing!V6</f>
         <v>0.01202590194</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="22">
         <f>Confirmed!W6/Testing!W6</f>
         <v>0.01133885739</v>
       </c>
-      <c r="X7" s="24">
+      <c r="X7" s="22">
         <f>Confirmed!X6/Testing!X6</f>
         <v>0.01058631922</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Y7" s="22">
         <f>Confirmed!Y6/Testing!Y6</f>
         <v>0.01035276074</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="Z7" s="22">
         <f>Confirmed!Z6/Testing!Z6</f>
         <v>0.009771986971</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="22">
         <f>Confirmed!AA6/Testing!AA6</f>
         <v>0.009352268791</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="22">
         <f>Confirmed!AB6/Testing!AB6</f>
         <v>0.008875739645</v>
       </c>
-      <c r="AC7" s="24">
+      <c r="AC7" s="22">
         <f>Confirmed!AC6/Testing!AC6</f>
         <v>0.008269525268</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="22">
         <f>Confirmed!AD6/Testing!AD6</f>
         <v>0.008369408369</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="22">
         <f>Confirmed!AE6/Testing!AE6</f>
         <v>0.008194482382</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AF7" s="22">
         <f>Confirmed!AF6/Testing!AF6</f>
         <v>0.008083441982</v>
       </c>
-      <c r="AG7" s="24">
+      <c r="AG7" s="22">
         <f>Confirmed!AG6/Testing!AG6</f>
         <v>0.007639231148</v>
       </c>
-      <c r="AH7" s="24">
+      <c r="AH7" s="22">
         <f>Confirmed!AH6/Testing!AH6</f>
         <v>0.007349454718</v>
       </c>
-      <c r="AI7" s="24">
+      <c r="AI7" s="22">
         <f>Confirmed!AI6/Testing!AI6</f>
         <v>0.006915012269</v>
       </c>
-      <c r="AJ7" s="24">
+      <c r="AJ7" s="22">
         <f>Confirmed!AJ6/Testing!AJ6</f>
         <v>0.00678109769</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7" s="22">
         <f>Confirmed!AK6/Testing!AK6</f>
         <v>0.006874241812</v>
       </c>
-      <c r="AL7" s="24">
+      <c r="AL7" s="22">
         <f>Confirmed!AL6/Testing!AL6</f>
         <v>0.006862371331</v>
       </c>
-      <c r="AM7" s="24">
+      <c r="AM7" s="22">
         <f>Confirmed!AM6/Testing!AM6</f>
         <v>0.006621331424</v>
       </c>
-      <c r="AN7" s="24">
+      <c r="AN7" s="22">
         <f>Confirmed!AN6/Testing!AN6</f>
         <v>0.006659836066</v>
       </c>
-      <c r="AO7" s="24">
+      <c r="AO7" s="22">
         <f>Confirmed!AO6/Testing!AO6</f>
         <v>0.00656167979</v>
       </c>
-      <c r="AP7" s="24">
+      <c r="AP7" s="22">
         <f>Confirmed!AP6/Testing!AP6</f>
         <v>0.006296237998</v>
       </c>
-      <c r="AQ7" s="24">
+      <c r="AQ7" s="22">
         <f>Confirmed!AQ6/Testing!AQ6</f>
         <v>0.00658105939</v>
       </c>
-      <c r="AR7" s="24">
+      <c r="AR7" s="22">
         <f>Confirmed!AR6/Testing!AR6</f>
         <v>0.006551881761</v>
       </c>
-      <c r="AS7" s="24">
+      <c r="AS7" s="22">
         <f>Confirmed!AS6/Testing!AS6</f>
         <v>0.007379539864</v>
       </c>
-      <c r="AT7" s="24">
+      <c r="AT7" s="22">
         <f>Confirmed!AT6/Testing!AT6</f>
         <v>0.007418601456</v>
       </c>
-      <c r="AU7" s="24">
+      <c r="AU7" s="22">
         <f>Confirmed!AU6/Testing!AU6</f>
         <v>0.007111813512</v>
       </c>
-      <c r="AV7" s="24">
+      <c r="AV7" s="22">
         <f>Confirmed!AV6/Testing!AV6</f>
         <v>0.006849315068</v>
       </c>
-      <c r="AW7" s="24">
+      <c r="AW7" s="22">
         <f>Confirmed!AW6/Testing!AW6</f>
         <v>0.00655419347</v>
       </c>
-      <c r="AX7" s="24">
+      <c r="AX7" s="22">
         <f>Confirmed!AX6/Testing!AX6</f>
         <v>0.00653827865</v>
       </c>
-      <c r="AY7" s="24">
+      <c r="AY7" s="22">
         <f>Confirmed!AY6/Testing!AY6</f>
         <v>0.006478008865</v>
       </c>
-      <c r="AZ7" s="24">
+      <c r="AZ7" s="22">
         <f>Confirmed!AZ6/Testing!AZ6</f>
         <v>0.006431218661</v>
       </c>
-      <c r="BA7" s="24">
+      <c r="BA7" s="22">
         <f>Confirmed!BA6/Testing!BA6</f>
         <v>0.008004990124</v>
       </c>
-      <c r="BB7" s="24">
+      <c r="BB7" s="22">
         <f>Confirmed!BB6/Testing!BB6</f>
         <v>0.008875441251</v>
       </c>
-      <c r="BC7" s="24">
+      <c r="BC7" s="22">
         <f>Confirmed!BC6/Testing!BC6</f>
         <v>0.009217493626</v>
       </c>
-      <c r="BD7" s="24">
+      <c r="BD7" s="22">
         <f>Confirmed!BD6/Testing!BD6</f>
         <v>0.00879100104</v>
       </c>
-      <c r="BE7" s="24">
+      <c r="BE7" s="22">
         <f>Confirmed!BE6/Testing!BE6</f>
         <v>0.0110330993</v>
       </c>
-      <c r="BF7" s="24">
+      <c r="BF7" s="22">
         <f>Confirmed!BF6/Testing!BF6</f>
         <v>0.01058761249</v>
       </c>
-      <c r="BG7" s="24"/>
+      <c r="BG7" s="22">
+        <f>Confirmed!BG6/Testing!BG6</f>
+        <v>0.01052720944</v>
+      </c>
+      <c r="BH7" s="22">
+        <f>Confirmed!BH6/Testing!BH6</f>
+        <v>0.01050385688</v>
+      </c>
+      <c r="BI7" s="22"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <f>Confirmed!B7/Testing!B7</f>
         <v>0.001903311762</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <f>Confirmed!C7/Testing!C7</f>
         <v>0.003397893306</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <f>Confirmed!D7/Testing!D7</f>
         <v>0.003661885871</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <f>Confirmed!E7/Testing!E7</f>
         <v>0.003393665158</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <f>Confirmed!F7/Testing!F7</f>
         <v>0.003173763555</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <f>Confirmed!G7/Testing!G7</f>
         <v>0.003678273664</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="22">
         <f>Confirmed!H7/Testing!H7</f>
         <v>0.003849637681</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="22">
         <f>Confirmed!I7/Testing!I7</f>
         <v>0.004529767041</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="22">
         <f>Confirmed!J7/Testing!J7</f>
         <v>0.005034232783</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="22">
         <f>Confirmed!K7/Testing!K7</f>
         <v>0.005920550038</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="22">
         <f>Confirmed!L7/Testing!L7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="22">
         <f>Confirmed!M7/Testing!M7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="22">
         <f>Confirmed!N7/Testing!N7</f>
         <v>0.007664793051</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="22">
         <f>Confirmed!O7/Testing!O7</f>
         <v>0.009619933764</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="22">
         <f>Confirmed!P7/Testing!P7</f>
         <v>0.0101145322</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="22">
         <f>Confirmed!Q7/Testing!Q7</f>
         <v>0.009986973513</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="22">
         <f>Confirmed!R7/Testing!R7</f>
         <v>0.01193544012</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="22">
         <f>Confirmed!S7/Testing!S7</f>
         <v>0.01350298624</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="22">
         <f>Confirmed!T7/Testing!T7</f>
         <v>0.02172013481</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="22">
         <f>Confirmed!U7/Testing!U7</f>
         <v>0.02388095524</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="22">
         <f>Confirmed!V7/Testing!V7</f>
         <v>0.025139984</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="22">
         <f>Confirmed!W7/Testing!W7</f>
         <v>0.02650290886</v>
       </c>
-      <c r="X8" s="24">
+      <c r="X8" s="22">
         <f>Confirmed!X7/Testing!X7</f>
         <v>0.02714932127</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="Y8" s="22">
         <f>Confirmed!Y7/Testing!Y7</f>
         <v>0.02774621212</v>
       </c>
-      <c r="Z8" s="24">
+      <c r="Z8" s="22">
         <f>Confirmed!Z7/Testing!Z7</f>
         <v>0.02771321294</v>
       </c>
-      <c r="AA8" s="24">
+      <c r="AA8" s="22">
         <f>Confirmed!AA7/Testing!AA7</f>
         <v>0.02952250556</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="22">
         <f>Confirmed!AB7/Testing!AB7</f>
         <v>0.03061307349</v>
       </c>
-      <c r="AC8" s="24">
+      <c r="AC8" s="22">
         <f>Confirmed!AC7/Testing!AC7</f>
         <v>0.03155027616</v>
       </c>
-      <c r="AD8" s="24">
+      <c r="AD8" s="22">
         <f>Confirmed!AD7/Testing!AD7</f>
         <v>0.03421484069</v>
       </c>
-      <c r="AE8" s="24">
+      <c r="AE8" s="22">
         <f>Confirmed!AE7/Testing!AE7</f>
         <v>0.03292403184</v>
       </c>
-      <c r="AF8" s="24">
+      <c r="AF8" s="22">
         <f>Confirmed!AF7/Testing!AF7</f>
         <v>0.0344605475</v>
       </c>
-      <c r="AG8" s="24">
+      <c r="AG8" s="22">
         <f>Confirmed!AG7/Testing!AG7</f>
         <v>0.03578819233</v>
       </c>
-      <c r="AH8" s="24">
+      <c r="AH8" s="22">
         <f>Confirmed!AH7/Testing!AH7</f>
         <v>0.03607190959</v>
       </c>
-      <c r="AI8" s="24">
+      <c r="AI8" s="22">
         <f>Confirmed!AI7/Testing!AI7</f>
         <v>0.0347145691</v>
       </c>
-      <c r="AJ8" s="24">
+      <c r="AJ8" s="22">
         <f>Confirmed!AJ7/Testing!AJ7</f>
         <v>0.03386548024</v>
       </c>
-      <c r="AK8" s="24">
+      <c r="AK8" s="22">
         <f>Confirmed!AK7/Testing!AK7</f>
         <v>0.03450686642</v>
       </c>
-      <c r="AL8" s="24">
+      <c r="AL8" s="22">
         <f>Confirmed!AL7/Testing!AL7</f>
         <v>0.03446814522</v>
       </c>
-      <c r="AM8" s="24">
+      <c r="AM8" s="22">
         <f>Confirmed!AM7/Testing!AM7</f>
         <v>0.03421145686</v>
       </c>
-      <c r="AN8" s="24">
+      <c r="AN8" s="22">
         <f>Confirmed!AN7/Testing!AN7</f>
         <v>0.03433150569</v>
       </c>
-      <c r="AO8" s="24">
+      <c r="AO8" s="22">
         <f>Confirmed!AO7/Testing!AO7</f>
         <v>0.03395737094</v>
       </c>
-      <c r="AP8" s="24">
+      <c r="AP8" s="22">
         <f>Confirmed!AP7/Testing!AP7</f>
         <v>0.03300933126</v>
       </c>
-      <c r="AQ8" s="24">
+      <c r="AQ8" s="22">
         <f>Confirmed!AQ7/Testing!AQ7</f>
         <v>0.03222673188</v>
       </c>
-      <c r="AR8" s="24">
+      <c r="AR8" s="22">
         <f>Confirmed!AR7/Testing!AR7</f>
         <v>0.03256932095</v>
       </c>
-      <c r="AS8" s="24">
+      <c r="AS8" s="22">
         <f>Confirmed!AS7/Testing!AS7</f>
         <v>0.03371173031</v>
       </c>
-      <c r="AT8" s="24">
+      <c r="AT8" s="22">
         <f>Confirmed!AT7/Testing!AT7</f>
         <v>0.03616389549</v>
       </c>
-      <c r="AU8" s="24">
+      <c r="AU8" s="22">
         <f>Confirmed!AU7/Testing!AU7</f>
         <v>0.03859509307</v>
       </c>
-      <c r="AV8" s="24">
+      <c r="AV8" s="22">
         <f>Confirmed!AV7/Testing!AV7</f>
         <v>0.04122920036</v>
       </c>
-      <c r="AW8" s="24">
+      <c r="AW8" s="22">
         <f>Confirmed!AW7/Testing!AW7</f>
         <v>0.04023923194</v>
       </c>
-      <c r="AX8" s="24">
+      <c r="AX8" s="22">
         <f>Confirmed!AX7/Testing!AX7</f>
         <v>0.03802991008</v>
       </c>
-      <c r="AY8" s="24">
+      <c r="AY8" s="22">
         <f>Confirmed!AY7/Testing!AY7</f>
         <v>0.03851233924</v>
       </c>
-      <c r="AZ8" s="24">
+      <c r="AZ8" s="22">
         <f>Confirmed!AZ7/Testing!AZ7</f>
         <v>0.04026845638</v>
       </c>
-      <c r="BA8" s="24">
+      <c r="BA8" s="22">
         <f>Confirmed!BA7/Testing!BA7</f>
         <v>0.04103433658</v>
       </c>
-      <c r="BB8" s="24">
+      <c r="BB8" s="22">
         <f>Confirmed!BB7/Testing!BB7</f>
         <v>0.04219270469</v>
       </c>
-      <c r="BC8" s="24">
+      <c r="BC8" s="22">
         <f>Confirmed!BC7/Testing!BC7</f>
         <v>0.04268292683</v>
       </c>
-      <c r="BD8" s="24">
+      <c r="BD8" s="22">
         <f>Confirmed!BD7/Testing!BD7</f>
         <v>0.04268809744</v>
       </c>
-      <c r="BE8" s="24">
+      <c r="BE8" s="22">
         <f>Confirmed!BE7/Testing!BE7</f>
         <v>0.04320585993</v>
       </c>
-      <c r="BF8" s="24">
+      <c r="BF8" s="22">
         <f>Confirmed!BF7/Testing!BF7</f>
         <v>0.04423377885</v>
       </c>
-      <c r="BG8" s="24"/>
+      <c r="BG8" s="22">
+        <f>Confirmed!BG7/Testing!BG7</f>
+        <v>0.04446559931</v>
+      </c>
+      <c r="BH8" s="22">
+        <f>Confirmed!BH7/Testing!BH7</f>
+        <v>0.04500585578</v>
+      </c>
+      <c r="BI8" s="22"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <f>Confirmed!B8/Testing!B8</f>
         <v>0.03363074811</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <f>Confirmed!C8/Testing!C8</f>
         <v>0.04166666667</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <f>Confirmed!D8/Testing!D8</f>
         <v>0.03962575674</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <f>Confirmed!E8/Testing!E8</f>
         <v>0.03671596124</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <f>Confirmed!F8/Testing!F8</f>
         <v>0.03528850739</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <f>Confirmed!G8/Testing!G8</f>
         <v>0.03361344538</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="22">
         <f>Confirmed!H8/Testing!H8</f>
         <v>0.03429971417</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <f>Confirmed!I8/Testing!I8</f>
         <v>0.03267211202</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="22">
         <f>Confirmed!J8/Testing!J8</f>
         <v>0.03086419753</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="22">
         <f>Confirmed!K8/Testing!K8</f>
         <v>0.02995867769</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="22">
         <f>Confirmed!L8/Testing!L8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="22">
         <f>Confirmed!M8/Testing!M8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="22">
         <f>Confirmed!N8/Testing!N8</f>
         <v>0.02702702703</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="22">
         <f>Confirmed!O8/Testing!O8</f>
         <v>0.02645051195</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <f>Confirmed!P8/Testing!P8</f>
         <v>0.02520783052</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="22">
         <f>Confirmed!Q8/Testing!Q8</f>
         <v>0.0245302714</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="22">
         <f>Confirmed!R8/Testing!R8</f>
         <v>0.02347762289</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="22">
         <f>Confirmed!S8/Testing!S8</f>
         <v>0.02247191011</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="22">
         <f>Confirmed!T8/Testing!T8</f>
         <v>0.02205716858</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="22">
         <f>Confirmed!U8/Testing!U8</f>
         <v>0.02099112746</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="22">
         <f>Confirmed!V8/Testing!V8</f>
         <v>0.02019369462</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="22">
         <f>Confirmed!W8/Testing!W8</f>
         <v>0.01942501943</v>
       </c>
-      <c r="X9" s="24">
+      <c r="X9" s="22">
         <f>Confirmed!X8/Testing!X8</f>
         <v>0.01813236627</v>
       </c>
-      <c r="Y9" s="24">
+      <c r="Y9" s="22">
         <f>Confirmed!Y8/Testing!Y8</f>
         <v>0.01707358716</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="Z9" s="22">
         <f>Confirmed!Z8/Testing!Z8</f>
         <v>0.0169245648</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="22">
         <f>Confirmed!AA8/Testing!AA8</f>
         <v>0.01635550069</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="22">
         <f>Confirmed!AB8/Testing!AB8</f>
         <v>0.01551976574</v>
       </c>
-      <c r="AC9" s="24">
+      <c r="AC9" s="22">
         <f>Confirmed!AC8/Testing!AC8</f>
         <v>0.01446111869</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="22">
         <f>Confirmed!AD8/Testing!AD8</f>
         <v>0.01426735219</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="22">
         <f>Confirmed!AE8/Testing!AE8</f>
         <v>0.01350364964</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AF9" s="22">
         <f>Confirmed!AF8/Testing!AF8</f>
         <v>0.01277584204</v>
       </c>
-      <c r="AG9" s="24">
+      <c r="AG9" s="22">
         <f>Confirmed!AG8/Testing!AG8</f>
         <v>0.01218173837</v>
       </c>
-      <c r="AH9" s="24">
+      <c r="AH9" s="22">
         <f>Confirmed!AH8/Testing!AH8</f>
         <v>0.01193115827</v>
       </c>
-      <c r="AI9" s="24">
+      <c r="AI9" s="22">
         <f>Confirmed!AI8/Testing!AI8</f>
         <v>0.01122702434</v>
       </c>
-      <c r="AJ9" s="24">
+      <c r="AJ9" s="22">
         <f>Confirmed!AJ8/Testing!AJ8</f>
         <v>0.01094752737</v>
       </c>
-      <c r="AK9" s="24">
+      <c r="AK9" s="22">
         <f>Confirmed!AK8/Testing!AK8</f>
         <v>0.01062488745</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AL9" s="22">
         <f>Confirmed!AL8/Testing!AL8</f>
         <v>0.01027339107</v>
       </c>
-      <c r="AM9" s="24">
+      <c r="AM9" s="22">
         <f>Confirmed!AM8/Testing!AM8</f>
         <v>0.009723439866</v>
       </c>
-      <c r="AN9" s="24">
+      <c r="AN9" s="22">
         <f>Confirmed!AN8/Testing!AN8</f>
         <v>0.009506426344</v>
       </c>
-      <c r="AO9" s="24">
+      <c r="AO9" s="22">
         <f>Confirmed!AO8/Testing!AO8</f>
         <v>0.009352623119</v>
       </c>
-      <c r="AP9" s="24">
+      <c r="AP9" s="22">
         <f>Confirmed!AP8/Testing!AP8</f>
         <v>0.009113853057</v>
       </c>
-      <c r="AQ9" s="24">
+      <c r="AQ9" s="22">
         <f>Confirmed!AQ8/Testing!AQ8</f>
         <v>0.009198242724</v>
       </c>
-      <c r="AR9" s="24">
+      <c r="AR9" s="22">
         <f>Confirmed!AR8/Testing!AR8</f>
         <v>0.008666753551</v>
       </c>
-      <c r="AS9" s="24">
+      <c r="AS9" s="22">
         <f>Confirmed!AS8/Testing!AS8</f>
         <v>0.008292079208</v>
       </c>
-      <c r="AT9" s="24">
+      <c r="AT9" s="22">
         <f>Confirmed!AT8/Testing!AT8</f>
         <v>0.007931844888</v>
       </c>
-      <c r="AU9" s="24">
+      <c r="AU9" s="22">
         <f>Confirmed!AU8/Testing!AU8</f>
         <v>0.007603491974</v>
       </c>
-      <c r="AV9" s="24">
+      <c r="AV9" s="22">
         <f>Confirmed!AV8/Testing!AV8</f>
         <v>0.007323026851</v>
       </c>
-      <c r="AW9" s="24">
+      <c r="AW9" s="22">
         <f>Confirmed!AW8/Testing!AW8</f>
         <v>0.007163249416</v>
       </c>
-      <c r="AX9" s="24">
+      <c r="AX9" s="22">
         <f>Confirmed!AX8/Testing!AX8</f>
         <v>0.007469221656</v>
       </c>
-      <c r="AY9" s="24">
+      <c r="AY9" s="22">
         <f>Confirmed!AY8/Testing!AY8</f>
         <v>0.007436225746</v>
       </c>
-      <c r="AZ9" s="24">
+      <c r="AZ9" s="22">
         <f>Confirmed!AZ8/Testing!AZ8</f>
         <v>0.007226184291</v>
       </c>
-      <c r="BA9" s="24">
+      <c r="BA9" s="22">
         <f>Confirmed!BA8/Testing!BA8</f>
         <v>0.007117117117</v>
       </c>
-      <c r="BB9" s="24">
+      <c r="BB9" s="22">
         <f>Confirmed!BB8/Testing!BB8</f>
         <v>0.007122880615</v>
       </c>
-      <c r="BC9" s="24">
+      <c r="BC9" s="22">
         <f>Confirmed!BC8/Testing!BC8</f>
         <v>0.00713800136</v>
       </c>
-      <c r="BD9" s="24">
+      <c r="BD9" s="22">
         <f>Confirmed!BD8/Testing!BD8</f>
         <v>0.007372516895</v>
       </c>
-      <c r="BE9" s="24">
+      <c r="BE9" s="22">
         <f>Confirmed!BE8/Testing!BE8</f>
         <v>0.007269853813</v>
       </c>
-      <c r="BF9" s="24">
+      <c r="BF9" s="22">
         <f>Confirmed!BF8/Testing!BF8</f>
         <v>0.00707267653</v>
       </c>
-      <c r="BG9" s="24"/>
+      <c r="BG9" s="22">
+        <f>Confirmed!BG8/Testing!BG8</f>
+        <v>0.007209858378</v>
+      </c>
+      <c r="BH9" s="22">
+        <f>Confirmed!BH8/Testing!BH8</f>
+        <v>0.007182477599</v>
+      </c>
+      <c r="BI9" s="22"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <f>Confirmed!B9/Testing!B9</f>
         <v>0.0257296467</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <f>Confirmed!C9/Testing!C9</f>
         <v>0.02674438539</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <f>Confirmed!D9/Testing!D9</f>
         <v>0.02570812808</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <f>Confirmed!E9/Testing!E9</f>
         <v>0.02439372325</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <f>Confirmed!F9/Testing!F9</f>
         <v>0.02387940235</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <f>Confirmed!G9/Testing!G9</f>
         <v>0.02300841168</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <f>Confirmed!H9/Testing!H9</f>
         <v>0.02353209961</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <f>Confirmed!I9/Testing!I9</f>
         <v>0.02339244914</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <f>Confirmed!J9/Testing!J9</f>
         <v>0.02356765542</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <f>Confirmed!K9/Testing!K9</f>
         <v>0.02369942197</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <f>Confirmed!L9/Testing!L9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <f>Confirmed!M9/Testing!M9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="22">
         <f>Confirmed!N9/Testing!N9</f>
         <v>0.03041498411</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="22">
         <f>Confirmed!O9/Testing!O9</f>
         <v>0.0307875895</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <f>Confirmed!P9/Testing!P9</f>
         <v>0.03091236495</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="22">
         <f>Confirmed!Q9/Testing!Q9</f>
         <v>0.03051540371</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="22">
         <f>Confirmed!R9/Testing!R9</f>
         <v>0.03030925014</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="22">
         <f>Confirmed!S9/Testing!S9</f>
         <v>0.03045386076</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="22">
         <f>Confirmed!T9/Testing!T9</f>
         <v>0.0307895731</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="22">
         <f>Confirmed!U9/Testing!U9</f>
         <v>0.03141836673</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="22">
         <f>Confirmed!V9/Testing!V9</f>
         <v>0.03106807309</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="22">
         <f>Confirmed!W9/Testing!W9</f>
         <v>0.03211781968</v>
       </c>
-      <c r="X10" s="24">
+      <c r="X10" s="22">
         <f>Confirmed!X9/Testing!X9</f>
         <v>0.03063812519</v>
       </c>
-      <c r="Y10" s="24">
+      <c r="Y10" s="22">
         <f>Confirmed!Y9/Testing!Y9</f>
         <v>0.02947217578</v>
       </c>
-      <c r="Z10" s="24">
+      <c r="Z10" s="22">
         <f>Confirmed!Z9/Testing!Z9</f>
         <v>0.02881493506</v>
       </c>
-      <c r="AA10" s="24">
+      <c r="AA10" s="22">
         <f>Confirmed!AA9/Testing!AA9</f>
         <v>0.02896361203</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="22">
         <f>Confirmed!AB9/Testing!AB9</f>
         <v>0.03104775948</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="22">
         <f>Confirmed!AC9/Testing!AC9</f>
         <v>0.03079917564</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="22">
         <f>Confirmed!AD9/Testing!AD9</f>
         <v>0.03023874587</v>
       </c>
-      <c r="AE10" s="24">
+      <c r="AE10" s="22">
         <f>Confirmed!AE9/Testing!AE9</f>
         <v>0.028825211</v>
       </c>
-      <c r="AF10" s="24">
+      <c r="AF10" s="22">
         <f>Confirmed!AF9/Testing!AF9</f>
         <v>0.02803950874</v>
       </c>
-      <c r="AG10" s="24">
+      <c r="AG10" s="22">
         <f>Confirmed!AG9/Testing!AG9</f>
         <v>0.02769249662</v>
       </c>
-      <c r="AH10" s="24">
+      <c r="AH10" s="22">
         <f>Confirmed!AH9/Testing!AH9</f>
         <v>0.0271459798</v>
       </c>
-      <c r="AI10" s="24">
+      <c r="AI10" s="22">
         <f>Confirmed!AI9/Testing!AI9</f>
         <v>0.02657253245</v>
       </c>
-      <c r="AJ10" s="24">
+      <c r="AJ10" s="22">
         <f>Confirmed!AJ9/Testing!AJ9</f>
         <v>0.02587458746</v>
       </c>
-      <c r="AK10" s="24">
+      <c r="AK10" s="22">
         <f>Confirmed!AK9/Testing!AK9</f>
         <v>0.02534068868</v>
       </c>
-      <c r="AL10" s="24">
+      <c r="AL10" s="22">
         <f>Confirmed!AL9/Testing!AL9</f>
         <v>0.02496377758</v>
       </c>
-      <c r="AM10" s="24">
+      <c r="AM10" s="22">
         <f>Confirmed!AM9/Testing!AM9</f>
         <v>0.02399108138</v>
       </c>
-      <c r="AN10" s="24">
+      <c r="AN10" s="22">
         <f>Confirmed!AN9/Testing!AN9</f>
         <v>0.02353091358</v>
       </c>
-      <c r="AO10" s="24">
+      <c r="AO10" s="22">
         <f>Confirmed!AO9/Testing!AO9</f>
         <v>0.023342804</v>
       </c>
-      <c r="AP10" s="24">
+      <c r="AP10" s="22">
         <f>Confirmed!AP9/Testing!AP9</f>
         <v>0.02331921236</v>
       </c>
-      <c r="AQ10" s="24">
+      <c r="AQ10" s="22">
         <f>Confirmed!AQ9/Testing!AQ9</f>
         <v>0.02346566879</v>
       </c>
-      <c r="AR10" s="24">
+      <c r="AR10" s="22">
         <f>Confirmed!AR9/Testing!AR9</f>
         <v>0.02318266758</v>
       </c>
-      <c r="AS10" s="24">
+      <c r="AS10" s="22">
         <f>Confirmed!AS9/Testing!AS9</f>
         <v>0.0229812355</v>
       </c>
-      <c r="AT10" s="24">
+      <c r="AT10" s="22">
         <f>Confirmed!AT9/Testing!AT9</f>
         <v>0.02256993678</v>
       </c>
-      <c r="AU10" s="24">
+      <c r="AU10" s="22">
         <f>Confirmed!AU9/Testing!AU9</f>
         <v>0.0219400646</v>
       </c>
-      <c r="AV10" s="24">
+      <c r="AV10" s="22">
         <f>Confirmed!AV9/Testing!AV9</f>
         <v>0.02146993593</v>
       </c>
-      <c r="AW10" s="24">
+      <c r="AW10" s="22">
         <f>Confirmed!AW9/Testing!AW9</f>
         <v>0.02082442928</v>
       </c>
-      <c r="AX10" s="24">
+      <c r="AX10" s="22">
         <f>Confirmed!AX9/Testing!AX9</f>
         <v>0.02100760871</v>
       </c>
-      <c r="AY10" s="24">
+      <c r="AY10" s="22">
         <f>Confirmed!AY9/Testing!AY9</f>
         <v>0.02061224774</v>
       </c>
-      <c r="AZ10" s="24">
+      <c r="AZ10" s="22">
         <f>Confirmed!AZ9/Testing!AZ9</f>
         <v>0.01998159239</v>
       </c>
-      <c r="BA10" s="24">
+      <c r="BA10" s="22">
         <f>Confirmed!BA9/Testing!BA9</f>
         <v>0.01963004427</v>
       </c>
-      <c r="BB10" s="24">
+      <c r="BB10" s="22">
         <f>Confirmed!BB9/Testing!BB9</f>
         <v>0.01933947128</v>
       </c>
-      <c r="BC10" s="24">
+      <c r="BC10" s="22">
         <f>Confirmed!BC9/Testing!BC9</f>
         <v>0.01939161217</v>
       </c>
-      <c r="BD10" s="24">
+      <c r="BD10" s="22">
         <f>Confirmed!BD9/Testing!BD9</f>
         <v>0.01908661855</v>
       </c>
-      <c r="BE10" s="24">
+      <c r="BE10" s="22">
         <f>Confirmed!BE9/Testing!BE9</f>
         <v>0.01889171577</v>
       </c>
-      <c r="BF10" s="24">
+      <c r="BF10" s="22">
         <f>Confirmed!BF9/Testing!BF9</f>
         <v>0.01873306196</v>
       </c>
-      <c r="BG10" s="24"/>
+      <c r="BG10" s="22">
+        <f>Confirmed!BG9/Testing!BG9</f>
+        <v>0.01846118684</v>
+      </c>
+      <c r="BH10" s="22">
+        <f>Confirmed!BH9/Testing!BH9</f>
+        <v>0.01822655152</v>
+      </c>
+      <c r="BI10" s="22"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <f>Confirmed!B10/Testing!B10</f>
         <v>0.03934031953</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <f>Confirmed!C10/Testing!C10</f>
         <v>0.04156441718</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <f>Confirmed!D10/Testing!D10</f>
         <v>0.04269972452</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <f>Confirmed!E10/Testing!E10</f>
         <v>0.04135818228</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <f>Confirmed!F10/Testing!F10</f>
         <v>0.03879207448</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <f>Confirmed!G10/Testing!G10</f>
         <v>0.03608589772</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <f>Confirmed!H10/Testing!H10</f>
         <v>0.03607931316</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <f>Confirmed!I10/Testing!I10</f>
         <v>0.03640965732</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="22">
         <f>Confirmed!J10/Testing!J10</f>
         <v>0.03935648064</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="22">
         <f>Confirmed!K10/Testing!K10</f>
         <v>0.03913455737</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="22">
         <f>Confirmed!L10/Testing!L10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="22">
         <f>Confirmed!M10/Testing!M10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="22">
         <f>Confirmed!N10/Testing!N10</f>
         <v>0.03805058037</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="22">
         <f>Confirmed!O10/Testing!O10</f>
         <v>0.03666002278</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="22">
         <f>Confirmed!P10/Testing!P10</f>
         <v>0.03631847476</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="22">
         <f>Confirmed!Q10/Testing!Q10</f>
         <v>0.03566529492</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="22">
         <f>Confirmed!R10/Testing!R10</f>
         <v>0.03593510866</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="22">
         <f>Confirmed!S10/Testing!S10</f>
         <v>0.0361558746</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="22">
         <f>Confirmed!T10/Testing!T10</f>
         <v>0.03622535211</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="22">
         <f>Confirmed!U10/Testing!U10</f>
         <v>0.03558468288</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="22">
         <f>Confirmed!V10/Testing!V10</f>
         <v>0.03481175864</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="22">
         <f>Confirmed!W10/Testing!W10</f>
         <v>0.03486336672</v>
       </c>
-      <c r="X11" s="24">
+      <c r="X11" s="22">
         <f>Confirmed!X10/Testing!X10</f>
         <v>0.03794308537</v>
       </c>
-      <c r="Y11" s="24">
+      <c r="Y11" s="22">
         <f>Confirmed!Y10/Testing!Y10</f>
         <v>0.03709718779</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="22">
         <f>Confirmed!Z10/Testing!Z10</f>
         <v>0.03792616502</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="22">
         <f>Confirmed!AA10/Testing!AA10</f>
         <v>0.03900818786</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11" s="22">
         <f>Confirmed!AB10/Testing!AB10</f>
         <v>0.03954408854</v>
       </c>
-      <c r="AC11" s="24">
+      <c r="AC11" s="22">
         <f>Confirmed!AC10/Testing!AC10</f>
         <v>0.04367423596</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="22">
         <f>Confirmed!AD10/Testing!AD10</f>
         <v>0.04545747008</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11" s="22">
         <f>Confirmed!AE10/Testing!AE10</f>
         <v>0.04610091045</v>
       </c>
-      <c r="AF11" s="24">
+      <c r="AF11" s="22">
         <f>Confirmed!AF10/Testing!AF10</f>
         <v>0.04674554493</v>
       </c>
-      <c r="AG11" s="24">
+      <c r="AG11" s="22">
         <f>Confirmed!AG10/Testing!AG10</f>
         <v>0.04771584759</v>
       </c>
-      <c r="AH11" s="24">
+      <c r="AH11" s="22">
         <f>Confirmed!AH10/Testing!AH10</f>
         <v>0.04942252293</v>
       </c>
-      <c r="AI11" s="24">
+      <c r="AI11" s="22">
         <f>Confirmed!AI10/Testing!AI10</f>
         <v>0.05309756522</v>
       </c>
-      <c r="AJ11" s="24">
+      <c r="AJ11" s="22">
         <f>Confirmed!AJ10/Testing!AJ10</f>
         <v>0.0553258841</v>
       </c>
-      <c r="AK11" s="24">
+      <c r="AK11" s="22">
         <f>Confirmed!AK10/Testing!AK10</f>
         <v>0.05650341455</v>
       </c>
-      <c r="AL11" s="24">
+      <c r="AL11" s="22">
         <f>Confirmed!AL10/Testing!AL10</f>
         <v>0.05738088154</v>
       </c>
-      <c r="AM11" s="24">
+      <c r="AM11" s="22">
         <f>Confirmed!AM10/Testing!AM10</f>
         <v>0.06072696804</v>
       </c>
-      <c r="AN11" s="24">
+      <c r="AN11" s="22">
         <f>Confirmed!AN10/Testing!AN10</f>
         <v>0.06399908627</v>
       </c>
-      <c r="AO11" s="24">
+      <c r="AO11" s="22">
         <f>Confirmed!AO10/Testing!AO10</f>
         <v>0.0660046088</v>
       </c>
-      <c r="AP11" s="24">
+      <c r="AP11" s="22">
         <f>Confirmed!AP10/Testing!AP10</f>
         <v>0.06598111817</v>
       </c>
-      <c r="AQ11" s="24">
+      <c r="AQ11" s="22">
         <f>Confirmed!AQ10/Testing!AQ10</f>
         <v>0.06373980626</v>
       </c>
-      <c r="AR11" s="24">
+      <c r="AR11" s="22">
         <f>Confirmed!AR10/Testing!AR10</f>
         <v>0.06812913782</v>
       </c>
-      <c r="AS11" s="24">
+      <c r="AS11" s="22">
         <f>Confirmed!AS10/Testing!AS10</f>
         <v>0.06918528536</v>
       </c>
-      <c r="AT11" s="24">
+      <c r="AT11" s="22">
         <f>Confirmed!AT10/Testing!AT10</f>
         <v>0.07059144926</v>
       </c>
-      <c r="AU11" s="24">
+      <c r="AU11" s="22">
         <f>Confirmed!AU10/Testing!AU10</f>
         <v>0.07360316359</v>
       </c>
-      <c r="AV11" s="24">
+      <c r="AV11" s="22">
         <f>Confirmed!AV10/Testing!AV10</f>
         <v>0.07699292497</v>
       </c>
-      <c r="AW11" s="24">
+      <c r="AW11" s="22">
         <f>Confirmed!AW10/Testing!AW10</f>
         <v>0.08101128341</v>
       </c>
-      <c r="AX11" s="24">
+      <c r="AX11" s="22">
         <f>Confirmed!AX10/Testing!AX10</f>
         <v>0.08080097386</v>
       </c>
-      <c r="AY11" s="24">
+      <c r="AY11" s="22">
         <f>Confirmed!AY10/Testing!AY10</f>
         <v>0.08325948387</v>
       </c>
-      <c r="AZ11" s="24">
+      <c r="AZ11" s="22">
         <f>Confirmed!AZ10/Testing!AZ10</f>
         <v>0.0860545367</v>
       </c>
-      <c r="BA11" s="24">
+      <c r="BA11" s="22">
         <f>Confirmed!BA10/Testing!BA10</f>
         <v>0.09076615069</v>
       </c>
-      <c r="BB11" s="24">
+      <c r="BB11" s="22">
         <f>Confirmed!BB10/Testing!BB10</f>
         <v>0.09507432567</v>
       </c>
-      <c r="BC11" s="24">
+      <c r="BC11" s="22">
         <f>Confirmed!BC10/Testing!BC10</f>
         <v>0.09800381366</v>
       </c>
-      <c r="BD11" s="24">
+      <c r="BD11" s="22">
         <f>Confirmed!BD10/Testing!BD10</f>
         <v>0.100007104</v>
       </c>
-      <c r="BE11" s="24">
+      <c r="BE11" s="22">
         <f>Confirmed!BE10/Testing!BE10</f>
         <v>0.1041049187</v>
       </c>
-      <c r="BF11" s="24">
+      <c r="BF11" s="22">
         <f>Confirmed!BF10/Testing!BF10</f>
         <v>0.106823155</v>
       </c>
-      <c r="BG11" s="24"/>
+      <c r="BG11" s="22">
+        <f>Confirmed!BG10/Testing!BG10</f>
+        <v>0.1102648558</v>
+      </c>
+      <c r="BH11" s="22">
+        <f>Confirmed!BH10/Testing!BH10</f>
+        <v>0.1136311075</v>
+      </c>
+      <c r="BI11" s="22"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <f>Confirmed!B11/Testing!B11</f>
         <v>0.04339522546</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <f>Confirmed!C11/Testing!C11</f>
         <v>0.05048782798</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <f>Confirmed!D11/Testing!D11</f>
         <v>0.04968098681</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <f>Confirmed!E11/Testing!E11</f>
         <v>0.04871511903</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <f>Confirmed!F11/Testing!F11</f>
         <v>0.04666420936</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <f>Confirmed!G11/Testing!G11</f>
         <v>0.04409050516</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <f>Confirmed!H11/Testing!H11</f>
         <v>0.04185077642</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="22">
         <f>Confirmed!I11/Testing!I11</f>
         <v>0.04040161125</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <f>Confirmed!J11/Testing!J11</f>
         <v>0.0389019872</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="22">
         <f>Confirmed!K11/Testing!K11</f>
         <v>0.03747870528</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <f>Confirmed!L11/Testing!L11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="22">
         <f>Confirmed!M11/Testing!M11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="22">
         <f>Confirmed!N11/Testing!N11</f>
         <v>0.03712495253</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="22">
         <f>Confirmed!O11/Testing!O11</f>
         <v>0.03494966369</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="22">
         <f>Confirmed!P11/Testing!P11</f>
         <v>0.0332103321</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="22">
         <f>Confirmed!Q11/Testing!Q11</f>
         <v>0.03279812813</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="22">
         <f>Confirmed!R11/Testing!R11</f>
         <v>0.03270321361</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="22">
         <f>Confirmed!S11/Testing!S11</f>
         <v>0.03220903301</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="22">
         <f>Confirmed!T11/Testing!T11</f>
         <v>0.03162729202</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="22">
         <f>Confirmed!U11/Testing!U11</f>
         <v>0.03110888108</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="22">
         <f>Confirmed!V11/Testing!V11</f>
         <v>0.03086380431</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="22">
         <f>Confirmed!W11/Testing!W11</f>
         <v>0.03056965256</v>
       </c>
-      <c r="X12" s="24">
+      <c r="X12" s="22">
         <f>Confirmed!X11/Testing!X11</f>
         <v>0.03086021807</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="Y12" s="22">
         <f>Confirmed!Y11/Testing!Y11</f>
         <v>0.03030143061</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="Z12" s="22">
         <f>Confirmed!Z11/Testing!Z11</f>
         <v>0.02915379248</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AA12" s="22">
         <f>Confirmed!AA11/Testing!AA11</f>
         <v>0.02859937029</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="22">
         <f>Confirmed!AB11/Testing!AB11</f>
         <v>0.0277035897</v>
       </c>
-      <c r="AC12" s="24">
+      <c r="AC12" s="22">
         <f>Confirmed!AC11/Testing!AC11</f>
         <v>0.02640347547</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="22">
         <f>Confirmed!AD11/Testing!AD11</f>
         <v>0.025451511</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AE12" s="22">
         <f>Confirmed!AE11/Testing!AE11</f>
         <v>0.02452234091</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12" s="22">
         <f>Confirmed!AF11/Testing!AF11</f>
         <v>0.02389629975</v>
       </c>
-      <c r="AG12" s="24">
+      <c r="AG12" s="22">
         <f>Confirmed!AG11/Testing!AG11</f>
         <v>0.02295399023</v>
       </c>
-      <c r="AH12" s="24">
+      <c r="AH12" s="22">
         <f>Confirmed!AH11/Testing!AH11</f>
         <v>0.0224761283</v>
       </c>
-      <c r="AI12" s="24">
+      <c r="AI12" s="22">
         <f>Confirmed!AI11/Testing!AI11</f>
         <v>0.021626271</v>
       </c>
-      <c r="AJ12" s="24">
+      <c r="AJ12" s="22">
         <f>Confirmed!AJ11/Testing!AJ11</f>
         <v>0.02109655394</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AK12" s="22">
         <f>Confirmed!AK11/Testing!AK11</f>
         <v>0.02097658751</v>
       </c>
-      <c r="AL12" s="24">
+      <c r="AL12" s="22">
         <f>Confirmed!AL11/Testing!AL11</f>
         <v>0.02097388109</v>
       </c>
-      <c r="AM12" s="24">
+      <c r="AM12" s="22">
         <f>Confirmed!AM11/Testing!AM11</f>
         <v>0.02000887093</v>
       </c>
-      <c r="AN12" s="24">
+      <c r="AN12" s="22">
         <f>Confirmed!AN11/Testing!AN11</f>
         <v>0.019527622</v>
       </c>
-      <c r="AO12" s="24">
+      <c r="AO12" s="22">
         <f>Confirmed!AO11/Testing!AO11</f>
         <v>0.01916756085</v>
       </c>
-      <c r="AP12" s="24">
+      <c r="AP12" s="22">
         <f>Confirmed!AP11/Testing!AP11</f>
         <v>0.01864054101</v>
       </c>
-      <c r="AQ12" s="24">
+      <c r="AQ12" s="22">
         <f>Confirmed!AQ11/Testing!AQ11</f>
         <v>0.01878032022</v>
       </c>
-      <c r="AR12" s="24">
+      <c r="AR12" s="22">
         <f>Confirmed!AR11/Testing!AR11</f>
         <v>0.01829286371</v>
       </c>
-      <c r="AS12" s="24">
+      <c r="AS12" s="22">
         <f>Confirmed!AS11/Testing!AS11</f>
         <v>0.01792501525</v>
       </c>
-      <c r="AT12" s="24">
+      <c r="AT12" s="22">
         <f>Confirmed!AT11/Testing!AT11</f>
         <v>0.01739300894</v>
       </c>
-      <c r="AU12" s="24">
+      <c r="AU12" s="22">
         <f>Confirmed!AU11/Testing!AU11</f>
         <v>0.01683579336</v>
       </c>
-      <c r="AV12" s="24">
+      <c r="AV12" s="22">
         <f>Confirmed!AV11/Testing!AV11</f>
         <v>0.01656876779</v>
       </c>
-      <c r="AW12" s="24">
+      <c r="AW12" s="22">
         <f>Confirmed!AW11/Testing!AW11</f>
         <v>0.01632685192</v>
       </c>
-      <c r="AX12" s="24">
+      <c r="AX12" s="22">
         <f>Confirmed!AX11/Testing!AX11</f>
         <v>0.01613707824</v>
       </c>
-      <c r="AY12" s="24">
+      <c r="AY12" s="22">
         <f>Confirmed!AY11/Testing!AY11</f>
         <v>0.01596947734</v>
       </c>
-      <c r="AZ12" s="24">
+      <c r="AZ12" s="22">
         <f>Confirmed!AZ11/Testing!AZ11</f>
         <v>0.01567567568</v>
       </c>
-      <c r="BA12" s="24">
+      <c r="BA12" s="22">
         <f>Confirmed!BA11/Testing!BA11</f>
         <v>0.01539356365</v>
       </c>
-      <c r="BB12" s="24">
+      <c r="BB12" s="22">
         <f>Confirmed!BB11/Testing!BB11</f>
         <v>0.0150232755</v>
       </c>
-      <c r="BC12" s="24">
+      <c r="BC12" s="22">
         <f>Confirmed!BC11/Testing!BC11</f>
         <v>0.01471926784</v>
       </c>
-      <c r="BD12" s="24">
+      <c r="BD12" s="22">
         <f>Confirmed!BD11/Testing!BD11</f>
         <v>0.014423597</v>
       </c>
-      <c r="BE12" s="24">
+      <c r="BE12" s="22">
         <f>Confirmed!BE11/Testing!BE11</f>
         <v>0.01422103182</v>
       </c>
-      <c r="BF12" s="24">
+      <c r="BF12" s="22">
         <f>Confirmed!BF11/Testing!BF11</f>
         <v>0.01414162946</v>
       </c>
-      <c r="BG12" s="24"/>
+      <c r="BG12" s="22">
+        <f>Confirmed!BG11/Testing!BG11</f>
+        <v>0.01421146093</v>
+      </c>
+      <c r="BH12" s="22">
+        <f>Confirmed!BH11/Testing!BH11</f>
+        <v>0.01446757448</v>
+      </c>
+      <c r="BI12" s="22"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -17626,16 +17931,16 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1263875.0</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>4027160.0</v>
       </c>
     </row>
@@ -17643,7 +17948,7 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>4592187.0</v>
       </c>
     </row>
@@ -17651,7 +17956,7 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>5982584.0</v>
       </c>
     </row>
@@ -17659,7 +17964,7 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>6712276.0</v>
       </c>
     </row>
@@ -17667,7 +17972,7 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>2887465.0</v>
       </c>
     </row>
@@ -17675,7 +17980,7 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -17683,7 +17988,7 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>6844272.0</v>
       </c>
     </row>
@@ -17691,7 +17996,7 @@
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -18698,7 +19003,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="59" width="9.88"/>
+    <col customWidth="1" min="44" max="61" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -18825,7 +19130,7 @@
       <c r="AO1" s="2">
         <v>43956.0</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="5">
         <v>43957.0</v>
       </c>
       <c r="AQ1" s="2">
@@ -18846,7 +19151,7 @@
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="5">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
@@ -18867,18 +19172,24 @@
       <c r="BC1" s="2">
         <v>43970.0</v>
       </c>
-      <c r="BD1" s="7">
+      <c r="BD1" s="5">
         <v>43971.0</v>
       </c>
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="8">
+      <c r="BF1" s="6">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="3">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="7">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -19045,7 +19356,7 @@
         <f t="shared" si="1"/>
         <v>17962</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="8">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1">
@@ -19072,7 +19383,7 @@
         <f t="shared" si="2"/>
         <v>21118</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2" s="8">
         <v>22069.0</v>
       </c>
       <c r="AX2" s="1">
@@ -19099,18 +19410,26 @@
         <f t="shared" si="3"/>
         <v>25020</v>
       </c>
-      <c r="BD2" s="5">
+      <c r="BD2" s="8">
         <v>25955.0</v>
       </c>
       <c r="BE2" s="1">
-        <f t="shared" ref="BE2:BF2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE2:BH2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
         <v>26906</v>
       </c>
       <c r="BF2" s="1">
         <f t="shared" si="4"/>
         <v>27807</v>
       </c>
-      <c r="BG2" s="1"/>
+      <c r="BG2" s="1">
+        <f t="shared" si="4"/>
+        <v>28900</v>
+      </c>
+      <c r="BH2" s="1">
+        <f t="shared" si="4"/>
+        <v>29898</v>
+      </c>
+      <c r="BI2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -19276,7 +19595,7 @@
         <f t="shared" si="5"/>
         <v>2165</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AP3" s="8">
         <v>2256.0</v>
       </c>
       <c r="AQ3" s="1">
@@ -19303,7 +19622,7 @@
         <f t="shared" si="6"/>
         <v>3524</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="AW3" s="8">
         <v>3683.0</v>
       </c>
       <c r="AX3" s="1">
@@ -19330,18 +19649,26 @@
         <f t="shared" si="7"/>
         <v>4604</v>
       </c>
-      <c r="BD3" s="5">
+      <c r="BD3" s="8">
         <v>4776.0</v>
       </c>
       <c r="BE3" s="1">
-        <f t="shared" ref="BE3:BF3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE3:BH3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
         <v>4951</v>
       </c>
       <c r="BF3" s="1">
         <f t="shared" si="8"/>
         <v>5117</v>
       </c>
-      <c r="BG3" s="1"/>
+      <c r="BG3" s="1">
+        <f t="shared" si="8"/>
+        <v>5318</v>
+      </c>
+      <c r="BH3" s="1">
+        <f t="shared" si="8"/>
+        <v>5501</v>
+      </c>
+      <c r="BI3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -19507,7 +19834,7 @@
         <f t="shared" si="9"/>
         <v>3956</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AP4" s="8">
         <v>4123.0</v>
       </c>
       <c r="AQ4" s="1">
@@ -19534,7 +19861,7 @@
         <f t="shared" si="10"/>
         <v>5561</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AW4" s="8">
         <v>5812.0</v>
       </c>
       <c r="AX4" s="1">
@@ -19561,18 +19888,26 @@
         <f t="shared" si="11"/>
         <v>8512</v>
       </c>
-      <c r="BD4" s="5">
+      <c r="BD4" s="8">
         <v>8830.0</v>
       </c>
       <c r="BE4" s="1">
-        <f t="shared" ref="BE4:BF4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE4:BH4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
         <v>9154</v>
       </c>
       <c r="BF4" s="1">
         <f t="shared" si="12"/>
         <v>9460</v>
       </c>
-      <c r="BG4" s="1"/>
+      <c r="BG4" s="1">
+        <f t="shared" si="12"/>
+        <v>9832</v>
+      </c>
+      <c r="BH4" s="1">
+        <f t="shared" si="12"/>
+        <v>10171</v>
+      </c>
+      <c r="BI4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -19738,7 +20073,7 @@
         <f t="shared" si="13"/>
         <v>7385</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" s="8">
         <v>7697.0</v>
       </c>
       <c r="AQ5" s="1">
@@ -19765,7 +20100,7 @@
         <f t="shared" si="14"/>
         <v>10922</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5" s="8">
         <v>11414.0</v>
       </c>
       <c r="AX5" s="1">
@@ -19792,18 +20127,26 @@
         <f t="shared" si="15"/>
         <v>14425</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BD5" s="8">
         <v>14964.0</v>
       </c>
       <c r="BE5" s="1">
-        <f t="shared" ref="BE5:BF5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE5:BH5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
         <v>15512</v>
       </c>
       <c r="BF5" s="1">
         <f t="shared" si="16"/>
         <v>16032</v>
       </c>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="1">
+        <f t="shared" si="16"/>
+        <v>16662</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" si="16"/>
+        <v>17237</v>
+      </c>
+      <c r="BI5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -19969,7 +20312,7 @@
         <f t="shared" si="17"/>
         <v>6096</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AP6" s="8">
         <v>6353.0</v>
       </c>
       <c r="AQ6" s="1">
@@ -19996,7 +20339,7 @@
         <f t="shared" si="18"/>
         <v>7884</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AW6" s="8">
         <v>8239.0</v>
       </c>
       <c r="AX6" s="1">
@@ -20023,18 +20366,26 @@
         <f t="shared" si="19"/>
         <v>10198</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BD6" s="8">
         <v>10579.0</v>
       </c>
       <c r="BE6" s="1">
-        <f t="shared" ref="BE6:BF6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE6:BH6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
         <v>10967</v>
       </c>
       <c r="BF6" s="1">
         <f t="shared" si="20"/>
         <v>11334</v>
       </c>
-      <c r="BG6" s="1"/>
+      <c r="BG6" s="1">
+        <f t="shared" si="20"/>
+        <v>11779</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="20"/>
+        <v>12186</v>
+      </c>
+      <c r="BI6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -20200,7 +20551,7 @@
         <f t="shared" si="21"/>
         <v>24678</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AP7" s="8">
         <v>25720.0</v>
       </c>
       <c r="AQ7" s="1">
@@ -20227,7 +20578,7 @@
         <f t="shared" si="22"/>
         <v>36479</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AW7" s="8">
         <v>38122.0</v>
       </c>
       <c r="AX7" s="1">
@@ -20254,18 +20605,26 @@
         <f t="shared" si="23"/>
         <v>50020</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BD7" s="8">
         <v>51888.0</v>
       </c>
       <c r="BE7" s="1">
-        <f t="shared" ref="BE7:BF7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE7:BH7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
         <v>53789</v>
       </c>
       <c r="BF7" s="1">
         <f t="shared" si="24"/>
         <v>55591</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="1">
+        <f t="shared" si="24"/>
+        <v>57775</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="24"/>
+        <v>59770</v>
+      </c>
+      <c r="BI7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -20431,7 +20790,7 @@
         <f t="shared" si="25"/>
         <v>13686</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AP8" s="8">
         <v>14264.0</v>
       </c>
       <c r="AQ8" s="1">
@@ -20458,7 +20817,7 @@
         <f t="shared" si="26"/>
         <v>18435</v>
       </c>
-      <c r="AW8" s="5">
+      <c r="AW8" s="8">
         <v>19265.0</v>
       </c>
       <c r="AX8" s="1">
@@ -20485,18 +20844,26 @@
         <f t="shared" si="27"/>
         <v>23536</v>
       </c>
-      <c r="BD8" s="5">
+      <c r="BD8" s="8">
         <v>24415.0</v>
       </c>
       <c r="BE8" s="1">
-        <f t="shared" ref="BE8:BF8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE8:BH8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
         <v>25310</v>
       </c>
       <c r="BF8" s="1">
         <f t="shared" si="28"/>
         <v>26157</v>
       </c>
-      <c r="BG8" s="1"/>
+      <c r="BG8" s="1">
+        <f t="shared" si="28"/>
+        <v>27185</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" si="28"/>
+        <v>28124</v>
+      </c>
+      <c r="BI8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -20662,7 +21029,7 @@
         <f t="shared" si="29"/>
         <v>48923</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AP9" s="8">
         <v>50988.0</v>
       </c>
       <c r="AQ9" s="1">
@@ -20689,7 +21056,7 @@
         <f t="shared" si="30"/>
         <v>64928</v>
       </c>
-      <c r="AW9" s="5">
+      <c r="AW9" s="8">
         <v>67853.0</v>
       </c>
       <c r="AX9" s="1">
@@ -20716,18 +21083,26 @@
         <f t="shared" si="31"/>
         <v>83335</v>
       </c>
-      <c r="BD9" s="5">
+      <c r="BD9" s="8">
         <v>86448.0</v>
       </c>
       <c r="BE9" s="1">
-        <f t="shared" ref="BE9:BF9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE9:BH9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
         <v>89616</v>
       </c>
       <c r="BF9" s="1">
         <f t="shared" si="32"/>
         <v>92617</v>
       </c>
-      <c r="BG9" s="1"/>
+      <c r="BG9" s="1">
+        <f t="shared" si="32"/>
+        <v>96256</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" si="32"/>
+        <v>99580</v>
+      </c>
+      <c r="BI9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -20893,7 +21268,7 @@
         <f t="shared" si="33"/>
         <v>54678</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AP10" s="8">
         <v>56986.0</v>
       </c>
       <c r="AQ10" s="1">
@@ -20920,7 +21295,7 @@
         <f t="shared" si="34"/>
         <v>79293</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="AW10" s="8">
         <v>82865.0</v>
       </c>
       <c r="AX10" s="1">
@@ -20947,18 +21322,26 @@
         <f t="shared" si="35"/>
         <v>108557</v>
       </c>
-      <c r="BD10" s="5">
+      <c r="BD10" s="8">
         <v>112612.0</v>
       </c>
       <c r="BE10" s="1">
-        <f t="shared" ref="BE10:BF10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE10:BH10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
         <v>116738</v>
       </c>
       <c r="BF10" s="1">
         <f t="shared" si="36"/>
         <v>120648</v>
       </c>
-      <c r="BG10" s="1"/>
+      <c r="BG10" s="1">
+        <f t="shared" si="36"/>
+        <v>125389</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" si="36"/>
+        <v>129718</v>
+      </c>
+      <c r="BI10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -21124,7 +21507,7 @@
         <f t="shared" si="37"/>
         <v>88535</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AP11" s="8">
         <v>92272.0</v>
       </c>
       <c r="AQ11" s="1">
@@ -21151,7 +21534,7 @@
         <f t="shared" si="38"/>
         <v>121554</v>
       </c>
-      <c r="AW11" s="5">
+      <c r="AW11" s="8">
         <v>127030.0</v>
       </c>
       <c r="AX11" s="1">
@@ -21178,428 +21561,450 @@
         <f t="shared" si="39"/>
         <v>160402</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BD11" s="8">
         <v>166394.0</v>
       </c>
       <c r="BE11" s="1">
-        <f t="shared" ref="BE11:BF11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE11:BH11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
         <v>172491</v>
       </c>
       <c r="BF11" s="1">
         <f t="shared" si="40"/>
         <v>178268</v>
       </c>
-      <c r="BG11" s="1"/>
+      <c r="BG11" s="1">
+        <f t="shared" si="40"/>
+        <v>185273</v>
+      </c>
+      <c r="BH11" s="1">
+        <f t="shared" si="40"/>
+        <v>191670</v>
+      </c>
+      <c r="BI11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="9">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="9">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="9">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="9">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="9">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="9">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="9">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="9">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="Z12" s="9">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AA12" s="9">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="9">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AC12" s="9">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="10">
+      <c r="AD12" s="9">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="10">
+      <c r="AE12" s="9">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AF12" s="9">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="9">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="10">
+      <c r="AH12" s="9">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="10">
+      <c r="AI12" s="9">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="10">
+      <c r="AJ12" s="9">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="10">
+      <c r="AK12" s="9">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="10">
+      <c r="AL12" s="9">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="10">
+      <c r="AM12" s="9">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="10">
+      <c r="AN12" s="9">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="10">
+      <c r="AO12" s="9">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="12">
+      <c r="AP12" s="11">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="10">
+      <c r="AQ12" s="9">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="10">
+      <c r="AR12" s="9">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="10">
+      <c r="AS12" s="9">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="10">
+      <c r="AT12" s="9">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="10">
+      <c r="AU12" s="9">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="10">
+      <c r="AV12" s="9">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AW12" s="11">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="10">
+      <c r="AX12" s="9">
         <v>403018.0</v>
       </c>
-      <c r="AY12" s="10">
+      <c r="AY12" s="9">
         <v>421555.0</v>
       </c>
-      <c r="AZ12" s="10">
+      <c r="AZ12" s="9">
         <v>439559.0</v>
       </c>
-      <c r="BA12" s="10">
+      <c r="BA12" s="9">
         <v>460873.0</v>
       </c>
-      <c r="BB12" s="10">
+      <c r="BB12" s="9">
         <v>475071.0</v>
       </c>
-      <c r="BC12" s="10">
+      <c r="BC12" s="9">
         <v>488609.0</v>
       </c>
-      <c r="BD12" s="13">
+      <c r="BD12" s="11">
         <v>506861.0</v>
       </c>
-      <c r="BE12" s="10">
+      <c r="BE12" s="9">
         <v>525433.0</v>
       </c>
-      <c r="BF12" s="10">
+      <c r="BF12" s="9">
         <v>543032.0</v>
+      </c>
+      <c r="BG12" s="9">
+        <v>564370.0</v>
+      </c>
+      <c r="BH12" s="9">
+        <v>583855.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
-        <f t="shared" ref="B13:BG13" si="41">sum(B2:B11)</f>
+      <c r="B13" s="13">
+        <f t="shared" ref="B13:BI13" si="41">sum(B2:B11)</f>
         <v>28536</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <f t="shared" si="41"/>
         <v>31965</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <f t="shared" si="41"/>
         <v>35592</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <f t="shared" si="41"/>
         <v>38409</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <f t="shared" si="41"/>
         <v>41073</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <f t="shared" si="41"/>
         <v>44293</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <f t="shared" si="41"/>
         <v>47966</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <f t="shared" si="41"/>
         <v>50359</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <f t="shared" si="41"/>
         <v>53939</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <f t="shared" si="41"/>
         <v>56874</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <f t="shared" si="41"/>
         <v>58097</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <f t="shared" si="41"/>
         <v>58097</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="13">
         <f t="shared" si="41"/>
         <v>63775</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="13">
         <f t="shared" si="41"/>
         <v>68873</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="13">
         <f t="shared" si="41"/>
         <v>73029</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="13">
         <f t="shared" si="41"/>
         <v>75054</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="13">
         <f t="shared" si="41"/>
         <v>80085</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="13">
         <f t="shared" si="41"/>
         <v>83664</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="13">
         <f t="shared" si="41"/>
         <v>87021</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="13">
         <f t="shared" si="41"/>
         <v>90515</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="13">
         <f t="shared" si="41"/>
         <v>95061</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="13">
         <f t="shared" si="41"/>
         <v>100827</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="13">
         <f t="shared" si="41"/>
         <v>108020</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="13">
         <f t="shared" si="41"/>
         <v>114709</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="13">
         <f t="shared" si="41"/>
         <v>121510</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="13">
         <f t="shared" si="41"/>
         <v>126938</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="13">
         <f t="shared" si="41"/>
         <v>133773</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="13">
         <f t="shared" si="41"/>
         <v>143570</v>
       </c>
-      <c r="AD13" s="15">
+      <c r="AD13" s="13">
         <f t="shared" si="41"/>
         <v>152390</v>
       </c>
-      <c r="AE13" s="15">
+      <c r="AE13" s="13">
         <f t="shared" si="41"/>
         <v>161004</v>
       </c>
-      <c r="AF13" s="15">
+      <c r="AF13" s="13">
         <f t="shared" si="41"/>
         <v>168643</v>
       </c>
-      <c r="AG13" s="15">
+      <c r="AG13" s="13">
         <f t="shared" si="41"/>
         <v>178470</v>
       </c>
-      <c r="AH13" s="15">
+      <c r="AH13" s="13">
         <f t="shared" si="41"/>
         <v>185498</v>
       </c>
-      <c r="AI13" s="15">
+      <c r="AI13" s="13">
         <f t="shared" si="41"/>
         <v>197129</v>
       </c>
-      <c r="AJ13" s="15">
+      <c r="AJ13" s="13">
         <f t="shared" si="41"/>
         <v>207531</v>
       </c>
-      <c r="AK13" s="15">
+      <c r="AK13" s="13">
         <f t="shared" si="41"/>
         <v>217522</v>
       </c>
-      <c r="AL13" s="15">
+      <c r="AL13" s="13">
         <f t="shared" si="41"/>
         <v>230685</v>
       </c>
-      <c r="AM13" s="15">
+      <c r="AM13" s="13">
         <f t="shared" si="41"/>
         <v>245746</v>
       </c>
-      <c r="AN13" s="15">
+      <c r="AN13" s="13">
         <f t="shared" si="41"/>
         <v>257541</v>
       </c>
-      <c r="AO13" s="15">
+      <c r="AO13" s="13">
         <f t="shared" si="41"/>
         <v>268064</v>
       </c>
-      <c r="AP13" s="15">
+      <c r="AP13" s="13">
         <f t="shared" si="41"/>
         <v>279379</v>
       </c>
-      <c r="AQ13" s="15">
+      <c r="AQ13" s="13">
         <f t="shared" si="41"/>
         <v>292152</v>
       </c>
-      <c r="AR13" s="15">
+      <c r="AR13" s="13">
         <f t="shared" si="41"/>
         <v>307753</v>
       </c>
-      <c r="AS13" s="15">
+      <c r="AS13" s="13">
         <f t="shared" si="41"/>
         <v>324078</v>
       </c>
-      <c r="AT13" s="15">
+      <c r="AT13" s="13">
         <f t="shared" si="41"/>
         <v>341336</v>
       </c>
-      <c r="AU13" s="15">
+      <c r="AU13" s="13">
         <f t="shared" si="41"/>
         <v>356065</v>
       </c>
-      <c r="AV13" s="15">
+      <c r="AV13" s="13">
         <f t="shared" si="41"/>
         <v>369698</v>
       </c>
-      <c r="AW13" s="15">
+      <c r="AW13" s="13">
         <f t="shared" si="41"/>
         <v>386352</v>
       </c>
-      <c r="AX13" s="15">
+      <c r="AX13" s="13">
         <f t="shared" si="41"/>
         <v>403018</v>
       </c>
-      <c r="AY13" s="15">
+      <c r="AY13" s="13">
         <f t="shared" si="41"/>
         <v>421556</v>
       </c>
-      <c r="AZ13" s="15">
+      <c r="AZ13" s="13">
         <f t="shared" si="41"/>
         <v>439559</v>
       </c>
-      <c r="BA13" s="15">
+      <c r="BA13" s="13">
         <f t="shared" si="41"/>
         <v>460873</v>
       </c>
-      <c r="BB13" s="15">
+      <c r="BB13" s="13">
         <f t="shared" si="41"/>
         <v>475070</v>
       </c>
-      <c r="BC13" s="15">
+      <c r="BC13" s="13">
         <f t="shared" si="41"/>
         <v>488609</v>
       </c>
-      <c r="BD13" s="15">
+      <c r="BD13" s="13">
         <f t="shared" si="41"/>
         <v>506861</v>
       </c>
-      <c r="BE13" s="15">
+      <c r="BE13" s="13">
         <f t="shared" si="41"/>
         <v>525434</v>
       </c>
-      <c r="BF13" s="15">
+      <c r="BF13" s="13">
         <f t="shared" si="41"/>
         <v>543031</v>
       </c>
-      <c r="BG13" s="15">
+      <c r="BG13" s="13">
+        <f t="shared" si="41"/>
+        <v>564369</v>
+      </c>
+      <c r="BH13" s="13">
+        <f t="shared" si="41"/>
+        <v>583855</v>
+      </c>
+      <c r="BI13" s="13">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -21691,6 +22096,8 @@
       <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
       <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -22704,7 +23111,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="59" width="9.88"/>
+    <col customWidth="1" min="44" max="61" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -22883,8 +23290,14 @@
         <v>43973.0</v>
       </c>
       <c r="BG1" s="2">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>TODAY()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -23051,7 +23464,7 @@
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="8">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1" t="str">
@@ -23091,7 +23504,9 @@
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="1" t="str">
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1" t="str">
         <f>ROUND($AP2/#REF!*#REF!,0)</f>
         <v>#REF!</v>
       </c>
@@ -23328,7 +23743,15 @@
         <f>round(100000*Testing!BF3/$B13,0)</f>
         <v>405</v>
       </c>
-      <c r="BG3" s="1"/>
+      <c r="BG3" s="1">
+        <f>round(100000*Testing!BG3/$B13,0)</f>
+        <v>421</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>round(100000*Testing!BH3/$B13,0)</f>
+        <v>435</v>
+      </c>
+      <c r="BI3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -23562,7 +23985,15 @@
         <f>round(100000*Testing!BF4/$B14,0)</f>
         <v>235</v>
       </c>
-      <c r="BG4" s="1"/>
+      <c r="BG4" s="1">
+        <f>round(100000*Testing!BG4/$B14,0)</f>
+        <v>244</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>round(100000*Testing!BH4/$B14,0)</f>
+        <v>253</v>
+      </c>
+      <c r="BI4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -23796,7 +24227,15 @@
         <f>round(100000*Testing!BF5/$B15,0)</f>
         <v>349</v>
       </c>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="1">
+        <f>round(100000*Testing!BG5/$B15,0)</f>
+        <v>363</v>
+      </c>
+      <c r="BH5" s="1">
+        <f>round(100000*Testing!BH5/$B15,0)</f>
+        <v>375</v>
+      </c>
+      <c r="BI5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -24030,7 +24469,15 @@
         <f>round(100000*Testing!BF6/$B16,0)</f>
         <v>189</v>
       </c>
-      <c r="BG6" s="1"/>
+      <c r="BG6" s="1">
+        <f>round(100000*Testing!BG6/$B16,0)</f>
+        <v>197</v>
+      </c>
+      <c r="BH6" s="1">
+        <f>round(100000*Testing!BH6/$B16,0)</f>
+        <v>204</v>
+      </c>
+      <c r="BI6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -24264,7 +24711,15 @@
         <f>round(100000*Testing!BF7/$B17,0)</f>
         <v>828</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="1">
+        <f>round(100000*Testing!BG7/$B17,0)</f>
+        <v>861</v>
+      </c>
+      <c r="BH7" s="1">
+        <f>round(100000*Testing!BH7/$B17,0)</f>
+        <v>890</v>
+      </c>
+      <c r="BI7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -24498,7 +24953,15 @@
         <f>round(100000*Testing!BF8/$B18,0)</f>
         <v>906</v>
       </c>
-      <c r="BG8" s="1"/>
+      <c r="BG8" s="1">
+        <f>round(100000*Testing!BG8/$B18,0)</f>
+        <v>941</v>
+      </c>
+      <c r="BH8" s="1">
+        <f>round(100000*Testing!BH8/$B18,0)</f>
+        <v>974</v>
+      </c>
+      <c r="BI8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -24732,7 +25195,15 @@
         <f>round(100000*Testing!BF9/$B19,0)</f>
         <v>820</v>
       </c>
-      <c r="BG9" s="1"/>
+      <c r="BG9" s="1">
+        <f>round(100000*Testing!BG9/$B19,0)</f>
+        <v>853</v>
+      </c>
+      <c r="BH9" s="1">
+        <f>round(100000*Testing!BH9/$B19,0)</f>
+        <v>882</v>
+      </c>
+      <c r="BI9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -24966,7 +25437,15 @@
         <f>round(100000*Testing!BF10/$B20,0)</f>
         <v>1763</v>
       </c>
-      <c r="BG10" s="1"/>
+      <c r="BG10" s="1">
+        <f>round(100000*Testing!BG10/$B20,0)</f>
+        <v>1832</v>
+      </c>
+      <c r="BH10" s="1">
+        <f>round(100000*Testing!BH10/$B20,0)</f>
+        <v>1895</v>
+      </c>
+      <c r="BI10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -25200,14 +25679,22 @@
         <f>round(100000*Testing!BF11/$B21,0)</f>
         <v>1175</v>
       </c>
-      <c r="BG11" s="1"/>
+      <c r="BG11" s="1">
+        <f>round(100000*Testing!BG11/$B21,0)</f>
+        <v>1221</v>
+      </c>
+      <c r="BH11" s="1">
+        <f>round(100000*Testing!BH11/$B21,0)</f>
+        <v>1263</v>
+      </c>
+      <c r="BI11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>1263875.0</v>
       </c>
     </row>
@@ -25215,7 +25702,7 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>4027160.0</v>
       </c>
     </row>
@@ -25223,7 +25710,7 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>4592187.0</v>
       </c>
     </row>
@@ -25231,7 +25718,7 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>5982584.0</v>
       </c>
     </row>
@@ -25239,7 +25726,7 @@
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>6712276.0</v>
       </c>
     </row>
@@ -25247,7 +25734,7 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>2887465.0</v>
       </c>
     </row>
@@ -25255,7 +25742,7 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -25263,7 +25750,7 @@
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>6844272.0</v>
       </c>
     </row>
@@ -25271,7 +25758,7 @@
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -26276,7 +26763,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="59" width="8.88"/>
+    <col customWidth="1" min="46" max="61" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -26451,12 +26938,18 @@
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="3">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -26617,6 +27110,8 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -26793,7 +27288,13 @@
       <c r="BF3" s="4">
         <v>1.0</v>
       </c>
-      <c r="BG3" s="4"/>
+      <c r="BG3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BI3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -26970,7 +27471,13 @@
       <c r="BF4" s="4">
         <v>1.0</v>
       </c>
-      <c r="BG4" s="4"/>
+      <c r="BG4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BI4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -27147,7 +27654,13 @@
       <c r="BF5" s="4">
         <v>0.0</v>
       </c>
-      <c r="BG5" s="4"/>
+      <c r="BG5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -27324,7 +27837,13 @@
       <c r="BF6" s="4">
         <v>3.0</v>
       </c>
-      <c r="BG6" s="4"/>
+      <c r="BG6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BI6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -27501,7 +28020,13 @@
       <c r="BF7" s="4">
         <v>53.0</v>
       </c>
-      <c r="BG7" s="4"/>
+      <c r="BG7" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="BI7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -27678,7 +28203,13 @@
       <c r="BF8" s="4">
         <v>6.0</v>
       </c>
-      <c r="BG8" s="4"/>
+      <c r="BG8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BI8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -27855,7 +28386,13 @@
       <c r="BF9" s="4">
         <v>47.0</v>
       </c>
-      <c r="BG9" s="4"/>
+      <c r="BG9" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="BI9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -28032,7 +28569,13 @@
       <c r="BF10" s="4">
         <v>257.0</v>
       </c>
-      <c r="BG10" s="4"/>
+      <c r="BG10" s="4">
+        <v>261.0</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>281.0</v>
+      </c>
+      <c r="BI10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -28209,7 +28752,13 @@
       <c r="BF11" s="4">
         <v>29.0</v>
       </c>
-      <c r="BG11" s="4"/>
+      <c r="BG11" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BH11" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BI11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -29226,7 +29775,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="59" width="8.88"/>
+    <col customWidth="1" min="46" max="61" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -29368,45 +29917,51 @@
       <c r="AT1" s="2">
         <v>43961.0</v>
       </c>
-      <c r="AU1" s="9">
+      <c r="AU1" s="6">
         <v>43962.0</v>
       </c>
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="9">
+      <c r="AW1" s="6">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="9">
+      <c r="AY1" s="6">
         <v>43966.0</v>
       </c>
       <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="9">
+      <c r="BA1" s="6">
         <v>43968.0</v>
       </c>
       <c r="BB1" s="2">
         <v>43969.0</v>
       </c>
-      <c r="BC1" s="9">
+      <c r="BC1" s="6">
         <v>43970.0</v>
       </c>
       <c r="BD1" s="2">
         <v>43971.0</v>
       </c>
-      <c r="BE1" s="9">
+      <c r="BE1" s="6">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="7">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -29567,6 +30122,8 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -29743,7 +30300,13 @@
       <c r="BF3" s="4">
         <v>27.0</v>
       </c>
-      <c r="BG3" s="4"/>
+      <c r="BG3" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="BI3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -29920,7 +30483,13 @@
       <c r="BF4" s="4">
         <v>29.0</v>
       </c>
-      <c r="BG4" s="4"/>
+      <c r="BG4" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BI4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -30097,7 +30666,13 @@
       <c r="BF5" s="4">
         <v>58.0</v>
       </c>
-      <c r="BG5" s="4"/>
+      <c r="BG5" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="BI5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -30274,7 +30849,13 @@
       <c r="BF6" s="4">
         <v>51.0</v>
       </c>
-      <c r="BG6" s="4"/>
+      <c r="BG6" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="BI6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -30451,7 +31032,13 @@
       <c r="BF7" s="4">
         <v>1036.0</v>
       </c>
-      <c r="BG7" s="4"/>
+      <c r="BG7" s="4">
+        <v>1036.0</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>1335.0</v>
+      </c>
+      <c r="BI7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -30628,7 +31215,13 @@
       <c r="BF8" s="4">
         <v>121.0</v>
       </c>
-      <c r="BG8" s="4"/>
+      <c r="BG8" s="4">
+        <v>121.0</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>121.0</v>
+      </c>
+      <c r="BI8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -30805,7 +31398,13 @@
       <c r="BF9" s="4">
         <v>880.0</v>
       </c>
-      <c r="BG9" s="4"/>
+      <c r="BG9" s="4">
+        <v>880.0</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>1111.0</v>
+      </c>
+      <c r="BI9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -30982,7 +31581,13 @@
       <c r="BF10" s="4">
         <v>6126.0</v>
       </c>
-      <c r="BG10" s="4"/>
+      <c r="BG10" s="4">
+        <v>6126.0</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>6525.0</v>
+      </c>
+      <c r="BI10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -31159,7 +31764,13 @@
       <c r="BF11" s="4">
         <v>1776.0</v>
       </c>
-      <c r="BG11" s="4"/>
+      <c r="BG11" s="4">
+        <v>1776.0</v>
+      </c>
+      <c r="BH11" s="4">
+        <v>1840.0</v>
+      </c>
+      <c r="BI11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -32175,7 +32786,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="59" width="7.63"/>
+    <col customWidth="1" min="37" max="61" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -32350,12 +32961,18 @@
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="3">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -32557,244 +33174,254 @@
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="1">
-        <f>Confirmed!BG2-Deaths!AX2-Recoveries!AX2</f>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1">
+        <f>Confirmed!BI2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17">
-        <f t="shared" ref="B3:BG3" si="1">sum(B4:B12)</f>
+      <c r="B3" s="15">
+        <f t="shared" ref="B3:BI3" si="1">sum(B4:B12)</f>
         <v>848</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <f t="shared" si="1"/>
         <v>1178</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <f t="shared" si="1"/>
         <v>1227</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <f t="shared" si="1"/>
         <v>1258</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <f t="shared" si="1"/>
         <v>1285</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <f t="shared" si="1"/>
         <v>1363</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <f t="shared" si="1"/>
         <v>1402</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <f t="shared" si="1"/>
         <v>1513</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <f t="shared" si="1"/>
         <v>1567</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <f t="shared" si="1"/>
         <v>1597</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="15">
         <f t="shared" si="1"/>
         <v>1596</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="15">
         <f t="shared" si="1"/>
         <v>1816</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="15">
         <f t="shared" si="1"/>
         <v>1905</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="15">
         <f t="shared" si="1"/>
         <v>1559</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="15">
         <f t="shared" si="1"/>
         <v>1583</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="15">
         <f t="shared" si="1"/>
         <v>1723</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="15">
         <f t="shared" si="1"/>
         <v>1818</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="15">
         <f t="shared" si="1"/>
         <v>1960</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="15">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="15">
         <f t="shared" si="1"/>
         <v>1638</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="15">
         <f t="shared" si="1"/>
         <v>1808</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="15">
         <f t="shared" si="1"/>
         <v>2047</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="15">
         <f t="shared" si="1"/>
         <v>2159</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="15">
         <f t="shared" si="1"/>
         <v>2144</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="15">
         <f t="shared" si="1"/>
         <v>2309</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AB3" s="15">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AC3" s="15">
         <f t="shared" si="1"/>
         <v>2404</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AD3" s="15">
         <f t="shared" si="1"/>
         <v>2668</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="15">
         <f t="shared" si="1"/>
         <v>2802</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AF3" s="15">
         <f t="shared" si="1"/>
         <v>2986</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AG3" s="15">
         <f t="shared" si="1"/>
         <v>3230</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AH3" s="15">
         <f t="shared" si="1"/>
         <v>3429</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AI3" s="15">
         <f t="shared" si="1"/>
         <v>3773</v>
       </c>
-      <c r="AJ3" s="17">
+      <c r="AJ3" s="15">
         <f t="shared" si="1"/>
         <v>4070</v>
       </c>
-      <c r="AK3" s="17">
+      <c r="AK3" s="15">
         <f t="shared" si="1"/>
         <v>4361</v>
       </c>
-      <c r="AL3" s="17">
+      <c r="AL3" s="15">
         <f t="shared" si="1"/>
         <v>3664</v>
       </c>
-      <c r="AM3" s="17">
+      <c r="AM3" s="15">
         <f t="shared" si="1"/>
         <v>4103</v>
       </c>
-      <c r="AN3" s="17">
+      <c r="AN3" s="15">
         <f t="shared" si="1"/>
         <v>4336</v>
       </c>
-      <c r="AO3" s="17">
+      <c r="AO3" s="15">
         <f t="shared" si="1"/>
         <v>4678</v>
       </c>
-      <c r="AP3" s="17">
+      <c r="AP3" s="15">
         <f t="shared" si="1"/>
         <v>4502</v>
       </c>
-      <c r="AQ3" s="17">
+      <c r="AQ3" s="15">
         <f t="shared" si="1"/>
         <v>4918</v>
       </c>
-      <c r="AR3" s="17">
+      <c r="AR3" s="15">
         <f t="shared" si="1"/>
         <v>5564</v>
       </c>
-      <c r="AS3" s="17">
+      <c r="AS3" s="15">
         <f t="shared" si="1"/>
         <v>6081</v>
       </c>
-      <c r="AT3" s="17">
+      <c r="AT3" s="15">
         <f t="shared" si="1"/>
         <v>5648</v>
       </c>
-      <c r="AU3" s="17">
+      <c r="AU3" s="15">
         <f t="shared" si="1"/>
         <v>6273</v>
       </c>
-      <c r="AV3" s="17">
+      <c r="AV3" s="15">
         <f t="shared" si="1"/>
         <v>6971</v>
       </c>
-      <c r="AW3" s="17">
+      <c r="AW3" s="15">
         <f t="shared" si="1"/>
         <v>7110</v>
       </c>
-      <c r="AX3" s="17">
+      <c r="AX3" s="15">
         <f t="shared" si="1"/>
         <v>6825</v>
       </c>
-      <c r="AY3" s="17">
+      <c r="AY3" s="15">
         <f t="shared" si="1"/>
         <v>7194</v>
       </c>
-      <c r="AZ3" s="17">
+      <c r="AZ3" s="15">
         <f t="shared" si="1"/>
         <v>7616</v>
       </c>
-      <c r="BA3" s="17">
+      <c r="BA3" s="15">
         <f t="shared" si="1"/>
         <v>8245</v>
       </c>
-      <c r="BB3" s="17">
+      <c r="BB3" s="15">
         <f t="shared" si="1"/>
         <v>8849</v>
       </c>
-      <c r="BC3" s="17">
+      <c r="BC3" s="15">
         <f t="shared" si="1"/>
         <v>8928</v>
       </c>
-      <c r="BD3" s="17">
+      <c r="BD3" s="15">
         <f t="shared" si="1"/>
         <v>8714</v>
       </c>
-      <c r="BE3" s="17">
+      <c r="BE3" s="15">
         <f t="shared" si="1"/>
         <v>9818</v>
       </c>
-      <c r="BF3" s="17">
+      <c r="BF3" s="15">
         <f t="shared" si="1"/>
         <v>9624</v>
       </c>
-      <c r="BG3" s="17">
+      <c r="BG3" s="15">
+        <f t="shared" si="1"/>
+        <v>10832</v>
+      </c>
+      <c r="BH3" s="15">
+        <f t="shared" si="1"/>
+        <v>11054</v>
+      </c>
+      <c r="BI3" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -33031,7 +33658,15 @@
         <f>Confirmed!BF3-Deaths!BF3-Recoveries!BF3</f>
         <v>11</v>
       </c>
-      <c r="BG4" s="1"/>
+      <c r="BG4" s="1">
+        <f>Confirmed!BG3-Deaths!BG3-Recoveries!BG3</f>
+        <v>12</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>Confirmed!BH3-Deaths!BH3-Recoveries!BH3</f>
+        <v>11</v>
+      </c>
+      <c r="BI4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -33265,7 +33900,15 @@
         <f>Confirmed!BF4-Deaths!BF4-Recoveries!BF4</f>
         <v>50</v>
       </c>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="1">
+        <f>Confirmed!BG4-Deaths!BG4-Recoveries!BG4</f>
+        <v>51</v>
+      </c>
+      <c r="BH5" s="1">
+        <f>Confirmed!BH4-Deaths!BH4-Recoveries!BH4</f>
+        <v>64</v>
+      </c>
+      <c r="BI5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -33499,7 +34142,15 @@
         <f>Confirmed!BF5-Deaths!BF5-Recoveries!BF5</f>
         <v>40</v>
       </c>
-      <c r="BG6" s="1"/>
+      <c r="BG6" s="1">
+        <f>Confirmed!BG5-Deaths!BG5-Recoveries!BG5</f>
+        <v>39</v>
+      </c>
+      <c r="BH6" s="1">
+        <f>Confirmed!BH5-Deaths!BH5-Recoveries!BH5</f>
+        <v>43</v>
+      </c>
+      <c r="BI6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -33733,7 +34384,15 @@
         <f>Confirmed!BF6-Deaths!BF6-Recoveries!BF6</f>
         <v>66</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="1">
+        <f>Confirmed!BG6-Deaths!BG6-Recoveries!BG6</f>
+        <v>70</v>
+      </c>
+      <c r="BH7" s="1">
+        <f>Confirmed!BH6-Deaths!BH6-Recoveries!BH6</f>
+        <v>72</v>
+      </c>
+      <c r="BI7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -33967,7 +34626,15 @@
         <f>Confirmed!BF7-Deaths!BF7-Recoveries!BF7</f>
         <v>1370</v>
       </c>
-      <c r="BG8" s="1"/>
+      <c r="BG8" s="1">
+        <f>Confirmed!BG7-Deaths!BG7-Recoveries!BG7</f>
+        <v>1475</v>
+      </c>
+      <c r="BH8" s="1">
+        <f>Confirmed!BH7-Deaths!BH7-Recoveries!BH7</f>
+        <v>1296</v>
+      </c>
+      <c r="BI8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -34201,7 +34868,15 @@
         <f>Confirmed!BF8-Deaths!BF8-Recoveries!BF8</f>
         <v>58</v>
       </c>
-      <c r="BG9" s="1"/>
+      <c r="BG9" s="1">
+        <f>Confirmed!BG8-Deaths!BG8-Recoveries!BG8</f>
+        <v>69</v>
+      </c>
+      <c r="BH9" s="1">
+        <f>Confirmed!BH8-Deaths!BH8-Recoveries!BH8</f>
+        <v>75</v>
+      </c>
+      <c r="BI9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -34435,7 +35110,15 @@
         <f>Confirmed!BF9-Deaths!BF9-Recoveries!BF9</f>
         <v>808</v>
       </c>
-      <c r="BG10" s="1"/>
+      <c r="BG10" s="1">
+        <f>Confirmed!BG9-Deaths!BG9-Recoveries!BG9</f>
+        <v>849</v>
+      </c>
+      <c r="BH10" s="1">
+        <f>Confirmed!BH9-Deaths!BH9-Recoveries!BH9</f>
+        <v>655</v>
+      </c>
+      <c r="BI10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -34669,7 +35352,15 @@
         <f>Confirmed!BF10-Deaths!BF10-Recoveries!BF10</f>
         <v>6505</v>
       </c>
-      <c r="BG11" s="1"/>
+      <c r="BG11" s="1">
+        <f>Confirmed!BG10-Deaths!BG10-Recoveries!BG10</f>
+        <v>7439</v>
+      </c>
+      <c r="BH11" s="1">
+        <f>Confirmed!BH10-Deaths!BH10-Recoveries!BH10</f>
+        <v>7934</v>
+      </c>
+      <c r="BI11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -34903,12 +35594,20 @@
         <f>Confirmed!BF11-Deaths!BF11-Recoveries!BF11</f>
         <v>716</v>
       </c>
-      <c r="BG12" s="1"/>
+      <c r="BG12" s="1">
+        <f>Confirmed!BG11-Deaths!BG11-Recoveries!BG11</f>
+        <v>828</v>
+      </c>
+      <c r="BH12" s="1">
+        <f>Confirmed!BH11-Deaths!BH11-Recoveries!BH11</f>
+        <v>904</v>
+      </c>
+      <c r="BI12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="19"/>
+      <c r="AK15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -35929,247 +36628,247 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AG1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AH1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AI1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AK1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AL1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AM1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="18" t="s">
+      <c r="AN1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AO1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="18" t="s">
+      <c r="AP1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="18" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" s="18" t="s">
+      <c r="AR1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AS1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" s="18" t="s">
+      <c r="AT1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" s="18" t="s">
+      <c r="AU1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" s="18" t="s">
+      <c r="AV1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="18" t="s">
+      <c r="AW1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AX1" s="18" t="s">
+      <c r="AX1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AY1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BA1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BB1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BC1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="BD1" s="18" t="s">
+      <c r="BD1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="BE1" s="18" t="s">
+      <c r="BE1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="18" t="s">
+      <c r="BF1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="BG1" s="18" t="s">
+      <c r="BG1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="BH1" s="18" t="s">
+      <c r="BH1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="BI1" s="18" t="s">
+      <c r="BI1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="BJ1" s="18" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BK1" s="18" t="s">
+      <c r="BK1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BL1" s="18" t="s">
+      <c r="BL1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="BM1" s="18" t="s">
+      <c r="BM1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="BN1" s="18" t="s">
+      <c r="BN1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="BO1" s="18" t="s">
+      <c r="BO1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="BP1" s="18" t="s">
+      <c r="BP1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="BQ1" s="18" t="s">
+      <c r="BQ1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="BR1" s="18" t="s">
+      <c r="BR1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="BS1" s="18" t="s">
+      <c r="BS1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="BT1" s="18" t="s">
+      <c r="BT1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="BU1" s="18" t="s">
+      <c r="BU1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="BV1" s="18" t="s">
+      <c r="BV1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="BW1" s="18" t="s">
+      <c r="BW1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="BX1" s="18" t="s">
+      <c r="BX1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="BY1" s="18" t="s">
+      <c r="BY1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="BZ1" s="18" t="s">
+      <c r="BZ1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="CA1" s="18" t="s">
+      <c r="CA1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="CB1" s="18" t="s">
+      <c r="CB1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="CC1" s="18" t="s">
+      <c r="CC1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="CD1" s="18" t="s">
+      <c r="CD1" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -36364,7 +37063,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1">
-        <f>Confirmed!BG2-Deaths!AX2-Recoveries!AX2</f>
+        <f>Confirmed!BI2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1"/>
@@ -36401,330 +37100,330 @@
       <c r="CD2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <f t="shared" ref="B3:CD3" si="1">sum(B4:B12)</f>
         <v>9818</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <f t="shared" si="1"/>
         <v>10284</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <f t="shared" si="1"/>
         <v>11327</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <f t="shared" si="1"/>
         <v>12484</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <f t="shared" si="1"/>
         <v>13567</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <f t="shared" si="1"/>
         <v>14541</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <f t="shared" si="1"/>
         <v>16055</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <f t="shared" si="1"/>
         <v>17175</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <f t="shared" si="1"/>
         <v>18357</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <f t="shared" si="1"/>
         <v>18692</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <f t="shared" si="1"/>
         <v>19252</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="15">
         <f t="shared" si="1"/>
         <v>19016</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="15">
         <f t="shared" si="1"/>
         <v>18841</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="15">
         <f t="shared" si="1"/>
         <v>17537</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="15">
         <f t="shared" si="1"/>
         <v>16036</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="15">
         <f t="shared" si="1"/>
         <v>13999</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="15">
         <f t="shared" si="1"/>
         <v>12301</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="15">
         <f t="shared" si="1"/>
         <v>10976</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="15">
         <f t="shared" si="1"/>
         <v>10152</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="15">
         <f t="shared" si="1"/>
         <v>8897</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="15">
         <f t="shared" si="1"/>
         <v>8110</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="15">
         <f t="shared" si="1"/>
         <v>7039</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="15">
         <f t="shared" si="1"/>
         <v>6135</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="15">
         <f t="shared" si="1"/>
         <v>5291</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="15">
         <f t="shared" si="1"/>
         <v>4559</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="15">
         <f t="shared" si="1"/>
         <v>4109</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AB3" s="15">
         <f t="shared" si="1"/>
         <v>3539</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AC3" s="15">
         <f t="shared" si="1"/>
         <v>3149</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AD3" s="15">
         <f t="shared" si="1"/>
         <v>2815</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="15">
         <f t="shared" si="1"/>
         <v>2390</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AF3" s="15">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AG3" s="15">
         <f t="shared" si="1"/>
         <v>1748</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AH3" s="15">
         <f t="shared" si="1"/>
         <v>1520</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AI3" s="15">
         <f t="shared" si="1"/>
         <v>1347</v>
       </c>
-      <c r="AJ3" s="17">
+      <c r="AJ3" s="15">
         <f t="shared" si="1"/>
         <v>1139</v>
       </c>
-      <c r="AK3" s="17">
+      <c r="AK3" s="15">
         <f t="shared" si="1"/>
         <v>996</v>
       </c>
-      <c r="AL3" s="17">
+      <c r="AL3" s="15">
         <f t="shared" si="1"/>
         <v>858</v>
       </c>
-      <c r="AM3" s="17">
+      <c r="AM3" s="15">
         <f t="shared" si="1"/>
         <v>748</v>
       </c>
-      <c r="AN3" s="17">
+      <c r="AN3" s="15">
         <f t="shared" si="1"/>
         <v>629</v>
       </c>
-      <c r="AO3" s="17">
+      <c r="AO3" s="15">
         <f t="shared" si="1"/>
         <v>555</v>
       </c>
-      <c r="AP3" s="17">
+      <c r="AP3" s="15">
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
-      <c r="AQ3" s="17">
+      <c r="AQ3" s="15">
         <f t="shared" si="1"/>
         <v>419</v>
       </c>
-      <c r="AR3" s="17">
+      <c r="AR3" s="15">
         <f t="shared" si="1"/>
         <v>354</v>
       </c>
-      <c r="AS3" s="17">
+      <c r="AS3" s="15">
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="AT3" s="17">
+      <c r="AT3" s="15">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="AU3" s="17">
+      <c r="AU3" s="15">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="AV3" s="17">
+      <c r="AV3" s="15">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="AW3" s="17">
+      <c r="AW3" s="15">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="AX3" s="17">
+      <c r="AX3" s="15">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="AY3" s="17">
+      <c r="AY3" s="15">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="AZ3" s="17">
+      <c r="AZ3" s="15">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="BA3" s="17">
+      <c r="BA3" s="15">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="BB3" s="17">
+      <c r="BB3" s="15">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="BC3" s="17">
+      <c r="BC3" s="15">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="BD3" s="17">
+      <c r="BD3" s="15">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="BE3" s="17">
+      <c r="BE3" s="15">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="BF3" s="17">
+      <c r="BF3" s="15">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="BG3" s="17">
+      <c r="BG3" s="15">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="BH3" s="17">
+      <c r="BH3" s="15">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="BI3" s="17">
+      <c r="BI3" s="15">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="BJ3" s="17">
+      <c r="BJ3" s="15">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="BK3" s="17">
+      <c r="BK3" s="15">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="BL3" s="17">
+      <c r="BL3" s="15">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="BM3" s="17">
+      <c r="BM3" s="15">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="BN3" s="17">
+      <c r="BN3" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="BO3" s="17">
+      <c r="BO3" s="15">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="BP3" s="17">
+      <c r="BP3" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="BQ3" s="17">
+      <c r="BQ3" s="15">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="BR3" s="17">
+      <c r="BR3" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="BS3" s="17">
+      <c r="BS3" s="15">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="BT3" s="17">
+      <c r="BT3" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="BU3" s="17">
+      <c r="BU3" s="15">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="BV3" s="17">
+      <c r="BV3" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="BW3" s="17">
+      <c r="BW3" s="15">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="BX3" s="17">
+      <c r="BX3" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="BY3" s="17">
+      <c r="BY3" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="BZ3" s="17">
+      <c r="BZ3" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="CA3" s="17">
+      <c r="CA3" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="CB3" s="17">
+      <c r="CB3" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="CC3" s="17">
+      <c r="CC3" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="CD3" s="17">
+      <c r="CD3" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -38964,7 +39663,7 @@
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="19"/>
+      <c r="AK15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -39984,46 +40683,46 @@
       <c r="A1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -40176,7 +40875,7 @@
       <c r="D6" s="4">
         <v>35.83</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>0.712095737315795</v>
       </c>
       <c r="F6" s="4"/>
@@ -40203,7 +40902,7 @@
       <c r="D7" s="4">
         <v>32.72</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>1.1919069517973</v>
       </c>
       <c r="F7" s="4"/>
@@ -40230,7 +40929,7 @@
       <c r="D8" s="4">
         <v>25.0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>0.805716317737061</v>
       </c>
       <c r="F8" s="4"/>
@@ -40257,7 +40956,7 @@
       <c r="D9" s="4">
         <v>22.68</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>1.27035408111278</v>
       </c>
       <c r="F9" s="4"/>
@@ -40284,7 +40983,7 @@
       <c r="D10" s="4">
         <v>37.62</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>18.4438184603851</v>
       </c>
       <c r="F10" s="4"/>
@@ -40311,7 +41010,7 @@
       <c r="D11" s="4">
         <v>49.62</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>2.07794726516166</v>
       </c>
       <c r="F11" s="4"/>
@@ -40329,16 +41028,16 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>34.31</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>108.39</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>43.4</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>7.13078100388287</v>
       </c>
     </row>
@@ -40346,16 +41045,16 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>25.39</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>100.02</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>44.7</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>99.5430923844055</v>
       </c>
     </row>
@@ -40363,16 +41062,16 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>25.31</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>140.8</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>56.44</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>4.82336882660681</v>
       </c>
     </row>
@@ -41386,7 +42085,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="59" width="8.88"/>
+    <col customWidth="1" min="46" max="61" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -41561,12 +42260,18 @@
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
       <c r="BG1" s="2">
+        <v>43974.0</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43975.0</v>
+      </c>
+      <c r="BI1" s="2">
         <f>today()</f>
-        <v>43974</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -41768,8 +42473,10 @@
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="1">
-        <f>Confirmed!BG2-Active!BG2</f>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1">
+        <f>Confirmed!BI2-Active!BI2</f>
         <v>0</v>
       </c>
     </row>
@@ -42005,7 +42712,15 @@
         <f>Confirmed!BF3-Active!BF4</f>
         <v>28</v>
       </c>
-      <c r="BG3" s="1"/>
+      <c r="BG3" s="1">
+        <f>Confirmed!BG3-Active!BG4</f>
+        <v>28</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>Confirmed!BH3-Active!BH4</f>
+        <v>29</v>
+      </c>
+      <c r="BI3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -42239,7 +42954,15 @@
         <f>Confirmed!BF4-Active!BF5</f>
         <v>30</v>
       </c>
-      <c r="BG4" s="1"/>
+      <c r="BG4" s="1">
+        <f>Confirmed!BG4-Active!BG5</f>
+        <v>30</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>Confirmed!BH4-Active!BH5</f>
+        <v>30</v>
+      </c>
+      <c r="BI4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -42473,7 +43196,15 @@
         <f>Confirmed!BF5-Active!BF6</f>
         <v>58</v>
       </c>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="1">
+        <f>Confirmed!BG5-Active!BG6</f>
+        <v>58</v>
+      </c>
+      <c r="BH5" s="1">
+        <f>Confirmed!BH5-Active!BH6</f>
+        <v>58</v>
+      </c>
+      <c r="BI5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -42707,7 +43438,15 @@
         <f>Confirmed!BF6-Active!BF7</f>
         <v>54</v>
       </c>
-      <c r="BG6" s="1"/>
+      <c r="BG6" s="1">
+        <f>Confirmed!BG6-Active!BG7</f>
+        <v>54</v>
+      </c>
+      <c r="BH6" s="1">
+        <f>Confirmed!BH6-Active!BH7</f>
+        <v>56</v>
+      </c>
+      <c r="BI6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -42941,7 +43680,15 @@
         <f>Confirmed!BF7-Active!BF8</f>
         <v>1089</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="1">
+        <f>Confirmed!BG7-Active!BG8</f>
+        <v>1094</v>
+      </c>
+      <c r="BH7" s="1">
+        <f>Confirmed!BH7-Active!BH8</f>
+        <v>1394</v>
+      </c>
+      <c r="BI7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -43175,7 +43922,15 @@
         <f>Confirmed!BF8-Active!BF9</f>
         <v>127</v>
       </c>
-      <c r="BG8" s="1"/>
+      <c r="BG8" s="1">
+        <f>Confirmed!BG8-Active!BG9</f>
+        <v>127</v>
+      </c>
+      <c r="BH8" s="1">
+        <f>Confirmed!BH8-Active!BH9</f>
+        <v>127</v>
+      </c>
+      <c r="BI8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -43409,7 +44164,15 @@
         <f>Confirmed!BF9-Active!BF10</f>
         <v>927</v>
       </c>
-      <c r="BG9" s="1"/>
+      <c r="BG9" s="1">
+        <f>Confirmed!BG9-Active!BG10</f>
+        <v>928</v>
+      </c>
+      <c r="BH9" s="1">
+        <f>Confirmed!BH9-Active!BH10</f>
+        <v>1160</v>
+      </c>
+      <c r="BI9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -43643,7 +44406,15 @@
         <f>Confirmed!BF10-Active!BF11</f>
         <v>6383</v>
       </c>
-      <c r="BG10" s="1"/>
+      <c r="BG10" s="1">
+        <f>Confirmed!BG10-Active!BG11</f>
+        <v>6387</v>
+      </c>
+      <c r="BH10" s="1">
+        <f>Confirmed!BH10-Active!BH11</f>
+        <v>6806</v>
+      </c>
+      <c r="BI10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -43877,7 +44648,15 @@
         <f>Confirmed!BF11-Active!BF12</f>
         <v>1805</v>
       </c>
-      <c r="BG11" s="1"/>
+      <c r="BG11" s="1">
+        <f>Confirmed!BG11-Active!BG12</f>
+        <v>1805</v>
+      </c>
+      <c r="BH11" s="1">
+        <f>Confirmed!BH11-Active!BH12</f>
+        <v>1869</v>
+      </c>
+      <c r="BI11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -21,7 +21,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7miAe47NojVyglIUs3l8cFtAl+2APQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mifJAaelrZ+SHOXETEz1qYyaLp4hw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -497,14 +497,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="15" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -591,12 +591,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$2:$BI$2</c:f>
+              <c:f>Testing!$B$2:$BJ$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -615,12 +615,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$3:$BI$3</c:f>
+              <c:f>Testing!$B$3:$BJ$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -639,12 +639,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$4:$BI$4</c:f>
+              <c:f>Testing!$B$4:$BJ$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -663,12 +663,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$5:$BI$5</c:f>
+              <c:f>Testing!$B$5:$BJ$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -687,12 +687,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$6:$BI$6</c:f>
+              <c:f>Testing!$B$6:$BJ$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -711,12 +711,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$7:$BI$7</c:f>
+              <c:f>Testing!$B$7:$BJ$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -737,12 +737,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$8:$BI$8</c:f>
+              <c:f>Testing!$B$8:$BJ$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -763,12 +763,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$9:$BI$9</c:f>
+              <c:f>Testing!$B$9:$BJ$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -789,12 +789,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$10:$BI$10</c:f>
+              <c:f>Testing!$B$10:$BJ$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -815,21 +815,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BI$1</c:f>
+              <c:f>Testing!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$11:$BI$11</c:f>
+              <c:f>Testing!$B$11:$BJ$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1254259320"/>
-        <c:axId val="74764956"/>
+        <c:axId val="2011706118"/>
+        <c:axId val="1808207017"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1254259320"/>
+        <c:axId val="2011706118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,10 +874,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74764956"/>
+        <c:crossAx val="1808207017"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74764956"/>
+        <c:axId val="1808207017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254259320"/>
+        <c:crossAx val="2011706118"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1013,12 +1013,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$2:$BI$2</c:f>
+              <c:f>'Death Rate'!$B$2:$BJ$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1036,12 +1036,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$BI$3</c:f>
+              <c:f>'Death Rate'!$B$3:$BJ$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1059,12 +1059,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$BI$4</c:f>
+              <c:f>'Death Rate'!$B$4:$BJ$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1082,12 +1082,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$BI$5</c:f>
+              <c:f>'Death Rate'!$B$5:$BJ$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1105,12 +1105,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$BI$6</c:f>
+              <c:f>'Death Rate'!$B$6:$BJ$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1128,12 +1128,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$BI$7</c:f>
+              <c:f>'Death Rate'!$B$7:$BJ$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1151,12 +1151,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$BI$8</c:f>
+              <c:f>'Death Rate'!$B$8:$BJ$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1174,12 +1174,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$BI$9</c:f>
+              <c:f>'Death Rate'!$B$9:$BJ$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1197,21 +1197,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$BI$10</c:f>
+              <c:f>'Death Rate'!$B$10:$BJ$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="451768174"/>
-        <c:axId val="1940662701"/>
+        <c:axId val="159783326"/>
+        <c:axId val="399986363"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="451768174"/>
+        <c:axId val="159783326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,10 +1256,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940662701"/>
+        <c:crossAx val="399986363"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1940662701"/>
+        <c:axId val="399986363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1328,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451768174"/>
+        <c:crossAx val="159783326"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1399,18 +1399,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$BI$2</c:f>
+              <c:f>'Infection Rate'!$B$2:$BJ$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="772357998"/>
-        <c:axId val="1126848013"/>
+        <c:axId val="739430901"/>
+        <c:axId val="347329133"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1426,12 +1426,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$BI$3</c:f>
+              <c:f>'Infection Rate'!$B$3:$BJ$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1449,12 +1449,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$BI$4</c:f>
+              <c:f>'Infection Rate'!$B$4:$BJ$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1472,12 +1472,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$BI$5</c:f>
+              <c:f>'Infection Rate'!$B$5:$BJ$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1495,12 +1495,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$BI$6</c:f>
+              <c:f>'Infection Rate'!$B$6:$BJ$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1518,12 +1518,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$BI$7</c:f>
+              <c:f>'Infection Rate'!$B$7:$BJ$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1541,12 +1541,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$BI$8</c:f>
+              <c:f>'Infection Rate'!$B$8:$BJ$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1564,12 +1564,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$BI$9</c:f>
+              <c:f>'Infection Rate'!$B$9:$BJ$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1587,12 +1587,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$BI$10</c:f>
+              <c:f>'Infection Rate'!$B$10:$BJ$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1610,21 +1610,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$BI$11</c:f>
+              <c:f>'Infection Rate'!$B$11:$BJ$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="772357998"/>
-        <c:axId val="1126848013"/>
+        <c:axId val="739430901"/>
+        <c:axId val="347329133"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="772357998"/>
+        <c:axId val="739430901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,10 +1669,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126848013"/>
+        <c:crossAx val="347329133"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1126848013"/>
+        <c:axId val="347329133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="772357998"/>
+        <c:crossAx val="739430901"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1812,12 +1812,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$2:$BI$2</c:f>
+              <c:f>'Testing per Capita'!$B$2:$BJ$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1836,12 +1836,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$3:$BI$3</c:f>
+              <c:f>'Testing per Capita'!$B$3:$BJ$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1860,12 +1860,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$4:$BI$4</c:f>
+              <c:f>'Testing per Capita'!$B$4:$BJ$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1884,12 +1884,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$5:$BI$5</c:f>
+              <c:f>'Testing per Capita'!$B$5:$BJ$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1908,12 +1908,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$6:$BI$6</c:f>
+              <c:f>'Testing per Capita'!$B$6:$BJ$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1932,12 +1932,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$7:$BI$7</c:f>
+              <c:f>'Testing per Capita'!$B$7:$BJ$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1958,12 +1958,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$8:$BI$8</c:f>
+              <c:f>'Testing per Capita'!$B$8:$BJ$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1984,12 +1984,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$9:$BI$9</c:f>
+              <c:f>'Testing per Capita'!$B$9:$BJ$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2010,12 +2010,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$10:$BI$10</c:f>
+              <c:f>'Testing per Capita'!$B$10:$BJ$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2029,21 +2029,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BI$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$11:$BI$11</c:f>
+              <c:f>'Testing per Capita'!$B$11:$BJ$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="633444515"/>
-        <c:axId val="253850682"/>
+        <c:axId val="172858052"/>
+        <c:axId val="1755159097"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="633444515"/>
+        <c:axId val="172858052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,10 +2088,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253850682"/>
+        <c:crossAx val="1755159097"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253850682"/>
+        <c:axId val="1755159097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633444515"/>
+        <c:crossAx val="172858052"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2204,7 +2204,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Daily tracking of closed cases (Recoveries + deaths) </a:t>
+              <a:t>Daily tracking of closed cases (Recoveries minus deaths) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2231,12 +2231,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$2:$BI$2</c:f>
+              <c:f>'Daily tracking'!$B$2:$BJ$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2255,12 +2255,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$3:$BI$3</c:f>
+              <c:f>'Daily tracking'!$B$3:$BJ$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2279,12 +2279,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$4:$BI$4</c:f>
+              <c:f>'Daily tracking'!$B$4:$BJ$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2303,12 +2303,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$5:$BI$5</c:f>
+              <c:f>'Daily tracking'!$B$5:$BJ$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2327,12 +2327,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$6:$BI$6</c:f>
+              <c:f>'Daily tracking'!$B$6:$BJ$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2351,12 +2351,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$7:$BI$7</c:f>
+              <c:f>'Daily tracking'!$B$7:$BJ$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2377,12 +2377,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$8:$BI$8</c:f>
+              <c:f>'Daily tracking'!$B$8:$BJ$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2403,12 +2403,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$9:$BI$9</c:f>
+              <c:f>'Daily tracking'!$B$9:$BJ$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2429,12 +2429,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$10:$BI$10</c:f>
+              <c:f>'Daily tracking'!$B$10:$BJ$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2448,12 +2448,12 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$11:$BI$11</c:f>
+              <c:f>'Daily tracking'!$B$11:$BJ$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2467,21 +2467,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BI$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$12:$BI$12</c:f>
+              <c:f>'Daily tracking'!$B$12:$BJ$12</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="110996375"/>
-        <c:axId val="1465199055"/>
+        <c:axId val="794624464"/>
+        <c:axId val="1583439267"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110996375"/>
+        <c:axId val="794624464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,10 +2526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465199055"/>
+        <c:crossAx val="1583439267"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1465199055"/>
+        <c:axId val="1583439267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,7 +2598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110996375"/>
+        <c:crossAx val="794624464"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2669,18 +2669,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$BI$2</c:f>
+              <c:f>Active!$B$2:$BJ$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1497802011"/>
-        <c:axId val="1109247780"/>
+        <c:axId val="1693947647"/>
+        <c:axId val="236895073"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2696,12 +2696,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$BI$3</c:f>
+              <c:f>Active!$B$3:$BJ$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2719,12 +2719,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$BI$4</c:f>
+              <c:f>Active!$B$4:$BJ$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2742,12 +2742,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$BI$5</c:f>
+              <c:f>Active!$B$5:$BJ$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2765,12 +2765,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$BI$6</c:f>
+              <c:f>Active!$B$6:$BJ$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2788,12 +2788,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$BI$7</c:f>
+              <c:f>Active!$B$7:$BJ$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2811,12 +2811,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$BI$8</c:f>
+              <c:f>Active!$B$8:$BJ$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2834,12 +2834,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$BI$9</c:f>
+              <c:f>Active!$B$9:$BJ$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2857,12 +2857,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$BI$10</c:f>
+              <c:f>Active!$B$10:$BJ$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2880,21 +2880,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BI$1</c:f>
+              <c:f>Active!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$BI$11</c:f>
+              <c:f>Active!$B$11:$BJ$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1497802011"/>
-        <c:axId val="1109247780"/>
+        <c:axId val="1693947647"/>
+        <c:axId val="236895073"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1497802011"/>
+        <c:axId val="1693947647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,10 +2939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1109247780"/>
+        <c:crossAx val="236895073"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1109247780"/>
+        <c:axId val="236895073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3011,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1497802011"/>
+        <c:crossAx val="1693947647"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3092,8 +3092,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1575992394"/>
-        <c:axId val="911282368"/>
+        <c:axId val="343129489"/>
+        <c:axId val="663930795"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3303,11 +3303,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1575992394"/>
-        <c:axId val="911282368"/>
+        <c:axId val="343129489"/>
+        <c:axId val="663930795"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1575992394"/>
+        <c:axId val="343129489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3352,10 +3352,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911282368"/>
+        <c:crossAx val="663930795"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="911282368"/>
+        <c:axId val="663930795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1575992394"/>
+        <c:crossAx val="343129489"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3513,8 +3513,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="769001575"/>
-        <c:axId val="712512542"/>
+        <c:axId val="2009669802"/>
+        <c:axId val="825726223"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3724,11 +3724,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="769001575"/>
-        <c:axId val="712512542"/>
+        <c:axId val="2009669802"/>
+        <c:axId val="825726223"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="769001575"/>
+        <c:axId val="2009669802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,10 +3773,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712512542"/>
+        <c:crossAx val="825726223"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712512542"/>
+        <c:axId val="825726223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3845,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="769001575"/>
+        <c:crossAx val="2009669802"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3995,11 +3995,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1274589665"/>
-        <c:axId val="152356155"/>
+        <c:axId val="1426060239"/>
+        <c:axId val="1487127247"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1274589665"/>
+        <c:axId val="1426060239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,10 +4044,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152356155"/>
+        <c:crossAx val="1487127247"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152356155"/>
+        <c:axId val="1487127247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1274589665"/>
+        <c:crossAx val="1426060239"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4335,11 +4335,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2130024587"/>
-        <c:axId val="575674271"/>
+        <c:axId val="1427831958"/>
+        <c:axId val="185130882"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130024587"/>
+        <c:axId val="1427831958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,10 +4384,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575674271"/>
+        <c:crossAx val="185130882"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575674271"/>
+        <c:axId val="185130882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4456,7 +4456,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130024587"/>
+        <c:crossAx val="1427831958"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4523,12 +4523,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$BI$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$BJ$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4546,12 +4546,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$BI$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$BJ$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4569,12 +4569,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$BI$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$BJ$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4592,12 +4592,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$BI$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$BJ$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4615,12 +4615,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$BI$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$BJ$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4638,12 +4638,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$BI$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$BJ$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4661,12 +4661,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$BI$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$BJ$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4684,12 +4684,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$BI$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$BJ$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4707,21 +4707,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BI$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$11:$BI$11</c:f>
+              <c:f>'Recovery Rate'!$B$11:$BJ$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="583474064"/>
-        <c:axId val="1395861590"/>
+        <c:axId val="467419886"/>
+        <c:axId val="1503816058"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583474064"/>
+        <c:axId val="467419886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,10 +4766,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1395861590"/>
+        <c:crossAx val="1503816058"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1395861590"/>
+        <c:axId val="1503816058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +4838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583474064"/>
+        <c:crossAx val="467419886"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4979,7 +4979,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="613342381" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="613342381" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5009,7 +5009,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="123848420" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="123848420" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5417,7 +5417,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="61" width="9.88"/>
+    <col customWidth="1" min="44" max="62" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5595,15 +5595,18 @@
       <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="3">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -5764,6 +5767,7 @@
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -5946,7 +5950,10 @@
       <c r="BH3" s="4">
         <v>40.0</v>
       </c>
-      <c r="BI3" s="4"/>
+      <c r="BI3" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BJ3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -6129,7 +6136,10 @@
       <c r="BH4" s="4">
         <v>94.0</v>
       </c>
-      <c r="BI4" s="4"/>
+      <c r="BI4" s="4">
+        <v>109.0</v>
+      </c>
+      <c r="BJ4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -6312,7 +6322,10 @@
       <c r="BH5" s="4">
         <v>101.0</v>
       </c>
-      <c r="BI5" s="4"/>
+      <c r="BI5" s="4">
+        <v>102.0</v>
+      </c>
+      <c r="BJ5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -6495,7 +6508,10 @@
       <c r="BH6" s="4">
         <v>128.0</v>
       </c>
-      <c r="BI6" s="4"/>
+      <c r="BI6" s="4">
+        <v>132.0</v>
+      </c>
+      <c r="BJ6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6678,7 +6694,10 @@
       <c r="BH7" s="4">
         <v>2690.0</v>
       </c>
-      <c r="BI7" s="4"/>
+      <c r="BI7" s="4">
+        <v>2748.0</v>
+      </c>
+      <c r="BJ7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -6861,7 +6880,10 @@
       <c r="BH8" s="4">
         <v>202.0</v>
       </c>
-      <c r="BI8" s="4"/>
+      <c r="BI8" s="4">
+        <v>208.0</v>
+      </c>
+      <c r="BJ8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -7044,7 +7066,10 @@
       <c r="BH9" s="4">
         <v>1815.0</v>
       </c>
-      <c r="BI9" s="4"/>
+      <c r="BI9" s="4">
+        <v>1882.0</v>
+      </c>
+      <c r="BJ9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -7227,7 +7252,10 @@
       <c r="BH10" s="4">
         <v>14740.0</v>
       </c>
-      <c r="BI10" s="4"/>
+      <c r="BI10" s="4">
+        <v>15396.0</v>
+      </c>
+      <c r="BJ10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -7410,7 +7438,10 @@
       <c r="BH11" s="4">
         <v>2773.0</v>
       </c>
-      <c r="BI11" s="4"/>
+      <c r="BI11" s="4">
+        <v>2993.0</v>
+      </c>
+      <c r="BJ11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -8424,7 +8455,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="61" width="8.88"/>
+    <col customWidth="1" min="46" max="62" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -8605,12 +8636,15 @@
       <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
       <c r="BI1" s="2">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -8814,8 +8848,9 @@
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
-      <c r="BI2" s="1">
-        <f>Confirmed!BI2-Active!BI2</f>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1">
+        <f>Confirmed!BJ2-Active!BJ2</f>
         <v>0</v>
       </c>
     </row>
@@ -9059,7 +9094,11 @@
         <f>Confirmed!BH3-Active!BH4</f>
         <v>29</v>
       </c>
-      <c r="BI3" s="1"/>
+      <c r="BI3" s="1">
+        <f>Confirmed!BI3-Active!BI4</f>
+        <v>29</v>
+      </c>
+      <c r="BJ3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9301,7 +9340,11 @@
         <f>Confirmed!BH4-Active!BH5</f>
         <v>30</v>
       </c>
-      <c r="BI4" s="1"/>
+      <c r="BI4" s="1">
+        <f>Confirmed!BI4-Active!BI5</f>
+        <v>30</v>
+      </c>
+      <c r="BJ4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -9543,7 +9586,11 @@
         <f>Confirmed!BH5-Active!BH6</f>
         <v>58</v>
       </c>
-      <c r="BI5" s="1"/>
+      <c r="BI5" s="1">
+        <f>Confirmed!BI5-Active!BI6</f>
+        <v>61</v>
+      </c>
+      <c r="BJ5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -9785,7 +9832,11 @@
         <f>Confirmed!BH6-Active!BH7</f>
         <v>56</v>
       </c>
-      <c r="BI6" s="1"/>
+      <c r="BI6" s="1">
+        <f>Confirmed!BI6-Active!BI7</f>
+        <v>58</v>
+      </c>
+      <c r="BJ6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -10027,7 +10078,11 @@
         <f>Confirmed!BH7-Active!BH8</f>
         <v>1394</v>
       </c>
-      <c r="BI7" s="1"/>
+      <c r="BI7" s="1">
+        <f>Confirmed!BI7-Active!BI8</f>
+        <v>1396</v>
+      </c>
+      <c r="BJ7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -10269,7 +10324,11 @@
         <f>Confirmed!BH8-Active!BH9</f>
         <v>127</v>
       </c>
-      <c r="BI8" s="1"/>
+      <c r="BI8" s="1">
+        <f>Confirmed!BI8-Active!BI9</f>
+        <v>127</v>
+      </c>
+      <c r="BJ8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -10511,7 +10570,11 @@
         <f>Confirmed!BH9-Active!BH10</f>
         <v>1160</v>
       </c>
-      <c r="BI9" s="1"/>
+      <c r="BI9" s="1">
+        <f>Confirmed!BI9-Active!BI10</f>
+        <v>1217</v>
+      </c>
+      <c r="BJ9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -10753,7 +10816,11 @@
         <f>Confirmed!BH10-Active!BH11</f>
         <v>6806</v>
       </c>
-      <c r="BI10" s="1"/>
+      <c r="BI10" s="1">
+        <f>Confirmed!BI10-Active!BI11</f>
+        <v>7551</v>
+      </c>
+      <c r="BJ10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -10995,7 +11062,11 @@
         <f>Confirmed!BH11-Active!BH12</f>
         <v>1869</v>
       </c>
-      <c r="BI11" s="1"/>
+      <c r="BI11" s="1">
+        <f>Confirmed!BI11-Active!BI12</f>
+        <v>1929</v>
+      </c>
+      <c r="BJ11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -12011,7 +12082,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="61" width="7.63"/>
+    <col customWidth="1" min="37" max="62" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -12192,12 +12263,15 @@
       <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
       <c r="BI1" s="2">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -12393,6 +12467,7 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -12634,7 +12709,11 @@
         <f>IF(Closed!BH3&gt;0,100*Recoveries!BH3/Closed!BH3,100)</f>
         <v>96.55172414</v>
       </c>
-      <c r="BI3" s="1"/>
+      <c r="BI3" s="1">
+        <f>IF(Closed!BI3&gt;0,100*Recoveries!BI3/Closed!BI3,100)</f>
+        <v>96.55172414</v>
+      </c>
+      <c r="BJ3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
@@ -12876,7 +12955,11 @@
         <f>IF(Closed!BH4&gt;0,100*Recoveries!BH4/Closed!BH4,100)</f>
         <v>96.66666667</v>
       </c>
-      <c r="BI4" s="1"/>
+      <c r="BI4" s="1">
+        <f>IF(Closed!BI4&gt;0,100*Recoveries!BI4/Closed!BI4,100)</f>
+        <v>96.66666667</v>
+      </c>
+      <c r="BJ4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="20" t="s">
@@ -13118,7 +13201,11 @@
         <f>IF(Closed!BH5&gt;0,100*Recoveries!BH5/Closed!BH5,100)</f>
         <v>100</v>
       </c>
-      <c r="BI5" s="1"/>
+      <c r="BI5" s="1">
+        <f>IF(Closed!BI5&gt;0,100*Recoveries!BI5/Closed!BI5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BJ5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="20" t="s">
@@ -13360,7 +13447,11 @@
         <f>IF(Closed!BH6&gt;0,100*Recoveries!BH6/Closed!BH6,100)</f>
         <v>94.64285714</v>
       </c>
-      <c r="BI6" s="1"/>
+      <c r="BI6" s="1">
+        <f>IF(Closed!BI6&gt;0,100*Recoveries!BI6/Closed!BI6,100)</f>
+        <v>94.82758621</v>
+      </c>
+      <c r="BJ6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="20" t="s">
@@ -13602,7 +13693,11 @@
         <f>IF(Closed!BH7&gt;0,100*Recoveries!BH7/Closed!BH7,100)</f>
         <v>95.76757532</v>
       </c>
-      <c r="BI7" s="1"/>
+      <c r="BI7" s="1">
+        <f>IF(Closed!BI7&gt;0,100*Recoveries!BI7/Closed!BI7,100)</f>
+        <v>95.63037249</v>
+      </c>
+      <c r="BJ7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="20" t="s">
@@ -13844,7 +13939,11 @@
         <f>IF(Closed!BH8&gt;0,100*Recoveries!BH8/Closed!BH8,100)</f>
         <v>95.27559055</v>
       </c>
-      <c r="BI8" s="1"/>
+      <c r="BI8" s="1">
+        <f>IF(Closed!BI8&gt;0,100*Recoveries!BI8/Closed!BI8,100)</f>
+        <v>95.27559055</v>
+      </c>
+      <c r="BJ8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="20" t="s">
@@ -14086,7 +14185,11 @@
         <f>IF(Closed!BH9&gt;0,100*Recoveries!BH9/Closed!BH9,100)</f>
         <v>95.77586207</v>
       </c>
-      <c r="BI9" s="1"/>
+      <c r="BI9" s="1">
+        <f>IF(Closed!BI9&gt;0,100*Recoveries!BI9/Closed!BI9,100)</f>
+        <v>95.97370583</v>
+      </c>
+      <c r="BJ9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="20" t="s">
@@ -14328,7 +14431,11 @@
         <f>IF(Closed!BH10&gt;0,100*Recoveries!BH10/Closed!BH10,100)</f>
         <v>95.87129004</v>
       </c>
-      <c r="BI10" s="1"/>
+      <c r="BI10" s="1">
+        <f>IF(Closed!BI10&gt;0,100*Recoveries!BI10/Closed!BI10,100)</f>
+        <v>95.62971792</v>
+      </c>
+      <c r="BJ10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="20" t="s">
@@ -14570,7 +14677,11 @@
         <f>IF(Closed!BH11&gt;0,100*Recoveries!BH11/Closed!BH11,100)</f>
         <v>98.44836811</v>
       </c>
-      <c r="BI11" s="1"/>
+      <c r="BI11" s="1">
+        <f>IF(Closed!BI11&gt;0,100*Recoveries!BI11/Closed!BI11,100)</f>
+        <v>98.44479005</v>
+      </c>
+      <c r="BJ11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -15594,7 +15705,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="61" width="10.5"/>
+    <col customWidth="1" min="35" max="62" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -15775,12 +15886,15 @@
       <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
       <c r="BI1" s="2">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -15976,6 +16090,7 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -16217,7 +16332,11 @@
         <f>IF(Closed!BH3&gt;0,100*Deaths!BH3/Closed!BH3,0)</f>
         <v>3.448275862</v>
       </c>
-      <c r="BI3" s="1"/>
+      <c r="BI3" s="1">
+        <f>IF(Closed!BI3&gt;0,100*Deaths!BI3/Closed!BI3,0)</f>
+        <v>3.448275862</v>
+      </c>
+      <c r="BJ3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -16459,7 +16578,11 @@
         <f>IF(Closed!BH4&gt;0,100*Deaths!BH4/Closed!BH4,0)</f>
         <v>3.333333333</v>
       </c>
-      <c r="BI4" s="1"/>
+      <c r="BI4" s="1">
+        <f>IF(Closed!BI4&gt;0,100*Deaths!BI4/Closed!BI4,0)</f>
+        <v>3.333333333</v>
+      </c>
+      <c r="BJ4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -16701,7 +16824,11 @@
         <f>IF(Closed!BH5&gt;0,100*Deaths!BH5/Closed!BH5,0)</f>
         <v>0</v>
       </c>
-      <c r="BI5" s="1"/>
+      <c r="BI5" s="1">
+        <f>IF(Closed!BI5&gt;0,100*Deaths!BI5/Closed!BI5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -16943,7 +17070,11 @@
         <f>IF(Closed!BH6&gt;0,100*Deaths!BH6/Closed!BH6,0)</f>
         <v>5.357142857</v>
       </c>
-      <c r="BI6" s="1"/>
+      <c r="BI6" s="1">
+        <f>IF(Closed!BI6&gt;0,100*Deaths!BI6/Closed!BI6,0)</f>
+        <v>5.172413793</v>
+      </c>
+      <c r="BJ6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -17185,7 +17316,11 @@
         <f>IF(Closed!BH7&gt;0,100*Deaths!BH7/Closed!BH7,0)</f>
         <v>4.232424677</v>
       </c>
-      <c r="BI7" s="1"/>
+      <c r="BI7" s="1">
+        <f>IF(Closed!BI7&gt;0,100*Deaths!BI7/Closed!BI7,0)</f>
+        <v>4.369627507</v>
+      </c>
+      <c r="BJ7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -17427,7 +17562,11 @@
         <f>IF(Closed!BH8&gt;0,100*Deaths!BH8/Closed!BH8,0)</f>
         <v>4.724409449</v>
       </c>
-      <c r="BI8" s="1"/>
+      <c r="BI8" s="1">
+        <f>IF(Closed!BI8&gt;0,100*Deaths!BI8/Closed!BI8,0)</f>
+        <v>4.724409449</v>
+      </c>
+      <c r="BJ8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -17669,7 +17808,11 @@
         <f>IF(Closed!BH9&gt;0,100*Deaths!BH9/Closed!BH9,0)</f>
         <v>4.224137931</v>
       </c>
-      <c r="BI9" s="1"/>
+      <c r="BI9" s="1">
+        <f>IF(Closed!BI9&gt;0,100*Deaths!BI9/Closed!BI9,0)</f>
+        <v>4.026294166</v>
+      </c>
+      <c r="BJ9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -17911,7 +18054,11 @@
         <f>IF(Closed!BH10&gt;0,100*Deaths!BH10/Closed!BH10,0)</f>
         <v>4.128709962</v>
       </c>
-      <c r="BI10" s="1"/>
+      <c r="BI10" s="1">
+        <f>IF(Closed!BI10&gt;0,100*Deaths!BI10/Closed!BI10,0)</f>
+        <v>4.370282082</v>
+      </c>
+      <c r="BJ10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -18153,7 +18300,11 @@
         <f>IF(Closed!BH11&gt;0,100*Deaths!BH11/Closed!BH11,0)</f>
         <v>1.551631889</v>
       </c>
-      <c r="BI11" s="1"/>
+      <c r="BI11" s="1">
+        <f>IF(Closed!BI11&gt;0,100*Deaths!BI11/Closed!BI11,0)</f>
+        <v>1.555209953</v>
+      </c>
+      <c r="BJ11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -19172,7 +19323,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="61" width="10.5"/>
+    <col customWidth="1" min="35" max="62" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -19353,12 +19504,15 @@
       <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
       <c r="BI1" s="2">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -19554,13 +19708,14 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="21">
-        <f t="shared" ref="B3:BI3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
+        <f t="shared" ref="B3:BJ3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
         <v>0.02559675512</v>
       </c>
       <c r="C3" s="21">
@@ -19796,6 +19951,10 @@
         <v>0.02827787805</v>
       </c>
       <c r="BI3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.02893183701</v>
+      </c>
+      <c r="BJ3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20040,7 +20199,11 @@
         <f>Confirmed!BH3/Testing!BH3</f>
         <v>0.007271405199</v>
       </c>
-      <c r="BI4" s="22"/>
+      <c r="BI4" s="22">
+        <f>Confirmed!BI3/Testing!BI3</f>
+        <v>0.008002845456</v>
+      </c>
+      <c r="BJ4" s="22"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -20282,7 +20445,11 @@
         <f>Confirmed!BH4/Testing!BH4</f>
         <v>0.009241962442</v>
       </c>
-      <c r="BI5" s="22"/>
+      <c r="BI5" s="22">
+        <f>Confirmed!BI4/Testing!BI4</f>
+        <v>0.01048480185</v>
+      </c>
+      <c r="BJ5" s="22"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -20524,7 +20691,11 @@
         <f>Confirmed!BH5/Testing!BH5</f>
         <v>0.00585948831</v>
       </c>
-      <c r="BI6" s="22"/>
+      <c r="BI6" s="22">
+        <f>Confirmed!BI5/Testing!BI5</f>
+        <v>0.005789204836</v>
+      </c>
+      <c r="BJ6" s="22"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -20766,7 +20937,11 @@
         <f>Confirmed!BH6/Testing!BH6</f>
         <v>0.01050385688</v>
       </c>
-      <c r="BI7" s="22"/>
+      <c r="BI7" s="22">
+        <f>Confirmed!BI6/Testing!BI6</f>
+        <v>0.0105973025</v>
+      </c>
+      <c r="BJ7" s="22"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -21008,7 +21183,11 @@
         <f>Confirmed!BH7/Testing!BH7</f>
         <v>0.04500585578</v>
       </c>
-      <c r="BI8" s="22"/>
+      <c r="BI8" s="22">
+        <f>Confirmed!BI7/Testing!BI7</f>
+        <v>0.04498060334</v>
+      </c>
+      <c r="BJ8" s="22"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -21250,7 +21429,11 @@
         <f>Confirmed!BH8/Testing!BH8</f>
         <v>0.007182477599</v>
       </c>
-      <c r="BI9" s="22"/>
+      <c r="BI9" s="22">
+        <f>Confirmed!BI8/Testing!BI8</f>
+        <v>0.007235789327</v>
+      </c>
+      <c r="BJ9" s="22"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -21492,7 +21675,11 @@
         <f>Confirmed!BH9/Testing!BH9</f>
         <v>0.01822655152</v>
       </c>
-      <c r="BI10" s="22"/>
+      <c r="BI10" s="22">
+        <f>Confirmed!BI9/Testing!BI9</f>
+        <v>0.01849013597</v>
+      </c>
+      <c r="BJ10" s="22"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -21734,7 +21921,11 @@
         <f>Confirmed!BH10/Testing!BH10</f>
         <v>0.1136311075</v>
       </c>
-      <c r="BI11" s="22"/>
+      <c r="BI11" s="22">
+        <f>Confirmed!BI10/Testing!BI10</f>
+        <v>0.11611823</v>
+      </c>
+      <c r="BJ11" s="22"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -21976,7 +22167,11 @@
         <f>Confirmed!BH11/Testing!BH11</f>
         <v>0.01446757448</v>
       </c>
-      <c r="BI12" s="22"/>
+      <c r="BI12" s="22">
+        <f>Confirmed!BI11/Testing!BI11</f>
+        <v>0.01527726734</v>
+      </c>
+      <c r="BJ12" s="22"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -23057,7 +23252,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="61" width="9.88"/>
+    <col customWidth="1" min="44" max="62" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -23184,7 +23379,7 @@
       <c r="AO1" s="2">
         <v>43956.0</v>
       </c>
-      <c r="AP1" s="5">
+      <c r="AP1" s="6">
         <v>43957.0</v>
       </c>
       <c r="AQ1" s="2">
@@ -23205,7 +23400,7 @@
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="AW1" s="6">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
@@ -23226,24 +23421,27 @@
       <c r="BC1" s="2">
         <v>43970.0</v>
       </c>
-      <c r="BD1" s="5">
+      <c r="BD1" s="6">
         <v>43971.0</v>
       </c>
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="6">
+      <c r="BF1" s="7">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
       <c r="BH1" s="7">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="3">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -23410,7 +23608,7 @@
         <f t="shared" si="1"/>
         <v>17962</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AP2" s="5">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1">
@@ -23437,7 +23635,7 @@
         <f t="shared" si="2"/>
         <v>21118</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AW2" s="5">
         <v>22069.0</v>
       </c>
       <c r="AX2" s="1">
@@ -23464,11 +23662,11 @@
         <f t="shared" si="3"/>
         <v>25020</v>
       </c>
-      <c r="BD2" s="8">
+      <c r="BD2" s="5">
         <v>25955.0</v>
       </c>
       <c r="BE2" s="1">
-        <f t="shared" ref="BE2:BH2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE2:BI2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
         <v>26906</v>
       </c>
       <c r="BF2" s="1">
@@ -23483,7 +23681,11 @@
         <f t="shared" si="4"/>
         <v>29898</v>
       </c>
-      <c r="BI2" s="1"/>
+      <c r="BI2" s="1">
+        <f t="shared" si="4"/>
+        <v>30559</v>
+      </c>
+      <c r="BJ2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -23649,7 +23851,7 @@
         <f t="shared" si="5"/>
         <v>2165</v>
       </c>
-      <c r="AP3" s="8">
+      <c r="AP3" s="5">
         <v>2256.0</v>
       </c>
       <c r="AQ3" s="1">
@@ -23676,7 +23878,7 @@
         <f t="shared" si="6"/>
         <v>3524</v>
       </c>
-      <c r="AW3" s="8">
+      <c r="AW3" s="5">
         <v>3683.0</v>
       </c>
       <c r="AX3" s="1">
@@ -23703,11 +23905,11 @@
         <f t="shared" si="7"/>
         <v>4604</v>
       </c>
-      <c r="BD3" s="8">
+      <c r="BD3" s="5">
         <v>4776.0</v>
       </c>
       <c r="BE3" s="1">
-        <f t="shared" ref="BE3:BH3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE3:BI3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
         <v>4951</v>
       </c>
       <c r="BF3" s="1">
@@ -23722,7 +23924,11 @@
         <f t="shared" si="8"/>
         <v>5501</v>
       </c>
-      <c r="BI3" s="1"/>
+      <c r="BI3" s="1">
+        <f t="shared" si="8"/>
+        <v>5623</v>
+      </c>
+      <c r="BJ3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -23888,7 +24094,7 @@
         <f t="shared" si="9"/>
         <v>3956</v>
       </c>
-      <c r="AP4" s="8">
+      <c r="AP4" s="5">
         <v>4123.0</v>
       </c>
       <c r="AQ4" s="1">
@@ -23915,7 +24121,7 @@
         <f t="shared" si="10"/>
         <v>5561</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AW4" s="5">
         <v>5812.0</v>
       </c>
       <c r="AX4" s="1">
@@ -23942,11 +24148,11 @@
         <f t="shared" si="11"/>
         <v>8512</v>
       </c>
-      <c r="BD4" s="8">
+      <c r="BD4" s="5">
         <v>8830.0</v>
       </c>
       <c r="BE4" s="1">
-        <f t="shared" ref="BE4:BH4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE4:BI4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
         <v>9154</v>
       </c>
       <c r="BF4" s="1">
@@ -23961,7 +24167,11 @@
         <f t="shared" si="12"/>
         <v>10171</v>
       </c>
-      <c r="BI4" s="1"/>
+      <c r="BI4" s="1">
+        <f t="shared" si="12"/>
+        <v>10396</v>
+      </c>
+      <c r="BJ4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -24127,7 +24337,7 @@
         <f t="shared" si="13"/>
         <v>7385</v>
       </c>
-      <c r="AP5" s="8">
+      <c r="AP5" s="5">
         <v>7697.0</v>
       </c>
       <c r="AQ5" s="1">
@@ -24154,7 +24364,7 @@
         <f t="shared" si="14"/>
         <v>10922</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="AW5" s="5">
         <v>11414.0</v>
       </c>
       <c r="AX5" s="1">
@@ -24181,11 +24391,11 @@
         <f t="shared" si="15"/>
         <v>14425</v>
       </c>
-      <c r="BD5" s="8">
+      <c r="BD5" s="5">
         <v>14964.0</v>
       </c>
       <c r="BE5" s="1">
-        <f t="shared" ref="BE5:BH5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE5:BI5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
         <v>15512</v>
       </c>
       <c r="BF5" s="1">
@@ -24200,7 +24410,11 @@
         <f t="shared" si="16"/>
         <v>17237</v>
       </c>
-      <c r="BI5" s="1"/>
+      <c r="BI5" s="1">
+        <f t="shared" si="16"/>
+        <v>17619</v>
+      </c>
+      <c r="BJ5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -24366,7 +24580,7 @@
         <f t="shared" si="17"/>
         <v>6096</v>
       </c>
-      <c r="AP6" s="8">
+      <c r="AP6" s="5">
         <v>6353.0</v>
       </c>
       <c r="AQ6" s="1">
@@ -24393,7 +24607,7 @@
         <f t="shared" si="18"/>
         <v>7884</v>
       </c>
-      <c r="AW6" s="8">
+      <c r="AW6" s="5">
         <v>8239.0</v>
       </c>
       <c r="AX6" s="1">
@@ -24420,11 +24634,11 @@
         <f t="shared" si="19"/>
         <v>10198</v>
       </c>
-      <c r="BD6" s="8">
+      <c r="BD6" s="5">
         <v>10579.0</v>
       </c>
       <c r="BE6" s="1">
-        <f t="shared" ref="BE6:BH6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE6:BI6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
         <v>10967</v>
       </c>
       <c r="BF6" s="1">
@@ -24439,7 +24653,11 @@
         <f t="shared" si="20"/>
         <v>12186</v>
       </c>
-      <c r="BI6" s="1"/>
+      <c r="BI6" s="1">
+        <f t="shared" si="20"/>
+        <v>12456</v>
+      </c>
+      <c r="BJ6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -24605,7 +24823,7 @@
         <f t="shared" si="21"/>
         <v>24678</v>
       </c>
-      <c r="AP7" s="8">
+      <c r="AP7" s="5">
         <v>25720.0</v>
       </c>
       <c r="AQ7" s="1">
@@ -24632,7 +24850,7 @@
         <f t="shared" si="22"/>
         <v>36479</v>
       </c>
-      <c r="AW7" s="8">
+      <c r="AW7" s="5">
         <v>38122.0</v>
       </c>
       <c r="AX7" s="1">
@@ -24659,11 +24877,11 @@
         <f t="shared" si="23"/>
         <v>50020</v>
       </c>
-      <c r="BD7" s="8">
+      <c r="BD7" s="5">
         <v>51888.0</v>
       </c>
       <c r="BE7" s="1">
-        <f t="shared" ref="BE7:BH7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE7:BI7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
         <v>53789</v>
       </c>
       <c r="BF7" s="1">
@@ -24678,7 +24896,11 @@
         <f t="shared" si="24"/>
         <v>59770</v>
       </c>
-      <c r="BI7" s="1"/>
+      <c r="BI7" s="1">
+        <f t="shared" si="24"/>
+        <v>61093</v>
+      </c>
+      <c r="BJ7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -24844,7 +25066,7 @@
         <f t="shared" si="25"/>
         <v>13686</v>
       </c>
-      <c r="AP8" s="8">
+      <c r="AP8" s="5">
         <v>14264.0</v>
       </c>
       <c r="AQ8" s="1">
@@ -24871,7 +25093,7 @@
         <f t="shared" si="26"/>
         <v>18435</v>
       </c>
-      <c r="AW8" s="8">
+      <c r="AW8" s="5">
         <v>19265.0</v>
       </c>
       <c r="AX8" s="1">
@@ -24898,11 +25120,11 @@
         <f t="shared" si="27"/>
         <v>23536</v>
       </c>
-      <c r="BD8" s="8">
+      <c r="BD8" s="5">
         <v>24415.0</v>
       </c>
       <c r="BE8" s="1">
-        <f t="shared" ref="BE8:BH8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE8:BI8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
         <v>25310</v>
       </c>
       <c r="BF8" s="1">
@@ -24917,7 +25139,11 @@
         <f t="shared" si="28"/>
         <v>28124</v>
       </c>
-      <c r="BI8" s="1"/>
+      <c r="BI8" s="1">
+        <f t="shared" si="28"/>
+        <v>28746</v>
+      </c>
+      <c r="BJ8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -25083,7 +25309,7 @@
         <f t="shared" si="29"/>
         <v>48923</v>
       </c>
-      <c r="AP9" s="8">
+      <c r="AP9" s="5">
         <v>50988.0</v>
       </c>
       <c r="AQ9" s="1">
@@ -25110,7 +25336,7 @@
         <f t="shared" si="30"/>
         <v>64928</v>
       </c>
-      <c r="AW9" s="8">
+      <c r="AW9" s="5">
         <v>67853.0</v>
       </c>
       <c r="AX9" s="1">
@@ -25137,11 +25363,11 @@
         <f t="shared" si="31"/>
         <v>83335</v>
       </c>
-      <c r="BD9" s="8">
+      <c r="BD9" s="5">
         <v>86448.0</v>
       </c>
       <c r="BE9" s="1">
-        <f t="shared" ref="BE9:BH9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE9:BI9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
         <v>89616</v>
       </c>
       <c r="BF9" s="1">
@@ -25156,7 +25382,11 @@
         <f t="shared" si="32"/>
         <v>99580</v>
       </c>
-      <c r="BI9" s="1"/>
+      <c r="BI9" s="1">
+        <f t="shared" si="32"/>
+        <v>101784</v>
+      </c>
+      <c r="BJ9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -25322,7 +25552,7 @@
         <f t="shared" si="33"/>
         <v>54678</v>
       </c>
-      <c r="AP10" s="8">
+      <c r="AP10" s="5">
         <v>56986.0</v>
       </c>
       <c r="AQ10" s="1">
@@ -25349,7 +25579,7 @@
         <f t="shared" si="34"/>
         <v>79293</v>
       </c>
-      <c r="AW10" s="8">
+      <c r="AW10" s="5">
         <v>82865.0</v>
       </c>
       <c r="AX10" s="1">
@@ -25376,11 +25606,11 @@
         <f t="shared" si="35"/>
         <v>108557</v>
       </c>
-      <c r="BD10" s="8">
+      <c r="BD10" s="5">
         <v>112612.0</v>
       </c>
       <c r="BE10" s="1">
-        <f t="shared" ref="BE10:BH10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE10:BI10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
         <v>116738</v>
       </c>
       <c r="BF10" s="1">
@@ -25395,7 +25625,11 @@
         <f t="shared" si="36"/>
         <v>129718</v>
       </c>
-      <c r="BI10" s="1"/>
+      <c r="BI10" s="1">
+        <f t="shared" si="36"/>
+        <v>132589</v>
+      </c>
+      <c r="BJ10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -25561,7 +25795,7 @@
         <f t="shared" si="37"/>
         <v>88535</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AP11" s="5">
         <v>92272.0</v>
       </c>
       <c r="AQ11" s="1">
@@ -25588,7 +25822,7 @@
         <f t="shared" si="38"/>
         <v>121554</v>
       </c>
-      <c r="AW11" s="8">
+      <c r="AW11" s="5">
         <v>127030.0</v>
       </c>
       <c r="AX11" s="1">
@@ -25615,11 +25849,11 @@
         <f t="shared" si="39"/>
         <v>160402</v>
       </c>
-      <c r="BD11" s="8">
+      <c r="BD11" s="5">
         <v>166394.0</v>
       </c>
       <c r="BE11" s="1">
-        <f t="shared" ref="BE11:BH11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE11:BI11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
         <v>172491</v>
       </c>
       <c r="BF11" s="1">
@@ -25634,7 +25868,11 @@
         <f t="shared" si="40"/>
         <v>191670</v>
       </c>
-      <c r="BI11" s="1"/>
+      <c r="BI11" s="1">
+        <f t="shared" si="40"/>
+        <v>195912</v>
+      </c>
+      <c r="BJ11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="s">
@@ -25817,13 +26055,16 @@
       <c r="BH12" s="9">
         <v>583855.0</v>
       </c>
+      <c r="BI12" s="9">
+        <v>596777.0</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" ref="B13:BI13" si="41">sum(B2:B11)</f>
+        <f t="shared" ref="B13:BJ13" si="41">sum(B2:B11)</f>
         <v>28536</v>
       </c>
       <c r="C13" s="13">
@@ -26059,6 +26300,10 @@
         <v>583855</v>
       </c>
       <c r="BI13" s="13">
+        <f t="shared" si="41"/>
+        <v>596777</v>
+      </c>
+      <c r="BJ13" s="13">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -26152,6 +26397,7 @@
       <c r="BG15" s="4"/>
       <c r="BH15" s="4"/>
       <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -27165,7 +27411,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="61" width="9.88"/>
+    <col customWidth="1" min="44" max="62" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -27350,8 +27596,11 @@
         <v>43975.0</v>
       </c>
       <c r="BI1" s="2">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>TODAY()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -27518,7 +27767,7 @@
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AP2" s="5">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1" t="str">
@@ -27560,7 +27809,8 @@
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
-      <c r="BI2" s="1" t="str">
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1" t="str">
         <f>ROUND($AP2/#REF!*#REF!,0)</f>
         <v>#REF!</v>
       </c>
@@ -27805,7 +28055,11 @@
         <f>round(100000*Testing!BH3/$B13,0)</f>
         <v>435</v>
       </c>
-      <c r="BI3" s="1"/>
+      <c r="BI3" s="1">
+        <f>round(100000*Testing!BI3/$B13,0)</f>
+        <v>445</v>
+      </c>
+      <c r="BJ3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -28047,7 +28301,11 @@
         <f>round(100000*Testing!BH4/$B14,0)</f>
         <v>253</v>
       </c>
-      <c r="BI4" s="1"/>
+      <c r="BI4" s="1">
+        <f>round(100000*Testing!BI4/$B14,0)</f>
+        <v>258</v>
+      </c>
+      <c r="BJ4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -28289,7 +28547,11 @@
         <f>round(100000*Testing!BH5/$B15,0)</f>
         <v>375</v>
       </c>
-      <c r="BI5" s="1"/>
+      <c r="BI5" s="1">
+        <f>round(100000*Testing!BI5/$B15,0)</f>
+        <v>384</v>
+      </c>
+      <c r="BJ5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -28531,7 +28793,11 @@
         <f>round(100000*Testing!BH6/$B16,0)</f>
         <v>204</v>
       </c>
-      <c r="BI6" s="1"/>
+      <c r="BI6" s="1">
+        <f>round(100000*Testing!BI6/$B16,0)</f>
+        <v>208</v>
+      </c>
+      <c r="BJ6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -28773,7 +29039,11 @@
         <f>round(100000*Testing!BH7/$B17,0)</f>
         <v>890</v>
       </c>
-      <c r="BI7" s="1"/>
+      <c r="BI7" s="1">
+        <f>round(100000*Testing!BI7/$B17,0)</f>
+        <v>910</v>
+      </c>
+      <c r="BJ7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -29015,7 +29285,11 @@
         <f>round(100000*Testing!BH8/$B18,0)</f>
         <v>974</v>
       </c>
-      <c r="BI8" s="1"/>
+      <c r="BI8" s="1">
+        <f>round(100000*Testing!BI8/$B18,0)</f>
+        <v>996</v>
+      </c>
+      <c r="BJ8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -29257,7 +29531,11 @@
         <f>round(100000*Testing!BH9/$B19,0)</f>
         <v>882</v>
       </c>
-      <c r="BI9" s="1"/>
+      <c r="BI9" s="1">
+        <f>round(100000*Testing!BI9/$B19,0)</f>
+        <v>902</v>
+      </c>
+      <c r="BJ9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -29499,7 +29777,11 @@
         <f>round(100000*Testing!BH10/$B20,0)</f>
         <v>1895</v>
       </c>
-      <c r="BI10" s="1"/>
+      <c r="BI10" s="1">
+        <f>round(100000*Testing!BI10/$B20,0)</f>
+        <v>1937</v>
+      </c>
+      <c r="BJ10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -29741,7 +30023,11 @@
         <f>round(100000*Testing!BH11/$B21,0)</f>
         <v>1263</v>
       </c>
-      <c r="BI11" s="1"/>
+      <c r="BI11" s="1">
+        <f>round(100000*Testing!BI11/$B21,0)</f>
+        <v>1291</v>
+      </c>
+      <c r="BJ11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1">
@@ -30817,7 +31103,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="61" width="8.88"/>
+    <col customWidth="1" min="46" max="62" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -30995,15 +31281,18 @@
       <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="3">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -31166,6 +31455,7 @@
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -31348,7 +31638,10 @@
       <c r="BH3" s="4">
         <v>1.0</v>
       </c>
-      <c r="BI3" s="4"/>
+      <c r="BI3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BJ3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -31531,7 +31824,10 @@
       <c r="BH4" s="4">
         <v>1.0</v>
       </c>
-      <c r="BI4" s="4"/>
+      <c r="BI4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BJ4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -31714,7 +32010,10 @@
       <c r="BH5" s="4">
         <v>0.0</v>
       </c>
-      <c r="BI5" s="4"/>
+      <c r="BI5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -31897,7 +32196,10 @@
       <c r="BH6" s="4">
         <v>3.0</v>
       </c>
-      <c r="BI6" s="4"/>
+      <c r="BI6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BJ6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -32080,7 +32382,10 @@
       <c r="BH7" s="4">
         <v>59.0</v>
       </c>
-      <c r="BI7" s="4"/>
+      <c r="BI7" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="BJ7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -32263,7 +32568,10 @@
       <c r="BH8" s="4">
         <v>6.0</v>
       </c>
-      <c r="BI8" s="4"/>
+      <c r="BI8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BJ8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -32446,7 +32754,10 @@
       <c r="BH9" s="4">
         <v>49.0</v>
       </c>
-      <c r="BI9" s="4"/>
+      <c r="BI9" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="BJ9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -32629,7 +32940,10 @@
       <c r="BH10" s="4">
         <v>281.0</v>
       </c>
-      <c r="BI10" s="4"/>
+      <c r="BI10" s="4">
+        <v>330.0</v>
+      </c>
+      <c r="BJ10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -32812,7 +33126,10 @@
       <c r="BH11" s="4">
         <v>29.0</v>
       </c>
-      <c r="BI11" s="4"/>
+      <c r="BI11" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="BJ11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -33829,7 +34146,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="61" width="8.88"/>
+    <col customWidth="1" min="46" max="62" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -33971,37 +34288,37 @@
       <c r="AT1" s="2">
         <v>43961.0</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AU1" s="7">
         <v>43962.0</v>
       </c>
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="7">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="6">
+      <c r="AY1" s="7">
         <v>43966.0</v>
       </c>
       <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="6">
+      <c r="BA1" s="7">
         <v>43968.0</v>
       </c>
       <c r="BB1" s="2">
         <v>43969.0</v>
       </c>
-      <c r="BC1" s="6">
+      <c r="BC1" s="7">
         <v>43970.0</v>
       </c>
       <c r="BD1" s="2">
         <v>43971.0</v>
       </c>
-      <c r="BE1" s="6">
+      <c r="BE1" s="7">
         <v>43972.0</v>
       </c>
       <c r="BF1" s="2">
@@ -34010,12 +34327,15 @@
       <c r="BG1" s="7">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="8">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -34178,6 +34498,7 @@
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -34360,7 +34681,10 @@
       <c r="BH3" s="4">
         <v>28.0</v>
       </c>
-      <c r="BI3" s="4"/>
+      <c r="BI3" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="BJ3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -34543,7 +34867,10 @@
       <c r="BH4" s="4">
         <v>29.0</v>
       </c>
-      <c r="BI4" s="4"/>
+      <c r="BI4" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BJ4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -34726,7 +35053,10 @@
       <c r="BH5" s="4">
         <v>58.0</v>
       </c>
-      <c r="BI5" s="4"/>
+      <c r="BI5" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="BJ5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -34909,7 +35239,10 @@
       <c r="BH6" s="4">
         <v>53.0</v>
       </c>
-      <c r="BI6" s="4"/>
+      <c r="BI6" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="BJ6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -35092,7 +35425,10 @@
       <c r="BH7" s="4">
         <v>1335.0</v>
       </c>
-      <c r="BI7" s="4"/>
+      <c r="BI7" s="4">
+        <v>1335.0</v>
+      </c>
+      <c r="BJ7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -35275,7 +35611,10 @@
       <c r="BH8" s="4">
         <v>121.0</v>
       </c>
-      <c r="BI8" s="4"/>
+      <c r="BI8" s="4">
+        <v>121.0</v>
+      </c>
+      <c r="BJ8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -35458,7 +35797,10 @@
       <c r="BH9" s="4">
         <v>1111.0</v>
       </c>
-      <c r="BI9" s="4"/>
+      <c r="BI9" s="4">
+        <v>1168.0</v>
+      </c>
+      <c r="BJ9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -35641,7 +35983,10 @@
       <c r="BH10" s="4">
         <v>6525.0</v>
       </c>
-      <c r="BI10" s="4"/>
+      <c r="BI10" s="4">
+        <v>7221.0</v>
+      </c>
+      <c r="BJ10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -35824,7 +36169,10 @@
       <c r="BH11" s="4">
         <v>1840.0</v>
       </c>
-      <c r="BI11" s="4"/>
+      <c r="BI11" s="4">
+        <v>1899.0</v>
+      </c>
+      <c r="BJ11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -36841,7 +37189,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="61" width="9.88"/>
+    <col customWidth="1" min="44" max="62" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -37025,9 +37373,12 @@
       <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="3">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -37188,6 +37539,7 @@
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
     </row>
     <row r="3" ht="14.25" hidden="1" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -37430,6 +37782,7 @@
         <v>974</v>
       </c>
       <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -37670,7 +38023,11 @@
         <f>(Recoveries!BH3-Recoveries!BG3)-(Deaths!BH3-Deaths!BG3)</f>
         <v>1</v>
       </c>
-      <c r="BI4" s="4"/>
+      <c r="BI4" s="1">
+        <f>(Recoveries!BI3-Recoveries!BH3)-(Deaths!BI3-Deaths!BH3)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -37911,7 +38268,11 @@
         <f>(Recoveries!BH4-Recoveries!BG4)-(Deaths!BH4-Deaths!BG4)</f>
         <v>0</v>
       </c>
-      <c r="BI5" s="4"/>
+      <c r="BI5" s="1">
+        <f>(Recoveries!BI4-Recoveries!BH4)-(Deaths!BI4-Deaths!BH4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -38152,7 +38513,11 @@
         <f>(Recoveries!BH5-Recoveries!BG5)-(Deaths!BH5-Deaths!BG5)</f>
         <v>0</v>
       </c>
-      <c r="BI6" s="4"/>
+      <c r="BI6" s="1">
+        <f>(Recoveries!BI5-Recoveries!BH5)-(Deaths!BI5-Deaths!BH5)</f>
+        <v>3</v>
+      </c>
+      <c r="BJ6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -38393,7 +38758,11 @@
         <f>(Recoveries!BH6-Recoveries!BG6)-(Deaths!BH6-Deaths!BG6)</f>
         <v>2</v>
       </c>
-      <c r="BI7" s="4"/>
+      <c r="BI7" s="1">
+        <f>(Recoveries!BI6-Recoveries!BH6)-(Deaths!BI6-Deaths!BH6)</f>
+        <v>2</v>
+      </c>
+      <c r="BJ7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -38634,7 +39003,11 @@
         <f>(Recoveries!BH7-Recoveries!BG7)-(Deaths!BH7-Deaths!BG7)</f>
         <v>298</v>
       </c>
-      <c r="BI8" s="4"/>
+      <c r="BI8" s="1">
+        <f>(Recoveries!BI7-Recoveries!BH7)-(Deaths!BI7-Deaths!BH7)</f>
+        <v>-2</v>
+      </c>
+      <c r="BJ8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -38875,7 +39248,11 @@
         <f>(Recoveries!BH8-Recoveries!BG8)-(Deaths!BH8-Deaths!BG8)</f>
         <v>0</v>
       </c>
-      <c r="BI9" s="4"/>
+      <c r="BI9" s="1">
+        <f>(Recoveries!BI8-Recoveries!BH8)-(Deaths!BI8-Deaths!BH8)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -39116,7 +39493,11 @@
         <f>(Recoveries!BH9-Recoveries!BG9)-(Deaths!BH9-Deaths!BG9)</f>
         <v>230</v>
       </c>
-      <c r="BI10" s="4"/>
+      <c r="BI10" s="1">
+        <f>(Recoveries!BI9-Recoveries!BH9)-(Deaths!BI9-Deaths!BH9)</f>
+        <v>57</v>
+      </c>
+      <c r="BJ10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -39357,7 +39738,11 @@
         <f>(Recoveries!BH10-Recoveries!BG10)-(Deaths!BH10-Deaths!BG10)</f>
         <v>379</v>
       </c>
-      <c r="BI11" s="4"/>
+      <c r="BI11" s="1">
+        <f>(Recoveries!BI10-Recoveries!BH10)-(Deaths!BI10-Deaths!BH10)</f>
+        <v>647</v>
+      </c>
+      <c r="BJ11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -39598,7 +39983,11 @@
         <f>(Recoveries!BH11-Recoveries!BG11)-(Deaths!BH11-Deaths!BG11)</f>
         <v>64</v>
       </c>
-      <c r="BI12" s="4"/>
+      <c r="BI12" s="1">
+        <f>(Recoveries!BI11-Recoveries!BH11)-(Deaths!BI11-Deaths!BH11)</f>
+        <v>58</v>
+      </c>
+      <c r="BJ12" s="4"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -40614,7 +41003,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="61" width="7.63"/>
+    <col customWidth="1" min="37" max="62" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -40792,15 +41181,18 @@
       <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="3">
+        <v>43976.0</v>
+      </c>
+      <c r="BJ1" s="2">
         <f>today()</f>
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -41004,8 +41396,9 @@
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
-      <c r="BI2" s="1">
-        <f>Confirmed!BI2-Deaths!AX2-Recoveries!AX2</f>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1">
+        <f>Confirmed!BJ2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
     </row>
@@ -41014,7 +41407,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="15">
-        <f t="shared" ref="B3:BI3" si="1">sum(B4:B12)</f>
+        <f t="shared" ref="B3:BJ3" si="1">sum(B4:B12)</f>
         <v>848</v>
       </c>
       <c r="C3" s="15">
@@ -41250,6 +41643,10 @@
         <v>11054</v>
       </c>
       <c r="BI3" s="15">
+        <f t="shared" si="1"/>
+        <v>11217</v>
+      </c>
+      <c r="BJ3" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -41494,7 +41891,11 @@
         <f>Confirmed!BH3-Deaths!BH3-Recoveries!BH3</f>
         <v>11</v>
       </c>
-      <c r="BI4" s="1"/>
+      <c r="BI4" s="1">
+        <f>Confirmed!BI3-Deaths!BI3-Recoveries!BI3</f>
+        <v>16</v>
+      </c>
+      <c r="BJ4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -41736,7 +42137,11 @@
         <f>Confirmed!BH4-Deaths!BH4-Recoveries!BH4</f>
         <v>64</v>
       </c>
-      <c r="BI5" s="1"/>
+      <c r="BI5" s="1">
+        <f>Confirmed!BI4-Deaths!BI4-Recoveries!BI4</f>
+        <v>79</v>
+      </c>
+      <c r="BJ5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -41978,7 +42383,11 @@
         <f>Confirmed!BH5-Deaths!BH5-Recoveries!BH5</f>
         <v>43</v>
       </c>
-      <c r="BI6" s="1"/>
+      <c r="BI6" s="1">
+        <f>Confirmed!BI5-Deaths!BI5-Recoveries!BI5</f>
+        <v>41</v>
+      </c>
+      <c r="BJ6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -42220,7 +42629,11 @@
         <f>Confirmed!BH6-Deaths!BH6-Recoveries!BH6</f>
         <v>72</v>
       </c>
-      <c r="BI7" s="1"/>
+      <c r="BI7" s="1">
+        <f>Confirmed!BI6-Deaths!BI6-Recoveries!BI6</f>
+        <v>74</v>
+      </c>
+      <c r="BJ7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -42462,7 +42875,11 @@
         <f>Confirmed!BH7-Deaths!BH7-Recoveries!BH7</f>
         <v>1296</v>
       </c>
-      <c r="BI8" s="1"/>
+      <c r="BI8" s="1">
+        <f>Confirmed!BI7-Deaths!BI7-Recoveries!BI7</f>
+        <v>1352</v>
+      </c>
+      <c r="BJ8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -42704,7 +43121,11 @@
         <f>Confirmed!BH8-Deaths!BH8-Recoveries!BH8</f>
         <v>75</v>
       </c>
-      <c r="BI9" s="1"/>
+      <c r="BI9" s="1">
+        <f>Confirmed!BI8-Deaths!BI8-Recoveries!BI8</f>
+        <v>81</v>
+      </c>
+      <c r="BJ9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -42946,7 +43367,11 @@
         <f>Confirmed!BH9-Deaths!BH9-Recoveries!BH9</f>
         <v>655</v>
       </c>
-      <c r="BI10" s="1"/>
+      <c r="BI10" s="1">
+        <f>Confirmed!BI9-Deaths!BI9-Recoveries!BI9</f>
+        <v>665</v>
+      </c>
+      <c r="BJ10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -43188,7 +43613,11 @@
         <f>Confirmed!BH10-Deaths!BH10-Recoveries!BH10</f>
         <v>7934</v>
       </c>
-      <c r="BI11" s="1"/>
+      <c r="BI11" s="1">
+        <f>Confirmed!BI10-Deaths!BI10-Recoveries!BI10</f>
+        <v>7845</v>
+      </c>
+      <c r="BJ11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -43430,7 +43859,11 @@
         <f>Confirmed!BH11-Deaths!BH11-Recoveries!BH11</f>
         <v>904</v>
       </c>
-      <c r="BI12" s="1"/>
+      <c r="BI12" s="1">
+        <f>Confirmed!BI11-Deaths!BI11-Recoveries!BI11</f>
+        <v>1064</v>
+      </c>
+      <c r="BJ12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -44891,7 +45324,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1">
-        <f>Confirmed!BI2-Deaths!AX2-Recoveries!AX2</f>
+        <f>Confirmed!BJ2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1"/>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -21,7 +21,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mifJAaelrZ+SHOXETEz1qYyaLp4hw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mjc7K9YWYDvKBqx8rP+2zMvYH21JQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -497,14 +497,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="15" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -524,10 +524,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -535,9 +535,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -591,12 +591,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$2:$BJ$2</c:f>
+              <c:f>Testing!$B$2:$BL$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -615,12 +615,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$3:$BJ$3</c:f>
+              <c:f>Testing!$B$3:$BL$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -639,12 +639,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$4:$BJ$4</c:f>
+              <c:f>Testing!$B$4:$BL$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -663,12 +663,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$5:$BJ$5</c:f>
+              <c:f>Testing!$B$5:$BL$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -687,12 +687,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$6:$BJ$6</c:f>
+              <c:f>Testing!$B$6:$BL$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -711,12 +711,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$7:$BJ$7</c:f>
+              <c:f>Testing!$B$7:$BL$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -737,12 +737,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$8:$BJ$8</c:f>
+              <c:f>Testing!$B$8:$BL$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -763,12 +763,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$9:$BJ$9</c:f>
+              <c:f>Testing!$B$9:$BL$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -789,12 +789,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$10:$BJ$10</c:f>
+              <c:f>Testing!$B$10:$BL$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -815,21 +815,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$11:$BJ$11</c:f>
+              <c:f>Testing!$B$11:$BL$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2011706118"/>
-        <c:axId val="1808207017"/>
+        <c:axId val="1369413547"/>
+        <c:axId val="290736547"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2011706118"/>
+        <c:axId val="1369413547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,10 +874,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1808207017"/>
+        <c:crossAx val="290736547"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808207017"/>
+        <c:axId val="290736547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2011706118"/>
+        <c:crossAx val="1369413547"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1013,12 +1013,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$2:$BJ$2</c:f>
+              <c:f>'Death Rate'!$B$2:$BL$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1036,12 +1036,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$BJ$3</c:f>
+              <c:f>'Death Rate'!$B$3:$BL$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1059,12 +1059,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$BJ$4</c:f>
+              <c:f>'Death Rate'!$B$4:$BL$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1082,12 +1082,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$BJ$5</c:f>
+              <c:f>'Death Rate'!$B$5:$BL$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1105,12 +1105,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$BJ$6</c:f>
+              <c:f>'Death Rate'!$B$6:$BL$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1128,12 +1128,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$BJ$7</c:f>
+              <c:f>'Death Rate'!$B$7:$BL$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1151,12 +1151,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$BJ$8</c:f>
+              <c:f>'Death Rate'!$B$8:$BL$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1174,12 +1174,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$BJ$9</c:f>
+              <c:f>'Death Rate'!$B$9:$BL$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1197,21 +1197,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$BJ$10</c:f>
+              <c:f>'Death Rate'!$B$10:$BL$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="159783326"/>
-        <c:axId val="399986363"/>
+        <c:axId val="349703331"/>
+        <c:axId val="1940077212"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159783326"/>
+        <c:axId val="349703331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,10 +1256,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399986363"/>
+        <c:crossAx val="1940077212"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399986363"/>
+        <c:axId val="1940077212"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1328,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159783326"/>
+        <c:crossAx val="349703331"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1399,18 +1399,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$BJ$2</c:f>
+              <c:f>'Infection Rate'!$B$2:$BL$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="739430901"/>
-        <c:axId val="347329133"/>
+        <c:axId val="1636949445"/>
+        <c:axId val="185016058"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1426,12 +1426,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$BJ$3</c:f>
+              <c:f>'Infection Rate'!$B$3:$BL$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1449,12 +1449,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$BJ$4</c:f>
+              <c:f>'Infection Rate'!$B$4:$BL$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1472,12 +1472,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$BJ$5</c:f>
+              <c:f>'Infection Rate'!$B$5:$BL$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1495,12 +1495,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$BJ$6</c:f>
+              <c:f>'Infection Rate'!$B$6:$BL$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1518,12 +1518,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$BJ$7</c:f>
+              <c:f>'Infection Rate'!$B$7:$BL$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1541,12 +1541,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$BJ$8</c:f>
+              <c:f>'Infection Rate'!$B$8:$BL$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1564,12 +1564,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$BJ$9</c:f>
+              <c:f>'Infection Rate'!$B$9:$BL$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1587,12 +1587,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$BJ$10</c:f>
+              <c:f>'Infection Rate'!$B$10:$BL$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1610,21 +1610,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$BJ$11</c:f>
+              <c:f>'Infection Rate'!$B$11:$BL$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="739430901"/>
-        <c:axId val="347329133"/>
+        <c:axId val="1636949445"/>
+        <c:axId val="185016058"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="739430901"/>
+        <c:axId val="1636949445"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,10 +1669,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347329133"/>
+        <c:crossAx val="185016058"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="347329133"/>
+        <c:axId val="185016058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739430901"/>
+        <c:crossAx val="1636949445"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1812,12 +1812,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$2:$BJ$2</c:f>
+              <c:f>'Testing per Capita'!$B$2:$BL$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1836,12 +1836,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$3:$BJ$3</c:f>
+              <c:f>'Testing per Capita'!$B$3:$BL$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1860,12 +1860,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$4:$BJ$4</c:f>
+              <c:f>'Testing per Capita'!$B$4:$BL$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1884,12 +1884,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$5:$BJ$5</c:f>
+              <c:f>'Testing per Capita'!$B$5:$BL$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1908,12 +1908,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$6:$BJ$6</c:f>
+              <c:f>'Testing per Capita'!$B$6:$BL$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1932,12 +1932,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$7:$BJ$7</c:f>
+              <c:f>'Testing per Capita'!$B$7:$BL$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1958,12 +1958,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$8:$BJ$8</c:f>
+              <c:f>'Testing per Capita'!$B$8:$BL$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1984,12 +1984,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$9:$BJ$9</c:f>
+              <c:f>'Testing per Capita'!$B$9:$BL$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2010,12 +2010,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$10:$BJ$10</c:f>
+              <c:f>'Testing per Capita'!$B$10:$BL$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2029,21 +2029,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$11:$BJ$11</c:f>
+              <c:f>'Testing per Capita'!$B$11:$BL$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="172858052"/>
-        <c:axId val="1755159097"/>
+        <c:axId val="504949633"/>
+        <c:axId val="221384766"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172858052"/>
+        <c:axId val="504949633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,10 +2088,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1755159097"/>
+        <c:crossAx val="221384766"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1755159097"/>
+        <c:axId val="221384766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172858052"/>
+        <c:crossAx val="504949633"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2231,12 +2231,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$2:$BJ$2</c:f>
+              <c:f>'Daily tracking'!$B$2:$BL$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2255,12 +2255,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$3:$BJ$3</c:f>
+              <c:f>'Daily tracking'!$B$3:$BL$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2279,12 +2279,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$4:$BJ$4</c:f>
+              <c:f>'Daily tracking'!$B$4:$BL$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2303,12 +2303,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$5:$BJ$5</c:f>
+              <c:f>'Daily tracking'!$B$5:$BL$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2327,12 +2327,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$6:$BJ$6</c:f>
+              <c:f>'Daily tracking'!$B$6:$BL$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2351,12 +2351,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$7:$BJ$7</c:f>
+              <c:f>'Daily tracking'!$B$7:$BL$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2377,12 +2377,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$8:$BJ$8</c:f>
+              <c:f>'Daily tracking'!$B$8:$BL$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2403,12 +2403,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$9:$BJ$9</c:f>
+              <c:f>'Daily tracking'!$B$9:$BL$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2429,12 +2429,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$10:$BJ$10</c:f>
+              <c:f>'Daily tracking'!$B$10:$BL$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2448,12 +2448,12 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$11:$BJ$11</c:f>
+              <c:f>'Daily tracking'!$B$11:$BL$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2467,21 +2467,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$12:$BJ$12</c:f>
+              <c:f>'Daily tracking'!$B$12:$BL$12</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="794624464"/>
-        <c:axId val="1583439267"/>
+        <c:axId val="993557524"/>
+        <c:axId val="1921786567"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="794624464"/>
+        <c:axId val="993557524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,10 +2526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583439267"/>
+        <c:crossAx val="1921786567"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1583439267"/>
+        <c:axId val="1921786567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,7 +2598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794624464"/>
+        <c:crossAx val="993557524"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2669,18 +2669,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$BJ$2</c:f>
+              <c:f>Active!$B$2:$BL$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1693947647"/>
-        <c:axId val="236895073"/>
+        <c:axId val="289620836"/>
+        <c:axId val="1801326141"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2696,12 +2696,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$BJ$3</c:f>
+              <c:f>Active!$B$3:$BL$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2719,12 +2719,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$BJ$4</c:f>
+              <c:f>Active!$B$4:$BL$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2742,12 +2742,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$BJ$5</c:f>
+              <c:f>Active!$B$5:$BL$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2765,12 +2765,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$BJ$6</c:f>
+              <c:f>Active!$B$6:$BL$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2788,12 +2788,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$BJ$7</c:f>
+              <c:f>Active!$B$7:$BL$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2811,12 +2811,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$BJ$8</c:f>
+              <c:f>Active!$B$8:$BL$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2834,12 +2834,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$BJ$9</c:f>
+              <c:f>Active!$B$9:$BL$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2857,12 +2857,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$BJ$10</c:f>
+              <c:f>Active!$B$10:$BL$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2880,21 +2880,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$BJ$11</c:f>
+              <c:f>Active!$B$11:$BL$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1693947647"/>
-        <c:axId val="236895073"/>
+        <c:axId val="289620836"/>
+        <c:axId val="1801326141"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1693947647"/>
+        <c:axId val="289620836"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,10 +2939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236895073"/>
+        <c:crossAx val="1801326141"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236895073"/>
+        <c:axId val="1801326141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3011,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1693947647"/>
+        <c:crossAx val="289620836"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3092,8 +3092,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="343129489"/>
-        <c:axId val="663930795"/>
+        <c:axId val="1167639298"/>
+        <c:axId val="1371597414"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3303,11 +3303,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="343129489"/>
-        <c:axId val="663930795"/>
+        <c:axId val="1167639298"/>
+        <c:axId val="1371597414"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343129489"/>
+        <c:axId val="1167639298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3352,10 +3352,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663930795"/>
+        <c:crossAx val="1371597414"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663930795"/>
+        <c:axId val="1371597414"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343129489"/>
+        <c:crossAx val="1167639298"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3513,8 +3513,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2009669802"/>
-        <c:axId val="825726223"/>
+        <c:axId val="425392503"/>
+        <c:axId val="328624353"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3724,11 +3724,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2009669802"/>
-        <c:axId val="825726223"/>
+        <c:axId val="425392503"/>
+        <c:axId val="328624353"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2009669802"/>
+        <c:axId val="425392503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,10 +3773,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="825726223"/>
+        <c:crossAx val="328624353"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="825726223"/>
+        <c:axId val="328624353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3845,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2009669802"/>
+        <c:crossAx val="425392503"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3995,11 +3995,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1426060239"/>
-        <c:axId val="1487127247"/>
+        <c:axId val="43073434"/>
+        <c:axId val="1845764949"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1426060239"/>
+        <c:axId val="43073434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,10 +4044,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1487127247"/>
+        <c:crossAx val="1845764949"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1487127247"/>
+        <c:axId val="1845764949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1426060239"/>
+        <c:crossAx val="43073434"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4335,11 +4335,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1427831958"/>
-        <c:axId val="185130882"/>
+        <c:axId val="2131017016"/>
+        <c:axId val="2112994754"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1427831958"/>
+        <c:axId val="2131017016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,10 +4384,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185130882"/>
+        <c:crossAx val="2112994754"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185130882"/>
+        <c:axId val="2112994754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4456,7 +4456,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427831958"/>
+        <c:crossAx val="2131017016"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4523,12 +4523,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$BJ$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$BL$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4546,12 +4546,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$BJ$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$BL$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4569,12 +4569,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$BJ$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$BL$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4592,12 +4592,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$BJ$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$BL$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4615,12 +4615,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$BJ$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$BL$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4638,12 +4638,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$BJ$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$BL$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4661,12 +4661,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$BJ$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$BL$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4684,12 +4684,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$BJ$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$BL$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4707,21 +4707,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BL$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$11:$BJ$11</c:f>
+              <c:f>'Recovery Rate'!$B$11:$BL$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="467419886"/>
-        <c:axId val="1503816058"/>
+        <c:axId val="1115463916"/>
+        <c:axId val="379394521"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467419886"/>
+        <c:axId val="1115463916"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,10 +4766,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503816058"/>
+        <c:crossAx val="379394521"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1503816058"/>
+        <c:axId val="379394521"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +4838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467419886"/>
+        <c:crossAx val="1115463916"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4979,7 +4979,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="613342381" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="613342381" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5009,7 +5009,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="123848420" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="123848420" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5417,7 +5417,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="62" width="9.88"/>
+    <col customWidth="1" min="44" max="64" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5604,9 +5604,15 @@
       <c r="BI1" s="3">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -5768,6 +5774,8 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -5953,7 +5961,13 @@
       <c r="BI3" s="4">
         <v>45.0</v>
       </c>
-      <c r="BJ3" s="4"/>
+      <c r="BJ3" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="BL3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -6139,7 +6153,13 @@
       <c r="BI4" s="4">
         <v>109.0</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="4">
+        <v>115.0</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="BL4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -6325,7 +6345,13 @@
       <c r="BI5" s="4">
         <v>102.0</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="4">
+        <v>103.0</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>106.0</v>
+      </c>
+      <c r="BL5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -6511,7 +6537,13 @@
       <c r="BI6" s="4">
         <v>132.0</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="4">
+        <v>132.0</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>141.0</v>
+      </c>
+      <c r="BL6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6697,7 +6729,13 @@
       <c r="BI7" s="4">
         <v>2748.0</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="4">
+        <v>2864.0</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>3047.0</v>
+      </c>
+      <c r="BL7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -6883,7 +6921,13 @@
       <c r="BI8" s="4">
         <v>208.0</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="4">
+        <v>206.0</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>221.0</v>
+      </c>
+      <c r="BL8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -7069,7 +7113,13 @@
       <c r="BI9" s="4">
         <v>1882.0</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="4">
+        <v>1927.0</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>2186.0</v>
+      </c>
+      <c r="BL9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -7255,7 +7305,13 @@
       <c r="BI10" s="4">
         <v>15396.0</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="4">
+        <v>15829.0</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>16893.0</v>
+      </c>
+      <c r="BL10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -7441,7 +7497,13 @@
       <c r="BI11" s="4">
         <v>2993.0</v>
       </c>
-      <c r="BJ11" s="4"/>
+      <c r="BJ11" s="4">
+        <v>3043.0</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>3167.0</v>
+      </c>
+      <c r="BL11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -8455,7 +8517,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="62" width="8.88"/>
+    <col customWidth="1" min="46" max="64" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -8642,9 +8704,15 @@
       <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -8849,8 +8917,10 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="1">
-        <f>Confirmed!BJ2-Active!BJ2</f>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1">
+        <f>Confirmed!BL2-Active!BL2</f>
         <v>0</v>
       </c>
     </row>
@@ -9098,7 +9168,15 @@
         <f>Confirmed!BI3-Active!BI4</f>
         <v>29</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f>Confirmed!BJ3-Active!BJ4</f>
+        <v>30</v>
+      </c>
+      <c r="BK3" s="1">
+        <f>Confirmed!BK3-Active!BK4</f>
+        <v>31</v>
+      </c>
+      <c r="BL3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9344,7 +9422,15 @@
         <f>Confirmed!BI4-Active!BI5</f>
         <v>30</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>Confirmed!BJ4-Active!BJ5</f>
+        <v>30</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>Confirmed!BK4-Active!BK5</f>
+        <v>40</v>
+      </c>
+      <c r="BL4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -9590,7 +9676,15 @@
         <f>Confirmed!BI5-Active!BI6</f>
         <v>61</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>Confirmed!BJ5-Active!BJ6</f>
+        <v>61</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>Confirmed!BK5-Active!BK6</f>
+        <v>62</v>
+      </c>
+      <c r="BL5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -9836,7 +9930,15 @@
         <f>Confirmed!BI6-Active!BI7</f>
         <v>58</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>Confirmed!BJ6-Active!BJ7</f>
+        <v>68</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>Confirmed!BK6-Active!BK7</f>
+        <v>70</v>
+      </c>
+      <c r="BL6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -10082,7 +10184,15 @@
         <f>Confirmed!BI7-Active!BI8</f>
         <v>1396</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>Confirmed!BJ7-Active!BJ8</f>
+        <v>1561</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>Confirmed!BK7-Active!BK8</f>
+        <v>1561</v>
+      </c>
+      <c r="BL7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -10328,7 +10438,15 @@
         <f>Confirmed!BI8-Active!BI9</f>
         <v>127</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>Confirmed!BJ8-Active!BJ9</f>
+        <v>129</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>Confirmed!BK8-Active!BK9</f>
+        <v>129</v>
+      </c>
+      <c r="BL8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -10574,7 +10692,15 @@
         <f>Confirmed!BI9-Active!BI10</f>
         <v>1217</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>Confirmed!BJ9-Active!BJ10</f>
+        <v>1229</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>Confirmed!BK9-Active!BK10</f>
+        <v>1229</v>
+      </c>
+      <c r="BL9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -10820,7 +10946,15 @@
         <f>Confirmed!BI10-Active!BI11</f>
         <v>7551</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>Confirmed!BJ10-Active!BJ11</f>
+        <v>8207</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>Confirmed!BK10-Active!BK11</f>
+        <v>8895</v>
+      </c>
+      <c r="BL10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -11066,7 +11200,15 @@
         <f>Confirmed!BI11-Active!BI12</f>
         <v>1929</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>Confirmed!BJ11-Active!BJ12</f>
+        <v>1950</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>Confirmed!BK11-Active!BK12</f>
+        <v>1986</v>
+      </c>
+      <c r="BL11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -12082,7 +12224,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="62" width="7.63"/>
+    <col customWidth="1" min="37" max="64" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -12269,9 +12411,15 @@
       <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -12468,6 +12616,8 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -12713,7 +12863,15 @@
         <f>IF(Closed!BI3&gt;0,100*Recoveries!BI3/Closed!BI3,100)</f>
         <v>96.55172414</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f>IF(Closed!BJ3&gt;0,100*Recoveries!BJ3/Closed!BJ3,100)</f>
+        <v>96.66666667</v>
+      </c>
+      <c r="BK3" s="1">
+        <f>IF(Closed!BK3&gt;0,100*Recoveries!BK3/Closed!BK3,100)</f>
+        <v>96.77419355</v>
+      </c>
+      <c r="BL3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
@@ -12959,7 +13117,15 @@
         <f>IF(Closed!BI4&gt;0,100*Recoveries!BI4/Closed!BI4,100)</f>
         <v>96.66666667</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>IF(Closed!BJ4&gt;0,100*Recoveries!BJ4/Closed!BJ4,100)</f>
+        <v>96.66666667</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>IF(Closed!BK4&gt;0,100*Recoveries!BK4/Closed!BK4,100)</f>
+        <v>97.5</v>
+      </c>
+      <c r="BL4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="20" t="s">
@@ -13205,7 +13371,15 @@
         <f>IF(Closed!BI5&gt;0,100*Recoveries!BI5/Closed!BI5,100)</f>
         <v>100</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>IF(Closed!BJ5&gt;0,100*Recoveries!BJ5/Closed!BJ5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>IF(Closed!BK5&gt;0,100*Recoveries!BK5/Closed!BK5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BL5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="20" t="s">
@@ -13451,7 +13625,15 @@
         <f>IF(Closed!BI6&gt;0,100*Recoveries!BI6/Closed!BI6,100)</f>
         <v>94.82758621</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>IF(Closed!BJ6&gt;0,100*Recoveries!BJ6/Closed!BJ6,100)</f>
+        <v>95.58823529</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>IF(Closed!BK6&gt;0,100*Recoveries!BK6/Closed!BK6,100)</f>
+        <v>95.71428571</v>
+      </c>
+      <c r="BL6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="20" t="s">
@@ -13697,7 +13879,15 @@
         <f>IF(Closed!BI7&gt;0,100*Recoveries!BI7/Closed!BI7,100)</f>
         <v>95.63037249</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>IF(Closed!BJ7&gt;0,100*Recoveries!BJ7/Closed!BJ7,100)</f>
+        <v>95.51569507</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>IF(Closed!BK7&gt;0,100*Recoveries!BK7/Closed!BK7,100)</f>
+        <v>95.51569507</v>
+      </c>
+      <c r="BL7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="20" t="s">
@@ -13943,7 +14133,15 @@
         <f>IF(Closed!BI8&gt;0,100*Recoveries!BI8/Closed!BI8,100)</f>
         <v>95.27559055</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>IF(Closed!BJ8&gt;0,100*Recoveries!BJ8/Closed!BJ8,100)</f>
+        <v>95.34883721</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>IF(Closed!BK8&gt;0,100*Recoveries!BK8/Closed!BK8,100)</f>
+        <v>95.34883721</v>
+      </c>
+      <c r="BL8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="20" t="s">
@@ -14189,7 +14387,15 @@
         <f>IF(Closed!BI9&gt;0,100*Recoveries!BI9/Closed!BI9,100)</f>
         <v>95.97370583</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>IF(Closed!BJ9&gt;0,100*Recoveries!BJ9/Closed!BJ9,100)</f>
+        <v>96.01301871</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>IF(Closed!BK9&gt;0,100*Recoveries!BK9/Closed!BK9,100)</f>
+        <v>96.01301871</v>
+      </c>
+      <c r="BL9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="20" t="s">
@@ -14435,7 +14641,15 @@
         <f>IF(Closed!BI10&gt;0,100*Recoveries!BI10/Closed!BI10,100)</f>
         <v>95.62971792</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>IF(Closed!BJ10&gt;0,100*Recoveries!BJ10/Closed!BJ10,100)</f>
+        <v>95.57694651</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>IF(Closed!BK10&gt;0,100*Recoveries!BK10/Closed!BK10,100)</f>
+        <v>95.60427206</v>
+      </c>
+      <c r="BL10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="20" t="s">
@@ -14681,12 +14895,20 @@
         <f>IF(Closed!BI11&gt;0,100*Recoveries!BI11/Closed!BI11,100)</f>
         <v>98.44479005</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>IF(Closed!BJ11&gt;0,100*Recoveries!BJ11/Closed!BJ11,100)</f>
+        <v>98.41025641</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>IF(Closed!BK11&gt;0,100*Recoveries!BK11/Closed!BK11,100)</f>
+        <v>98.43907351</v>
+      </c>
+      <c r="BL11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="21" t="s">
         <v>114</v>
       </c>
     </row>
@@ -15705,7 +15927,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="62" width="10.5"/>
+    <col customWidth="1" min="35" max="64" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -15892,9 +16114,15 @@
       <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -16091,6 +16319,8 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -16336,7 +16566,15 @@
         <f>IF(Closed!BI3&gt;0,100*Deaths!BI3/Closed!BI3,0)</f>
         <v>3.448275862</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f>IF(Closed!BJ3&gt;0,100*Deaths!BJ3/Closed!BJ3,0)</f>
+        <v>3.333333333</v>
+      </c>
+      <c r="BK3" s="1">
+        <f>IF(Closed!BK3&gt;0,100*Deaths!BK3/Closed!BK3,0)</f>
+        <v>3.225806452</v>
+      </c>
+      <c r="BL3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -16582,7 +16820,15 @@
         <f>IF(Closed!BI4&gt;0,100*Deaths!BI4/Closed!BI4,0)</f>
         <v>3.333333333</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>IF(Closed!BJ4&gt;0,100*Deaths!BJ4/Closed!BJ4,0)</f>
+        <v>3.333333333</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>IF(Closed!BK4&gt;0,100*Deaths!BK4/Closed!BK4,0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BL4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -16828,7 +17074,15 @@
         <f>IF(Closed!BI5&gt;0,100*Deaths!BI5/Closed!BI5,0)</f>
         <v>0</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>IF(Closed!BJ5&gt;0,100*Deaths!BJ5/Closed!BJ5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>IF(Closed!BK5&gt;0,100*Deaths!BK5/Closed!BK5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -17074,7 +17328,15 @@
         <f>IF(Closed!BI6&gt;0,100*Deaths!BI6/Closed!BI6,0)</f>
         <v>5.172413793</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>IF(Closed!BJ6&gt;0,100*Deaths!BJ6/Closed!BJ6,0)</f>
+        <v>4.411764706</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>IF(Closed!BK6&gt;0,100*Deaths!BK6/Closed!BK6,0)</f>
+        <v>4.285714286</v>
+      </c>
+      <c r="BL6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -17320,7 +17582,15 @@
         <f>IF(Closed!BI7&gt;0,100*Deaths!BI7/Closed!BI7,0)</f>
         <v>4.369627507</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>IF(Closed!BJ7&gt;0,100*Deaths!BJ7/Closed!BJ7,0)</f>
+        <v>4.484304933</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>IF(Closed!BK7&gt;0,100*Deaths!BK7/Closed!BK7,0)</f>
+        <v>4.484304933</v>
+      </c>
+      <c r="BL7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -17566,7 +17836,15 @@
         <f>IF(Closed!BI8&gt;0,100*Deaths!BI8/Closed!BI8,0)</f>
         <v>4.724409449</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>IF(Closed!BJ8&gt;0,100*Deaths!BJ8/Closed!BJ8,0)</f>
+        <v>4.651162791</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>IF(Closed!BK8&gt;0,100*Deaths!BK8/Closed!BK8,0)</f>
+        <v>4.651162791</v>
+      </c>
+      <c r="BL8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -17812,7 +18090,15 @@
         <f>IF(Closed!BI9&gt;0,100*Deaths!BI9/Closed!BI9,0)</f>
         <v>4.026294166</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>IF(Closed!BJ9&gt;0,100*Deaths!BJ9/Closed!BJ9,0)</f>
+        <v>3.986981286</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>IF(Closed!BK9&gt;0,100*Deaths!BK9/Closed!BK9,0)</f>
+        <v>3.986981286</v>
+      </c>
+      <c r="BL9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -18058,7 +18344,15 @@
         <f>IF(Closed!BI10&gt;0,100*Deaths!BI10/Closed!BI10,0)</f>
         <v>4.370282082</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>IF(Closed!BJ10&gt;0,100*Deaths!BJ10/Closed!BJ10,0)</f>
+        <v>4.423053491</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>IF(Closed!BK10&gt;0,100*Deaths!BK10/Closed!BK10,0)</f>
+        <v>4.395727937</v>
+      </c>
+      <c r="BL10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -18304,13 +18598,21 @@
         <f>IF(Closed!BI11&gt;0,100*Deaths!BI11/Closed!BI11,0)</f>
         <v>1.555209953</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>IF(Closed!BJ11&gt;0,100*Deaths!BJ11/Closed!BJ11,0)</f>
+        <v>1.58974359</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>IF(Closed!BK11&gt;0,100*Deaths!BK11/Closed!BK11,0)</f>
+        <v>1.560926485</v>
+      </c>
+      <c r="BL11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="M15" s="17"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -19323,7 +19625,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="62" width="10.5"/>
+    <col customWidth="1" min="35" max="64" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -19510,9 +19812,15 @@
       <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -19709,252 +20017,262 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21">
-        <f t="shared" ref="B3:BJ3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
+      <c r="B3" s="22">
+        <f t="shared" ref="B3:BL3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
         <v>0.02559675512</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="22">
         <f t="shared" si="1"/>
         <v>0.02916302229</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="22">
         <f t="shared" si="1"/>
         <v>0.02872158519</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="22">
         <f t="shared" si="1"/>
         <v>0.02754111253</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="22">
         <f t="shared" si="1"/>
         <v>0.02689610531</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="22">
         <f t="shared" si="1"/>
         <v>0.02562433382</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="22">
         <f t="shared" si="1"/>
         <v>0.02517372825</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="22">
         <f t="shared" si="1"/>
         <v>0.02464177037</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="22">
         <f t="shared" si="1"/>
         <v>0.02497741373</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="22">
         <f t="shared" si="1"/>
         <v>0.02460071497</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="22">
         <f t="shared" si="1"/>
         <v>0.02453626176</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="22">
         <f t="shared" si="1"/>
         <v>0.02453626176</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="22">
         <f t="shared" si="1"/>
         <v>0.02610489626</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="22">
         <f t="shared" si="1"/>
         <v>0.02544977988</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="22">
         <f t="shared" si="1"/>
         <v>0.02507349752</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="22">
         <f t="shared" si="1"/>
         <v>0.02469852001</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="22">
         <f t="shared" si="1"/>
         <v>0.02462939464</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="22">
         <f t="shared" si="1"/>
         <v>0.02472845056</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="22">
         <f t="shared" si="1"/>
         <v>0.02547765334</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="22">
         <f t="shared" si="1"/>
         <v>0.02554539465</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="22">
         <f t="shared" si="1"/>
         <v>0.02535397203</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="22">
         <f t="shared" si="1"/>
         <v>0.02543190181</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="22">
         <f t="shared" si="1"/>
         <v>0.02542293115</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="Y3" s="22">
         <f t="shared" si="1"/>
         <v>0.02477757219</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="22">
         <f t="shared" si="1"/>
         <v>0.02435645151</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA3" s="22">
         <f t="shared" si="1"/>
         <v>0.02436699009</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AB3" s="22">
         <f t="shared" si="1"/>
         <v>0.02452268294</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AC3" s="22">
         <f t="shared" si="1"/>
         <v>0.02453396283</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AD3" s="22">
         <f t="shared" si="1"/>
         <v>0.02462134009</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AE3" s="22">
         <f t="shared" si="1"/>
         <v>0.02397149863</v>
       </c>
-      <c r="AF3" s="21">
+      <c r="AF3" s="22">
         <f t="shared" si="1"/>
         <v>0.02381119362</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AG3" s="22">
         <f t="shared" si="1"/>
         <v>0.02366064651</v>
       </c>
-      <c r="AH3" s="21">
+      <c r="AH3" s="22">
         <f t="shared" si="1"/>
         <v>0.02356307367</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AI3" s="22">
         <f t="shared" si="1"/>
         <v>0.02344963636</v>
       </c>
-      <c r="AJ3" s="21">
+      <c r="AJ3" s="22">
         <f t="shared" si="1"/>
         <v>0.0233587823</v>
       </c>
-      <c r="AK3" s="21">
+      <c r="AK3" s="22">
         <f t="shared" si="1"/>
         <v>0.02344945766</v>
       </c>
-      <c r="AL3" s="21">
+      <c r="AL3" s="22">
         <f t="shared" si="1"/>
         <v>0.02349372642</v>
       </c>
-      <c r="AM3" s="21">
+      <c r="AM3" s="22">
         <f t="shared" si="1"/>
         <v>0.02337582825</v>
       </c>
-      <c r="AN3" s="21">
+      <c r="AN3" s="22">
         <f t="shared" si="1"/>
         <v>0.02355312368</v>
       </c>
-      <c r="AO3" s="21">
+      <c r="AO3" s="22">
         <f t="shared" si="1"/>
         <v>0.02359175364</v>
       </c>
-      <c r="AP3" s="21">
+      <c r="AP3" s="22">
         <f t="shared" si="1"/>
         <v>0.02327521075</v>
       </c>
-      <c r="AQ3" s="21">
+      <c r="AQ3" s="22">
         <f t="shared" si="1"/>
         <v>0.02294705257</v>
       </c>
-      <c r="AR3" s="21">
+      <c r="AR3" s="22">
         <f t="shared" si="1"/>
         <v>0.02325687862</v>
       </c>
-      <c r="AS3" s="21">
+      <c r="AS3" s="22">
         <f t="shared" si="1"/>
         <v>0.02337644293</v>
       </c>
-      <c r="AT3" s="21">
+      <c r="AT3" s="22">
         <f t="shared" si="1"/>
         <v>0.02358588861</v>
       </c>
-      <c r="AU3" s="21">
+      <c r="AU3" s="22">
         <f t="shared" si="1"/>
         <v>0.02393496069</v>
       </c>
-      <c r="AV3" s="21">
+      <c r="AV3" s="22">
         <f t="shared" si="1"/>
         <v>0.02439523564</v>
       </c>
-      <c r="AW3" s="21">
+      <c r="AW3" s="22">
         <f t="shared" si="1"/>
         <v>0.02450363075</v>
       </c>
-      <c r="AX3" s="21">
+      <c r="AX3" s="22">
         <f t="shared" si="1"/>
         <v>0.0241679623</v>
       </c>
-      <c r="AY3" s="21">
+      <c r="AY3" s="22">
         <f t="shared" si="1"/>
         <v>0.02439331268</v>
       </c>
-      <c r="AZ3" s="21">
+      <c r="AZ3" s="22">
         <f t="shared" si="1"/>
         <v>0.02467856543</v>
       </c>
-      <c r="BA3" s="21">
+      <c r="BA3" s="22">
         <f t="shared" si="1"/>
         <v>0.02535369563</v>
       </c>
-      <c r="BB3" s="21">
+      <c r="BB3" s="22">
         <f t="shared" si="1"/>
         <v>0.02593408806</v>
       </c>
-      <c r="BC3" s="21">
+      <c r="BC3" s="22">
         <f t="shared" si="1"/>
         <v>0.0262759087</v>
       </c>
-      <c r="BD3" s="21">
+      <c r="BD3" s="22">
         <f t="shared" si="1"/>
         <v>0.02638347214</v>
       </c>
-      <c r="BE3" s="21">
+      <c r="BE3" s="22">
         <f t="shared" si="1"/>
         <v>0.02705340172</v>
       </c>
-      <c r="BF3" s="21">
+      <c r="BF3" s="22">
         <f t="shared" si="1"/>
         <v>0.02738669816</v>
       </c>
-      <c r="BG3" s="21">
+      <c r="BG3" s="22">
         <f t="shared" si="1"/>
         <v>0.02774050341</v>
       </c>
-      <c r="BH3" s="21">
+      <c r="BH3" s="22">
         <f t="shared" si="1"/>
         <v>0.02827787805</v>
       </c>
-      <c r="BI3" s="21">
+      <c r="BI3" s="22">
         <f t="shared" si="1"/>
         <v>0.02893183701</v>
       </c>
-      <c r="BJ3" s="21">
+      <c r="BJ3" s="22">
+        <f t="shared" si="1"/>
+        <v>0.0292684862</v>
+      </c>
+      <c r="BK3" s="22">
+        <f t="shared" si="1"/>
+        <v>0.02994136161</v>
+      </c>
+      <c r="BL3" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -19963,2215 +20281,2287 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="23">
         <f>Confirmed!B3/Testing!B3</f>
         <v>0.008695652174</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="23">
         <f>Confirmed!C3/Testing!C3</f>
         <v>0.01937984496</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="23">
         <f>Confirmed!D3/Testing!D3</f>
         <v>0.02090592334</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <f>Confirmed!E3/Testing!E3</f>
         <v>0.009677419355</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="23">
         <f>Confirmed!F3/Testing!F3</f>
         <v>0.01807228916</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <f>Confirmed!G3/Testing!G3</f>
         <v>0.01955307263</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="23">
         <f>Confirmed!H3/Testing!H3</f>
         <v>0.0180878553</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="23">
         <f>Confirmed!I3/Testing!I3</f>
         <v>0.0171990172</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="23">
         <f>Confirmed!J3/Testing!J3</f>
         <v>0.01605504587</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="23">
         <f>Confirmed!K3/Testing!K3</f>
         <v>0.0174291939</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="23">
         <f>Confirmed!L3/Testing!L3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <f>Confirmed!M3/Testing!M3</f>
         <v>0.0170575693</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="23">
         <f>Confirmed!N3/Testing!N3</f>
         <v>0.02524271845</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="23">
         <f>Confirmed!O3/Testing!O3</f>
         <v>0.02697841727</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="23">
         <f>Confirmed!P3/Testing!P3</f>
         <v>0.02542372881</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="23">
         <f>Confirmed!Q3/Testing!Q3</f>
         <v>0.02640264026</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="23">
         <f>Confirmed!R3/Testing!R3</f>
         <v>0.02472952087</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="23">
         <f>Confirmed!S3/Testing!S3</f>
         <v>0.02366863905</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="23">
         <f>Confirmed!T3/Testing!T3</f>
         <v>0.02275960171</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="23">
         <f>Confirmed!U3/Testing!U3</f>
         <v>0.0218878249</v>
       </c>
-      <c r="V4" s="22">
+      <c r="V4" s="23">
         <f>Confirmed!V3/Testing!V3</f>
         <v>0.02083333333</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="23">
         <f>Confirmed!W3/Testing!W3</f>
         <v>0.01965601966</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4" s="23">
         <f>Confirmed!X3/Testing!X3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="23">
         <f>Confirmed!Y3/Testing!Y3</f>
         <v>0.01727861771</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="23">
         <f>Confirmed!Z3/Testing!Z3</f>
         <v>0.01834862385</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA4" s="23">
         <f>Confirmed!AA3/Testing!AA3</f>
         <v>0.0156097561</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AB4" s="23">
         <f>Confirmed!AB3/Testing!AB3</f>
         <v>0.01481481481</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4" s="23">
         <f>Confirmed!AC3/Testing!AC3</f>
         <v>0.01380500431</v>
       </c>
-      <c r="AD4" s="22">
+      <c r="AD4" s="23">
         <f>Confirmed!AD3/Testing!AD3</f>
         <v>0.01299756296</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="23">
         <f>Confirmed!AE3/Testing!AE3</f>
         <v>0.01230769231</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AF4" s="23">
         <f>Confirmed!AF3/Testing!AF3</f>
         <v>0.01248164464</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AG4" s="23">
         <f>Confirmed!AG3/Testing!AG3</f>
         <v>0.01179736294</v>
       </c>
-      <c r="AH4" s="22">
+      <c r="AH4" s="23">
         <f>Confirmed!AH3/Testing!AH3</f>
         <v>0.01134846462</v>
       </c>
-      <c r="AI4" s="22">
+      <c r="AI4" s="23">
         <f>Confirmed!AI3/Testing!AI3</f>
         <v>0.01067839196</v>
       </c>
-      <c r="AJ4" s="22">
+      <c r="AJ4" s="23">
         <f>Confirmed!AJ3/Testing!AJ3</f>
         <v>0.01014319809</v>
       </c>
-      <c r="AK4" s="22">
+      <c r="AK4" s="23">
         <f>Confirmed!AK3/Testing!AK3</f>
         <v>0.01024473534</v>
       </c>
-      <c r="AL4" s="22">
+      <c r="AL4" s="23">
         <f>Confirmed!AL3/Testing!AL3</f>
         <v>0.01234567901</v>
       </c>
-      <c r="AM4" s="22">
+      <c r="AM4" s="23">
         <f>Confirmed!AM3/Testing!AM3</f>
         <v>0.01209677419</v>
       </c>
-      <c r="AN4" s="22">
+      <c r="AN4" s="23">
         <f>Confirmed!AN3/Testing!AN3</f>
         <v>0.01201923077</v>
       </c>
-      <c r="AO4" s="22">
+      <c r="AO4" s="23">
         <f>Confirmed!AO3/Testing!AO3</f>
         <v>0.01200923788</v>
       </c>
-      <c r="AP4" s="22">
+      <c r="AP4" s="23">
         <f>Confirmed!AP3/Testing!AP3</f>
         <v>0.0115248227</v>
       </c>
-      <c r="AQ4" s="22">
+      <c r="AQ4" s="23">
         <f>Confirmed!AQ3/Testing!AQ3</f>
         <v>0.009694793537</v>
       </c>
-      <c r="AR4" s="22">
+      <c r="AR4" s="23">
         <f>Confirmed!AR3/Testing!AR3</f>
         <v>0.009202453988</v>
       </c>
-      <c r="AS4" s="22">
+      <c r="AS4" s="23">
         <f>Confirmed!AS3/Testing!AS3</f>
         <v>0.009064422143</v>
       </c>
-      <c r="AT4" s="22">
+      <c r="AT4" s="23">
         <f>Confirmed!AT3/Testing!AT3</f>
         <v>0.008912108175</v>
       </c>
-      <c r="AU4" s="22">
+      <c r="AU4" s="23">
         <f>Confirmed!AU3/Testing!AU3</f>
         <v>0.008839127873</v>
       </c>
-      <c r="AV4" s="22">
+      <c r="AV4" s="23">
         <f>Confirmed!AV3/Testing!AV3</f>
         <v>0.008513053348</v>
       </c>
-      <c r="AW4" s="22">
+      <c r="AW4" s="23">
         <f>Confirmed!AW3/Testing!AW3</f>
         <v>0.008145533532</v>
       </c>
-      <c r="AX4" s="22">
+      <c r="AX4" s="23">
         <f>Confirmed!AX3/Testing!AX3</f>
         <v>0.008162190627</v>
       </c>
-      <c r="AY4" s="22">
+      <c r="AY4" s="23">
         <f>Confirmed!AY3/Testing!AY3</f>
         <v>0.008559919436</v>
       </c>
-      <c r="AZ4" s="22">
+      <c r="AZ4" s="23">
         <f>Confirmed!AZ3/Testing!AZ3</f>
         <v>0.008450024143</v>
       </c>
-      <c r="BA4" s="22">
+      <c r="BA4" s="23">
         <f>Confirmed!BA3/Testing!BA3</f>
         <v>0.008519456597</v>
       </c>
-      <c r="BB4" s="22">
+      <c r="BB4" s="23">
         <f>Confirmed!BB3/Testing!BB3</f>
         <v>0.008266309205</v>
       </c>
-      <c r="BC4" s="22">
+      <c r="BC4" s="23">
         <f>Confirmed!BC3/Testing!BC3</f>
         <v>0.008036490009</v>
       </c>
-      <c r="BD4" s="22">
+      <c r="BD4" s="23">
         <f>Confirmed!BD3/Testing!BD3</f>
         <v>0.007956448911</v>
       </c>
-      <c r="BE4" s="22">
+      <c r="BE4" s="23">
         <f>Confirmed!BE3/Testing!BE3</f>
         <v>0.00747323773</v>
       </c>
-      <c r="BF4" s="22">
+      <c r="BF4" s="23">
         <f>Confirmed!BF3/Testing!BF3</f>
         <v>0.007621653312</v>
       </c>
-      <c r="BG4" s="22">
+      <c r="BG4" s="23">
         <f>Confirmed!BG3/Testing!BG3</f>
         <v>0.007521624671</v>
       </c>
-      <c r="BH4" s="22">
+      <c r="BH4" s="23">
         <f>Confirmed!BH3/Testing!BH3</f>
         <v>0.007271405199</v>
       </c>
-      <c r="BI4" s="22">
+      <c r="BI4" s="23">
         <f>Confirmed!BI3/Testing!BI3</f>
         <v>0.008002845456</v>
       </c>
-      <c r="BJ4" s="22"/>
+      <c r="BJ4" s="23">
+        <f>Confirmed!BJ3/Testing!BJ3</f>
+        <v>0.007880910683</v>
+      </c>
+      <c r="BK4" s="23">
+        <f>Confirmed!BK3/Testing!BK3</f>
+        <v>0.008022731071</v>
+      </c>
+      <c r="BL4" s="23"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="23">
         <f>Confirmed!B4/Testing!B4</f>
         <v>0.01425178147</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="23">
         <f>Confirmed!C4/Testing!C4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="23">
         <f>Confirmed!D4/Testing!D4</f>
         <v>0.01142857143</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="23">
         <f>Confirmed!E4/Testing!E4</f>
         <v>0.01410934744</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="23">
         <f>Confirmed!F4/Testing!F4</f>
         <v>0.01320132013</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="23">
         <f>Confirmed!G4/Testing!G4</f>
         <v>0.01376146789</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="23">
         <f>Confirmed!H4/Testing!H4</f>
         <v>0.01271186441</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="23">
         <f>Confirmed!I4/Testing!I4</f>
         <v>0.01211305518</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="23">
         <f>Confirmed!J4/Testing!J4</f>
         <v>0.01381909548</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="23">
         <f>Confirmed!K4/Testing!K4</f>
         <v>0.01311084625</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="23">
         <f>Confirmed!L4/Testing!L4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="23">
         <f>Confirmed!M4/Testing!M4</f>
         <v>0.01283547258</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="23">
         <f>Confirmed!N4/Testing!N4</f>
         <v>0.01594048884</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="23">
         <f>Confirmed!O4/Testing!O4</f>
         <v>0.01476377953</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="23">
         <f>Confirmed!P4/Testing!P4</f>
         <v>0.01669758813</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="23">
         <f>Confirmed!Q4/Testing!Q4</f>
         <v>0.01714801444</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="23">
         <f>Confirmed!R4/Testing!R4</f>
         <v>0.01607445008</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="23">
         <f>Confirmed!S4/Testing!S4</f>
         <v>0.01781376518</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="23">
         <f>Confirmed!T4/Testing!T4</f>
         <v>0.01713395639</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="23">
         <f>Confirmed!U4/Testing!U4</f>
         <v>0.01721556886</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="23">
         <f>Confirmed!V4/Testing!V4</f>
         <v>0.017106201</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="23">
         <f>Confirmed!W4/Testing!W4</f>
         <v>0.01612903226</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="23">
         <f>Confirmed!X4/Testing!X4</f>
         <v>0.01505646173</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="23">
         <f>Confirmed!Y4/Testing!Y4</f>
         <v>0.0141760189</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="23">
         <f>Confirmed!Z4/Testing!Z4</f>
         <v>0.0139431121</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="AA5" s="23">
         <f>Confirmed!AA4/Testing!AA4</f>
         <v>0.01281366791</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AB5" s="23">
         <f>Confirmed!AB4/Testing!AB4</f>
         <v>0.01215805471</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="23">
         <f>Confirmed!AC4/Testing!AC4</f>
         <v>0.01179801793</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5" s="23">
         <f>Confirmed!AD4/Testing!AD4</f>
         <v>0.01111605158</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="23">
         <f>Confirmed!AE4/Testing!AE4</f>
         <v>0.01178451178</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AF5" s="23">
         <f>Confirmed!AF4/Testing!AF4</f>
         <v>0.01124949779</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5" s="23">
         <f>Confirmed!AG4/Testing!AG4</f>
         <v>0.0106302202</v>
       </c>
-      <c r="AH5" s="22">
+      <c r="AH5" s="23">
         <f>Confirmed!AH4/Testing!AH4</f>
         <v>0.01059167275</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="23">
         <f>Confirmed!AI4/Testing!AI4</f>
         <v>0.009969061533</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="23">
         <f>Confirmed!AJ4/Testing!AJ4</f>
         <v>0.0101207966</v>
       </c>
-      <c r="AK5" s="22">
+      <c r="AK5" s="23">
         <f>Confirmed!AK4/Testing!AK4</f>
         <v>0.01090342679</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AL5" s="23">
         <f>Confirmed!AL4/Testing!AL4</f>
         <v>0.01028202115</v>
       </c>
-      <c r="AM5" s="22">
+      <c r="AM5" s="23">
         <f>Confirmed!AM4/Testing!AM4</f>
         <v>0.009925558313</v>
       </c>
-      <c r="AN5" s="22">
+      <c r="AN5" s="23">
         <f>Confirmed!AN4/Testing!AN4</f>
         <v>0.009208103131</v>
       </c>
-      <c r="AO5" s="22">
+      <c r="AO5" s="23">
         <f>Confirmed!AO4/Testing!AO4</f>
         <v>0.008847320526</v>
       </c>
-      <c r="AP5" s="22">
+      <c r="AP5" s="23">
         <f>Confirmed!AP4/Testing!AP4</f>
         <v>0.008974048023</v>
       </c>
-      <c r="AQ5" s="22">
+      <c r="AQ5" s="23">
         <f>Confirmed!AQ4/Testing!AQ4</f>
         <v>0.009101251422</v>
       </c>
-      <c r="AR5" s="22">
+      <c r="AR5" s="23">
         <f>Confirmed!AR4/Testing!AR4</f>
         <v>0.009071274298</v>
       </c>
-      <c r="AS5" s="22">
+      <c r="AS5" s="23">
         <f>Confirmed!AS4/Testing!AS4</f>
         <v>0.00841025641</v>
       </c>
-      <c r="AT5" s="22">
+      <c r="AT5" s="23">
         <f>Confirmed!AT4/Testing!AT4</f>
         <v>0.00876338851</v>
       </c>
-      <c r="AU5" s="22">
+      <c r="AU5" s="23">
         <f>Confirmed!AU4/Testing!AU4</f>
         <v>0.009335324869</v>
       </c>
-      <c r="AV5" s="22">
+      <c r="AV5" s="23">
         <f>Confirmed!AV4/Testing!AV4</f>
         <v>0.009171012408</v>
       </c>
-      <c r="AW5" s="22">
+      <c r="AW5" s="23">
         <f>Confirmed!AW4/Testing!AW4</f>
         <v>0.008947006194</v>
       </c>
-      <c r="AX5" s="22">
+      <c r="AX5" s="23">
         <f>Confirmed!AX4/Testing!AX4</f>
         <v>0.008260931491</v>
       </c>
-      <c r="AY5" s="22">
+      <c r="AY5" s="23">
         <f>Confirmed!AY4/Testing!AY4</f>
         <v>0.008578431373</v>
       </c>
-      <c r="AZ5" s="22">
+      <c r="AZ5" s="23">
         <f>Confirmed!AZ4/Testing!AZ4</f>
         <v>0.00835727344</v>
       </c>
-      <c r="BA5" s="22">
+      <c r="BA5" s="23">
         <f>Confirmed!BA4/Testing!BA4</f>
         <v>0.008718395815</v>
       </c>
-      <c r="BB5" s="22">
+      <c r="BB5" s="23">
         <f>Confirmed!BB4/Testing!BB4</f>
         <v>0.008699855002</v>
       </c>
-      <c r="BC5" s="22">
+      <c r="BC5" s="23">
         <f>Confirmed!BC4/Testing!BC4</f>
         <v>0.008458646617</v>
       </c>
-      <c r="BD5" s="22">
+      <c r="BD5" s="23">
         <f>Confirmed!BD4/Testing!BD4</f>
         <v>0.008154020385</v>
       </c>
-      <c r="BE5" s="22">
+      <c r="BE5" s="23">
         <f>Confirmed!BE4/Testing!BE4</f>
         <v>0.008411623334</v>
       </c>
-      <c r="BF5" s="22">
+      <c r="BF5" s="23">
         <f>Confirmed!BF4/Testing!BF4</f>
         <v>0.008456659619</v>
       </c>
-      <c r="BG5" s="22">
+      <c r="BG5" s="23">
         <f>Confirmed!BG4/Testing!BG4</f>
         <v>0.008238405207</v>
       </c>
-      <c r="BH5" s="22">
+      <c r="BH5" s="23">
         <f>Confirmed!BH4/Testing!BH4</f>
         <v>0.009241962442</v>
       </c>
-      <c r="BI5" s="22">
+      <c r="BI5" s="23">
         <f>Confirmed!BI4/Testing!BI4</f>
         <v>0.01048480185</v>
       </c>
-      <c r="BJ5" s="22"/>
+      <c r="BJ5" s="23">
+        <f>Confirmed!BJ4/Testing!BJ4</f>
+        <v>0.01089324619</v>
+      </c>
+      <c r="BK5" s="23">
+        <f>Confirmed!BK4/Testing!BK4</f>
+        <v>0.01157114446</v>
+      </c>
+      <c r="BL5" s="23"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="23">
         <f>Confirmed!B5/Testing!B5</f>
         <v>0.01145038168</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="23">
         <f>Confirmed!C5/Testing!C5</f>
         <v>0.0113507378</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="23">
         <f>Confirmed!D5/Testing!D5</f>
         <v>0.01121304791</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <f>Confirmed!E5/Testing!E5</f>
         <v>0.01039697543</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <f>Confirmed!F5/Testing!F5</f>
         <v>0.01060070671</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <f>Confirmed!G5/Testing!G5</f>
         <v>0.009836065574</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="23">
         <f>Confirmed!H5/Testing!H5</f>
         <v>0.009841029523</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="23">
         <f>Confirmed!I5/Testing!I5</f>
         <v>0.009372746936</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="23">
         <f>Confirmed!J5/Testing!J5</f>
         <v>0.01211305518</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="23">
         <f>Confirmed!K5/Testing!K5</f>
         <v>0.01148691768</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="23">
         <f>Confirmed!L5/Testing!L5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="23">
         <f>Confirmed!M5/Testing!M5</f>
         <v>0.01124297314</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="23">
         <f>Confirmed!N5/Testing!N5</f>
         <v>0.01195219124</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="23">
         <f>Confirmed!O5/Testing!O5</f>
         <v>0.0105374078</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="23">
         <f>Confirmed!P5/Testing!P5</f>
         <v>0.009940357853</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="23">
         <f>Confirmed!Q5/Testing!Q5</f>
         <v>0.009671179884</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="23">
         <f>Confirmed!R5/Testing!R5</f>
         <v>0.009519492294</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="23">
         <f>Confirmed!S5/Testing!S5</f>
         <v>0.009544468547</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="23">
         <f>Confirmed!T5/Testing!T5</f>
         <v>0.009178139341</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="23">
         <f>Confirmed!U5/Testing!U5</f>
         <v>0.00882117081</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="23">
         <f>Confirmed!V5/Testing!V5</f>
         <v>0.00840015273</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="23">
         <f>Confirmed!W5/Testing!W5</f>
         <v>0.008279337653</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="23">
         <f>Confirmed!X5/Testing!X5</f>
         <v>0.008400537634</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="23">
         <f>Confirmed!Y5/Testing!Y5</f>
         <v>0.007278481013</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="23">
         <f>Confirmed!Z5/Testing!Z5</f>
         <v>0.006869772999</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AA6" s="23">
         <f>Confirmed!AA5/Testing!AA5</f>
         <v>0.00686302545</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AB6" s="23">
         <f>Confirmed!AB5/Testing!AB5</f>
         <v>0.00623982637</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="23">
         <f>Confirmed!AC5/Testing!AC5</f>
         <v>0.005815423515</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AD6" s="23">
         <f>Confirmed!AD5/Testing!AD5</f>
         <v>0.005717008099</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="23">
         <f>Confirmed!AE5/Testing!AE5</f>
         <v>0.005184851217</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AF6" s="23">
         <f>Confirmed!AF5/Testing!AF5</f>
         <v>0.00495049505</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="23">
         <f>Confirmed!AG5/Testing!AG5</f>
         <v>0.0052877771</v>
       </c>
-      <c r="AH6" s="22">
+      <c r="AH6" s="23">
         <f>Confirmed!AH5/Testing!AH5</f>
         <v>0.004695754256</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="23">
         <f>Confirmed!AI5/Testing!AI5</f>
         <v>0.005707972749</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="23">
         <f>Confirmed!AJ5/Testing!AJ5</f>
         <v>0.00629590766</v>
       </c>
-      <c r="AK6" s="22">
+      <c r="AK6" s="23">
         <f>Confirmed!AK5/Testing!AK5</f>
         <v>0.005840146838</v>
       </c>
-      <c r="AL6" s="22">
+      <c r="AL6" s="23">
         <f>Confirmed!AL5/Testing!AL5</f>
         <v>0.006294256491</v>
       </c>
-      <c r="AM6" s="22">
+      <c r="AM6" s="23">
         <f>Confirmed!AM5/Testing!AM5</f>
         <v>0.006794682422</v>
       </c>
-      <c r="AN6" s="22">
+      <c r="AN6" s="23">
         <f>Confirmed!AN5/Testing!AN5</f>
         <v>0.007470049331</v>
       </c>
-      <c r="AO6" s="22">
+      <c r="AO6" s="23">
         <f>Confirmed!AO5/Testing!AO5</f>
         <v>0.007718348003</v>
       </c>
-      <c r="AP6" s="22">
+      <c r="AP6" s="23">
         <f>Confirmed!AP5/Testing!AP5</f>
         <v>0.007405482656</v>
       </c>
-      <c r="AQ6" s="22">
+      <c r="AQ6" s="23">
         <f>Confirmed!AQ5/Testing!AQ5</f>
         <v>0.006835824354</v>
       </c>
-      <c r="AR6" s="22">
+      <c r="AR6" s="23">
         <f>Confirmed!AR5/Testing!AR5</f>
         <v>0.006599208095</v>
       </c>
-      <c r="AS6" s="22">
+      <c r="AS6" s="23">
         <f>Confirmed!AS5/Testing!AS5</f>
         <v>0.006371422603</v>
       </c>
-      <c r="AT6" s="22">
+      <c r="AT6" s="23">
         <f>Confirmed!AT5/Testing!AT5</f>
         <v>0.006049186831</v>
       </c>
-      <c r="AU6" s="22">
+      <c r="AU6" s="23">
         <f>Confirmed!AU5/Testing!AU5</f>
         <v>0.005989162468</v>
       </c>
-      <c r="AV6" s="22">
+      <c r="AV6" s="23">
         <f>Confirmed!AV5/Testing!AV5</f>
         <v>0.005768174327</v>
       </c>
-      <c r="AW6" s="22">
+      <c r="AW6" s="23">
         <f>Confirmed!AW5/Testing!AW5</f>
         <v>0.005782372525</v>
       </c>
-      <c r="AX6" s="22">
+      <c r="AX6" s="23">
         <f>Confirmed!AX5/Testing!AX5</f>
         <v>0.005631198521</v>
       </c>
-      <c r="AY6" s="22">
+      <c r="AY6" s="23">
         <f>Confirmed!AY5/Testing!AY5</f>
         <v>0.005383255664</v>
       </c>
-      <c r="AZ6" s="22">
+      <c r="AZ6" s="23">
         <f>Confirmed!AZ5/Testing!AZ5</f>
         <v>0.005240040071</v>
       </c>
-      <c r="BA6" s="22">
+      <c r="BA6" s="23">
         <f>Confirmed!BA5/Testing!BA5</f>
         <v>0.00521828605</v>
       </c>
-      <c r="BB6" s="22">
+      <c r="BB6" s="23">
         <f>Confirmed!BB5/Testing!BB5</f>
         <v>0.005418894831</v>
       </c>
-      <c r="BC6" s="22">
+      <c r="BC6" s="23">
         <f>Confirmed!BC5/Testing!BC5</f>
         <v>0.005407279029</v>
       </c>
-      <c r="BD6" s="22">
+      <c r="BD6" s="23">
         <f>Confirmed!BD5/Testing!BD5</f>
         <v>0.006214915798</v>
       </c>
-      <c r="BE6" s="22">
+      <c r="BE6" s="23">
         <f>Confirmed!BE5/Testing!BE5</f>
         <v>0.006124290872</v>
       </c>
-      <c r="BF6" s="22">
+      <c r="BF6" s="23">
         <f>Confirmed!BF5/Testing!BF5</f>
         <v>0.006112774451</v>
       </c>
-      <c r="BG6" s="22">
+      <c r="BG6" s="23">
         <f>Confirmed!BG5/Testing!BG5</f>
         <v>0.005821630056</v>
       </c>
-      <c r="BH6" s="22">
+      <c r="BH6" s="23">
         <f>Confirmed!BH5/Testing!BH5</f>
         <v>0.00585948831</v>
       </c>
-      <c r="BI6" s="22">
+      <c r="BI6" s="23">
         <f>Confirmed!BI5/Testing!BI5</f>
         <v>0.005789204836</v>
       </c>
-      <c r="BJ6" s="22"/>
+      <c r="BJ6" s="23">
+        <f>Confirmed!BJ5/Testing!BJ5</f>
+        <v>0.005757084568</v>
+      </c>
+      <c r="BK6" s="23">
+        <f>Confirmed!BK5/Testing!BK5</f>
+        <v>0.005654238011</v>
+      </c>
+      <c r="BL6" s="23"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="23">
         <f>Confirmed!B6/Testing!B6</f>
         <v>0.009244992296</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="23">
         <f>Confirmed!C6/Testing!C6</f>
         <v>0.015130674</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="23">
         <f>Confirmed!D6/Testing!D6</f>
         <v>0.01483312732</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="23">
         <f>Confirmed!E6/Testing!E6</f>
         <v>0.0126002291</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <f>Confirmed!F6/Testing!F6</f>
         <v>0.01498929336</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <f>Confirmed!G6/Testing!G6</f>
         <v>0.01390268123</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <f>Confirmed!H6/Testing!H6</f>
         <v>0.01466544455</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="23">
         <f>Confirmed!I6/Testing!I6</f>
         <v>0.01397379913</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="23">
         <f>Confirmed!J6/Testing!J6</f>
         <v>0.01466992665</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="23">
         <f>Confirmed!K6/Testing!K6</f>
         <v>0.01469450889</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="23">
         <f>Confirmed!L6/Testing!L6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="23">
         <f>Confirmed!M6/Testing!M6</f>
         <v>0.01438304315</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="23">
         <f>Confirmed!N6/Testing!N6</f>
         <v>0.01448275862</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="23">
         <f>Confirmed!O6/Testing!O6</f>
         <v>0.01404853129</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="23">
         <f>Confirmed!P6/Testing!P6</f>
         <v>0.01444912703</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="23">
         <f>Confirmed!Q6/Testing!Q6</f>
         <v>0.01347393087</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="23">
         <f>Confirmed!R6/Testing!R6</f>
         <v>0.01263042284</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="23">
         <f>Confirmed!S6/Testing!S6</f>
         <v>0.01209253417</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="23">
         <f>Confirmed!T6/Testing!T6</f>
         <v>0.01212733704</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="23">
         <f>Confirmed!U6/Testing!U6</f>
         <v>0.01214771623</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="23">
         <f>Confirmed!V6/Testing!V6</f>
         <v>0.01202590194</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="23">
         <f>Confirmed!W6/Testing!W6</f>
         <v>0.01133885739</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="23">
         <f>Confirmed!X6/Testing!X6</f>
         <v>0.01058631922</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="23">
         <f>Confirmed!Y6/Testing!Y6</f>
         <v>0.01035276074</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="23">
         <f>Confirmed!Z6/Testing!Z6</f>
         <v>0.009771986971</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="AA7" s="23">
         <f>Confirmed!AA6/Testing!AA6</f>
         <v>0.009352268791</v>
       </c>
-      <c r="AB7" s="22">
+      <c r="AB7" s="23">
         <f>Confirmed!AB6/Testing!AB6</f>
         <v>0.008875739645</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7" s="23">
         <f>Confirmed!AC6/Testing!AC6</f>
         <v>0.008269525268</v>
       </c>
-      <c r="AD7" s="22">
+      <c r="AD7" s="23">
         <f>Confirmed!AD6/Testing!AD6</f>
         <v>0.008369408369</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="23">
         <f>Confirmed!AE6/Testing!AE6</f>
         <v>0.008194482382</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AF7" s="23">
         <f>Confirmed!AF6/Testing!AF6</f>
         <v>0.008083441982</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="23">
         <f>Confirmed!AG6/Testing!AG6</f>
         <v>0.007639231148</v>
       </c>
-      <c r="AH7" s="22">
+      <c r="AH7" s="23">
         <f>Confirmed!AH6/Testing!AH6</f>
         <v>0.007349454718</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="23">
         <f>Confirmed!AI6/Testing!AI6</f>
         <v>0.006915012269</v>
       </c>
-      <c r="AJ7" s="22">
+      <c r="AJ7" s="23">
         <f>Confirmed!AJ6/Testing!AJ6</f>
         <v>0.00678109769</v>
       </c>
-      <c r="AK7" s="22">
+      <c r="AK7" s="23">
         <f>Confirmed!AK6/Testing!AK6</f>
         <v>0.006874241812</v>
       </c>
-      <c r="AL7" s="22">
+      <c r="AL7" s="23">
         <f>Confirmed!AL6/Testing!AL6</f>
         <v>0.006862371331</v>
       </c>
-      <c r="AM7" s="22">
+      <c r="AM7" s="23">
         <f>Confirmed!AM6/Testing!AM6</f>
         <v>0.006621331424</v>
       </c>
-      <c r="AN7" s="22">
+      <c r="AN7" s="23">
         <f>Confirmed!AN6/Testing!AN6</f>
         <v>0.006659836066</v>
       </c>
-      <c r="AO7" s="22">
+      <c r="AO7" s="23">
         <f>Confirmed!AO6/Testing!AO6</f>
         <v>0.00656167979</v>
       </c>
-      <c r="AP7" s="22">
+      <c r="AP7" s="23">
         <f>Confirmed!AP6/Testing!AP6</f>
         <v>0.006296237998</v>
       </c>
-      <c r="AQ7" s="22">
+      <c r="AQ7" s="23">
         <f>Confirmed!AQ6/Testing!AQ6</f>
         <v>0.00658105939</v>
       </c>
-      <c r="AR7" s="22">
+      <c r="AR7" s="23">
         <f>Confirmed!AR6/Testing!AR6</f>
         <v>0.006551881761</v>
       </c>
-      <c r="AS7" s="22">
+      <c r="AS7" s="23">
         <f>Confirmed!AS6/Testing!AS6</f>
         <v>0.007379539864</v>
       </c>
-      <c r="AT7" s="22">
+      <c r="AT7" s="23">
         <f>Confirmed!AT6/Testing!AT6</f>
         <v>0.007418601456</v>
       </c>
-      <c r="AU7" s="22">
+      <c r="AU7" s="23">
         <f>Confirmed!AU6/Testing!AU6</f>
         <v>0.007111813512</v>
       </c>
-      <c r="AV7" s="22">
+      <c r="AV7" s="23">
         <f>Confirmed!AV6/Testing!AV6</f>
         <v>0.006849315068</v>
       </c>
-      <c r="AW7" s="22">
+      <c r="AW7" s="23">
         <f>Confirmed!AW6/Testing!AW6</f>
         <v>0.00655419347</v>
       </c>
-      <c r="AX7" s="22">
+      <c r="AX7" s="23">
         <f>Confirmed!AX6/Testing!AX6</f>
         <v>0.00653827865</v>
       </c>
-      <c r="AY7" s="22">
+      <c r="AY7" s="23">
         <f>Confirmed!AY6/Testing!AY6</f>
         <v>0.006478008865</v>
       </c>
-      <c r="AZ7" s="22">
+      <c r="AZ7" s="23">
         <f>Confirmed!AZ6/Testing!AZ6</f>
         <v>0.006431218661</v>
       </c>
-      <c r="BA7" s="22">
+      <c r="BA7" s="23">
         <f>Confirmed!BA6/Testing!BA6</f>
         <v>0.008004990124</v>
       </c>
-      <c r="BB7" s="22">
+      <c r="BB7" s="23">
         <f>Confirmed!BB6/Testing!BB6</f>
         <v>0.008875441251</v>
       </c>
-      <c r="BC7" s="22">
+      <c r="BC7" s="23">
         <f>Confirmed!BC6/Testing!BC6</f>
         <v>0.009217493626</v>
       </c>
-      <c r="BD7" s="22">
+      <c r="BD7" s="23">
         <f>Confirmed!BD6/Testing!BD6</f>
         <v>0.00879100104</v>
       </c>
-      <c r="BE7" s="22">
+      <c r="BE7" s="23">
         <f>Confirmed!BE6/Testing!BE6</f>
         <v>0.0110330993</v>
       </c>
-      <c r="BF7" s="22">
+      <c r="BF7" s="23">
         <f>Confirmed!BF6/Testing!BF6</f>
         <v>0.01058761249</v>
       </c>
-      <c r="BG7" s="22">
+      <c r="BG7" s="23">
         <f>Confirmed!BG6/Testing!BG6</f>
         <v>0.01052720944</v>
       </c>
-      <c r="BH7" s="22">
+      <c r="BH7" s="23">
         <f>Confirmed!BH6/Testing!BH6</f>
         <v>0.01050385688</v>
       </c>
-      <c r="BI7" s="22">
+      <c r="BI7" s="23">
         <f>Confirmed!BI6/Testing!BI6</f>
         <v>0.0105973025</v>
       </c>
-      <c r="BJ7" s="22"/>
+      <c r="BJ7" s="23">
+        <f>Confirmed!BJ6/Testing!BJ6</f>
+        <v>0.01043643264</v>
+      </c>
+      <c r="BK7" s="23">
+        <f>Confirmed!BK6/Testing!BK6</f>
+        <v>0.01063910058</v>
+      </c>
+      <c r="BL7" s="23"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="23">
         <f>Confirmed!B7/Testing!B7</f>
         <v>0.001903311762</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="23">
         <f>Confirmed!C7/Testing!C7</f>
         <v>0.003397893306</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="23">
         <f>Confirmed!D7/Testing!D7</f>
         <v>0.003661885871</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="23">
         <f>Confirmed!E7/Testing!E7</f>
         <v>0.003393665158</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="23">
         <f>Confirmed!F7/Testing!F7</f>
         <v>0.003173763555</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="23">
         <f>Confirmed!G7/Testing!G7</f>
         <v>0.003678273664</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="23">
         <f>Confirmed!H7/Testing!H7</f>
         <v>0.003849637681</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <f>Confirmed!I7/Testing!I7</f>
         <v>0.004529767041</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <f>Confirmed!J7/Testing!J7</f>
         <v>0.005034232783</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="23">
         <f>Confirmed!K7/Testing!K7</f>
         <v>0.005920550038</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="23">
         <f>Confirmed!L7/Testing!L7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="23">
         <f>Confirmed!M7/Testing!M7</f>
         <v>0.005982426622</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="23">
         <f>Confirmed!N7/Testing!N7</f>
         <v>0.007664793051</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="23">
         <f>Confirmed!O7/Testing!O7</f>
         <v>0.009619933764</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="23">
         <f>Confirmed!P7/Testing!P7</f>
         <v>0.0101145322</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="23">
         <f>Confirmed!Q7/Testing!Q7</f>
         <v>0.009986973513</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="23">
         <f>Confirmed!R7/Testing!R7</f>
         <v>0.01193544012</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="23">
         <f>Confirmed!S7/Testing!S7</f>
         <v>0.01350298624</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="23">
         <f>Confirmed!T7/Testing!T7</f>
         <v>0.02172013481</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="23">
         <f>Confirmed!U7/Testing!U7</f>
         <v>0.02388095524</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="23">
         <f>Confirmed!V7/Testing!V7</f>
         <v>0.025139984</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="23">
         <f>Confirmed!W7/Testing!W7</f>
         <v>0.02650290886</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="23">
         <f>Confirmed!X7/Testing!X7</f>
         <v>0.02714932127</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="23">
         <f>Confirmed!Y7/Testing!Y7</f>
         <v>0.02774621212</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="23">
         <f>Confirmed!Z7/Testing!Z7</f>
         <v>0.02771321294</v>
       </c>
-      <c r="AA8" s="22">
+      <c r="AA8" s="23">
         <f>Confirmed!AA7/Testing!AA7</f>
         <v>0.02952250556</v>
       </c>
-      <c r="AB8" s="22">
+      <c r="AB8" s="23">
         <f>Confirmed!AB7/Testing!AB7</f>
         <v>0.03061307349</v>
       </c>
-      <c r="AC8" s="22">
+      <c r="AC8" s="23">
         <f>Confirmed!AC7/Testing!AC7</f>
         <v>0.03155027616</v>
       </c>
-      <c r="AD8" s="22">
+      <c r="AD8" s="23">
         <f>Confirmed!AD7/Testing!AD7</f>
         <v>0.03421484069</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="23">
         <f>Confirmed!AE7/Testing!AE7</f>
         <v>0.03292403184</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AF8" s="23">
         <f>Confirmed!AF7/Testing!AF7</f>
         <v>0.0344605475</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8" s="23">
         <f>Confirmed!AG7/Testing!AG7</f>
         <v>0.03578819233</v>
       </c>
-      <c r="AH8" s="22">
+      <c r="AH8" s="23">
         <f>Confirmed!AH7/Testing!AH7</f>
         <v>0.03607190959</v>
       </c>
-      <c r="AI8" s="22">
+      <c r="AI8" s="23">
         <f>Confirmed!AI7/Testing!AI7</f>
         <v>0.0347145691</v>
       </c>
-      <c r="AJ8" s="22">
+      <c r="AJ8" s="23">
         <f>Confirmed!AJ7/Testing!AJ7</f>
         <v>0.03386548024</v>
       </c>
-      <c r="AK8" s="22">
+      <c r="AK8" s="23">
         <f>Confirmed!AK7/Testing!AK7</f>
         <v>0.03450686642</v>
       </c>
-      <c r="AL8" s="22">
+      <c r="AL8" s="23">
         <f>Confirmed!AL7/Testing!AL7</f>
         <v>0.03446814522</v>
       </c>
-      <c r="AM8" s="22">
+      <c r="AM8" s="23">
         <f>Confirmed!AM7/Testing!AM7</f>
         <v>0.03421145686</v>
       </c>
-      <c r="AN8" s="22">
+      <c r="AN8" s="23">
         <f>Confirmed!AN7/Testing!AN7</f>
         <v>0.03433150569</v>
       </c>
-      <c r="AO8" s="22">
+      <c r="AO8" s="23">
         <f>Confirmed!AO7/Testing!AO7</f>
         <v>0.03395737094</v>
       </c>
-      <c r="AP8" s="22">
+      <c r="AP8" s="23">
         <f>Confirmed!AP7/Testing!AP7</f>
         <v>0.03300933126</v>
       </c>
-      <c r="AQ8" s="22">
+      <c r="AQ8" s="23">
         <f>Confirmed!AQ7/Testing!AQ7</f>
         <v>0.03222673188</v>
       </c>
-      <c r="AR8" s="22">
+      <c r="AR8" s="23">
         <f>Confirmed!AR7/Testing!AR7</f>
         <v>0.03256932095</v>
       </c>
-      <c r="AS8" s="22">
+      <c r="AS8" s="23">
         <f>Confirmed!AS7/Testing!AS7</f>
         <v>0.03371173031</v>
       </c>
-      <c r="AT8" s="22">
+      <c r="AT8" s="23">
         <f>Confirmed!AT7/Testing!AT7</f>
         <v>0.03616389549</v>
       </c>
-      <c r="AU8" s="22">
+      <c r="AU8" s="23">
         <f>Confirmed!AU7/Testing!AU7</f>
         <v>0.03859509307</v>
       </c>
-      <c r="AV8" s="22">
+      <c r="AV8" s="23">
         <f>Confirmed!AV7/Testing!AV7</f>
         <v>0.04122920036</v>
       </c>
-      <c r="AW8" s="22">
+      <c r="AW8" s="23">
         <f>Confirmed!AW7/Testing!AW7</f>
         <v>0.04023923194</v>
       </c>
-      <c r="AX8" s="22">
+      <c r="AX8" s="23">
         <f>Confirmed!AX7/Testing!AX7</f>
         <v>0.03802991008</v>
       </c>
-      <c r="AY8" s="22">
+      <c r="AY8" s="23">
         <f>Confirmed!AY7/Testing!AY7</f>
         <v>0.03851233924</v>
       </c>
-      <c r="AZ8" s="22">
+      <c r="AZ8" s="23">
         <f>Confirmed!AZ7/Testing!AZ7</f>
         <v>0.04026845638</v>
       </c>
-      <c r="BA8" s="22">
+      <c r="BA8" s="23">
         <f>Confirmed!BA7/Testing!BA7</f>
         <v>0.04103433658</v>
       </c>
-      <c r="BB8" s="22">
+      <c r="BB8" s="23">
         <f>Confirmed!BB7/Testing!BB7</f>
         <v>0.04219270469</v>
       </c>
-      <c r="BC8" s="22">
+      <c r="BC8" s="23">
         <f>Confirmed!BC7/Testing!BC7</f>
         <v>0.04268292683</v>
       </c>
-      <c r="BD8" s="22">
+      <c r="BD8" s="23">
         <f>Confirmed!BD7/Testing!BD7</f>
         <v>0.04268809744</v>
       </c>
-      <c r="BE8" s="22">
+      <c r="BE8" s="23">
         <f>Confirmed!BE7/Testing!BE7</f>
         <v>0.04320585993</v>
       </c>
-      <c r="BF8" s="22">
+      <c r="BF8" s="23">
         <f>Confirmed!BF7/Testing!BF7</f>
         <v>0.04423377885</v>
       </c>
-      <c r="BG8" s="22">
+      <c r="BG8" s="23">
         <f>Confirmed!BG7/Testing!BG7</f>
         <v>0.04446559931</v>
       </c>
-      <c r="BH8" s="22">
+      <c r="BH8" s="23">
         <f>Confirmed!BH7/Testing!BH7</f>
         <v>0.04500585578</v>
       </c>
-      <c r="BI8" s="22">
+      <c r="BI8" s="23">
         <f>Confirmed!BI7/Testing!BI7</f>
         <v>0.04498060334</v>
       </c>
-      <c r="BJ8" s="22"/>
+      <c r="BJ8" s="23">
+        <f>Confirmed!BJ7/Testing!BJ7</f>
+        <v>0.04616674189</v>
+      </c>
+      <c r="BK8" s="23">
+        <f>Confirmed!BK7/Testing!BK7</f>
+        <v>0.04687331744</v>
+      </c>
+      <c r="BL8" s="23"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="23">
         <f>Confirmed!B8/Testing!B8</f>
         <v>0.03363074811</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="23">
         <f>Confirmed!C8/Testing!C8</f>
         <v>0.04166666667</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="23">
         <f>Confirmed!D8/Testing!D8</f>
         <v>0.03962575674</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="23">
         <f>Confirmed!E8/Testing!E8</f>
         <v>0.03671596124</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <f>Confirmed!F8/Testing!F8</f>
         <v>0.03528850739</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="23">
         <f>Confirmed!G8/Testing!G8</f>
         <v>0.03361344538</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="23">
         <f>Confirmed!H8/Testing!H8</f>
         <v>0.03429971417</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="23">
         <f>Confirmed!I8/Testing!I8</f>
         <v>0.03267211202</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <f>Confirmed!J8/Testing!J8</f>
         <v>0.03086419753</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="23">
         <f>Confirmed!K8/Testing!K8</f>
         <v>0.02995867769</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="23">
         <f>Confirmed!L8/Testing!L8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="23">
         <f>Confirmed!M8/Testing!M8</f>
         <v>0.03000674309</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="23">
         <f>Confirmed!N8/Testing!N8</f>
         <v>0.02702702703</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="23">
         <f>Confirmed!O8/Testing!O8</f>
         <v>0.02645051195</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="23">
         <f>Confirmed!P8/Testing!P8</f>
         <v>0.02520783052</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="23">
         <f>Confirmed!Q8/Testing!Q8</f>
         <v>0.0245302714</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="23">
         <f>Confirmed!R8/Testing!R8</f>
         <v>0.02347762289</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="23">
         <f>Confirmed!S8/Testing!S8</f>
         <v>0.02247191011</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="23">
         <f>Confirmed!T8/Testing!T8</f>
         <v>0.02205716858</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="23">
         <f>Confirmed!U8/Testing!U8</f>
         <v>0.02099112746</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="23">
         <f>Confirmed!V8/Testing!V8</f>
         <v>0.02019369462</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="23">
         <f>Confirmed!W8/Testing!W8</f>
         <v>0.01942501943</v>
       </c>
-      <c r="X9" s="22">
+      <c r="X9" s="23">
         <f>Confirmed!X8/Testing!X8</f>
         <v>0.01813236627</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="Y9" s="23">
         <f>Confirmed!Y8/Testing!Y8</f>
         <v>0.01707358716</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="23">
         <f>Confirmed!Z8/Testing!Z8</f>
         <v>0.0169245648</v>
       </c>
-      <c r="AA9" s="22">
+      <c r="AA9" s="23">
         <f>Confirmed!AA8/Testing!AA8</f>
         <v>0.01635550069</v>
       </c>
-      <c r="AB9" s="22">
+      <c r="AB9" s="23">
         <f>Confirmed!AB8/Testing!AB8</f>
         <v>0.01551976574</v>
       </c>
-      <c r="AC9" s="22">
+      <c r="AC9" s="23">
         <f>Confirmed!AC8/Testing!AC8</f>
         <v>0.01446111869</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AD9" s="23">
         <f>Confirmed!AD8/Testing!AD8</f>
         <v>0.01426735219</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9" s="23">
         <f>Confirmed!AE8/Testing!AE8</f>
         <v>0.01350364964</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AF9" s="23">
         <f>Confirmed!AF8/Testing!AF8</f>
         <v>0.01277584204</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AG9" s="23">
         <f>Confirmed!AG8/Testing!AG8</f>
         <v>0.01218173837</v>
       </c>
-      <c r="AH9" s="22">
+      <c r="AH9" s="23">
         <f>Confirmed!AH8/Testing!AH8</f>
         <v>0.01193115827</v>
       </c>
-      <c r="AI9" s="22">
+      <c r="AI9" s="23">
         <f>Confirmed!AI8/Testing!AI8</f>
         <v>0.01122702434</v>
       </c>
-      <c r="AJ9" s="22">
+      <c r="AJ9" s="23">
         <f>Confirmed!AJ8/Testing!AJ8</f>
         <v>0.01094752737</v>
       </c>
-      <c r="AK9" s="22">
+      <c r="AK9" s="23">
         <f>Confirmed!AK8/Testing!AK8</f>
         <v>0.01062488745</v>
       </c>
-      <c r="AL9" s="22">
+      <c r="AL9" s="23">
         <f>Confirmed!AL8/Testing!AL8</f>
         <v>0.01027339107</v>
       </c>
-      <c r="AM9" s="22">
+      <c r="AM9" s="23">
         <f>Confirmed!AM8/Testing!AM8</f>
         <v>0.009723439866</v>
       </c>
-      <c r="AN9" s="22">
+      <c r="AN9" s="23">
         <f>Confirmed!AN8/Testing!AN8</f>
         <v>0.009506426344</v>
       </c>
-      <c r="AO9" s="22">
+      <c r="AO9" s="23">
         <f>Confirmed!AO8/Testing!AO8</f>
         <v>0.009352623119</v>
       </c>
-      <c r="AP9" s="22">
+      <c r="AP9" s="23">
         <f>Confirmed!AP8/Testing!AP8</f>
         <v>0.009113853057</v>
       </c>
-      <c r="AQ9" s="22">
+      <c r="AQ9" s="23">
         <f>Confirmed!AQ8/Testing!AQ8</f>
         <v>0.009198242724</v>
       </c>
-      <c r="AR9" s="22">
+      <c r="AR9" s="23">
         <f>Confirmed!AR8/Testing!AR8</f>
         <v>0.008666753551</v>
       </c>
-      <c r="AS9" s="22">
+      <c r="AS9" s="23">
         <f>Confirmed!AS8/Testing!AS8</f>
         <v>0.008292079208</v>
       </c>
-      <c r="AT9" s="22">
+      <c r="AT9" s="23">
         <f>Confirmed!AT8/Testing!AT8</f>
         <v>0.007931844888</v>
       </c>
-      <c r="AU9" s="22">
+      <c r="AU9" s="23">
         <f>Confirmed!AU8/Testing!AU8</f>
         <v>0.007603491974</v>
       </c>
-      <c r="AV9" s="22">
+      <c r="AV9" s="23">
         <f>Confirmed!AV8/Testing!AV8</f>
         <v>0.007323026851</v>
       </c>
-      <c r="AW9" s="22">
+      <c r="AW9" s="23">
         <f>Confirmed!AW8/Testing!AW8</f>
         <v>0.007163249416</v>
       </c>
-      <c r="AX9" s="22">
+      <c r="AX9" s="23">
         <f>Confirmed!AX8/Testing!AX8</f>
         <v>0.007469221656</v>
       </c>
-      <c r="AY9" s="22">
+      <c r="AY9" s="23">
         <f>Confirmed!AY8/Testing!AY8</f>
         <v>0.007436225746</v>
       </c>
-      <c r="AZ9" s="22">
+      <c r="AZ9" s="23">
         <f>Confirmed!AZ8/Testing!AZ8</f>
         <v>0.007226184291</v>
       </c>
-      <c r="BA9" s="22">
+      <c r="BA9" s="23">
         <f>Confirmed!BA8/Testing!BA8</f>
         <v>0.007117117117</v>
       </c>
-      <c r="BB9" s="22">
+      <c r="BB9" s="23">
         <f>Confirmed!BB8/Testing!BB8</f>
         <v>0.007122880615</v>
       </c>
-      <c r="BC9" s="22">
+      <c r="BC9" s="23">
         <f>Confirmed!BC8/Testing!BC8</f>
         <v>0.00713800136</v>
       </c>
-      <c r="BD9" s="22">
+      <c r="BD9" s="23">
         <f>Confirmed!BD8/Testing!BD8</f>
         <v>0.007372516895</v>
       </c>
-      <c r="BE9" s="22">
+      <c r="BE9" s="23">
         <f>Confirmed!BE8/Testing!BE8</f>
         <v>0.007269853813</v>
       </c>
-      <c r="BF9" s="22">
+      <c r="BF9" s="23">
         <f>Confirmed!BF8/Testing!BF8</f>
         <v>0.00707267653</v>
       </c>
-      <c r="BG9" s="22">
+      <c r="BG9" s="23">
         <f>Confirmed!BG8/Testing!BG8</f>
         <v>0.007209858378</v>
       </c>
-      <c r="BH9" s="22">
+      <c r="BH9" s="23">
         <f>Confirmed!BH8/Testing!BH8</f>
         <v>0.007182477599</v>
       </c>
-      <c r="BI9" s="22">
+      <c r="BI9" s="23">
         <f>Confirmed!BI8/Testing!BI8</f>
         <v>0.007235789327</v>
       </c>
-      <c r="BJ9" s="22"/>
+      <c r="BJ9" s="23">
+        <f>Confirmed!BJ8/Testing!BJ8</f>
+        <v>0.007057211374</v>
+      </c>
+      <c r="BK9" s="23">
+        <f>Confirmed!BK8/Testing!BK8</f>
+        <v>0.007225291791</v>
+      </c>
+      <c r="BL9" s="23"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="23">
         <f>Confirmed!B9/Testing!B9</f>
         <v>0.0257296467</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="23">
         <f>Confirmed!C9/Testing!C9</f>
         <v>0.02674438539</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="23">
         <f>Confirmed!D9/Testing!D9</f>
         <v>0.02570812808</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <f>Confirmed!E9/Testing!E9</f>
         <v>0.02439372325</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <f>Confirmed!F9/Testing!F9</f>
         <v>0.02387940235</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <f>Confirmed!G9/Testing!G9</f>
         <v>0.02300841168</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <f>Confirmed!H9/Testing!H9</f>
         <v>0.02353209961</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="23">
         <f>Confirmed!I9/Testing!I9</f>
         <v>0.02339244914</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="23">
         <f>Confirmed!J9/Testing!J9</f>
         <v>0.02356765542</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="23">
         <f>Confirmed!K9/Testing!K9</f>
         <v>0.02369942197</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="23">
         <f>Confirmed!L9/Testing!L9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="23">
         <f>Confirmed!M9/Testing!M9</f>
         <v>0.02423842309</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="23">
         <f>Confirmed!N9/Testing!N9</f>
         <v>0.03041498411</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="23">
         <f>Confirmed!O9/Testing!O9</f>
         <v>0.0307875895</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="23">
         <f>Confirmed!P9/Testing!P9</f>
         <v>0.03091236495</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="23">
         <f>Confirmed!Q9/Testing!Q9</f>
         <v>0.03051540371</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="23">
         <f>Confirmed!R9/Testing!R9</f>
         <v>0.03030925014</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="23">
         <f>Confirmed!S9/Testing!S9</f>
         <v>0.03045386076</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="23">
         <f>Confirmed!T9/Testing!T9</f>
         <v>0.0307895731</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="23">
         <f>Confirmed!U9/Testing!U9</f>
         <v>0.03141836673</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10" s="23">
         <f>Confirmed!V9/Testing!V9</f>
         <v>0.03106807309</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10" s="23">
         <f>Confirmed!W9/Testing!W9</f>
         <v>0.03211781968</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10" s="23">
         <f>Confirmed!X9/Testing!X9</f>
         <v>0.03063812519</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y10" s="23">
         <f>Confirmed!Y9/Testing!Y9</f>
         <v>0.02947217578</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="23">
         <f>Confirmed!Z9/Testing!Z9</f>
         <v>0.02881493506</v>
       </c>
-      <c r="AA10" s="22">
+      <c r="AA10" s="23">
         <f>Confirmed!AA9/Testing!AA9</f>
         <v>0.02896361203</v>
       </c>
-      <c r="AB10" s="22">
+      <c r="AB10" s="23">
         <f>Confirmed!AB9/Testing!AB9</f>
         <v>0.03104775948</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="AC10" s="23">
         <f>Confirmed!AC9/Testing!AC9</f>
         <v>0.03079917564</v>
       </c>
-      <c r="AD10" s="22">
+      <c r="AD10" s="23">
         <f>Confirmed!AD9/Testing!AD9</f>
         <v>0.03023874587</v>
       </c>
-      <c r="AE10" s="22">
+      <c r="AE10" s="23">
         <f>Confirmed!AE9/Testing!AE9</f>
         <v>0.028825211</v>
       </c>
-      <c r="AF10" s="22">
+      <c r="AF10" s="23">
         <f>Confirmed!AF9/Testing!AF9</f>
         <v>0.02803950874</v>
       </c>
-      <c r="AG10" s="22">
+      <c r="AG10" s="23">
         <f>Confirmed!AG9/Testing!AG9</f>
         <v>0.02769249662</v>
       </c>
-      <c r="AH10" s="22">
+      <c r="AH10" s="23">
         <f>Confirmed!AH9/Testing!AH9</f>
         <v>0.0271459798</v>
       </c>
-      <c r="AI10" s="22">
+      <c r="AI10" s="23">
         <f>Confirmed!AI9/Testing!AI9</f>
         <v>0.02657253245</v>
       </c>
-      <c r="AJ10" s="22">
+      <c r="AJ10" s="23">
         <f>Confirmed!AJ9/Testing!AJ9</f>
         <v>0.02587458746</v>
       </c>
-      <c r="AK10" s="22">
+      <c r="AK10" s="23">
         <f>Confirmed!AK9/Testing!AK9</f>
         <v>0.02534068868</v>
       </c>
-      <c r="AL10" s="22">
+      <c r="AL10" s="23">
         <f>Confirmed!AL9/Testing!AL9</f>
         <v>0.02496377758</v>
       </c>
-      <c r="AM10" s="22">
+      <c r="AM10" s="23">
         <f>Confirmed!AM9/Testing!AM9</f>
         <v>0.02399108138</v>
       </c>
-      <c r="AN10" s="22">
+      <c r="AN10" s="23">
         <f>Confirmed!AN9/Testing!AN9</f>
         <v>0.02353091358</v>
       </c>
-      <c r="AO10" s="22">
+      <c r="AO10" s="23">
         <f>Confirmed!AO9/Testing!AO9</f>
         <v>0.023342804</v>
       </c>
-      <c r="AP10" s="22">
+      <c r="AP10" s="23">
         <f>Confirmed!AP9/Testing!AP9</f>
         <v>0.02331921236</v>
       </c>
-      <c r="AQ10" s="22">
+      <c r="AQ10" s="23">
         <f>Confirmed!AQ9/Testing!AQ9</f>
         <v>0.02346566879</v>
       </c>
-      <c r="AR10" s="22">
+      <c r="AR10" s="23">
         <f>Confirmed!AR9/Testing!AR9</f>
         <v>0.02318266758</v>
       </c>
-      <c r="AS10" s="22">
+      <c r="AS10" s="23">
         <f>Confirmed!AS9/Testing!AS9</f>
         <v>0.0229812355</v>
       </c>
-      <c r="AT10" s="22">
+      <c r="AT10" s="23">
         <f>Confirmed!AT9/Testing!AT9</f>
         <v>0.02256993678</v>
       </c>
-      <c r="AU10" s="22">
+      <c r="AU10" s="23">
         <f>Confirmed!AU9/Testing!AU9</f>
         <v>0.0219400646</v>
       </c>
-      <c r="AV10" s="22">
+      <c r="AV10" s="23">
         <f>Confirmed!AV9/Testing!AV9</f>
         <v>0.02146993593</v>
       </c>
-      <c r="AW10" s="22">
+      <c r="AW10" s="23">
         <f>Confirmed!AW9/Testing!AW9</f>
         <v>0.02082442928</v>
       </c>
-      <c r="AX10" s="22">
+      <c r="AX10" s="23">
         <f>Confirmed!AX9/Testing!AX9</f>
         <v>0.02100760871</v>
       </c>
-      <c r="AY10" s="22">
+      <c r="AY10" s="23">
         <f>Confirmed!AY9/Testing!AY9</f>
         <v>0.02061224774</v>
       </c>
-      <c r="AZ10" s="22">
+      <c r="AZ10" s="23">
         <f>Confirmed!AZ9/Testing!AZ9</f>
         <v>0.01998159239</v>
       </c>
-      <c r="BA10" s="22">
+      <c r="BA10" s="23">
         <f>Confirmed!BA9/Testing!BA9</f>
         <v>0.01963004427</v>
       </c>
-      <c r="BB10" s="22">
+      <c r="BB10" s="23">
         <f>Confirmed!BB9/Testing!BB9</f>
         <v>0.01933947128</v>
       </c>
-      <c r="BC10" s="22">
+      <c r="BC10" s="23">
         <f>Confirmed!BC9/Testing!BC9</f>
         <v>0.01939161217</v>
       </c>
-      <c r="BD10" s="22">
+      <c r="BD10" s="23">
         <f>Confirmed!BD9/Testing!BD9</f>
         <v>0.01908661855</v>
       </c>
-      <c r="BE10" s="22">
+      <c r="BE10" s="23">
         <f>Confirmed!BE9/Testing!BE9</f>
         <v>0.01889171577</v>
       </c>
-      <c r="BF10" s="22">
+      <c r="BF10" s="23">
         <f>Confirmed!BF9/Testing!BF9</f>
         <v>0.01873306196</v>
       </c>
-      <c r="BG10" s="22">
+      <c r="BG10" s="23">
         <f>Confirmed!BG9/Testing!BG9</f>
         <v>0.01846118684</v>
       </c>
-      <c r="BH10" s="22">
+      <c r="BH10" s="23">
         <f>Confirmed!BH9/Testing!BH9</f>
         <v>0.01822655152</v>
       </c>
-      <c r="BI10" s="22">
+      <c r="BI10" s="23">
         <f>Confirmed!BI9/Testing!BI9</f>
         <v>0.01849013597</v>
       </c>
-      <c r="BJ10" s="22"/>
+      <c r="BJ10" s="23">
+        <f>Confirmed!BJ9/Testing!BJ9</f>
+        <v>0.01864447777</v>
+      </c>
+      <c r="BK10" s="23">
+        <f>Confirmed!BK9/Testing!BK9</f>
+        <v>0.02018429946</v>
+      </c>
+      <c r="BL10" s="23"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="23">
         <f>Confirmed!B10/Testing!B10</f>
         <v>0.03934031953</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="23">
         <f>Confirmed!C10/Testing!C10</f>
         <v>0.04156441718</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="23">
         <f>Confirmed!D10/Testing!D10</f>
         <v>0.04269972452</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="23">
         <f>Confirmed!E10/Testing!E10</f>
         <v>0.04135818228</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="23">
         <f>Confirmed!F10/Testing!F10</f>
         <v>0.03879207448</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="23">
         <f>Confirmed!G10/Testing!G10</f>
         <v>0.03608589772</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="23">
         <f>Confirmed!H10/Testing!H10</f>
         <v>0.03607931316</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="23">
         <f>Confirmed!I10/Testing!I10</f>
         <v>0.03640965732</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="23">
         <f>Confirmed!J10/Testing!J10</f>
         <v>0.03935648064</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="23">
         <f>Confirmed!K10/Testing!K10</f>
         <v>0.03913455737</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="23">
         <f>Confirmed!L10/Testing!L10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="23">
         <f>Confirmed!M10/Testing!M10</f>
         <v>0.03898734177</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="23">
         <f>Confirmed!N10/Testing!N10</f>
         <v>0.03805058037</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="23">
         <f>Confirmed!O10/Testing!O10</f>
         <v>0.03666002278</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="23">
         <f>Confirmed!P10/Testing!P10</f>
         <v>0.03631847476</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="23">
         <f>Confirmed!Q10/Testing!Q10</f>
         <v>0.03566529492</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="23">
         <f>Confirmed!R10/Testing!R10</f>
         <v>0.03593510866</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="23">
         <f>Confirmed!S10/Testing!S10</f>
         <v>0.0361558746</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="23">
         <f>Confirmed!T10/Testing!T10</f>
         <v>0.03622535211</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="23">
         <f>Confirmed!U10/Testing!U10</f>
         <v>0.03558468288</v>
       </c>
-      <c r="V11" s="22">
+      <c r="V11" s="23">
         <f>Confirmed!V10/Testing!V10</f>
         <v>0.03481175864</v>
       </c>
-      <c r="W11" s="22">
+      <c r="W11" s="23">
         <f>Confirmed!W10/Testing!W10</f>
         <v>0.03486336672</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="23">
         <f>Confirmed!X10/Testing!X10</f>
         <v>0.03794308537</v>
       </c>
-      <c r="Y11" s="22">
+      <c r="Y11" s="23">
         <f>Confirmed!Y10/Testing!Y10</f>
         <v>0.03709718779</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="Z11" s="23">
         <f>Confirmed!Z10/Testing!Z10</f>
         <v>0.03792616502</v>
       </c>
-      <c r="AA11" s="22">
+      <c r="AA11" s="23">
         <f>Confirmed!AA10/Testing!AA10</f>
         <v>0.03900818786</v>
       </c>
-      <c r="AB11" s="22">
+      <c r="AB11" s="23">
         <f>Confirmed!AB10/Testing!AB10</f>
         <v>0.03954408854</v>
       </c>
-      <c r="AC11" s="22">
+      <c r="AC11" s="23">
         <f>Confirmed!AC10/Testing!AC10</f>
         <v>0.04367423596</v>
       </c>
-      <c r="AD11" s="22">
+      <c r="AD11" s="23">
         <f>Confirmed!AD10/Testing!AD10</f>
         <v>0.04545747008</v>
       </c>
-      <c r="AE11" s="22">
+      <c r="AE11" s="23">
         <f>Confirmed!AE10/Testing!AE10</f>
         <v>0.04610091045</v>
       </c>
-      <c r="AF11" s="22">
+      <c r="AF11" s="23">
         <f>Confirmed!AF10/Testing!AF10</f>
         <v>0.04674554493</v>
       </c>
-      <c r="AG11" s="22">
+      <c r="AG11" s="23">
         <f>Confirmed!AG10/Testing!AG10</f>
         <v>0.04771584759</v>
       </c>
-      <c r="AH11" s="22">
+      <c r="AH11" s="23">
         <f>Confirmed!AH10/Testing!AH10</f>
         <v>0.04942252293</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AI11" s="23">
         <f>Confirmed!AI10/Testing!AI10</f>
         <v>0.05309756522</v>
       </c>
-      <c r="AJ11" s="22">
+      <c r="AJ11" s="23">
         <f>Confirmed!AJ10/Testing!AJ10</f>
         <v>0.0553258841</v>
       </c>
-      <c r="AK11" s="22">
+      <c r="AK11" s="23">
         <f>Confirmed!AK10/Testing!AK10</f>
         <v>0.05650341455</v>
       </c>
-      <c r="AL11" s="22">
+      <c r="AL11" s="23">
         <f>Confirmed!AL10/Testing!AL10</f>
         <v>0.05738088154</v>
       </c>
-      <c r="AM11" s="22">
+      <c r="AM11" s="23">
         <f>Confirmed!AM10/Testing!AM10</f>
         <v>0.06072696804</v>
       </c>
-      <c r="AN11" s="22">
+      <c r="AN11" s="23">
         <f>Confirmed!AN10/Testing!AN10</f>
         <v>0.06399908627</v>
       </c>
-      <c r="AO11" s="22">
+      <c r="AO11" s="23">
         <f>Confirmed!AO10/Testing!AO10</f>
         <v>0.0660046088</v>
       </c>
-      <c r="AP11" s="22">
+      <c r="AP11" s="23">
         <f>Confirmed!AP10/Testing!AP10</f>
         <v>0.06598111817</v>
       </c>
-      <c r="AQ11" s="22">
+      <c r="AQ11" s="23">
         <f>Confirmed!AQ10/Testing!AQ10</f>
         <v>0.06373980626</v>
       </c>
-      <c r="AR11" s="22">
+      <c r="AR11" s="23">
         <f>Confirmed!AR10/Testing!AR10</f>
         <v>0.06812913782</v>
       </c>
-      <c r="AS11" s="22">
+      <c r="AS11" s="23">
         <f>Confirmed!AS10/Testing!AS10</f>
         <v>0.06918528536</v>
       </c>
-      <c r="AT11" s="22">
+      <c r="AT11" s="23">
         <f>Confirmed!AT10/Testing!AT10</f>
         <v>0.07059144926</v>
       </c>
-      <c r="AU11" s="22">
+      <c r="AU11" s="23">
         <f>Confirmed!AU10/Testing!AU10</f>
         <v>0.07360316359</v>
       </c>
-      <c r="AV11" s="22">
+      <c r="AV11" s="23">
         <f>Confirmed!AV10/Testing!AV10</f>
         <v>0.07699292497</v>
       </c>
-      <c r="AW11" s="22">
+      <c r="AW11" s="23">
         <f>Confirmed!AW10/Testing!AW10</f>
         <v>0.08101128341</v>
       </c>
-      <c r="AX11" s="22">
+      <c r="AX11" s="23">
         <f>Confirmed!AX10/Testing!AX10</f>
         <v>0.08080097386</v>
       </c>
-      <c r="AY11" s="22">
+      <c r="AY11" s="23">
         <f>Confirmed!AY10/Testing!AY10</f>
         <v>0.08325948387</v>
       </c>
-      <c r="AZ11" s="22">
+      <c r="AZ11" s="23">
         <f>Confirmed!AZ10/Testing!AZ10</f>
         <v>0.0860545367</v>
       </c>
-      <c r="BA11" s="22">
+      <c r="BA11" s="23">
         <f>Confirmed!BA10/Testing!BA10</f>
         <v>0.09076615069</v>
       </c>
-      <c r="BB11" s="22">
+      <c r="BB11" s="23">
         <f>Confirmed!BB10/Testing!BB10</f>
         <v>0.09507432567</v>
       </c>
-      <c r="BC11" s="22">
+      <c r="BC11" s="23">
         <f>Confirmed!BC10/Testing!BC10</f>
         <v>0.09800381366</v>
       </c>
-      <c r="BD11" s="22">
+      <c r="BD11" s="23">
         <f>Confirmed!BD10/Testing!BD10</f>
         <v>0.100007104</v>
       </c>
-      <c r="BE11" s="22">
+      <c r="BE11" s="23">
         <f>Confirmed!BE10/Testing!BE10</f>
         <v>0.1041049187</v>
       </c>
-      <c r="BF11" s="22">
+      <c r="BF11" s="23">
         <f>Confirmed!BF10/Testing!BF10</f>
         <v>0.106823155</v>
       </c>
-      <c r="BG11" s="22">
+      <c r="BG11" s="23">
         <f>Confirmed!BG10/Testing!BG10</f>
         <v>0.1102648558</v>
       </c>
-      <c r="BH11" s="22">
+      <c r="BH11" s="23">
         <f>Confirmed!BH10/Testing!BH10</f>
         <v>0.1136311075</v>
       </c>
-      <c r="BI11" s="22">
+      <c r="BI11" s="23">
         <f>Confirmed!BI10/Testing!BI10</f>
         <v>0.11611823</v>
       </c>
-      <c r="BJ11" s="22"/>
+      <c r="BJ11" s="23">
+        <f>Confirmed!BJ10/Testing!BJ10</f>
+        <v>0.1175688523</v>
+      </c>
+      <c r="BK11" s="23">
+        <f>Confirmed!BK10/Testing!BK10</f>
+        <v>0.1197405727</v>
+      </c>
+      <c r="BL11" s="23"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="23">
         <f>Confirmed!B11/Testing!B11</f>
         <v>0.04339522546</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="23">
         <f>Confirmed!C11/Testing!C11</f>
         <v>0.05048782798</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="23">
         <f>Confirmed!D11/Testing!D11</f>
         <v>0.04968098681</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="23">
         <f>Confirmed!E11/Testing!E11</f>
         <v>0.04871511903</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="23">
         <f>Confirmed!F11/Testing!F11</f>
         <v>0.04666420936</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="23">
         <f>Confirmed!G11/Testing!G11</f>
         <v>0.04409050516</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="23">
         <f>Confirmed!H11/Testing!H11</f>
         <v>0.04185077642</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="23">
         <f>Confirmed!I11/Testing!I11</f>
         <v>0.04040161125</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="23">
         <f>Confirmed!J11/Testing!J11</f>
         <v>0.0389019872</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="23">
         <f>Confirmed!K11/Testing!K11</f>
         <v>0.03747870528</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="23">
         <f>Confirmed!L11/Testing!L11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="23">
         <f>Confirmed!M11/Testing!M11</f>
         <v>0.03715864082</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="23">
         <f>Confirmed!N11/Testing!N11</f>
         <v>0.03712495253</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="23">
         <f>Confirmed!O11/Testing!O11</f>
         <v>0.03494966369</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="23">
         <f>Confirmed!P11/Testing!P11</f>
         <v>0.0332103321</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="23">
         <f>Confirmed!Q11/Testing!Q11</f>
         <v>0.03279812813</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="23">
         <f>Confirmed!R11/Testing!R11</f>
         <v>0.03270321361</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="23">
         <f>Confirmed!S11/Testing!S11</f>
         <v>0.03220903301</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="23">
         <f>Confirmed!T11/Testing!T11</f>
         <v>0.03162729202</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="23">
         <f>Confirmed!U11/Testing!U11</f>
         <v>0.03110888108</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12" s="23">
         <f>Confirmed!V11/Testing!V11</f>
         <v>0.03086380431</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W12" s="23">
         <f>Confirmed!W11/Testing!W11</f>
         <v>0.03056965256</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12" s="23">
         <f>Confirmed!X11/Testing!X11</f>
         <v>0.03086021807</v>
       </c>
-      <c r="Y12" s="22">
+      <c r="Y12" s="23">
         <f>Confirmed!Y11/Testing!Y11</f>
         <v>0.03030143061</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="23">
         <f>Confirmed!Z11/Testing!Z11</f>
         <v>0.02915379248</v>
       </c>
-      <c r="AA12" s="22">
+      <c r="AA12" s="23">
         <f>Confirmed!AA11/Testing!AA11</f>
         <v>0.02859937029</v>
       </c>
-      <c r="AB12" s="22">
+      <c r="AB12" s="23">
         <f>Confirmed!AB11/Testing!AB11</f>
         <v>0.0277035897</v>
       </c>
-      <c r="AC12" s="22">
+      <c r="AC12" s="23">
         <f>Confirmed!AC11/Testing!AC11</f>
         <v>0.02640347547</v>
       </c>
-      <c r="AD12" s="22">
+      <c r="AD12" s="23">
         <f>Confirmed!AD11/Testing!AD11</f>
         <v>0.025451511</v>
       </c>
-      <c r="AE12" s="22">
+      <c r="AE12" s="23">
         <f>Confirmed!AE11/Testing!AE11</f>
         <v>0.02452234091</v>
       </c>
-      <c r="AF12" s="22">
+      <c r="AF12" s="23">
         <f>Confirmed!AF11/Testing!AF11</f>
         <v>0.02389629975</v>
       </c>
-      <c r="AG12" s="22">
+      <c r="AG12" s="23">
         <f>Confirmed!AG11/Testing!AG11</f>
         <v>0.02295399023</v>
       </c>
-      <c r="AH12" s="22">
+      <c r="AH12" s="23">
         <f>Confirmed!AH11/Testing!AH11</f>
         <v>0.0224761283</v>
       </c>
-      <c r="AI12" s="22">
+      <c r="AI12" s="23">
         <f>Confirmed!AI11/Testing!AI11</f>
         <v>0.021626271</v>
       </c>
-      <c r="AJ12" s="22">
+      <c r="AJ12" s="23">
         <f>Confirmed!AJ11/Testing!AJ11</f>
         <v>0.02109655394</v>
       </c>
-      <c r="AK12" s="22">
+      <c r="AK12" s="23">
         <f>Confirmed!AK11/Testing!AK11</f>
         <v>0.02097658751</v>
       </c>
-      <c r="AL12" s="22">
+      <c r="AL12" s="23">
         <f>Confirmed!AL11/Testing!AL11</f>
         <v>0.02097388109</v>
       </c>
-      <c r="AM12" s="22">
+      <c r="AM12" s="23">
         <f>Confirmed!AM11/Testing!AM11</f>
         <v>0.02000887093</v>
       </c>
-      <c r="AN12" s="22">
+      <c r="AN12" s="23">
         <f>Confirmed!AN11/Testing!AN11</f>
         <v>0.019527622</v>
       </c>
-      <c r="AO12" s="22">
+      <c r="AO12" s="23">
         <f>Confirmed!AO11/Testing!AO11</f>
         <v>0.01916756085</v>
       </c>
-      <c r="AP12" s="22">
+      <c r="AP12" s="23">
         <f>Confirmed!AP11/Testing!AP11</f>
         <v>0.01864054101</v>
       </c>
-      <c r="AQ12" s="22">
+      <c r="AQ12" s="23">
         <f>Confirmed!AQ11/Testing!AQ11</f>
         <v>0.01878032022</v>
       </c>
-      <c r="AR12" s="22">
+      <c r="AR12" s="23">
         <f>Confirmed!AR11/Testing!AR11</f>
         <v>0.01829286371</v>
       </c>
-      <c r="AS12" s="22">
+      <c r="AS12" s="23">
         <f>Confirmed!AS11/Testing!AS11</f>
         <v>0.01792501525</v>
       </c>
-      <c r="AT12" s="22">
+      <c r="AT12" s="23">
         <f>Confirmed!AT11/Testing!AT11</f>
         <v>0.01739300894</v>
       </c>
-      <c r="AU12" s="22">
+      <c r="AU12" s="23">
         <f>Confirmed!AU11/Testing!AU11</f>
         <v>0.01683579336</v>
       </c>
-      <c r="AV12" s="22">
+      <c r="AV12" s="23">
         <f>Confirmed!AV11/Testing!AV11</f>
         <v>0.01656876779</v>
       </c>
-      <c r="AW12" s="22">
+      <c r="AW12" s="23">
         <f>Confirmed!AW11/Testing!AW11</f>
         <v>0.01632685192</v>
       </c>
-      <c r="AX12" s="22">
+      <c r="AX12" s="23">
         <f>Confirmed!AX11/Testing!AX11</f>
         <v>0.01613707824</v>
       </c>
-      <c r="AY12" s="22">
+      <c r="AY12" s="23">
         <f>Confirmed!AY11/Testing!AY11</f>
         <v>0.01596947734</v>
       </c>
-      <c r="AZ12" s="22">
+      <c r="AZ12" s="23">
         <f>Confirmed!AZ11/Testing!AZ11</f>
         <v>0.01567567568</v>
       </c>
-      <c r="BA12" s="22">
+      <c r="BA12" s="23">
         <f>Confirmed!BA11/Testing!BA11</f>
         <v>0.01539356365</v>
       </c>
-      <c r="BB12" s="22">
+      <c r="BB12" s="23">
         <f>Confirmed!BB11/Testing!BB11</f>
         <v>0.0150232755</v>
       </c>
-      <c r="BC12" s="22">
+      <c r="BC12" s="23">
         <f>Confirmed!BC11/Testing!BC11</f>
         <v>0.01471926784</v>
       </c>
-      <c r="BD12" s="22">
+      <c r="BD12" s="23">
         <f>Confirmed!BD11/Testing!BD11</f>
         <v>0.014423597</v>
       </c>
-      <c r="BE12" s="22">
+      <c r="BE12" s="23">
         <f>Confirmed!BE11/Testing!BE11</f>
         <v>0.01422103182</v>
       </c>
-      <c r="BF12" s="22">
+      <c r="BF12" s="23">
         <f>Confirmed!BF11/Testing!BF11</f>
         <v>0.01414162946</v>
       </c>
-      <c r="BG12" s="22">
+      <c r="BG12" s="23">
         <f>Confirmed!BG11/Testing!BG11</f>
         <v>0.01421146093</v>
       </c>
-      <c r="BH12" s="22">
+      <c r="BH12" s="23">
         <f>Confirmed!BH11/Testing!BH11</f>
         <v>0.01446757448</v>
       </c>
-      <c r="BI12" s="22">
+      <c r="BI12" s="23">
         <f>Confirmed!BI11/Testing!BI11</f>
         <v>0.01527726734</v>
       </c>
-      <c r="BJ12" s="22"/>
+      <c r="BJ12" s="23">
+        <f>Confirmed!BJ11/Testing!BJ11</f>
+        <v>0.01529629983</v>
+      </c>
+      <c r="BK12" s="23">
+        <f>Confirmed!BK11/Testing!BK11</f>
+        <v>0.01519243592</v>
+      </c>
+      <c r="BL12" s="23"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -22183,7 +22573,7 @@
       <c r="B16" s="9">
         <v>1263875.0</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -23252,7 +23642,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="62" width="9.88"/>
+    <col customWidth="1" min="44" max="64" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -23379,7 +23769,7 @@
       <c r="AO1" s="2">
         <v>43956.0</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="5">
         <v>43957.0</v>
       </c>
       <c r="AQ1" s="2">
@@ -23400,7 +23790,7 @@
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="5">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
@@ -23421,27 +23811,33 @@
       <c r="BC1" s="2">
         <v>43970.0</v>
       </c>
-      <c r="BD1" s="6">
+      <c r="BD1" s="5">
         <v>43971.0</v>
       </c>
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="7">
+      <c r="BF1" s="6">
         <v>43973.0</v>
       </c>
       <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="7">
+      <c r="BH1" s="6">
         <v>43975.0</v>
       </c>
       <c r="BI1" s="3">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="7">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -23608,7 +24004,7 @@
         <f t="shared" si="1"/>
         <v>17962</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="8">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1">
@@ -23635,7 +24031,7 @@
         <f t="shared" si="2"/>
         <v>21118</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2" s="8">
         <v>22069.0</v>
       </c>
       <c r="AX2" s="1">
@@ -23662,11 +24058,11 @@
         <f t="shared" si="3"/>
         <v>25020</v>
       </c>
-      <c r="BD2" s="5">
+      <c r="BD2" s="8">
         <v>25955.0</v>
       </c>
       <c r="BE2" s="1">
-        <f t="shared" ref="BE2:BI2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE2:BK2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
         <v>26906</v>
       </c>
       <c r="BF2" s="1">
@@ -23685,7 +24081,15 @@
         <f t="shared" si="4"/>
         <v>30559</v>
       </c>
-      <c r="BJ2" s="1"/>
+      <c r="BJ2" s="1">
+        <f t="shared" si="4"/>
+        <v>31031</v>
+      </c>
+      <c r="BK2" s="1">
+        <f t="shared" si="4"/>
+        <v>32516</v>
+      </c>
+      <c r="BL2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -23851,7 +24255,7 @@
         <f t="shared" si="5"/>
         <v>2165</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AP3" s="8">
         <v>2256.0</v>
       </c>
       <c r="AQ3" s="1">
@@ -23878,7 +24282,7 @@
         <f t="shared" si="6"/>
         <v>3524</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="AW3" s="8">
         <v>3683.0</v>
       </c>
       <c r="AX3" s="1">
@@ -23905,11 +24309,11 @@
         <f t="shared" si="7"/>
         <v>4604</v>
       </c>
-      <c r="BD3" s="5">
+      <c r="BD3" s="8">
         <v>4776.0</v>
       </c>
       <c r="BE3" s="1">
-        <f t="shared" ref="BE3:BI3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE3:BK3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
         <v>4951</v>
       </c>
       <c r="BF3" s="1">
@@ -23928,7 +24332,15 @@
         <f t="shared" si="8"/>
         <v>5623</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f t="shared" si="8"/>
+        <v>5710</v>
+      </c>
+      <c r="BK3" s="1">
+        <f t="shared" si="8"/>
+        <v>5983</v>
+      </c>
+      <c r="BL3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -24094,7 +24506,7 @@
         <f t="shared" si="9"/>
         <v>3956</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AP4" s="8">
         <v>4123.0</v>
       </c>
       <c r="AQ4" s="1">
@@ -24121,7 +24533,7 @@
         <f t="shared" si="10"/>
         <v>5561</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AW4" s="8">
         <v>5812.0</v>
       </c>
       <c r="AX4" s="1">
@@ -24148,11 +24560,11 @@
         <f t="shared" si="11"/>
         <v>8512</v>
       </c>
-      <c r="BD4" s="5">
+      <c r="BD4" s="8">
         <v>8830.0</v>
       </c>
       <c r="BE4" s="1">
-        <f t="shared" ref="BE4:BI4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE4:BK4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
         <v>9154</v>
       </c>
       <c r="BF4" s="1">
@@ -24171,7 +24583,15 @@
         <f t="shared" si="12"/>
         <v>10396</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f t="shared" si="12"/>
+        <v>10557</v>
+      </c>
+      <c r="BK4" s="1">
+        <f t="shared" si="12"/>
+        <v>11062</v>
+      </c>
+      <c r="BL4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -24337,7 +24757,7 @@
         <f t="shared" si="13"/>
         <v>7385</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" s="8">
         <v>7697.0</v>
       </c>
       <c r="AQ5" s="1">
@@ -24364,7 +24784,7 @@
         <f t="shared" si="14"/>
         <v>10922</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5" s="8">
         <v>11414.0</v>
       </c>
       <c r="AX5" s="1">
@@ -24391,11 +24811,11 @@
         <f t="shared" si="15"/>
         <v>14425</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BD5" s="8">
         <v>14964.0</v>
       </c>
       <c r="BE5" s="1">
-        <f t="shared" ref="BE5:BI5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE5:BK5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
         <v>15512</v>
       </c>
       <c r="BF5" s="1">
@@ -24414,7 +24834,15 @@
         <f t="shared" si="16"/>
         <v>17619</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f t="shared" si="16"/>
+        <v>17891</v>
+      </c>
+      <c r="BK5" s="1">
+        <f t="shared" si="16"/>
+        <v>18747</v>
+      </c>
+      <c r="BL5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -24580,7 +25008,7 @@
         <f t="shared" si="17"/>
         <v>6096</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AP6" s="8">
         <v>6353.0</v>
       </c>
       <c r="AQ6" s="1">
@@ -24607,7 +25035,7 @@
         <f t="shared" si="18"/>
         <v>7884</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AW6" s="8">
         <v>8239.0</v>
       </c>
       <c r="AX6" s="1">
@@ -24634,11 +25062,11 @@
         <f t="shared" si="19"/>
         <v>10198</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BD6" s="8">
         <v>10579.0</v>
       </c>
       <c r="BE6" s="1">
-        <f t="shared" ref="BE6:BI6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE6:BK6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
         <v>10967</v>
       </c>
       <c r="BF6" s="1">
@@ -24657,7 +25085,15 @@
         <f t="shared" si="20"/>
         <v>12456</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f t="shared" si="20"/>
+        <v>12648</v>
+      </c>
+      <c r="BK6" s="1">
+        <f t="shared" si="20"/>
+        <v>13253</v>
+      </c>
+      <c r="BL6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -24823,7 +25259,7 @@
         <f t="shared" si="21"/>
         <v>24678</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AP7" s="8">
         <v>25720.0</v>
       </c>
       <c r="AQ7" s="1">
@@ -24850,7 +25286,7 @@
         <f t="shared" si="22"/>
         <v>36479</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AW7" s="8">
         <v>38122.0</v>
       </c>
       <c r="AX7" s="1">
@@ -24877,11 +25313,11 @@
         <f t="shared" si="23"/>
         <v>50020</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BD7" s="8">
         <v>51888.0</v>
       </c>
       <c r="BE7" s="1">
-        <f t="shared" ref="BE7:BI7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE7:BK7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
         <v>53789</v>
       </c>
       <c r="BF7" s="1">
@@ -24900,7 +25336,15 @@
         <f t="shared" si="24"/>
         <v>61093</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f t="shared" si="24"/>
+        <v>62036</v>
+      </c>
+      <c r="BK7" s="1">
+        <f t="shared" si="24"/>
+        <v>65005</v>
+      </c>
+      <c r="BL7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -25066,7 +25510,7 @@
         <f t="shared" si="25"/>
         <v>13686</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AP8" s="8">
         <v>14264.0</v>
       </c>
       <c r="AQ8" s="1">
@@ -25093,7 +25537,7 @@
         <f t="shared" si="26"/>
         <v>18435</v>
       </c>
-      <c r="AW8" s="5">
+      <c r="AW8" s="8">
         <v>19265.0</v>
       </c>
       <c r="AX8" s="1">
@@ -25120,11 +25564,11 @@
         <f t="shared" si="27"/>
         <v>23536</v>
       </c>
-      <c r="BD8" s="5">
+      <c r="BD8" s="8">
         <v>24415.0</v>
       </c>
       <c r="BE8" s="1">
-        <f t="shared" ref="BE8:BI8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE8:BK8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
         <v>25310</v>
       </c>
       <c r="BF8" s="1">
@@ -25143,7 +25587,15 @@
         <f t="shared" si="28"/>
         <v>28746</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f t="shared" si="28"/>
+        <v>29190</v>
+      </c>
+      <c r="BK8" s="1">
+        <f t="shared" si="28"/>
+        <v>30587</v>
+      </c>
+      <c r="BL8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -25309,7 +25761,7 @@
         <f t="shared" si="29"/>
         <v>48923</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AP9" s="8">
         <v>50988.0</v>
       </c>
       <c r="AQ9" s="1">
@@ -25336,7 +25788,7 @@
         <f t="shared" si="30"/>
         <v>64928</v>
       </c>
-      <c r="AW9" s="5">
+      <c r="AW9" s="8">
         <v>67853.0</v>
       </c>
       <c r="AX9" s="1">
@@ -25363,11 +25815,11 @@
         <f t="shared" si="31"/>
         <v>83335</v>
       </c>
-      <c r="BD9" s="5">
+      <c r="BD9" s="8">
         <v>86448.0</v>
       </c>
       <c r="BE9" s="1">
-        <f t="shared" ref="BE9:BI9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE9:BK9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
         <v>89616</v>
       </c>
       <c r="BF9" s="1">
@@ -25386,7 +25838,15 @@
         <f t="shared" si="32"/>
         <v>101784</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f t="shared" si="32"/>
+        <v>103355</v>
+      </c>
+      <c r="BK9" s="1">
+        <f t="shared" si="32"/>
+        <v>108302</v>
+      </c>
+      <c r="BL9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -25552,7 +26012,7 @@
         <f t="shared" si="33"/>
         <v>54678</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AP10" s="8">
         <v>56986.0</v>
       </c>
       <c r="AQ10" s="1">
@@ -25579,7 +26039,7 @@
         <f t="shared" si="34"/>
         <v>79293</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="AW10" s="8">
         <v>82865.0</v>
       </c>
       <c r="AX10" s="1">
@@ -25606,11 +26066,11 @@
         <f t="shared" si="35"/>
         <v>108557</v>
       </c>
-      <c r="BD10" s="5">
+      <c r="BD10" s="8">
         <v>112612.0</v>
       </c>
       <c r="BE10" s="1">
-        <f t="shared" ref="BE10:BI10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE10:BK10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
         <v>116738</v>
       </c>
       <c r="BF10" s="1">
@@ -25629,7 +26089,15 @@
         <f t="shared" si="36"/>
         <v>132589</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f t="shared" si="36"/>
+        <v>134636</v>
+      </c>
+      <c r="BK10" s="1">
+        <f t="shared" si="36"/>
+        <v>141080</v>
+      </c>
+      <c r="BL10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -25795,7 +26263,7 @@
         <f t="shared" si="37"/>
         <v>88535</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AP11" s="8">
         <v>92272.0</v>
       </c>
       <c r="AQ11" s="1">
@@ -25822,7 +26290,7 @@
         <f t="shared" si="38"/>
         <v>121554</v>
       </c>
-      <c r="AW11" s="5">
+      <c r="AW11" s="8">
         <v>127030.0</v>
       </c>
       <c r="AX11" s="1">
@@ -25849,11 +26317,11 @@
         <f t="shared" si="39"/>
         <v>160402</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BD11" s="8">
         <v>166394.0</v>
       </c>
       <c r="BE11" s="1">
-        <f t="shared" ref="BE11:BI11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE11:BK11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
         <v>172491</v>
       </c>
       <c r="BF11" s="1">
@@ -25872,7 +26340,15 @@
         <f t="shared" si="40"/>
         <v>195912</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f t="shared" si="40"/>
+        <v>198937</v>
+      </c>
+      <c r="BK11" s="1">
+        <f t="shared" si="40"/>
+        <v>208459</v>
+      </c>
+      <c r="BL11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="s">
@@ -26058,13 +26534,19 @@
       <c r="BI12" s="9">
         <v>596777.0</v>
       </c>
+      <c r="BJ12" s="9">
+        <v>605991.0</v>
+      </c>
+      <c r="BK12" s="9">
+        <v>634996.0</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" ref="B13:BJ13" si="41">sum(B2:B11)</f>
+        <f t="shared" ref="B13:BL13" si="41">sum(B2:B11)</f>
         <v>28536</v>
       </c>
       <c r="C13" s="13">
@@ -26304,6 +26786,14 @@
         <v>596777</v>
       </c>
       <c r="BJ13" s="13">
+        <f t="shared" si="41"/>
+        <v>605991</v>
+      </c>
+      <c r="BK13" s="13">
+        <f t="shared" si="41"/>
+        <v>634994</v>
+      </c>
+      <c r="BL13" s="13">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -26398,6 +26888,8 @@
       <c r="BH15" s="4"/>
       <c r="BI15" s="4"/>
       <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -27411,7 +27903,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="62" width="9.88"/>
+    <col customWidth="1" min="44" max="64" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -27599,8 +28091,14 @@
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>TODAY()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -27767,7 +28265,7 @@
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="8">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1" t="str">
@@ -27810,7 +28308,9 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="1" t="str">
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1" t="str">
         <f>ROUND($AP2/#REF!*#REF!,0)</f>
         <v>#REF!</v>
       </c>
@@ -28059,7 +28559,15 @@
         <f>round(100000*Testing!BI3/$B13,0)</f>
         <v>445</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f>round(100000*Testing!BJ3/$B13,0)</f>
+        <v>452</v>
+      </c>
+      <c r="BK3" s="1">
+        <f>round(100000*Testing!BK3/$B13,0)</f>
+        <v>473</v>
+      </c>
+      <c r="BL3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -28305,7 +28813,15 @@
         <f>round(100000*Testing!BI4/$B14,0)</f>
         <v>258</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>round(100000*Testing!BJ4/$B14,0)</f>
+        <v>262</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>round(100000*Testing!BK4/$B14,0)</f>
+        <v>275</v>
+      </c>
+      <c r="BL4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -28551,7 +29067,15 @@
         <f>round(100000*Testing!BI5/$B15,0)</f>
         <v>384</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>round(100000*Testing!BJ5/$B15,0)</f>
+        <v>390</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>round(100000*Testing!BK5/$B15,0)</f>
+        <v>408</v>
+      </c>
+      <c r="BL5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -28797,7 +29321,15 @@
         <f>round(100000*Testing!BI6/$B16,0)</f>
         <v>208</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>round(100000*Testing!BJ6/$B16,0)</f>
+        <v>211</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>round(100000*Testing!BK6/$B16,0)</f>
+        <v>222</v>
+      </c>
+      <c r="BL6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -29043,7 +29575,15 @@
         <f>round(100000*Testing!BI7/$B17,0)</f>
         <v>910</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>round(100000*Testing!BJ7/$B17,0)</f>
+        <v>924</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>round(100000*Testing!BK7/$B17,0)</f>
+        <v>968</v>
+      </c>
+      <c r="BL7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -29289,7 +29829,15 @@
         <f>round(100000*Testing!BI8/$B18,0)</f>
         <v>996</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>round(100000*Testing!BJ8/$B18,0)</f>
+        <v>1011</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>round(100000*Testing!BK8/$B18,0)</f>
+        <v>1059</v>
+      </c>
+      <c r="BL8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -29535,7 +30083,15 @@
         <f>round(100000*Testing!BI9/$B19,0)</f>
         <v>902</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>round(100000*Testing!BJ9/$B19,0)</f>
+        <v>916</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>round(100000*Testing!BK9/$B19,0)</f>
+        <v>959</v>
+      </c>
+      <c r="BL9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -29781,7 +30337,15 @@
         <f>round(100000*Testing!BI10/$B20,0)</f>
         <v>1937</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>round(100000*Testing!BJ10/$B20,0)</f>
+        <v>1967</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>round(100000*Testing!BK10/$B20,0)</f>
+        <v>2061</v>
+      </c>
+      <c r="BL10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -30027,7 +30591,15 @@
         <f>round(100000*Testing!BI11/$B21,0)</f>
         <v>1291</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>round(100000*Testing!BJ11/$B21,0)</f>
+        <v>1311</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>round(100000*Testing!BK11/$B21,0)</f>
+        <v>1374</v>
+      </c>
+      <c r="BL11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1">
@@ -31103,7 +31675,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="62" width="8.88"/>
+    <col customWidth="1" min="46" max="64" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -31290,9 +31862,15 @@
       <c r="BI1" s="3">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -31456,6 +32034,8 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -31641,7 +32221,13 @@
       <c r="BI3" s="4">
         <v>1.0</v>
       </c>
-      <c r="BJ3" s="4"/>
+      <c r="BJ3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BL3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -31827,7 +32413,13 @@
       <c r="BI4" s="4">
         <v>1.0</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BL4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -32013,7 +32605,13 @@
       <c r="BI5" s="4">
         <v>0.0</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BL5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -32199,7 +32797,13 @@
       <c r="BI6" s="4">
         <v>3.0</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BL6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -32385,7 +32989,13 @@
       <c r="BI7" s="4">
         <v>61.0</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="BL7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -32571,7 +33181,13 @@
       <c r="BI8" s="4">
         <v>6.0</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BL8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -32757,7 +33373,13 @@
       <c r="BI9" s="4">
         <v>49.0</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="BL9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -32943,7 +33565,13 @@
       <c r="BI10" s="4">
         <v>330.0</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="4">
+        <v>363.0</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>391.0</v>
+      </c>
+      <c r="BL10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -33129,7 +33757,13 @@
       <c r="BI11" s="4">
         <v>30.0</v>
       </c>
-      <c r="BJ11" s="4"/>
+      <c r="BJ11" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BL11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -34146,7 +34780,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="62" width="8.88"/>
+    <col customWidth="1" min="46" max="64" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -34288,54 +34922,60 @@
       <c r="AT1" s="2">
         <v>43961.0</v>
       </c>
-      <c r="AU1" s="7">
+      <c r="AU1" s="6">
         <v>43962.0</v>
       </c>
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="7">
+      <c r="AW1" s="6">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="7">
+      <c r="AY1" s="6">
         <v>43966.0</v>
       </c>
       <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="7">
+      <c r="BA1" s="6">
         <v>43968.0</v>
       </c>
       <c r="BB1" s="2">
         <v>43969.0</v>
       </c>
-      <c r="BC1" s="7">
+      <c r="BC1" s="6">
         <v>43970.0</v>
       </c>
       <c r="BD1" s="2">
         <v>43971.0</v>
       </c>
-      <c r="BE1" s="7">
+      <c r="BE1" s="6">
         <v>43972.0</v>
       </c>
       <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="7">
+      <c r="BG1" s="6">
         <v>43974.0</v>
       </c>
       <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="8">
+      <c r="BI1" s="7">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="7">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -34499,6 +35139,8 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -34684,7 +35326,13 @@
       <c r="BI3" s="4">
         <v>28.0</v>
       </c>
-      <c r="BJ3" s="4"/>
+      <c r="BJ3" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="BL3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -34870,7 +35518,13 @@
       <c r="BI4" s="4">
         <v>29.0</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="BL4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -35056,7 +35710,13 @@
       <c r="BI5" s="4">
         <v>61.0</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="BL5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -35242,7 +35902,13 @@
       <c r="BI6" s="4">
         <v>55.0</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="BL6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -35428,7 +36094,13 @@
       <c r="BI7" s="4">
         <v>1335.0</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="4">
+        <v>1491.0</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>1491.0</v>
+      </c>
+      <c r="BL7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -35614,7 +36286,13 @@
       <c r="BI8" s="4">
         <v>121.0</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="BL8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -35800,7 +36478,13 @@
       <c r="BI9" s="4">
         <v>1168.0</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="4">
+        <v>1180.0</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>1180.0</v>
+      </c>
+      <c r="BL9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -35986,7 +36670,13 @@
       <c r="BI10" s="4">
         <v>7221.0</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="4">
+        <v>7844.0</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>8504.0</v>
+      </c>
+      <c r="BL10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -36172,7 +36862,13 @@
       <c r="BI11" s="4">
         <v>1899.0</v>
       </c>
-      <c r="BJ11" s="4"/>
+      <c r="BJ11" s="4">
+        <v>1919.0</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>1955.0</v>
+      </c>
+      <c r="BL11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -37189,7 +37885,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="62" width="9.88"/>
+    <col customWidth="1" min="44" max="64" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -37376,9 +38072,15 @@
       <c r="BI1" s="3">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -37540,6 +38242,8 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
     </row>
     <row r="3" ht="14.25" hidden="1" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -37783,6 +38487,8 @@
       </c>
       <c r="BI3" s="14"/>
       <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -38027,7 +38733,15 @@
         <f>(Recoveries!BI3-Recoveries!BH3)-(Deaths!BI3-Deaths!BH3)</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="1">
+        <f>(Recoveries!BJ3-Recoveries!BI3)-(Deaths!BJ3-Deaths!BI3)</f>
+        <v>1</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>(Recoveries!BK3-Recoveries!BJ3)-(Deaths!BK3-Deaths!BJ3)</f>
+        <v>1</v>
+      </c>
+      <c r="BL4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -38272,7 +38986,15 @@
         <f>(Recoveries!BI4-Recoveries!BH4)-(Deaths!BI4-Deaths!BH4)</f>
         <v>0</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="1">
+        <f>(Recoveries!BJ4-Recoveries!BI4)-(Deaths!BJ4-Deaths!BI4)</f>
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>(Recoveries!BK4-Recoveries!BJ4)-(Deaths!BK4-Deaths!BJ4)</f>
+        <v>10</v>
+      </c>
+      <c r="BL5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -38517,7 +39239,15 @@
         <f>(Recoveries!BI5-Recoveries!BH5)-(Deaths!BI5-Deaths!BH5)</f>
         <v>3</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="1">
+        <f>(Recoveries!BJ5-Recoveries!BI5)-(Deaths!BJ5-Deaths!BI5)</f>
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>(Recoveries!BK5-Recoveries!BJ5)-(Deaths!BK5-Deaths!BJ5)</f>
+        <v>1</v>
+      </c>
+      <c r="BL6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -38762,7 +39492,15 @@
         <f>(Recoveries!BI6-Recoveries!BH6)-(Deaths!BI6-Deaths!BH6)</f>
         <v>2</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="1">
+        <f>(Recoveries!BJ6-Recoveries!BI6)-(Deaths!BJ6-Deaths!BI6)</f>
+        <v>10</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>(Recoveries!BK6-Recoveries!BJ6)-(Deaths!BK6-Deaths!BJ6)</f>
+        <v>2</v>
+      </c>
+      <c r="BL7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -39007,7 +39745,15 @@
         <f>(Recoveries!BI7-Recoveries!BH7)-(Deaths!BI7-Deaths!BH7)</f>
         <v>-2</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="1">
+        <f>(Recoveries!BJ7-Recoveries!BI7)-(Deaths!BJ7-Deaths!BI7)</f>
+        <v>147</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>(Recoveries!BK7-Recoveries!BJ7)-(Deaths!BK7-Deaths!BJ7)</f>
+        <v>0</v>
+      </c>
+      <c r="BL8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -39252,7 +39998,15 @@
         <f>(Recoveries!BI8-Recoveries!BH8)-(Deaths!BI8-Deaths!BH8)</f>
         <v>0</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="1">
+        <f>(Recoveries!BJ8-Recoveries!BI8)-(Deaths!BJ8-Deaths!BI8)</f>
+        <v>2</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>(Recoveries!BK8-Recoveries!BJ8)-(Deaths!BK8-Deaths!BJ8)</f>
+        <v>0</v>
+      </c>
+      <c r="BL9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -39497,7 +40251,15 @@
         <f>(Recoveries!BI9-Recoveries!BH9)-(Deaths!BI9-Deaths!BH9)</f>
         <v>57</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="1">
+        <f>(Recoveries!BJ9-Recoveries!BI9)-(Deaths!BJ9-Deaths!BI9)</f>
+        <v>12</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>(Recoveries!BK9-Recoveries!BJ9)-(Deaths!BK9-Deaths!BJ9)</f>
+        <v>0</v>
+      </c>
+      <c r="BL10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -39742,7 +40504,15 @@
         <f>(Recoveries!BI10-Recoveries!BH10)-(Deaths!BI10-Deaths!BH10)</f>
         <v>647</v>
       </c>
-      <c r="BJ11" s="4"/>
+      <c r="BJ11" s="1">
+        <f>(Recoveries!BJ10-Recoveries!BI10)-(Deaths!BJ10-Deaths!BI10)</f>
+        <v>590</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>(Recoveries!BK10-Recoveries!BJ10)-(Deaths!BK10-Deaths!BJ10)</f>
+        <v>632</v>
+      </c>
+      <c r="BL11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -39987,7 +40757,15 @@
         <f>(Recoveries!BI11-Recoveries!BH11)-(Deaths!BI11-Deaths!BH11)</f>
         <v>58</v>
       </c>
-      <c r="BJ12" s="4"/>
+      <c r="BJ12" s="1">
+        <f>(Recoveries!BJ11-Recoveries!BI11)-(Deaths!BJ11-Deaths!BI11)</f>
+        <v>19</v>
+      </c>
+      <c r="BK12" s="1">
+        <f>(Recoveries!BK11-Recoveries!BJ11)-(Deaths!BK11-Deaths!BJ11)</f>
+        <v>36</v>
+      </c>
+      <c r="BL12" s="4"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -41003,7 +41781,7 @@
     <col customWidth="1" min="2" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="62" width="7.63"/>
+    <col customWidth="1" min="37" max="64" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -41190,9 +41968,15 @@
       <c r="BI1" s="3">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -41397,8 +42181,10 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="1">
-        <f>Confirmed!BJ2-Deaths!AX2-Recoveries!AX2</f>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1">
+        <f>Confirmed!BL2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
     </row>
@@ -41407,7 +42193,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="15">
-        <f t="shared" ref="B3:BJ3" si="1">sum(B4:B12)</f>
+        <f t="shared" ref="B3:BL3" si="1">sum(B4:B12)</f>
         <v>848</v>
       </c>
       <c r="C3" s="15">
@@ -41647,6 +42433,14 @@
         <v>11217</v>
       </c>
       <c r="BJ3" s="15">
+        <f t="shared" si="1"/>
+        <v>10999</v>
+      </c>
+      <c r="BK3" s="15">
+        <f t="shared" si="1"/>
+        <v>11934</v>
+      </c>
+      <c r="BL3" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -41895,7 +42689,15 @@
         <f>Confirmed!BI3-Deaths!BI3-Recoveries!BI3</f>
         <v>16</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>Confirmed!BJ3-Deaths!BJ3-Recoveries!BJ3</f>
+        <v>15</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>Confirmed!BK3-Deaths!BK3-Recoveries!BK3</f>
+        <v>17</v>
+      </c>
+      <c r="BL4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -42141,7 +42943,15 @@
         <f>Confirmed!BI4-Deaths!BI4-Recoveries!BI4</f>
         <v>79</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>Confirmed!BJ4-Deaths!BJ4-Recoveries!BJ4</f>
+        <v>85</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>Confirmed!BK4-Deaths!BK4-Recoveries!BK4</f>
+        <v>88</v>
+      </c>
+      <c r="BL5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -42387,7 +43197,15 @@
         <f>Confirmed!BI5-Deaths!BI5-Recoveries!BI5</f>
         <v>41</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>Confirmed!BJ5-Deaths!BJ5-Recoveries!BJ5</f>
+        <v>42</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>Confirmed!BK5-Deaths!BK5-Recoveries!BK5</f>
+        <v>44</v>
+      </c>
+      <c r="BL6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -42633,7 +43451,15 @@
         <f>Confirmed!BI6-Deaths!BI6-Recoveries!BI6</f>
         <v>74</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>Confirmed!BJ6-Deaths!BJ6-Recoveries!BJ6</f>
+        <v>64</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>Confirmed!BK6-Deaths!BK6-Recoveries!BK6</f>
+        <v>71</v>
+      </c>
+      <c r="BL7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -42879,7 +43705,15 @@
         <f>Confirmed!BI7-Deaths!BI7-Recoveries!BI7</f>
         <v>1352</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>Confirmed!BJ7-Deaths!BJ7-Recoveries!BJ7</f>
+        <v>1303</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>Confirmed!BK7-Deaths!BK7-Recoveries!BK7</f>
+        <v>1486</v>
+      </c>
+      <c r="BL8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -43125,7 +43959,15 @@
         <f>Confirmed!BI8-Deaths!BI8-Recoveries!BI8</f>
         <v>81</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>Confirmed!BJ8-Deaths!BJ8-Recoveries!BJ8</f>
+        <v>77</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>Confirmed!BK8-Deaths!BK8-Recoveries!BK8</f>
+        <v>92</v>
+      </c>
+      <c r="BL9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -43371,7 +44213,15 @@
         <f>Confirmed!BI9-Deaths!BI9-Recoveries!BI9</f>
         <v>665</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>Confirmed!BJ9-Deaths!BJ9-Recoveries!BJ9</f>
+        <v>698</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>Confirmed!BK9-Deaths!BK9-Recoveries!BK9</f>
+        <v>957</v>
+      </c>
+      <c r="BL10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -43617,7 +44467,15 @@
         <f>Confirmed!BI10-Deaths!BI10-Recoveries!BI10</f>
         <v>7845</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>Confirmed!BJ10-Deaths!BJ10-Recoveries!BJ10</f>
+        <v>7622</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>Confirmed!BK10-Deaths!BK10-Recoveries!BK10</f>
+        <v>7998</v>
+      </c>
+      <c r="BL11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -43863,12 +44721,20 @@
         <f>Confirmed!BI11-Deaths!BI11-Recoveries!BI11</f>
         <v>1064</v>
       </c>
-      <c r="BJ12" s="1"/>
+      <c r="BJ12" s="1">
+        <f>Confirmed!BJ11-Deaths!BJ11-Recoveries!BJ11</f>
+        <v>1093</v>
+      </c>
+      <c r="BK12" s="1">
+        <f>Confirmed!BK11-Deaths!BK11-Recoveries!BK11</f>
+        <v>1181</v>
+      </c>
+      <c r="BL12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="17"/>
+      <c r="AK15" s="16"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -44889,247 +45755,247 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AG1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AI1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AK1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AL1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AM1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AN1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AO1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AP1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AR1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AS1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AT1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AU1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="AV1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="16" t="s">
+      <c r="AW1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AX1" s="16" t="s">
+      <c r="AX1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AY1" s="16" t="s">
+      <c r="AY1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="16" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BA1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BB1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="BC1" s="16" t="s">
+      <c r="BC1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="BD1" s="16" t="s">
+      <c r="BD1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BE1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="16" t="s">
+      <c r="BF1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BG1" s="16" t="s">
+      <c r="BG1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="BH1" s="16" t="s">
+      <c r="BH1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="BI1" s="16" t="s">
+      <c r="BI1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="BJ1" s="16" t="s">
+      <c r="BJ1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="BK1" s="16" t="s">
+      <c r="BK1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="BL1" s="16" t="s">
+      <c r="BL1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BM1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="BN1" s="16" t="s">
+      <c r="BN1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="BO1" s="16" t="s">
+      <c r="BO1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="BP1" s="16" t="s">
+      <c r="BP1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="BQ1" s="16" t="s">
+      <c r="BQ1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="BR1" s="16" t="s">
+      <c r="BR1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="BS1" s="16" t="s">
+      <c r="BS1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BT1" s="16" t="s">
+      <c r="BT1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="BU1" s="16" t="s">
+      <c r="BU1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="BV1" s="16" t="s">
+      <c r="BV1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="BW1" s="16" t="s">
+      <c r="BW1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="BX1" s="16" t="s">
+      <c r="BX1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="BY1" s="16" t="s">
+      <c r="BY1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="BZ1" s="16" t="s">
+      <c r="BZ1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="CA1" s="16" t="s">
+      <c r="CA1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="CB1" s="16" t="s">
+      <c r="CB1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="CC1" s="16" t="s">
+      <c r="CC1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="CD1" s="16" t="s">
+      <c r="CD1" s="17" t="s">
         <v>95</v>
       </c>
     </row>
@@ -45324,7 +46190,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1">
-        <f>Confirmed!BJ2-Deaths!AX2-Recoveries!AX2</f>
+        <f>Confirmed!BL2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1"/>
@@ -47924,7 +48790,7 @@
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="17"/>
+      <c r="AK15" s="16"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -48944,46 +49810,46 @@
       <c r="A1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="17" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -21,7 +21,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mifJAaelrZ+SHOXETEz1qYyaLp4hw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mj9FuTPmw5cP8GTz2we5Wl3g/2zEg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -101,6 +101,9 @@
     <t>Gauteng</t>
   </si>
   <si>
+    <t>National</t>
+  </si>
+  <si>
     <t>Published Total</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
   </si>
   <si>
     <t>Western Cape Raw</t>
-  </si>
-  <si>
-    <t>National</t>
   </si>
   <si>
     <t>21-May-2020'</t>
@@ -464,6 +464,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
       </patternFill>
@@ -472,12 +478,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,45 +497,45 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="15" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -591,12 +591,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$2:$BJ$2</c:f>
+              <c:f>Testing!$B$2:$BP$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -615,12 +615,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$3:$BJ$3</c:f>
+              <c:f>Testing!$B$3:$BP$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -639,12 +639,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$4:$BJ$4</c:f>
+              <c:f>Testing!$B$4:$BP$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -663,12 +663,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$5:$BJ$5</c:f>
+              <c:f>Testing!$B$5:$BP$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -687,12 +687,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$6:$BJ$6</c:f>
+              <c:f>Testing!$B$6:$BP$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -711,12 +711,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$7:$BJ$7</c:f>
+              <c:f>Testing!$B$7:$BP$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -737,12 +737,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$8:$BJ$8</c:f>
+              <c:f>Testing!$B$8:$BP$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -763,12 +763,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$9:$BJ$9</c:f>
+              <c:f>Testing!$B$9:$BP$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -789,12 +789,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$10:$BJ$10</c:f>
+              <c:f>Testing!$B$10:$BP$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -815,21 +815,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BJ$1</c:f>
+              <c:f>Testing!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$11:$BJ$11</c:f>
+              <c:f>Testing!$B$11:$BP$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2011706118"/>
-        <c:axId val="1808207017"/>
+        <c:axId val="46674925"/>
+        <c:axId val="42633382"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2011706118"/>
+        <c:axId val="46674925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,10 +874,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1808207017"/>
+        <c:crossAx val="42633382"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808207017"/>
+        <c:axId val="42633382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2011706118"/>
+        <c:crossAx val="46674925"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1013,12 +1013,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$2:$BJ$2</c:f>
+              <c:f>'Death Rate'!$B$2:$BP$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1036,12 +1036,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$BJ$3</c:f>
+              <c:f>'Death Rate'!$B$3:$BP$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1059,12 +1059,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$BJ$4</c:f>
+              <c:f>'Death Rate'!$B$4:$BP$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1082,12 +1082,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$BJ$5</c:f>
+              <c:f>'Death Rate'!$B$5:$BP$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1105,12 +1105,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$BJ$6</c:f>
+              <c:f>'Death Rate'!$B$6:$BP$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1128,12 +1128,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$BJ$7</c:f>
+              <c:f>'Death Rate'!$B$7:$BP$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1151,12 +1151,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$BJ$8</c:f>
+              <c:f>'Death Rate'!$B$8:$BP$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1174,12 +1174,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$BJ$9</c:f>
+              <c:f>'Death Rate'!$B$9:$BP$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1197,21 +1197,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$BJ$10</c:f>
+              <c:f>'Death Rate'!$B$10:$BP$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="159783326"/>
-        <c:axId val="399986363"/>
+        <c:axId val="1107766354"/>
+        <c:axId val="1586262832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159783326"/>
+        <c:axId val="1107766354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,10 +1256,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399986363"/>
+        <c:crossAx val="1586262832"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399986363"/>
+        <c:axId val="1586262832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1328,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159783326"/>
+        <c:crossAx val="1107766354"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1399,18 +1399,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$BJ$2</c:f>
+              <c:f>'Infection Rate'!$B$2:$BP$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="739430901"/>
-        <c:axId val="347329133"/>
+        <c:axId val="618444394"/>
+        <c:axId val="1618975723"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1426,12 +1426,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$BJ$3</c:f>
+              <c:f>'Infection Rate'!$B$3:$BP$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1449,12 +1449,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$BJ$4</c:f>
+              <c:f>'Infection Rate'!$B$4:$BP$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1472,12 +1472,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$BJ$5</c:f>
+              <c:f>'Infection Rate'!$B$5:$BP$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1495,12 +1495,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$BJ$6</c:f>
+              <c:f>'Infection Rate'!$B$6:$BP$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1518,12 +1518,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$BJ$7</c:f>
+              <c:f>'Infection Rate'!$B$7:$BP$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1541,12 +1541,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$BJ$8</c:f>
+              <c:f>'Infection Rate'!$B$8:$BP$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1564,12 +1564,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$BJ$9</c:f>
+              <c:f>'Infection Rate'!$B$9:$BP$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1587,12 +1587,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$BJ$10</c:f>
+              <c:f>'Infection Rate'!$B$10:$BP$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1610,21 +1610,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$BJ$11</c:f>
+              <c:f>'Infection Rate'!$B$11:$BP$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="739430901"/>
-        <c:axId val="347329133"/>
+        <c:axId val="618444394"/>
+        <c:axId val="1618975723"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="739430901"/>
+        <c:axId val="618444394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,10 +1669,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347329133"/>
+        <c:crossAx val="1618975723"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="347329133"/>
+        <c:axId val="1618975723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739430901"/>
+        <c:crossAx val="618444394"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1812,12 +1812,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$2:$BJ$2</c:f>
+              <c:f>'Testing per Capita'!$B$2:$BP$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1836,12 +1836,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$3:$BJ$3</c:f>
+              <c:f>'Testing per Capita'!$B$3:$BP$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1860,12 +1860,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$4:$BJ$4</c:f>
+              <c:f>'Testing per Capita'!$B$4:$BP$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1884,12 +1884,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$5:$BJ$5</c:f>
+              <c:f>'Testing per Capita'!$B$5:$BP$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1908,12 +1908,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$6:$BJ$6</c:f>
+              <c:f>'Testing per Capita'!$B$6:$BP$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1932,12 +1932,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$7:$BJ$7</c:f>
+              <c:f>'Testing per Capita'!$B$7:$BP$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1958,12 +1958,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$8:$BJ$8</c:f>
+              <c:f>'Testing per Capita'!$B$8:$BP$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1984,12 +1984,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$9:$BJ$9</c:f>
+              <c:f>'Testing per Capita'!$B$9:$BP$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2010,12 +2010,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$10:$BJ$10</c:f>
+              <c:f>'Testing per Capita'!$B$10:$BP$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2029,21 +2029,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BJ$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$11:$BJ$11</c:f>
+              <c:f>'Testing per Capita'!$B$11:$BP$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="172858052"/>
-        <c:axId val="1755159097"/>
+        <c:axId val="1084900099"/>
+        <c:axId val="1524982621"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172858052"/>
+        <c:axId val="1084900099"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,10 +2088,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1755159097"/>
+        <c:crossAx val="1524982621"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1755159097"/>
+        <c:axId val="1524982621"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172858052"/>
+        <c:crossAx val="1084900099"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2231,12 +2231,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$2:$BJ$2</c:f>
+              <c:f>'Daily tracking'!$B$2:$BP$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2255,12 +2255,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$3:$BJ$3</c:f>
+              <c:f>'Daily tracking'!$B$3:$BP$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2279,12 +2279,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$4:$BJ$4</c:f>
+              <c:f>'Daily tracking'!$B$4:$BP$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2303,12 +2303,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$5:$BJ$5</c:f>
+              <c:f>'Daily tracking'!$B$5:$BP$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2327,12 +2327,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$6:$BJ$6</c:f>
+              <c:f>'Daily tracking'!$B$6:$BP$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2351,12 +2351,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$7:$BJ$7</c:f>
+              <c:f>'Daily tracking'!$B$7:$BP$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2377,12 +2377,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$8:$BJ$8</c:f>
+              <c:f>'Daily tracking'!$B$8:$BP$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2403,12 +2403,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$9:$BJ$9</c:f>
+              <c:f>'Daily tracking'!$B$9:$BP$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2429,12 +2429,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$10:$BJ$10</c:f>
+              <c:f>'Daily tracking'!$B$10:$BP$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2448,12 +2448,12 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$11:$BJ$11</c:f>
+              <c:f>'Daily tracking'!$B$11:$BP$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2467,21 +2467,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BJ$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$12:$BJ$12</c:f>
+              <c:f>'Daily tracking'!$B$12:$BP$12</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="794624464"/>
-        <c:axId val="1583439267"/>
+        <c:axId val="546501861"/>
+        <c:axId val="711154855"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="794624464"/>
+        <c:axId val="546501861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,10 +2526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583439267"/>
+        <c:crossAx val="711154855"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1583439267"/>
+        <c:axId val="711154855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,7 +2598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794624464"/>
+        <c:crossAx val="546501861"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2669,18 +2669,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$BJ$2</c:f>
+              <c:f>Active!$B$2:$BP$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1693947647"/>
-        <c:axId val="236895073"/>
+        <c:axId val="1336222790"/>
+        <c:axId val="806123584"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2696,12 +2696,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$BJ$3</c:f>
+              <c:f>Active!$B$3:$BP$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2719,12 +2719,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$BJ$4</c:f>
+              <c:f>Active!$B$4:$BP$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2742,12 +2742,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$BJ$5</c:f>
+              <c:f>Active!$B$5:$BP$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2765,12 +2765,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$BJ$6</c:f>
+              <c:f>Active!$B$6:$BP$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2788,12 +2788,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$BJ$7</c:f>
+              <c:f>Active!$B$7:$BP$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2811,12 +2811,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$BJ$8</c:f>
+              <c:f>Active!$B$8:$BP$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2834,12 +2834,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$BJ$9</c:f>
+              <c:f>Active!$B$9:$BP$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2857,12 +2857,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$BJ$10</c:f>
+              <c:f>Active!$B$10:$BP$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2880,21 +2880,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BJ$1</c:f>
+              <c:f>Active!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$BJ$11</c:f>
+              <c:f>Active!$B$11:$BP$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1693947647"/>
-        <c:axId val="236895073"/>
+        <c:axId val="1336222790"/>
+        <c:axId val="806123584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1693947647"/>
+        <c:axId val="1336222790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,10 +2939,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236895073"/>
+        <c:crossAx val="806123584"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236895073"/>
+        <c:axId val="806123584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3011,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1693947647"/>
+        <c:crossAx val="1336222790"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3092,8 +3092,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="343129489"/>
-        <c:axId val="663930795"/>
+        <c:axId val="1105912438"/>
+        <c:axId val="1973919073"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3303,11 +3303,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="343129489"/>
-        <c:axId val="663930795"/>
+        <c:axId val="1105912438"/>
+        <c:axId val="1973919073"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343129489"/>
+        <c:axId val="1105912438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3352,10 +3352,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663930795"/>
+        <c:crossAx val="1973919073"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663930795"/>
+        <c:axId val="1973919073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343129489"/>
+        <c:crossAx val="1105912438"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3513,8 +3513,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2009669802"/>
-        <c:axId val="825726223"/>
+        <c:axId val="1021672583"/>
+        <c:axId val="1487963563"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3724,11 +3724,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2009669802"/>
-        <c:axId val="825726223"/>
+        <c:axId val="1021672583"/>
+        <c:axId val="1487963563"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2009669802"/>
+        <c:axId val="1021672583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,10 +3773,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="825726223"/>
+        <c:crossAx val="1487963563"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="825726223"/>
+        <c:axId val="1487963563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3845,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2009669802"/>
+        <c:crossAx val="1021672583"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3995,11 +3995,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1426060239"/>
-        <c:axId val="1487127247"/>
+        <c:axId val="1666828348"/>
+        <c:axId val="601491580"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1426060239"/>
+        <c:axId val="1666828348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,10 +4044,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1487127247"/>
+        <c:crossAx val="601491580"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1487127247"/>
+        <c:axId val="601491580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1426060239"/>
+        <c:crossAx val="1666828348"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4335,11 +4335,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1427831958"/>
-        <c:axId val="185130882"/>
+        <c:axId val="1766204991"/>
+        <c:axId val="2060416355"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1427831958"/>
+        <c:axId val="1766204991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,10 +4384,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185130882"/>
+        <c:crossAx val="2060416355"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185130882"/>
+        <c:axId val="2060416355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4456,7 +4456,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427831958"/>
+        <c:crossAx val="1766204991"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4523,12 +4523,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$BJ$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$BP$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4546,12 +4546,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$BJ$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$BP$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4569,12 +4569,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$BJ$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$BP$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4592,12 +4592,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$BJ$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$BP$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4615,12 +4615,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$BJ$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$BP$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4638,12 +4638,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$BJ$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$BP$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4661,12 +4661,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$BJ$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$BP$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4684,12 +4684,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$BJ$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$BP$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4707,21 +4707,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BJ$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BP$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$11:$BJ$11</c:f>
+              <c:f>'Recovery Rate'!$B$11:$BP$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="467419886"/>
-        <c:axId val="1503816058"/>
+        <c:axId val="705560001"/>
+        <c:axId val="25933737"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467419886"/>
+        <c:axId val="705560001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,10 +4766,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503816058"/>
+        <c:crossAx val="25933737"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1503816058"/>
+        <c:axId val="25933737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +4838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467419886"/>
+        <c:crossAx val="705560001"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4979,7 +4979,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="613342381" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="613342381" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5009,7 +5009,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="123848420" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="123848420" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5417,7 +5417,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="62" width="9.88"/>
+    <col customWidth="1" min="44" max="68" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5601,12 +5601,30 @@
       <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -5768,6 +5786,12 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -5953,7 +5977,25 @@
       <c r="BI3" s="4">
         <v>45.0</v>
       </c>
-      <c r="BJ3" s="4"/>
+      <c r="BJ3" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="BN3" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="BP3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -6139,7 +6181,25 @@
       <c r="BI4" s="4">
         <v>109.0</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="4">
+        <v>115.0</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>134.0</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>143.0</v>
+      </c>
+      <c r="BN4" s="4">
+        <v>162.0</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>175.0</v>
+      </c>
+      <c r="BP4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -6325,7 +6385,25 @@
       <c r="BI5" s="4">
         <v>102.0</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="4">
+        <v>103.0</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>106.0</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>111.0</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>112.0</v>
+      </c>
+      <c r="BN5" s="4">
+        <v>113.0</v>
+      </c>
+      <c r="BO5" s="4">
+        <v>121.0</v>
+      </c>
+      <c r="BP5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -6511,7 +6589,25 @@
       <c r="BI6" s="4">
         <v>132.0</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="4">
+        <v>132.0</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>141.0</v>
+      </c>
+      <c r="BL6" s="4">
+        <v>144.0</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>170.0</v>
+      </c>
+      <c r="BN6" s="4">
+        <v>173.0</v>
+      </c>
+      <c r="BO6" s="4">
+        <v>177.0</v>
+      </c>
+      <c r="BP6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6697,7 +6793,25 @@
       <c r="BI7" s="4">
         <v>2748.0</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="4">
+        <v>2864.0</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>3047.0</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>3306.0</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>3583.0</v>
+      </c>
+      <c r="BN7" s="4">
+        <v>3759.0</v>
+      </c>
+      <c r="BO7" s="4">
+        <v>3927.0</v>
+      </c>
+      <c r="BP7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -6883,7 +6997,25 @@
       <c r="BI8" s="4">
         <v>208.0</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="4">
+        <v>206.0</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>221.0</v>
+      </c>
+      <c r="BL8" s="4">
+        <v>225.0</v>
+      </c>
+      <c r="BM8" s="4">
+        <v>231.0</v>
+      </c>
+      <c r="BN8" s="4">
+        <v>261.0</v>
+      </c>
+      <c r="BO8" s="4">
+        <v>278.0</v>
+      </c>
+      <c r="BP8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -7069,7 +7201,25 @@
       <c r="BI9" s="4">
         <v>1882.0</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="4">
+        <v>1927.0</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>2186.0</v>
+      </c>
+      <c r="BL9" s="4">
+        <v>2349.0</v>
+      </c>
+      <c r="BM9" s="4">
+        <v>2428.0</v>
+      </c>
+      <c r="BN9" s="4">
+        <v>2476.0</v>
+      </c>
+      <c r="BO9" s="4">
+        <v>2545.0</v>
+      </c>
+      <c r="BP9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -7255,7 +7405,25 @@
       <c r="BI10" s="4">
         <v>15396.0</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="4">
+        <v>15829.0</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>16893.0</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>17754.0</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>18906.0</v>
+      </c>
+      <c r="BN10" s="4">
+        <v>20160.0</v>
+      </c>
+      <c r="BO10" s="4">
+        <v>21382.0</v>
+      </c>
+      <c r="BP10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -7441,7 +7609,25 @@
       <c r="BI11" s="4">
         <v>2993.0</v>
       </c>
-      <c r="BJ11" s="4"/>
+      <c r="BJ11" s="4">
+        <v>3043.0</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>3167.0</v>
+      </c>
+      <c r="BL11" s="4">
+        <v>3329.0</v>
+      </c>
+      <c r="BM11" s="4">
+        <v>3583.0</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>3773.0</v>
+      </c>
+      <c r="BO11" s="4">
+        <v>4003.0</v>
+      </c>
+      <c r="BP11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -8455,7 +8641,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="62" width="8.88"/>
+    <col customWidth="1" min="46" max="68" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -8643,8 +8829,26 @@
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -8849,8 +9053,14 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="1">
-        <f>Confirmed!BJ2-Active!BJ2</f>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1">
+        <f>Confirmed!BP2-Active!BP2</f>
         <v>0</v>
       </c>
     </row>
@@ -9098,7 +9308,31 @@
         <f>Confirmed!BI3-Active!BI4</f>
         <v>29</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f>Confirmed!BJ3-Active!BJ4</f>
+        <v>30</v>
+      </c>
+      <c r="BK3" s="1">
+        <f>Confirmed!BK3-Active!BK4</f>
+        <v>31</v>
+      </c>
+      <c r="BL3" s="1">
+        <f>Confirmed!BL3-Active!BL4</f>
+        <v>31</v>
+      </c>
+      <c r="BM3" s="1">
+        <f>Confirmed!BM3-Active!BM4</f>
+        <v>32</v>
+      </c>
+      <c r="BN3" s="1">
+        <f>Confirmed!BN3-Active!BN4</f>
+        <v>32</v>
+      </c>
+      <c r="BO3" s="1">
+        <f>Confirmed!BO3-Active!BO4</f>
+        <v>32</v>
+      </c>
+      <c r="BP3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9344,7 +9578,31 @@
         <f>Confirmed!BI4-Active!BI5</f>
         <v>30</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>Confirmed!BJ4-Active!BJ5</f>
+        <v>30</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>Confirmed!BK4-Active!BK5</f>
+        <v>40</v>
+      </c>
+      <c r="BL4" s="1">
+        <f>Confirmed!BL4-Active!BL5</f>
+        <v>46</v>
+      </c>
+      <c r="BM4" s="1">
+        <f>Confirmed!BM4-Active!BM5</f>
+        <v>46</v>
+      </c>
+      <c r="BN4" s="1">
+        <f>Confirmed!BN4-Active!BN5</f>
+        <v>46</v>
+      </c>
+      <c r="BO4" s="1">
+        <f>Confirmed!BO4-Active!BO5</f>
+        <v>46</v>
+      </c>
+      <c r="BP4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -9590,7 +9848,31 @@
         <f>Confirmed!BI5-Active!BI6</f>
         <v>61</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>Confirmed!BJ5-Active!BJ6</f>
+        <v>61</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>Confirmed!BK5-Active!BK6</f>
+        <v>62</v>
+      </c>
+      <c r="BL5" s="1">
+        <f>Confirmed!BL5-Active!BL6</f>
+        <v>67</v>
+      </c>
+      <c r="BM5" s="1">
+        <f>Confirmed!BM5-Active!BM6</f>
+        <v>67</v>
+      </c>
+      <c r="BN5" s="1">
+        <f>Confirmed!BN5-Active!BN6</f>
+        <v>67</v>
+      </c>
+      <c r="BO5" s="1">
+        <f>Confirmed!BO5-Active!BO6</f>
+        <v>72</v>
+      </c>
+      <c r="BP5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -9836,7 +10118,31 @@
         <f>Confirmed!BI6-Active!BI7</f>
         <v>58</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>Confirmed!BJ6-Active!BJ7</f>
+        <v>68</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>Confirmed!BK6-Active!BK7</f>
+        <v>70</v>
+      </c>
+      <c r="BL6" s="1">
+        <f>Confirmed!BL6-Active!BL7</f>
+        <v>78</v>
+      </c>
+      <c r="BM6" s="1">
+        <f>Confirmed!BM6-Active!BM7</f>
+        <v>100</v>
+      </c>
+      <c r="BN6" s="1">
+        <f>Confirmed!BN6-Active!BN7</f>
+        <v>143</v>
+      </c>
+      <c r="BO6" s="1">
+        <f>Confirmed!BO6-Active!BO7</f>
+        <v>146</v>
+      </c>
+      <c r="BP6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -10082,7 +10388,31 @@
         <f>Confirmed!BI7-Active!BI8</f>
         <v>1396</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>Confirmed!BJ7-Active!BJ8</f>
+        <v>1561</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>Confirmed!BK7-Active!BK8</f>
+        <v>1561</v>
+      </c>
+      <c r="BL7" s="1">
+        <f>Confirmed!BL7-Active!BL8</f>
+        <v>1777</v>
+      </c>
+      <c r="BM7" s="1">
+        <f>Confirmed!BM7-Active!BM8</f>
+        <v>1780</v>
+      </c>
+      <c r="BN7" s="1">
+        <f>Confirmed!BN7-Active!BN8</f>
+        <v>2069</v>
+      </c>
+      <c r="BO7" s="1">
+        <f>Confirmed!BO7-Active!BO8</f>
+        <v>2069</v>
+      </c>
+      <c r="BP7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -10328,7 +10658,31 @@
         <f>Confirmed!BI8-Active!BI9</f>
         <v>127</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>Confirmed!BJ8-Active!BJ9</f>
+        <v>129</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>Confirmed!BK8-Active!BK9</f>
+        <v>129</v>
+      </c>
+      <c r="BL8" s="1">
+        <f>Confirmed!BL8-Active!BL9</f>
+        <v>131</v>
+      </c>
+      <c r="BM8" s="1">
+        <f>Confirmed!BM8-Active!BM9</f>
+        <v>132</v>
+      </c>
+      <c r="BN8" s="1">
+        <f>Confirmed!BN8-Active!BN9</f>
+        <v>131</v>
+      </c>
+      <c r="BO8" s="1">
+        <f>Confirmed!BO8-Active!BO9</f>
+        <v>132</v>
+      </c>
+      <c r="BP8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -10574,7 +10928,31 @@
         <f>Confirmed!BI9-Active!BI10</f>
         <v>1217</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>Confirmed!BJ9-Active!BJ10</f>
+        <v>1229</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>Confirmed!BK9-Active!BK10</f>
+        <v>1229</v>
+      </c>
+      <c r="BL9" s="1">
+        <f>Confirmed!BL9-Active!BL10</f>
+        <v>1230</v>
+      </c>
+      <c r="BM9" s="1">
+        <f>Confirmed!BM9-Active!BM10</f>
+        <v>1230</v>
+      </c>
+      <c r="BN9" s="1">
+        <f>Confirmed!BN9-Active!BN10</f>
+        <v>1232</v>
+      </c>
+      <c r="BO9" s="1">
+        <f>Confirmed!BO9-Active!BO10</f>
+        <v>1300</v>
+      </c>
+      <c r="BP9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -10820,7 +11198,31 @@
         <f>Confirmed!BI10-Active!BI11</f>
         <v>7551</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>Confirmed!BJ10-Active!BJ11</f>
+        <v>8207</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>Confirmed!BK10-Active!BK11</f>
+        <v>8895</v>
+      </c>
+      <c r="BL10" s="1">
+        <f>Confirmed!BL10-Active!BL11</f>
+        <v>9563</v>
+      </c>
+      <c r="BM10" s="1">
+        <f>Confirmed!BM10-Active!BM11</f>
+        <v>10267</v>
+      </c>
+      <c r="BN10" s="1">
+        <f>Confirmed!BN10-Active!BN11</f>
+        <v>10973</v>
+      </c>
+      <c r="BO10" s="1">
+        <f>Confirmed!BO10-Active!BO11</f>
+        <v>11602</v>
+      </c>
+      <c r="BP10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -11066,7 +11468,31 @@
         <f>Confirmed!BI11-Active!BI12</f>
         <v>1929</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>Confirmed!BJ11-Active!BJ12</f>
+        <v>1950</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>Confirmed!BK11-Active!BK12</f>
+        <v>1986</v>
+      </c>
+      <c r="BL11" s="1">
+        <f>Confirmed!BL11-Active!BL12</f>
+        <v>2024</v>
+      </c>
+      <c r="BM11" s="1">
+        <f>Confirmed!BM11-Active!BM12</f>
+        <v>2050</v>
+      </c>
+      <c r="BN11" s="1">
+        <f>Confirmed!BN11-Active!BN12</f>
+        <v>2066</v>
+      </c>
+      <c r="BO11" s="1">
+        <f>Confirmed!BO11-Active!BO12</f>
+        <v>2093</v>
+      </c>
+      <c r="BP11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -12078,11 +12504,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.75"/>
-    <col customWidth="1" min="2" max="6" width="8.38"/>
-    <col customWidth="1" min="7" max="15" width="7.13"/>
-    <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="62" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="11.88"/>
+    <col customWidth="1" min="2" max="6" width="8.63"/>
+    <col customWidth="1" min="7" max="12" width="7.38"/>
+    <col customWidth="1" min="13" max="13" width="18.13"/>
+    <col customWidth="1" min="14" max="15" width="7.38"/>
+    <col customWidth="1" min="16" max="63" width="10.5"/>
+    <col customWidth="1" min="64" max="67" width="7.63"/>
+    <col customWidth="1" min="68" max="68" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -12270,8 +12699,26 @@
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -12468,6 +12915,12 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -12713,7 +13166,31 @@
         <f>IF(Closed!BI3&gt;0,100*Recoveries!BI3/Closed!BI3,100)</f>
         <v>96.55172414</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f>IF(Closed!BJ3&gt;0,100*Recoveries!BJ3/Closed!BJ3,100)</f>
+        <v>96.66666667</v>
+      </c>
+      <c r="BK3" s="1">
+        <f>IF(Closed!BK3&gt;0,100*Recoveries!BK3/Closed!BK3,100)</f>
+        <v>96.77419355</v>
+      </c>
+      <c r="BL3" s="1">
+        <f>IF(Closed!BL3&gt;0,100*Recoveries!BL3/Closed!BL3,100)</f>
+        <v>96.77419355</v>
+      </c>
+      <c r="BM3" s="1">
+        <f>IF(Closed!BM3&gt;0,100*Recoveries!BM3/Closed!BM3,100)</f>
+        <v>96.875</v>
+      </c>
+      <c r="BN3" s="1">
+        <f>IF(Closed!BN3&gt;0,100*Recoveries!BN3/Closed!BN3,100)</f>
+        <v>96.875</v>
+      </c>
+      <c r="BO3" s="1">
+        <f>IF(Closed!BO3&gt;0,100*Recoveries!BO3/Closed!BO3,100)</f>
+        <v>96.875</v>
+      </c>
+      <c r="BP3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="20" t="s">
@@ -12959,7 +13436,31 @@
         <f>IF(Closed!BI4&gt;0,100*Recoveries!BI4/Closed!BI4,100)</f>
         <v>96.66666667</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>IF(Closed!BJ4&gt;0,100*Recoveries!BJ4/Closed!BJ4,100)</f>
+        <v>96.66666667</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>IF(Closed!BK4&gt;0,100*Recoveries!BK4/Closed!BK4,100)</f>
+        <v>97.5</v>
+      </c>
+      <c r="BL4" s="1">
+        <f>IF(Closed!BL4&gt;0,100*Recoveries!BL4/Closed!BL4,100)</f>
+        <v>97.82608696</v>
+      </c>
+      <c r="BM4" s="1">
+        <f>IF(Closed!BM4&gt;0,100*Recoveries!BM4/Closed!BM4,100)</f>
+        <v>97.82608696</v>
+      </c>
+      <c r="BN4" s="1">
+        <f>IF(Closed!BN4&gt;0,100*Recoveries!BN4/Closed!BN4,100)</f>
+        <v>97.82608696</v>
+      </c>
+      <c r="BO4" s="1">
+        <f>IF(Closed!BO4&gt;0,100*Recoveries!BO4/Closed!BO4,100)</f>
+        <v>97.82608696</v>
+      </c>
+      <c r="BP4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="20" t="s">
@@ -13205,7 +13706,31 @@
         <f>IF(Closed!BI5&gt;0,100*Recoveries!BI5/Closed!BI5,100)</f>
         <v>100</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>IF(Closed!BJ5&gt;0,100*Recoveries!BJ5/Closed!BJ5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>IF(Closed!BK5&gt;0,100*Recoveries!BK5/Closed!BK5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BL5" s="1">
+        <f>IF(Closed!BL5&gt;0,100*Recoveries!BL5/Closed!BL5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BM5" s="1">
+        <f>IF(Closed!BM5&gt;0,100*Recoveries!BM5/Closed!BM5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BN5" s="1">
+        <f>IF(Closed!BN5&gt;0,100*Recoveries!BN5/Closed!BN5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BO5" s="1">
+        <f>IF(Closed!BO5&gt;0,100*Recoveries!BO5/Closed!BO5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BP5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="20" t="s">
@@ -13451,7 +13976,31 @@
         <f>IF(Closed!BI6&gt;0,100*Recoveries!BI6/Closed!BI6,100)</f>
         <v>94.82758621</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>IF(Closed!BJ6&gt;0,100*Recoveries!BJ6/Closed!BJ6,100)</f>
+        <v>95.58823529</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>IF(Closed!BK6&gt;0,100*Recoveries!BK6/Closed!BK6,100)</f>
+        <v>95.71428571</v>
+      </c>
+      <c r="BL6" s="1">
+        <f>IF(Closed!BL6&gt;0,100*Recoveries!BL6/Closed!BL6,100)</f>
+        <v>96.15384615</v>
+      </c>
+      <c r="BM6" s="1">
+        <f>IF(Closed!BM6&gt;0,100*Recoveries!BM6/Closed!BM6,100)</f>
+        <v>97</v>
+      </c>
+      <c r="BN6" s="1">
+        <f>IF(Closed!BN6&gt;0,100*Recoveries!BN6/Closed!BN6,100)</f>
+        <v>97.9020979</v>
+      </c>
+      <c r="BO6" s="1">
+        <f>IF(Closed!BO6&gt;0,100*Recoveries!BO6/Closed!BO6,100)</f>
+        <v>97.94520548</v>
+      </c>
+      <c r="BP6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="20" t="s">
@@ -13697,7 +14246,31 @@
         <f>IF(Closed!BI7&gt;0,100*Recoveries!BI7/Closed!BI7,100)</f>
         <v>95.63037249</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>IF(Closed!BJ7&gt;0,100*Recoveries!BJ7/Closed!BJ7,100)</f>
+        <v>95.51569507</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>IF(Closed!BK7&gt;0,100*Recoveries!BK7/Closed!BK7,100)</f>
+        <v>95.51569507</v>
+      </c>
+      <c r="BL7" s="1">
+        <f>IF(Closed!BL7&gt;0,100*Recoveries!BL7/Closed!BL7,100)</f>
+        <v>95.66685425</v>
+      </c>
+      <c r="BM7" s="1">
+        <f>IF(Closed!BM7&gt;0,100*Recoveries!BM7/Closed!BM7,100)</f>
+        <v>95.50561798</v>
+      </c>
+      <c r="BN7" s="1">
+        <f>IF(Closed!BN7&gt;0,100*Recoveries!BN7/Closed!BN7,100)</f>
+        <v>96.03673272</v>
+      </c>
+      <c r="BO7" s="1">
+        <f>IF(Closed!BO7&gt;0,100*Recoveries!BO7/Closed!BO7,100)</f>
+        <v>96.03673272</v>
+      </c>
+      <c r="BP7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="20" t="s">
@@ -13943,7 +14516,31 @@
         <f>IF(Closed!BI8&gt;0,100*Recoveries!BI8/Closed!BI8,100)</f>
         <v>95.27559055</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>IF(Closed!BJ8&gt;0,100*Recoveries!BJ8/Closed!BJ8,100)</f>
+        <v>95.34883721</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>IF(Closed!BK8&gt;0,100*Recoveries!BK8/Closed!BK8,100)</f>
+        <v>95.34883721</v>
+      </c>
+      <c r="BL8" s="1">
+        <f>IF(Closed!BL8&gt;0,100*Recoveries!BL8/Closed!BL8,100)</f>
+        <v>93.89312977</v>
+      </c>
+      <c r="BM8" s="1">
+        <f>IF(Closed!BM8&gt;0,100*Recoveries!BM8/Closed!BM8,100)</f>
+        <v>93.93939394</v>
+      </c>
+      <c r="BN8" s="1">
+        <f>IF(Closed!BN8&gt;0,100*Recoveries!BN8/Closed!BN8,100)</f>
+        <v>93.89312977</v>
+      </c>
+      <c r="BO8" s="1">
+        <f>IF(Closed!BO8&gt;0,100*Recoveries!BO8/Closed!BO8,100)</f>
+        <v>93.93939394</v>
+      </c>
+      <c r="BP8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="20" t="s">
@@ -14189,7 +14786,31 @@
         <f>IF(Closed!BI9&gt;0,100*Recoveries!BI9/Closed!BI9,100)</f>
         <v>95.97370583</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>IF(Closed!BJ9&gt;0,100*Recoveries!BJ9/Closed!BJ9,100)</f>
+        <v>96.01301871</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>IF(Closed!BK9&gt;0,100*Recoveries!BK9/Closed!BK9,100)</f>
+        <v>96.01301871</v>
+      </c>
+      <c r="BL9" s="1">
+        <f>IF(Closed!BL9&gt;0,100*Recoveries!BL9/Closed!BL9,100)</f>
+        <v>95.93495935</v>
+      </c>
+      <c r="BM9" s="1">
+        <f>IF(Closed!BM9&gt;0,100*Recoveries!BM9/Closed!BM9,100)</f>
+        <v>95.93495935</v>
+      </c>
+      <c r="BN9" s="1">
+        <f>IF(Closed!BN9&gt;0,100*Recoveries!BN9/Closed!BN9,100)</f>
+        <v>95.77922078</v>
+      </c>
+      <c r="BO9" s="1">
+        <f>IF(Closed!BO9&gt;0,100*Recoveries!BO9/Closed!BO9,100)</f>
+        <v>96</v>
+      </c>
+      <c r="BP9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="20" t="s">
@@ -14435,7 +15056,31 @@
         <f>IF(Closed!BI10&gt;0,100*Recoveries!BI10/Closed!BI10,100)</f>
         <v>95.62971792</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>IF(Closed!BJ10&gt;0,100*Recoveries!BJ10/Closed!BJ10,100)</f>
+        <v>95.57694651</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>IF(Closed!BK10&gt;0,100*Recoveries!BK10/Closed!BK10,100)</f>
+        <v>95.60427206</v>
+      </c>
+      <c r="BL10" s="1">
+        <f>IF(Closed!BL10&gt;0,100*Recoveries!BL10/Closed!BL10,100)</f>
+        <v>95.75447035</v>
+      </c>
+      <c r="BM10" s="1">
+        <f>IF(Closed!BM10&gt;0,100*Recoveries!BM10/Closed!BM10,100)</f>
+        <v>95.74364469</v>
+      </c>
+      <c r="BN10" s="1">
+        <f>IF(Closed!BN10&gt;0,100*Recoveries!BN10/Closed!BN10,100)</f>
+        <v>95.76232571</v>
+      </c>
+      <c r="BO10" s="1">
+        <f>IF(Closed!BO10&gt;0,100*Recoveries!BO10/Closed!BO10,100)</f>
+        <v>95.6645406</v>
+      </c>
+      <c r="BP10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="20" t="s">
@@ -14681,7 +15326,31 @@
         <f>IF(Closed!BI11&gt;0,100*Recoveries!BI11/Closed!BI11,100)</f>
         <v>98.44479005</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>IF(Closed!BJ11&gt;0,100*Recoveries!BJ11/Closed!BJ11,100)</f>
+        <v>98.41025641</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>IF(Closed!BK11&gt;0,100*Recoveries!BK11/Closed!BK11,100)</f>
+        <v>98.43907351</v>
+      </c>
+      <c r="BL11" s="1">
+        <f>IF(Closed!BL11&gt;0,100*Recoveries!BL11/Closed!BL11,100)</f>
+        <v>98.46837945</v>
+      </c>
+      <c r="BM11" s="1">
+        <f>IF(Closed!BM11&gt;0,100*Recoveries!BM11/Closed!BM11,100)</f>
+        <v>98.48780488</v>
+      </c>
+      <c r="BN11" s="1">
+        <f>IF(Closed!BN11&gt;0,100*Recoveries!BN11/Closed!BN11,100)</f>
+        <v>98.49951597</v>
+      </c>
+      <c r="BO11" s="1">
+        <f>IF(Closed!BO11&gt;0,100*Recoveries!BO11/Closed!BO11,100)</f>
+        <v>98.42331581</v>
+      </c>
+      <c r="BP11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -15705,7 +16374,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="62" width="10.5"/>
+    <col customWidth="1" min="35" max="68" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -15893,8 +16562,26 @@
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -16091,6 +16778,12 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -16336,7 +17029,31 @@
         <f>IF(Closed!BI3&gt;0,100*Deaths!BI3/Closed!BI3,0)</f>
         <v>3.448275862</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f>IF(Closed!BJ3&gt;0,100*Deaths!BJ3/Closed!BJ3,0)</f>
+        <v>3.333333333</v>
+      </c>
+      <c r="BK3" s="1">
+        <f>IF(Closed!BK3&gt;0,100*Deaths!BK3/Closed!BK3,0)</f>
+        <v>3.225806452</v>
+      </c>
+      <c r="BL3" s="1">
+        <f>IF(Closed!BL3&gt;0,100*Deaths!BL3/Closed!BL3,0)</f>
+        <v>3.225806452</v>
+      </c>
+      <c r="BM3" s="1">
+        <f>IF(Closed!BM3&gt;0,100*Deaths!BM3/Closed!BM3,0)</f>
+        <v>3.125</v>
+      </c>
+      <c r="BN3" s="1">
+        <f>IF(Closed!BN3&gt;0,100*Deaths!BN3/Closed!BN3,0)</f>
+        <v>3.125</v>
+      </c>
+      <c r="BO3" s="1">
+        <f>IF(Closed!BO3&gt;0,100*Deaths!BO3/Closed!BO3,0)</f>
+        <v>3.125</v>
+      </c>
+      <c r="BP3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -16582,7 +17299,31 @@
         <f>IF(Closed!BI4&gt;0,100*Deaths!BI4/Closed!BI4,0)</f>
         <v>3.333333333</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>IF(Closed!BJ4&gt;0,100*Deaths!BJ4/Closed!BJ4,0)</f>
+        <v>3.333333333</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>IF(Closed!BK4&gt;0,100*Deaths!BK4/Closed!BK4,0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BL4" s="1">
+        <f>IF(Closed!BL4&gt;0,100*Deaths!BL4/Closed!BL4,0)</f>
+        <v>2.173913043</v>
+      </c>
+      <c r="BM4" s="1">
+        <f>IF(Closed!BM4&gt;0,100*Deaths!BM4/Closed!BM4,0)</f>
+        <v>2.173913043</v>
+      </c>
+      <c r="BN4" s="1">
+        <f>IF(Closed!BN4&gt;0,100*Deaths!BN4/Closed!BN4,0)</f>
+        <v>2.173913043</v>
+      </c>
+      <c r="BO4" s="1">
+        <f>IF(Closed!BO4&gt;0,100*Deaths!BO4/Closed!BO4,0)</f>
+        <v>2.173913043</v>
+      </c>
+      <c r="BP4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -16828,7 +17569,31 @@
         <f>IF(Closed!BI5&gt;0,100*Deaths!BI5/Closed!BI5,0)</f>
         <v>0</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>IF(Closed!BJ5&gt;0,100*Deaths!BJ5/Closed!BJ5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>IF(Closed!BK5&gt;0,100*Deaths!BK5/Closed!BK5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <f>IF(Closed!BL5&gt;0,100*Deaths!BL5/Closed!BL5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BM5" s="1">
+        <f>IF(Closed!BM5&gt;0,100*Deaths!BM5/Closed!BM5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <f>IF(Closed!BN5&gt;0,100*Deaths!BN5/Closed!BN5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1">
+        <f>IF(Closed!BO5&gt;0,100*Deaths!BO5/Closed!BO5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -17074,7 +17839,31 @@
         <f>IF(Closed!BI6&gt;0,100*Deaths!BI6/Closed!BI6,0)</f>
         <v>5.172413793</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>IF(Closed!BJ6&gt;0,100*Deaths!BJ6/Closed!BJ6,0)</f>
+        <v>4.411764706</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>IF(Closed!BK6&gt;0,100*Deaths!BK6/Closed!BK6,0)</f>
+        <v>4.285714286</v>
+      </c>
+      <c r="BL6" s="1">
+        <f>IF(Closed!BL6&gt;0,100*Deaths!BL6/Closed!BL6,0)</f>
+        <v>3.846153846</v>
+      </c>
+      <c r="BM6" s="1">
+        <f>IF(Closed!BM6&gt;0,100*Deaths!BM6/Closed!BM6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BN6" s="1">
+        <f>IF(Closed!BN6&gt;0,100*Deaths!BN6/Closed!BN6,0)</f>
+        <v>2.097902098</v>
+      </c>
+      <c r="BO6" s="1">
+        <f>IF(Closed!BO6&gt;0,100*Deaths!BO6/Closed!BO6,0)</f>
+        <v>2.054794521</v>
+      </c>
+      <c r="BP6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -17320,7 +18109,31 @@
         <f>IF(Closed!BI7&gt;0,100*Deaths!BI7/Closed!BI7,0)</f>
         <v>4.369627507</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>IF(Closed!BJ7&gt;0,100*Deaths!BJ7/Closed!BJ7,0)</f>
+        <v>4.484304933</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>IF(Closed!BK7&gt;0,100*Deaths!BK7/Closed!BK7,0)</f>
+        <v>4.484304933</v>
+      </c>
+      <c r="BL7" s="1">
+        <f>IF(Closed!BL7&gt;0,100*Deaths!BL7/Closed!BL7,0)</f>
+        <v>4.333145751</v>
+      </c>
+      <c r="BM7" s="1">
+        <f>IF(Closed!BM7&gt;0,100*Deaths!BM7/Closed!BM7,0)</f>
+        <v>4.494382022</v>
+      </c>
+      <c r="BN7" s="1">
+        <f>IF(Closed!BN7&gt;0,100*Deaths!BN7/Closed!BN7,0)</f>
+        <v>3.963267279</v>
+      </c>
+      <c r="BO7" s="1">
+        <f>IF(Closed!BO7&gt;0,100*Deaths!BO7/Closed!BO7,0)</f>
+        <v>3.963267279</v>
+      </c>
+      <c r="BP7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -17566,7 +18379,31 @@
         <f>IF(Closed!BI8&gt;0,100*Deaths!BI8/Closed!BI8,0)</f>
         <v>4.724409449</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>IF(Closed!BJ8&gt;0,100*Deaths!BJ8/Closed!BJ8,0)</f>
+        <v>4.651162791</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>IF(Closed!BK8&gt;0,100*Deaths!BK8/Closed!BK8,0)</f>
+        <v>4.651162791</v>
+      </c>
+      <c r="BL8" s="1">
+        <f>IF(Closed!BL8&gt;0,100*Deaths!BL8/Closed!BL8,0)</f>
+        <v>6.106870229</v>
+      </c>
+      <c r="BM8" s="1">
+        <f>IF(Closed!BM8&gt;0,100*Deaths!BM8/Closed!BM8,0)</f>
+        <v>6.060606061</v>
+      </c>
+      <c r="BN8" s="1">
+        <f>IF(Closed!BN8&gt;0,100*Deaths!BN8/Closed!BN8,0)</f>
+        <v>6.106870229</v>
+      </c>
+      <c r="BO8" s="1">
+        <f>IF(Closed!BO8&gt;0,100*Deaths!BO8/Closed!BO8,0)</f>
+        <v>6.060606061</v>
+      </c>
+      <c r="BP8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -17812,7 +18649,31 @@
         <f>IF(Closed!BI9&gt;0,100*Deaths!BI9/Closed!BI9,0)</f>
         <v>4.026294166</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>IF(Closed!BJ9&gt;0,100*Deaths!BJ9/Closed!BJ9,0)</f>
+        <v>3.986981286</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>IF(Closed!BK9&gt;0,100*Deaths!BK9/Closed!BK9,0)</f>
+        <v>3.986981286</v>
+      </c>
+      <c r="BL9" s="1">
+        <f>IF(Closed!BL9&gt;0,100*Deaths!BL9/Closed!BL9,0)</f>
+        <v>4.06504065</v>
+      </c>
+      <c r="BM9" s="1">
+        <f>IF(Closed!BM9&gt;0,100*Deaths!BM9/Closed!BM9,0)</f>
+        <v>4.06504065</v>
+      </c>
+      <c r="BN9" s="1">
+        <f>IF(Closed!BN9&gt;0,100*Deaths!BN9/Closed!BN9,0)</f>
+        <v>4.220779221</v>
+      </c>
+      <c r="BO9" s="1">
+        <f>IF(Closed!BO9&gt;0,100*Deaths!BO9/Closed!BO9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BP9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -18058,7 +18919,31 @@
         <f>IF(Closed!BI10&gt;0,100*Deaths!BI10/Closed!BI10,0)</f>
         <v>4.370282082</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>IF(Closed!BJ10&gt;0,100*Deaths!BJ10/Closed!BJ10,0)</f>
+        <v>4.423053491</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>IF(Closed!BK10&gt;0,100*Deaths!BK10/Closed!BK10,0)</f>
+        <v>4.395727937</v>
+      </c>
+      <c r="BL10" s="1">
+        <f>IF(Closed!BL10&gt;0,100*Deaths!BL10/Closed!BL10,0)</f>
+        <v>4.245529646</v>
+      </c>
+      <c r="BM10" s="1">
+        <f>IF(Closed!BM10&gt;0,100*Deaths!BM10/Closed!BM10,0)</f>
+        <v>4.256355313</v>
+      </c>
+      <c r="BN10" s="1">
+        <f>IF(Closed!BN10&gt;0,100*Deaths!BN10/Closed!BN10,0)</f>
+        <v>4.237674291</v>
+      </c>
+      <c r="BO10" s="1">
+        <f>IF(Closed!BO10&gt;0,100*Deaths!BO10/Closed!BO10,0)</f>
+        <v>4.335459404</v>
+      </c>
+      <c r="BP10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -18304,13 +19189,37 @@
         <f>IF(Closed!BI11&gt;0,100*Deaths!BI11/Closed!BI11,0)</f>
         <v>1.555209953</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>IF(Closed!BJ11&gt;0,100*Deaths!BJ11/Closed!BJ11,0)</f>
+        <v>1.58974359</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>IF(Closed!BK11&gt;0,100*Deaths!BK11/Closed!BK11,0)</f>
+        <v>1.560926485</v>
+      </c>
+      <c r="BL11" s="1">
+        <f>IF(Closed!BL11&gt;0,100*Deaths!BL11/Closed!BL11,0)</f>
+        <v>1.531620553</v>
+      </c>
+      <c r="BM11" s="1">
+        <f>IF(Closed!BM11&gt;0,100*Deaths!BM11/Closed!BM11,0)</f>
+        <v>1.512195122</v>
+      </c>
+      <c r="BN11" s="1">
+        <f>IF(Closed!BN11&gt;0,100*Deaths!BN11/Closed!BN11,0)</f>
+        <v>1.500484027</v>
+      </c>
+      <c r="BO11" s="1">
+        <f>IF(Closed!BO11&gt;0,100*Deaths!BO11/Closed!BO11,0)</f>
+        <v>1.576684185</v>
+      </c>
+      <c r="BP11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="M15" s="17"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -19323,7 +20232,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="62" width="10.5"/>
+    <col customWidth="1" min="35" max="68" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -19511,8 +20420,26 @@
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -19709,13 +20636,19 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
+      <c r="A3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="21">
-        <f t="shared" ref="B3:BJ3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
+        <f t="shared" ref="B3:BP3" si="1">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
         <v>0.02559675512</v>
       </c>
       <c r="C3" s="21">
@@ -19955,6 +20888,30 @@
         <v>0.02893183701</v>
       </c>
       <c r="BJ3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.0292684862</v>
+      </c>
+      <c r="BK3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.02994136161</v>
+      </c>
+      <c r="BL3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.03069313013</v>
+      </c>
+      <c r="BM3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.03161098584</v>
+      </c>
+      <c r="BN3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.03233029821</v>
+      </c>
+      <c r="BO3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.03298062782</v>
+      </c>
+      <c r="BP3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20203,7 +21160,31 @@
         <f>Confirmed!BI3/Testing!BI3</f>
         <v>0.008002845456</v>
       </c>
-      <c r="BJ4" s="22"/>
+      <c r="BJ4" s="22">
+        <f>Confirmed!BJ3/Testing!BJ3</f>
+        <v>0.007880910683</v>
+      </c>
+      <c r="BK4" s="22">
+        <f>Confirmed!BK3/Testing!BK3</f>
+        <v>0.008022731071</v>
+      </c>
+      <c r="BL4" s="22">
+        <f>Confirmed!BL3/Testing!BL3</f>
+        <v>0.008253762745</v>
+      </c>
+      <c r="BM4" s="22">
+        <f>Confirmed!BM3/Testing!BM3</f>
+        <v>0.008113590264</v>
+      </c>
+      <c r="BN4" s="22">
+        <f>Confirmed!BN3/Testing!BN3</f>
+        <v>0.008618082855</v>
+      </c>
+      <c r="BO4" s="22">
+        <f>Confirmed!BO3/Testing!BO3</f>
+        <v>0.01009805356</v>
+      </c>
+      <c r="BP4" s="22"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -20449,7 +21430,31 @@
         <f>Confirmed!BI4/Testing!BI4</f>
         <v>0.01048480185</v>
       </c>
-      <c r="BJ5" s="22"/>
+      <c r="BJ5" s="22">
+        <f>Confirmed!BJ4/Testing!BJ4</f>
+        <v>0.01089324619</v>
+      </c>
+      <c r="BK5" s="22">
+        <f>Confirmed!BK4/Testing!BK4</f>
+        <v>0.01157114446</v>
+      </c>
+      <c r="BL5" s="22">
+        <f>Confirmed!BL4/Testing!BL4</f>
+        <v>0.01173071873</v>
+      </c>
+      <c r="BM5" s="22">
+        <f>Confirmed!BM4/Testing!BM4</f>
+        <v>0.01206852899</v>
+      </c>
+      <c r="BN5" s="22">
+        <f>Confirmed!BN4/Testing!BN4</f>
+        <v>0.01324936616</v>
+      </c>
+      <c r="BO5" s="22">
+        <f>Confirmed!BO4/Testing!BO4</f>
+        <v>0.01385370488</v>
+      </c>
+      <c r="BP5" s="22"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -20695,7 +21700,31 @@
         <f>Confirmed!BI5/Testing!BI5</f>
         <v>0.005789204836</v>
       </c>
-      <c r="BJ6" s="22"/>
+      <c r="BJ6" s="22">
+        <f>Confirmed!BJ5/Testing!BJ5</f>
+        <v>0.005757084568</v>
+      </c>
+      <c r="BK6" s="22">
+        <f>Confirmed!BK5/Testing!BK5</f>
+        <v>0.005654238011</v>
+      </c>
+      <c r="BL6" s="22">
+        <f>Confirmed!BL5/Testing!BL5</f>
+        <v>0.00573376724</v>
+      </c>
+      <c r="BM6" s="22">
+        <f>Confirmed!BM5/Testing!BM5</f>
+        <v>0.005577411483</v>
+      </c>
+      <c r="BN6" s="22">
+        <f>Confirmed!BN5/Testing!BN5</f>
+        <v>0.005453141589</v>
+      </c>
+      <c r="BO6" s="22">
+        <f>Confirmed!BO5/Testing!BO5</f>
+        <v>0.005652092676</v>
+      </c>
+      <c r="BP6" s="22"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -20941,7 +21970,31 @@
         <f>Confirmed!BI6/Testing!BI6</f>
         <v>0.0105973025</v>
       </c>
-      <c r="BJ7" s="22"/>
+      <c r="BJ7" s="22">
+        <f>Confirmed!BJ6/Testing!BJ6</f>
+        <v>0.01043643264</v>
+      </c>
+      <c r="BK7" s="22">
+        <f>Confirmed!BK6/Testing!BK6</f>
+        <v>0.01063910058</v>
+      </c>
+      <c r="BL7" s="22">
+        <f>Confirmed!BL6/Testing!BL6</f>
+        <v>0.01052170101</v>
+      </c>
+      <c r="BM7" s="22">
+        <f>Confirmed!BM6/Testing!BM6</f>
+        <v>0.01197520428</v>
+      </c>
+      <c r="BN7" s="22">
+        <f>Confirmed!BN6/Testing!BN6</f>
+        <v>0.01180967984</v>
+      </c>
+      <c r="BO7" s="22">
+        <f>Confirmed!BO6/Testing!BO6</f>
+        <v>0.01169474727</v>
+      </c>
+      <c r="BP7" s="22"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -21187,7 +22240,31 @@
         <f>Confirmed!BI7/Testing!BI7</f>
         <v>0.04498060334</v>
       </c>
-      <c r="BJ8" s="22"/>
+      <c r="BJ8" s="22">
+        <f>Confirmed!BJ7/Testing!BJ7</f>
+        <v>0.04616674189</v>
+      </c>
+      <c r="BK8" s="22">
+        <f>Confirmed!BK7/Testing!BK7</f>
+        <v>0.04687331744</v>
+      </c>
+      <c r="BL8" s="22">
+        <f>Confirmed!BL7/Testing!BL7</f>
+        <v>0.04924992924</v>
+      </c>
+      <c r="BM8" s="22">
+        <f>Confirmed!BM7/Testing!BM7</f>
+        <v>0.05145770501</v>
+      </c>
+      <c r="BN8" s="22">
+        <f>Confirmed!BN7/Testing!BN7</f>
+        <v>0.05231514342</v>
+      </c>
+      <c r="BO8" s="22">
+        <f>Confirmed!BO7/Testing!BO7</f>
+        <v>0.05290171355</v>
+      </c>
+      <c r="BP8" s="22"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -21433,7 +22510,31 @@
         <f>Confirmed!BI8/Testing!BI8</f>
         <v>0.007235789327</v>
       </c>
-      <c r="BJ9" s="22"/>
+      <c r="BJ9" s="22">
+        <f>Confirmed!BJ8/Testing!BJ8</f>
+        <v>0.007057211374</v>
+      </c>
+      <c r="BK9" s="22">
+        <f>Confirmed!BK8/Testing!BK8</f>
+        <v>0.007225291791</v>
+      </c>
+      <c r="BL9" s="22">
+        <f>Confirmed!BL8/Testing!BL8</f>
+        <v>0.007123409105</v>
+      </c>
+      <c r="BM9" s="22">
+        <f>Confirmed!BM8/Testing!BM8</f>
+        <v>0.007050636389</v>
+      </c>
+      <c r="BN9" s="22">
+        <f>Confirmed!BN8/Testing!BN8</f>
+        <v>0.007719837913</v>
+      </c>
+      <c r="BO9" s="22">
+        <f>Confirmed!BO8/Testing!BO8</f>
+        <v>0.007959002548</v>
+      </c>
+      <c r="BP9" s="22"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -21679,7 +22780,31 @@
         <f>Confirmed!BI9/Testing!BI9</f>
         <v>0.01849013597</v>
       </c>
-      <c r="BJ10" s="22"/>
+      <c r="BJ10" s="22">
+        <f>Confirmed!BJ9/Testing!BJ9</f>
+        <v>0.01864447777</v>
+      </c>
+      <c r="BK10" s="22">
+        <f>Confirmed!BK9/Testing!BK9</f>
+        <v>0.02018429946</v>
+      </c>
+      <c r="BL10" s="22">
+        <f>Confirmed!BL9/Testing!BL9</f>
+        <v>0.02100378229</v>
+      </c>
+      <c r="BM10" s="22">
+        <f>Confirmed!BM9/Testing!BM9</f>
+        <v>0.02092959106</v>
+      </c>
+      <c r="BN10" s="22">
+        <f>Confirmed!BN9/Testing!BN9</f>
+        <v>0.02068331802</v>
+      </c>
+      <c r="BO10" s="22">
+        <f>Confirmed!BO9/Testing!BO9</f>
+        <v>0.02057829455</v>
+      </c>
+      <c r="BP10" s="22"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -21925,7 +23050,31 @@
         <f>Confirmed!BI10/Testing!BI10</f>
         <v>0.11611823</v>
       </c>
-      <c r="BJ11" s="22"/>
+      <c r="BJ11" s="22">
+        <f>Confirmed!BJ10/Testing!BJ10</f>
+        <v>0.1175688523</v>
+      </c>
+      <c r="BK11" s="22">
+        <f>Confirmed!BK10/Testing!BK10</f>
+        <v>0.1197405727</v>
+      </c>
+      <c r="BL11" s="22">
+        <f>Confirmed!BL10/Testing!BL10</f>
+        <v>0.1218656691</v>
+      </c>
+      <c r="BM11" s="22">
+        <f>Confirmed!BM10/Testing!BM10</f>
+        <v>0.1251075319</v>
+      </c>
+      <c r="BN11" s="22">
+        <f>Confirmed!BN10/Testing!BN10</f>
+        <v>0.1292796635</v>
+      </c>
+      <c r="BO11" s="22">
+        <f>Confirmed!BO10/Testing!BO10</f>
+        <v>0.1327208963</v>
+      </c>
+      <c r="BP11" s="22"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -22171,7 +23320,31 @@
         <f>Confirmed!BI11/Testing!BI11</f>
         <v>0.01527726734</v>
       </c>
-      <c r="BJ12" s="22"/>
+      <c r="BJ12" s="22">
+        <f>Confirmed!BJ11/Testing!BJ11</f>
+        <v>0.01529629983</v>
+      </c>
+      <c r="BK12" s="22">
+        <f>Confirmed!BK11/Testing!BK11</f>
+        <v>0.01519243592</v>
+      </c>
+      <c r="BL12" s="22">
+        <f>Confirmed!BL11/Testing!BL11</f>
+        <v>0.01546480352</v>
+      </c>
+      <c r="BM12" s="22">
+        <f>Confirmed!BM11/Testing!BM11</f>
+        <v>0.01604639706</v>
+      </c>
+      <c r="BN12" s="22">
+        <f>Confirmed!BN11/Testing!BN11</f>
+        <v>0.01637473092</v>
+      </c>
+      <c r="BO12" s="22">
+        <f>Confirmed!BO11/Testing!BO11</f>
+        <v>0.01681607756</v>
+      </c>
+      <c r="BP12" s="22"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -22180,16 +23353,16 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>1263875.0</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>4027160.0</v>
       </c>
     </row>
@@ -22197,7 +23370,7 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>4592187.0</v>
       </c>
     </row>
@@ -22205,7 +23378,7 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>5982584.0</v>
       </c>
     </row>
@@ -22213,7 +23386,7 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>6712276.0</v>
       </c>
     </row>
@@ -22221,7 +23394,7 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>2887465.0</v>
       </c>
     </row>
@@ -22229,7 +23402,7 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -22237,7 +23410,7 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>6844272.0</v>
       </c>
     </row>
@@ -22245,7 +23418,7 @@
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -23252,7 +24425,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="62" width="9.88"/>
+    <col customWidth="1" min="44" max="68" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -23379,7 +24552,7 @@
       <c r="AO1" s="2">
         <v>43956.0</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="5">
         <v>43957.0</v>
       </c>
       <c r="AQ1" s="2">
@@ -23400,7 +24573,7 @@
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="5">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
@@ -23421,27 +24594,45 @@
       <c r="BC1" s="2">
         <v>43970.0</v>
       </c>
-      <c r="BD1" s="6">
+      <c r="BD1" s="5">
         <v>43971.0</v>
       </c>
       <c r="BE1" s="2">
         <v>43972.0</v>
       </c>
-      <c r="BF1" s="7">
+      <c r="BF1" s="6">
         <v>43973.0</v>
       </c>
       <c r="BG1" s="2">
         <v>43974.0</v>
       </c>
-      <c r="BH1" s="7">
+      <c r="BH1" s="6">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="6">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="7">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="7">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -23608,7 +24799,7 @@
         <f t="shared" si="1"/>
         <v>17962</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="8">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1">
@@ -23635,7 +24826,7 @@
         <f t="shared" si="2"/>
         <v>21118</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2" s="8">
         <v>22069.0</v>
       </c>
       <c r="AX2" s="1">
@@ -23662,11 +24853,11 @@
         <f t="shared" si="3"/>
         <v>25020</v>
       </c>
-      <c r="BD2" s="5">
+      <c r="BD2" s="8">
         <v>25955.0</v>
       </c>
       <c r="BE2" s="1">
-        <f t="shared" ref="BE2:BI2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE2:BO2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
         <v>26906</v>
       </c>
       <c r="BF2" s="1">
@@ -23685,7 +24876,31 @@
         <f t="shared" si="4"/>
         <v>30559</v>
       </c>
-      <c r="BJ2" s="1"/>
+      <c r="BJ2" s="1">
+        <f t="shared" si="4"/>
+        <v>31031</v>
+      </c>
+      <c r="BK2" s="1">
+        <f t="shared" si="4"/>
+        <v>32516</v>
+      </c>
+      <c r="BL2" s="1">
+        <f t="shared" si="4"/>
+        <v>33578</v>
+      </c>
+      <c r="BM2" s="1">
+        <f t="shared" si="4"/>
+        <v>34830</v>
+      </c>
+      <c r="BN2" s="1">
+        <f t="shared" si="4"/>
+        <v>35942</v>
+      </c>
+      <c r="BO2" s="1">
+        <f t="shared" si="4"/>
+        <v>37132</v>
+      </c>
+      <c r="BP2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -23851,7 +25066,7 @@
         <f t="shared" si="5"/>
         <v>2165</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AP3" s="8">
         <v>2256.0</v>
       </c>
       <c r="AQ3" s="1">
@@ -23878,7 +25093,7 @@
         <f t="shared" si="6"/>
         <v>3524</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="AW3" s="8">
         <v>3683.0</v>
       </c>
       <c r="AX3" s="1">
@@ -23905,11 +25120,11 @@
         <f t="shared" si="7"/>
         <v>4604</v>
       </c>
-      <c r="BD3" s="5">
+      <c r="BD3" s="8">
         <v>4776.0</v>
       </c>
       <c r="BE3" s="1">
-        <f t="shared" ref="BE3:BI3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE3:BO3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
         <v>4951</v>
       </c>
       <c r="BF3" s="1">
@@ -23928,7 +25143,31 @@
         <f t="shared" si="8"/>
         <v>5623</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f t="shared" si="8"/>
+        <v>5710</v>
+      </c>
+      <c r="BK3" s="1">
+        <f t="shared" si="8"/>
+        <v>5983</v>
+      </c>
+      <c r="BL3" s="1">
+        <f t="shared" si="8"/>
+        <v>6179</v>
+      </c>
+      <c r="BM3" s="1">
+        <f t="shared" si="8"/>
+        <v>6409</v>
+      </c>
+      <c r="BN3" s="1">
+        <f t="shared" si="8"/>
+        <v>6614</v>
+      </c>
+      <c r="BO3" s="1">
+        <f t="shared" si="8"/>
+        <v>6833</v>
+      </c>
+      <c r="BP3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -24094,7 +25333,7 @@
         <f t="shared" si="9"/>
         <v>3956</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AP4" s="8">
         <v>4123.0</v>
       </c>
       <c r="AQ4" s="1">
@@ -24121,7 +25360,7 @@
         <f t="shared" si="10"/>
         <v>5561</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AW4" s="8">
         <v>5812.0</v>
       </c>
       <c r="AX4" s="1">
@@ -24148,11 +25387,11 @@
         <f t="shared" si="11"/>
         <v>8512</v>
       </c>
-      <c r="BD4" s="5">
+      <c r="BD4" s="8">
         <v>8830.0</v>
       </c>
       <c r="BE4" s="1">
-        <f t="shared" ref="BE4:BI4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE4:BO4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
         <v>9154</v>
       </c>
       <c r="BF4" s="1">
@@ -24171,7 +25410,31 @@
         <f t="shared" si="12"/>
         <v>10396</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f t="shared" si="12"/>
+        <v>10557</v>
+      </c>
+      <c r="BK4" s="1">
+        <f t="shared" si="12"/>
+        <v>11062</v>
+      </c>
+      <c r="BL4" s="1">
+        <f t="shared" si="12"/>
+        <v>11423</v>
+      </c>
+      <c r="BM4" s="1">
+        <f t="shared" si="12"/>
+        <v>11849</v>
+      </c>
+      <c r="BN4" s="1">
+        <f t="shared" si="12"/>
+        <v>12227</v>
+      </c>
+      <c r="BO4" s="1">
+        <f t="shared" si="12"/>
+        <v>12632</v>
+      </c>
+      <c r="BP4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -24337,7 +25600,7 @@
         <f t="shared" si="13"/>
         <v>7385</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" s="8">
         <v>7697.0</v>
       </c>
       <c r="AQ5" s="1">
@@ -24364,7 +25627,7 @@
         <f t="shared" si="14"/>
         <v>10922</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5" s="8">
         <v>11414.0</v>
       </c>
       <c r="AX5" s="1">
@@ -24391,11 +25654,11 @@
         <f t="shared" si="15"/>
         <v>14425</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BD5" s="8">
         <v>14964.0</v>
       </c>
       <c r="BE5" s="1">
-        <f t="shared" ref="BE5:BI5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE5:BO5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
         <v>15512</v>
       </c>
       <c r="BF5" s="1">
@@ -24414,7 +25677,31 @@
         <f t="shared" si="16"/>
         <v>17619</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f t="shared" si="16"/>
+        <v>17891</v>
+      </c>
+      <c r="BK5" s="1">
+        <f t="shared" si="16"/>
+        <v>18747</v>
+      </c>
+      <c r="BL5" s="1">
+        <f t="shared" si="16"/>
+        <v>19359</v>
+      </c>
+      <c r="BM5" s="1">
+        <f t="shared" si="16"/>
+        <v>20081</v>
+      </c>
+      <c r="BN5" s="1">
+        <f t="shared" si="16"/>
+        <v>20722</v>
+      </c>
+      <c r="BO5" s="1">
+        <f t="shared" si="16"/>
+        <v>21408</v>
+      </c>
+      <c r="BP5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -24580,7 +25867,7 @@
         <f t="shared" si="17"/>
         <v>6096</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AP6" s="8">
         <v>6353.0</v>
       </c>
       <c r="AQ6" s="1">
@@ -24607,7 +25894,7 @@
         <f t="shared" si="18"/>
         <v>7884</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AW6" s="8">
         <v>8239.0</v>
       </c>
       <c r="AX6" s="1">
@@ -24634,11 +25921,11 @@
         <f t="shared" si="19"/>
         <v>10198</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BD6" s="8">
         <v>10579.0</v>
       </c>
       <c r="BE6" s="1">
-        <f t="shared" ref="BE6:BI6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE6:BO6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
         <v>10967</v>
       </c>
       <c r="BF6" s="1">
@@ -24657,7 +25944,31 @@
         <f t="shared" si="20"/>
         <v>12456</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f t="shared" si="20"/>
+        <v>12648</v>
+      </c>
+      <c r="BK6" s="1">
+        <f t="shared" si="20"/>
+        <v>13253</v>
+      </c>
+      <c r="BL6" s="1">
+        <f t="shared" si="20"/>
+        <v>13686</v>
+      </c>
+      <c r="BM6" s="1">
+        <f t="shared" si="20"/>
+        <v>14196</v>
+      </c>
+      <c r="BN6" s="1">
+        <f t="shared" si="20"/>
+        <v>14649</v>
+      </c>
+      <c r="BO6" s="1">
+        <f t="shared" si="20"/>
+        <v>15135</v>
+      </c>
+      <c r="BP6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -24823,7 +26134,7 @@
         <f t="shared" si="21"/>
         <v>24678</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AP7" s="8">
         <v>25720.0</v>
       </c>
       <c r="AQ7" s="1">
@@ -24850,7 +26161,7 @@
         <f t="shared" si="22"/>
         <v>36479</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AW7" s="8">
         <v>38122.0</v>
       </c>
       <c r="AX7" s="1">
@@ -24877,11 +26188,11 @@
         <f t="shared" si="23"/>
         <v>50020</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BD7" s="8">
         <v>51888.0</v>
       </c>
       <c r="BE7" s="1">
-        <f t="shared" ref="BE7:BI7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE7:BO7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
         <v>53789</v>
       </c>
       <c r="BF7" s="1">
@@ -24900,7 +26211,31 @@
         <f t="shared" si="24"/>
         <v>61093</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f t="shared" si="24"/>
+        <v>62036</v>
+      </c>
+      <c r="BK7" s="1">
+        <f t="shared" si="24"/>
+        <v>65005</v>
+      </c>
+      <c r="BL7" s="1">
+        <f t="shared" si="24"/>
+        <v>67127</v>
+      </c>
+      <c r="BM7" s="1">
+        <f t="shared" si="24"/>
+        <v>69630</v>
+      </c>
+      <c r="BN7" s="1">
+        <f t="shared" si="24"/>
+        <v>71853</v>
+      </c>
+      <c r="BO7" s="1">
+        <f t="shared" si="24"/>
+        <v>74232</v>
+      </c>
+      <c r="BP7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -25066,7 +26401,7 @@
         <f t="shared" si="25"/>
         <v>13686</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AP8" s="8">
         <v>14264.0</v>
       </c>
       <c r="AQ8" s="1">
@@ -25093,7 +26428,7 @@
         <f t="shared" si="26"/>
         <v>18435</v>
       </c>
-      <c r="AW8" s="5">
+      <c r="AW8" s="8">
         <v>19265.0</v>
       </c>
       <c r="AX8" s="1">
@@ -25120,11 +26455,11 @@
         <f t="shared" si="27"/>
         <v>23536</v>
       </c>
-      <c r="BD8" s="5">
+      <c r="BD8" s="8">
         <v>24415.0</v>
       </c>
       <c r="BE8" s="1">
-        <f t="shared" ref="BE8:BI8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE8:BO8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
         <v>25310</v>
       </c>
       <c r="BF8" s="1">
@@ -25143,7 +26478,31 @@
         <f t="shared" si="28"/>
         <v>28746</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f t="shared" si="28"/>
+        <v>29190</v>
+      </c>
+      <c r="BK8" s="1">
+        <f t="shared" si="28"/>
+        <v>30587</v>
+      </c>
+      <c r="BL8" s="1">
+        <f t="shared" si="28"/>
+        <v>31586</v>
+      </c>
+      <c r="BM8" s="1">
+        <f t="shared" si="28"/>
+        <v>32763</v>
+      </c>
+      <c r="BN8" s="1">
+        <f t="shared" si="28"/>
+        <v>33809</v>
+      </c>
+      <c r="BO8" s="1">
+        <f t="shared" si="28"/>
+        <v>34929</v>
+      </c>
+      <c r="BP8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -25309,7 +26668,7 @@
         <f t="shared" si="29"/>
         <v>48923</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AP9" s="8">
         <v>50988.0</v>
       </c>
       <c r="AQ9" s="1">
@@ -25336,7 +26695,7 @@
         <f t="shared" si="30"/>
         <v>64928</v>
       </c>
-      <c r="AW9" s="5">
+      <c r="AW9" s="8">
         <v>67853.0</v>
       </c>
       <c r="AX9" s="1">
@@ -25363,11 +26722,11 @@
         <f t="shared" si="31"/>
         <v>83335</v>
       </c>
-      <c r="BD9" s="5">
+      <c r="BD9" s="8">
         <v>86448.0</v>
       </c>
       <c r="BE9" s="1">
-        <f t="shared" ref="BE9:BI9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE9:BO9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
         <v>89616</v>
       </c>
       <c r="BF9" s="1">
@@ -25386,7 +26745,31 @@
         <f t="shared" si="32"/>
         <v>101784</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f t="shared" si="32"/>
+        <v>103355</v>
+      </c>
+      <c r="BK9" s="1">
+        <f t="shared" si="32"/>
+        <v>108302</v>
+      </c>
+      <c r="BL9" s="1">
+        <f t="shared" si="32"/>
+        <v>111837</v>
+      </c>
+      <c r="BM9" s="1">
+        <f t="shared" si="32"/>
+        <v>116008</v>
+      </c>
+      <c r="BN9" s="1">
+        <f t="shared" si="32"/>
+        <v>119710</v>
+      </c>
+      <c r="BO9" s="1">
+        <f t="shared" si="32"/>
+        <v>123674</v>
+      </c>
+      <c r="BP9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -25552,7 +26935,7 @@
         <f t="shared" si="33"/>
         <v>54678</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AP10" s="8">
         <v>56986.0</v>
       </c>
       <c r="AQ10" s="1">
@@ -25579,7 +26962,7 @@
         <f t="shared" si="34"/>
         <v>79293</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="AW10" s="8">
         <v>82865.0</v>
       </c>
       <c r="AX10" s="1">
@@ -25606,11 +26989,11 @@
         <f t="shared" si="35"/>
         <v>108557</v>
       </c>
-      <c r="BD10" s="5">
+      <c r="BD10" s="8">
         <v>112612.0</v>
       </c>
       <c r="BE10" s="1">
-        <f t="shared" ref="BE10:BI10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE10:BO10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
         <v>116738</v>
       </c>
       <c r="BF10" s="1">
@@ -25629,7 +27012,31 @@
         <f t="shared" si="36"/>
         <v>132589</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f t="shared" si="36"/>
+        <v>134636</v>
+      </c>
+      <c r="BK10" s="1">
+        <f t="shared" si="36"/>
+        <v>141080</v>
+      </c>
+      <c r="BL10" s="1">
+        <f t="shared" si="36"/>
+        <v>145685</v>
+      </c>
+      <c r="BM10" s="1">
+        <f t="shared" si="36"/>
+        <v>151118</v>
+      </c>
+      <c r="BN10" s="1">
+        <f t="shared" si="36"/>
+        <v>155941</v>
+      </c>
+      <c r="BO10" s="1">
+        <f t="shared" si="36"/>
+        <v>161105</v>
+      </c>
+      <c r="BP10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -25795,7 +27202,7 @@
         <f t="shared" si="37"/>
         <v>88535</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AP11" s="8">
         <v>92272.0</v>
       </c>
       <c r="AQ11" s="1">
@@ -25822,7 +27229,7 @@
         <f t="shared" si="38"/>
         <v>121554</v>
       </c>
-      <c r="AW11" s="5">
+      <c r="AW11" s="8">
         <v>127030.0</v>
       </c>
       <c r="AX11" s="1">
@@ -25849,11 +27256,11 @@
         <f t="shared" si="39"/>
         <v>160402</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BD11" s="8">
         <v>166394.0</v>
       </c>
       <c r="BE11" s="1">
-        <f t="shared" ref="BE11:BI11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE11:BO11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
         <v>172491</v>
       </c>
       <c r="BF11" s="1">
@@ -25872,438 +27279,504 @@
         <f t="shared" si="40"/>
         <v>195912</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f t="shared" si="40"/>
+        <v>198937</v>
+      </c>
+      <c r="BK11" s="1">
+        <f t="shared" si="40"/>
+        <v>208459</v>
+      </c>
+      <c r="BL11" s="1">
+        <f t="shared" si="40"/>
+        <v>215263</v>
+      </c>
+      <c r="BM11" s="1">
+        <f t="shared" si="40"/>
+        <v>223290</v>
+      </c>
+      <c r="BN11" s="1">
+        <f t="shared" si="40"/>
+        <v>230416</v>
+      </c>
+      <c r="BO11" s="1">
+        <f t="shared" si="40"/>
+        <v>238046</v>
+      </c>
+      <c r="BP11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10">
         <v>28537.0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>31963.0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>35593.0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>38409.0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>41072.0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>44292.0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="10">
         <v>47965.0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="10">
         <v>50361.0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <v>53937.0</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="10">
         <v>56873.0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="11">
         <v>58098.0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="11">
         <v>58098.0</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="10">
         <v>63776.0</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="10">
         <v>68874.0</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="10">
         <v>73028.0</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="10">
         <v>75053.0</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="10">
         <v>80085.0</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="10">
         <v>83663.0</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="10">
         <v>87022.0</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="10">
         <v>90515.0</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="10">
         <v>95060.0</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="10">
         <v>100827.0</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="10">
         <v>108021.0</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="10">
         <v>114711.0</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="10">
         <v>121510.0</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="10">
         <v>126937.0</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="10">
         <v>133774.0</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="10">
         <v>143570.0</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="10">
         <v>152390.0</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="10">
         <v>161004.0</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="10">
         <v>168643.0</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="10">
         <v>178470.0</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="10">
         <v>185497.0</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AI12" s="10">
         <v>197127.0</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AJ12" s="10">
         <v>207530.0</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK12" s="10">
         <v>217522.0</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AL12" s="10">
         <v>230686.0</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AM12" s="10">
         <v>245747.0</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AN12" s="10">
         <v>257541.0</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AO12" s="10">
         <v>268064.0</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="12">
         <v>279379.0</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AQ12" s="10">
         <v>292153.0</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AR12" s="10">
         <v>307752.0</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AS12" s="10">
         <v>324079.0</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AT12" s="10">
         <v>341336.0</v>
       </c>
-      <c r="AU12" s="9">
+      <c r="AU12" s="10">
         <v>356067.0</v>
       </c>
-      <c r="AV12" s="9">
+      <c r="AV12" s="10">
         <v>369697.0</v>
       </c>
-      <c r="AW12" s="11">
+      <c r="AW12" s="12">
         <v>386352.0</v>
       </c>
-      <c r="AX12" s="9">
+      <c r="AX12" s="10">
         <v>403018.0</v>
       </c>
-      <c r="AY12" s="9">
+      <c r="AY12" s="10">
         <v>421555.0</v>
       </c>
-      <c r="AZ12" s="9">
+      <c r="AZ12" s="10">
         <v>439559.0</v>
       </c>
-      <c r="BA12" s="9">
+      <c r="BA12" s="10">
         <v>460873.0</v>
       </c>
-      <c r="BB12" s="9">
+      <c r="BB12" s="10">
         <v>475071.0</v>
       </c>
-      <c r="BC12" s="9">
+      <c r="BC12" s="10">
         <v>488609.0</v>
       </c>
-      <c r="BD12" s="11">
+      <c r="BD12" s="12">
         <v>506861.0</v>
       </c>
-      <c r="BE12" s="9">
+      <c r="BE12" s="10">
         <v>525433.0</v>
       </c>
-      <c r="BF12" s="9">
+      <c r="BF12" s="10">
         <v>543032.0</v>
       </c>
-      <c r="BG12" s="9">
+      <c r="BG12" s="10">
         <v>564370.0</v>
       </c>
-      <c r="BH12" s="9">
+      <c r="BH12" s="10">
         <v>583855.0</v>
       </c>
-      <c r="BI12" s="9">
+      <c r="BI12" s="10">
         <v>596777.0</v>
+      </c>
+      <c r="BJ12" s="10">
+        <v>605991.0</v>
+      </c>
+      <c r="BK12" s="10">
+        <v>634996.0</v>
+      </c>
+      <c r="BL12" s="10">
+        <v>655723.0</v>
+      </c>
+      <c r="BM12" s="10">
+        <v>680175.0</v>
+      </c>
+      <c r="BN12" s="10">
+        <v>701883.0</v>
+      </c>
+      <c r="BO12" s="10">
+        <v>725125.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13">
-        <f t="shared" ref="B13:BJ13" si="41">sum(B2:B11)</f>
+      <c r="A13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14">
+        <f t="shared" ref="B13:BP13" si="41">sum(B2:B11)</f>
         <v>28536</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="14">
         <f t="shared" si="41"/>
         <v>31965</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <f t="shared" si="41"/>
         <v>35592</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <f t="shared" si="41"/>
         <v>38409</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="14">
         <f t="shared" si="41"/>
         <v>41073</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <f t="shared" si="41"/>
         <v>44293</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <f t="shared" si="41"/>
         <v>47966</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="14">
         <f t="shared" si="41"/>
         <v>50359</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="14">
         <f t="shared" si="41"/>
         <v>53939</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="14">
         <f t="shared" si="41"/>
         <v>56874</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="14">
         <f t="shared" si="41"/>
         <v>58097</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="14">
         <f t="shared" si="41"/>
         <v>58097</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="14">
         <f t="shared" si="41"/>
         <v>63775</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="14">
         <f t="shared" si="41"/>
         <v>68873</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="14">
         <f t="shared" si="41"/>
         <v>73029</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="14">
         <f t="shared" si="41"/>
         <v>75054</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="14">
         <f t="shared" si="41"/>
         <v>80085</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="14">
         <f t="shared" si="41"/>
         <v>83664</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="14">
         <f t="shared" si="41"/>
         <v>87021</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="14">
         <f t="shared" si="41"/>
         <v>90515</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="14">
         <f t="shared" si="41"/>
         <v>95061</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="14">
         <f t="shared" si="41"/>
         <v>100827</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="14">
         <f t="shared" si="41"/>
         <v>108020</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="14">
         <f t="shared" si="41"/>
         <v>114709</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="14">
         <f t="shared" si="41"/>
         <v>121510</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="14">
         <f t="shared" si="41"/>
         <v>126938</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="14">
         <f t="shared" si="41"/>
         <v>133773</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="14">
         <f t="shared" si="41"/>
         <v>143570</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13" s="14">
         <f t="shared" si="41"/>
         <v>152390</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE13" s="14">
         <f t="shared" si="41"/>
         <v>161004</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AF13" s="14">
         <f t="shared" si="41"/>
         <v>168643</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AG13" s="14">
         <f t="shared" si="41"/>
         <v>178470</v>
       </c>
-      <c r="AH13" s="13">
+      <c r="AH13" s="14">
         <f t="shared" si="41"/>
         <v>185498</v>
       </c>
-      <c r="AI13" s="13">
+      <c r="AI13" s="14">
         <f t="shared" si="41"/>
         <v>197129</v>
       </c>
-      <c r="AJ13" s="13">
+      <c r="AJ13" s="14">
         <f t="shared" si="41"/>
         <v>207531</v>
       </c>
-      <c r="AK13" s="13">
+      <c r="AK13" s="14">
         <f t="shared" si="41"/>
         <v>217522</v>
       </c>
-      <c r="AL13" s="13">
+      <c r="AL13" s="14">
         <f t="shared" si="41"/>
         <v>230685</v>
       </c>
-      <c r="AM13" s="13">
+      <c r="AM13" s="14">
         <f t="shared" si="41"/>
         <v>245746</v>
       </c>
-      <c r="AN13" s="13">
+      <c r="AN13" s="14">
         <f t="shared" si="41"/>
         <v>257541</v>
       </c>
-      <c r="AO13" s="13">
+      <c r="AO13" s="14">
         <f t="shared" si="41"/>
         <v>268064</v>
       </c>
-      <c r="AP13" s="13">
+      <c r="AP13" s="14">
         <f t="shared" si="41"/>
         <v>279379</v>
       </c>
-      <c r="AQ13" s="13">
+      <c r="AQ13" s="14">
         <f t="shared" si="41"/>
         <v>292152</v>
       </c>
-      <c r="AR13" s="13">
+      <c r="AR13" s="14">
         <f t="shared" si="41"/>
         <v>307753</v>
       </c>
-      <c r="AS13" s="13">
+      <c r="AS13" s="14">
         <f t="shared" si="41"/>
         <v>324078</v>
       </c>
-      <c r="AT13" s="13">
+      <c r="AT13" s="14">
         <f t="shared" si="41"/>
         <v>341336</v>
       </c>
-      <c r="AU13" s="13">
+      <c r="AU13" s="14">
         <f t="shared" si="41"/>
         <v>356065</v>
       </c>
-      <c r="AV13" s="13">
+      <c r="AV13" s="14">
         <f t="shared" si="41"/>
         <v>369698</v>
       </c>
-      <c r="AW13" s="13">
+      <c r="AW13" s="14">
         <f t="shared" si="41"/>
         <v>386352</v>
       </c>
-      <c r="AX13" s="13">
+      <c r="AX13" s="14">
         <f t="shared" si="41"/>
         <v>403018</v>
       </c>
-      <c r="AY13" s="13">
+      <c r="AY13" s="14">
         <f t="shared" si="41"/>
         <v>421556</v>
       </c>
-      <c r="AZ13" s="13">
+      <c r="AZ13" s="14">
         <f t="shared" si="41"/>
         <v>439559</v>
       </c>
-      <c r="BA13" s="13">
+      <c r="BA13" s="14">
         <f t="shared" si="41"/>
         <v>460873</v>
       </c>
-      <c r="BB13" s="13">
+      <c r="BB13" s="14">
         <f t="shared" si="41"/>
         <v>475070</v>
       </c>
-      <c r="BC13" s="13">
+      <c r="BC13" s="14">
         <f t="shared" si="41"/>
         <v>488609</v>
       </c>
-      <c r="BD13" s="13">
+      <c r="BD13" s="14">
         <f t="shared" si="41"/>
         <v>506861</v>
       </c>
-      <c r="BE13" s="13">
+      <c r="BE13" s="14">
         <f t="shared" si="41"/>
         <v>525434</v>
       </c>
-      <c r="BF13" s="13">
+      <c r="BF13" s="14">
         <f t="shared" si="41"/>
         <v>543031</v>
       </c>
-      <c r="BG13" s="13">
+      <c r="BG13" s="14">
         <f t="shared" si="41"/>
         <v>564369</v>
       </c>
-      <c r="BH13" s="13">
+      <c r="BH13" s="14">
         <f t="shared" si="41"/>
         <v>583855</v>
       </c>
-      <c r="BI13" s="13">
+      <c r="BI13" s="14">
         <f t="shared" si="41"/>
         <v>596777</v>
       </c>
-      <c r="BJ13" s="13">
+      <c r="BJ13" s="14">
+        <f t="shared" si="41"/>
+        <v>605991</v>
+      </c>
+      <c r="BK13" s="14">
+        <f t="shared" si="41"/>
+        <v>634994</v>
+      </c>
+      <c r="BL13" s="14">
+        <f t="shared" si="41"/>
+        <v>655723</v>
+      </c>
+      <c r="BM13" s="14">
+        <f t="shared" si="41"/>
+        <v>680174</v>
+      </c>
+      <c r="BN13" s="14">
+        <f t="shared" si="41"/>
+        <v>701883</v>
+      </c>
+      <c r="BO13" s="14">
+        <f t="shared" si="41"/>
+        <v>725126</v>
+      </c>
+      <c r="BP13" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -26311,7 +27784,7 @@
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -26398,6 +27871,12 @@
       <c r="BH15" s="4"/>
       <c r="BI15" s="4"/>
       <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -27411,7 +28890,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="62" width="9.88"/>
+    <col customWidth="1" min="44" max="68" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -27599,8 +29078,26 @@
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>TODAY()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -27767,7 +29264,7 @@
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="8">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1" t="str">
@@ -27810,7 +29307,13 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="1" t="str">
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1" t="str">
         <f>ROUND($AP2/#REF!*#REF!,0)</f>
         <v>#REF!</v>
       </c>
@@ -28059,7 +29562,31 @@
         <f>round(100000*Testing!BI3/$B13,0)</f>
         <v>445</v>
       </c>
-      <c r="BJ3" s="1"/>
+      <c r="BJ3" s="1">
+        <f>round(100000*Testing!BJ3/$B13,0)</f>
+        <v>452</v>
+      </c>
+      <c r="BK3" s="1">
+        <f>round(100000*Testing!BK3/$B13,0)</f>
+        <v>473</v>
+      </c>
+      <c r="BL3" s="1">
+        <f>round(100000*Testing!BL3/$B13,0)</f>
+        <v>489</v>
+      </c>
+      <c r="BM3" s="1">
+        <f>round(100000*Testing!BM3/$B13,0)</f>
+        <v>507</v>
+      </c>
+      <c r="BN3" s="1">
+        <f>round(100000*Testing!BN3/$B13,0)</f>
+        <v>523</v>
+      </c>
+      <c r="BO3" s="1">
+        <f>round(100000*Testing!BO3/$B13,0)</f>
+        <v>541</v>
+      </c>
+      <c r="BP3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -28305,7 +29832,31 @@
         <f>round(100000*Testing!BI4/$B14,0)</f>
         <v>258</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>round(100000*Testing!BJ4/$B14,0)</f>
+        <v>262</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>round(100000*Testing!BK4/$B14,0)</f>
+        <v>275</v>
+      </c>
+      <c r="BL4" s="1">
+        <f>round(100000*Testing!BL4/$B14,0)</f>
+        <v>284</v>
+      </c>
+      <c r="BM4" s="1">
+        <f>round(100000*Testing!BM4/$B14,0)</f>
+        <v>294</v>
+      </c>
+      <c r="BN4" s="1">
+        <f>round(100000*Testing!BN4/$B14,0)</f>
+        <v>304</v>
+      </c>
+      <c r="BO4" s="1">
+        <f>round(100000*Testing!BO4/$B14,0)</f>
+        <v>314</v>
+      </c>
+      <c r="BP4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -28551,7 +30102,31 @@
         <f>round(100000*Testing!BI5/$B15,0)</f>
         <v>384</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>round(100000*Testing!BJ5/$B15,0)</f>
+        <v>390</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>round(100000*Testing!BK5/$B15,0)</f>
+        <v>408</v>
+      </c>
+      <c r="BL5" s="1">
+        <f>round(100000*Testing!BL5/$B15,0)</f>
+        <v>422</v>
+      </c>
+      <c r="BM5" s="1">
+        <f>round(100000*Testing!BM5/$B15,0)</f>
+        <v>437</v>
+      </c>
+      <c r="BN5" s="1">
+        <f>round(100000*Testing!BN5/$B15,0)</f>
+        <v>451</v>
+      </c>
+      <c r="BO5" s="1">
+        <f>round(100000*Testing!BO5/$B15,0)</f>
+        <v>466</v>
+      </c>
+      <c r="BP5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -28797,7 +30372,31 @@
         <f>round(100000*Testing!BI6/$B16,0)</f>
         <v>208</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>round(100000*Testing!BJ6/$B16,0)</f>
+        <v>211</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>round(100000*Testing!BK6/$B16,0)</f>
+        <v>222</v>
+      </c>
+      <c r="BL6" s="1">
+        <f>round(100000*Testing!BL6/$B16,0)</f>
+        <v>229</v>
+      </c>
+      <c r="BM6" s="1">
+        <f>round(100000*Testing!BM6/$B16,0)</f>
+        <v>237</v>
+      </c>
+      <c r="BN6" s="1">
+        <f>round(100000*Testing!BN6/$B16,0)</f>
+        <v>245</v>
+      </c>
+      <c r="BO6" s="1">
+        <f>round(100000*Testing!BO6/$B16,0)</f>
+        <v>253</v>
+      </c>
+      <c r="BP6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -29043,7 +30642,31 @@
         <f>round(100000*Testing!BI7/$B17,0)</f>
         <v>910</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>round(100000*Testing!BJ7/$B17,0)</f>
+        <v>924</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>round(100000*Testing!BK7/$B17,0)</f>
+        <v>968</v>
+      </c>
+      <c r="BL7" s="1">
+        <f>round(100000*Testing!BL7/$B17,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="BM7" s="1">
+        <f>round(100000*Testing!BM7/$B17,0)</f>
+        <v>1037</v>
+      </c>
+      <c r="BN7" s="1">
+        <f>round(100000*Testing!BN7/$B17,0)</f>
+        <v>1070</v>
+      </c>
+      <c r="BO7" s="1">
+        <f>round(100000*Testing!BO7/$B17,0)</f>
+        <v>1106</v>
+      </c>
+      <c r="BP7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -29289,7 +30912,31 @@
         <f>round(100000*Testing!BI8/$B18,0)</f>
         <v>996</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>round(100000*Testing!BJ8/$B18,0)</f>
+        <v>1011</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>round(100000*Testing!BK8/$B18,0)</f>
+        <v>1059</v>
+      </c>
+      <c r="BL8" s="1">
+        <f>round(100000*Testing!BL8/$B18,0)</f>
+        <v>1094</v>
+      </c>
+      <c r="BM8" s="1">
+        <f>round(100000*Testing!BM8/$B18,0)</f>
+        <v>1135</v>
+      </c>
+      <c r="BN8" s="1">
+        <f>round(100000*Testing!BN8/$B18,0)</f>
+        <v>1171</v>
+      </c>
+      <c r="BO8" s="1">
+        <f>round(100000*Testing!BO8/$B18,0)</f>
+        <v>1210</v>
+      </c>
+      <c r="BP8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -29535,7 +31182,31 @@
         <f>round(100000*Testing!BI9/$B19,0)</f>
         <v>902</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>round(100000*Testing!BJ9/$B19,0)</f>
+        <v>916</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>round(100000*Testing!BK9/$B19,0)</f>
+        <v>959</v>
+      </c>
+      <c r="BL9" s="1">
+        <f>round(100000*Testing!BL9/$B19,0)</f>
+        <v>991</v>
+      </c>
+      <c r="BM9" s="1">
+        <f>round(100000*Testing!BM9/$B19,0)</f>
+        <v>1028</v>
+      </c>
+      <c r="BN9" s="1">
+        <f>round(100000*Testing!BN9/$B19,0)</f>
+        <v>1060</v>
+      </c>
+      <c r="BO9" s="1">
+        <f>round(100000*Testing!BO9/$B19,0)</f>
+        <v>1096</v>
+      </c>
+      <c r="BP9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -29781,7 +31452,31 @@
         <f>round(100000*Testing!BI10/$B20,0)</f>
         <v>1937</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>round(100000*Testing!BJ10/$B20,0)</f>
+        <v>1967</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>round(100000*Testing!BK10/$B20,0)</f>
+        <v>2061</v>
+      </c>
+      <c r="BL10" s="1">
+        <f>round(100000*Testing!BL10/$B20,0)</f>
+        <v>2129</v>
+      </c>
+      <c r="BM10" s="1">
+        <f>round(100000*Testing!BM10/$B20,0)</f>
+        <v>2208</v>
+      </c>
+      <c r="BN10" s="1">
+        <f>round(100000*Testing!BN10/$B20,0)</f>
+        <v>2278</v>
+      </c>
+      <c r="BO10" s="1">
+        <f>round(100000*Testing!BO10/$B20,0)</f>
+        <v>2354</v>
+      </c>
+      <c r="BP10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -30027,14 +31722,38 @@
         <f>round(100000*Testing!BI11/$B21,0)</f>
         <v>1291</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>round(100000*Testing!BJ11/$B21,0)</f>
+        <v>1311</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>round(100000*Testing!BK11/$B21,0)</f>
+        <v>1374</v>
+      </c>
+      <c r="BL11" s="1">
+        <f>round(100000*Testing!BL11/$B21,0)</f>
+        <v>1418</v>
+      </c>
+      <c r="BM11" s="1">
+        <f>round(100000*Testing!BM11/$B21,0)</f>
+        <v>1471</v>
+      </c>
+      <c r="BN11" s="1">
+        <f>round(100000*Testing!BN11/$B21,0)</f>
+        <v>1518</v>
+      </c>
+      <c r="BO11" s="1">
+        <f>round(100000*Testing!BO11/$B21,0)</f>
+        <v>1569</v>
+      </c>
+      <c r="BP11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>1263875.0</v>
       </c>
     </row>
@@ -30042,7 +31761,7 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>4027160.0</v>
       </c>
     </row>
@@ -30050,7 +31769,7 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>4592187.0</v>
       </c>
     </row>
@@ -30058,7 +31777,7 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>5982584.0</v>
       </c>
     </row>
@@ -30066,7 +31785,7 @@
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>6712276.0</v>
       </c>
     </row>
@@ -30074,7 +31793,7 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>2887465.0</v>
       </c>
     </row>
@@ -30082,7 +31801,7 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>1.1289086E7</v>
       </c>
     </row>
@@ -30090,7 +31809,7 @@
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>6844272.0</v>
       </c>
     </row>
@@ -30098,7 +31817,7 @@
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>1.5176115E7</v>
       </c>
     </row>
@@ -31103,7 +32822,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="62" width="8.88"/>
+    <col customWidth="1" min="46" max="68" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -31287,12 +33006,30 @@
       <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -31456,6 +33193,12 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -31641,7 +33384,25 @@
       <c r="BI3" s="4">
         <v>1.0</v>
       </c>
-      <c r="BJ3" s="4"/>
+      <c r="BJ3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BN3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BP3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -31827,7 +33588,25 @@
       <c r="BI4" s="4">
         <v>1.0</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BN4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BP4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -32013,7 +33792,25 @@
       <c r="BI5" s="4">
         <v>0.0</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BN5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BO5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BP5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -32199,7 +33996,25 @@
       <c r="BI6" s="4">
         <v>3.0</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BL6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BN6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BO6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BP6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -32385,7 +34200,25 @@
       <c r="BI7" s="4">
         <v>61.0</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="BN7" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="BO7" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="BP7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -32571,7 +34404,25 @@
       <c r="BI8" s="4">
         <v>6.0</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="BL8" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="BM8" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="BN8" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="BO8" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="BP8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -32757,7 +34608,25 @@
       <c r="BI9" s="4">
         <v>49.0</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="BL9" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="BM9" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="BN9" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="BO9" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="BP9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -32943,7 +34812,25 @@
       <c r="BI10" s="4">
         <v>330.0</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="4">
+        <v>363.0</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>391.0</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>406.0</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>437.0</v>
+      </c>
+      <c r="BN10" s="4">
+        <v>465.0</v>
+      </c>
+      <c r="BO10" s="4">
+        <v>503.0</v>
+      </c>
+      <c r="BP10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -33129,7 +35016,25 @@
       <c r="BI11" s="4">
         <v>30.0</v>
       </c>
-      <c r="BJ11" s="4"/>
+      <c r="BJ11" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BL11" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BM11" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BO11" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="BP11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -34146,7 +36051,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="62" width="8.88"/>
+    <col customWidth="1" min="46" max="68" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -34288,54 +36193,72 @@
       <c r="AT1" s="2">
         <v>43961.0</v>
       </c>
-      <c r="AU1" s="7">
+      <c r="AU1" s="6">
         <v>43962.0</v>
       </c>
       <c r="AV1" s="2">
         <v>43963.0</v>
       </c>
-      <c r="AW1" s="7">
+      <c r="AW1" s="6">
         <v>43964.0</v>
       </c>
       <c r="AX1" s="2">
         <v>43965.0</v>
       </c>
-      <c r="AY1" s="7">
+      <c r="AY1" s="6">
         <v>43966.0</v>
       </c>
       <c r="AZ1" s="2">
         <v>43967.0</v>
       </c>
-      <c r="BA1" s="7">
+      <c r="BA1" s="6">
         <v>43968.0</v>
       </c>
       <c r="BB1" s="2">
         <v>43969.0</v>
       </c>
-      <c r="BC1" s="7">
+      <c r="BC1" s="6">
         <v>43970.0</v>
       </c>
       <c r="BD1" s="2">
         <v>43971.0</v>
       </c>
-      <c r="BE1" s="7">
+      <c r="BE1" s="6">
         <v>43972.0</v>
       </c>
       <c r="BF1" s="2">
         <v>43973.0</v>
       </c>
-      <c r="BG1" s="7">
+      <c r="BG1" s="6">
         <v>43974.0</v>
       </c>
       <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="8">
+      <c r="BI1" s="6">
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="6">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="7">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="7">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -34499,6 +36422,12 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -34684,7 +36613,25 @@
       <c r="BI3" s="4">
         <v>28.0</v>
       </c>
-      <c r="BJ3" s="4"/>
+      <c r="BJ3" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BN3" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="BP3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -34870,7 +36817,25 @@
       <c r="BI4" s="4">
         <v>29.0</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BN4" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="BP4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -35056,7 +37021,25 @@
       <c r="BI5" s="4">
         <v>61.0</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="BN5" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="BO5" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="BP5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -35242,7 +37225,25 @@
       <c r="BI6" s="4">
         <v>55.0</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="BL6" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>97.0</v>
+      </c>
+      <c r="BN6" s="4">
+        <v>140.0</v>
+      </c>
+      <c r="BO6" s="4">
+        <v>143.0</v>
+      </c>
+      <c r="BP6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -35428,7 +37429,25 @@
       <c r="BI7" s="4">
         <v>1335.0</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="4">
+        <v>1491.0</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>1491.0</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>1700.0</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>1700.0</v>
+      </c>
+      <c r="BN7" s="4">
+        <v>1987.0</v>
+      </c>
+      <c r="BO7" s="4">
+        <v>1987.0</v>
+      </c>
+      <c r="BP7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -35614,7 +37633,25 @@
       <c r="BI8" s="4">
         <v>121.0</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="BL8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="BM8" s="4">
+        <v>124.0</v>
+      </c>
+      <c r="BN8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="BO8" s="4">
+        <v>124.0</v>
+      </c>
+      <c r="BP8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -35800,7 +37837,25 @@
       <c r="BI9" s="4">
         <v>1168.0</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="4">
+        <v>1180.0</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>1180.0</v>
+      </c>
+      <c r="BL9" s="4">
+        <v>1180.0</v>
+      </c>
+      <c r="BM9" s="4">
+        <v>1180.0</v>
+      </c>
+      <c r="BN9" s="4">
+        <v>1180.0</v>
+      </c>
+      <c r="BO9" s="4">
+        <v>1248.0</v>
+      </c>
+      <c r="BP9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -35986,7 +38041,25 @@
       <c r="BI10" s="4">
         <v>7221.0</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="4">
+        <v>7844.0</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>8504.0</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>9157.0</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>9830.0</v>
+      </c>
+      <c r="BN10" s="4">
+        <v>10508.0</v>
+      </c>
+      <c r="BO10" s="4">
+        <v>11099.0</v>
+      </c>
+      <c r="BP10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -36172,7 +38245,25 @@
       <c r="BI11" s="4">
         <v>1899.0</v>
       </c>
-      <c r="BJ11" s="4"/>
+      <c r="BJ11" s="4">
+        <v>1919.0</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>1955.0</v>
+      </c>
+      <c r="BL11" s="4">
+        <v>1993.0</v>
+      </c>
+      <c r="BM11" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>2035.0</v>
+      </c>
+      <c r="BO11" s="4">
+        <v>2060.0</v>
+      </c>
+      <c r="BP11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -37189,7 +39280,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="62" width="9.88"/>
+    <col customWidth="1" min="44" max="68" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -37373,12 +39464,30 @@
       <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -37540,249 +39649,261 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
     </row>
     <row r="3" ht="14.25" hidden="1" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <f t="shared" ref="B3:BH3" si="1">sum(B4:B12)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="9">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="9">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="9">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="9">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="9">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="9">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="9">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="9">
         <f t="shared" si="1"/>
         <v>479</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="9">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="9">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="9">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="9">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AA3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AB3" s="9">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="9">
         <f t="shared" si="1"/>
         <v>408</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="9">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="9">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="9">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="AH3" s="14">
+      <c r="AH3" s="9">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="AI3" s="14">
+      <c r="AI3" s="9">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="AJ3" s="14">
+      <c r="AJ3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK3" s="14">
+      <c r="AK3" s="9">
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="AL3" s="14">
+      <c r="AL3" s="9">
         <f t="shared" si="1"/>
         <v>1068</v>
       </c>
-      <c r="AM3" s="14">
+      <c r="AM3" s="9">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="AN3" s="14">
+      <c r="AN3" s="9">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="AO3" s="14">
+      <c r="AO3" s="9">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="AP3" s="14">
+      <c r="AP3" s="9">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="AQ3" s="14">
+      <c r="AQ3" s="9">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="AR3" s="14">
+      <c r="AR3" s="9">
         <f t="shared" si="1"/>
         <v>-17</v>
       </c>
-      <c r="AS3" s="14">
+      <c r="AS3" s="9">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="AT3" s="14">
+      <c r="AT3" s="9">
         <f t="shared" si="1"/>
         <v>1012</v>
       </c>
-      <c r="AU3" s="14">
+      <c r="AU3" s="9">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="AV3" s="14">
+      <c r="AV3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AW3" s="14">
+      <c r="AW3" s="9">
         <f t="shared" si="1"/>
         <v>559</v>
       </c>
-      <c r="AX3" s="14">
+      <c r="AX3" s="9">
         <f t="shared" si="1"/>
         <v>912</v>
       </c>
-      <c r="AY3" s="14">
+      <c r="AY3" s="9">
         <f t="shared" si="1"/>
         <v>398</v>
       </c>
-      <c r="AZ3" s="14">
+      <c r="AZ3" s="9">
         <f t="shared" si="1"/>
         <v>381</v>
       </c>
-      <c r="BA3" s="14">
+      <c r="BA3" s="9">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
-      <c r="BB3" s="14">
+      <c r="BB3" s="9">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="BC3" s="14">
+      <c r="BC3" s="9">
         <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="BD3" s="14">
+      <c r="BD3" s="9">
         <f t="shared" si="1"/>
         <v>963</v>
       </c>
-      <c r="BE3" s="14">
+      <c r="BE3" s="9">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="BF3" s="14">
+      <c r="BF3" s="9">
         <f t="shared" si="1"/>
         <v>1126</v>
       </c>
-      <c r="BG3" s="14">
+      <c r="BG3" s="9">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="BH3" s="14">
+      <c r="BH3" s="9">
         <f t="shared" si="1"/>
         <v>974</v>
       </c>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -38027,7 +40148,31 @@
         <f>(Recoveries!BI3-Recoveries!BH3)-(Deaths!BI3-Deaths!BH3)</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="1">
+        <f>(Recoveries!BJ3-Recoveries!BI3)-(Deaths!BJ3-Deaths!BI3)</f>
+        <v>1</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>(Recoveries!BK3-Recoveries!BJ3)-(Deaths!BK3-Deaths!BJ3)</f>
+        <v>1</v>
+      </c>
+      <c r="BL4" s="1">
+        <f>(Recoveries!BL3-Recoveries!BK3)-(Deaths!BL3-Deaths!BK3)</f>
+        <v>0</v>
+      </c>
+      <c r="BM4" s="1">
+        <f>(Recoveries!BM3-Recoveries!BL3)-(Deaths!BM3-Deaths!BL3)</f>
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1">
+        <f>(Recoveries!BN3-Recoveries!BM3)-(Deaths!BN3-Deaths!BM3)</f>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="1">
+        <f>(Recoveries!BO3-Recoveries!BN3)-(Deaths!BO3-Deaths!BN3)</f>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -38272,7 +40417,31 @@
         <f>(Recoveries!BI4-Recoveries!BH4)-(Deaths!BI4-Deaths!BH4)</f>
         <v>0</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="1">
+        <f>(Recoveries!BJ4-Recoveries!BI4)-(Deaths!BJ4-Deaths!BI4)</f>
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>(Recoveries!BK4-Recoveries!BJ4)-(Deaths!BK4-Deaths!BJ4)</f>
+        <v>10</v>
+      </c>
+      <c r="BL5" s="1">
+        <f>(Recoveries!BL4-Recoveries!BK4)-(Deaths!BL4-Deaths!BK4)</f>
+        <v>6</v>
+      </c>
+      <c r="BM5" s="1">
+        <f>(Recoveries!BM4-Recoveries!BL4)-(Deaths!BM4-Deaths!BL4)</f>
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <f>(Recoveries!BN4-Recoveries!BM4)-(Deaths!BN4-Deaths!BM4)</f>
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1">
+        <f>(Recoveries!BO4-Recoveries!BN4)-(Deaths!BO4-Deaths!BN4)</f>
+        <v>0</v>
+      </c>
+      <c r="BP5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -38517,7 +40686,31 @@
         <f>(Recoveries!BI5-Recoveries!BH5)-(Deaths!BI5-Deaths!BH5)</f>
         <v>3</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="1">
+        <f>(Recoveries!BJ5-Recoveries!BI5)-(Deaths!BJ5-Deaths!BI5)</f>
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>(Recoveries!BK5-Recoveries!BJ5)-(Deaths!BK5-Deaths!BJ5)</f>
+        <v>1</v>
+      </c>
+      <c r="BL6" s="1">
+        <f>(Recoveries!BL5-Recoveries!BK5)-(Deaths!BL5-Deaths!BK5)</f>
+        <v>5</v>
+      </c>
+      <c r="BM6" s="1">
+        <f>(Recoveries!BM5-Recoveries!BL5)-(Deaths!BM5-Deaths!BL5)</f>
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <f>(Recoveries!BN5-Recoveries!BM5)-(Deaths!BN5-Deaths!BM5)</f>
+        <v>0</v>
+      </c>
+      <c r="BO6" s="1">
+        <f>(Recoveries!BO5-Recoveries!BN5)-(Deaths!BO5-Deaths!BN5)</f>
+        <v>5</v>
+      </c>
+      <c r="BP6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -38762,7 +40955,31 @@
         <f>(Recoveries!BI6-Recoveries!BH6)-(Deaths!BI6-Deaths!BH6)</f>
         <v>2</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="1">
+        <f>(Recoveries!BJ6-Recoveries!BI6)-(Deaths!BJ6-Deaths!BI6)</f>
+        <v>10</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>(Recoveries!BK6-Recoveries!BJ6)-(Deaths!BK6-Deaths!BJ6)</f>
+        <v>2</v>
+      </c>
+      <c r="BL7" s="1">
+        <f>(Recoveries!BL6-Recoveries!BK6)-(Deaths!BL6-Deaths!BK6)</f>
+        <v>8</v>
+      </c>
+      <c r="BM7" s="1">
+        <f>(Recoveries!BM6-Recoveries!BL6)-(Deaths!BM6-Deaths!BL6)</f>
+        <v>22</v>
+      </c>
+      <c r="BN7" s="1">
+        <f>(Recoveries!BN6-Recoveries!BM6)-(Deaths!BN6-Deaths!BM6)</f>
+        <v>43</v>
+      </c>
+      <c r="BO7" s="1">
+        <f>(Recoveries!BO6-Recoveries!BN6)-(Deaths!BO6-Deaths!BN6)</f>
+        <v>3</v>
+      </c>
+      <c r="BP7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -39007,7 +41224,31 @@
         <f>(Recoveries!BI7-Recoveries!BH7)-(Deaths!BI7-Deaths!BH7)</f>
         <v>-2</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="1">
+        <f>(Recoveries!BJ7-Recoveries!BI7)-(Deaths!BJ7-Deaths!BI7)</f>
+        <v>147</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>(Recoveries!BK7-Recoveries!BJ7)-(Deaths!BK7-Deaths!BJ7)</f>
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1">
+        <f>(Recoveries!BL7-Recoveries!BK7)-(Deaths!BL7-Deaths!BK7)</f>
+        <v>202</v>
+      </c>
+      <c r="BM8" s="1">
+        <f>(Recoveries!BM7-Recoveries!BL7)-(Deaths!BM7-Deaths!BL7)</f>
+        <v>-3</v>
+      </c>
+      <c r="BN8" s="1">
+        <f>(Recoveries!BN7-Recoveries!BM7)-(Deaths!BN7-Deaths!BM7)</f>
+        <v>285</v>
+      </c>
+      <c r="BO8" s="1">
+        <f>(Recoveries!BO7-Recoveries!BN7)-(Deaths!BO7-Deaths!BN7)</f>
+        <v>0</v>
+      </c>
+      <c r="BP8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -39252,7 +41493,31 @@
         <f>(Recoveries!BI8-Recoveries!BH8)-(Deaths!BI8-Deaths!BH8)</f>
         <v>0</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="1">
+        <f>(Recoveries!BJ8-Recoveries!BI8)-(Deaths!BJ8-Deaths!BI8)</f>
+        <v>2</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>(Recoveries!BK8-Recoveries!BJ8)-(Deaths!BK8-Deaths!BJ8)</f>
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <f>(Recoveries!BL8-Recoveries!BK8)-(Deaths!BL8-Deaths!BK8)</f>
+        <v>-2</v>
+      </c>
+      <c r="BM9" s="1">
+        <f>(Recoveries!BM8-Recoveries!BL8)-(Deaths!BM8-Deaths!BL8)</f>
+        <v>1</v>
+      </c>
+      <c r="BN9" s="1">
+        <f>(Recoveries!BN8-Recoveries!BM8)-(Deaths!BN8-Deaths!BM8)</f>
+        <v>-1</v>
+      </c>
+      <c r="BO9" s="1">
+        <f>(Recoveries!BO8-Recoveries!BN8)-(Deaths!BO8-Deaths!BN8)</f>
+        <v>1</v>
+      </c>
+      <c r="BP9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -39497,7 +41762,31 @@
         <f>(Recoveries!BI9-Recoveries!BH9)-(Deaths!BI9-Deaths!BH9)</f>
         <v>57</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="1">
+        <f>(Recoveries!BJ9-Recoveries!BI9)-(Deaths!BJ9-Deaths!BI9)</f>
+        <v>12</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>(Recoveries!BK9-Recoveries!BJ9)-(Deaths!BK9-Deaths!BJ9)</f>
+        <v>0</v>
+      </c>
+      <c r="BL10" s="1">
+        <f>(Recoveries!BL9-Recoveries!BK9)-(Deaths!BL9-Deaths!BK9)</f>
+        <v>-1</v>
+      </c>
+      <c r="BM10" s="1">
+        <f>(Recoveries!BM9-Recoveries!BL9)-(Deaths!BM9-Deaths!BL9)</f>
+        <v>0</v>
+      </c>
+      <c r="BN10" s="1">
+        <f>(Recoveries!BN9-Recoveries!BM9)-(Deaths!BN9-Deaths!BM9)</f>
+        <v>-2</v>
+      </c>
+      <c r="BO10" s="1">
+        <f>(Recoveries!BO9-Recoveries!BN9)-(Deaths!BO9-Deaths!BN9)</f>
+        <v>68</v>
+      </c>
+      <c r="BP10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -39742,7 +42031,31 @@
         <f>(Recoveries!BI10-Recoveries!BH10)-(Deaths!BI10-Deaths!BH10)</f>
         <v>647</v>
       </c>
-      <c r="BJ11" s="4"/>
+      <c r="BJ11" s="1">
+        <f>(Recoveries!BJ10-Recoveries!BI10)-(Deaths!BJ10-Deaths!BI10)</f>
+        <v>590</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>(Recoveries!BK10-Recoveries!BJ10)-(Deaths!BK10-Deaths!BJ10)</f>
+        <v>632</v>
+      </c>
+      <c r="BL11" s="1">
+        <f>(Recoveries!BL10-Recoveries!BK10)-(Deaths!BL10-Deaths!BK10)</f>
+        <v>638</v>
+      </c>
+      <c r="BM11" s="1">
+        <f>(Recoveries!BM10-Recoveries!BL10)-(Deaths!BM10-Deaths!BL10)</f>
+        <v>642</v>
+      </c>
+      <c r="BN11" s="1">
+        <f>(Recoveries!BN10-Recoveries!BM10)-(Deaths!BN10-Deaths!BM10)</f>
+        <v>650</v>
+      </c>
+      <c r="BO11" s="1">
+        <f>(Recoveries!BO10-Recoveries!BN10)-(Deaths!BO10-Deaths!BN10)</f>
+        <v>553</v>
+      </c>
+      <c r="BP11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -39987,7 +42300,31 @@
         <f>(Recoveries!BI11-Recoveries!BH11)-(Deaths!BI11-Deaths!BH11)</f>
         <v>58</v>
       </c>
-      <c r="BJ12" s="4"/>
+      <c r="BJ12" s="1">
+        <f>(Recoveries!BJ11-Recoveries!BI11)-(Deaths!BJ11-Deaths!BI11)</f>
+        <v>19</v>
+      </c>
+      <c r="BK12" s="1">
+        <f>(Recoveries!BK11-Recoveries!BJ11)-(Deaths!BK11-Deaths!BJ11)</f>
+        <v>36</v>
+      </c>
+      <c r="BL12" s="1">
+        <f>(Recoveries!BL11-Recoveries!BK11)-(Deaths!BL11-Deaths!BK11)</f>
+        <v>38</v>
+      </c>
+      <c r="BM12" s="1">
+        <f>(Recoveries!BM11-Recoveries!BL11)-(Deaths!BM11-Deaths!BL11)</f>
+        <v>26</v>
+      </c>
+      <c r="BN12" s="1">
+        <f>(Recoveries!BN11-Recoveries!BM11)-(Deaths!BN11-Deaths!BM11)</f>
+        <v>16</v>
+      </c>
+      <c r="BO12" s="1">
+        <f>(Recoveries!BO11-Recoveries!BN11)-(Deaths!BO11-Deaths!BN11)</f>
+        <v>23</v>
+      </c>
+      <c r="BP12" s="4"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -40999,11 +43336,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.75"/>
-    <col customWidth="1" min="2" max="6" width="8.38"/>
-    <col customWidth="1" min="7" max="15" width="7.13"/>
-    <col customWidth="1" min="16" max="36" width="8.0"/>
-    <col customWidth="1" min="37" max="62" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="11.88"/>
+    <col customWidth="1" min="2" max="6" width="8.63"/>
+    <col customWidth="1" min="7" max="15" width="7.38"/>
+    <col customWidth="1" min="16" max="36" width="8.25"/>
+    <col customWidth="1" min="37" max="45" width="7.88"/>
+    <col customWidth="1" min="46" max="67" width="8.88"/>
+    <col customWidth="1" min="68" max="68" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -41187,12 +43526,30 @@
       <c r="BH1" s="2">
         <v>43975.0</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BI1" s="2">
         <v>43976.0</v>
       </c>
       <c r="BJ1" s="2">
+        <v>43977.0</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43979.0</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>43980.0</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43981.0</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>43982.0</v>
+      </c>
+      <c r="BP1" s="2">
         <f>today()</f>
-        <v>43977</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -41397,17 +43754,23 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="1">
-        <f>Confirmed!BJ2-Deaths!AX2-Recoveries!AX2</f>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1">
+        <f>Confirmed!BP2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
+      <c r="A3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="15">
-        <f t="shared" ref="B3:BJ3" si="1">sum(B4:B12)</f>
+        <f t="shared" ref="B3:BP3" si="1">sum(B4:B12)</f>
         <v>848</v>
       </c>
       <c r="C3" s="15">
@@ -41647,6 +44010,30 @@
         <v>11217</v>
       </c>
       <c r="BJ3" s="15">
+        <f t="shared" si="1"/>
+        <v>10999</v>
+      </c>
+      <c r="BK3" s="15">
+        <f t="shared" si="1"/>
+        <v>11934</v>
+      </c>
+      <c r="BL3" s="15">
+        <f t="shared" si="1"/>
+        <v>12456</v>
+      </c>
+      <c r="BM3" s="15">
+        <f t="shared" si="1"/>
+        <v>13504</v>
+      </c>
+      <c r="BN3" s="15">
+        <f t="shared" si="1"/>
+        <v>14175</v>
+      </c>
+      <c r="BO3" s="15">
+        <f t="shared" si="1"/>
+        <v>15185</v>
+      </c>
+      <c r="BP3" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -41895,7 +44282,31 @@
         <f>Confirmed!BI3-Deaths!BI3-Recoveries!BI3</f>
         <v>16</v>
       </c>
-      <c r="BJ4" s="1"/>
+      <c r="BJ4" s="1">
+        <f>Confirmed!BJ3-Deaths!BJ3-Recoveries!BJ3</f>
+        <v>15</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>Confirmed!BK3-Deaths!BK3-Recoveries!BK3</f>
+        <v>17</v>
+      </c>
+      <c r="BL4" s="1">
+        <f>Confirmed!BL3-Deaths!BL3-Recoveries!BL3</f>
+        <v>20</v>
+      </c>
+      <c r="BM4" s="1">
+        <f>Confirmed!BM3-Deaths!BM3-Recoveries!BM3</f>
+        <v>20</v>
+      </c>
+      <c r="BN4" s="1">
+        <f>Confirmed!BN3-Deaths!BN3-Recoveries!BN3</f>
+        <v>25</v>
+      </c>
+      <c r="BO4" s="1">
+        <f>Confirmed!BO3-Deaths!BO3-Recoveries!BO3</f>
+        <v>37</v>
+      </c>
+      <c r="BP4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -42141,7 +44552,31 @@
         <f>Confirmed!BI4-Deaths!BI4-Recoveries!BI4</f>
         <v>79</v>
       </c>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1">
+        <f>Confirmed!BJ4-Deaths!BJ4-Recoveries!BJ4</f>
+        <v>85</v>
+      </c>
+      <c r="BK5" s="1">
+        <f>Confirmed!BK4-Deaths!BK4-Recoveries!BK4</f>
+        <v>88</v>
+      </c>
+      <c r="BL5" s="1">
+        <f>Confirmed!BL4-Deaths!BL4-Recoveries!BL4</f>
+        <v>88</v>
+      </c>
+      <c r="BM5" s="1">
+        <f>Confirmed!BM4-Deaths!BM4-Recoveries!BM4</f>
+        <v>97</v>
+      </c>
+      <c r="BN5" s="1">
+        <f>Confirmed!BN4-Deaths!BN4-Recoveries!BN4</f>
+        <v>116</v>
+      </c>
+      <c r="BO5" s="1">
+        <f>Confirmed!BO4-Deaths!BO4-Recoveries!BO4</f>
+        <v>129</v>
+      </c>
+      <c r="BP5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -42387,7 +44822,31 @@
         <f>Confirmed!BI5-Deaths!BI5-Recoveries!BI5</f>
         <v>41</v>
       </c>
-      <c r="BJ6" s="1"/>
+      <c r="BJ6" s="1">
+        <f>Confirmed!BJ5-Deaths!BJ5-Recoveries!BJ5</f>
+        <v>42</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>Confirmed!BK5-Deaths!BK5-Recoveries!BK5</f>
+        <v>44</v>
+      </c>
+      <c r="BL6" s="1">
+        <f>Confirmed!BL5-Deaths!BL5-Recoveries!BL5</f>
+        <v>44</v>
+      </c>
+      <c r="BM6" s="1">
+        <f>Confirmed!BM5-Deaths!BM5-Recoveries!BM5</f>
+        <v>45</v>
+      </c>
+      <c r="BN6" s="1">
+        <f>Confirmed!BN5-Deaths!BN5-Recoveries!BN5</f>
+        <v>46</v>
+      </c>
+      <c r="BO6" s="1">
+        <f>Confirmed!BO5-Deaths!BO5-Recoveries!BO5</f>
+        <v>49</v>
+      </c>
+      <c r="BP6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -42633,7 +45092,31 @@
         <f>Confirmed!BI6-Deaths!BI6-Recoveries!BI6</f>
         <v>74</v>
       </c>
-      <c r="BJ7" s="1"/>
+      <c r="BJ7" s="1">
+        <f>Confirmed!BJ6-Deaths!BJ6-Recoveries!BJ6</f>
+        <v>64</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>Confirmed!BK6-Deaths!BK6-Recoveries!BK6</f>
+        <v>71</v>
+      </c>
+      <c r="BL7" s="1">
+        <f>Confirmed!BL6-Deaths!BL6-Recoveries!BL6</f>
+        <v>66</v>
+      </c>
+      <c r="BM7" s="1">
+        <f>Confirmed!BM6-Deaths!BM6-Recoveries!BM6</f>
+        <v>70</v>
+      </c>
+      <c r="BN7" s="1">
+        <f>Confirmed!BN6-Deaths!BN6-Recoveries!BN6</f>
+        <v>30</v>
+      </c>
+      <c r="BO7" s="1">
+        <f>Confirmed!BO6-Deaths!BO6-Recoveries!BO6</f>
+        <v>31</v>
+      </c>
+      <c r="BP7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -42879,7 +45362,31 @@
         <f>Confirmed!BI7-Deaths!BI7-Recoveries!BI7</f>
         <v>1352</v>
       </c>
-      <c r="BJ8" s="1"/>
+      <c r="BJ8" s="1">
+        <f>Confirmed!BJ7-Deaths!BJ7-Recoveries!BJ7</f>
+        <v>1303</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>Confirmed!BK7-Deaths!BK7-Recoveries!BK7</f>
+        <v>1486</v>
+      </c>
+      <c r="BL8" s="1">
+        <f>Confirmed!BL7-Deaths!BL7-Recoveries!BL7</f>
+        <v>1529</v>
+      </c>
+      <c r="BM8" s="1">
+        <f>Confirmed!BM7-Deaths!BM7-Recoveries!BM7</f>
+        <v>1803</v>
+      </c>
+      <c r="BN8" s="1">
+        <f>Confirmed!BN7-Deaths!BN7-Recoveries!BN7</f>
+        <v>1690</v>
+      </c>
+      <c r="BO8" s="1">
+        <f>Confirmed!BO7-Deaths!BO7-Recoveries!BO7</f>
+        <v>1858</v>
+      </c>
+      <c r="BP8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -43125,7 +45632,31 @@
         <f>Confirmed!BI8-Deaths!BI8-Recoveries!BI8</f>
         <v>81</v>
       </c>
-      <c r="BJ9" s="1"/>
+      <c r="BJ9" s="1">
+        <f>Confirmed!BJ8-Deaths!BJ8-Recoveries!BJ8</f>
+        <v>77</v>
+      </c>
+      <c r="BK9" s="1">
+        <f>Confirmed!BK8-Deaths!BK8-Recoveries!BK8</f>
+        <v>92</v>
+      </c>
+      <c r="BL9" s="1">
+        <f>Confirmed!BL8-Deaths!BL8-Recoveries!BL8</f>
+        <v>94</v>
+      </c>
+      <c r="BM9" s="1">
+        <f>Confirmed!BM8-Deaths!BM8-Recoveries!BM8</f>
+        <v>99</v>
+      </c>
+      <c r="BN9" s="1">
+        <f>Confirmed!BN8-Deaths!BN8-Recoveries!BN8</f>
+        <v>130</v>
+      </c>
+      <c r="BO9" s="1">
+        <f>Confirmed!BO8-Deaths!BO8-Recoveries!BO8</f>
+        <v>146</v>
+      </c>
+      <c r="BP9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -43371,7 +45902,31 @@
         <f>Confirmed!BI9-Deaths!BI9-Recoveries!BI9</f>
         <v>665</v>
       </c>
-      <c r="BJ10" s="1"/>
+      <c r="BJ10" s="1">
+        <f>Confirmed!BJ9-Deaths!BJ9-Recoveries!BJ9</f>
+        <v>698</v>
+      </c>
+      <c r="BK10" s="1">
+        <f>Confirmed!BK9-Deaths!BK9-Recoveries!BK9</f>
+        <v>957</v>
+      </c>
+      <c r="BL10" s="1">
+        <f>Confirmed!BL9-Deaths!BL9-Recoveries!BL9</f>
+        <v>1119</v>
+      </c>
+      <c r="BM10" s="1">
+        <f>Confirmed!BM9-Deaths!BM9-Recoveries!BM9</f>
+        <v>1198</v>
+      </c>
+      <c r="BN10" s="1">
+        <f>Confirmed!BN9-Deaths!BN9-Recoveries!BN9</f>
+        <v>1244</v>
+      </c>
+      <c r="BO10" s="1">
+        <f>Confirmed!BO9-Deaths!BO9-Recoveries!BO9</f>
+        <v>1245</v>
+      </c>
+      <c r="BP10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -43617,7 +46172,31 @@
         <f>Confirmed!BI10-Deaths!BI10-Recoveries!BI10</f>
         <v>7845</v>
       </c>
-      <c r="BJ11" s="1"/>
+      <c r="BJ11" s="1">
+        <f>Confirmed!BJ10-Deaths!BJ10-Recoveries!BJ10</f>
+        <v>7622</v>
+      </c>
+      <c r="BK11" s="1">
+        <f>Confirmed!BK10-Deaths!BK10-Recoveries!BK10</f>
+        <v>7998</v>
+      </c>
+      <c r="BL11" s="1">
+        <f>Confirmed!BL10-Deaths!BL10-Recoveries!BL10</f>
+        <v>8191</v>
+      </c>
+      <c r="BM11" s="1">
+        <f>Confirmed!BM10-Deaths!BM10-Recoveries!BM10</f>
+        <v>8639</v>
+      </c>
+      <c r="BN11" s="1">
+        <f>Confirmed!BN10-Deaths!BN10-Recoveries!BN10</f>
+        <v>9187</v>
+      </c>
+      <c r="BO11" s="1">
+        <f>Confirmed!BO10-Deaths!BO10-Recoveries!BO10</f>
+        <v>9780</v>
+      </c>
+      <c r="BP11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -43863,12 +46442,36 @@
         <f>Confirmed!BI11-Deaths!BI11-Recoveries!BI11</f>
         <v>1064</v>
       </c>
-      <c r="BJ12" s="1"/>
+      <c r="BJ12" s="1">
+        <f>Confirmed!BJ11-Deaths!BJ11-Recoveries!BJ11</f>
+        <v>1093</v>
+      </c>
+      <c r="BK12" s="1">
+        <f>Confirmed!BK11-Deaths!BK11-Recoveries!BK11</f>
+        <v>1181</v>
+      </c>
+      <c r="BL12" s="1">
+        <f>Confirmed!BL11-Deaths!BL11-Recoveries!BL11</f>
+        <v>1305</v>
+      </c>
+      <c r="BM12" s="1">
+        <f>Confirmed!BM11-Deaths!BM11-Recoveries!BM11</f>
+        <v>1533</v>
+      </c>
+      <c r="BN12" s="1">
+        <f>Confirmed!BN11-Deaths!BN11-Recoveries!BN11</f>
+        <v>1707</v>
+      </c>
+      <c r="BO12" s="1">
+        <f>Confirmed!BO11-Deaths!BO11-Recoveries!BO11</f>
+        <v>1910</v>
+      </c>
+      <c r="BP12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="17"/>
+      <c r="AK15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -45324,7 +47927,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1">
-        <f>Confirmed!BJ2-Deaths!AX2-Recoveries!AX2</f>
+        <f>Confirmed!BP2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1"/>
@@ -45361,8 +47964,8 @@
       <c r="CD2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
+      <c r="A3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="15">
         <f t="shared" ref="B3:CD3" si="1">sum(B4:B12)</f>
@@ -47924,7 +50527,7 @@
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="AK15" s="17"/>
+      <c r="AK15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -49136,7 +51739,7 @@
       <c r="D6" s="4">
         <v>35.83</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>0.712095737315795</v>
       </c>
       <c r="F6" s="4"/>
@@ -49163,7 +51766,7 @@
       <c r="D7" s="4">
         <v>32.72</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>1.1919069517973</v>
       </c>
       <c r="F7" s="4"/>
@@ -49190,7 +51793,7 @@
       <c r="D8" s="4">
         <v>25.0</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>0.805716317737061</v>
       </c>
       <c r="F8" s="4"/>
@@ -49217,7 +51820,7 @@
       <c r="D9" s="4">
         <v>22.68</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>1.27035408111278</v>
       </c>
       <c r="F9" s="4"/>
@@ -49244,7 +51847,7 @@
       <c r="D10" s="4">
         <v>37.62</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>18.4438184603851</v>
       </c>
       <c r="F10" s="4"/>
@@ -49271,7 +51874,7 @@
       <c r="D11" s="4">
         <v>49.62</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>2.07794726516166</v>
       </c>
       <c r="F11" s="4"/>
@@ -49289,16 +51892,16 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>34.31</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>108.39</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>43.4</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>7.13078100388287</v>
       </c>
     </row>
@@ -49306,16 +51909,16 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>25.39</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>100.02</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>44.7</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>99.5430923844055</v>
       </c>
     </row>
@@ -49323,16 +51926,16 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>25.31</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>140.8</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>56.44</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>4.82336882660681</v>
       </c>
     </row>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -558,12 +558,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$2:$BT$2</c:f>
+              <c:f>Testing!$B$2:$BU$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -582,12 +582,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$3:$BT$3</c:f>
+              <c:f>Testing!$B$3:$BU$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -606,12 +606,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$4:$BT$4</c:f>
+              <c:f>Testing!$B$4:$BU$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -630,12 +630,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$5:$BT$5</c:f>
+              <c:f>Testing!$B$5:$BU$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -654,12 +654,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$6:$BT$6</c:f>
+              <c:f>Testing!$B$6:$BU$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -678,12 +678,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$7:$BT$7</c:f>
+              <c:f>Testing!$B$7:$BU$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -704,12 +704,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$8:$BT$8</c:f>
+              <c:f>Testing!$B$8:$BU$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -730,12 +730,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$9:$BT$9</c:f>
+              <c:f>Testing!$B$9:$BU$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -756,12 +756,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$10:$BT$10</c:f>
+              <c:f>Testing!$B$10:$BU$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -782,21 +782,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Testing!$B$1:$BT$1</c:f>
+              <c:f>Testing!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Testing!$B$11:$BT$11</c:f>
+              <c:f>Testing!$B$11:$BU$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="453900715"/>
-        <c:axId val="419165748"/>
+        <c:axId val="64976703"/>
+        <c:axId val="137106936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="453900715"/>
+        <c:axId val="64976703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,10 +841,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419165748"/>
+        <c:crossAx val="137106936"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419165748"/>
+        <c:axId val="137106936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +913,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453900715"/>
+        <c:crossAx val="64976703"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -980,12 +980,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$2:$BT$2</c:f>
+              <c:f>'Death Rate'!$B$2:$BU$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1003,12 +1003,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$3:$BT$3</c:f>
+              <c:f>'Death Rate'!$B$3:$BU$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1026,12 +1026,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$4:$BT$4</c:f>
+              <c:f>'Death Rate'!$B$4:$BU$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1049,12 +1049,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$5:$BT$5</c:f>
+              <c:f>'Death Rate'!$B$5:$BU$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1072,12 +1072,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$6:$BT$6</c:f>
+              <c:f>'Death Rate'!$B$6:$BU$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1095,12 +1095,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$7:$BT$7</c:f>
+              <c:f>'Death Rate'!$B$7:$BU$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$8:$BT$8</c:f>
+              <c:f>'Death Rate'!$B$8:$BU$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1141,12 +1141,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$9:$BT$9</c:f>
+              <c:f>'Death Rate'!$B$9:$BU$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -1164,21 +1164,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Death Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Death Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$B$10:$BT$10</c:f>
+              <c:f>'Death Rate'!$B$10:$BU$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="323667018"/>
-        <c:axId val="950213218"/>
+        <c:axId val="2028944702"/>
+        <c:axId val="1616163148"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="323667018"/>
+        <c:axId val="2028944702"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,10 +1223,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950213218"/>
+        <c:crossAx val="1616163148"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="950213218"/>
+        <c:axId val="1616163148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1295,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323667018"/>
+        <c:crossAx val="2028944702"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1366,18 +1366,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$BT$2</c:f>
+              <c:f>'Infection Rate'!$B$2:$BU$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1886324279"/>
-        <c:axId val="1727448768"/>
+        <c:axId val="420712572"/>
+        <c:axId val="1651000815"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1393,12 +1393,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$BT$3</c:f>
+              <c:f>'Infection Rate'!$B$3:$BU$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1416,12 +1416,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$BT$4</c:f>
+              <c:f>'Infection Rate'!$B$4:$BU$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1439,12 +1439,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$BT$5</c:f>
+              <c:f>'Infection Rate'!$B$5:$BU$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1462,12 +1462,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$BT$6</c:f>
+              <c:f>'Infection Rate'!$B$6:$BU$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1485,12 +1485,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$BT$7</c:f>
+              <c:f>'Infection Rate'!$B$7:$BU$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1508,12 +1508,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$BT$8</c:f>
+              <c:f>'Infection Rate'!$B$8:$BU$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1531,12 +1531,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$BT$9</c:f>
+              <c:f>'Infection Rate'!$B$9:$BU$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1554,12 +1554,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$BT$10</c:f>
+              <c:f>'Infection Rate'!$B$10:$BU$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1577,21 +1577,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Infection Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$BT$11</c:f>
+              <c:f>'Infection Rate'!$B$11:$BU$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1886324279"/>
-        <c:axId val="1727448768"/>
+        <c:axId val="420712572"/>
+        <c:axId val="1651000815"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1886324279"/>
+        <c:axId val="420712572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,10 +1636,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727448768"/>
+        <c:crossAx val="1651000815"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1727448768"/>
+        <c:axId val="1651000815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886324279"/>
+        <c:crossAx val="420712572"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1779,12 +1779,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$2:$BT$2</c:f>
+              <c:f>'Testing per Capita'!$B$2:$BU$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1803,12 +1803,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$3:$BT$3</c:f>
+              <c:f>'Testing per Capita'!$B$3:$BU$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1827,12 +1827,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$4:$BT$4</c:f>
+              <c:f>'Testing per Capita'!$B$4:$BU$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1851,12 +1851,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$5:$BT$5</c:f>
+              <c:f>'Testing per Capita'!$B$5:$BU$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1875,12 +1875,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$6:$BT$6</c:f>
+              <c:f>'Testing per Capita'!$B$6:$BU$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1899,12 +1899,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$7:$BT$7</c:f>
+              <c:f>'Testing per Capita'!$B$7:$BU$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1925,12 +1925,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$8:$BT$8</c:f>
+              <c:f>'Testing per Capita'!$B$8:$BU$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1951,12 +1951,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$9:$BT$9</c:f>
+              <c:f>'Testing per Capita'!$B$9:$BU$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1977,12 +1977,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$10:$BT$10</c:f>
+              <c:f>'Testing per Capita'!$B$10:$BU$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1996,21 +1996,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Testing per Capita'!$B$1:$BT$1</c:f>
+              <c:f>'Testing per Capita'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testing per Capita'!$B$11:$BT$11</c:f>
+              <c:f>'Testing per Capita'!$B$11:$BU$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="617982844"/>
-        <c:axId val="382343431"/>
+        <c:axId val="1577943348"/>
+        <c:axId val="921028917"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="617982844"/>
+        <c:axId val="1577943348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,10 +2055,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382343431"/>
+        <c:crossAx val="921028917"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382343431"/>
+        <c:axId val="921028917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2127,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617982844"/>
+        <c:crossAx val="1577943348"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2198,12 +2198,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$2:$BT$2</c:f>
+              <c:f>'Daily tracking'!$B$2:$BU$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2222,12 +2222,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$3:$BT$3</c:f>
+              <c:f>'Daily tracking'!$B$3:$BU$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2246,12 +2246,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$4:$BT$4</c:f>
+              <c:f>'Daily tracking'!$B$4:$BU$4</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2270,12 +2270,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$5:$BT$5</c:f>
+              <c:f>'Daily tracking'!$B$5:$BU$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2294,12 +2294,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$6:$BT$6</c:f>
+              <c:f>'Daily tracking'!$B$6:$BU$6</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2318,12 +2318,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$7:$BT$7</c:f>
+              <c:f>'Daily tracking'!$B$7:$BU$7</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2344,12 +2344,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$8:$BT$8</c:f>
+              <c:f>'Daily tracking'!$B$8:$BU$8</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2370,12 +2370,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$9:$BT$9</c:f>
+              <c:f>'Daily tracking'!$B$9:$BU$9</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2396,12 +2396,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$10:$BT$10</c:f>
+              <c:f>'Daily tracking'!$B$10:$BU$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2415,12 +2415,12 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$11:$BT$11</c:f>
+              <c:f>'Daily tracking'!$B$11:$BU$11</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -2434,21 +2434,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Daily tracking'!$B$1:$BT$1</c:f>
+              <c:f>'Daily tracking'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily tracking'!$B$12:$BT$12</c:f>
+              <c:f>'Daily tracking'!$B$12:$BU$12</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2135636688"/>
-        <c:axId val="1370705043"/>
+        <c:axId val="497541049"/>
+        <c:axId val="2108754540"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135636688"/>
+        <c:axId val="497541049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,10 +2493,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1370705043"/>
+        <c:crossAx val="2108754540"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1370705043"/>
+        <c:axId val="2108754540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2565,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135636688"/>
+        <c:crossAx val="497541049"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2636,18 +2636,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$2:$BT$2</c:f>
+              <c:f>Active!$B$2:$BU$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1482072267"/>
-        <c:axId val="506263849"/>
+        <c:axId val="2140085188"/>
+        <c:axId val="825883043"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2663,12 +2663,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$3:$BT$3</c:f>
+              <c:f>Active!$B$3:$BU$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2686,12 +2686,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$4:$BT$4</c:f>
+              <c:f>Active!$B$4:$BU$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2709,12 +2709,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$5:$BT$5</c:f>
+              <c:f>Active!$B$5:$BU$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2732,12 +2732,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$6:$BT$6</c:f>
+              <c:f>Active!$B$6:$BU$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2755,12 +2755,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$7:$BT$7</c:f>
+              <c:f>Active!$B$7:$BU$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2778,12 +2778,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$8:$BT$8</c:f>
+              <c:f>Active!$B$8:$BU$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2801,12 +2801,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$9:$BT$9</c:f>
+              <c:f>Active!$B$9:$BU$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2824,12 +2824,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$10:$BT$10</c:f>
+              <c:f>Active!$B$10:$BU$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2847,21 +2847,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Active!$B$1:$BT$1</c:f>
+              <c:f>Active!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Active!$B$11:$BT$11</c:f>
+              <c:f>Active!$B$11:$BU$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1482072267"/>
-        <c:axId val="506263849"/>
+        <c:axId val="2140085188"/>
+        <c:axId val="825883043"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1482072267"/>
+        <c:axId val="2140085188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,10 +2906,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506263849"/>
+        <c:crossAx val="825883043"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="506263849"/>
+        <c:axId val="825883043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482072267"/>
+        <c:crossAx val="2140085188"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3059,8 +3059,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="87764606"/>
-        <c:axId val="2125847615"/>
+        <c:axId val="1834098413"/>
+        <c:axId val="1047888535"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3270,11 +3270,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87764606"/>
-        <c:axId val="2125847615"/>
+        <c:axId val="1834098413"/>
+        <c:axId val="1047888535"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87764606"/>
+        <c:axId val="1834098413"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3319,10 +3319,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125847615"/>
+        <c:crossAx val="1047888535"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125847615"/>
+        <c:axId val="1047888535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,7 +3391,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87764606"/>
+        <c:crossAx val="1834098413"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3480,8 +3480,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="814601860"/>
-        <c:axId val="1589282089"/>
+        <c:axId val="658811399"/>
+        <c:axId val="1466729522"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3691,11 +3691,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="814601860"/>
-        <c:axId val="1589282089"/>
+        <c:axId val="658811399"/>
+        <c:axId val="1466729522"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="814601860"/>
+        <c:axId val="658811399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3740,10 +3740,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589282089"/>
+        <c:crossAx val="1466729522"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1589282089"/>
+        <c:axId val="1466729522"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3812,7 +3812,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="814601860"/>
+        <c:crossAx val="658811399"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3962,11 +3962,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1690370302"/>
-        <c:axId val="1848801253"/>
+        <c:axId val="1564419057"/>
+        <c:axId val="138001295"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1690370302"/>
+        <c:axId val="1564419057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,10 +4011,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1848801253"/>
+        <c:crossAx val="138001295"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1848801253"/>
+        <c:axId val="138001295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4083,7 +4083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1690370302"/>
+        <c:crossAx val="1564419057"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4302,11 +4302,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="800385145"/>
-        <c:axId val="2110645678"/>
+        <c:axId val="1621991699"/>
+        <c:axId val="1809065112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="800385145"/>
+        <c:axId val="1621991699"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4351,10 +4351,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110645678"/>
+        <c:crossAx val="1809065112"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110645678"/>
+        <c:axId val="1809065112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4423,7 +4423,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800385145"/>
+        <c:crossAx val="1621991699"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4490,12 +4490,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$3:$BT$3</c:f>
+              <c:f>'Recovery Rate'!$B$3:$BU$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4513,12 +4513,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$4:$BT$4</c:f>
+              <c:f>'Recovery Rate'!$B$4:$BU$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4536,12 +4536,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$5:$BT$5</c:f>
+              <c:f>'Recovery Rate'!$B$5:$BU$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4559,12 +4559,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$6:$BT$6</c:f>
+              <c:f>'Recovery Rate'!$B$6:$BU$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4582,12 +4582,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$7:$BT$7</c:f>
+              <c:f>'Recovery Rate'!$B$7:$BU$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4605,12 +4605,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$8:$BT$8</c:f>
+              <c:f>'Recovery Rate'!$B$8:$BU$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4628,12 +4628,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$9:$BT$9</c:f>
+              <c:f>'Recovery Rate'!$B$9:$BU$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4651,12 +4651,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$10:$BT$10</c:f>
+              <c:f>'Recovery Rate'!$B$10:$BU$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -4674,21 +4674,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Recovery Rate'!$B$1:$BT$1</c:f>
+              <c:f>'Recovery Rate'!$B$1:$BU$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Recovery Rate'!$B$11:$BT$11</c:f>
+              <c:f>'Recovery Rate'!$B$11:$BU$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1705514391"/>
-        <c:axId val="600559509"/>
+        <c:axId val="811960686"/>
+        <c:axId val="1904686086"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1705514391"/>
+        <c:axId val="811960686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4733,10 +4733,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600559509"/>
+        <c:crossAx val="1904686086"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="600559509"/>
+        <c:axId val="1904686086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4805,7 +4805,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705514391"/>
+        <c:crossAx val="811960686"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -5384,7 +5384,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="72" width="9.88"/>
+    <col customWidth="1" min="44" max="73" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5599,12 +5599,16 @@
         <v>43985.0</v>
       </c>
       <c r="BS1" s="2">
-        <f>BR1+1</f>
+        <f t="shared" ref="BS1:BT1" si="1">BR1+1</f>
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -5776,6 +5780,7 @@
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
       <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -5991,7 +5996,10 @@
       <c r="BS3" s="3">
         <v>95.0</v>
       </c>
-      <c r="BT3" s="3"/>
+      <c r="BT3" s="3">
+        <v>102.0</v>
+      </c>
+      <c r="BU3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -6207,7 +6215,10 @@
       <c r="BS4" s="3">
         <v>364.0</v>
       </c>
-      <c r="BT4" s="3"/>
+      <c r="BT4" s="3">
+        <v>409.0</v>
+      </c>
+      <c r="BU4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -6423,7 +6434,10 @@
       <c r="BS5" s="3">
         <v>144.0</v>
       </c>
-      <c r="BT5" s="3"/>
+      <c r="BT5" s="3">
+        <v>169.0</v>
+      </c>
+      <c r="BU5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -6639,7 +6653,10 @@
       <c r="BS6" s="3">
         <v>206.0</v>
       </c>
-      <c r="BT6" s="3"/>
+      <c r="BT6" s="3">
+        <v>215.0</v>
+      </c>
+      <c r="BU6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6855,7 +6872,10 @@
       <c r="BS7" s="3">
         <v>4936.0</v>
       </c>
-      <c r="BT7" s="3"/>
+      <c r="BT7" s="3">
+        <v>5240.0</v>
+      </c>
+      <c r="BU7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -7071,7 +7091,10 @@
       <c r="BS8" s="3">
         <v>322.0</v>
       </c>
-      <c r="BT8" s="3"/>
+      <c r="BT8" s="3">
+        <v>336.0</v>
+      </c>
+      <c r="BU8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -7287,7 +7310,10 @@
       <c r="BS9" s="3">
         <v>2869.0</v>
       </c>
-      <c r="BT9" s="3"/>
+      <c r="BT9" s="3">
+        <v>2936.0</v>
+      </c>
+      <c r="BU9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -7503,7 +7529,10 @@
       <c r="BS10" s="3">
         <v>27006.0</v>
       </c>
-      <c r="BT10" s="3"/>
+      <c r="BT10" s="3">
+        <v>28807.0</v>
+      </c>
+      <c r="BU10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -7719,7 +7748,10 @@
       <c r="BS11" s="3">
         <v>4845.0</v>
       </c>
-      <c r="BT11" s="3"/>
+      <c r="BT11" s="3">
+        <v>5215.0</v>
+      </c>
+      <c r="BU11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -8733,7 +8765,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="72" width="8.88"/>
+    <col customWidth="1" min="46" max="73" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -8945,7 +8977,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -8953,8 +8985,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -9169,8 +9205,9 @@
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
-      <c r="BT2" s="1">
-        <f>Confirmed!BT2-Active!BT2</f>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1">
+        <f>Confirmed!BU2-Active!BU2</f>
         <v>0</v>
       </c>
     </row>
@@ -9458,7 +9495,11 @@
         <f>Confirmed!BS3-Active!BS4</f>
         <v>34</v>
       </c>
-      <c r="BT3" s="1"/>
+      <c r="BT3" s="1">
+        <f>Confirmed!BT3-Active!BT4</f>
+        <v>35</v>
+      </c>
+      <c r="BU3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9744,7 +9785,11 @@
         <f>Confirmed!BS4-Active!BS5</f>
         <v>60</v>
       </c>
-      <c r="BT4" s="1"/>
+      <c r="BT4" s="1">
+        <f>Confirmed!BT4-Active!BT5</f>
+        <v>74</v>
+      </c>
+      <c r="BU4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -10030,7 +10075,11 @@
         <f>Confirmed!BS5-Active!BS6</f>
         <v>86</v>
       </c>
-      <c r="BT5" s="1"/>
+      <c r="BT5" s="1">
+        <f>Confirmed!BT5-Active!BT6</f>
+        <v>94</v>
+      </c>
+      <c r="BU5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -10316,7 +10365,11 @@
         <f>Confirmed!BS6-Active!BS7</f>
         <v>149</v>
       </c>
-      <c r="BT6" s="1"/>
+      <c r="BT6" s="1">
+        <f>Confirmed!BT6-Active!BT7</f>
+        <v>152</v>
+      </c>
+      <c r="BU6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -10602,7 +10655,11 @@
         <f>Confirmed!BS7-Active!BS8</f>
         <v>2555</v>
       </c>
-      <c r="BT7" s="1"/>
+      <c r="BT7" s="1">
+        <f>Confirmed!BT7-Active!BT8</f>
+        <v>2555</v>
+      </c>
+      <c r="BU7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -10888,7 +10945,11 @@
         <f>Confirmed!BS8-Active!BS9</f>
         <v>137</v>
       </c>
-      <c r="BT8" s="1"/>
+      <c r="BT8" s="1">
+        <f>Confirmed!BT8-Active!BT9</f>
+        <v>132</v>
+      </c>
+      <c r="BU8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -11174,7 +11235,11 @@
         <f>Confirmed!BS9-Active!BS10</f>
         <v>1315</v>
       </c>
-      <c r="BT9" s="1"/>
+      <c r="BT9" s="1">
+        <f>Confirmed!BT9-Active!BT10</f>
+        <v>1433</v>
+      </c>
+      <c r="BU9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -11460,7 +11525,11 @@
         <f>Confirmed!BS10-Active!BS11</f>
         <v>15568</v>
       </c>
-      <c r="BT10" s="1"/>
+      <c r="BT10" s="1">
+        <f>Confirmed!BT10-Active!BT11</f>
+        <v>17137</v>
+      </c>
+      <c r="BU10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -11746,7 +11815,11 @@
         <f>Confirmed!BS11-Active!BS12</f>
         <v>2255</v>
       </c>
-      <c r="BT11" s="1"/>
+      <c r="BT11" s="1">
+        <f>Confirmed!BT11-Active!BT12</f>
+        <v>2384</v>
+      </c>
+      <c r="BU11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -12763,7 +12836,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="63" width="10.5"/>
     <col customWidth="1" min="64" max="67" width="7.63"/>
-    <col customWidth="1" min="68" max="72" width="7.25"/>
+    <col customWidth="1" min="68" max="73" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -12975,7 +13048,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -12983,8 +13056,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -13191,6 +13268,7 @@
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
       <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="18" t="s">
@@ -13476,7 +13554,11 @@
         <f>IF(Closed!BS3&gt;0,100*Recoveries!BS3/Closed!BS3,100)</f>
         <v>97.05882353</v>
       </c>
-      <c r="BT3" s="1"/>
+      <c r="BT3" s="1">
+        <f>IF(Closed!BT3&gt;0,100*Recoveries!BT3/Closed!BT3,100)</f>
+        <v>97.14285714</v>
+      </c>
+      <c r="BU3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="18" t="s">
@@ -13762,7 +13844,11 @@
         <f>IF(Closed!BS4&gt;0,100*Recoveries!BS4/Closed!BS4,100)</f>
         <v>98.33333333</v>
       </c>
-      <c r="BT4" s="1"/>
+      <c r="BT4" s="1">
+        <f>IF(Closed!BT4&gt;0,100*Recoveries!BT4/Closed!BT4,100)</f>
+        <v>98.64864865</v>
+      </c>
+      <c r="BU4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="18" t="s">
@@ -14048,7 +14134,11 @@
         <f>IF(Closed!BS5&gt;0,100*Recoveries!BS5/Closed!BS5,100)</f>
         <v>100</v>
       </c>
-      <c r="BT5" s="1"/>
+      <c r="BT5" s="1">
+        <f>IF(Closed!BT5&gt;0,100*Recoveries!BT5/Closed!BT5,100)</f>
+        <v>100</v>
+      </c>
+      <c r="BU5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
@@ -14334,7 +14424,11 @@
         <f>IF(Closed!BS6&gt;0,100*Recoveries!BS6/Closed!BS6,100)</f>
         <v>97.98657718</v>
       </c>
-      <c r="BT6" s="1"/>
+      <c r="BT6" s="1">
+        <f>IF(Closed!BT6&gt;0,100*Recoveries!BT6/Closed!BT6,100)</f>
+        <v>98.02631579</v>
+      </c>
+      <c r="BU6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="18" t="s">
@@ -14620,7 +14714,11 @@
         <f>IF(Closed!BS7&gt;0,100*Recoveries!BS7/Closed!BS7,100)</f>
         <v>96.28180039</v>
       </c>
-      <c r="BT7" s="1"/>
+      <c r="BT7" s="1">
+        <f>IF(Closed!BT7&gt;0,100*Recoveries!BT7/Closed!BT7,100)</f>
+        <v>96.28180039</v>
+      </c>
+      <c r="BU7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="s">
@@ -14906,7 +15004,11 @@
         <f>IF(Closed!BS8&gt;0,100*Recoveries!BS8/Closed!BS8,100)</f>
         <v>93.43065693</v>
       </c>
-      <c r="BT8" s="1"/>
+      <c r="BT8" s="1">
+        <f>IF(Closed!BT8&gt;0,100*Recoveries!BT8/Closed!BT8,100)</f>
+        <v>93.18181818</v>
+      </c>
+      <c r="BU8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="18" t="s">
@@ -15192,7 +15294,11 @@
         <f>IF(Closed!BS9&gt;0,100*Recoveries!BS9/Closed!BS9,100)</f>
         <v>95.81749049</v>
       </c>
-      <c r="BT9" s="1"/>
+      <c r="BT9" s="1">
+        <f>IF(Closed!BT9&gt;0,100*Recoveries!BT9/Closed!BT9,100)</f>
+        <v>96.16189812</v>
+      </c>
+      <c r="BU9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="18" t="s">
@@ -15478,7 +15584,11 @@
         <f>IF(Closed!BS10&gt;0,100*Recoveries!BS10/Closed!BS10,100)</f>
         <v>95.81834532</v>
       </c>
-      <c r="BT10" s="1"/>
+      <c r="BT10" s="1">
+        <f>IF(Closed!BT10&gt;0,100*Recoveries!BT10/Closed!BT10,100)</f>
+        <v>95.89192974</v>
+      </c>
+      <c r="BU10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="18" t="s">
@@ -15764,7 +15874,11 @@
         <f>IF(Closed!BS11&gt;0,100*Recoveries!BS11/Closed!BS11,100)</f>
         <v>98.53658537</v>
       </c>
-      <c r="BT11" s="1"/>
+      <c r="BT11" s="1">
+        <f>IF(Closed!BT11&gt;0,100*Recoveries!BT11/Closed!BT11,100)</f>
+        <v>98.32214765</v>
+      </c>
+      <c r="BU11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -16783,7 +16897,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="72" width="10.5"/>
+    <col customWidth="1" min="35" max="73" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -16995,7 +17109,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -17003,8 +17117,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -17211,6 +17329,7 @@
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
       <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -17496,7 +17615,11 @@
         <f>IF(Closed!BS3&gt;0,100*Deaths!BS3/Closed!BS3,0)</f>
         <v>2.941176471</v>
       </c>
-      <c r="BT3" s="1"/>
+      <c r="BT3" s="1">
+        <f>IF(Closed!BT3&gt;0,100*Deaths!BT3/Closed!BT3,0)</f>
+        <v>2.857142857</v>
+      </c>
+      <c r="BU3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -17782,7 +17905,11 @@
         <f>IF(Closed!BS4&gt;0,100*Deaths!BS4/Closed!BS4,0)</f>
         <v>1.666666667</v>
       </c>
-      <c r="BT4" s="1"/>
+      <c r="BT4" s="1">
+        <f>IF(Closed!BT4&gt;0,100*Deaths!BT4/Closed!BT4,0)</f>
+        <v>1.351351351</v>
+      </c>
+      <c r="BU4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -18068,7 +18195,11 @@
         <f>IF(Closed!BS5&gt;0,100*Deaths!BS5/Closed!BS5,0)</f>
         <v>0</v>
       </c>
-      <c r="BT5" s="1"/>
+      <c r="BT5" s="1">
+        <f>IF(Closed!BT5&gt;0,100*Deaths!BT5/Closed!BT5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BU5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -18354,7 +18485,11 @@
         <f>IF(Closed!BS6&gt;0,100*Deaths!BS6/Closed!BS6,0)</f>
         <v>2.013422819</v>
       </c>
-      <c r="BT6" s="1"/>
+      <c r="BT6" s="1">
+        <f>IF(Closed!BT6&gt;0,100*Deaths!BT6/Closed!BT6,0)</f>
+        <v>1.973684211</v>
+      </c>
+      <c r="BU6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -18640,7 +18775,11 @@
         <f>IF(Closed!BS7&gt;0,100*Deaths!BS7/Closed!BS7,0)</f>
         <v>3.718199609</v>
       </c>
-      <c r="BT7" s="1"/>
+      <c r="BT7" s="1">
+        <f>IF(Closed!BT7&gt;0,100*Deaths!BT7/Closed!BT7,0)</f>
+        <v>3.718199609</v>
+      </c>
+      <c r="BU7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -18926,7 +19065,11 @@
         <f>IF(Closed!BS8&gt;0,100*Deaths!BS8/Closed!BS8,0)</f>
         <v>6.569343066</v>
       </c>
-      <c r="BT8" s="1"/>
+      <c r="BT8" s="1">
+        <f>IF(Closed!BT8&gt;0,100*Deaths!BT8/Closed!BT8,0)</f>
+        <v>6.818181818</v>
+      </c>
+      <c r="BU8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -19212,7 +19355,11 @@
         <f>IF(Closed!BS9&gt;0,100*Deaths!BS9/Closed!BS9,0)</f>
         <v>4.182509506</v>
       </c>
-      <c r="BT9" s="1"/>
+      <c r="BT9" s="1">
+        <f>IF(Closed!BT9&gt;0,100*Deaths!BT9/Closed!BT9,0)</f>
+        <v>3.838101884</v>
+      </c>
+      <c r="BU9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -19498,7 +19645,11 @@
         <f>IF(Closed!BS10&gt;0,100*Deaths!BS10/Closed!BS10,0)</f>
         <v>4.181654676</v>
       </c>
-      <c r="BT10" s="1"/>
+      <c r="BT10" s="1">
+        <f>IF(Closed!BT10&gt;0,100*Deaths!BT10/Closed!BT10,0)</f>
+        <v>4.108070257</v>
+      </c>
+      <c r="BU10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -19784,7 +19935,11 @@
         <f>IF(Closed!BS11&gt;0,100*Deaths!BS11/Closed!BS11,0)</f>
         <v>1.463414634</v>
       </c>
-      <c r="BT11" s="1"/>
+      <c r="BT11" s="1">
+        <f>IF(Closed!BT11&gt;0,100*Deaths!BT11/Closed!BT11,0)</f>
+        <v>1.677852349</v>
+      </c>
+      <c r="BU11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -20803,7 +20958,7 @@
     <col customWidth="1" min="7" max="15" width="7.38"/>
     <col customWidth="1" min="16" max="28" width="10.5"/>
     <col customWidth="1" min="29" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="72" width="10.5"/>
+    <col customWidth="1" min="35" max="73" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -21015,7 +21170,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -21023,8 +21178,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -21231,13 +21390,14 @@
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
       <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="19">
-        <f t="shared" ref="B3:BT3" si="2">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
+        <f t="shared" ref="B3:BU3" si="2">(B4*$B$16+B5*$B$17+B6*$B$18+B7*$B$19+B8*$B$20+B9*$B$21+B10*$B$22+B11*$B$23+B12*$B$24)/sum($B$16:$B$24)</f>
         <v>0.02559675512</v>
       </c>
       <c r="C3" s="19">
@@ -21517,6 +21677,10 @@
         <v>0.03663489628</v>
       </c>
       <c r="BT3" s="19">
+        <f t="shared" si="2"/>
+        <v>0.03764637425</v>
+      </c>
+      <c r="BU3" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21805,7 +21969,11 @@
         <f>Confirmed!BS3/Testing!BS3</f>
         <v>0.01228501229</v>
       </c>
-      <c r="BT4" s="20"/>
+      <c r="BT4" s="20">
+        <f>Confirmed!BT3/Testing!BT3</f>
+        <v>0.0127213769</v>
+      </c>
+      <c r="BU4" s="20"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -22091,7 +22259,11 @@
         <f>Confirmed!BS4/Testing!BS4</f>
         <v>0.02545988669</v>
       </c>
-      <c r="BT5" s="20"/>
+      <c r="BT5" s="20">
+        <f>Confirmed!BT4/Testing!BT4</f>
+        <v>0.02759225528</v>
+      </c>
+      <c r="BU5" s="20"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -22377,7 +22549,11 @@
         <f>Confirmed!BS5/Testing!BS5</f>
         <v>0.005943291097</v>
       </c>
-      <c r="BT6" s="20"/>
+      <c r="BT6" s="20">
+        <f>Confirmed!BT5/Testing!BT5</f>
+        <v>0.006727707006</v>
+      </c>
+      <c r="BU6" s="20"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -22663,7 +22839,11 @@
         <f>Confirmed!BS6/Testing!BS6</f>
         <v>0.012026388</v>
       </c>
-      <c r="BT7" s="20"/>
+      <c r="BT7" s="20">
+        <f>Confirmed!BT6/Testing!BT6</f>
+        <v>0.01210653753</v>
+      </c>
+      <c r="BU7" s="20"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -22949,7 +23129,11 @@
         <f>Confirmed!BS7/Testing!BS7</f>
         <v>0.05875211274</v>
       </c>
-      <c r="BT8" s="20"/>
+      <c r="BT8" s="20">
+        <f>Confirmed!BT7/Testing!BT7</f>
+        <v>0.06015728144</v>
+      </c>
+      <c r="BU8" s="20"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -23235,7 +23419,11 @@
         <f>Confirmed!BS8/Testing!BS8</f>
         <v>0.008145506059</v>
       </c>
-      <c r="BT9" s="20"/>
+      <c r="BT9" s="20">
+        <f>Confirmed!BT8/Testing!BT8</f>
+        <v>0.008197921241</v>
+      </c>
+      <c r="BU9" s="20"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -23521,7 +23709,11 @@
         <f>Confirmed!BS9/Testing!BS9</f>
         <v>0.02049710297</v>
       </c>
-      <c r="BT10" s="20"/>
+      <c r="BT10" s="20">
+        <f>Confirmed!BT9/Testing!BT9</f>
+        <v>0.02023139311</v>
+      </c>
+      <c r="BU10" s="20"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -23807,7 +23999,11 @@
         <f>Confirmed!BS10/Testing!BS10</f>
         <v>0.148112804</v>
       </c>
-      <c r="BT11" s="20"/>
+      <c r="BT11" s="20">
+        <f>Confirmed!BT10/Testing!BT10</f>
+        <v>0.1523833202</v>
+      </c>
+      <c r="BU11" s="20"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -24093,7 +24289,11 @@
         <f>Confirmed!BS11/Testing!BS11</f>
         <v>0.01798347525</v>
       </c>
-      <c r="BT12" s="20"/>
+      <c r="BT12" s="20">
+        <f>Confirmed!BT11/Testing!BT11</f>
+        <v>0.01866987438</v>
+      </c>
+      <c r="BU12" s="20"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -25174,7 +25374,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="72" width="9.88"/>
+    <col customWidth="1" min="44" max="73" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -25389,12 +25589,16 @@
         <v>43985.0</v>
       </c>
       <c r="BS1" s="2">
-        <f>BR1+1</f>
+        <f t="shared" ref="BS1:BT1" si="1">BR1+1</f>
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -25402,2830 +25606,2870 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:AO2" si="1">ROUND($AP2/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B2:AO2" si="2">ROUND($AP2/$AP$12*B$12,0)</f>
         <v>1912</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2142</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2385</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2574</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2752</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2968</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3214</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3374</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3614</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3811</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3893</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3893</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4273</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4615</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4893</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5029</v>
       </c>
       <c r="R2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5366</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5606</v>
       </c>
       <c r="T2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5831</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6065</v>
       </c>
       <c r="V2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6370</v>
       </c>
       <c r="W2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6756</v>
       </c>
       <c r="X2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7238</v>
       </c>
       <c r="Y2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7686</v>
       </c>
       <c r="Z2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8142</v>
       </c>
       <c r="AA2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8506</v>
       </c>
       <c r="AB2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8964</v>
       </c>
       <c r="AC2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9620</v>
       </c>
       <c r="AD2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10211</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10788</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11300</v>
       </c>
       <c r="AG2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11959</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12429</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13209</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13906</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14575</v>
       </c>
       <c r="AL2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15457</v>
       </c>
       <c r="AM2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16466</v>
       </c>
       <c r="AN2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17257</v>
       </c>
       <c r="AO2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17962</v>
       </c>
       <c r="AP2" s="6">
         <v>18720.0</v>
       </c>
       <c r="AQ2" s="1">
-        <f t="shared" ref="AQ2:AV2" si="2">ROUND($AW2/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ2:AV2" si="3">ROUND($AW2/$AW$12*AQ$12,0)</f>
         <v>16688</v>
       </c>
       <c r="AR2" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17579</v>
       </c>
       <c r="AS2" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18512</v>
       </c>
       <c r="AT2" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19498</v>
       </c>
       <c r="AU2" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20339</v>
       </c>
       <c r="AV2" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21118</v>
       </c>
       <c r="AW2" s="6">
         <v>22069.0</v>
       </c>
       <c r="AX2" s="1">
-        <f t="shared" ref="AX2:BC2" si="3">ROUND($BD2/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX2:BC2" si="4">ROUND($BD2/$BD$12*AX$12,0)</f>
         <v>20637</v>
       </c>
       <c r="AY2" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21587</v>
       </c>
       <c r="AZ2" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22509</v>
       </c>
       <c r="BA2" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23600</v>
       </c>
       <c r="BB2" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24327</v>
       </c>
       <c r="BC2" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25020</v>
       </c>
       <c r="BD2" s="6">
         <v>25955.0</v>
       </c>
       <c r="BE2" s="1">
-        <f t="shared" ref="BE2:BS2" si="4">ROUND($BD2/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE2:BT2" si="5">ROUND($BD2/$BD$12*BE$12,0)</f>
         <v>26906</v>
       </c>
       <c r="BF2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27807</v>
       </c>
       <c r="BG2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28900</v>
       </c>
       <c r="BH2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29898</v>
       </c>
       <c r="BI2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30559</v>
       </c>
       <c r="BJ2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31031</v>
       </c>
       <c r="BK2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32516</v>
       </c>
       <c r="BL2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33578</v>
       </c>
       <c r="BM2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34830</v>
       </c>
       <c r="BN2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35942</v>
       </c>
       <c r="BO2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37132</v>
       </c>
       <c r="BP2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38034</v>
       </c>
       <c r="BQ2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38996</v>
       </c>
       <c r="BR2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40248</v>
       </c>
       <c r="BS2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42025</v>
       </c>
-      <c r="BT2" s="1"/>
+      <c r="BT2" s="1">
+        <f t="shared" si="5"/>
+        <v>43571</v>
+      </c>
+      <c r="BU2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:AO3" si="5">ROUND($AP3/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B3:AO3" si="6">ROUND($AP3/$AP$12*B$12,0)</f>
         <v>230</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>258</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>287</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>310</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>358</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>436</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>459</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>469</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>469</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>515</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>556</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>590</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>606</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>647</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>676</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>703</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>731</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>768</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>814</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>872</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>926</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>981</v>
       </c>
       <c r="AA3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1025</v>
       </c>
       <c r="AB3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="AC3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1159</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1231</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1362</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1441</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1498</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1592</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1676</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1757</v>
       </c>
       <c r="AL3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1863</v>
       </c>
       <c r="AM3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1984</v>
       </c>
       <c r="AN3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2080</v>
       </c>
       <c r="AO3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2165</v>
       </c>
       <c r="AP3" s="6">
         <v>2256.0</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" ref="AQ3:AV3" si="6">ROUND($AW3/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ3:AV3" si="7">ROUND($AW3/$AW$12*AQ$12,0)</f>
         <v>2785</v>
       </c>
       <c r="AR3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2934</v>
       </c>
       <c r="AS3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3089</v>
       </c>
       <c r="AT3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3254</v>
       </c>
       <c r="AU3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3394</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3524</v>
       </c>
       <c r="AW3" s="6">
         <v>3683.0</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" ref="AX3:BC3" si="7">ROUND($BD3/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX3:BC3" si="8">ROUND($BD3/$BD$12*AX$12,0)</f>
         <v>3798</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3972</v>
       </c>
       <c r="AZ3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4142</v>
       </c>
       <c r="BA3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4343</v>
       </c>
       <c r="BB3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4476</v>
       </c>
       <c r="BC3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4604</v>
       </c>
       <c r="BD3" s="6">
         <v>4776.0</v>
       </c>
       <c r="BE3" s="1">
-        <f t="shared" ref="BE3:BS3" si="8">ROUND($BD3/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE3:BT3" si="9">ROUND($BD3/$BD$12*BE$12,0)</f>
         <v>4951</v>
       </c>
       <c r="BF3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5117</v>
       </c>
       <c r="BG3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5318</v>
       </c>
       <c r="BH3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5501</v>
       </c>
       <c r="BI3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5623</v>
       </c>
       <c r="BJ3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5710</v>
       </c>
       <c r="BK3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5983</v>
       </c>
       <c r="BL3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6179</v>
       </c>
       <c r="BM3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6409</v>
       </c>
       <c r="BN3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6614</v>
       </c>
       <c r="BO3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6833</v>
       </c>
       <c r="BP3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6999</v>
       </c>
       <c r="BQ3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7176</v>
       </c>
       <c r="BR3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7406</v>
       </c>
       <c r="BS3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7733</v>
       </c>
-      <c r="BT3" s="1"/>
+      <c r="BT3" s="1">
+        <f t="shared" si="9"/>
+        <v>8018</v>
+      </c>
+      <c r="BU3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:AO4" si="9">ROUND($AP4/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B4:AO4" si="10">ROUND($AP4/$AP$12*B$12,0)</f>
         <v>421</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>472</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>567</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>606</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>654</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>708</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>743</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>796</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>839</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>857</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>857</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>941</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1016</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1078</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1108</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1182</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1235</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1284</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1336</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1403</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1488</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1594</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1693</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1793</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1873</v>
       </c>
       <c r="AB4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1974</v>
       </c>
       <c r="AC4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2119</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2249</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2376</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2489</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2634</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2738</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2909</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3063</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3210</v>
       </c>
       <c r="AL4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3404</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3627</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3801</v>
       </c>
       <c r="AO4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3956</v>
       </c>
       <c r="AP4" s="6">
         <v>4123.0</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AV4" si="10">ROUND($AW4/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ4:AV4" si="11">ROUND($AW4/$AW$12*AQ$12,0)</f>
         <v>4395</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4630</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4875</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5135</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5356</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5561</v>
       </c>
       <c r="AW4" s="6">
         <v>5812.0</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" ref="AX4:BC4" si="11">ROUND($BD4/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX4:BC4" si="12">ROUND($BD4/$BD$12*AX$12,0)</f>
         <v>7021</v>
       </c>
       <c r="AY4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7344</v>
       </c>
       <c r="AZ4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7658</v>
       </c>
       <c r="BA4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8029</v>
       </c>
       <c r="BB4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8276</v>
       </c>
       <c r="BC4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8512</v>
       </c>
       <c r="BD4" s="6">
         <v>8830.0</v>
       </c>
       <c r="BE4" s="1">
-        <f t="shared" ref="BE4:BS4" si="12">ROUND($BD4/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE4:BT4" si="13">ROUND($BD4/$BD$12*BE$12,0)</f>
         <v>9154</v>
       </c>
       <c r="BF4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9460</v>
       </c>
       <c r="BG4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9832</v>
       </c>
       <c r="BH4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10171</v>
       </c>
       <c r="BI4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10396</v>
       </c>
       <c r="BJ4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10557</v>
       </c>
       <c r="BK4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11062</v>
       </c>
       <c r="BL4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11423</v>
       </c>
       <c r="BM4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11849</v>
       </c>
       <c r="BN4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12227</v>
       </c>
       <c r="BO4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12632</v>
       </c>
       <c r="BP4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12939</v>
       </c>
       <c r="BQ4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13267</v>
       </c>
       <c r="BR4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13693</v>
       </c>
       <c r="BS4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14297</v>
       </c>
-      <c r="BT4" s="1"/>
+      <c r="BT4" s="1">
+        <f t="shared" si="13"/>
+        <v>14823</v>
+      </c>
+      <c r="BU4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:AO5" si="13">ROUND($AP5/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B5:AO5" si="14">ROUND($AP5/$AP$12*B$12,0)</f>
         <v>786</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>881</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>981</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1058</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1132</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1220</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1321</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1387</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1486</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1567</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1601</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1601</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1757</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1898</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2012</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2068</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2206</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2305</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2397</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2494</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2619</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2778</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2976</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3160</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3348</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3497</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3686</v>
       </c>
       <c r="AC5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3955</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4198</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4436</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4646</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4917</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5111</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5431</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5718</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5993</v>
       </c>
       <c r="AL5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6355</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6770</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7095</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7385</v>
       </c>
       <c r="AP5" s="6">
         <v>7697.0</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" ref="AQ5:AV5" si="14">ROUND($AW5/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ5:AV5" si="15">ROUND($AW5/$AW$12*AQ$12,0)</f>
         <v>8631</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9092</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9574</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10084</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10519</v>
       </c>
       <c r="AV5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10922</v>
       </c>
       <c r="AW5" s="6">
         <v>11414.0</v>
       </c>
       <c r="AX5" s="1">
-        <f t="shared" ref="AX5:BC5" si="15">ROUND($BD5/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX5:BC5" si="16">ROUND($BD5/$BD$12*AX$12,0)</f>
         <v>11898</v>
       </c>
       <c r="AY5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12446</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12977</v>
       </c>
       <c r="BA5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13606</v>
       </c>
       <c r="BB5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14025</v>
       </c>
       <c r="BC5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14425</v>
       </c>
       <c r="BD5" s="6">
         <v>14964.0</v>
       </c>
       <c r="BE5" s="1">
-        <f t="shared" ref="BE5:BS5" si="16">ROUND($BD5/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE5:BT5" si="17">ROUND($BD5/$BD$12*BE$12,0)</f>
         <v>15512</v>
       </c>
       <c r="BF5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16032</v>
       </c>
       <c r="BG5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16662</v>
       </c>
       <c r="BH5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17237</v>
       </c>
       <c r="BI5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17619</v>
       </c>
       <c r="BJ5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17891</v>
       </c>
       <c r="BK5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18747</v>
       </c>
       <c r="BL5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19359</v>
       </c>
       <c r="BM5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20081</v>
       </c>
       <c r="BN5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20722</v>
       </c>
       <c r="BO5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21408</v>
       </c>
       <c r="BP5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21928</v>
       </c>
       <c r="BQ5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22483</v>
       </c>
       <c r="BR5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>23204</v>
       </c>
       <c r="BS5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>24229</v>
       </c>
-      <c r="BT5" s="1"/>
+      <c r="BT5" s="1">
+        <f t="shared" si="17"/>
+        <v>25120</v>
+      </c>
+      <c r="BU5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:AO6" si="17">ROUND($AP6/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B6:AO6" si="18">ROUND($AP6/$AP$12*B$12,0)</f>
         <v>649</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>727</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>809</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>873</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>934</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1007</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1091</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1145</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1227</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1293</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1321</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1321</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1450</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1566</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1661</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1707</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1821</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1902</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1979</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2058</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2162</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2293</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2456</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2608</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2763</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2887</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3042</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3265</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3465</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3661</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3835</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4058</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4218</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4483</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4719</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4946</v>
       </c>
       <c r="AL6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5246</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5588</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5856</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6096</v>
       </c>
       <c r="AP6" s="6">
         <v>6353.0</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" ref="AQ6:AV6" si="18">ROUND($AW6/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ6:AV6" si="19">ROUND($AW6/$AW$12*AQ$12,0)</f>
         <v>6230</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6563</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6911</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7279</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7593</v>
       </c>
       <c r="AV6" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7884</v>
       </c>
       <c r="AW6" s="6">
         <v>8239.0</v>
       </c>
       <c r="AX6" s="1">
-        <f t="shared" ref="AX6:BC6" si="19">ROUND($BD6/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX6:BC6" si="20">ROUND($BD6/$BD$12*AX$12,0)</f>
         <v>8412</v>
       </c>
       <c r="AY6" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8799</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9174</v>
       </c>
       <c r="BA6" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9619</v>
       </c>
       <c r="BB6" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9915</v>
       </c>
       <c r="BC6" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10198</v>
       </c>
       <c r="BD6" s="6">
         <v>10579.0</v>
       </c>
       <c r="BE6" s="1">
-        <f t="shared" ref="BE6:BS6" si="20">ROUND($BD6/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE6:BT6" si="21">ROUND($BD6/$BD$12*BE$12,0)</f>
         <v>10967</v>
       </c>
       <c r="BF6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11334</v>
       </c>
       <c r="BG6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11779</v>
       </c>
       <c r="BH6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12186</v>
       </c>
       <c r="BI6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12456</v>
       </c>
       <c r="BJ6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12648</v>
       </c>
       <c r="BK6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13253</v>
       </c>
       <c r="BL6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13686</v>
       </c>
       <c r="BM6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14196</v>
       </c>
       <c r="BN6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14649</v>
       </c>
       <c r="BO6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15135</v>
       </c>
       <c r="BP6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15502</v>
       </c>
       <c r="BQ6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15894</v>
       </c>
       <c r="BR6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16405</v>
       </c>
       <c r="BS6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>17129</v>
       </c>
-      <c r="BT6" s="1"/>
+      <c r="BT6" s="1">
+        <f t="shared" si="21"/>
+        <v>17759</v>
+      </c>
+      <c r="BU6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:AO7" si="21">ROUND($AP7/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B7:AO7" si="22">ROUND($AP7/$AP$12*B$12,0)</f>
         <v>2627</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2943</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3277</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3536</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3781</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4078</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4416</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4636</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4966</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5236</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5349</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5349</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5871</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6341</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6723</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6909</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7373</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7702</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8011</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8333</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8751</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9282</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9945</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10560</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11186</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11686</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>12315</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13217</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14029</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14822</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15525</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16430</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17077</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18148</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19105</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20025</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21237</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>22624</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23710</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24678</v>
       </c>
       <c r="AP7" s="6">
         <v>25720.0</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" ref="AQ7:AV7" si="22">ROUND($AW7/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ7:AV7" si="23">ROUND($AW7/$AW$12*AQ$12,0)</f>
         <v>28827</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30366</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>31977</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>33680</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>35134</v>
       </c>
       <c r="AV7" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36479</v>
       </c>
       <c r="AW7" s="6">
         <v>38122.0</v>
       </c>
       <c r="AX7" s="1">
-        <f t="shared" ref="AX7:BC7" si="23">ROUND($BD7/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX7:BC7" si="24">ROUND($BD7/$BD$12*AX$12,0)</f>
         <v>41257</v>
       </c>
       <c r="AY7" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>43155</v>
       </c>
       <c r="AZ7" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>44998</v>
       </c>
       <c r="BA7" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>47180</v>
       </c>
       <c r="BB7" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>48634</v>
       </c>
       <c r="BC7" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>50020</v>
       </c>
       <c r="BD7" s="6">
         <v>51888.0</v>
       </c>
       <c r="BE7" s="1">
-        <f t="shared" ref="BE7:BS7" si="24">ROUND($BD7/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE7:BT7" si="25">ROUND($BD7/$BD$12*BE$12,0)</f>
         <v>53789</v>
       </c>
       <c r="BF7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>55591</v>
       </c>
       <c r="BG7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>57775</v>
       </c>
       <c r="BH7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>59770</v>
       </c>
       <c r="BI7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>61093</v>
       </c>
       <c r="BJ7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>62036</v>
       </c>
       <c r="BK7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>65005</v>
       </c>
       <c r="BL7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>67127</v>
       </c>
       <c r="BM7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>69630</v>
       </c>
       <c r="BN7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>71853</v>
       </c>
       <c r="BO7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>74232</v>
       </c>
       <c r="BP7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>76035</v>
       </c>
       <c r="BQ7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>77959</v>
       </c>
       <c r="BR7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>80462</v>
       </c>
       <c r="BS7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>84014</v>
       </c>
-      <c r="BT7" s="1"/>
+      <c r="BT7" s="1">
+        <f t="shared" si="25"/>
+        <v>87105</v>
+      </c>
+      <c r="BU7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ref="B8:AO8" si="25">ROUND($AP8/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B8:AO8" si="26">ROUND($AP8/$AP$12*B$12,0)</f>
         <v>1457</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1632</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1817</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1961</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2097</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2261</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2449</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2571</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2754</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2904</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2966</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2966</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3256</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3516</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3729</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3832</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4089</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4272</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4443</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4621</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4853</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5148</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5515</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5857</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6204</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6481</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6830</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7330</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7780</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8220</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8610</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9112</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9471</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10065</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10596</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11106</v>
       </c>
       <c r="AL8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11778</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12547</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13149</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13686</v>
       </c>
       <c r="AP8" s="6">
         <v>14264.0</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" ref="AQ8:AV8" si="26">ROUND($AW8/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ8:AV8" si="27">ROUND($AW8/$AW$12*AQ$12,0)</f>
         <v>14568</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>15346</v>
       </c>
       <c r="AS8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16160</v>
       </c>
       <c r="AT8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>17020</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>17755</v>
       </c>
       <c r="AV8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18435</v>
       </c>
       <c r="AW8" s="6">
         <v>19265.0</v>
       </c>
       <c r="AX8" s="1">
-        <f t="shared" ref="AX8:BC8" si="27">ROUND($BD8/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX8:BC8" si="28">ROUND($BD8/$BD$12*AX$12,0)</f>
         <v>19413</v>
       </c>
       <c r="AY8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20306</v>
       </c>
       <c r="AZ8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>21173</v>
       </c>
       <c r="BA8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>22200</v>
       </c>
       <c r="BB8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>22884</v>
       </c>
       <c r="BC8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>23536</v>
       </c>
       <c r="BD8" s="6">
         <v>24415.0</v>
       </c>
       <c r="BE8" s="1">
-        <f t="shared" ref="BE8:BS8" si="28">ROUND($BD8/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE8:BT8" si="29">ROUND($BD8/$BD$12*BE$12,0)</f>
         <v>25310</v>
       </c>
       <c r="BF8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>26157</v>
       </c>
       <c r="BG8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>27185</v>
       </c>
       <c r="BH8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>28124</v>
       </c>
       <c r="BI8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>28746</v>
       </c>
       <c r="BJ8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29190</v>
       </c>
       <c r="BK8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>30587</v>
       </c>
       <c r="BL8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31586</v>
       </c>
       <c r="BM8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>32763</v>
       </c>
       <c r="BN8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>33809</v>
       </c>
       <c r="BO8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>34929</v>
       </c>
       <c r="BP8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>35777</v>
       </c>
       <c r="BQ8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>36682</v>
       </c>
       <c r="BR8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>37860</v>
       </c>
       <c r="BS8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>39531</v>
       </c>
-      <c r="BT8" s="1"/>
+      <c r="BT8" s="1">
+        <f t="shared" si="29"/>
+        <v>40986</v>
+      </c>
+      <c r="BU8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:AO9" si="29">ROUND($AP9/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B9:AO9" si="30">ROUND($AP9/$AP$12*B$12,0)</f>
         <v>5208</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5833</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6496</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7010</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7496</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8084</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8754</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9191</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9844</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10380</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10603</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10603</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11639</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12570</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13328</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13698</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14616</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15269</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15882</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16519</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17349</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18401</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19714</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20935</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>22176</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>23167</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24414</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>26202</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>27812</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29384</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>30778</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>32572</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>33854</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>35977</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>37875</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>39699</v>
       </c>
       <c r="AL9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>42101</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44850</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>47002</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>48923</v>
       </c>
       <c r="AP9" s="6">
         <v>50988.0</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" ref="AQ9:AV9" si="30">ROUND($AW9/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ9:AV9" si="31">ROUND($AW9/$AW$12*AQ$12,0)</f>
         <v>51309</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>54049</v>
       </c>
       <c r="AS9" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>56916</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>59947</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>62534</v>
       </c>
       <c r="AV9" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>64928</v>
       </c>
       <c r="AW9" s="6">
         <v>67853.0</v>
       </c>
       <c r="AX9" s="1">
-        <f t="shared" ref="AX9:BC9" si="31">ROUND($BD9/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX9:BC9" si="32">ROUND($BD9/$BD$12*AX$12,0)</f>
         <v>68737</v>
       </c>
       <c r="AY9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>71899</v>
       </c>
       <c r="AZ9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>74969</v>
       </c>
       <c r="BA9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>78604</v>
       </c>
       <c r="BB9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>81026</v>
       </c>
       <c r="BC9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>83335</v>
       </c>
       <c r="BD9" s="6">
         <v>86448.0</v>
       </c>
       <c r="BE9" s="1">
-        <f t="shared" ref="BE9:BS9" si="32">ROUND($BD9/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE9:BT9" si="33">ROUND($BD9/$BD$12*BE$12,0)</f>
         <v>89616</v>
       </c>
       <c r="BF9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>92617</v>
       </c>
       <c r="BG9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>96256</v>
       </c>
       <c r="BH9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>99580</v>
       </c>
       <c r="BI9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>101784</v>
       </c>
       <c r="BJ9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>103355</v>
       </c>
       <c r="BK9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>108302</v>
       </c>
       <c r="BL9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>111837</v>
       </c>
       <c r="BM9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>116008</v>
       </c>
       <c r="BN9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>119710</v>
       </c>
       <c r="BO9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>123674</v>
       </c>
       <c r="BP9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>126679</v>
       </c>
       <c r="BQ9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>129884</v>
       </c>
       <c r="BR9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>134053</v>
       </c>
       <c r="BS9" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>139971</v>
       </c>
-      <c r="BT9" s="1"/>
+      <c r="BT9" s="1">
+        <f t="shared" si="33"/>
+        <v>145121</v>
+      </c>
+      <c r="BU9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:AO10" si="33">ROUND($AP10/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B10:AO10" si="34">ROUND($AP10/$AP$12*B$12,0)</f>
         <v>5821</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6520</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>7260</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>7834</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8378</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9034</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9784</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>10272</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11002</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11601</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11850</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11850</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13009</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14048</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14896</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>15309</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>16335</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>17065</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>17750</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18463</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>19390</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20566</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>22033</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23398</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>24785</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>25892</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>27286</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>29285</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>31084</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>32841</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>34399</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>36403</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>37837</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>40209</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>42331</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>44369</v>
       </c>
       <c r="AL10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>47054</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>50126</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>52532</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>54678</v>
       </c>
       <c r="AP10" s="6">
         <v>56986.0</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" ref="AQ10:AV10" si="34">ROUND($AW10/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ10:AV10" si="35">ROUND($AW10/$AW$12*AQ$12,0)</f>
         <v>62661</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>66007</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>69509</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>73210</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>76369</v>
       </c>
       <c r="AV10" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>79293</v>
       </c>
       <c r="AW10" s="6">
         <v>82865.0</v>
       </c>
       <c r="AX10" s="1">
-        <f t="shared" ref="AX10:BC10" si="35">ROUND($BD10/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX10:BC10" si="36">ROUND($BD10/$BD$12*AX$12,0)</f>
         <v>89541</v>
       </c>
       <c r="AY10" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>93659</v>
       </c>
       <c r="AZ10" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>97659</v>
       </c>
       <c r="BA10" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>102395</v>
       </c>
       <c r="BB10" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>105549</v>
       </c>
       <c r="BC10" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>108557</v>
       </c>
       <c r="BD10" s="6">
         <v>112612.0</v>
       </c>
       <c r="BE10" s="1">
-        <f t="shared" ref="BE10:BS10" si="36">ROUND($BD10/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE10:BT10" si="37">ROUND($BD10/$BD$12*BE$12,0)</f>
         <v>116738</v>
       </c>
       <c r="BF10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>120648</v>
       </c>
       <c r="BG10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>125389</v>
       </c>
       <c r="BH10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>129718</v>
       </c>
       <c r="BI10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>132589</v>
       </c>
       <c r="BJ10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>134636</v>
       </c>
       <c r="BK10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>141080</v>
       </c>
       <c r="BL10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>145685</v>
       </c>
       <c r="BM10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>151118</v>
       </c>
       <c r="BN10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>155941</v>
       </c>
       <c r="BO10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>161105</v>
       </c>
       <c r="BP10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>165019</v>
       </c>
       <c r="BQ10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>169194</v>
       </c>
       <c r="BR10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>174625</v>
       </c>
       <c r="BS10" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>182334</v>
       </c>
-      <c r="BT10" s="1"/>
+      <c r="BT10" s="1">
+        <f t="shared" si="37"/>
+        <v>189043</v>
+      </c>
+      <c r="BU10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ref="B11:AO11" si="37">ROUND($AP11/$AP$12*B$12,0)</f>
+        <f t="shared" ref="B11:AO11" si="38">ROUND($AP11/$AP$12*B$12,0)</f>
         <v>9425</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10557</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11755</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>12686</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13565</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>14629</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>15842</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>16633</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>17814</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>18784</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19188</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19188</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>21064</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>22747</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>24119</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>24788</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>26450</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>27632</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>28741</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>29895</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>31396</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>33301</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>35677</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>37886</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40132</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>41924</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>44182</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>47418</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>50331</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>53176</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>55699</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>58944</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>61265</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>65106</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>68542</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>71842</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>76190</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>81164</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>85059</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>88535</v>
       </c>
       <c r="AP11" s="6">
         <v>92272.0</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" ref="AQ11:AV11" si="38">ROUND($AW11/$AW$12*AQ$12,0)</f>
+        <f t="shared" ref="AQ11:AV11" si="39">ROUND($AW11/$AW$12*AQ$12,0)</f>
         <v>96058</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>101187</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>106555</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>112229</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>117072</v>
       </c>
       <c r="AV11" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>121554</v>
       </c>
       <c r="AW11" s="6">
         <v>127030.0</v>
       </c>
       <c r="AX11" s="1">
-        <f t="shared" ref="AX11:BC11" si="39">ROUND($BD11/$BD$12*AX$12,0)</f>
+        <f t="shared" ref="AX11:BC11" si="40">ROUND($BD11/$BD$12*AX$12,0)</f>
         <v>132304</v>
       </c>
       <c r="AY11" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>138389</v>
       </c>
       <c r="AZ11" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>144300</v>
       </c>
       <c r="BA11" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>151297</v>
       </c>
       <c r="BB11" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>155958</v>
       </c>
       <c r="BC11" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>160402</v>
       </c>
       <c r="BD11" s="6">
         <v>166394.0</v>
       </c>
       <c r="BE11" s="1">
-        <f t="shared" ref="BE11:BS11" si="40">ROUND($BD11/$BD$12*BE$12,0)</f>
+        <f t="shared" ref="BE11:BT11" si="41">ROUND($BD11/$BD$12*BE$12,0)</f>
         <v>172491</v>
       </c>
       <c r="BF11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>178268</v>
       </c>
       <c r="BG11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>185273</v>
       </c>
       <c r="BH11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>191670</v>
       </c>
       <c r="BI11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>195912</v>
       </c>
       <c r="BJ11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>198937</v>
       </c>
       <c r="BK11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>208459</v>
       </c>
       <c r="BL11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>215263</v>
       </c>
       <c r="BM11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>223290</v>
       </c>
       <c r="BN11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>230416</v>
       </c>
       <c r="BO11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>238046</v>
       </c>
       <c r="BP11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>243830</v>
       </c>
       <c r="BQ11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>249999</v>
       </c>
       <c r="BR11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>258024</v>
       </c>
       <c r="BS11" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>269414</v>
       </c>
-      <c r="BT11" s="1"/>
+      <c r="BT11" s="1">
+        <f t="shared" si="41"/>
+        <v>279327</v>
+      </c>
+      <c r="BU11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="7" t="s">
@@ -28441,293 +28685,300 @@
       <c r="BS12" s="7">
         <v>820675.0</v>
       </c>
+      <c r="BT12" s="7">
+        <v>850871.0</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <f t="shared" ref="B13:BT13" si="41">sum(B2:B11)</f>
+        <f t="shared" ref="B13:BU13" si="42">sum(B2:B11)</f>
         <v>28536</v>
       </c>
       <c r="C13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>31965</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>35592</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>38409</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>41073</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>44293</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>47966</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>50359</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>53939</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>56874</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>58097</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>58097</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>63775</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>68873</v>
       </c>
       <c r="P13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>73029</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>75054</v>
       </c>
       <c r="R13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>80085</v>
       </c>
       <c r="S13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>83664</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>87021</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>90515</v>
       </c>
       <c r="V13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>95061</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>100827</v>
       </c>
       <c r="X13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>108020</v>
       </c>
       <c r="Y13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>114709</v>
       </c>
       <c r="Z13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>121510</v>
       </c>
       <c r="AA13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>126938</v>
       </c>
       <c r="AB13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>133773</v>
       </c>
       <c r="AC13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>143570</v>
       </c>
       <c r="AD13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>152390</v>
       </c>
       <c r="AE13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>161004</v>
       </c>
       <c r="AF13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>168643</v>
       </c>
       <c r="AG13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>178470</v>
       </c>
       <c r="AH13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>185498</v>
       </c>
       <c r="AI13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>197129</v>
       </c>
       <c r="AJ13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>207531</v>
       </c>
       <c r="AK13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>217522</v>
       </c>
       <c r="AL13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>230685</v>
       </c>
       <c r="AM13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>245746</v>
       </c>
       <c r="AN13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>257541</v>
       </c>
       <c r="AO13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>268064</v>
       </c>
       <c r="AP13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>279379</v>
       </c>
       <c r="AQ13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>292152</v>
       </c>
       <c r="AR13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>307753</v>
       </c>
       <c r="AS13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>324078</v>
       </c>
       <c r="AT13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>341336</v>
       </c>
       <c r="AU13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>356065</v>
       </c>
       <c r="AV13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>369698</v>
       </c>
       <c r="AW13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>386352</v>
       </c>
       <c r="AX13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>403018</v>
       </c>
       <c r="AY13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>421556</v>
       </c>
       <c r="AZ13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>439559</v>
       </c>
       <c r="BA13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>460873</v>
       </c>
       <c r="BB13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>475070</v>
       </c>
       <c r="BC13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>488609</v>
       </c>
       <c r="BD13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>506861</v>
       </c>
       <c r="BE13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>525434</v>
       </c>
       <c r="BF13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>543031</v>
       </c>
       <c r="BG13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>564369</v>
       </c>
       <c r="BH13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>583855</v>
       </c>
       <c r="BI13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>596777</v>
       </c>
       <c r="BJ13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>605991</v>
       </c>
       <c r="BK13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>634994</v>
       </c>
       <c r="BL13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>655723</v>
       </c>
       <c r="BM13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>680174</v>
       </c>
       <c r="BN13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>701883</v>
       </c>
       <c r="BO13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>725126</v>
       </c>
       <c r="BP13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>742742</v>
       </c>
       <c r="BQ13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>761534</v>
       </c>
       <c r="BR13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>785980</v>
       </c>
       <c r="BS13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>820677</v>
       </c>
       <c r="BT13" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
+        <v>850873</v>
+      </c>
+      <c r="BU13" s="11">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -28831,6 +29082,7 @@
       <c r="BR15" s="3"/>
       <c r="BS15" s="3"/>
       <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -29844,7 +30096,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="72" width="9.88"/>
+    <col customWidth="1" min="44" max="73" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -30056,7 +30308,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -30064,8 +30316,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>TODAY()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -30285,7 +30541,8 @@
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
-      <c r="BT2" s="1" t="str">
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1" t="str">
         <f>ROUND($AP2/#REF!*#REF!,0)</f>
         <v>#REF!</v>
       </c>
@@ -30574,7 +30831,11 @@
         <f>round(100000*Testing!BS3/$B13,0)</f>
         <v>612</v>
       </c>
-      <c r="BT3" s="1"/>
+      <c r="BT3" s="1">
+        <f>round(100000*Testing!BT3/$B13,0)</f>
+        <v>634</v>
+      </c>
+      <c r="BU3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -30860,7 +31121,11 @@
         <f>round(100000*Testing!BS4/$B14,0)</f>
         <v>355</v>
       </c>
-      <c r="BT4" s="1"/>
+      <c r="BT4" s="1">
+        <f>round(100000*Testing!BT4/$B14,0)</f>
+        <v>368</v>
+      </c>
+      <c r="BU4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -31146,7 +31411,11 @@
         <f>round(100000*Testing!BS5/$B15,0)</f>
         <v>528</v>
       </c>
-      <c r="BT5" s="1"/>
+      <c r="BT5" s="1">
+        <f>round(100000*Testing!BT5/$B15,0)</f>
+        <v>547</v>
+      </c>
+      <c r="BU5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -31432,7 +31701,11 @@
         <f>round(100000*Testing!BS6/$B16,0)</f>
         <v>286</v>
       </c>
-      <c r="BT6" s="1"/>
+      <c r="BT6" s="1">
+        <f>round(100000*Testing!BT6/$B16,0)</f>
+        <v>297</v>
+      </c>
+      <c r="BU6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -31718,7 +31991,11 @@
         <f>round(100000*Testing!BS7/$B17,0)</f>
         <v>1252</v>
       </c>
-      <c r="BT7" s="1"/>
+      <c r="BT7" s="1">
+        <f>round(100000*Testing!BT7/$B17,0)</f>
+        <v>1298</v>
+      </c>
+      <c r="BU7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -32004,7 +32281,11 @@
         <f>round(100000*Testing!BS8/$B18,0)</f>
         <v>1369</v>
       </c>
-      <c r="BT8" s="1"/>
+      <c r="BT8" s="1">
+        <f>round(100000*Testing!BT8/$B18,0)</f>
+        <v>1419</v>
+      </c>
+      <c r="BU8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -32290,7 +32571,11 @@
         <f>round(100000*Testing!BS9/$B19,0)</f>
         <v>1240</v>
       </c>
-      <c r="BT9" s="1"/>
+      <c r="BT9" s="1">
+        <f>round(100000*Testing!BT9/$B19,0)</f>
+        <v>1285</v>
+      </c>
+      <c r="BU9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -32576,7 +32861,11 @@
         <f>round(100000*Testing!BS10/$B20,0)</f>
         <v>2664</v>
       </c>
-      <c r="BT10" s="1"/>
+      <c r="BT10" s="1">
+        <f>round(100000*Testing!BT10/$B20,0)</f>
+        <v>2762</v>
+      </c>
+      <c r="BU10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -32862,7 +33151,11 @@
         <f>round(100000*Testing!BS11/$B21,0)</f>
         <v>1775</v>
       </c>
-      <c r="BT11" s="1"/>
+      <c r="BT11" s="1">
+        <f>round(100000*Testing!BT11/$B21,0)</f>
+        <v>1841</v>
+      </c>
+      <c r="BU11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1">
@@ -33938,7 +34231,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="72" width="8.88"/>
+    <col customWidth="1" min="46" max="73" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -34150,7 +34443,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -34158,8 +34451,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -34333,6 +34630,7 @@
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
       <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -34548,7 +34846,10 @@
       <c r="BS3" s="3">
         <v>1.0</v>
       </c>
-      <c r="BT3" s="3"/>
+      <c r="BT3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="BU3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -34764,7 +35065,10 @@
       <c r="BS4" s="3">
         <v>1.0</v>
       </c>
-      <c r="BT4" s="3"/>
+      <c r="BT4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="BU4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -34980,7 +35284,10 @@
       <c r="BS5" s="3">
         <v>0.0</v>
       </c>
-      <c r="BT5" s="3"/>
+      <c r="BT5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="BU5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -35196,7 +35503,10 @@
       <c r="BS6" s="3">
         <v>3.0</v>
       </c>
-      <c r="BT6" s="3"/>
+      <c r="BT6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BU6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -35412,7 +35722,10 @@
       <c r="BS7" s="3">
         <v>95.0</v>
       </c>
-      <c r="BT7" s="3"/>
+      <c r="BT7" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="BU7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -35628,7 +35941,10 @@
       <c r="BS8" s="3">
         <v>9.0</v>
       </c>
-      <c r="BT8" s="3"/>
+      <c r="BT8" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="BU8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -35844,7 +36160,10 @@
       <c r="BS9" s="3">
         <v>55.0</v>
       </c>
-      <c r="BT9" s="3"/>
+      <c r="BT9" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="BU9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -36060,7 +36379,10 @@
       <c r="BS10" s="3">
         <v>651.0</v>
       </c>
-      <c r="BT10" s="3"/>
+      <c r="BT10" s="3">
+        <v>704.0</v>
+      </c>
+      <c r="BU10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -36276,7 +36598,10 @@
       <c r="BS11" s="3">
         <v>33.0</v>
       </c>
-      <c r="BT11" s="3"/>
+      <c r="BT11" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="BU11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -37293,7 +37618,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="45" width="7.63"/>
-    <col customWidth="1" min="46" max="72" width="8.88"/>
+    <col customWidth="1" min="46" max="73" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -37505,7 +37830,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -37513,8 +37838,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -37688,6 +38017,7 @@
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
       <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -37903,7 +38233,10 @@
       <c r="BS3" s="3">
         <v>33.0</v>
       </c>
-      <c r="BT3" s="3"/>
+      <c r="BT3" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="BU3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -38119,7 +38452,10 @@
       <c r="BS4" s="3">
         <v>59.0</v>
       </c>
-      <c r="BT4" s="3"/>
+      <c r="BT4" s="3">
+        <v>73.0</v>
+      </c>
+      <c r="BU4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -38335,7 +38671,10 @@
       <c r="BS5" s="3">
         <v>86.0</v>
       </c>
-      <c r="BT5" s="3"/>
+      <c r="BT5" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="BU5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -38551,7 +38890,10 @@
       <c r="BS6" s="3">
         <v>146.0</v>
       </c>
-      <c r="BT6" s="3"/>
+      <c r="BT6" s="3">
+        <v>149.0</v>
+      </c>
+      <c r="BU6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -38767,7 +39109,10 @@
       <c r="BS7" s="3">
         <v>2460.0</v>
       </c>
-      <c r="BT7" s="3"/>
+      <c r="BT7" s="3">
+        <v>2460.0</v>
+      </c>
+      <c r="BU7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -38983,7 +39328,10 @@
       <c r="BS8" s="3">
         <v>128.0</v>
       </c>
-      <c r="BT8" s="3"/>
+      <c r="BT8" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="BU8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -39199,7 +39547,10 @@
       <c r="BS9" s="3">
         <v>1260.0</v>
       </c>
-      <c r="BT9" s="3"/>
+      <c r="BT9" s="3">
+        <v>1378.0</v>
+      </c>
+      <c r="BU9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -39415,7 +39766,10 @@
       <c r="BS10" s="3">
         <v>14917.0</v>
       </c>
-      <c r="BT10" s="3"/>
+      <c r="BT10" s="3">
+        <v>16433.0</v>
+      </c>
+      <c r="BU10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -39631,7 +39985,10 @@
       <c r="BS11" s="3">
         <v>2222.0</v>
       </c>
-      <c r="BT11" s="3"/>
+      <c r="BT11" s="3">
+        <v>2344.0</v>
+      </c>
+      <c r="BU11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -40648,7 +41005,7 @@
     <col customWidth="1" min="7" max="15" width="7.13"/>
     <col customWidth="1" min="16" max="36" width="8.0"/>
     <col customWidth="1" min="37" max="43" width="7.63"/>
-    <col customWidth="1" min="44" max="72" width="9.88"/>
+    <col customWidth="1" min="44" max="73" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -40860,7 +41217,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -40868,8 +41225,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -41041,6 +41402,7 @@
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
       <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
     </row>
     <row r="3" ht="14.25" hidden="1" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -41294,6 +41656,7 @@
       <c r="BR3" s="12"/>
       <c r="BS3" s="12"/>
       <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -41578,7 +41941,11 @@
         <f>(Recoveries!BS3-Recoveries!BR3)-(Deaths!BS3-Deaths!BR3)</f>
         <v>0</v>
       </c>
-      <c r="BT4" s="3"/>
+      <c r="BT4" s="1">
+        <f>(Recoveries!BT3-Recoveries!BS3)-(Deaths!BT3-Deaths!BS3)</f>
+        <v>1</v>
+      </c>
+      <c r="BU4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -41863,7 +42230,11 @@
         <f>(Recoveries!BS4-Recoveries!BR4)-(Deaths!BS4-Deaths!BR4)</f>
         <v>0</v>
       </c>
-      <c r="BT5" s="3"/>
+      <c r="BT5" s="1">
+        <f>(Recoveries!BT4-Recoveries!BS4)-(Deaths!BT4-Deaths!BS4)</f>
+        <v>14</v>
+      </c>
+      <c r="BU5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -42148,7 +42519,11 @@
         <f>(Recoveries!BS5-Recoveries!BR5)-(Deaths!BS5-Deaths!BR5)</f>
         <v>0</v>
       </c>
-      <c r="BT6" s="3"/>
+      <c r="BT6" s="1">
+        <f>(Recoveries!BT5-Recoveries!BS5)-(Deaths!BT5-Deaths!BS5)</f>
+        <v>8</v>
+      </c>
+      <c r="BU6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -42433,7 +42808,11 @@
         <f>(Recoveries!BS6-Recoveries!BR6)-(Deaths!BS6-Deaths!BR6)</f>
         <v>1</v>
       </c>
-      <c r="BT7" s="3"/>
+      <c r="BT7" s="1">
+        <f>(Recoveries!BT6-Recoveries!BS6)-(Deaths!BT6-Deaths!BS6)</f>
+        <v>3</v>
+      </c>
+      <c r="BU7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -42718,7 +43097,11 @@
         <f>(Recoveries!BS7-Recoveries!BR7)-(Deaths!BS7-Deaths!BR7)</f>
         <v>337</v>
       </c>
-      <c r="BT8" s="3"/>
+      <c r="BT8" s="1">
+        <f>(Recoveries!BT7-Recoveries!BS7)-(Deaths!BT7-Deaths!BS7)</f>
+        <v>0</v>
+      </c>
+      <c r="BU8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -43003,7 +43386,11 @@
         <f>(Recoveries!BS8-Recoveries!BR8)-(Deaths!BS8-Deaths!BR8)</f>
         <v>4</v>
       </c>
-      <c r="BT9" s="3"/>
+      <c r="BT9" s="1">
+        <f>(Recoveries!BT8-Recoveries!BS8)-(Deaths!BT8-Deaths!BS8)</f>
+        <v>-5</v>
+      </c>
+      <c r="BU9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -43288,7 +43675,11 @@
         <f>(Recoveries!BS9-Recoveries!BR9)-(Deaths!BS9-Deaths!BR9)</f>
         <v>11</v>
       </c>
-      <c r="BT10" s="3"/>
+      <c r="BT10" s="1">
+        <f>(Recoveries!BT9-Recoveries!BS9)-(Deaths!BT9-Deaths!BS9)</f>
+        <v>118</v>
+      </c>
+      <c r="BU10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -43573,7 +43964,11 @@
         <f>(Recoveries!BS10-Recoveries!BR10)-(Deaths!BS10-Deaths!BR10)</f>
         <v>1167</v>
       </c>
-      <c r="BT11" s="3"/>
+      <c r="BT11" s="1">
+        <f>(Recoveries!BT10-Recoveries!BS10)-(Deaths!BT10-Deaths!BS10)</f>
+        <v>1463</v>
+      </c>
+      <c r="BU11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -43858,7 +44253,11 @@
         <f>(Recoveries!BS11-Recoveries!BR11)-(Deaths!BS11-Deaths!BR11)</f>
         <v>53</v>
       </c>
-      <c r="BT12" s="3"/>
+      <c r="BT12" s="1">
+        <f>(Recoveries!BT11-Recoveries!BS11)-(Deaths!BT11-Deaths!BS11)</f>
+        <v>115</v>
+      </c>
+      <c r="BU12" s="3"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -44876,7 +45275,7 @@
     <col customWidth="1" min="16" max="36" width="8.25"/>
     <col customWidth="1" min="37" max="45" width="7.88"/>
     <col customWidth="1" min="46" max="67" width="8.88"/>
-    <col customWidth="1" min="68" max="72" width="7.25"/>
+    <col customWidth="1" min="68" max="73" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -45088,7 +45487,7 @@
         <v>43984.0</v>
       </c>
       <c r="BR1" s="2">
-        <f t="shared" ref="BR1:BS1" si="1">BQ1+1</f>
+        <f t="shared" ref="BR1:BT1" si="1">BQ1+1</f>
         <v>43985</v>
       </c>
       <c r="BS1" s="2">
@@ -45096,8 +45495,12 @@
         <v>43986</v>
       </c>
       <c r="BT1" s="2">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
+      <c r="BU1" s="2">
         <f>today()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -45312,8 +45715,9 @@
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
-      <c r="BT2" s="1">
-        <f>Confirmed!BT2-Deaths!AX2-Recoveries!AX2</f>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1">
+        <f>Confirmed!BU2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
     </row>
@@ -45322,7 +45726,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="13">
-        <f t="shared" ref="B3:BT3" si="2">sum(B4:B12)</f>
+        <f t="shared" ref="B3:BU3" si="2">sum(B4:B12)</f>
         <v>848</v>
       </c>
       <c r="C3" s="13">
@@ -45602,6 +46006,10 @@
         <v>18628</v>
       </c>
       <c r="BT3" s="13">
+        <f t="shared" si="2"/>
+        <v>19433</v>
+      </c>
+      <c r="BU3" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -45890,7 +46298,11 @@
         <f>Confirmed!BS3-Deaths!BS3-Recoveries!BS3</f>
         <v>61</v>
       </c>
-      <c r="BT4" s="1"/>
+      <c r="BT4" s="1">
+        <f>Confirmed!BT3-Deaths!BT3-Recoveries!BT3</f>
+        <v>67</v>
+      </c>
+      <c r="BU4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -46176,7 +46588,11 @@
         <f>Confirmed!BS4-Deaths!BS4-Recoveries!BS4</f>
         <v>304</v>
       </c>
-      <c r="BT5" s="1"/>
+      <c r="BT5" s="1">
+        <f>Confirmed!BT4-Deaths!BT4-Recoveries!BT4</f>
+        <v>335</v>
+      </c>
+      <c r="BU5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -46462,7 +46878,11 @@
         <f>Confirmed!BS5-Deaths!BS5-Recoveries!BS5</f>
         <v>58</v>
       </c>
-      <c r="BT6" s="1"/>
+      <c r="BT6" s="1">
+        <f>Confirmed!BT5-Deaths!BT5-Recoveries!BT5</f>
+        <v>75</v>
+      </c>
+      <c r="BU6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -46748,7 +47168,11 @@
         <f>Confirmed!BS6-Deaths!BS6-Recoveries!BS6</f>
         <v>57</v>
       </c>
-      <c r="BT7" s="1"/>
+      <c r="BT7" s="1">
+        <f>Confirmed!BT6-Deaths!BT6-Recoveries!BT6</f>
+        <v>63</v>
+      </c>
+      <c r="BU7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -47034,7 +47458,11 @@
         <f>Confirmed!BS7-Deaths!BS7-Recoveries!BS7</f>
         <v>2381</v>
       </c>
-      <c r="BT8" s="1"/>
+      <c r="BT8" s="1">
+        <f>Confirmed!BT7-Deaths!BT7-Recoveries!BT7</f>
+        <v>2685</v>
+      </c>
+      <c r="BU8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -47320,7 +47748,11 @@
         <f>Confirmed!BS8-Deaths!BS8-Recoveries!BS8</f>
         <v>185</v>
       </c>
-      <c r="BT9" s="1"/>
+      <c r="BT9" s="1">
+        <f>Confirmed!BT8-Deaths!BT8-Recoveries!BT8</f>
+        <v>204</v>
+      </c>
+      <c r="BU9" s="1"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -47606,7 +48038,11 @@
         <f>Confirmed!BS9-Deaths!BS9-Recoveries!BS9</f>
         <v>1554</v>
       </c>
-      <c r="BT10" s="1"/>
+      <c r="BT10" s="1">
+        <f>Confirmed!BT9-Deaths!BT9-Recoveries!BT9</f>
+        <v>1503</v>
+      </c>
+      <c r="BU10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -47892,7 +48328,11 @@
         <f>Confirmed!BS10-Deaths!BS10-Recoveries!BS10</f>
         <v>11438</v>
       </c>
-      <c r="BT11" s="1"/>
+      <c r="BT11" s="1">
+        <f>Confirmed!BT10-Deaths!BT10-Recoveries!BT10</f>
+        <v>11670</v>
+      </c>
+      <c r="BU11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -48178,7 +48618,11 @@
         <f>Confirmed!BS11-Deaths!BS11-Recoveries!BS11</f>
         <v>2590</v>
       </c>
-      <c r="BT12" s="1"/>
+      <c r="BT12" s="1">
+        <f>Confirmed!BT11-Deaths!BT11-Recoveries!BT11</f>
+        <v>2831</v>
+      </c>
+      <c r="BU12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -49639,7 +50083,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1">
-        <f>Confirmed!BT2-Deaths!AX2-Recoveries!AX2</f>
+        <f>Confirmed!BU2-Deaths!AX2-Recoveries!AX2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1"/>

--- a/Data/Covid2019/SA_data_archive/Province_database.xlsx
+++ b/Data/Covid2019/SA_data_archive/Province_database.xlsx
@@ -15,7 +15,7 @@
     <sheet state="visible" name="Closed" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="Recovery Rate" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="Death Rate" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Infection Rate" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="Positivity Rate" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -818,11 +818,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1066188317"/>
-        <c:axId val="1276226511"/>
+        <c:axId val="623804385"/>
+        <c:axId val="766335223"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1066188317"/>
+        <c:axId val="623804385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,6 +850,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -867,10 +868,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1276226511"/>
+        <c:crossAx val="766335223"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1276226511"/>
+        <c:axId val="766335223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +940,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1066188317"/>
+        <c:crossAx val="623804385"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1200,11 +1201,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1406877495"/>
-        <c:axId val="1267460300"/>
+        <c:axId val="983174185"/>
+        <c:axId val="1351377379"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1406877495"/>
+        <c:axId val="983174185"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,6 +1233,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -1249,10 +1251,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267460300"/>
+        <c:crossAx val="1351377379"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1267460300"/>
+        <c:axId val="1351377379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1323,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406877495"/>
+        <c:crossAx val="983174185"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1365,7 +1367,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Infection Rate (National is the average based on provincial population - Stats Sa 2019)</a:t>
+              <a:t>Positivity Rate (National is the average based on provincial population - Stats Sa 2019)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1382,7 +1384,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$2</c:f>
+              <c:f>'Positivity Rate'!$A$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1392,18 +1394,18 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$2:$CB$2</c:f>
+              <c:f>'Positivity Rate'!$B$2:$CB$2</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="276209895"/>
-        <c:axId val="1901420795"/>
+        <c:axId val="2098011608"/>
+        <c:axId val="162245870"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -1411,7 +1413,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$3</c:f>
+              <c:f>'Positivity Rate'!$A$3</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1419,12 +1421,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$3:$CB$3</c:f>
+              <c:f>'Positivity Rate'!$B$3:$CB$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1434,7 +1436,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$4</c:f>
+              <c:f>'Positivity Rate'!$A$4</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1442,12 +1444,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$4:$CB$4</c:f>
+              <c:f>'Positivity Rate'!$B$4:$CB$4</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1457,7 +1459,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$5</c:f>
+              <c:f>'Positivity Rate'!$A$5</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1465,12 +1467,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$5:$CB$5</c:f>
+              <c:f>'Positivity Rate'!$B$5:$CB$5</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1480,7 +1482,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$6</c:f>
+              <c:f>'Positivity Rate'!$A$6</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1488,12 +1490,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$6:$CB$6</c:f>
+              <c:f>'Positivity Rate'!$B$6:$CB$6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1503,7 +1505,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$7</c:f>
+              <c:f>'Positivity Rate'!$A$7</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1511,12 +1513,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$7:$CB$7</c:f>
+              <c:f>'Positivity Rate'!$B$7:$CB$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1526,7 +1528,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$8</c:f>
+              <c:f>'Positivity Rate'!$A$8</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1534,12 +1536,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$8:$CB$8</c:f>
+              <c:f>'Positivity Rate'!$B$8:$CB$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1549,7 +1551,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$9</c:f>
+              <c:f>'Positivity Rate'!$A$9</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1557,12 +1559,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$9:$CB$9</c:f>
+              <c:f>'Positivity Rate'!$B$9:$CB$9</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1572,7 +1574,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$10</c:f>
+              <c:f>'Positivity Rate'!$A$10</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1580,12 +1582,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$10:$CB$10</c:f>
+              <c:f>'Positivity Rate'!$B$10:$CB$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1595,7 +1597,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Infection Rate'!$A$11</c:f>
+              <c:f>'Positivity Rate'!$A$11</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -1603,21 +1605,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Infection Rate'!$B$1:$CB$1</c:f>
+              <c:f>'Positivity Rate'!$B$1:$CB$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Infection Rate'!$B$11:$CB$11</c:f>
+              <c:f>'Positivity Rate'!$B$11:$CB$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="276209895"/>
-        <c:axId val="1901420795"/>
+        <c:axId val="2098011608"/>
+        <c:axId val="162245870"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276209895"/>
+        <c:axId val="2098011608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,6 +1647,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -1662,10 +1665,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901420795"/>
+        <c:crossAx val="162245870"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1901420795"/>
+        <c:axId val="162245870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1737,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276209895"/>
+        <c:crossAx val="2098011608"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2032,11 +2035,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="776312066"/>
-        <c:axId val="229110155"/>
+        <c:axId val="2009817716"/>
+        <c:axId val="1677602718"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="776312066"/>
+        <c:axId val="2009817716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,6 +2067,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -2081,10 +2085,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229110155"/>
+        <c:crossAx val="1677602718"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229110155"/>
+        <c:axId val="1677602718"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,7 +2157,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776312066"/>
+        <c:crossAx val="2009817716"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2470,11 +2474,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="886010224"/>
-        <c:axId val="534555831"/>
+        <c:axId val="1558855073"/>
+        <c:axId val="825106918"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="886010224"/>
+        <c:axId val="1558855073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,6 +2506,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -2519,10 +2524,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534555831"/>
+        <c:crossAx val="825106918"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="534555831"/>
+        <c:axId val="825106918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886010224"/>
+        <c:crossAx val="1558855073"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2672,8 +2677,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1498251758"/>
-        <c:axId val="382784017"/>
+        <c:axId val="549202746"/>
+        <c:axId val="1926553242"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -2883,11 +2888,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1498251758"/>
-        <c:axId val="382784017"/>
+        <c:axId val="549202746"/>
+        <c:axId val="1926553242"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1498251758"/>
+        <c:axId val="549202746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,6 +2920,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -2932,10 +2938,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382784017"/>
+        <c:crossAx val="1926553242"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382784017"/>
+        <c:axId val="1926553242"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3010,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1498251758"/>
+        <c:crossAx val="549202746"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3085,8 +3091,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2010240791"/>
-        <c:axId val="1985609309"/>
+        <c:axId val="983099281"/>
+        <c:axId val="1034919517"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3296,11 +3302,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2010240791"/>
-        <c:axId val="1985609309"/>
+        <c:axId val="983099281"/>
+        <c:axId val="1034919517"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2010240791"/>
+        <c:axId val="983099281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,6 +3334,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -3345,10 +3352,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1985609309"/>
+        <c:crossAx val="1034919517"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1985609309"/>
+        <c:axId val="1034919517"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,7 +3424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2010240791"/>
+        <c:crossAx val="983099281"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3506,8 +3513,8 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1676428533"/>
-        <c:axId val="1503626248"/>
+        <c:axId val="1733491944"/>
+        <c:axId val="525109247"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3717,11 +3724,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1676428533"/>
-        <c:axId val="1503626248"/>
+        <c:axId val="1733491944"/>
+        <c:axId val="525109247"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1676428533"/>
+        <c:axId val="1733491944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,6 +3756,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -3766,10 +3774,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503626248"/>
+        <c:crossAx val="525109247"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1503626248"/>
+        <c:axId val="525109247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,7 +3846,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676428533"/>
+        <c:crossAx val="1733491944"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3907,6 +3915,7 @@
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -3961,6 +3970,7 @@
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -3988,11 +3998,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1685292552"/>
-        <c:axId val="951809983"/>
+        <c:axId val="1007624151"/>
+        <c:axId val="310143606"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685292552"/>
+        <c:axId val="1007624151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4020,6 +4030,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -4037,10 +4048,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="951809983"/>
+        <c:crossAx val="310143606"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="951809983"/>
+        <c:axId val="310143606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,7 +4120,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685292552"/>
+        <c:crossAx val="1007624151"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4178,6 +4189,7 @@
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4219,6 +4231,7 @@
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4260,6 +4273,7 @@
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4301,6 +4315,7 @@
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4328,11 +4343,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1122316642"/>
-        <c:axId val="1174292035"/>
+        <c:axId val="1898074433"/>
+        <c:axId val="1685616125"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1122316642"/>
+        <c:axId val="1898074433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4360,6 +4375,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -4377,10 +4393,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174292035"/>
+        <c:crossAx val="1685616125"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1174292035"/>
+        <c:axId val="1685616125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4449,7 +4465,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122316642"/>
+        <c:crossAx val="1898074433"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4710,11 +4726,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="866222389"/>
-        <c:axId val="1174278739"/>
+        <c:axId val="1129433965"/>
+        <c:axId val="2016187129"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="866222389"/>
+        <c:axId val="1129433965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4742,6 +4758,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
@@ -4759,10 +4776,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174278739"/>
+        <c:crossAx val="2016187129"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1174278739"/>
+        <c:axId val="2016187129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,7 +4848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="866222389"/>
+        <c:crossAx val="1129433965"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -5125,7 +5142,7 @@
     <xdr:ext cx="4229100" cy="5829300"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5155,7 +5172,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
+        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5662,7 +5679,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -13249,7 +13266,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -17607,7 +17624,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -21955,7 +21972,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -26303,7 +26320,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -31033,7 +31050,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -36120,7 +36137,7 @@
       </c>
       <c r="CB1" s="2">
         <f>TODAY()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -40542,7 +40559,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -44153,7 +44170,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -47764,7 +47781,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
@@ -52221,7 +52238,7 @@
       </c>
       <c r="CB1" s="2">
         <f>today()</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="2" ht="14.25" hidden="1" customHeight="1">
